--- a/Airfoil Database/list_airfoils.xlsx
+++ b/Airfoil Database/list_airfoils.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/hlee981_gatech_edu/Documents/Desktop/Airfoil Database/Paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlee981\OneDrive - Georgia Institute of Technology\Desktop\Airfoil Database\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{12632ECB-33DC-4A31-93CF-A52AA0C9C6CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{4AD7A1D0-869D-41B0-8F62-9EB5DC8CE45D}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="8_{12632ECB-33DC-4A31-93CF-A52AA0C9C6CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{77345045-262B-4FFF-9C97-BE45873D496E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2145" windowHeight="0" xr2:uid="{93C099FC-639E-4F92-AB96-B77E1C5407CC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2150" windowHeight="0" xr2:uid="{93C099FC-639E-4F92-AB96-B77E1C5407CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="149">
   <si>
     <t>Airfoil</t>
   </si>
@@ -460,7 +459,31 @@
     <t>SSC-A07</t>
   </si>
   <si>
-    <t>SSC-B08</t>
+    <t>2e6 - 4e6</t>
+  </si>
+  <si>
+    <t>1e6 - 2e6</t>
+  </si>
+  <si>
+    <t>1. Fixed transition</t>
+  </si>
+  <si>
+    <t>SSC-A08</t>
+  </si>
+  <si>
+    <t>Need to do</t>
+  </si>
+  <si>
+    <t>SKF 1.1</t>
+  </si>
+  <si>
+    <t>1. Experiment is w/ Maneuver flap, only baseline is digitized</t>
+  </si>
+  <si>
+    <t>2.2e6, 7e6</t>
+  </si>
+  <si>
+    <t>2.5, 5.0</t>
   </si>
 </sst>
 </file>
@@ -562,7 +585,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -661,6 +684,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -765,8 +797,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D5888382-E306-4124-B037-F25DF94F2412}" name="Table2" displayName="Table2" ref="A1:N32" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:N32" xr:uid="{F6B5E2EE-9317-44B1-8CF3-4E0A2296C3E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D5888382-E306-4124-B037-F25DF94F2412}" name="Table2" displayName="Table2" ref="A1:N34" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:N34" xr:uid="{F6B5E2EE-9317-44B1-8CF3-4E0A2296C3E9}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{675A2719-A377-4BBD-8A71-F7E0420D4A22}" name="Airfoil" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{C62E5BD2-2CE3-4993-898C-4E64598D0B16}" name="A (deg)" dataDxfId="12"/>
@@ -1084,32 +1116,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4963D9-C860-49EC-92EF-EA8C9FAB7162}">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E29" sqref="E29"/>
+      <selection pane="topRight" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="16.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="46.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="16.54296875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.1796875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="46.1796875" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1188,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
@@ -1193,10 +1225,10 @@
       <c r="N2" s="15"/>
       <c r="P2" s="14">
         <f>SUM(G:G)</f>
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
@@ -1232,7 +1264,7 @@
       </c>
       <c r="N3" s="15"/>
     </row>
-    <row r="4" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
@@ -1270,7 +1302,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
@@ -1318,7 +1350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="31" t="s">
         <v>15</v>
       </c>
@@ -1360,7 +1392,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
         <v>23</v>
       </c>
@@ -1403,7 +1435,7 @@
         <v>1.0265523532247542</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="14" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>24</v>
       </c>
@@ -1441,7 +1473,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>24</v>
       </c>
@@ -1477,7 +1509,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="14" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="31" t="s">
         <v>25</v>
       </c>
@@ -1515,7 +1547,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>26</v>
       </c>
@@ -1553,7 +1585,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
@@ -1589,7 +1621,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>79</v>
       </c>
@@ -1625,7 +1657,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>29</v>
       </c>
@@ -1663,7 +1695,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>30</v>
       </c>
@@ -1699,7 +1731,7 @@
       </c>
       <c r="N15" s="15"/>
     </row>
-    <row r="16" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>31</v>
       </c>
@@ -1735,7 +1767,7 @@
       </c>
       <c r="N16" s="15"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>32</v>
       </c>
@@ -1771,7 +1803,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>33</v>
       </c>
@@ -1782,7 +1814,7 @@
         <v>68</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>69</v>
@@ -1809,7 +1841,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>66</v>
       </c>
@@ -1819,7 +1851,9 @@
       <c r="C19" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="11" t="s">
+        <v>141</v>
+      </c>
       <c r="E19" s="11" t="s">
         <v>70</v>
       </c>
@@ -1845,41 +1879,43 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="37">
         <v>6000000</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="38">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11" t="s">
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11" t="s">
+      <c r="I20" s="24"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="N20" s="15"/>
-    </row>
-    <row r="21" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>76</v>
       </c>
@@ -1915,7 +1951,7 @@
       </c>
       <c r="N21" s="15"/>
     </row>
-    <row r="22" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>80</v>
       </c>
@@ -1951,7 +1987,7 @@
       </c>
       <c r="N22" s="15"/>
     </row>
-    <row r="23" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>85</v>
       </c>
@@ -1987,7 +2023,7 @@
       </c>
       <c r="N23" s="25"/>
     </row>
-    <row r="24" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>90</v>
       </c>
@@ -2023,7 +2059,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>91</v>
       </c>
@@ -2059,7 +2095,7 @@
       </c>
       <c r="N25" s="15"/>
     </row>
-    <row r="26" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>96</v>
       </c>
@@ -2093,7 +2129,7 @@
       </c>
       <c r="N26" s="15"/>
     </row>
-    <row r="27" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>111</v>
       </c>
@@ -2129,7 +2165,7 @@
       </c>
       <c r="N27" s="15"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>114</v>
       </c>
@@ -2160,7 +2196,7 @@
       </c>
       <c r="N28" s="6"/>
     </row>
-    <row r="29" spans="1:14" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>116</v>
       </c>
@@ -2196,7 +2232,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>119</v>
       </c>
@@ -2232,7 +2268,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>123</v>
       </c>
@@ -2265,7 +2301,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>139</v>
       </c>
@@ -2301,9 +2337,54 @@
       </c>
       <c r="N32" s="15"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="30">
+        <v>0.76</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11">
+        <v>2</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="N34" s="15" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2563,20 +2644,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d624ff89-a3d8-48ad-8a73-6b7263eb58d2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d624ff89-a3d8-48ad-8a73-6b7263eb58d2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2599,26 +2680,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{643E2EEA-CCBB-4A59-A4B0-FBA954000719}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E361C660-8B5A-497A-AEA7-466AA4F145C4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d624ff89-a3d8-48ad-8a73-6b7263eb58d2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="caebe9e7-4d6b-4886-b893-b59babeb2752"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E361C660-8B5A-497A-AEA7-466AA4F145C4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{643E2EEA-CCBB-4A59-A4B0-FBA954000719}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="caebe9e7-4d6b-4886-b893-b59babeb2752"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="d624ff89-a3d8-48ad-8a73-6b7263eb58d2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Airfoil Database/list_airfoils.xlsx
+++ b/Airfoil Database/list_airfoils.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlee981\OneDrive - Georgia Institute of Technology\Desktop\Airfoil Database\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="8_{12632ECB-33DC-4A31-93CF-A52AA0C9C6CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{77345045-262B-4FFF-9C97-BE45873D496E}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="8_{12632ECB-33DC-4A31-93CF-A52AA0C9C6CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{56873D13-C392-49B4-9F81-528CBDA55222}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="2150" windowHeight="0" xr2:uid="{93C099FC-639E-4F92-AB96-B77E1C5407CC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="159">
   <si>
     <t>Airfoil</t>
   </si>
@@ -258,9 +258,6 @@
     <t>0.6 - 0.8</t>
   </si>
   <si>
-    <t>Coordinates</t>
-  </si>
-  <si>
     <t>NLR 7301</t>
   </si>
   <si>
@@ -468,12 +465,6 @@
     <t>1. Fixed transition</t>
   </si>
   <si>
-    <t>SSC-A08</t>
-  </si>
-  <si>
-    <t>Need to do</t>
-  </si>
-  <si>
     <t>SKF 1.1</t>
   </si>
   <si>
@@ -484,13 +475,52 @@
   </si>
   <si>
     <t>2.5, 5.0</t>
+  </si>
+  <si>
+    <t>SSC-B08</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Ongoing work by Aaditya</t>
+  </si>
+  <si>
+    <t>NASA SC(3)-0712(B)</t>
+  </si>
+  <si>
+    <t>NASA TM-86370</t>
+  </si>
+  <si>
+    <t>Need to look into this</t>
+  </si>
+  <si>
+    <t>0.5 - 0.8</t>
+  </si>
+  <si>
+    <t>4.4e6, 7e6</t>
+  </si>
+  <si>
+    <t>DU 91-W2-250</t>
+  </si>
+  <si>
+    <t>6.7, 9.2, 15.2</t>
+  </si>
+  <si>
+    <t>Timmer and van Rooij</t>
+  </si>
+  <si>
+    <t>DU 97-W-300</t>
+  </si>
+  <si>
+    <t>-1.0, 9.3, 12.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,13 +536,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,8 +544,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -530,27 +575,63 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,6 +641,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -581,130 +667,156 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+      </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -718,7 +830,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -737,7 +849,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -746,38 +858,115 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -797,23 +986,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D5888382-E306-4124-B037-F25DF94F2412}" name="Table2" displayName="Table2" ref="A1:N34" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:N34" xr:uid="{F6B5E2EE-9317-44B1-8CF3-4E0A2296C3E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D5888382-E306-4124-B037-F25DF94F2412}" name="Table2" displayName="Table2" ref="A1:N37" totalsRowShown="0" headerRowDxfId="15" dataDxfId="0">
+  <autoFilter ref="A1:N37" xr:uid="{F6B5E2EE-9317-44B1-8CF3-4E0A2296C3E9}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{675A2719-A377-4BBD-8A71-F7E0420D4A22}" name="Airfoil" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{C62E5BD2-2CE3-4993-898C-4E64598D0B16}" name="A (deg)" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{20D7696A-1B30-4CD5-B965-B5DA556F9F7C}" name="M (1)" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{70426462-0AA8-450B-AA8D-5F900960DC3A}" name="Re (1)" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{9E6F3230-3339-47EA-AA7F-2E3CB0B75371}" name="Reported accuracy" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{61ADDCB5-D7D6-4B6A-B3F5-45A61F4388B0}" name="Assumed error" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{1D3C393F-A5C7-4717-BB13-9D3B641D5D96}" name="Number of Cases" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{3F41E4C8-0F28-453E-BED6-8353701B4A6C}" name="Source" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{2621F62C-47FC-44AF-BB00-1E6F92D693F4}" name="Coordinates" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{27F1B5AB-10DA-4C33-AD82-6BD6BE8F94AA}" name="Converted" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{DCB1AE7C-BD9F-4F78-AA32-5D14CAE6148F}" name="Usage" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{E0685360-ECF9-4C2B-A4CB-C95C6FD7C2E1}" name="Supercritical" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{A70520DF-8A54-442B-99F6-6B3D9B3B3280}" name="Symmetry" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{D2962244-B74D-4927-907F-81377206E188}" name="Notes" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{675A2719-A377-4BBD-8A71-F7E0420D4A22}" name="Airfoil" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{C62E5BD2-2CE3-4993-898C-4E64598D0B16}" name="A (deg)" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{20D7696A-1B30-4CD5-B965-B5DA556F9F7C}" name="M (1)" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{70426462-0AA8-450B-AA8D-5F900960DC3A}" name="Re (1)" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{9E6F3230-3339-47EA-AA7F-2E3CB0B75371}" name="Reported accuracy" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{61ADDCB5-D7D6-4B6A-B3F5-45A61F4388B0}" name="Assumed error" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{1D3C393F-A5C7-4717-BB13-9D3B641D5D96}" name="Number of Cases" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{3F41E4C8-0F28-453E-BED6-8353701B4A6C}" name="Source" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{2621F62C-47FC-44AF-BB00-1E6F92D693F4}" name="Completed" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{27F1B5AB-10DA-4C33-AD82-6BD6BE8F94AA}" name="Converted" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{DCB1AE7C-BD9F-4F78-AA32-5D14CAE6148F}" name="Usage" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{E0685360-ECF9-4C2B-A4CB-C95C6FD7C2E1}" name="Supercritical" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{A70520DF-8A54-442B-99F6-6B3D9B3B3280}" name="Symmetry" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{D2962244-B74D-4927-907F-81377206E188}" name="Notes" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1116,11 +1305,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4963D9-C860-49EC-92EF-EA8C9FAB7162}">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G41" sqref="G41"/>
+      <selection pane="topRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1167,19 +1356,19 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>6</v>
@@ -1188,1204 +1377,1350 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:19" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="9">
         <v>1000000</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="10">
         <v>0.01</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7">
         <v>288</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="N2" s="15"/>
-      <c r="P2" s="14">
+      <c r="I2" s="11"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="P2" s="3">
         <f>SUM(G:G)</f>
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="9">
         <v>1000000</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="10">
         <v>0.01</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7">
         <v>200</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="N3" s="15"/>
-    </row>
-    <row r="4" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="N3" s="13"/>
+    </row>
+    <row r="4" spans="1:19" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="9">
         <v>1000000</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="10">
         <v>0.01</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7">
         <v>215</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="9">
         <v>1000000</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="10">
         <v>0.01</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7">
         <v>206</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="N5" s="15"/>
-      <c r="P5" s="14" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N5" s="13"/>
+      <c r="P5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="3">
         <v>0.127</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:19" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="14">
         <v>0.12</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="9">
         <v>1460000</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="15">
         <v>0.02</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7">
         <v>8</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="N6" s="15"/>
-      <c r="P6" s="14" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N6" s="13"/>
+      <c r="P6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="4">
         <v>3000000</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:19" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="14">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="9">
         <v>1600000</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11">
+      <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7">
         <v>9</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="N7" s="15"/>
-      <c r="P7" s="14" t="s">
+      <c r="I7" s="11"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="P7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Q7" s="27">
+      <c r="Q7" s="6">
         <f>(Q6/S5*0.0000181)/(1.225*Q5)/340</f>
         <v>1.0265523532247542</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="14" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:19" s="3" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="16">
         <v>0.05</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="9">
         <v>3100000</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="14">
         <v>0.03</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7">
         <v>152</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11" t="s">
+      <c r="I8" s="11"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="3" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2200000</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1.44E-2</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7">
+        <v>3</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="N10" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="L8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="11" t="s">
+    </row>
+    <row r="11" spans="1:19" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0.17</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7">
+        <v>6</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="N11" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D12" s="24">
+        <v>100000</v>
+      </c>
+      <c r="E12" s="25">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19">
+        <v>4</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="31" x14ac:dyDescent="0.35">
+      <c r="A13" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="23">
+        <v>0.06</v>
+      </c>
+      <c r="D13" s="24">
+        <v>420000</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19">
+        <v>4</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="20"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="D14" s="9">
+        <v>3000000</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7">
+        <v>3</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7">
+        <v>4</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N15" s="13"/>
+    </row>
+    <row r="16" spans="1:19" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7">
+        <v>4</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N16" s="13"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19">
+        <v>12</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="20"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="N17" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7">
+        <v>12</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7">
+        <v>10</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="24">
+        <v>6000000</v>
+      </c>
+      <c r="E20" s="28">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="N20" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="9">
+        <v>2000000</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7">
+        <v>16</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N21" s="13"/>
+    </row>
+    <row r="22" spans="1:14" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19">
+        <v>9</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="N22" s="27"/>
+    </row>
+    <row r="23" spans="1:14" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="29">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19">
+        <v>16</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="20"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="N23" s="27"/>
+    </row>
+    <row r="24" spans="1:14" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="30" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="33">
-        <v>0.05</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="K9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="1" t="s">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7">
+        <v>21</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7">
+        <v>13</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N25" s="13"/>
+    </row>
+    <row r="26" spans="1:14" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I26" s="20"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N26" s="13"/>
+    </row>
+    <row r="27" spans="1:14" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="9">
+        <v>3000000</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7">
+        <v>66</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="20"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="N9" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="14" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="23">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D10" s="12">
-        <v>2200000</v>
-      </c>
-      <c r="E10" s="30">
-        <v>1.44E-2</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11">
+      <c r="N27" s="13"/>
+    </row>
+    <row r="28" spans="1:14" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N28" s="13"/>
+    </row>
+    <row r="29" spans="1:14" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="9">
+        <v>2000000</v>
+      </c>
+      <c r="E29" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7">
+        <v>7</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N29" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="9">
+        <v>4400000</v>
+      </c>
+      <c r="E30" s="33">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I31" s="20"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7">
+        <v>17</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N32" s="13"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I33" s="35"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="N33" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="22">
+        <v>0.76</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7">
+        <v>2</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I35" s="36"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="37">
+        <v>0.22</v>
+      </c>
+      <c r="D36" s="9">
+        <v>3000000</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7">
         <v>3</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="23">
-        <v>0.17</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11">
-        <v>6</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="D12" s="2">
-        <v>100000</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1.6E-2</v>
-      </c>
-      <c r="G12" s="1">
-        <v>4</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="K12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="D13" s="2">
-        <v>420000</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="1">
-        <v>4</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="K13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N13" s="7" t="s">
+      <c r="H36" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" s="7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="11">
-        <v>0.16</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="N36" s="7"/>
+    </row>
+    <row r="37" spans="1:14" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="22">
+        <v>0.22</v>
+      </c>
+      <c r="D37" s="9">
         <v>3000000</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11">
+      <c r="E37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7">
         <v>3</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11">
-        <v>4</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="N15" s="15"/>
-    </row>
-    <row r="16" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11">
-        <v>4</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="N16" s="15"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="G17" s="1">
-        <v>12</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="K17" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11">
-        <v>12</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="N18" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="11">
-        <v>0</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11">
-        <v>10</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="N19" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="37">
-        <v>6000000</v>
-      </c>
-      <c r="E20" s="38">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="M20" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="N20" s="25" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="12">
-        <v>2000000</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11">
-        <v>16</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="N21" s="15"/>
-    </row>
-    <row r="22" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11">
-        <v>9</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="N22" s="15"/>
-    </row>
-    <row r="23" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="32">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22">
-        <v>16</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="L23" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="M23" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="N23" s="25"/>
-    </row>
-    <row r="24" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11">
-        <v>21</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="N24" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11">
-        <v>13</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L25" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="N25" s="15"/>
-    </row>
-    <row r="26" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L26" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="N26" s="15"/>
-    </row>
-    <row r="27" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="12">
-        <v>3000000</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11">
-        <v>66</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L27" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="N27" s="15"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="I28" s="8"/>
-      <c r="K28" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="N28" s="6"/>
-    </row>
-    <row r="29" spans="1:14" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="D29" s="12">
-        <v>2000000</v>
-      </c>
-      <c r="E29" s="23">
-        <v>0.03</v>
-      </c>
-      <c r="G29" s="11">
-        <v>7</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="I29" s="13"/>
-      <c r="K29" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="N29" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="12">
-        <v>4400000</v>
-      </c>
-      <c r="E30" s="18">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="N30" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="I31" s="8"/>
-      <c r="K31" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L31" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="N31" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11">
-        <v>17</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M32" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="N32" s="15"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="N33" s="6"/>
-    </row>
-    <row r="34" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="C34" s="30">
-        <v>0.76</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="E34" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11">
-        <v>2</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="M34" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="N34" s="15" t="s">
-        <v>146</v>
-      </c>
+      <c r="H37" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N37" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2690,15 +3025,15 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{643E2EEA-CCBB-4A59-A4B0-FBA954000719}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d624ff89-a3d8-48ad-8a73-6b7263eb58d2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="caebe9e7-4d6b-4886-b893-b59babeb2752"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="d624ff89-a3d8-48ad-8a73-6b7263eb58d2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/Airfoil Database/list_airfoils.xlsx
+++ b/Airfoil Database/list_airfoils.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlee981\OneDrive - Georgia Institute of Technology\Desktop\Airfoil Database\Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grant\Documents\School\Graduate School\GRA Research\Airfoil Digitization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="202" documentId="8_{12632ECB-33DC-4A31-93CF-A52AA0C9C6CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{56873D13-C392-49B4-9F81-528CBDA55222}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2207EAC-3E6F-4C54-B09D-680F417DD47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2150" windowHeight="0" xr2:uid="{93C099FC-639E-4F92-AB96-B77E1C5407CC}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{93C099FC-639E-4F92-AB96-B77E1C5407CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="165">
   <si>
     <t>Airfoil</t>
   </si>
@@ -514,6 +525,24 @@
   </si>
   <si>
     <t>-1.0, 9.3, 12.4</t>
+  </si>
+  <si>
+    <t>DU12W262</t>
+  </si>
+  <si>
+    <t>-5, 0, 5</t>
+  </si>
+  <si>
+    <t>0.12, 0.17</t>
+  </si>
+  <si>
+    <t>1e6, 0.7e6</t>
+  </si>
+  <si>
+    <t>Ragni et al., 2015</t>
+  </si>
+  <si>
+    <t>Mach calculated from chord and Re</t>
   </si>
 </sst>
 </file>
@@ -672,7 +701,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -684,7 +713,6 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -731,9 +759,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -761,22 +786,22 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -786,17 +811,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -970,6 +984,17 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -986,32 +1011,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D5888382-E306-4124-B037-F25DF94F2412}" name="Table2" displayName="Table2" ref="A1:N37" totalsRowShown="0" headerRowDxfId="15" dataDxfId="0">
-  <autoFilter ref="A1:N37" xr:uid="{F6B5E2EE-9317-44B1-8CF3-4E0A2296C3E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D5888382-E306-4124-B037-F25DF94F2412}" name="Table2" displayName="Table2" ref="A1:N38" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:N38" xr:uid="{F6B5E2EE-9317-44B1-8CF3-4E0A2296C3E9}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{675A2719-A377-4BBD-8A71-F7E0420D4A22}" name="Airfoil" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{C62E5BD2-2CE3-4993-898C-4E64598D0B16}" name="A (deg)" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{20D7696A-1B30-4CD5-B965-B5DA556F9F7C}" name="M (1)" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{70426462-0AA8-450B-AA8D-5F900960DC3A}" name="Re (1)" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{9E6F3230-3339-47EA-AA7F-2E3CB0B75371}" name="Reported accuracy" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{61ADDCB5-D7D6-4B6A-B3F5-45A61F4388B0}" name="Assumed error" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{1D3C393F-A5C7-4717-BB13-9D3B641D5D96}" name="Number of Cases" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{3F41E4C8-0F28-453E-BED6-8353701B4A6C}" name="Source" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{2621F62C-47FC-44AF-BB00-1E6F92D693F4}" name="Completed" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{27F1B5AB-10DA-4C33-AD82-6BD6BE8F94AA}" name="Converted" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{DCB1AE7C-BD9F-4F78-AA32-5D14CAE6148F}" name="Usage" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{E0685360-ECF9-4C2B-A4CB-C95C6FD7C2E1}" name="Supercritical" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{A70520DF-8A54-442B-99F6-6B3D9B3B3280}" name="Symmetry" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{D2962244-B74D-4927-907F-81377206E188}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{675A2719-A377-4BBD-8A71-F7E0420D4A22}" name="Airfoil" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{C62E5BD2-2CE3-4993-898C-4E64598D0B16}" name="A (deg)" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{20D7696A-1B30-4CD5-B965-B5DA556F9F7C}" name="M (1)" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{70426462-0AA8-450B-AA8D-5F900960DC3A}" name="Re (1)" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{9E6F3230-3339-47EA-AA7F-2E3CB0B75371}" name="Reported accuracy" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{61ADDCB5-D7D6-4B6A-B3F5-45A61F4388B0}" name="Assumed error" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{1D3C393F-A5C7-4717-BB13-9D3B641D5D96}" name="Number of Cases" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{3F41E4C8-0F28-453E-BED6-8353701B4A6C}" name="Source" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{2621F62C-47FC-44AF-BB00-1E6F92D693F4}" name="Completed" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{27F1B5AB-10DA-4C33-AD82-6BD6BE8F94AA}" name="Converted" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{DCB1AE7C-BD9F-4F78-AA32-5D14CAE6148F}" name="Usage" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{E0685360-ECF9-4C2B-A4CB-C95C6FD7C2E1}" name="Supercritical" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{A70520DF-8A54-442B-99F6-6B3D9B3B3280}" name="Symmetry" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{D2962244-B74D-4927-907F-81377206E188}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1049,7 +1074,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1155,7 +1180,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1297,7 +1322,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1305,32 +1330,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4963D9-C860-49EC-92EF-EA8C9FAB7162}">
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D34" sqref="D34"/>
+      <selection pane="topRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.54296875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="16.54296875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.1796875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="46.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.7890625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7890625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5234375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.47265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.15625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5234375" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5234375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5234375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.47265625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5234375" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="16.5234375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.15625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="46.15625" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1377,155 +1402,155 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:19" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>1000000</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>0.01</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6">
         <v>288</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="12" t="s">
+      <c r="L2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="N2" s="13"/>
+      <c r="N2" s="12"/>
       <c r="P2" s="3">
         <f>SUM(G:G)</f>
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>1000000</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>0.01</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6">
         <v>200</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="L3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="N3" s="13"/>
-    </row>
-    <row r="4" spans="1:19" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:19" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>1000000</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>0.01</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6">
         <v>215</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7" t="s">
+      <c r="I4" s="10"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="7" t="s">
+      <c r="L4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:19" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>1000000</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>0.01</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
         <v>206</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="7" t="s">
+      <c r="L5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="N5" s="13"/>
+      <c r="N5" s="12"/>
       <c r="P5" s="3" t="s">
         <v>56</v>
       </c>
@@ -1539,41 +1564,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:19" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>0.12</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>1460000</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>0.02</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
         <v>8</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7" t="s">
+      <c r="I6" s="10"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="7" t="s">
+      <c r="L6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="N6" s="13"/>
+      <c r="N6" s="12"/>
       <c r="P6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1581,1146 +1606,1184 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:19" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>1600000</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7">
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
         <v>9</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7" t="s">
+      <c r="I7" s="10"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="7" t="s">
+      <c r="L7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="N7" s="13"/>
+      <c r="N7" s="12"/>
       <c r="P7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="5">
         <f>(Q6/S5*0.0000181)/(1.225*Q5)/340</f>
         <v>1.0265523532247542</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="3" customFormat="1" ht="62" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:19" s="3" customFormat="1" ht="62.4" x14ac:dyDescent="0.6">
+      <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>0.05</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>3100000</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>0.03</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6">
         <v>152</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="7" t="s">
+      <c r="L8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="N8" s="16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:19" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>0.05</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="19" t="s">
+      <c r="E9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19" t="s">
+      <c r="I9" s="19"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="L9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="19" t="s">
+      <c r="L9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="3" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:19" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>2200000</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="6">
         <v>1.44E-2</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
         <v>3</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7" t="s">
+      <c r="I10" s="10"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="7" t="s">
+      <c r="L10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:19" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>0.17</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7">
+      <c r="E11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6">
         <v>6</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7" t="s">
+      <c r="I11" s="10"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="L11" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="7" t="s">
+      <c r="L11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:19" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="A12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="21">
         <v>0.02</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="22">
         <v>100000</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="23">
         <v>1.6E-2</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19">
+      <c r="F12" s="18"/>
+      <c r="G12" s="18">
         <v>4</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19" t="s">
+      <c r="I12" s="19"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="L12" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="19" t="s">
+      <c r="L12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="31" x14ac:dyDescent="0.35">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:19" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A13" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="21">
         <v>0.06</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="22">
         <v>420000</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19">
+      <c r="E13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18">
         <v>4</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19" t="s">
+      <c r="I13" s="19"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="L13" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="19" t="s">
+      <c r="L13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="N13" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:19" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>0.16</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>3000000</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7">
+      <c r="E14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6">
         <v>3</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7" t="s">
+      <c r="I14" s="10"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M14" s="7" t="s">
+      <c r="L14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="N14" s="17" t="s">
+      <c r="N14" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:19" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>0.6</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7">
+      <c r="D15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6">
         <v>4</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7" t="s">
+      <c r="I15" s="10"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="7" t="s">
+      <c r="L15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="1:19" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:19" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>0.6</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7">
+      <c r="D16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6">
         <v>4</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7" t="s">
+      <c r="I16" s="10"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" s="7" t="s">
+      <c r="L16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="N16" s="13"/>
-    </row>
-    <row r="17" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="s">
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A17" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="24">
         <v>0.04</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19">
+      <c r="F17" s="18"/>
+      <c r="G17" s="18">
         <v>12</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19" t="s">
+      <c r="I17" s="19"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="L17" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="19" t="s">
+      <c r="L17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="N17" s="27" t="s">
+      <c r="N17" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:14" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6">
         <v>12</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7" t="s">
+      <c r="I18" s="10"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="L18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="7" t="s">
+      <c r="L18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="N18" s="17" t="s">
+      <c r="N18" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A19" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>0</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6">
         <v>10</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7" t="s">
+      <c r="I19" s="10"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="N19" s="13" t="s">
+      <c r="N19" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A20" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="22">
         <v>6000000</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19" t="s">
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19" t="s">
+      <c r="I20" s="19"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="M20" s="19" t="s">
+      <c r="M20" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="N20" s="27" t="s">
+      <c r="N20" s="25" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A21" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>2000000</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6">
         <v>16</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7" t="s">
+      <c r="I21" s="10"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="N21" s="13"/>
-    </row>
-    <row r="22" spans="1:14" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="19" t="s">
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A22" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19">
+      <c r="F22" s="18"/>
+      <c r="G22" s="18">
         <v>9</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19" t="s">
+      <c r="I22" s="19"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="L22" s="19" t="s">
+      <c r="L22" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="M22" s="19" t="s">
+      <c r="M22" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="N22" s="27"/>
-    </row>
-    <row r="23" spans="1:14" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="19" t="s">
+      <c r="N22" s="25"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A23" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="27">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19">
+      <c r="F23" s="18"/>
+      <c r="G23" s="18">
         <v>16</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19" t="s">
+      <c r="I23" s="19"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="19" t="s">
+      <c r="L23" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="M23" s="19" t="s">
+      <c r="M23" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="N23" s="27"/>
-    </row>
-    <row r="24" spans="1:14" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+      <c r="N23" s="25"/>
+    </row>
+    <row r="24" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A24" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="30" t="s">
+      <c r="D24" s="6"/>
+      <c r="E24" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6">
         <v>21</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7" t="s">
+      <c r="I24" s="10"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="N24" s="13" t="s">
+      <c r="N24" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A25" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6">
         <v>13</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7" t="s">
+      <c r="I25" s="10"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="L25" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="M25" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="N25" s="13"/>
-    </row>
-    <row r="26" spans="1:14" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A26" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <v>0.01</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7" t="s">
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7" t="s">
+      <c r="I26" s="19"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L26" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="7" t="s">
+      <c r="L26" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="N26" s="13"/>
-    </row>
-    <row r="27" spans="1:14" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A27" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>3000000</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7">
+      <c r="E27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6">
         <v>66</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7" t="s">
+      <c r="I27" s="19"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="L27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M27" s="7" t="s">
+      <c r="L27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="N27" s="13"/>
-    </row>
-    <row r="28" spans="1:14" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A28" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7" t="s">
+      <c r="E28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7" t="s">
+      <c r="I28" s="10"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" s="7" t="s">
+      <c r="L28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="N28" s="13"/>
-    </row>
-    <row r="29" spans="1:14" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A29" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>2000000</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="13">
         <v>0.03</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6">
         <v>7</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7" t="s">
+      <c r="I29" s="10"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="L29" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="M29" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="N29" s="17" t="s">
+      <c r="N29" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A30" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>4400000</v>
       </c>
-      <c r="E30" s="33">
+      <c r="E30" s="30">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7" t="s">
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7" t="s">
+      <c r="I30" s="10"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="L30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M30" s="7" t="s">
+      <c r="L30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="N30" s="13" t="s">
+      <c r="N30" s="12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A31" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E31" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="7" t="s">
+      <c r="E31" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I31" s="20"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="7" t="s">
+      <c r="I31" s="19"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" s="7" t="s">
+      <c r="L31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="N31" s="13" t="s">
+      <c r="N31" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A32" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7">
+      <c r="E32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6">
         <v>17</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7" t="s">
+      <c r="I32" s="10"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M32" s="7" t="s">
+      <c r="L32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="N32" s="13"/>
-    </row>
-    <row r="33" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="19" t="s">
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A33" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="7" t="s">
+      <c r="E33" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="I33" s="35"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="7" t="s">
+      <c r="I33" s="31"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M33" s="19" t="s">
+      <c r="L33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="N33" s="27" t="s">
+      <c r="N33" s="25" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A34" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="6">
         <v>0.76</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="29">
         <v>0.01</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7">
+      <c r="F34" s="6"/>
+      <c r="G34" s="6">
         <v>2</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7" t="s">
+      <c r="I34" s="10"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="L34" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="M34" s="7" t="s">
+      <c r="M34" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="N34" s="13" t="s">
+      <c r="N34" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A35" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7" t="s">
+      <c r="E35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="I35" s="36"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M35" s="7" t="s">
+      <c r="I35" s="32"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M35" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="N35" s="13" t="s">
+      <c r="N35" s="12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:14" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A36" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C36" s="37">
+      <c r="C36" s="33">
         <v>0.22</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>3000000</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7">
+      <c r="E36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6">
         <v>3</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7" t="s">
+      <c r="I36" s="10"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M36" s="7" t="s">
+      <c r="L36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="N36" s="7"/>
-    </row>
-    <row r="37" spans="1:14" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A37" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37" s="6">
         <v>0.22</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>3000000</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7">
+      <c r="E37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6">
         <v>3</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="I37" s="11"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7" t="s">
+      <c r="I37" s="10"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M37" s="7" t="s">
+      <c r="L37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="N37" s="13"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A38" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6">
+        <v>6</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I38" s="10"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>164</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2732,6 +2795,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4AB3D7E12E5884885757EFDE1791F7B" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b7e2dcc0b3cf728055ea3c227da0f2ee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d624ff89-a3d8-48ad-8a73-6b7263eb58d2" xmlns:ns4="caebe9e7-4d6b-4886-b893-b59babeb2752" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eefd83996488ad3ae4a896beada0342f" ns3:_="" ns4:_="">
     <xsd:import namespace="d624ff89-a3d8-48ad-8a73-6b7263eb58d2"/>
@@ -2978,15 +3050,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2996,6 +3059,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E361C660-8B5A-497A-AEA7-466AA4F145C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A596979B-234A-4DF1-9F2E-F7E3C31C1EE5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3010,14 +3081,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E361C660-8B5A-497A-AEA7-466AA4F145C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Airfoil Database/list_airfoils.xlsx
+++ b/Airfoil Database/list_airfoils.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grant\Documents\School\Graduate School\GRA Research\Airfoil Digitization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cloned Respositories\GP-Aero\Airfoil Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22905FB1-3F71-42BA-BDBD-3C777C337E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166FA3A9-7141-4D2A-9445-3E383B0D1642}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{93C099FC-639E-4F92-AB96-B77E1C5407CC}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="20930" windowHeight="12430" xr2:uid="{93C099FC-639E-4F92-AB96-B77E1C5407CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="230">
   <si>
     <t>Airfoil</t>
   </si>
@@ -737,6 +726,9 @@
   </si>
   <si>
     <t>Number of cases is only what I've done so far, still counting</t>
+  </si>
+  <si>
+    <t>SC 1094 R8</t>
   </si>
 </sst>
 </file>
@@ -1464,14 +1456,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D5888382-E306-4124-B037-F25DF94F2412}" name="Table2" displayName="Table2" ref="A1:O1000" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:O1000" xr:uid="{F6B5E2EE-9317-44B1-8CF3-4E0A2296C3E9}">
-    <filterColumn colId="13">
-      <filters blank="1">
-        <filter val="N (included above)"/>
-        <filter val="Y"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O1000" xr:uid="{F6B5E2EE-9317-44B1-8CF3-4E0A2296C3E9}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{675A2719-A377-4BBD-8A71-F7E0420D4A22}" name="Airfoil" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{C62E5BD2-2CE3-4993-898C-4E64598D0B16}" name="Angle of Attack" dataDxfId="12"/>
@@ -1494,9 +1479,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1534,7 +1519,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1640,7 +1625,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1782,7 +1767,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1792,29 +1777,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4963D9-C860-49EC-92EF-EA8C9FAB7162}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O46" sqref="O46"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.1015625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7890625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5234375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.47265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.15625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.734375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="16.5234375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.15625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="16.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1796875" style="1" customWidth="1"/>
     <col min="11" max="12" width="28" style="1" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="17.1015625" customWidth="1"/>
-    <col min="15" max="15" width="71.62890625" customWidth="1"/>
+    <col min="14" max="14" width="17.08984375" customWidth="1"/>
+    <col min="15" max="15" width="71.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1864,7 +1849,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:20" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1907,11 +1892,11 @@
       </c>
       <c r="O2" s="12"/>
       <c r="Q2" s="3">
-        <f>SUM(G2:G11,G14:G16,G18:G21,G24:G45)</f>
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="3" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+        <f>SUM(G2:G11,G14:G16,G18:G22,G24:G65)</f>
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1954,7 +1939,7 @@
       </c>
       <c r="O3" s="12"/>
     </row>
-    <row r="4" spans="1:20" s="3" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:20" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1999,7 +1984,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="3" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:20" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -2054,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="3" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:20" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
@@ -2103,7 +2088,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="3" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:20" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -2153,7 +2138,7 @@
         <v>1.0265523532247542</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="3" customFormat="1" ht="47.1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:20" s="3" customFormat="1" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -2198,7 +2183,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="47.1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:20" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -2243,7 +2228,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="3" customFormat="1" ht="47.1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:20" s="3" customFormat="1" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
@@ -2288,7 +2273,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="3" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:20" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
@@ -2333,7 +2318,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="47.1" hidden="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:20" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="21" t="s">
         <v>23</v>
       </c>
@@ -2378,7 +2363,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:20" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="21" t="s">
         <v>71</v>
       </c>
@@ -2423,7 +2408,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="3" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:20" s="3" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="35" t="s">
         <v>24</v>
       </c>
@@ -2468,7 +2453,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="3" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:20" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="35" t="s">
         <v>219</v>
       </c>
@@ -2511,7 +2496,7 @@
       </c>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:20" s="3" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:20" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="35" t="s">
         <v>220</v>
       </c>
@@ -2554,7 +2539,7 @@
       </c>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="1:15" ht="15.9" hidden="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="21" t="s">
         <v>25</v>
       </c>
@@ -2599,7 +2584,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="3" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:15" s="3" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
@@ -2644,7 +2629,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="3" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:15" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="37" t="s">
         <v>59</v>
       </c>
@@ -2689,7 +2674,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="3" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:15" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>114</v>
       </c>
@@ -2734,7 +2719,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="3" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:15" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>68</v>
       </c>
@@ -2775,7 +2760,7 @@
       </c>
       <c r="O21" s="12"/>
     </row>
-    <row r="22" spans="1:15" s="3" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:15" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>72</v>
       </c>
@@ -2818,7 +2803,7 @@
       </c>
       <c r="O22" s="12"/>
     </row>
-    <row r="23" spans="1:15" s="3" customFormat="1" ht="15.9" hidden="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:15" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="18" t="s">
         <v>77</v>
       </c>
@@ -2861,7 +2846,7 @@
       </c>
       <c r="O23" s="25"/>
     </row>
-    <row r="24" spans="1:15" s="3" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:15" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>82</v>
       </c>
@@ -2904,7 +2889,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="3" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:15" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>151</v>
       </c>
@@ -2947,7 +2932,7 @@
       </c>
       <c r="O25" s="12"/>
     </row>
-    <row r="26" spans="1:15" s="3" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:15" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="33" t="s">
         <v>146</v>
       </c>
@@ -2990,7 +2975,7 @@
       </c>
       <c r="O26" s="12"/>
     </row>
-    <row r="27" spans="1:15" s="3" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:15" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>101</v>
       </c>
@@ -3033,7 +3018,7 @@
       </c>
       <c r="O27" s="12"/>
     </row>
-    <row r="28" spans="1:15" s="3" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:15" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="35" t="s">
         <v>104</v>
       </c>
@@ -3076,7 +3061,7 @@
       </c>
       <c r="O28" s="12"/>
     </row>
-    <row r="29" spans="1:15" s="2" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:15" s="2" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
         <v>106</v>
       </c>
@@ -3121,7 +3106,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="3" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:15" s="3" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="35" t="s">
         <v>221</v>
       </c>
@@ -3166,7 +3151,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="35" t="s">
         <v>222</v>
       </c>
@@ -3211,7 +3196,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="3" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:15" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="35" t="s">
         <v>125</v>
       </c>
@@ -3254,7 +3239,7 @@
       </c>
       <c r="O32" s="12"/>
     </row>
-    <row r="33" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="35" t="s">
         <v>133</v>
       </c>
@@ -3299,7 +3284,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="3" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:15" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="35" t="s">
         <v>129</v>
       </c>
@@ -3344,7 +3329,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="3" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:15" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
         <v>136</v>
       </c>
@@ -3387,7 +3372,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="2" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:15" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="35" t="s">
         <v>141</v>
       </c>
@@ -3430,7 +3415,7 @@
       </c>
       <c r="O36" s="6"/>
     </row>
-    <row r="37" spans="1:15" s="3" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:15" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="35" t="s">
         <v>144</v>
       </c>
@@ -3473,7 +3458,7 @@
       </c>
       <c r="O37" s="12"/>
     </row>
-    <row r="38" spans="1:15" s="3" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:15" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="35" t="s">
         <v>223</v>
       </c>
@@ -3516,7 +3501,7 @@
       </c>
       <c r="O38" s="12"/>
     </row>
-    <row r="39" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="47" t="s">
         <v>210</v>
       </c>
@@ -3561,7 +3546,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="46" t="s">
         <v>192</v>
       </c>
@@ -3604,7 +3589,7 @@
       </c>
       <c r="O40" s="25"/>
     </row>
-    <row r="41" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="46" t="s">
         <v>195</v>
       </c>
@@ -3647,7 +3632,7 @@
       </c>
       <c r="O41" s="25"/>
     </row>
-    <row r="42" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="46" t="s">
         <v>198</v>
       </c>
@@ -3690,7 +3675,7 @@
       </c>
       <c r="O42" s="25"/>
     </row>
-    <row r="43" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="46" t="s">
         <v>200</v>
       </c>
@@ -3733,7 +3718,7 @@
       </c>
       <c r="O43" s="25"/>
     </row>
-    <row r="44" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="46" t="s">
         <v>202</v>
       </c>
@@ -3776,7 +3761,7 @@
       </c>
       <c r="O44" s="25"/>
     </row>
-    <row r="45" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="46" t="s">
         <v>204</v>
       </c>
@@ -3819,7 +3804,7 @@
       </c>
       <c r="O45" s="25"/>
     </row>
-    <row r="46" spans="1:15" s="51" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:15" s="51" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="48" t="s">
         <v>224</v>
       </c>
@@ -3864,24 +3849,50 @@
         <v>228</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="25"/>
-    </row>
-    <row r="48" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:15" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="G47" s="6">
+        <v>17</v>
+      </c>
+      <c r="H47" s="34"/>
+      <c r="I47" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="O47" s="12"/>
+    </row>
+    <row r="48" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -3898,7 +3909,7 @@
       <c r="N48" s="6"/>
       <c r="O48" s="25"/>
     </row>
-    <row r="49" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -3915,7 +3926,7 @@
       <c r="N49" s="6"/>
       <c r="O49" s="25"/>
     </row>
-    <row r="50" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
@@ -3932,7 +3943,7 @@
       <c r="N50" s="6"/>
       <c r="O50" s="25"/>
     </row>
-    <row r="51" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
@@ -3949,7 +3960,7 @@
       <c r="N51" s="6"/>
       <c r="O51" s="25"/>
     </row>
-    <row r="52" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
@@ -3966,7 +3977,7 @@
       <c r="N52" s="6"/>
       <c r="O52" s="25"/>
     </row>
-    <row r="53" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
@@ -3983,7 +3994,7 @@
       <c r="N53" s="6"/>
       <c r="O53" s="25"/>
     </row>
-    <row r="54" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
@@ -4000,7 +4011,7 @@
       <c r="N54" s="6"/>
       <c r="O54" s="25"/>
     </row>
-    <row r="55" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -4017,7 +4028,7 @@
       <c r="N55" s="6"/>
       <c r="O55" s="25"/>
     </row>
-    <row r="56" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
@@ -4034,7 +4045,7 @@
       <c r="N56" s="6"/>
       <c r="O56" s="25"/>
     </row>
-    <row r="57" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -4051,7 +4062,7 @@
       <c r="N57" s="6"/>
       <c r="O57" s="25"/>
     </row>
-    <row r="58" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
@@ -4068,7 +4079,7 @@
       <c r="N58" s="6"/>
       <c r="O58" s="25"/>
     </row>
-    <row r="59" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
@@ -4085,7 +4096,7 @@
       <c r="N59" s="6"/>
       <c r="O59" s="25"/>
     </row>
-    <row r="60" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -4102,7 +4113,7 @@
       <c r="N60" s="6"/>
       <c r="O60" s="25"/>
     </row>
-    <row r="61" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
@@ -4119,7 +4130,7 @@
       <c r="N61" s="6"/>
       <c r="O61" s="25"/>
     </row>
-    <row r="62" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
@@ -4136,7 +4147,7 @@
       <c r="N62" s="6"/>
       <c r="O62" s="25"/>
     </row>
-    <row r="63" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
@@ -4153,7 +4164,7 @@
       <c r="N63" s="6"/>
       <c r="O63" s="25"/>
     </row>
-    <row r="64" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
@@ -4170,7 +4181,7 @@
       <c r="N64" s="6"/>
       <c r="O64" s="25"/>
     </row>
-    <row r="65" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
@@ -4187,7 +4198,7 @@
       <c r="N65" s="6"/>
       <c r="O65" s="25"/>
     </row>
-    <row r="66" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
@@ -4204,7 +4215,7 @@
       <c r="N66" s="6"/>
       <c r="O66" s="25"/>
     </row>
-    <row r="67" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
@@ -4221,7 +4232,7 @@
       <c r="N67" s="6"/>
       <c r="O67" s="25"/>
     </row>
-    <row r="68" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="68" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
@@ -4238,7 +4249,7 @@
       <c r="N68" s="6"/>
       <c r="O68" s="25"/>
     </row>
-    <row r="69" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
@@ -4255,7 +4266,7 @@
       <c r="N69" s="6"/>
       <c r="O69" s="25"/>
     </row>
-    <row r="70" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
@@ -4272,7 +4283,7 @@
       <c r="N70" s="6"/>
       <c r="O70" s="25"/>
     </row>
-    <row r="71" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -4289,7 +4300,7 @@
       <c r="N71" s="6"/>
       <c r="O71" s="25"/>
     </row>
-    <row r="72" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -4306,7 +4317,7 @@
       <c r="N72" s="6"/>
       <c r="O72" s="25"/>
     </row>
-    <row r="73" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
@@ -4323,7 +4334,7 @@
       <c r="N73" s="6"/>
       <c r="O73" s="25"/>
     </row>
-    <row r="74" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="74" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
@@ -4340,7 +4351,7 @@
       <c r="N74" s="6"/>
       <c r="O74" s="25"/>
     </row>
-    <row r="75" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="18"/>
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
@@ -4357,7 +4368,7 @@
       <c r="N75" s="6"/>
       <c r="O75" s="25"/>
     </row>
-    <row r="76" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="76" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="18"/>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
@@ -4374,7 +4385,7 @@
       <c r="N76" s="6"/>
       <c r="O76" s="25"/>
     </row>
-    <row r="77" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="18"/>
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
@@ -4391,7 +4402,7 @@
       <c r="N77" s="6"/>
       <c r="O77" s="25"/>
     </row>
-    <row r="78" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="78" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="18"/>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
@@ -4408,7 +4419,7 @@
       <c r="N78" s="6"/>
       <c r="O78" s="25"/>
     </row>
-    <row r="79" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="79" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="18"/>
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
@@ -4425,7 +4436,7 @@
       <c r="N79" s="6"/>
       <c r="O79" s="25"/>
     </row>
-    <row r="80" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="80" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="18"/>
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
@@ -4442,7 +4453,7 @@
       <c r="N80" s="6"/>
       <c r="O80" s="25"/>
     </row>
-    <row r="81" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="18"/>
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
@@ -4459,7 +4470,7 @@
       <c r="N81" s="6"/>
       <c r="O81" s="25"/>
     </row>
-    <row r="82" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="82" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="18"/>
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
@@ -4476,7 +4487,7 @@
       <c r="N82" s="6"/>
       <c r="O82" s="25"/>
     </row>
-    <row r="83" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="83" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="18"/>
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
@@ -4493,7 +4504,7 @@
       <c r="N83" s="6"/>
       <c r="O83" s="25"/>
     </row>
-    <row r="84" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="18"/>
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
@@ -4510,7 +4521,7 @@
       <c r="N84" s="6"/>
       <c r="O84" s="25"/>
     </row>
-    <row r="85" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="18"/>
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
@@ -4527,7 +4538,7 @@
       <c r="N85" s="6"/>
       <c r="O85" s="25"/>
     </row>
-    <row r="86" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="86" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="18"/>
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
@@ -4544,7 +4555,7 @@
       <c r="N86" s="6"/>
       <c r="O86" s="25"/>
     </row>
-    <row r="87" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="18"/>
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
@@ -4561,7 +4572,7 @@
       <c r="N87" s="6"/>
       <c r="O87" s="25"/>
     </row>
-    <row r="88" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="88" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="18"/>
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
@@ -4578,7 +4589,7 @@
       <c r="N88" s="6"/>
       <c r="O88" s="25"/>
     </row>
-    <row r="89" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="89" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="18"/>
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
@@ -4595,7 +4606,7 @@
       <c r="N89" s="6"/>
       <c r="O89" s="25"/>
     </row>
-    <row r="90" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="90" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="18"/>
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
@@ -4612,7 +4623,7 @@
       <c r="N90" s="6"/>
       <c r="O90" s="25"/>
     </row>
-    <row r="91" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="91" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="18"/>
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
@@ -4629,7 +4640,7 @@
       <c r="N91" s="6"/>
       <c r="O91" s="25"/>
     </row>
-    <row r="92" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="92" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="18"/>
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
@@ -4646,7 +4657,7 @@
       <c r="N92" s="6"/>
       <c r="O92" s="25"/>
     </row>
-    <row r="93" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="93" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="18"/>
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
@@ -4663,7 +4674,7 @@
       <c r="N93" s="6"/>
       <c r="O93" s="25"/>
     </row>
-    <row r="94" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="94" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="18"/>
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
@@ -4680,7 +4691,7 @@
       <c r="N94" s="6"/>
       <c r="O94" s="25"/>
     </row>
-    <row r="95" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="95" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="18"/>
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
@@ -4697,7 +4708,7 @@
       <c r="N95" s="6"/>
       <c r="O95" s="25"/>
     </row>
-    <row r="96" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="96" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="18"/>
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
@@ -4714,7 +4725,7 @@
       <c r="N96" s="6"/>
       <c r="O96" s="25"/>
     </row>
-    <row r="97" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="97" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="18"/>
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
@@ -4731,7 +4742,7 @@
       <c r="N97" s="6"/>
       <c r="O97" s="25"/>
     </row>
-    <row r="98" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="98" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="18"/>
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
@@ -4748,7 +4759,7 @@
       <c r="N98" s="6"/>
       <c r="O98" s="25"/>
     </row>
-    <row r="99" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="99" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="18"/>
       <c r="B99" s="18"/>
       <c r="C99" s="18"/>
@@ -4765,7 +4776,7 @@
       <c r="N99" s="6"/>
       <c r="O99" s="25"/>
     </row>
-    <row r="100" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="100" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="18"/>
       <c r="B100" s="18"/>
       <c r="C100" s="18"/>
@@ -4782,7 +4793,7 @@
       <c r="N100" s="6"/>
       <c r="O100" s="25"/>
     </row>
-    <row r="101" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="101" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="18"/>
       <c r="B101" s="18"/>
       <c r="C101" s="18"/>
@@ -4799,7 +4810,7 @@
       <c r="N101" s="6"/>
       <c r="O101" s="25"/>
     </row>
-    <row r="102" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="102" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="18"/>
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
@@ -4816,7 +4827,7 @@
       <c r="N102" s="6"/>
       <c r="O102" s="25"/>
     </row>
-    <row r="103" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="103" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="18"/>
       <c r="B103" s="18"/>
       <c r="C103" s="18"/>
@@ -4833,7 +4844,7 @@
       <c r="N103" s="6"/>
       <c r="O103" s="25"/>
     </row>
-    <row r="104" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="104" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="18"/>
       <c r="B104" s="18"/>
       <c r="C104" s="18"/>
@@ -4850,7 +4861,7 @@
       <c r="N104" s="6"/>
       <c r="O104" s="25"/>
     </row>
-    <row r="105" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="105" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="18"/>
       <c r="B105" s="18"/>
       <c r="C105" s="18"/>
@@ -4867,7 +4878,7 @@
       <c r="N105" s="6"/>
       <c r="O105" s="25"/>
     </row>
-    <row r="106" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="106" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="18"/>
       <c r="B106" s="18"/>
       <c r="C106" s="18"/>
@@ -4884,7 +4895,7 @@
       <c r="N106" s="6"/>
       <c r="O106" s="25"/>
     </row>
-    <row r="107" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="107" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="18"/>
       <c r="B107" s="18"/>
       <c r="C107" s="18"/>
@@ -4901,7 +4912,7 @@
       <c r="N107" s="6"/>
       <c r="O107" s="25"/>
     </row>
-    <row r="108" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="108" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="18"/>
       <c r="B108" s="18"/>
       <c r="C108" s="18"/>
@@ -4918,7 +4929,7 @@
       <c r="N108" s="6"/>
       <c r="O108" s="25"/>
     </row>
-    <row r="109" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="109" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="18"/>
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
@@ -4935,7 +4946,7 @@
       <c r="N109" s="6"/>
       <c r="O109" s="25"/>
     </row>
-    <row r="110" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="110" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="18"/>
       <c r="B110" s="18"/>
       <c r="C110" s="18"/>
@@ -4952,7 +4963,7 @@
       <c r="N110" s="6"/>
       <c r="O110" s="25"/>
     </row>
-    <row r="111" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="111" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="18"/>
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
@@ -4969,7 +4980,7 @@
       <c r="N111" s="6"/>
       <c r="O111" s="25"/>
     </row>
-    <row r="112" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="112" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="18"/>
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
@@ -4986,7 +4997,7 @@
       <c r="N112" s="6"/>
       <c r="O112" s="25"/>
     </row>
-    <row r="113" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="113" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="18"/>
       <c r="B113" s="18"/>
       <c r="C113" s="18"/>
@@ -5003,7 +5014,7 @@
       <c r="N113" s="6"/>
       <c r="O113" s="25"/>
     </row>
-    <row r="114" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="114" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="18"/>
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
@@ -5020,7 +5031,7 @@
       <c r="N114" s="6"/>
       <c r="O114" s="25"/>
     </row>
-    <row r="115" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="115" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="18"/>
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
@@ -5037,7 +5048,7 @@
       <c r="N115" s="6"/>
       <c r="O115" s="25"/>
     </row>
-    <row r="116" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="116" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="18"/>
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
@@ -5054,7 +5065,7 @@
       <c r="N116" s="6"/>
       <c r="O116" s="25"/>
     </row>
-    <row r="117" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="117" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="18"/>
       <c r="B117" s="18"/>
       <c r="C117" s="18"/>
@@ -5071,7 +5082,7 @@
       <c r="N117" s="6"/>
       <c r="O117" s="25"/>
     </row>
-    <row r="118" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="118" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="18"/>
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
@@ -5088,7 +5099,7 @@
       <c r="N118" s="6"/>
       <c r="O118" s="25"/>
     </row>
-    <row r="119" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="119" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="18"/>
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
@@ -5105,7 +5116,7 @@
       <c r="N119" s="6"/>
       <c r="O119" s="25"/>
     </row>
-    <row r="120" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="120" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="18"/>
       <c r="B120" s="18"/>
       <c r="C120" s="18"/>
@@ -5122,7 +5133,7 @@
       <c r="N120" s="6"/>
       <c r="O120" s="25"/>
     </row>
-    <row r="121" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="121" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="18"/>
       <c r="B121" s="18"/>
       <c r="C121" s="18"/>
@@ -5139,7 +5150,7 @@
       <c r="N121" s="6"/>
       <c r="O121" s="25"/>
     </row>
-    <row r="122" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="122" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="18"/>
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
@@ -5156,7 +5167,7 @@
       <c r="N122" s="6"/>
       <c r="O122" s="25"/>
     </row>
-    <row r="123" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="123" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="18"/>
       <c r="B123" s="18"/>
       <c r="C123" s="18"/>
@@ -5173,7 +5184,7 @@
       <c r="N123" s="6"/>
       <c r="O123" s="25"/>
     </row>
-    <row r="124" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="124" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="18"/>
       <c r="B124" s="18"/>
       <c r="C124" s="18"/>
@@ -5190,7 +5201,7 @@
       <c r="N124" s="6"/>
       <c r="O124" s="25"/>
     </row>
-    <row r="125" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="125" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="18"/>
       <c r="B125" s="18"/>
       <c r="C125" s="18"/>
@@ -5207,7 +5218,7 @@
       <c r="N125" s="6"/>
       <c r="O125" s="25"/>
     </row>
-    <row r="126" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="126" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" s="18"/>
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
@@ -5224,7 +5235,7 @@
       <c r="N126" s="6"/>
       <c r="O126" s="25"/>
     </row>
-    <row r="127" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="127" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="18"/>
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
@@ -5241,7 +5252,7 @@
       <c r="N127" s="6"/>
       <c r="O127" s="25"/>
     </row>
-    <row r="128" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="128" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="18"/>
       <c r="B128" s="18"/>
       <c r="C128" s="18"/>
@@ -5258,7 +5269,7 @@
       <c r="N128" s="6"/>
       <c r="O128" s="25"/>
     </row>
-    <row r="129" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="129" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="18"/>
       <c r="B129" s="18"/>
       <c r="C129" s="18"/>
@@ -5275,7 +5286,7 @@
       <c r="N129" s="6"/>
       <c r="O129" s="25"/>
     </row>
-    <row r="130" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="130" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="18"/>
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
@@ -5292,7 +5303,7 @@
       <c r="N130" s="6"/>
       <c r="O130" s="25"/>
     </row>
-    <row r="131" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="131" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="18"/>
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
@@ -5309,7 +5320,7 @@
       <c r="N131" s="6"/>
       <c r="O131" s="25"/>
     </row>
-    <row r="132" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="132" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="18"/>
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
@@ -5326,7 +5337,7 @@
       <c r="N132" s="6"/>
       <c r="O132" s="25"/>
     </row>
-    <row r="133" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="133" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="18"/>
       <c r="B133" s="18"/>
       <c r="C133" s="18"/>
@@ -5343,7 +5354,7 @@
       <c r="N133" s="6"/>
       <c r="O133" s="25"/>
     </row>
-    <row r="134" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="134" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="18"/>
       <c r="B134" s="18"/>
       <c r="C134" s="18"/>
@@ -5360,7 +5371,7 @@
       <c r="N134" s="6"/>
       <c r="O134" s="25"/>
     </row>
-    <row r="135" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="135" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="18"/>
       <c r="B135" s="18"/>
       <c r="C135" s="18"/>
@@ -5377,7 +5388,7 @@
       <c r="N135" s="6"/>
       <c r="O135" s="25"/>
     </row>
-    <row r="136" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="136" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="18"/>
       <c r="B136" s="18"/>
       <c r="C136" s="18"/>
@@ -5394,7 +5405,7 @@
       <c r="N136" s="6"/>
       <c r="O136" s="25"/>
     </row>
-    <row r="137" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="137" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="18"/>
       <c r="B137" s="18"/>
       <c r="C137" s="18"/>
@@ -5411,7 +5422,7 @@
       <c r="N137" s="6"/>
       <c r="O137" s="25"/>
     </row>
-    <row r="138" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="138" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="18"/>
       <c r="B138" s="18"/>
       <c r="C138" s="18"/>
@@ -5428,7 +5439,7 @@
       <c r="N138" s="6"/>
       <c r="O138" s="25"/>
     </row>
-    <row r="139" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="139" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="18"/>
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>
@@ -5445,7 +5456,7 @@
       <c r="N139" s="6"/>
       <c r="O139" s="25"/>
     </row>
-    <row r="140" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="140" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="18"/>
       <c r="B140" s="18"/>
       <c r="C140" s="18"/>
@@ -5462,7 +5473,7 @@
       <c r="N140" s="6"/>
       <c r="O140" s="25"/>
     </row>
-    <row r="141" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="141" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="18"/>
       <c r="B141" s="18"/>
       <c r="C141" s="18"/>
@@ -5479,7 +5490,7 @@
       <c r="N141" s="6"/>
       <c r="O141" s="25"/>
     </row>
-    <row r="142" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="142" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="18"/>
       <c r="B142" s="18"/>
       <c r="C142" s="18"/>
@@ -5496,7 +5507,7 @@
       <c r="N142" s="6"/>
       <c r="O142" s="25"/>
     </row>
-    <row r="143" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="143" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="18"/>
       <c r="B143" s="18"/>
       <c r="C143" s="18"/>
@@ -5513,7 +5524,7 @@
       <c r="N143" s="6"/>
       <c r="O143" s="25"/>
     </row>
-    <row r="144" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="144" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="18"/>
       <c r="B144" s="18"/>
       <c r="C144" s="18"/>
@@ -5530,7 +5541,7 @@
       <c r="N144" s="6"/>
       <c r="O144" s="25"/>
     </row>
-    <row r="145" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="145" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="18"/>
       <c r="B145" s="18"/>
       <c r="C145" s="18"/>
@@ -5547,7 +5558,7 @@
       <c r="N145" s="6"/>
       <c r="O145" s="25"/>
     </row>
-    <row r="146" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="146" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="18"/>
       <c r="B146" s="18"/>
       <c r="C146" s="18"/>
@@ -5564,7 +5575,7 @@
       <c r="N146" s="6"/>
       <c r="O146" s="25"/>
     </row>
-    <row r="147" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="147" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="18"/>
       <c r="B147" s="18"/>
       <c r="C147" s="18"/>
@@ -5581,7 +5592,7 @@
       <c r="N147" s="6"/>
       <c r="O147" s="25"/>
     </row>
-    <row r="148" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="148" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="18"/>
       <c r="B148" s="18"/>
       <c r="C148" s="18"/>
@@ -5598,7 +5609,7 @@
       <c r="N148" s="6"/>
       <c r="O148" s="25"/>
     </row>
-    <row r="149" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="149" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="18"/>
       <c r="B149" s="18"/>
       <c r="C149" s="18"/>
@@ -5615,7 +5626,7 @@
       <c r="N149" s="6"/>
       <c r="O149" s="25"/>
     </row>
-    <row r="150" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="150" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="18"/>
       <c r="B150" s="18"/>
       <c r="C150" s="18"/>
@@ -5632,7 +5643,7 @@
       <c r="N150" s="6"/>
       <c r="O150" s="25"/>
     </row>
-    <row r="151" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="151" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="18"/>
       <c r="B151" s="18"/>
       <c r="C151" s="18"/>
@@ -5649,7 +5660,7 @@
       <c r="N151" s="6"/>
       <c r="O151" s="25"/>
     </row>
-    <row r="152" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="152" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="18"/>
       <c r="B152" s="18"/>
       <c r="C152" s="18"/>
@@ -5666,7 +5677,7 @@
       <c r="N152" s="6"/>
       <c r="O152" s="25"/>
     </row>
-    <row r="153" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="153" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" s="18"/>
       <c r="B153" s="18"/>
       <c r="C153" s="18"/>
@@ -5683,7 +5694,7 @@
       <c r="N153" s="6"/>
       <c r="O153" s="25"/>
     </row>
-    <row r="154" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="154" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="18"/>
       <c r="B154" s="18"/>
       <c r="C154" s="18"/>
@@ -5700,7 +5711,7 @@
       <c r="N154" s="6"/>
       <c r="O154" s="25"/>
     </row>
-    <row r="155" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="155" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="18"/>
       <c r="B155" s="18"/>
       <c r="C155" s="18"/>
@@ -5717,7 +5728,7 @@
       <c r="N155" s="6"/>
       <c r="O155" s="25"/>
     </row>
-    <row r="156" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="156" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="18"/>
       <c r="B156" s="18"/>
       <c r="C156" s="18"/>
@@ -5734,7 +5745,7 @@
       <c r="N156" s="6"/>
       <c r="O156" s="25"/>
     </row>
-    <row r="157" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="157" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="18"/>
       <c r="B157" s="18"/>
       <c r="C157" s="18"/>
@@ -5751,7 +5762,7 @@
       <c r="N157" s="6"/>
       <c r="O157" s="25"/>
     </row>
-    <row r="158" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="158" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="18"/>
       <c r="B158" s="18"/>
       <c r="C158" s="18"/>
@@ -5768,7 +5779,7 @@
       <c r="N158" s="6"/>
       <c r="O158" s="25"/>
     </row>
-    <row r="159" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="159" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="18"/>
       <c r="B159" s="18"/>
       <c r="C159" s="18"/>
@@ -5785,7 +5796,7 @@
       <c r="N159" s="6"/>
       <c r="O159" s="25"/>
     </row>
-    <row r="160" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="160" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="18"/>
       <c r="B160" s="18"/>
       <c r="C160" s="18"/>
@@ -5802,7 +5813,7 @@
       <c r="N160" s="6"/>
       <c r="O160" s="25"/>
     </row>
-    <row r="161" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="161" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="18"/>
       <c r="B161" s="18"/>
       <c r="C161" s="18"/>
@@ -5819,7 +5830,7 @@
       <c r="N161" s="6"/>
       <c r="O161" s="25"/>
     </row>
-    <row r="162" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="162" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="18"/>
       <c r="B162" s="18"/>
       <c r="C162" s="18"/>
@@ -5836,7 +5847,7 @@
       <c r="N162" s="6"/>
       <c r="O162" s="25"/>
     </row>
-    <row r="163" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="163" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="18"/>
       <c r="B163" s="18"/>
       <c r="C163" s="18"/>
@@ -5853,7 +5864,7 @@
       <c r="N163" s="6"/>
       <c r="O163" s="25"/>
     </row>
-    <row r="164" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="164" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="18"/>
       <c r="B164" s="18"/>
       <c r="C164" s="18"/>
@@ -5870,7 +5881,7 @@
       <c r="N164" s="6"/>
       <c r="O164" s="25"/>
     </row>
-    <row r="165" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="165" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="18"/>
       <c r="B165" s="18"/>
       <c r="C165" s="18"/>
@@ -5887,7 +5898,7 @@
       <c r="N165" s="6"/>
       <c r="O165" s="25"/>
     </row>
-    <row r="166" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="166" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="18"/>
       <c r="B166" s="18"/>
       <c r="C166" s="18"/>
@@ -5904,7 +5915,7 @@
       <c r="N166" s="6"/>
       <c r="O166" s="25"/>
     </row>
-    <row r="167" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="167" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="18"/>
       <c r="B167" s="18"/>
       <c r="C167" s="18"/>
@@ -5921,7 +5932,7 @@
       <c r="N167" s="6"/>
       <c r="O167" s="25"/>
     </row>
-    <row r="168" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="168" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="18"/>
       <c r="B168" s="18"/>
       <c r="C168" s="18"/>
@@ -5938,7 +5949,7 @@
       <c r="N168" s="6"/>
       <c r="O168" s="25"/>
     </row>
-    <row r="169" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="169" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="18"/>
       <c r="B169" s="18"/>
       <c r="C169" s="18"/>
@@ -5955,7 +5966,7 @@
       <c r="N169" s="6"/>
       <c r="O169" s="25"/>
     </row>
-    <row r="170" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="170" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="18"/>
       <c r="B170" s="18"/>
       <c r="C170" s="18"/>
@@ -5972,7 +5983,7 @@
       <c r="N170" s="6"/>
       <c r="O170" s="25"/>
     </row>
-    <row r="171" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="171" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="18"/>
       <c r="B171" s="18"/>
       <c r="C171" s="18"/>
@@ -5989,7 +6000,7 @@
       <c r="N171" s="6"/>
       <c r="O171" s="25"/>
     </row>
-    <row r="172" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="172" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="18"/>
       <c r="B172" s="18"/>
       <c r="C172" s="18"/>
@@ -6006,7 +6017,7 @@
       <c r="N172" s="6"/>
       <c r="O172" s="25"/>
     </row>
-    <row r="173" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="173" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="18"/>
       <c r="B173" s="18"/>
       <c r="C173" s="18"/>
@@ -6023,7 +6034,7 @@
       <c r="N173" s="6"/>
       <c r="O173" s="25"/>
     </row>
-    <row r="174" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="174" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A174" s="18"/>
       <c r="B174" s="18"/>
       <c r="C174" s="18"/>
@@ -6040,7 +6051,7 @@
       <c r="N174" s="6"/>
       <c r="O174" s="25"/>
     </row>
-    <row r="175" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="175" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="18"/>
       <c r="B175" s="18"/>
       <c r="C175" s="18"/>
@@ -6057,7 +6068,7 @@
       <c r="N175" s="6"/>
       <c r="O175" s="25"/>
     </row>
-    <row r="176" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="176" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" s="18"/>
       <c r="B176" s="18"/>
       <c r="C176" s="18"/>
@@ -6074,7 +6085,7 @@
       <c r="N176" s="6"/>
       <c r="O176" s="25"/>
     </row>
-    <row r="177" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="177" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="18"/>
       <c r="B177" s="18"/>
       <c r="C177" s="18"/>
@@ -6091,7 +6102,7 @@
       <c r="N177" s="6"/>
       <c r="O177" s="25"/>
     </row>
-    <row r="178" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="178" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="18"/>
       <c r="B178" s="18"/>
       <c r="C178" s="18"/>
@@ -6108,7 +6119,7 @@
       <c r="N178" s="6"/>
       <c r="O178" s="25"/>
     </row>
-    <row r="179" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="179" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="18"/>
       <c r="B179" s="18"/>
       <c r="C179" s="18"/>
@@ -6125,7 +6136,7 @@
       <c r="N179" s="6"/>
       <c r="O179" s="25"/>
     </row>
-    <row r="180" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="180" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" s="18"/>
       <c r="B180" s="18"/>
       <c r="C180" s="18"/>
@@ -6142,7 +6153,7 @@
       <c r="N180" s="6"/>
       <c r="O180" s="25"/>
     </row>
-    <row r="181" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="181" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="18"/>
       <c r="B181" s="18"/>
       <c r="C181" s="18"/>
@@ -6159,7 +6170,7 @@
       <c r="N181" s="6"/>
       <c r="O181" s="25"/>
     </row>
-    <row r="182" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="182" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" s="18"/>
       <c r="B182" s="18"/>
       <c r="C182" s="18"/>
@@ -6176,7 +6187,7 @@
       <c r="N182" s="6"/>
       <c r="O182" s="25"/>
     </row>
-    <row r="183" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="183" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183" s="18"/>
       <c r="B183" s="18"/>
       <c r="C183" s="18"/>
@@ -6193,7 +6204,7 @@
       <c r="N183" s="6"/>
       <c r="O183" s="25"/>
     </row>
-    <row r="184" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="184" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="18"/>
       <c r="B184" s="18"/>
       <c r="C184" s="18"/>
@@ -6210,7 +6221,7 @@
       <c r="N184" s="6"/>
       <c r="O184" s="25"/>
     </row>
-    <row r="185" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="185" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="18"/>
       <c r="B185" s="18"/>
       <c r="C185" s="18"/>
@@ -6227,7 +6238,7 @@
       <c r="N185" s="6"/>
       <c r="O185" s="25"/>
     </row>
-    <row r="186" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="186" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186" s="18"/>
       <c r="B186" s="18"/>
       <c r="C186" s="18"/>
@@ -6244,7 +6255,7 @@
       <c r="N186" s="6"/>
       <c r="O186" s="25"/>
     </row>
-    <row r="187" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="187" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" s="18"/>
       <c r="B187" s="18"/>
       <c r="C187" s="18"/>
@@ -6261,7 +6272,7 @@
       <c r="N187" s="6"/>
       <c r="O187" s="25"/>
     </row>
-    <row r="188" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="188" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A188" s="18"/>
       <c r="B188" s="18"/>
       <c r="C188" s="18"/>
@@ -6278,7 +6289,7 @@
       <c r="N188" s="6"/>
       <c r="O188" s="25"/>
     </row>
-    <row r="189" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="189" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A189" s="18"/>
       <c r="B189" s="18"/>
       <c r="C189" s="18"/>
@@ -6295,7 +6306,7 @@
       <c r="N189" s="6"/>
       <c r="O189" s="25"/>
     </row>
-    <row r="190" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="190" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="18"/>
       <c r="B190" s="18"/>
       <c r="C190" s="18"/>
@@ -6312,7 +6323,7 @@
       <c r="N190" s="6"/>
       <c r="O190" s="25"/>
     </row>
-    <row r="191" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="191" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A191" s="18"/>
       <c r="B191" s="18"/>
       <c r="C191" s="18"/>
@@ -6329,7 +6340,7 @@
       <c r="N191" s="6"/>
       <c r="O191" s="25"/>
     </row>
-    <row r="192" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="192" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A192" s="18"/>
       <c r="B192" s="18"/>
       <c r="C192" s="18"/>
@@ -6346,7 +6357,7 @@
       <c r="N192" s="6"/>
       <c r="O192" s="25"/>
     </row>
-    <row r="193" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="193" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" s="18"/>
       <c r="B193" s="18"/>
       <c r="C193" s="18"/>
@@ -6363,7 +6374,7 @@
       <c r="N193" s="6"/>
       <c r="O193" s="25"/>
     </row>
-    <row r="194" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="194" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A194" s="18"/>
       <c r="B194" s="18"/>
       <c r="C194" s="18"/>
@@ -6380,7 +6391,7 @@
       <c r="N194" s="6"/>
       <c r="O194" s="25"/>
     </row>
-    <row r="195" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="195" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" s="18"/>
       <c r="B195" s="18"/>
       <c r="C195" s="18"/>
@@ -6397,7 +6408,7 @@
       <c r="N195" s="6"/>
       <c r="O195" s="25"/>
     </row>
-    <row r="196" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="196" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A196" s="18"/>
       <c r="B196" s="18"/>
       <c r="C196" s="18"/>
@@ -6414,7 +6425,7 @@
       <c r="N196" s="6"/>
       <c r="O196" s="25"/>
     </row>
-    <row r="197" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="197" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A197" s="18"/>
       <c r="B197" s="18"/>
       <c r="C197" s="18"/>
@@ -6431,7 +6442,7 @@
       <c r="N197" s="6"/>
       <c r="O197" s="25"/>
     </row>
-    <row r="198" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="198" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A198" s="18"/>
       <c r="B198" s="18"/>
       <c r="C198" s="18"/>
@@ -6448,7 +6459,7 @@
       <c r="N198" s="6"/>
       <c r="O198" s="25"/>
     </row>
-    <row r="199" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="199" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A199" s="18"/>
       <c r="B199" s="18"/>
       <c r="C199" s="18"/>
@@ -6465,7 +6476,7 @@
       <c r="N199" s="6"/>
       <c r="O199" s="25"/>
     </row>
-    <row r="200" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="200" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A200" s="18"/>
       <c r="B200" s="18"/>
       <c r="C200" s="18"/>
@@ -6482,7 +6493,7 @@
       <c r="N200" s="6"/>
       <c r="O200" s="25"/>
     </row>
-    <row r="201" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="201" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201" s="18"/>
       <c r="B201" s="18"/>
       <c r="C201" s="18"/>
@@ -6499,7 +6510,7 @@
       <c r="N201" s="6"/>
       <c r="O201" s="25"/>
     </row>
-    <row r="202" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="202" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="18"/>
       <c r="B202" s="18"/>
       <c r="C202" s="18"/>
@@ -6516,7 +6527,7 @@
       <c r="N202" s="6"/>
       <c r="O202" s="25"/>
     </row>
-    <row r="203" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="203" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A203" s="18"/>
       <c r="B203" s="18"/>
       <c r="C203" s="18"/>
@@ -6533,7 +6544,7 @@
       <c r="N203" s="6"/>
       <c r="O203" s="25"/>
     </row>
-    <row r="204" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="204" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" s="18"/>
       <c r="B204" s="18"/>
       <c r="C204" s="18"/>
@@ -6550,7 +6561,7 @@
       <c r="N204" s="6"/>
       <c r="O204" s="25"/>
     </row>
-    <row r="205" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="205" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A205" s="18"/>
       <c r="B205" s="18"/>
       <c r="C205" s="18"/>
@@ -6567,7 +6578,7 @@
       <c r="N205" s="6"/>
       <c r="O205" s="25"/>
     </row>
-    <row r="206" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="206" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A206" s="18"/>
       <c r="B206" s="18"/>
       <c r="C206" s="18"/>
@@ -6584,7 +6595,7 @@
       <c r="N206" s="6"/>
       <c r="O206" s="25"/>
     </row>
-    <row r="207" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="207" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A207" s="18"/>
       <c r="B207" s="18"/>
       <c r="C207" s="18"/>
@@ -6601,7 +6612,7 @@
       <c r="N207" s="6"/>
       <c r="O207" s="25"/>
     </row>
-    <row r="208" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="208" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A208" s="18"/>
       <c r="B208" s="18"/>
       <c r="C208" s="18"/>
@@ -6618,7 +6629,7 @@
       <c r="N208" s="6"/>
       <c r="O208" s="25"/>
     </row>
-    <row r="209" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="209" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A209" s="18"/>
       <c r="B209" s="18"/>
       <c r="C209" s="18"/>
@@ -6635,7 +6646,7 @@
       <c r="N209" s="6"/>
       <c r="O209" s="25"/>
     </row>
-    <row r="210" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="210" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A210" s="18"/>
       <c r="B210" s="18"/>
       <c r="C210" s="18"/>
@@ -6652,7 +6663,7 @@
       <c r="N210" s="6"/>
       <c r="O210" s="25"/>
     </row>
-    <row r="211" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="211" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A211" s="18"/>
       <c r="B211" s="18"/>
       <c r="C211" s="18"/>
@@ -6669,7 +6680,7 @@
       <c r="N211" s="6"/>
       <c r="O211" s="25"/>
     </row>
-    <row r="212" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="212" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A212" s="18"/>
       <c r="B212" s="18"/>
       <c r="C212" s="18"/>
@@ -6686,7 +6697,7 @@
       <c r="N212" s="6"/>
       <c r="O212" s="25"/>
     </row>
-    <row r="213" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="213" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A213" s="18"/>
       <c r="B213" s="18"/>
       <c r="C213" s="18"/>
@@ -6703,7 +6714,7 @@
       <c r="N213" s="6"/>
       <c r="O213" s="25"/>
     </row>
-    <row r="214" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="214" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A214" s="18"/>
       <c r="B214" s="18"/>
       <c r="C214" s="18"/>
@@ -6720,7 +6731,7 @@
       <c r="N214" s="6"/>
       <c r="O214" s="25"/>
     </row>
-    <row r="215" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="215" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A215" s="18"/>
       <c r="B215" s="18"/>
       <c r="C215" s="18"/>
@@ -6737,7 +6748,7 @@
       <c r="N215" s="6"/>
       <c r="O215" s="25"/>
     </row>
-    <row r="216" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="216" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="18"/>
       <c r="B216" s="18"/>
       <c r="C216" s="18"/>
@@ -6754,7 +6765,7 @@
       <c r="N216" s="6"/>
       <c r="O216" s="25"/>
     </row>
-    <row r="217" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="217" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A217" s="18"/>
       <c r="B217" s="18"/>
       <c r="C217" s="18"/>
@@ -6771,7 +6782,7 @@
       <c r="N217" s="6"/>
       <c r="O217" s="25"/>
     </row>
-    <row r="218" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="218" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A218" s="18"/>
       <c r="B218" s="18"/>
       <c r="C218" s="18"/>
@@ -6788,7 +6799,7 @@
       <c r="N218" s="6"/>
       <c r="O218" s="25"/>
     </row>
-    <row r="219" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="219" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A219" s="18"/>
       <c r="B219" s="18"/>
       <c r="C219" s="18"/>
@@ -6805,7 +6816,7 @@
       <c r="N219" s="6"/>
       <c r="O219" s="25"/>
     </row>
-    <row r="220" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="220" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A220" s="18"/>
       <c r="B220" s="18"/>
       <c r="C220" s="18"/>
@@ -6822,7 +6833,7 @@
       <c r="N220" s="6"/>
       <c r="O220" s="25"/>
     </row>
-    <row r="221" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="221" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A221" s="18"/>
       <c r="B221" s="18"/>
       <c r="C221" s="18"/>
@@ -6839,7 +6850,7 @@
       <c r="N221" s="6"/>
       <c r="O221" s="25"/>
     </row>
-    <row r="222" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="222" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A222" s="18"/>
       <c r="B222" s="18"/>
       <c r="C222" s="18"/>
@@ -6856,7 +6867,7 @@
       <c r="N222" s="6"/>
       <c r="O222" s="25"/>
     </row>
-    <row r="223" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="223" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A223" s="18"/>
       <c r="B223" s="18"/>
       <c r="C223" s="18"/>
@@ -6873,7 +6884,7 @@
       <c r="N223" s="6"/>
       <c r="O223" s="25"/>
     </row>
-    <row r="224" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="224" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A224" s="18"/>
       <c r="B224" s="18"/>
       <c r="C224" s="18"/>
@@ -6890,7 +6901,7 @@
       <c r="N224" s="6"/>
       <c r="O224" s="25"/>
     </row>
-    <row r="225" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="225" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A225" s="18"/>
       <c r="B225" s="18"/>
       <c r="C225" s="18"/>
@@ -6907,7 +6918,7 @@
       <c r="N225" s="6"/>
       <c r="O225" s="25"/>
     </row>
-    <row r="226" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="226" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A226" s="18"/>
       <c r="B226" s="18"/>
       <c r="C226" s="18"/>
@@ -6924,7 +6935,7 @@
       <c r="N226" s="6"/>
       <c r="O226" s="25"/>
     </row>
-    <row r="227" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="227" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A227" s="18"/>
       <c r="B227" s="18"/>
       <c r="C227" s="18"/>
@@ -6941,7 +6952,7 @@
       <c r="N227" s="6"/>
       <c r="O227" s="25"/>
     </row>
-    <row r="228" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="228" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A228" s="18"/>
       <c r="B228" s="18"/>
       <c r="C228" s="18"/>
@@ -6958,7 +6969,7 @@
       <c r="N228" s="6"/>
       <c r="O228" s="25"/>
     </row>
-    <row r="229" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="229" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A229" s="18"/>
       <c r="B229" s="18"/>
       <c r="C229" s="18"/>
@@ -6975,7 +6986,7 @@
       <c r="N229" s="6"/>
       <c r="O229" s="25"/>
     </row>
-    <row r="230" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="230" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A230" s="18"/>
       <c r="B230" s="18"/>
       <c r="C230" s="18"/>
@@ -6992,7 +7003,7 @@
       <c r="N230" s="6"/>
       <c r="O230" s="25"/>
     </row>
-    <row r="231" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="231" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A231" s="18"/>
       <c r="B231" s="18"/>
       <c r="C231" s="18"/>
@@ -7009,7 +7020,7 @@
       <c r="N231" s="6"/>
       <c r="O231" s="25"/>
     </row>
-    <row r="232" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="232" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A232" s="18"/>
       <c r="B232" s="18"/>
       <c r="C232" s="18"/>
@@ -7026,7 +7037,7 @@
       <c r="N232" s="6"/>
       <c r="O232" s="25"/>
     </row>
-    <row r="233" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="233" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A233" s="18"/>
       <c r="B233" s="18"/>
       <c r="C233" s="18"/>
@@ -7043,7 +7054,7 @@
       <c r="N233" s="6"/>
       <c r="O233" s="25"/>
     </row>
-    <row r="234" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="234" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A234" s="18"/>
       <c r="B234" s="18"/>
       <c r="C234" s="18"/>
@@ -7060,7 +7071,7 @@
       <c r="N234" s="6"/>
       <c r="O234" s="25"/>
     </row>
-    <row r="235" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="235" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A235" s="18"/>
       <c r="B235" s="18"/>
       <c r="C235" s="18"/>
@@ -7077,7 +7088,7 @@
       <c r="N235" s="6"/>
       <c r="O235" s="25"/>
     </row>
-    <row r="236" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="236" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A236" s="18"/>
       <c r="B236" s="18"/>
       <c r="C236" s="18"/>
@@ -7094,7 +7105,7 @@
       <c r="N236" s="6"/>
       <c r="O236" s="25"/>
     </row>
-    <row r="237" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="237" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A237" s="18"/>
       <c r="B237" s="18"/>
       <c r="C237" s="18"/>
@@ -7111,7 +7122,7 @@
       <c r="N237" s="6"/>
       <c r="O237" s="25"/>
     </row>
-    <row r="238" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="238" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A238" s="18"/>
       <c r="B238" s="18"/>
       <c r="C238" s="18"/>
@@ -7128,7 +7139,7 @@
       <c r="N238" s="6"/>
       <c r="O238" s="25"/>
     </row>
-    <row r="239" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="239" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A239" s="18"/>
       <c r="B239" s="18"/>
       <c r="C239" s="18"/>
@@ -7145,7 +7156,7 @@
       <c r="N239" s="6"/>
       <c r="O239" s="25"/>
     </row>
-    <row r="240" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="240" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A240" s="18"/>
       <c r="B240" s="18"/>
       <c r="C240" s="18"/>
@@ -7162,7 +7173,7 @@
       <c r="N240" s="6"/>
       <c r="O240" s="25"/>
     </row>
-    <row r="241" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="241" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A241" s="18"/>
       <c r="B241" s="18"/>
       <c r="C241" s="18"/>
@@ -7179,7 +7190,7 @@
       <c r="N241" s="6"/>
       <c r="O241" s="25"/>
     </row>
-    <row r="242" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="242" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A242" s="18"/>
       <c r="B242" s="18"/>
       <c r="C242" s="18"/>
@@ -7196,7 +7207,7 @@
       <c r="N242" s="6"/>
       <c r="O242" s="25"/>
     </row>
-    <row r="243" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="243" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A243" s="18"/>
       <c r="B243" s="18"/>
       <c r="C243" s="18"/>
@@ -7213,7 +7224,7 @@
       <c r="N243" s="6"/>
       <c r="O243" s="25"/>
     </row>
-    <row r="244" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="244" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A244" s="18"/>
       <c r="B244" s="18"/>
       <c r="C244" s="18"/>
@@ -7230,7 +7241,7 @@
       <c r="N244" s="6"/>
       <c r="O244" s="25"/>
     </row>
-    <row r="245" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="245" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A245" s="18"/>
       <c r="B245" s="18"/>
       <c r="C245" s="18"/>
@@ -7247,7 +7258,7 @@
       <c r="N245" s="6"/>
       <c r="O245" s="25"/>
     </row>
-    <row r="246" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="246" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A246" s="18"/>
       <c r="B246" s="18"/>
       <c r="C246" s="18"/>
@@ -7264,7 +7275,7 @@
       <c r="N246" s="6"/>
       <c r="O246" s="25"/>
     </row>
-    <row r="247" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="247" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A247" s="18"/>
       <c r="B247" s="18"/>
       <c r="C247" s="18"/>
@@ -7281,7 +7292,7 @@
       <c r="N247" s="6"/>
       <c r="O247" s="25"/>
     </row>
-    <row r="248" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="248" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A248" s="18"/>
       <c r="B248" s="18"/>
       <c r="C248" s="18"/>
@@ -7298,7 +7309,7 @@
       <c r="N248" s="6"/>
       <c r="O248" s="25"/>
     </row>
-    <row r="249" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="249" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A249" s="18"/>
       <c r="B249" s="18"/>
       <c r="C249" s="18"/>
@@ -7315,7 +7326,7 @@
       <c r="N249" s="6"/>
       <c r="O249" s="25"/>
     </row>
-    <row r="250" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="250" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A250" s="18"/>
       <c r="B250" s="18"/>
       <c r="C250" s="18"/>
@@ -7332,7 +7343,7 @@
       <c r="N250" s="6"/>
       <c r="O250" s="25"/>
     </row>
-    <row r="251" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="251" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A251" s="18"/>
       <c r="B251" s="18"/>
       <c r="C251" s="18"/>
@@ -7349,7 +7360,7 @@
       <c r="N251" s="6"/>
       <c r="O251" s="25"/>
     </row>
-    <row r="252" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="252" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A252" s="18"/>
       <c r="B252" s="18"/>
       <c r="C252" s="18"/>
@@ -7366,7 +7377,7 @@
       <c r="N252" s="6"/>
       <c r="O252" s="25"/>
     </row>
-    <row r="253" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="253" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A253" s="18"/>
       <c r="B253" s="18"/>
       <c r="C253" s="18"/>
@@ -7383,7 +7394,7 @@
       <c r="N253" s="6"/>
       <c r="O253" s="25"/>
     </row>
-    <row r="254" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="254" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A254" s="18"/>
       <c r="B254" s="18"/>
       <c r="C254" s="18"/>
@@ -7400,7 +7411,7 @@
       <c r="N254" s="6"/>
       <c r="O254" s="25"/>
     </row>
-    <row r="255" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="255" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A255" s="18"/>
       <c r="B255" s="18"/>
       <c r="C255" s="18"/>
@@ -7417,7 +7428,7 @@
       <c r="N255" s="6"/>
       <c r="O255" s="25"/>
     </row>
-    <row r="256" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="256" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A256" s="18"/>
       <c r="B256" s="18"/>
       <c r="C256" s="18"/>
@@ -7434,7 +7445,7 @@
       <c r="N256" s="6"/>
       <c r="O256" s="25"/>
     </row>
-    <row r="257" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="257" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A257" s="18"/>
       <c r="B257" s="18"/>
       <c r="C257" s="18"/>
@@ -7451,7 +7462,7 @@
       <c r="N257" s="6"/>
       <c r="O257" s="25"/>
     </row>
-    <row r="258" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="258" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A258" s="18"/>
       <c r="B258" s="18"/>
       <c r="C258" s="18"/>
@@ -7468,7 +7479,7 @@
       <c r="N258" s="6"/>
       <c r="O258" s="25"/>
     </row>
-    <row r="259" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="259" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A259" s="18"/>
       <c r="B259" s="18"/>
       <c r="C259" s="18"/>
@@ -7485,7 +7496,7 @@
       <c r="N259" s="6"/>
       <c r="O259" s="25"/>
     </row>
-    <row r="260" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="260" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A260" s="18"/>
       <c r="B260" s="18"/>
       <c r="C260" s="18"/>
@@ -7502,7 +7513,7 @@
       <c r="N260" s="6"/>
       <c r="O260" s="25"/>
     </row>
-    <row r="261" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="261" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A261" s="18"/>
       <c r="B261" s="18"/>
       <c r="C261" s="18"/>
@@ -7519,7 +7530,7 @@
       <c r="N261" s="6"/>
       <c r="O261" s="25"/>
     </row>
-    <row r="262" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="262" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A262" s="18"/>
       <c r="B262" s="18"/>
       <c r="C262" s="18"/>
@@ -7536,7 +7547,7 @@
       <c r="N262" s="6"/>
       <c r="O262" s="25"/>
     </row>
-    <row r="263" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="263" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A263" s="18"/>
       <c r="B263" s="18"/>
       <c r="C263" s="18"/>
@@ -7553,7 +7564,7 @@
       <c r="N263" s="6"/>
       <c r="O263" s="25"/>
     </row>
-    <row r="264" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="264" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A264" s="18"/>
       <c r="B264" s="18"/>
       <c r="C264" s="18"/>
@@ -7570,7 +7581,7 @@
       <c r="N264" s="6"/>
       <c r="O264" s="25"/>
     </row>
-    <row r="265" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="265" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A265" s="18"/>
       <c r="B265" s="18"/>
       <c r="C265" s="18"/>
@@ -7587,7 +7598,7 @@
       <c r="N265" s="6"/>
       <c r="O265" s="25"/>
     </row>
-    <row r="266" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="266" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A266" s="18"/>
       <c r="B266" s="18"/>
       <c r="C266" s="18"/>
@@ -7604,7 +7615,7 @@
       <c r="N266" s="6"/>
       <c r="O266" s="25"/>
     </row>
-    <row r="267" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="267" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A267" s="18"/>
       <c r="B267" s="18"/>
       <c r="C267" s="18"/>
@@ -7621,7 +7632,7 @@
       <c r="N267" s="6"/>
       <c r="O267" s="25"/>
     </row>
-    <row r="268" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="268" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A268" s="18"/>
       <c r="B268" s="18"/>
       <c r="C268" s="18"/>
@@ -7638,7 +7649,7 @@
       <c r="N268" s="6"/>
       <c r="O268" s="25"/>
     </row>
-    <row r="269" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="269" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A269" s="18"/>
       <c r="B269" s="18"/>
       <c r="C269" s="18"/>
@@ -7655,7 +7666,7 @@
       <c r="N269" s="6"/>
       <c r="O269" s="25"/>
     </row>
-    <row r="270" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="270" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A270" s="18"/>
       <c r="B270" s="18"/>
       <c r="C270" s="18"/>
@@ -7672,7 +7683,7 @@
       <c r="N270" s="6"/>
       <c r="O270" s="25"/>
     </row>
-    <row r="271" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="271" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A271" s="18"/>
       <c r="B271" s="18"/>
       <c r="C271" s="18"/>
@@ -7689,7 +7700,7 @@
       <c r="N271" s="6"/>
       <c r="O271" s="25"/>
     </row>
-    <row r="272" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="272" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A272" s="18"/>
       <c r="B272" s="18"/>
       <c r="C272" s="18"/>
@@ -7706,7 +7717,7 @@
       <c r="N272" s="6"/>
       <c r="O272" s="25"/>
     </row>
-    <row r="273" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="273" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A273" s="18"/>
       <c r="B273" s="18"/>
       <c r="C273" s="18"/>
@@ -7723,7 +7734,7 @@
       <c r="N273" s="6"/>
       <c r="O273" s="25"/>
     </row>
-    <row r="274" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="274" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A274" s="18"/>
       <c r="B274" s="18"/>
       <c r="C274" s="18"/>
@@ -7740,7 +7751,7 @@
       <c r="N274" s="6"/>
       <c r="O274" s="25"/>
     </row>
-    <row r="275" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="275" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A275" s="18"/>
       <c r="B275" s="18"/>
       <c r="C275" s="18"/>
@@ -7757,7 +7768,7 @@
       <c r="N275" s="6"/>
       <c r="O275" s="25"/>
     </row>
-    <row r="276" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="276" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A276" s="18"/>
       <c r="B276" s="18"/>
       <c r="C276" s="18"/>
@@ -7774,7 +7785,7 @@
       <c r="N276" s="6"/>
       <c r="O276" s="25"/>
     </row>
-    <row r="277" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="277" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A277" s="18"/>
       <c r="B277" s="18"/>
       <c r="C277" s="18"/>
@@ -7791,7 +7802,7 @@
       <c r="N277" s="6"/>
       <c r="O277" s="25"/>
     </row>
-    <row r="278" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="278" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A278" s="18"/>
       <c r="B278" s="18"/>
       <c r="C278" s="18"/>
@@ -7808,7 +7819,7 @@
       <c r="N278" s="6"/>
       <c r="O278" s="25"/>
     </row>
-    <row r="279" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="279" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A279" s="18"/>
       <c r="B279" s="18"/>
       <c r="C279" s="18"/>
@@ -7825,7 +7836,7 @@
       <c r="N279" s="6"/>
       <c r="O279" s="25"/>
     </row>
-    <row r="280" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="280" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A280" s="18"/>
       <c r="B280" s="18"/>
       <c r="C280" s="18"/>
@@ -7842,7 +7853,7 @@
       <c r="N280" s="6"/>
       <c r="O280" s="25"/>
     </row>
-    <row r="281" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="281" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A281" s="18"/>
       <c r="B281" s="18"/>
       <c r="C281" s="18"/>
@@ -7859,7 +7870,7 @@
       <c r="N281" s="6"/>
       <c r="O281" s="25"/>
     </row>
-    <row r="282" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="282" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A282" s="18"/>
       <c r="B282" s="18"/>
       <c r="C282" s="18"/>
@@ -7876,7 +7887,7 @@
       <c r="N282" s="6"/>
       <c r="O282" s="25"/>
     </row>
-    <row r="283" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="283" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A283" s="18"/>
       <c r="B283" s="18"/>
       <c r="C283" s="18"/>
@@ -7893,7 +7904,7 @@
       <c r="N283" s="6"/>
       <c r="O283" s="25"/>
     </row>
-    <row r="284" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="284" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A284" s="18"/>
       <c r="B284" s="18"/>
       <c r="C284" s="18"/>
@@ -7910,7 +7921,7 @@
       <c r="N284" s="6"/>
       <c r="O284" s="25"/>
     </row>
-    <row r="285" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="285" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A285" s="18"/>
       <c r="B285" s="18"/>
       <c r="C285" s="18"/>
@@ -7927,7 +7938,7 @@
       <c r="N285" s="6"/>
       <c r="O285" s="25"/>
     </row>
-    <row r="286" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="286" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A286" s="18"/>
       <c r="B286" s="18"/>
       <c r="C286" s="18"/>
@@ -7944,7 +7955,7 @@
       <c r="N286" s="6"/>
       <c r="O286" s="25"/>
     </row>
-    <row r="287" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="287" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A287" s="18"/>
       <c r="B287" s="18"/>
       <c r="C287" s="18"/>
@@ -7961,7 +7972,7 @@
       <c r="N287" s="6"/>
       <c r="O287" s="25"/>
     </row>
-    <row r="288" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="288" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A288" s="18"/>
       <c r="B288" s="18"/>
       <c r="C288" s="18"/>
@@ -7978,7 +7989,7 @@
       <c r="N288" s="6"/>
       <c r="O288" s="25"/>
     </row>
-    <row r="289" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="289" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A289" s="18"/>
       <c r="B289" s="18"/>
       <c r="C289" s="18"/>
@@ -7995,7 +8006,7 @@
       <c r="N289" s="6"/>
       <c r="O289" s="25"/>
     </row>
-    <row r="290" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="290" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A290" s="18"/>
       <c r="B290" s="18"/>
       <c r="C290" s="18"/>
@@ -8012,7 +8023,7 @@
       <c r="N290" s="6"/>
       <c r="O290" s="25"/>
     </row>
-    <row r="291" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="291" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A291" s="18"/>
       <c r="B291" s="18"/>
       <c r="C291" s="18"/>
@@ -8029,7 +8040,7 @@
       <c r="N291" s="6"/>
       <c r="O291" s="25"/>
     </row>
-    <row r="292" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="292" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A292" s="18"/>
       <c r="B292" s="18"/>
       <c r="C292" s="18"/>
@@ -8046,7 +8057,7 @@
       <c r="N292" s="6"/>
       <c r="O292" s="25"/>
     </row>
-    <row r="293" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="293" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A293" s="18"/>
       <c r="B293" s="18"/>
       <c r="C293" s="18"/>
@@ -8063,7 +8074,7 @@
       <c r="N293" s="6"/>
       <c r="O293" s="25"/>
     </row>
-    <row r="294" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="294" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A294" s="18"/>
       <c r="B294" s="18"/>
       <c r="C294" s="18"/>
@@ -8080,7 +8091,7 @@
       <c r="N294" s="6"/>
       <c r="O294" s="25"/>
     </row>
-    <row r="295" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="295" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A295" s="18"/>
       <c r="B295" s="18"/>
       <c r="C295" s="18"/>
@@ -8097,7 +8108,7 @@
       <c r="N295" s="6"/>
       <c r="O295" s="25"/>
     </row>
-    <row r="296" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="296" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A296" s="18"/>
       <c r="B296" s="18"/>
       <c r="C296" s="18"/>
@@ -8114,7 +8125,7 @@
       <c r="N296" s="6"/>
       <c r="O296" s="25"/>
     </row>
-    <row r="297" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="297" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A297" s="18"/>
       <c r="B297" s="18"/>
       <c r="C297" s="18"/>
@@ -8131,7 +8142,7 @@
       <c r="N297" s="6"/>
       <c r="O297" s="25"/>
     </row>
-    <row r="298" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="298" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A298" s="18"/>
       <c r="B298" s="18"/>
       <c r="C298" s="18"/>
@@ -8148,7 +8159,7 @@
       <c r="N298" s="6"/>
       <c r="O298" s="25"/>
     </row>
-    <row r="299" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="299" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A299" s="18"/>
       <c r="B299" s="18"/>
       <c r="C299" s="18"/>
@@ -8165,7 +8176,7 @@
       <c r="N299" s="6"/>
       <c r="O299" s="25"/>
     </row>
-    <row r="300" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="300" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A300" s="18"/>
       <c r="B300" s="18"/>
       <c r="C300" s="18"/>
@@ -8182,7 +8193,7 @@
       <c r="N300" s="6"/>
       <c r="O300" s="25"/>
     </row>
-    <row r="301" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="301" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A301" s="18"/>
       <c r="B301" s="18"/>
       <c r="C301" s="18"/>
@@ -8199,7 +8210,7 @@
       <c r="N301" s="6"/>
       <c r="O301" s="25"/>
     </row>
-    <row r="302" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="302" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A302" s="18"/>
       <c r="B302" s="18"/>
       <c r="C302" s="18"/>
@@ -8216,7 +8227,7 @@
       <c r="N302" s="6"/>
       <c r="O302" s="25"/>
     </row>
-    <row r="303" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="303" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A303" s="18"/>
       <c r="B303" s="18"/>
       <c r="C303" s="18"/>
@@ -8233,7 +8244,7 @@
       <c r="N303" s="6"/>
       <c r="O303" s="25"/>
     </row>
-    <row r="304" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="304" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A304" s="18"/>
       <c r="B304" s="18"/>
       <c r="C304" s="18"/>
@@ -8250,7 +8261,7 @@
       <c r="N304" s="6"/>
       <c r="O304" s="25"/>
     </row>
-    <row r="305" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="305" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A305" s="18"/>
       <c r="B305" s="18"/>
       <c r="C305" s="18"/>
@@ -8267,7 +8278,7 @@
       <c r="N305" s="6"/>
       <c r="O305" s="25"/>
     </row>
-    <row r="306" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="306" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A306" s="18"/>
       <c r="B306" s="18"/>
       <c r="C306" s="18"/>
@@ -8284,7 +8295,7 @@
       <c r="N306" s="6"/>
       <c r="O306" s="25"/>
     </row>
-    <row r="307" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="307" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A307" s="18"/>
       <c r="B307" s="18"/>
       <c r="C307" s="18"/>
@@ -8301,7 +8312,7 @@
       <c r="N307" s="6"/>
       <c r="O307" s="25"/>
     </row>
-    <row r="308" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="308" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A308" s="18"/>
       <c r="B308" s="18"/>
       <c r="C308" s="18"/>
@@ -8318,7 +8329,7 @@
       <c r="N308" s="6"/>
       <c r="O308" s="25"/>
     </row>
-    <row r="309" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="309" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A309" s="18"/>
       <c r="B309" s="18"/>
       <c r="C309" s="18"/>
@@ -8335,7 +8346,7 @@
       <c r="N309" s="6"/>
       <c r="O309" s="25"/>
     </row>
-    <row r="310" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="310" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A310" s="18"/>
       <c r="B310" s="18"/>
       <c r="C310" s="18"/>
@@ -8352,7 +8363,7 @@
       <c r="N310" s="6"/>
       <c r="O310" s="25"/>
     </row>
-    <row r="311" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="311" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A311" s="18"/>
       <c r="B311" s="18"/>
       <c r="C311" s="18"/>
@@ -8369,7 +8380,7 @@
       <c r="N311" s="6"/>
       <c r="O311" s="25"/>
     </row>
-    <row r="312" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="312" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A312" s="18"/>
       <c r="B312" s="18"/>
       <c r="C312" s="18"/>
@@ -8386,7 +8397,7 @@
       <c r="N312" s="6"/>
       <c r="O312" s="25"/>
     </row>
-    <row r="313" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="313" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A313" s="18"/>
       <c r="B313" s="18"/>
       <c r="C313" s="18"/>
@@ -8403,7 +8414,7 @@
       <c r="N313" s="6"/>
       <c r="O313" s="25"/>
     </row>
-    <row r="314" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="314" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A314" s="18"/>
       <c r="B314" s="18"/>
       <c r="C314" s="18"/>
@@ -8420,7 +8431,7 @@
       <c r="N314" s="6"/>
       <c r="O314" s="25"/>
     </row>
-    <row r="315" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="315" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A315" s="18"/>
       <c r="B315" s="18"/>
       <c r="C315" s="18"/>
@@ -8437,7 +8448,7 @@
       <c r="N315" s="6"/>
       <c r="O315" s="25"/>
     </row>
-    <row r="316" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="316" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A316" s="18"/>
       <c r="B316" s="18"/>
       <c r="C316" s="18"/>
@@ -8454,7 +8465,7 @@
       <c r="N316" s="6"/>
       <c r="O316" s="25"/>
     </row>
-    <row r="317" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="317" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A317" s="18"/>
       <c r="B317" s="18"/>
       <c r="C317" s="18"/>
@@ -8471,7 +8482,7 @@
       <c r="N317" s="6"/>
       <c r="O317" s="25"/>
     </row>
-    <row r="318" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="318" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A318" s="18"/>
       <c r="B318" s="18"/>
       <c r="C318" s="18"/>
@@ -8488,7 +8499,7 @@
       <c r="N318" s="6"/>
       <c r="O318" s="25"/>
     </row>
-    <row r="319" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="319" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A319" s="18"/>
       <c r="B319" s="18"/>
       <c r="C319" s="18"/>
@@ -8505,7 +8516,7 @@
       <c r="N319" s="6"/>
       <c r="O319" s="25"/>
     </row>
-    <row r="320" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="320" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A320" s="18"/>
       <c r="B320" s="18"/>
       <c r="C320" s="18"/>
@@ -8522,7 +8533,7 @@
       <c r="N320" s="6"/>
       <c r="O320" s="25"/>
     </row>
-    <row r="321" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="321" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A321" s="18"/>
       <c r="B321" s="18"/>
       <c r="C321" s="18"/>
@@ -8539,7 +8550,7 @@
       <c r="N321" s="6"/>
       <c r="O321" s="25"/>
     </row>
-    <row r="322" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="322" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A322" s="18"/>
       <c r="B322" s="18"/>
       <c r="C322" s="18"/>
@@ -8556,7 +8567,7 @@
       <c r="N322" s="6"/>
       <c r="O322" s="25"/>
     </row>
-    <row r="323" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="323" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A323" s="18"/>
       <c r="B323" s="18"/>
       <c r="C323" s="18"/>
@@ -8573,7 +8584,7 @@
       <c r="N323" s="6"/>
       <c r="O323" s="25"/>
     </row>
-    <row r="324" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="324" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A324" s="18"/>
       <c r="B324" s="18"/>
       <c r="C324" s="18"/>
@@ -8590,7 +8601,7 @@
       <c r="N324" s="6"/>
       <c r="O324" s="25"/>
     </row>
-    <row r="325" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="325" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A325" s="18"/>
       <c r="B325" s="18"/>
       <c r="C325" s="18"/>
@@ -8607,7 +8618,7 @@
       <c r="N325" s="6"/>
       <c r="O325" s="25"/>
     </row>
-    <row r="326" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="326" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A326" s="18"/>
       <c r="B326" s="18"/>
       <c r="C326" s="18"/>
@@ -8624,7 +8635,7 @@
       <c r="N326" s="6"/>
       <c r="O326" s="25"/>
     </row>
-    <row r="327" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="327" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A327" s="18"/>
       <c r="B327" s="18"/>
       <c r="C327" s="18"/>
@@ -8641,7 +8652,7 @@
       <c r="N327" s="6"/>
       <c r="O327" s="25"/>
     </row>
-    <row r="328" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="328" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A328" s="18"/>
       <c r="B328" s="18"/>
       <c r="C328" s="18"/>
@@ -8658,7 +8669,7 @@
       <c r="N328" s="6"/>
       <c r="O328" s="25"/>
     </row>
-    <row r="329" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="329" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A329" s="18"/>
       <c r="B329" s="18"/>
       <c r="C329" s="18"/>
@@ -8675,7 +8686,7 @@
       <c r="N329" s="6"/>
       <c r="O329" s="25"/>
     </row>
-    <row r="330" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="330" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A330" s="18"/>
       <c r="B330" s="18"/>
       <c r="C330" s="18"/>
@@ -8692,7 +8703,7 @@
       <c r="N330" s="6"/>
       <c r="O330" s="25"/>
     </row>
-    <row r="331" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="331" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A331" s="18"/>
       <c r="B331" s="18"/>
       <c r="C331" s="18"/>
@@ -8709,7 +8720,7 @@
       <c r="N331" s="6"/>
       <c r="O331" s="25"/>
     </row>
-    <row r="332" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="332" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A332" s="18"/>
       <c r="B332" s="18"/>
       <c r="C332" s="18"/>
@@ -8726,7 +8737,7 @@
       <c r="N332" s="6"/>
       <c r="O332" s="25"/>
     </row>
-    <row r="333" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="333" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A333" s="18"/>
       <c r="B333" s="18"/>
       <c r="C333" s="18"/>
@@ -8743,7 +8754,7 @@
       <c r="N333" s="6"/>
       <c r="O333" s="25"/>
     </row>
-    <row r="334" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="334" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A334" s="18"/>
       <c r="B334" s="18"/>
       <c r="C334" s="18"/>
@@ -8760,7 +8771,7 @@
       <c r="N334" s="6"/>
       <c r="O334" s="25"/>
     </row>
-    <row r="335" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="335" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A335" s="18"/>
       <c r="B335" s="18"/>
       <c r="C335" s="18"/>
@@ -8777,7 +8788,7 @@
       <c r="N335" s="6"/>
       <c r="O335" s="25"/>
     </row>
-    <row r="336" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="336" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A336" s="18"/>
       <c r="B336" s="18"/>
       <c r="C336" s="18"/>
@@ -8794,7 +8805,7 @@
       <c r="N336" s="6"/>
       <c r="O336" s="25"/>
     </row>
-    <row r="337" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="337" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A337" s="18"/>
       <c r="B337" s="18"/>
       <c r="C337" s="18"/>
@@ -8811,7 +8822,7 @@
       <c r="N337" s="6"/>
       <c r="O337" s="25"/>
     </row>
-    <row r="338" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="338" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A338" s="18"/>
       <c r="B338" s="18"/>
       <c r="C338" s="18"/>
@@ -8828,7 +8839,7 @@
       <c r="N338" s="6"/>
       <c r="O338" s="25"/>
     </row>
-    <row r="339" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="339" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A339" s="18"/>
       <c r="B339" s="18"/>
       <c r="C339" s="18"/>
@@ -8845,7 +8856,7 @@
       <c r="N339" s="6"/>
       <c r="O339" s="25"/>
     </row>
-    <row r="340" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="340" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A340" s="18"/>
       <c r="B340" s="18"/>
       <c r="C340" s="18"/>
@@ -8862,7 +8873,7 @@
       <c r="N340" s="6"/>
       <c r="O340" s="25"/>
     </row>
-    <row r="341" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="341" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A341" s="18"/>
       <c r="B341" s="18"/>
       <c r="C341" s="18"/>
@@ -8879,7 +8890,7 @@
       <c r="N341" s="6"/>
       <c r="O341" s="25"/>
     </row>
-    <row r="342" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="342" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A342" s="18"/>
       <c r="B342" s="18"/>
       <c r="C342" s="18"/>
@@ -8896,7 +8907,7 @@
       <c r="N342" s="6"/>
       <c r="O342" s="25"/>
     </row>
-    <row r="343" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="343" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A343" s="18"/>
       <c r="B343" s="18"/>
       <c r="C343" s="18"/>
@@ -8913,7 +8924,7 @@
       <c r="N343" s="6"/>
       <c r="O343" s="25"/>
     </row>
-    <row r="344" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="344" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A344" s="18"/>
       <c r="B344" s="18"/>
       <c r="C344" s="18"/>
@@ -8930,7 +8941,7 @@
       <c r="N344" s="6"/>
       <c r="O344" s="25"/>
     </row>
-    <row r="345" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="345" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A345" s="18"/>
       <c r="B345" s="18"/>
       <c r="C345" s="18"/>
@@ -8947,7 +8958,7 @@
       <c r="N345" s="6"/>
       <c r="O345" s="25"/>
     </row>
-    <row r="346" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="346" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A346" s="18"/>
       <c r="B346" s="18"/>
       <c r="C346" s="18"/>
@@ -8964,7 +8975,7 @@
       <c r="N346" s="6"/>
       <c r="O346" s="25"/>
     </row>
-    <row r="347" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="347" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A347" s="18"/>
       <c r="B347" s="18"/>
       <c r="C347" s="18"/>
@@ -8981,7 +8992,7 @@
       <c r="N347" s="6"/>
       <c r="O347" s="25"/>
     </row>
-    <row r="348" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="348" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A348" s="18"/>
       <c r="B348" s="18"/>
       <c r="C348" s="18"/>
@@ -8998,7 +9009,7 @@
       <c r="N348" s="6"/>
       <c r="O348" s="25"/>
     </row>
-    <row r="349" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="349" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A349" s="18"/>
       <c r="B349" s="18"/>
       <c r="C349" s="18"/>
@@ -9015,7 +9026,7 @@
       <c r="N349" s="6"/>
       <c r="O349" s="25"/>
     </row>
-    <row r="350" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="350" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A350" s="18"/>
       <c r="B350" s="18"/>
       <c r="C350" s="18"/>
@@ -9032,7 +9043,7 @@
       <c r="N350" s="6"/>
       <c r="O350" s="25"/>
     </row>
-    <row r="351" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="351" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A351" s="18"/>
       <c r="B351" s="18"/>
       <c r="C351" s="18"/>
@@ -9049,7 +9060,7 @@
       <c r="N351" s="6"/>
       <c r="O351" s="25"/>
     </row>
-    <row r="352" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="352" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A352" s="18"/>
       <c r="B352" s="18"/>
       <c r="C352" s="18"/>
@@ -9066,7 +9077,7 @@
       <c r="N352" s="6"/>
       <c r="O352" s="25"/>
     </row>
-    <row r="353" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="353" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A353" s="18"/>
       <c r="B353" s="18"/>
       <c r="C353" s="18"/>
@@ -9083,7 +9094,7 @@
       <c r="N353" s="6"/>
       <c r="O353" s="25"/>
     </row>
-    <row r="354" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="354" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A354" s="18"/>
       <c r="B354" s="18"/>
       <c r="C354" s="18"/>
@@ -9100,7 +9111,7 @@
       <c r="N354" s="6"/>
       <c r="O354" s="25"/>
     </row>
-    <row r="355" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="355" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A355" s="18"/>
       <c r="B355" s="18"/>
       <c r="C355" s="18"/>
@@ -9117,7 +9128,7 @@
       <c r="N355" s="6"/>
       <c r="O355" s="25"/>
     </row>
-    <row r="356" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="356" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A356" s="18"/>
       <c r="B356" s="18"/>
       <c r="C356" s="18"/>
@@ -9134,7 +9145,7 @@
       <c r="N356" s="6"/>
       <c r="O356" s="25"/>
     </row>
-    <row r="357" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="357" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A357" s="18"/>
       <c r="B357" s="18"/>
       <c r="C357" s="18"/>
@@ -9151,7 +9162,7 @@
       <c r="N357" s="6"/>
       <c r="O357" s="25"/>
     </row>
-    <row r="358" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="358" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A358" s="18"/>
       <c r="B358" s="18"/>
       <c r="C358" s="18"/>
@@ -9168,7 +9179,7 @@
       <c r="N358" s="6"/>
       <c r="O358" s="25"/>
     </row>
-    <row r="359" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="359" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A359" s="18"/>
       <c r="B359" s="18"/>
       <c r="C359" s="18"/>
@@ -9185,7 +9196,7 @@
       <c r="N359" s="6"/>
       <c r="O359" s="25"/>
     </row>
-    <row r="360" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="360" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A360" s="18"/>
       <c r="B360" s="18"/>
       <c r="C360" s="18"/>
@@ -9202,7 +9213,7 @@
       <c r="N360" s="6"/>
       <c r="O360" s="25"/>
     </row>
-    <row r="361" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="361" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A361" s="18"/>
       <c r="B361" s="18"/>
       <c r="C361" s="18"/>
@@ -9219,7 +9230,7 @@
       <c r="N361" s="6"/>
       <c r="O361" s="25"/>
     </row>
-    <row r="362" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="362" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A362" s="18"/>
       <c r="B362" s="18"/>
       <c r="C362" s="18"/>
@@ -9236,7 +9247,7 @@
       <c r="N362" s="6"/>
       <c r="O362" s="25"/>
     </row>
-    <row r="363" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="363" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A363" s="18"/>
       <c r="B363" s="18"/>
       <c r="C363" s="18"/>
@@ -9253,7 +9264,7 @@
       <c r="N363" s="6"/>
       <c r="O363" s="25"/>
     </row>
-    <row r="364" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="364" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A364" s="18"/>
       <c r="B364" s="18"/>
       <c r="C364" s="18"/>
@@ -9270,7 +9281,7 @@
       <c r="N364" s="6"/>
       <c r="O364" s="25"/>
     </row>
-    <row r="365" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="365" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A365" s="18"/>
       <c r="B365" s="18"/>
       <c r="C365" s="18"/>
@@ -9287,7 +9298,7 @@
       <c r="N365" s="6"/>
       <c r="O365" s="25"/>
     </row>
-    <row r="366" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="366" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A366" s="18"/>
       <c r="B366" s="18"/>
       <c r="C366" s="18"/>
@@ -9304,7 +9315,7 @@
       <c r="N366" s="6"/>
       <c r="O366" s="25"/>
     </row>
-    <row r="367" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="367" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A367" s="18"/>
       <c r="B367" s="18"/>
       <c r="C367" s="18"/>
@@ -9321,7 +9332,7 @@
       <c r="N367" s="6"/>
       <c r="O367" s="25"/>
     </row>
-    <row r="368" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="368" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A368" s="18"/>
       <c r="B368" s="18"/>
       <c r="C368" s="18"/>
@@ -9338,7 +9349,7 @@
       <c r="N368" s="6"/>
       <c r="O368" s="25"/>
     </row>
-    <row r="369" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="369" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A369" s="18"/>
       <c r="B369" s="18"/>
       <c r="C369" s="18"/>
@@ -9355,7 +9366,7 @@
       <c r="N369" s="6"/>
       <c r="O369" s="25"/>
     </row>
-    <row r="370" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="370" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A370" s="18"/>
       <c r="B370" s="18"/>
       <c r="C370" s="18"/>
@@ -9372,7 +9383,7 @@
       <c r="N370" s="6"/>
       <c r="O370" s="25"/>
     </row>
-    <row r="371" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="371" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A371" s="18"/>
       <c r="B371" s="18"/>
       <c r="C371" s="18"/>
@@ -9389,7 +9400,7 @@
       <c r="N371" s="6"/>
       <c r="O371" s="25"/>
     </row>
-    <row r="372" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="372" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A372" s="18"/>
       <c r="B372" s="18"/>
       <c r="C372" s="18"/>
@@ -9406,7 +9417,7 @@
       <c r="N372" s="6"/>
       <c r="O372" s="25"/>
     </row>
-    <row r="373" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="373" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A373" s="18"/>
       <c r="B373" s="18"/>
       <c r="C373" s="18"/>
@@ -9423,7 +9434,7 @@
       <c r="N373" s="6"/>
       <c r="O373" s="25"/>
     </row>
-    <row r="374" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="374" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A374" s="18"/>
       <c r="B374" s="18"/>
       <c r="C374" s="18"/>
@@ -9440,7 +9451,7 @@
       <c r="N374" s="6"/>
       <c r="O374" s="25"/>
     </row>
-    <row r="375" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="375" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A375" s="18"/>
       <c r="B375" s="18"/>
       <c r="C375" s="18"/>
@@ -9457,7 +9468,7 @@
       <c r="N375" s="6"/>
       <c r="O375" s="25"/>
     </row>
-    <row r="376" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="376" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A376" s="18"/>
       <c r="B376" s="18"/>
       <c r="C376" s="18"/>
@@ -9474,7 +9485,7 @@
       <c r="N376" s="6"/>
       <c r="O376" s="25"/>
     </row>
-    <row r="377" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="377" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A377" s="18"/>
       <c r="B377" s="18"/>
       <c r="C377" s="18"/>
@@ -9491,7 +9502,7 @@
       <c r="N377" s="6"/>
       <c r="O377" s="25"/>
     </row>
-    <row r="378" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="378" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A378" s="18"/>
       <c r="B378" s="18"/>
       <c r="C378" s="18"/>
@@ -9508,7 +9519,7 @@
       <c r="N378" s="6"/>
       <c r="O378" s="25"/>
     </row>
-    <row r="379" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="379" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A379" s="18"/>
       <c r="B379" s="18"/>
       <c r="C379" s="18"/>
@@ -9525,7 +9536,7 @@
       <c r="N379" s="6"/>
       <c r="O379" s="25"/>
     </row>
-    <row r="380" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="380" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A380" s="18"/>
       <c r="B380" s="18"/>
       <c r="C380" s="18"/>
@@ -9542,7 +9553,7 @@
       <c r="N380" s="6"/>
       <c r="O380" s="25"/>
     </row>
-    <row r="381" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="381" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A381" s="18"/>
       <c r="B381" s="18"/>
       <c r="C381" s="18"/>
@@ -9559,7 +9570,7 @@
       <c r="N381" s="6"/>
       <c r="O381" s="25"/>
     </row>
-    <row r="382" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="382" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A382" s="18"/>
       <c r="B382" s="18"/>
       <c r="C382" s="18"/>
@@ -9576,7 +9587,7 @@
       <c r="N382" s="6"/>
       <c r="O382" s="25"/>
     </row>
-    <row r="383" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="383" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A383" s="18"/>
       <c r="B383" s="18"/>
       <c r="C383" s="18"/>
@@ -9593,7 +9604,7 @@
       <c r="N383" s="6"/>
       <c r="O383" s="25"/>
     </row>
-    <row r="384" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="384" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A384" s="18"/>
       <c r="B384" s="18"/>
       <c r="C384" s="18"/>
@@ -9610,7 +9621,7 @@
       <c r="N384" s="6"/>
       <c r="O384" s="25"/>
     </row>
-    <row r="385" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="385" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A385" s="18"/>
       <c r="B385" s="18"/>
       <c r="C385" s="18"/>
@@ -9627,7 +9638,7 @@
       <c r="N385" s="6"/>
       <c r="O385" s="25"/>
     </row>
-    <row r="386" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="386" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A386" s="18"/>
       <c r="B386" s="18"/>
       <c r="C386" s="18"/>
@@ -9644,7 +9655,7 @@
       <c r="N386" s="6"/>
       <c r="O386" s="25"/>
     </row>
-    <row r="387" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="387" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A387" s="18"/>
       <c r="B387" s="18"/>
       <c r="C387" s="18"/>
@@ -9661,7 +9672,7 @@
       <c r="N387" s="6"/>
       <c r="O387" s="25"/>
     </row>
-    <row r="388" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="388" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A388" s="18"/>
       <c r="B388" s="18"/>
       <c r="C388" s="18"/>
@@ -9678,7 +9689,7 @@
       <c r="N388" s="6"/>
       <c r="O388" s="25"/>
     </row>
-    <row r="389" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="389" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A389" s="18"/>
       <c r="B389" s="18"/>
       <c r="C389" s="18"/>
@@ -9695,7 +9706,7 @@
       <c r="N389" s="6"/>
       <c r="O389" s="25"/>
     </row>
-    <row r="390" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="390" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A390" s="18"/>
       <c r="B390" s="18"/>
       <c r="C390" s="18"/>
@@ -9712,7 +9723,7 @@
       <c r="N390" s="6"/>
       <c r="O390" s="25"/>
     </row>
-    <row r="391" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="391" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A391" s="18"/>
       <c r="B391" s="18"/>
       <c r="C391" s="18"/>
@@ -9729,7 +9740,7 @@
       <c r="N391" s="6"/>
       <c r="O391" s="25"/>
     </row>
-    <row r="392" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="392" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A392" s="18"/>
       <c r="B392" s="18"/>
       <c r="C392" s="18"/>
@@ -9746,7 +9757,7 @@
       <c r="N392" s="6"/>
       <c r="O392" s="25"/>
     </row>
-    <row r="393" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="393" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A393" s="18"/>
       <c r="B393" s="18"/>
       <c r="C393" s="18"/>
@@ -9763,7 +9774,7 @@
       <c r="N393" s="6"/>
       <c r="O393" s="25"/>
     </row>
-    <row r="394" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="394" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A394" s="18"/>
       <c r="B394" s="18"/>
       <c r="C394" s="18"/>
@@ -9780,7 +9791,7 @@
       <c r="N394" s="6"/>
       <c r="O394" s="25"/>
     </row>
-    <row r="395" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="395" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A395" s="18"/>
       <c r="B395" s="18"/>
       <c r="C395" s="18"/>
@@ -9797,7 +9808,7 @@
       <c r="N395" s="6"/>
       <c r="O395" s="25"/>
     </row>
-    <row r="396" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="396" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A396" s="18"/>
       <c r="B396" s="18"/>
       <c r="C396" s="18"/>
@@ -9814,7 +9825,7 @@
       <c r="N396" s="6"/>
       <c r="O396" s="25"/>
     </row>
-    <row r="397" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="397" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A397" s="18"/>
       <c r="B397" s="18"/>
       <c r="C397" s="18"/>
@@ -9831,7 +9842,7 @@
       <c r="N397" s="6"/>
       <c r="O397" s="25"/>
     </row>
-    <row r="398" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="398" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A398" s="18"/>
       <c r="B398" s="18"/>
       <c r="C398" s="18"/>
@@ -9848,7 +9859,7 @@
       <c r="N398" s="6"/>
       <c r="O398" s="25"/>
     </row>
-    <row r="399" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="399" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A399" s="18"/>
       <c r="B399" s="18"/>
       <c r="C399" s="18"/>
@@ -9865,7 +9876,7 @@
       <c r="N399" s="6"/>
       <c r="O399" s="25"/>
     </row>
-    <row r="400" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="400" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A400" s="18"/>
       <c r="B400" s="18"/>
       <c r="C400" s="18"/>
@@ -9882,7 +9893,7 @@
       <c r="N400" s="6"/>
       <c r="O400" s="25"/>
     </row>
-    <row r="401" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="401" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A401" s="18"/>
       <c r="B401" s="18"/>
       <c r="C401" s="18"/>
@@ -9899,7 +9910,7 @@
       <c r="N401" s="6"/>
       <c r="O401" s="25"/>
     </row>
-    <row r="402" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="402" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A402" s="18"/>
       <c r="B402" s="18"/>
       <c r="C402" s="18"/>
@@ -9916,7 +9927,7 @@
       <c r="N402" s="6"/>
       <c r="O402" s="25"/>
     </row>
-    <row r="403" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="403" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A403" s="18"/>
       <c r="B403" s="18"/>
       <c r="C403" s="18"/>
@@ -9933,7 +9944,7 @@
       <c r="N403" s="6"/>
       <c r="O403" s="25"/>
     </row>
-    <row r="404" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="404" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A404" s="18"/>
       <c r="B404" s="18"/>
       <c r="C404" s="18"/>
@@ -9950,7 +9961,7 @@
       <c r="N404" s="6"/>
       <c r="O404" s="25"/>
     </row>
-    <row r="405" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="405" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A405" s="18"/>
       <c r="B405" s="18"/>
       <c r="C405" s="18"/>
@@ -9967,7 +9978,7 @@
       <c r="N405" s="6"/>
       <c r="O405" s="25"/>
     </row>
-    <row r="406" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="406" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A406" s="18"/>
       <c r="B406" s="18"/>
       <c r="C406" s="18"/>
@@ -9984,7 +9995,7 @@
       <c r="N406" s="6"/>
       <c r="O406" s="25"/>
     </row>
-    <row r="407" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="407" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A407" s="18"/>
       <c r="B407" s="18"/>
       <c r="C407" s="18"/>
@@ -10001,7 +10012,7 @@
       <c r="N407" s="6"/>
       <c r="O407" s="25"/>
     </row>
-    <row r="408" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="408" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A408" s="18"/>
       <c r="B408" s="18"/>
       <c r="C408" s="18"/>
@@ -10018,7 +10029,7 @@
       <c r="N408" s="6"/>
       <c r="O408" s="25"/>
     </row>
-    <row r="409" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="409" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A409" s="18"/>
       <c r="B409" s="18"/>
       <c r="C409" s="18"/>
@@ -10035,7 +10046,7 @@
       <c r="N409" s="6"/>
       <c r="O409" s="25"/>
     </row>
-    <row r="410" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="410" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A410" s="18"/>
       <c r="B410" s="18"/>
       <c r="C410" s="18"/>
@@ -10052,7 +10063,7 @@
       <c r="N410" s="6"/>
       <c r="O410" s="25"/>
     </row>
-    <row r="411" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="411" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A411" s="18"/>
       <c r="B411" s="18"/>
       <c r="C411" s="18"/>
@@ -10069,7 +10080,7 @@
       <c r="N411" s="6"/>
       <c r="O411" s="25"/>
     </row>
-    <row r="412" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="412" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A412" s="18"/>
       <c r="B412" s="18"/>
       <c r="C412" s="18"/>
@@ -10086,7 +10097,7 @@
       <c r="N412" s="6"/>
       <c r="O412" s="25"/>
     </row>
-    <row r="413" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="413" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A413" s="18"/>
       <c r="B413" s="18"/>
       <c r="C413" s="18"/>
@@ -10103,7 +10114,7 @@
       <c r="N413" s="6"/>
       <c r="O413" s="25"/>
     </row>
-    <row r="414" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="414" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A414" s="18"/>
       <c r="B414" s="18"/>
       <c r="C414" s="18"/>
@@ -10120,7 +10131,7 @@
       <c r="N414" s="6"/>
       <c r="O414" s="25"/>
     </row>
-    <row r="415" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="415" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A415" s="18"/>
       <c r="B415" s="18"/>
       <c r="C415" s="18"/>
@@ -10137,7 +10148,7 @@
       <c r="N415" s="6"/>
       <c r="O415" s="25"/>
     </row>
-    <row r="416" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="416" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A416" s="18"/>
       <c r="B416" s="18"/>
       <c r="C416" s="18"/>
@@ -10154,7 +10165,7 @@
       <c r="N416" s="6"/>
       <c r="O416" s="25"/>
     </row>
-    <row r="417" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="417" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A417" s="18"/>
       <c r="B417" s="18"/>
       <c r="C417" s="18"/>
@@ -10171,7 +10182,7 @@
       <c r="N417" s="6"/>
       <c r="O417" s="25"/>
     </row>
-    <row r="418" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="418" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A418" s="18"/>
       <c r="B418" s="18"/>
       <c r="C418" s="18"/>
@@ -10188,7 +10199,7 @@
       <c r="N418" s="6"/>
       <c r="O418" s="25"/>
     </row>
-    <row r="419" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="419" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A419" s="18"/>
       <c r="B419" s="18"/>
       <c r="C419" s="18"/>
@@ -10205,7 +10216,7 @@
       <c r="N419" s="6"/>
       <c r="O419" s="25"/>
     </row>
-    <row r="420" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="420" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A420" s="18"/>
       <c r="B420" s="18"/>
       <c r="C420" s="18"/>
@@ -10222,7 +10233,7 @@
       <c r="N420" s="6"/>
       <c r="O420" s="25"/>
     </row>
-    <row r="421" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="421" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A421" s="18"/>
       <c r="B421" s="18"/>
       <c r="C421" s="18"/>
@@ -10239,7 +10250,7 @@
       <c r="N421" s="6"/>
       <c r="O421" s="25"/>
     </row>
-    <row r="422" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="422" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A422" s="18"/>
       <c r="B422" s="18"/>
       <c r="C422" s="18"/>
@@ -10256,7 +10267,7 @@
       <c r="N422" s="6"/>
       <c r="O422" s="25"/>
     </row>
-    <row r="423" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="423" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A423" s="18"/>
       <c r="B423" s="18"/>
       <c r="C423" s="18"/>
@@ -10273,7 +10284,7 @@
       <c r="N423" s="6"/>
       <c r="O423" s="25"/>
     </row>
-    <row r="424" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="424" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A424" s="18"/>
       <c r="B424" s="18"/>
       <c r="C424" s="18"/>
@@ -10290,7 +10301,7 @@
       <c r="N424" s="6"/>
       <c r="O424" s="25"/>
     </row>
-    <row r="425" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="425" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A425" s="18"/>
       <c r="B425" s="18"/>
       <c r="C425" s="18"/>
@@ -10307,7 +10318,7 @@
       <c r="N425" s="6"/>
       <c r="O425" s="25"/>
     </row>
-    <row r="426" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="426" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A426" s="18"/>
       <c r="B426" s="18"/>
       <c r="C426" s="18"/>
@@ -10324,7 +10335,7 @@
       <c r="N426" s="6"/>
       <c r="O426" s="25"/>
     </row>
-    <row r="427" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="427" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A427" s="18"/>
       <c r="B427" s="18"/>
       <c r="C427" s="18"/>
@@ -10341,7 +10352,7 @@
       <c r="N427" s="6"/>
       <c r="O427" s="25"/>
     </row>
-    <row r="428" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="428" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A428" s="18"/>
       <c r="B428" s="18"/>
       <c r="C428" s="18"/>
@@ -10358,7 +10369,7 @@
       <c r="N428" s="6"/>
       <c r="O428" s="25"/>
     </row>
-    <row r="429" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="429" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A429" s="18"/>
       <c r="B429" s="18"/>
       <c r="C429" s="18"/>
@@ -10375,7 +10386,7 @@
       <c r="N429" s="6"/>
       <c r="O429" s="25"/>
     </row>
-    <row r="430" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="430" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A430" s="18"/>
       <c r="B430" s="18"/>
       <c r="C430" s="18"/>
@@ -10392,7 +10403,7 @@
       <c r="N430" s="6"/>
       <c r="O430" s="25"/>
     </row>
-    <row r="431" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="431" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A431" s="18"/>
       <c r="B431" s="18"/>
       <c r="C431" s="18"/>
@@ -10409,7 +10420,7 @@
       <c r="N431" s="6"/>
       <c r="O431" s="25"/>
     </row>
-    <row r="432" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="432" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A432" s="18"/>
       <c r="B432" s="18"/>
       <c r="C432" s="18"/>
@@ -10426,7 +10437,7 @@
       <c r="N432" s="6"/>
       <c r="O432" s="25"/>
     </row>
-    <row r="433" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="433" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A433" s="18"/>
       <c r="B433" s="18"/>
       <c r="C433" s="18"/>
@@ -10443,7 +10454,7 @@
       <c r="N433" s="6"/>
       <c r="O433" s="25"/>
     </row>
-    <row r="434" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="434" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A434" s="18"/>
       <c r="B434" s="18"/>
       <c r="C434" s="18"/>
@@ -10460,7 +10471,7 @@
       <c r="N434" s="6"/>
       <c r="O434" s="25"/>
     </row>
-    <row r="435" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="435" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A435" s="18"/>
       <c r="B435" s="18"/>
       <c r="C435" s="18"/>
@@ -10477,7 +10488,7 @@
       <c r="N435" s="6"/>
       <c r="O435" s="25"/>
     </row>
-    <row r="436" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="436" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A436" s="18"/>
       <c r="B436" s="18"/>
       <c r="C436" s="18"/>
@@ -10494,7 +10505,7 @@
       <c r="N436" s="6"/>
       <c r="O436" s="25"/>
     </row>
-    <row r="437" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="437" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A437" s="18"/>
       <c r="B437" s="18"/>
       <c r="C437" s="18"/>
@@ -10511,7 +10522,7 @@
       <c r="N437" s="6"/>
       <c r="O437" s="25"/>
     </row>
-    <row r="438" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="438" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A438" s="18"/>
       <c r="B438" s="18"/>
       <c r="C438" s="18"/>
@@ -10528,7 +10539,7 @@
       <c r="N438" s="6"/>
       <c r="O438" s="25"/>
     </row>
-    <row r="439" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="439" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A439" s="18"/>
       <c r="B439" s="18"/>
       <c r="C439" s="18"/>
@@ -10545,7 +10556,7 @@
       <c r="N439" s="6"/>
       <c r="O439" s="25"/>
     </row>
-    <row r="440" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="440" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A440" s="18"/>
       <c r="B440" s="18"/>
       <c r="C440" s="18"/>
@@ -10562,7 +10573,7 @@
       <c r="N440" s="6"/>
       <c r="O440" s="25"/>
     </row>
-    <row r="441" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="441" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A441" s="18"/>
       <c r="B441" s="18"/>
       <c r="C441" s="18"/>
@@ -10579,7 +10590,7 @@
       <c r="N441" s="6"/>
       <c r="O441" s="25"/>
     </row>
-    <row r="442" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="442" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A442" s="18"/>
       <c r="B442" s="18"/>
       <c r="C442" s="18"/>
@@ -10596,7 +10607,7 @@
       <c r="N442" s="6"/>
       <c r="O442" s="25"/>
     </row>
-    <row r="443" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="443" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A443" s="18"/>
       <c r="B443" s="18"/>
       <c r="C443" s="18"/>
@@ -10613,7 +10624,7 @@
       <c r="N443" s="6"/>
       <c r="O443" s="25"/>
     </row>
-    <row r="444" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="444" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A444" s="18"/>
       <c r="B444" s="18"/>
       <c r="C444" s="18"/>
@@ -10630,7 +10641,7 @@
       <c r="N444" s="6"/>
       <c r="O444" s="25"/>
     </row>
-    <row r="445" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="445" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A445" s="18"/>
       <c r="B445" s="18"/>
       <c r="C445" s="18"/>
@@ -10647,7 +10658,7 @@
       <c r="N445" s="6"/>
       <c r="O445" s="25"/>
     </row>
-    <row r="446" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="446" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A446" s="18"/>
       <c r="B446" s="18"/>
       <c r="C446" s="18"/>
@@ -10664,7 +10675,7 @@
       <c r="N446" s="6"/>
       <c r="O446" s="25"/>
     </row>
-    <row r="447" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="447" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A447" s="18"/>
       <c r="B447" s="18"/>
       <c r="C447" s="18"/>
@@ -10681,7 +10692,7 @@
       <c r="N447" s="6"/>
       <c r="O447" s="25"/>
     </row>
-    <row r="448" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="448" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A448" s="18"/>
       <c r="B448" s="18"/>
       <c r="C448" s="18"/>
@@ -10698,7 +10709,7 @@
       <c r="N448" s="6"/>
       <c r="O448" s="25"/>
     </row>
-    <row r="449" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="449" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A449" s="18"/>
       <c r="B449" s="18"/>
       <c r="C449" s="18"/>
@@ -10715,7 +10726,7 @@
       <c r="N449" s="6"/>
       <c r="O449" s="25"/>
     </row>
-    <row r="450" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="450" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A450" s="18"/>
       <c r="B450" s="18"/>
       <c r="C450" s="18"/>
@@ -10732,7 +10743,7 @@
       <c r="N450" s="6"/>
       <c r="O450" s="25"/>
     </row>
-    <row r="451" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="451" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A451" s="18"/>
       <c r="B451" s="18"/>
       <c r="C451" s="18"/>
@@ -10749,7 +10760,7 @@
       <c r="N451" s="6"/>
       <c r="O451" s="25"/>
     </row>
-    <row r="452" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="452" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A452" s="18"/>
       <c r="B452" s="18"/>
       <c r="C452" s="18"/>
@@ -10766,7 +10777,7 @@
       <c r="N452" s="6"/>
       <c r="O452" s="25"/>
     </row>
-    <row r="453" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="453" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A453" s="18"/>
       <c r="B453" s="18"/>
       <c r="C453" s="18"/>
@@ -10783,7 +10794,7 @@
       <c r="N453" s="6"/>
       <c r="O453" s="25"/>
     </row>
-    <row r="454" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="454" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A454" s="18"/>
       <c r="B454" s="18"/>
       <c r="C454" s="18"/>
@@ -10800,7 +10811,7 @@
       <c r="N454" s="6"/>
       <c r="O454" s="25"/>
     </row>
-    <row r="455" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="455" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A455" s="18"/>
       <c r="B455" s="18"/>
       <c r="C455" s="18"/>
@@ -10817,7 +10828,7 @@
       <c r="N455" s="6"/>
       <c r="O455" s="25"/>
     </row>
-    <row r="456" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="456" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A456" s="18"/>
       <c r="B456" s="18"/>
       <c r="C456" s="18"/>
@@ -10834,7 +10845,7 @@
       <c r="N456" s="6"/>
       <c r="O456" s="25"/>
     </row>
-    <row r="457" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="457" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A457" s="18"/>
       <c r="B457" s="18"/>
       <c r="C457" s="18"/>
@@ -10851,7 +10862,7 @@
       <c r="N457" s="6"/>
       <c r="O457" s="25"/>
     </row>
-    <row r="458" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="458" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A458" s="18"/>
       <c r="B458" s="18"/>
       <c r="C458" s="18"/>
@@ -10868,7 +10879,7 @@
       <c r="N458" s="6"/>
       <c r="O458" s="25"/>
     </row>
-    <row r="459" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="459" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A459" s="18"/>
       <c r="B459" s="18"/>
       <c r="C459" s="18"/>
@@ -10885,7 +10896,7 @@
       <c r="N459" s="6"/>
       <c r="O459" s="25"/>
     </row>
-    <row r="460" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="460" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A460" s="18"/>
       <c r="B460" s="18"/>
       <c r="C460" s="18"/>
@@ -10902,7 +10913,7 @@
       <c r="N460" s="6"/>
       <c r="O460" s="25"/>
     </row>
-    <row r="461" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="461" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A461" s="18"/>
       <c r="B461" s="18"/>
       <c r="C461" s="18"/>
@@ -10919,7 +10930,7 @@
       <c r="N461" s="6"/>
       <c r="O461" s="25"/>
     </row>
-    <row r="462" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="462" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A462" s="18"/>
       <c r="B462" s="18"/>
       <c r="C462" s="18"/>
@@ -10936,7 +10947,7 @@
       <c r="N462" s="6"/>
       <c r="O462" s="25"/>
     </row>
-    <row r="463" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="463" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A463" s="18"/>
       <c r="B463" s="18"/>
       <c r="C463" s="18"/>
@@ -10953,7 +10964,7 @@
       <c r="N463" s="6"/>
       <c r="O463" s="25"/>
     </row>
-    <row r="464" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="464" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A464" s="18"/>
       <c r="B464" s="18"/>
       <c r="C464" s="18"/>
@@ -10970,7 +10981,7 @@
       <c r="N464" s="6"/>
       <c r="O464" s="25"/>
     </row>
-    <row r="465" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="465" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A465" s="18"/>
       <c r="B465" s="18"/>
       <c r="C465" s="18"/>
@@ -10987,7 +10998,7 @@
       <c r="N465" s="6"/>
       <c r="O465" s="25"/>
     </row>
-    <row r="466" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="466" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A466" s="18"/>
       <c r="B466" s="18"/>
       <c r="C466" s="18"/>
@@ -11004,7 +11015,7 @@
       <c r="N466" s="6"/>
       <c r="O466" s="25"/>
     </row>
-    <row r="467" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="467" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A467" s="18"/>
       <c r="B467" s="18"/>
       <c r="C467" s="18"/>
@@ -11021,7 +11032,7 @@
       <c r="N467" s="6"/>
       <c r="O467" s="25"/>
     </row>
-    <row r="468" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="468" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A468" s="18"/>
       <c r="B468" s="18"/>
       <c r="C468" s="18"/>
@@ -11038,7 +11049,7 @@
       <c r="N468" s="6"/>
       <c r="O468" s="25"/>
     </row>
-    <row r="469" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="469" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A469" s="18"/>
       <c r="B469" s="18"/>
       <c r="C469" s="18"/>
@@ -11055,7 +11066,7 @@
       <c r="N469" s="6"/>
       <c r="O469" s="25"/>
     </row>
-    <row r="470" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="470" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A470" s="18"/>
       <c r="B470" s="18"/>
       <c r="C470" s="18"/>
@@ -11072,7 +11083,7 @@
       <c r="N470" s="6"/>
       <c r="O470" s="25"/>
     </row>
-    <row r="471" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="471" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A471" s="18"/>
       <c r="B471" s="18"/>
       <c r="C471" s="18"/>
@@ -11089,7 +11100,7 @@
       <c r="N471" s="6"/>
       <c r="O471" s="25"/>
     </row>
-    <row r="472" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="472" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A472" s="18"/>
       <c r="B472" s="18"/>
       <c r="C472" s="18"/>
@@ -11106,7 +11117,7 @@
       <c r="N472" s="6"/>
       <c r="O472" s="25"/>
     </row>
-    <row r="473" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="473" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A473" s="18"/>
       <c r="B473" s="18"/>
       <c r="C473" s="18"/>
@@ -11123,7 +11134,7 @@
       <c r="N473" s="6"/>
       <c r="O473" s="25"/>
     </row>
-    <row r="474" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="474" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A474" s="18"/>
       <c r="B474" s="18"/>
       <c r="C474" s="18"/>
@@ -11140,7 +11151,7 @@
       <c r="N474" s="6"/>
       <c r="O474" s="25"/>
     </row>
-    <row r="475" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="475" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A475" s="18"/>
       <c r="B475" s="18"/>
       <c r="C475" s="18"/>
@@ -11157,7 +11168,7 @@
       <c r="N475" s="6"/>
       <c r="O475" s="25"/>
     </row>
-    <row r="476" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="476" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A476" s="18"/>
       <c r="B476" s="18"/>
       <c r="C476" s="18"/>
@@ -11174,7 +11185,7 @@
       <c r="N476" s="6"/>
       <c r="O476" s="25"/>
     </row>
-    <row r="477" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="477" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A477" s="18"/>
       <c r="B477" s="18"/>
       <c r="C477" s="18"/>
@@ -11191,7 +11202,7 @@
       <c r="N477" s="6"/>
       <c r="O477" s="25"/>
     </row>
-    <row r="478" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="478" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A478" s="18"/>
       <c r="B478" s="18"/>
       <c r="C478" s="18"/>
@@ -11208,7 +11219,7 @@
       <c r="N478" s="6"/>
       <c r="O478" s="25"/>
     </row>
-    <row r="479" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="479" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A479" s="18"/>
       <c r="B479" s="18"/>
       <c r="C479" s="18"/>
@@ -11225,7 +11236,7 @@
       <c r="N479" s="6"/>
       <c r="O479" s="25"/>
     </row>
-    <row r="480" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="480" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A480" s="18"/>
       <c r="B480" s="18"/>
       <c r="C480" s="18"/>
@@ -11242,7 +11253,7 @@
       <c r="N480" s="6"/>
       <c r="O480" s="25"/>
     </row>
-    <row r="481" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="481" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A481" s="18"/>
       <c r="B481" s="18"/>
       <c r="C481" s="18"/>
@@ -11259,7 +11270,7 @@
       <c r="N481" s="6"/>
       <c r="O481" s="25"/>
     </row>
-    <row r="482" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="482" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A482" s="18"/>
       <c r="B482" s="18"/>
       <c r="C482" s="18"/>
@@ -11276,7 +11287,7 @@
       <c r="N482" s="6"/>
       <c r="O482" s="25"/>
     </row>
-    <row r="483" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="483" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A483" s="18"/>
       <c r="B483" s="18"/>
       <c r="C483" s="18"/>
@@ -11293,7 +11304,7 @@
       <c r="N483" s="6"/>
       <c r="O483" s="25"/>
     </row>
-    <row r="484" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="484" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A484" s="18"/>
       <c r="B484" s="18"/>
       <c r="C484" s="18"/>
@@ -11310,7 +11321,7 @@
       <c r="N484" s="6"/>
       <c r="O484" s="25"/>
     </row>
-    <row r="485" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="485" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A485" s="18"/>
       <c r="B485" s="18"/>
       <c r="C485" s="18"/>
@@ -11327,7 +11338,7 @@
       <c r="N485" s="6"/>
       <c r="O485" s="25"/>
     </row>
-    <row r="486" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="486" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A486" s="18"/>
       <c r="B486" s="18"/>
       <c r="C486" s="18"/>
@@ -11344,7 +11355,7 @@
       <c r="N486" s="6"/>
       <c r="O486" s="25"/>
     </row>
-    <row r="487" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="487" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A487" s="18"/>
       <c r="B487" s="18"/>
       <c r="C487" s="18"/>
@@ -11361,7 +11372,7 @@
       <c r="N487" s="6"/>
       <c r="O487" s="25"/>
     </row>
-    <row r="488" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="488" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A488" s="18"/>
       <c r="B488" s="18"/>
       <c r="C488" s="18"/>
@@ -11378,7 +11389,7 @@
       <c r="N488" s="6"/>
       <c r="O488" s="25"/>
     </row>
-    <row r="489" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="489" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A489" s="18"/>
       <c r="B489" s="18"/>
       <c r="C489" s="18"/>
@@ -11395,7 +11406,7 @@
       <c r="N489" s="6"/>
       <c r="O489" s="25"/>
     </row>
-    <row r="490" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="490" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A490" s="18"/>
       <c r="B490" s="18"/>
       <c r="C490" s="18"/>
@@ -11412,7 +11423,7 @@
       <c r="N490" s="6"/>
       <c r="O490" s="25"/>
     </row>
-    <row r="491" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="491" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A491" s="18"/>
       <c r="B491" s="18"/>
       <c r="C491" s="18"/>
@@ -11429,7 +11440,7 @@
       <c r="N491" s="6"/>
       <c r="O491" s="25"/>
     </row>
-    <row r="492" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="492" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A492" s="18"/>
       <c r="B492" s="18"/>
       <c r="C492" s="18"/>
@@ -11446,7 +11457,7 @@
       <c r="N492" s="6"/>
       <c r="O492" s="25"/>
     </row>
-    <row r="493" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="493" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A493" s="18"/>
       <c r="B493" s="18"/>
       <c r="C493" s="18"/>
@@ -11463,7 +11474,7 @@
       <c r="N493" s="6"/>
       <c r="O493" s="25"/>
     </row>
-    <row r="494" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="494" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A494" s="18"/>
       <c r="B494" s="18"/>
       <c r="C494" s="18"/>
@@ -11480,7 +11491,7 @@
       <c r="N494" s="6"/>
       <c r="O494" s="25"/>
     </row>
-    <row r="495" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="495" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A495" s="18"/>
       <c r="B495" s="18"/>
       <c r="C495" s="18"/>
@@ -11497,7 +11508,7 @@
       <c r="N495" s="6"/>
       <c r="O495" s="25"/>
     </row>
-    <row r="496" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="496" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A496" s="18"/>
       <c r="B496" s="18"/>
       <c r="C496" s="18"/>
@@ -11514,7 +11525,7 @@
       <c r="N496" s="6"/>
       <c r="O496" s="25"/>
     </row>
-    <row r="497" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="497" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A497" s="18"/>
       <c r="B497" s="18"/>
       <c r="C497" s="18"/>
@@ -11531,7 +11542,7 @@
       <c r="N497" s="6"/>
       <c r="O497" s="25"/>
     </row>
-    <row r="498" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="498" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A498" s="18"/>
       <c r="B498" s="18"/>
       <c r="C498" s="18"/>
@@ -11548,7 +11559,7 @@
       <c r="N498" s="6"/>
       <c r="O498" s="25"/>
     </row>
-    <row r="499" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="499" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A499" s="18"/>
       <c r="B499" s="18"/>
       <c r="C499" s="18"/>
@@ -11565,7 +11576,7 @@
       <c r="N499" s="6"/>
       <c r="O499" s="25"/>
     </row>
-    <row r="500" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="500" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A500" s="18"/>
       <c r="B500" s="18"/>
       <c r="C500" s="18"/>
@@ -11582,7 +11593,7 @@
       <c r="N500" s="6"/>
       <c r="O500" s="25"/>
     </row>
-    <row r="501" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="501" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A501" s="18"/>
       <c r="B501" s="18"/>
       <c r="C501" s="18"/>
@@ -11599,7 +11610,7 @@
       <c r="N501" s="6"/>
       <c r="O501" s="25"/>
     </row>
-    <row r="502" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="502" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A502" s="18"/>
       <c r="B502" s="18"/>
       <c r="C502" s="18"/>
@@ -11616,7 +11627,7 @@
       <c r="N502" s="6"/>
       <c r="O502" s="25"/>
     </row>
-    <row r="503" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="503" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A503" s="18"/>
       <c r="B503" s="18"/>
       <c r="C503" s="18"/>
@@ -11633,7 +11644,7 @@
       <c r="N503" s="6"/>
       <c r="O503" s="25"/>
     </row>
-    <row r="504" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="504" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A504" s="18"/>
       <c r="B504" s="18"/>
       <c r="C504" s="18"/>
@@ -11650,7 +11661,7 @@
       <c r="N504" s="6"/>
       <c r="O504" s="25"/>
     </row>
-    <row r="505" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="505" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A505" s="18"/>
       <c r="B505" s="18"/>
       <c r="C505" s="18"/>
@@ -11667,7 +11678,7 @@
       <c r="N505" s="6"/>
       <c r="O505" s="25"/>
     </row>
-    <row r="506" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="506" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A506" s="18"/>
       <c r="B506" s="18"/>
       <c r="C506" s="18"/>
@@ -11684,7 +11695,7 @@
       <c r="N506" s="6"/>
       <c r="O506" s="25"/>
     </row>
-    <row r="507" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="507" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A507" s="18"/>
       <c r="B507" s="18"/>
       <c r="C507" s="18"/>
@@ -11701,7 +11712,7 @@
       <c r="N507" s="6"/>
       <c r="O507" s="25"/>
     </row>
-    <row r="508" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="508" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A508" s="18"/>
       <c r="B508" s="18"/>
       <c r="C508" s="18"/>
@@ -11718,7 +11729,7 @@
       <c r="N508" s="6"/>
       <c r="O508" s="25"/>
     </row>
-    <row r="509" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="509" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A509" s="18"/>
       <c r="B509" s="18"/>
       <c r="C509" s="18"/>
@@ -11735,7 +11746,7 @@
       <c r="N509" s="6"/>
       <c r="O509" s="25"/>
     </row>
-    <row r="510" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="510" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A510" s="18"/>
       <c r="B510" s="18"/>
       <c r="C510" s="18"/>
@@ -11752,7 +11763,7 @@
       <c r="N510" s="6"/>
       <c r="O510" s="25"/>
     </row>
-    <row r="511" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="511" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A511" s="18"/>
       <c r="B511" s="18"/>
       <c r="C511" s="18"/>
@@ -11769,7 +11780,7 @@
       <c r="N511" s="6"/>
       <c r="O511" s="25"/>
     </row>
-    <row r="512" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="512" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A512" s="18"/>
       <c r="B512" s="18"/>
       <c r="C512" s="18"/>
@@ -11786,7 +11797,7 @@
       <c r="N512" s="6"/>
       <c r="O512" s="25"/>
     </row>
-    <row r="513" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="513" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A513" s="18"/>
       <c r="B513" s="18"/>
       <c r="C513" s="18"/>
@@ -11803,7 +11814,7 @@
       <c r="N513" s="6"/>
       <c r="O513" s="25"/>
     </row>
-    <row r="514" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="514" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A514" s="18"/>
       <c r="B514" s="18"/>
       <c r="C514" s="18"/>
@@ -11820,7 +11831,7 @@
       <c r="N514" s="6"/>
       <c r="O514" s="25"/>
     </row>
-    <row r="515" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="515" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A515" s="18"/>
       <c r="B515" s="18"/>
       <c r="C515" s="18"/>
@@ -11837,7 +11848,7 @@
       <c r="N515" s="6"/>
       <c r="O515" s="25"/>
     </row>
-    <row r="516" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="516" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A516" s="18"/>
       <c r="B516" s="18"/>
       <c r="C516" s="18"/>
@@ -11854,7 +11865,7 @@
       <c r="N516" s="6"/>
       <c r="O516" s="25"/>
     </row>
-    <row r="517" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="517" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A517" s="18"/>
       <c r="B517" s="18"/>
       <c r="C517" s="18"/>
@@ -11871,7 +11882,7 @@
       <c r="N517" s="6"/>
       <c r="O517" s="25"/>
     </row>
-    <row r="518" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="518" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A518" s="18"/>
       <c r="B518" s="18"/>
       <c r="C518" s="18"/>
@@ -11888,7 +11899,7 @@
       <c r="N518" s="6"/>
       <c r="O518" s="25"/>
     </row>
-    <row r="519" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="519" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A519" s="18"/>
       <c r="B519" s="18"/>
       <c r="C519" s="18"/>
@@ -11905,7 +11916,7 @@
       <c r="N519" s="6"/>
       <c r="O519" s="25"/>
     </row>
-    <row r="520" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="520" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A520" s="18"/>
       <c r="B520" s="18"/>
       <c r="C520" s="18"/>
@@ -11922,7 +11933,7 @@
       <c r="N520" s="6"/>
       <c r="O520" s="25"/>
     </row>
-    <row r="521" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="521" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A521" s="18"/>
       <c r="B521" s="18"/>
       <c r="C521" s="18"/>
@@ -11939,7 +11950,7 @@
       <c r="N521" s="6"/>
       <c r="O521" s="25"/>
     </row>
-    <row r="522" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="522" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A522" s="18"/>
       <c r="B522" s="18"/>
       <c r="C522" s="18"/>
@@ -11956,7 +11967,7 @@
       <c r="N522" s="6"/>
       <c r="O522" s="25"/>
     </row>
-    <row r="523" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="523" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A523" s="18"/>
       <c r="B523" s="18"/>
       <c r="C523" s="18"/>
@@ -11973,7 +11984,7 @@
       <c r="N523" s="6"/>
       <c r="O523" s="25"/>
     </row>
-    <row r="524" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="524" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A524" s="18"/>
       <c r="B524" s="18"/>
       <c r="C524" s="18"/>
@@ -11990,7 +12001,7 @@
       <c r="N524" s="6"/>
       <c r="O524" s="25"/>
     </row>
-    <row r="525" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="525" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A525" s="18"/>
       <c r="B525" s="18"/>
       <c r="C525" s="18"/>
@@ -12007,7 +12018,7 @@
       <c r="N525" s="6"/>
       <c r="O525" s="25"/>
     </row>
-    <row r="526" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="526" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A526" s="18"/>
       <c r="B526" s="18"/>
       <c r="C526" s="18"/>
@@ -12024,7 +12035,7 @@
       <c r="N526" s="6"/>
       <c r="O526" s="25"/>
     </row>
-    <row r="527" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="527" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A527" s="18"/>
       <c r="B527" s="18"/>
       <c r="C527" s="18"/>
@@ -12041,7 +12052,7 @@
       <c r="N527" s="6"/>
       <c r="O527" s="25"/>
     </row>
-    <row r="528" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="528" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A528" s="18"/>
       <c r="B528" s="18"/>
       <c r="C528" s="18"/>
@@ -12058,7 +12069,7 @@
       <c r="N528" s="6"/>
       <c r="O528" s="25"/>
     </row>
-    <row r="529" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="529" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A529" s="18"/>
       <c r="B529" s="18"/>
       <c r="C529" s="18"/>
@@ -12075,7 +12086,7 @@
       <c r="N529" s="6"/>
       <c r="O529" s="25"/>
     </row>
-    <row r="530" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="530" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A530" s="18"/>
       <c r="B530" s="18"/>
       <c r="C530" s="18"/>
@@ -12092,7 +12103,7 @@
       <c r="N530" s="6"/>
       <c r="O530" s="25"/>
     </row>
-    <row r="531" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="531" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A531" s="18"/>
       <c r="B531" s="18"/>
       <c r="C531" s="18"/>
@@ -12109,7 +12120,7 @@
       <c r="N531" s="6"/>
       <c r="O531" s="25"/>
     </row>
-    <row r="532" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="532" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A532" s="18"/>
       <c r="B532" s="18"/>
       <c r="C532" s="18"/>
@@ -12126,7 +12137,7 @@
       <c r="N532" s="6"/>
       <c r="O532" s="25"/>
     </row>
-    <row r="533" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="533" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A533" s="18"/>
       <c r="B533" s="18"/>
       <c r="C533" s="18"/>
@@ -12143,7 +12154,7 @@
       <c r="N533" s="6"/>
       <c r="O533" s="25"/>
     </row>
-    <row r="534" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="534" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A534" s="18"/>
       <c r="B534" s="18"/>
       <c r="C534" s="18"/>
@@ -12160,7 +12171,7 @@
       <c r="N534" s="6"/>
       <c r="O534" s="25"/>
     </row>
-    <row r="535" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="535" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A535" s="18"/>
       <c r="B535" s="18"/>
       <c r="C535" s="18"/>
@@ -12177,7 +12188,7 @@
       <c r="N535" s="6"/>
       <c r="O535" s="25"/>
     </row>
-    <row r="536" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="536" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A536" s="18"/>
       <c r="B536" s="18"/>
       <c r="C536" s="18"/>
@@ -12194,7 +12205,7 @@
       <c r="N536" s="6"/>
       <c r="O536" s="25"/>
     </row>
-    <row r="537" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="537" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A537" s="18"/>
       <c r="B537" s="18"/>
       <c r="C537" s="18"/>
@@ -12211,7 +12222,7 @@
       <c r="N537" s="6"/>
       <c r="O537" s="25"/>
     </row>
-    <row r="538" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="538" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A538" s="18"/>
       <c r="B538" s="18"/>
       <c r="C538" s="18"/>
@@ -12228,7 +12239,7 @@
       <c r="N538" s="6"/>
       <c r="O538" s="25"/>
     </row>
-    <row r="539" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="539" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A539" s="18"/>
       <c r="B539" s="18"/>
       <c r="C539" s="18"/>
@@ -12245,7 +12256,7 @@
       <c r="N539" s="6"/>
       <c r="O539" s="25"/>
     </row>
-    <row r="540" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="540" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A540" s="18"/>
       <c r="B540" s="18"/>
       <c r="C540" s="18"/>
@@ -12262,7 +12273,7 @@
       <c r="N540" s="6"/>
       <c r="O540" s="25"/>
     </row>
-    <row r="541" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="541" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A541" s="18"/>
       <c r="B541" s="18"/>
       <c r="C541" s="18"/>
@@ -12279,7 +12290,7 @@
       <c r="N541" s="6"/>
       <c r="O541" s="25"/>
     </row>
-    <row r="542" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="542" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A542" s="18"/>
       <c r="B542" s="18"/>
       <c r="C542" s="18"/>
@@ -12296,7 +12307,7 @@
       <c r="N542" s="6"/>
       <c r="O542" s="25"/>
     </row>
-    <row r="543" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="543" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A543" s="18"/>
       <c r="B543" s="18"/>
       <c r="C543" s="18"/>
@@ -12313,7 +12324,7 @@
       <c r="N543" s="6"/>
       <c r="O543" s="25"/>
     </row>
-    <row r="544" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="544" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A544" s="18"/>
       <c r="B544" s="18"/>
       <c r="C544" s="18"/>
@@ -12330,7 +12341,7 @@
       <c r="N544" s="6"/>
       <c r="O544" s="25"/>
     </row>
-    <row r="545" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="545" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A545" s="18"/>
       <c r="B545" s="18"/>
       <c r="C545" s="18"/>
@@ -12347,7 +12358,7 @@
       <c r="N545" s="6"/>
       <c r="O545" s="25"/>
     </row>
-    <row r="546" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="546" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A546" s="18"/>
       <c r="B546" s="18"/>
       <c r="C546" s="18"/>
@@ -12364,7 +12375,7 @@
       <c r="N546" s="6"/>
       <c r="O546" s="25"/>
     </row>
-    <row r="547" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="547" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A547" s="18"/>
       <c r="B547" s="18"/>
       <c r="C547" s="18"/>
@@ -12381,7 +12392,7 @@
       <c r="N547" s="6"/>
       <c r="O547" s="25"/>
     </row>
-    <row r="548" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="548" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A548" s="18"/>
       <c r="B548" s="18"/>
       <c r="C548" s="18"/>
@@ -12398,7 +12409,7 @@
       <c r="N548" s="6"/>
       <c r="O548" s="25"/>
     </row>
-    <row r="549" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="549" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A549" s="18"/>
       <c r="B549" s="18"/>
       <c r="C549" s="18"/>
@@ -12415,7 +12426,7 @@
       <c r="N549" s="6"/>
       <c r="O549" s="25"/>
     </row>
-    <row r="550" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="550" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A550" s="18"/>
       <c r="B550" s="18"/>
       <c r="C550" s="18"/>
@@ -12432,7 +12443,7 @@
       <c r="N550" s="6"/>
       <c r="O550" s="25"/>
     </row>
-    <row r="551" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="551" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A551" s="18"/>
       <c r="B551" s="18"/>
       <c r="C551" s="18"/>
@@ -12449,7 +12460,7 @@
       <c r="N551" s="6"/>
       <c r="O551" s="25"/>
     </row>
-    <row r="552" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="552" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A552" s="18"/>
       <c r="B552" s="18"/>
       <c r="C552" s="18"/>
@@ -12466,7 +12477,7 @@
       <c r="N552" s="6"/>
       <c r="O552" s="25"/>
     </row>
-    <row r="553" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="553" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A553" s="18"/>
       <c r="B553" s="18"/>
       <c r="C553" s="18"/>
@@ -12483,7 +12494,7 @@
       <c r="N553" s="6"/>
       <c r="O553" s="25"/>
     </row>
-    <row r="554" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="554" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A554" s="18"/>
       <c r="B554" s="18"/>
       <c r="C554" s="18"/>
@@ -12500,7 +12511,7 @@
       <c r="N554" s="6"/>
       <c r="O554" s="25"/>
     </row>
-    <row r="555" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="555" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A555" s="18"/>
       <c r="B555" s="18"/>
       <c r="C555" s="18"/>
@@ -12517,7 +12528,7 @@
       <c r="N555" s="6"/>
       <c r="O555" s="25"/>
     </row>
-    <row r="556" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="556" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A556" s="18"/>
       <c r="B556" s="18"/>
       <c r="C556" s="18"/>
@@ -12534,7 +12545,7 @@
       <c r="N556" s="6"/>
       <c r="O556" s="25"/>
     </row>
-    <row r="557" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="557" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A557" s="18"/>
       <c r="B557" s="18"/>
       <c r="C557" s="18"/>
@@ -12551,7 +12562,7 @@
       <c r="N557" s="6"/>
       <c r="O557" s="25"/>
     </row>
-    <row r="558" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="558" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A558" s="18"/>
       <c r="B558" s="18"/>
       <c r="C558" s="18"/>
@@ -12568,7 +12579,7 @@
       <c r="N558" s="6"/>
       <c r="O558" s="25"/>
     </row>
-    <row r="559" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="559" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A559" s="18"/>
       <c r="B559" s="18"/>
       <c r="C559" s="18"/>
@@ -12585,7 +12596,7 @@
       <c r="N559" s="6"/>
       <c r="O559" s="25"/>
     </row>
-    <row r="560" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="560" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A560" s="18"/>
       <c r="B560" s="18"/>
       <c r="C560" s="18"/>
@@ -12602,7 +12613,7 @@
       <c r="N560" s="6"/>
       <c r="O560" s="25"/>
     </row>
-    <row r="561" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="561" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A561" s="18"/>
       <c r="B561" s="18"/>
       <c r="C561" s="18"/>
@@ -12619,7 +12630,7 @@
       <c r="N561" s="6"/>
       <c r="O561" s="25"/>
     </row>
-    <row r="562" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="562" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A562" s="18"/>
       <c r="B562" s="18"/>
       <c r="C562" s="18"/>
@@ -12636,7 +12647,7 @@
       <c r="N562" s="6"/>
       <c r="O562" s="25"/>
     </row>
-    <row r="563" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="563" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A563" s="18"/>
       <c r="B563" s="18"/>
       <c r="C563" s="18"/>
@@ -12653,7 +12664,7 @@
       <c r="N563" s="6"/>
       <c r="O563" s="25"/>
     </row>
-    <row r="564" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="564" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A564" s="18"/>
       <c r="B564" s="18"/>
       <c r="C564" s="18"/>
@@ -12670,7 +12681,7 @@
       <c r="N564" s="6"/>
       <c r="O564" s="25"/>
     </row>
-    <row r="565" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="565" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A565" s="18"/>
       <c r="B565" s="18"/>
       <c r="C565" s="18"/>
@@ -12687,7 +12698,7 @@
       <c r="N565" s="6"/>
       <c r="O565" s="25"/>
     </row>
-    <row r="566" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="566" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A566" s="18"/>
       <c r="B566" s="18"/>
       <c r="C566" s="18"/>
@@ -12704,7 +12715,7 @@
       <c r="N566" s="6"/>
       <c r="O566" s="25"/>
     </row>
-    <row r="567" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="567" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A567" s="18"/>
       <c r="B567" s="18"/>
       <c r="C567" s="18"/>
@@ -12721,7 +12732,7 @@
       <c r="N567" s="6"/>
       <c r="O567" s="25"/>
     </row>
-    <row r="568" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="568" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A568" s="18"/>
       <c r="B568" s="18"/>
       <c r="C568" s="18"/>
@@ -12738,7 +12749,7 @@
       <c r="N568" s="6"/>
       <c r="O568" s="25"/>
     </row>
-    <row r="569" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="569" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A569" s="18"/>
       <c r="B569" s="18"/>
       <c r="C569" s="18"/>
@@ -12755,7 +12766,7 @@
       <c r="N569" s="6"/>
       <c r="O569" s="25"/>
     </row>
-    <row r="570" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="570" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A570" s="18"/>
       <c r="B570" s="18"/>
       <c r="C570" s="18"/>
@@ -12772,7 +12783,7 @@
       <c r="N570" s="6"/>
       <c r="O570" s="25"/>
     </row>
-    <row r="571" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="571" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A571" s="18"/>
       <c r="B571" s="18"/>
       <c r="C571" s="18"/>
@@ -12789,7 +12800,7 @@
       <c r="N571" s="6"/>
       <c r="O571" s="25"/>
     </row>
-    <row r="572" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="572" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A572" s="18"/>
       <c r="B572" s="18"/>
       <c r="C572" s="18"/>
@@ -12806,7 +12817,7 @@
       <c r="N572" s="6"/>
       <c r="O572" s="25"/>
     </row>
-    <row r="573" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="573" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A573" s="18"/>
       <c r="B573" s="18"/>
       <c r="C573" s="18"/>
@@ -12823,7 +12834,7 @@
       <c r="N573" s="6"/>
       <c r="O573" s="25"/>
     </row>
-    <row r="574" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="574" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A574" s="18"/>
       <c r="B574" s="18"/>
       <c r="C574" s="18"/>
@@ -12840,7 +12851,7 @@
       <c r="N574" s="6"/>
       <c r="O574" s="25"/>
     </row>
-    <row r="575" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="575" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A575" s="18"/>
       <c r="B575" s="18"/>
       <c r="C575" s="18"/>
@@ -12857,7 +12868,7 @@
       <c r="N575" s="6"/>
       <c r="O575" s="25"/>
     </row>
-    <row r="576" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="576" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A576" s="18"/>
       <c r="B576" s="18"/>
       <c r="C576" s="18"/>
@@ -12874,7 +12885,7 @@
       <c r="N576" s="6"/>
       <c r="O576" s="25"/>
     </row>
-    <row r="577" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="577" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A577" s="18"/>
       <c r="B577" s="18"/>
       <c r="C577" s="18"/>
@@ -12891,7 +12902,7 @@
       <c r="N577" s="6"/>
       <c r="O577" s="25"/>
     </row>
-    <row r="578" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="578" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A578" s="18"/>
       <c r="B578" s="18"/>
       <c r="C578" s="18"/>
@@ -12908,7 +12919,7 @@
       <c r="N578" s="6"/>
       <c r="O578" s="25"/>
     </row>
-    <row r="579" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="579" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A579" s="18"/>
       <c r="B579" s="18"/>
       <c r="C579" s="18"/>
@@ -12925,7 +12936,7 @@
       <c r="N579" s="6"/>
       <c r="O579" s="25"/>
     </row>
-    <row r="580" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="580" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A580" s="18"/>
       <c r="B580" s="18"/>
       <c r="C580" s="18"/>
@@ -12942,7 +12953,7 @@
       <c r="N580" s="6"/>
       <c r="O580" s="25"/>
     </row>
-    <row r="581" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="581" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A581" s="18"/>
       <c r="B581" s="18"/>
       <c r="C581" s="18"/>
@@ -12959,7 +12970,7 @@
       <c r="N581" s="6"/>
       <c r="O581" s="25"/>
     </row>
-    <row r="582" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="582" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A582" s="18"/>
       <c r="B582" s="18"/>
       <c r="C582" s="18"/>
@@ -12976,7 +12987,7 @@
       <c r="N582" s="6"/>
       <c r="O582" s="25"/>
     </row>
-    <row r="583" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="583" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A583" s="18"/>
       <c r="B583" s="18"/>
       <c r="C583" s="18"/>
@@ -12993,7 +13004,7 @@
       <c r="N583" s="6"/>
       <c r="O583" s="25"/>
     </row>
-    <row r="584" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="584" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A584" s="18"/>
       <c r="B584" s="18"/>
       <c r="C584" s="18"/>
@@ -13010,7 +13021,7 @@
       <c r="N584" s="6"/>
       <c r="O584" s="25"/>
     </row>
-    <row r="585" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="585" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A585" s="18"/>
       <c r="B585" s="18"/>
       <c r="C585" s="18"/>
@@ -13027,7 +13038,7 @@
       <c r="N585" s="6"/>
       <c r="O585" s="25"/>
     </row>
-    <row r="586" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="586" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A586" s="18"/>
       <c r="B586" s="18"/>
       <c r="C586" s="18"/>
@@ -13044,7 +13055,7 @@
       <c r="N586" s="6"/>
       <c r="O586" s="25"/>
     </row>
-    <row r="587" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="587" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A587" s="18"/>
       <c r="B587" s="18"/>
       <c r="C587" s="18"/>
@@ -13061,7 +13072,7 @@
       <c r="N587" s="6"/>
       <c r="O587" s="25"/>
     </row>
-    <row r="588" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="588" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A588" s="18"/>
       <c r="B588" s="18"/>
       <c r="C588" s="18"/>
@@ -13078,7 +13089,7 @@
       <c r="N588" s="6"/>
       <c r="O588" s="25"/>
     </row>
-    <row r="589" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="589" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A589" s="18"/>
       <c r="B589" s="18"/>
       <c r="C589" s="18"/>
@@ -13095,7 +13106,7 @@
       <c r="N589" s="6"/>
       <c r="O589" s="25"/>
     </row>
-    <row r="590" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="590" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A590" s="18"/>
       <c r="B590" s="18"/>
       <c r="C590" s="18"/>
@@ -13112,7 +13123,7 @@
       <c r="N590" s="6"/>
       <c r="O590" s="25"/>
     </row>
-    <row r="591" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="591" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A591" s="18"/>
       <c r="B591" s="18"/>
       <c r="C591" s="18"/>
@@ -13129,7 +13140,7 @@
       <c r="N591" s="6"/>
       <c r="O591" s="25"/>
     </row>
-    <row r="592" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="592" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A592" s="18"/>
       <c r="B592" s="18"/>
       <c r="C592" s="18"/>
@@ -13146,7 +13157,7 @@
       <c r="N592" s="6"/>
       <c r="O592" s="25"/>
     </row>
-    <row r="593" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="593" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A593" s="18"/>
       <c r="B593" s="18"/>
       <c r="C593" s="18"/>
@@ -13163,7 +13174,7 @@
       <c r="N593" s="6"/>
       <c r="O593" s="25"/>
     </row>
-    <row r="594" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="594" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A594" s="18"/>
       <c r="B594" s="18"/>
       <c r="C594" s="18"/>
@@ -13180,7 +13191,7 @@
       <c r="N594" s="6"/>
       <c r="O594" s="25"/>
     </row>
-    <row r="595" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="595" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A595" s="18"/>
       <c r="B595" s="18"/>
       <c r="C595" s="18"/>
@@ -13197,7 +13208,7 @@
       <c r="N595" s="6"/>
       <c r="O595" s="25"/>
     </row>
-    <row r="596" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="596" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A596" s="18"/>
       <c r="B596" s="18"/>
       <c r="C596" s="18"/>
@@ -13214,7 +13225,7 @@
       <c r="N596" s="6"/>
       <c r="O596" s="25"/>
     </row>
-    <row r="597" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="597" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A597" s="18"/>
       <c r="B597" s="18"/>
       <c r="C597" s="18"/>
@@ -13231,7 +13242,7 @@
       <c r="N597" s="6"/>
       <c r="O597" s="25"/>
     </row>
-    <row r="598" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="598" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A598" s="18"/>
       <c r="B598" s="18"/>
       <c r="C598" s="18"/>
@@ -13248,7 +13259,7 @@
       <c r="N598" s="6"/>
       <c r="O598" s="25"/>
     </row>
-    <row r="599" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="599" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A599" s="18"/>
       <c r="B599" s="18"/>
       <c r="C599" s="18"/>
@@ -13265,7 +13276,7 @@
       <c r="N599" s="6"/>
       <c r="O599" s="25"/>
     </row>
-    <row r="600" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="600" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A600" s="18"/>
       <c r="B600" s="18"/>
       <c r="C600" s="18"/>
@@ -13282,7 +13293,7 @@
       <c r="N600" s="6"/>
       <c r="O600" s="25"/>
     </row>
-    <row r="601" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="601" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A601" s="18"/>
       <c r="B601" s="18"/>
       <c r="C601" s="18"/>
@@ -13299,7 +13310,7 @@
       <c r="N601" s="6"/>
       <c r="O601" s="25"/>
     </row>
-    <row r="602" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="602" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A602" s="18"/>
       <c r="B602" s="18"/>
       <c r="C602" s="18"/>
@@ -13316,7 +13327,7 @@
       <c r="N602" s="6"/>
       <c r="O602" s="25"/>
     </row>
-    <row r="603" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="603" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A603" s="18"/>
       <c r="B603" s="18"/>
       <c r="C603" s="18"/>
@@ -13333,7 +13344,7 @@
       <c r="N603" s="6"/>
       <c r="O603" s="25"/>
     </row>
-    <row r="604" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="604" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A604" s="18"/>
       <c r="B604" s="18"/>
       <c r="C604" s="18"/>
@@ -13350,7 +13361,7 @@
       <c r="N604" s="6"/>
       <c r="O604" s="25"/>
     </row>
-    <row r="605" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="605" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A605" s="18"/>
       <c r="B605" s="18"/>
       <c r="C605" s="18"/>
@@ -13367,7 +13378,7 @@
       <c r="N605" s="6"/>
       <c r="O605" s="25"/>
     </row>
-    <row r="606" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="606" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A606" s="18"/>
       <c r="B606" s="18"/>
       <c r="C606" s="18"/>
@@ -13384,7 +13395,7 @@
       <c r="N606" s="6"/>
       <c r="O606" s="25"/>
     </row>
-    <row r="607" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="607" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A607" s="18"/>
       <c r="B607" s="18"/>
       <c r="C607" s="18"/>
@@ -13401,7 +13412,7 @@
       <c r="N607" s="6"/>
       <c r="O607" s="25"/>
     </row>
-    <row r="608" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="608" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A608" s="18"/>
       <c r="B608" s="18"/>
       <c r="C608" s="18"/>
@@ -13418,7 +13429,7 @@
       <c r="N608" s="6"/>
       <c r="O608" s="25"/>
     </row>
-    <row r="609" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="609" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A609" s="18"/>
       <c r="B609" s="18"/>
       <c r="C609" s="18"/>
@@ -13435,7 +13446,7 @@
       <c r="N609" s="6"/>
       <c r="O609" s="25"/>
     </row>
-    <row r="610" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="610" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A610" s="18"/>
       <c r="B610" s="18"/>
       <c r="C610" s="18"/>
@@ -13452,7 +13463,7 @@
       <c r="N610" s="6"/>
       <c r="O610" s="25"/>
     </row>
-    <row r="611" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="611" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A611" s="18"/>
       <c r="B611" s="18"/>
       <c r="C611" s="18"/>
@@ -13469,7 +13480,7 @@
       <c r="N611" s="6"/>
       <c r="O611" s="25"/>
     </row>
-    <row r="612" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="612" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A612" s="18"/>
       <c r="B612" s="18"/>
       <c r="C612" s="18"/>
@@ -13486,7 +13497,7 @@
       <c r="N612" s="6"/>
       <c r="O612" s="25"/>
     </row>
-    <row r="613" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="613" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A613" s="18"/>
       <c r="B613" s="18"/>
       <c r="C613" s="18"/>
@@ -13503,7 +13514,7 @@
       <c r="N613" s="6"/>
       <c r="O613" s="25"/>
     </row>
-    <row r="614" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="614" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A614" s="18"/>
       <c r="B614" s="18"/>
       <c r="C614" s="18"/>
@@ -13520,7 +13531,7 @@
       <c r="N614" s="6"/>
       <c r="O614" s="25"/>
     </row>
-    <row r="615" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="615" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A615" s="18"/>
       <c r="B615" s="18"/>
       <c r="C615" s="18"/>
@@ -13537,7 +13548,7 @@
       <c r="N615" s="6"/>
       <c r="O615" s="25"/>
     </row>
-    <row r="616" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="616" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A616" s="18"/>
       <c r="B616" s="18"/>
       <c r="C616" s="18"/>
@@ -13554,7 +13565,7 @@
       <c r="N616" s="6"/>
       <c r="O616" s="25"/>
     </row>
-    <row r="617" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="617" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A617" s="18"/>
       <c r="B617" s="18"/>
       <c r="C617" s="18"/>
@@ -13571,7 +13582,7 @@
       <c r="N617" s="6"/>
       <c r="O617" s="25"/>
     </row>
-    <row r="618" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="618" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A618" s="18"/>
       <c r="B618" s="18"/>
       <c r="C618" s="18"/>
@@ -13588,7 +13599,7 @@
       <c r="N618" s="6"/>
       <c r="O618" s="25"/>
     </row>
-    <row r="619" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="619" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A619" s="18"/>
       <c r="B619" s="18"/>
       <c r="C619" s="18"/>
@@ -13605,7 +13616,7 @@
       <c r="N619" s="6"/>
       <c r="O619" s="25"/>
     </row>
-    <row r="620" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="620" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A620" s="18"/>
       <c r="B620" s="18"/>
       <c r="C620" s="18"/>
@@ -13622,7 +13633,7 @@
       <c r="N620" s="6"/>
       <c r="O620" s="25"/>
     </row>
-    <row r="621" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="621" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A621" s="18"/>
       <c r="B621" s="18"/>
       <c r="C621" s="18"/>
@@ -13639,7 +13650,7 @@
       <c r="N621" s="6"/>
       <c r="O621" s="25"/>
     </row>
-    <row r="622" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="622" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A622" s="18"/>
       <c r="B622" s="18"/>
       <c r="C622" s="18"/>
@@ -13656,7 +13667,7 @@
       <c r="N622" s="6"/>
       <c r="O622" s="25"/>
     </row>
-    <row r="623" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="623" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A623" s="18"/>
       <c r="B623" s="18"/>
       <c r="C623" s="18"/>
@@ -13673,7 +13684,7 @@
       <c r="N623" s="6"/>
       <c r="O623" s="25"/>
     </row>
-    <row r="624" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="624" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A624" s="18"/>
       <c r="B624" s="18"/>
       <c r="C624" s="18"/>
@@ -13690,7 +13701,7 @@
       <c r="N624" s="6"/>
       <c r="O624" s="25"/>
     </row>
-    <row r="625" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="625" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A625" s="18"/>
       <c r="B625" s="18"/>
       <c r="C625" s="18"/>
@@ -13707,7 +13718,7 @@
       <c r="N625" s="6"/>
       <c r="O625" s="25"/>
     </row>
-    <row r="626" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="626" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A626" s="18"/>
       <c r="B626" s="18"/>
       <c r="C626" s="18"/>
@@ -13724,7 +13735,7 @@
       <c r="N626" s="6"/>
       <c r="O626" s="25"/>
     </row>
-    <row r="627" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="627" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A627" s="18"/>
       <c r="B627" s="18"/>
       <c r="C627" s="18"/>
@@ -13741,7 +13752,7 @@
       <c r="N627" s="6"/>
       <c r="O627" s="25"/>
     </row>
-    <row r="628" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="628" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A628" s="18"/>
       <c r="B628" s="18"/>
       <c r="C628" s="18"/>
@@ -13758,7 +13769,7 @@
       <c r="N628" s="6"/>
       <c r="O628" s="25"/>
     </row>
-    <row r="629" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="629" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A629" s="18"/>
       <c r="B629" s="18"/>
       <c r="C629" s="18"/>
@@ -13775,7 +13786,7 @@
       <c r="N629" s="6"/>
       <c r="O629" s="25"/>
     </row>
-    <row r="630" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="630" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A630" s="18"/>
       <c r="B630" s="18"/>
       <c r="C630" s="18"/>
@@ -13792,7 +13803,7 @@
       <c r="N630" s="6"/>
       <c r="O630" s="25"/>
     </row>
-    <row r="631" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="631" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A631" s="18"/>
       <c r="B631" s="18"/>
       <c r="C631" s="18"/>
@@ -13809,7 +13820,7 @@
       <c r="N631" s="6"/>
       <c r="O631" s="25"/>
     </row>
-    <row r="632" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="632" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A632" s="18"/>
       <c r="B632" s="18"/>
       <c r="C632" s="18"/>
@@ -13826,7 +13837,7 @@
       <c r="N632" s="6"/>
       <c r="O632" s="25"/>
     </row>
-    <row r="633" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="633" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A633" s="18"/>
       <c r="B633" s="18"/>
       <c r="C633" s="18"/>
@@ -13843,7 +13854,7 @@
       <c r="N633" s="6"/>
       <c r="O633" s="25"/>
     </row>
-    <row r="634" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="634" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A634" s="18"/>
       <c r="B634" s="18"/>
       <c r="C634" s="18"/>
@@ -13860,7 +13871,7 @@
       <c r="N634" s="6"/>
       <c r="O634" s="25"/>
     </row>
-    <row r="635" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="635" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A635" s="18"/>
       <c r="B635" s="18"/>
       <c r="C635" s="18"/>
@@ -13877,7 +13888,7 @@
       <c r="N635" s="6"/>
       <c r="O635" s="25"/>
     </row>
-    <row r="636" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="636" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A636" s="18"/>
       <c r="B636" s="18"/>
       <c r="C636" s="18"/>
@@ -13894,7 +13905,7 @@
       <c r="N636" s="6"/>
       <c r="O636" s="25"/>
     </row>
-    <row r="637" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="637" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A637" s="18"/>
       <c r="B637" s="18"/>
       <c r="C637" s="18"/>
@@ -13911,7 +13922,7 @@
       <c r="N637" s="6"/>
       <c r="O637" s="25"/>
     </row>
-    <row r="638" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="638" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A638" s="18"/>
       <c r="B638" s="18"/>
       <c r="C638" s="18"/>
@@ -13928,7 +13939,7 @@
       <c r="N638" s="6"/>
       <c r="O638" s="25"/>
     </row>
-    <row r="639" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="639" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A639" s="18"/>
       <c r="B639" s="18"/>
       <c r="C639" s="18"/>
@@ -13945,7 +13956,7 @@
       <c r="N639" s="6"/>
       <c r="O639" s="25"/>
     </row>
-    <row r="640" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="640" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A640" s="18"/>
       <c r="B640" s="18"/>
       <c r="C640" s="18"/>
@@ -13962,7 +13973,7 @@
       <c r="N640" s="6"/>
       <c r="O640" s="25"/>
     </row>
-    <row r="641" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="641" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A641" s="18"/>
       <c r="B641" s="18"/>
       <c r="C641" s="18"/>
@@ -13979,7 +13990,7 @@
       <c r="N641" s="6"/>
       <c r="O641" s="25"/>
     </row>
-    <row r="642" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="642" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A642" s="18"/>
       <c r="B642" s="18"/>
       <c r="C642" s="18"/>
@@ -13996,7 +14007,7 @@
       <c r="N642" s="6"/>
       <c r="O642" s="25"/>
     </row>
-    <row r="643" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="643" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A643" s="18"/>
       <c r="B643" s="18"/>
       <c r="C643" s="18"/>
@@ -14013,7 +14024,7 @@
       <c r="N643" s="6"/>
       <c r="O643" s="25"/>
     </row>
-    <row r="644" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="644" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A644" s="18"/>
       <c r="B644" s="18"/>
       <c r="C644" s="18"/>
@@ -14030,7 +14041,7 @@
       <c r="N644" s="6"/>
       <c r="O644" s="25"/>
     </row>
-    <row r="645" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="645" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A645" s="18"/>
       <c r="B645" s="18"/>
       <c r="C645" s="18"/>
@@ -14047,7 +14058,7 @@
       <c r="N645" s="6"/>
       <c r="O645" s="25"/>
     </row>
-    <row r="646" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="646" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A646" s="18"/>
       <c r="B646" s="18"/>
       <c r="C646" s="18"/>
@@ -14064,7 +14075,7 @@
       <c r="N646" s="6"/>
       <c r="O646" s="25"/>
     </row>
-    <row r="647" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="647" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A647" s="18"/>
       <c r="B647" s="18"/>
       <c r="C647" s="18"/>
@@ -14081,7 +14092,7 @@
       <c r="N647" s="6"/>
       <c r="O647" s="25"/>
     </row>
-    <row r="648" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="648" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A648" s="18"/>
       <c r="B648" s="18"/>
       <c r="C648" s="18"/>
@@ -14098,7 +14109,7 @@
       <c r="N648" s="6"/>
       <c r="O648" s="25"/>
     </row>
-    <row r="649" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="649" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A649" s="18"/>
       <c r="B649" s="18"/>
       <c r="C649" s="18"/>
@@ -14115,7 +14126,7 @@
       <c r="N649" s="6"/>
       <c r="O649" s="25"/>
     </row>
-    <row r="650" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="650" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A650" s="18"/>
       <c r="B650" s="18"/>
       <c r="C650" s="18"/>
@@ -14132,7 +14143,7 @@
       <c r="N650" s="6"/>
       <c r="O650" s="25"/>
     </row>
-    <row r="651" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="651" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A651" s="18"/>
       <c r="B651" s="18"/>
       <c r="C651" s="18"/>
@@ -14149,7 +14160,7 @@
       <c r="N651" s="6"/>
       <c r="O651" s="25"/>
     </row>
-    <row r="652" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="652" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A652" s="18"/>
       <c r="B652" s="18"/>
       <c r="C652" s="18"/>
@@ -14166,7 +14177,7 @@
       <c r="N652" s="6"/>
       <c r="O652" s="25"/>
     </row>
-    <row r="653" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="653" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A653" s="18"/>
       <c r="B653" s="18"/>
       <c r="C653" s="18"/>
@@ -14183,7 +14194,7 @@
       <c r="N653" s="6"/>
       <c r="O653" s="25"/>
     </row>
-    <row r="654" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="654" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A654" s="18"/>
       <c r="B654" s="18"/>
       <c r="C654" s="18"/>
@@ -14200,7 +14211,7 @@
       <c r="N654" s="6"/>
       <c r="O654" s="25"/>
     </row>
-    <row r="655" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="655" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A655" s="18"/>
       <c r="B655" s="18"/>
       <c r="C655" s="18"/>
@@ -14217,7 +14228,7 @@
       <c r="N655" s="6"/>
       <c r="O655" s="25"/>
     </row>
-    <row r="656" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="656" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A656" s="18"/>
       <c r="B656" s="18"/>
       <c r="C656" s="18"/>
@@ -14234,7 +14245,7 @@
       <c r="N656" s="6"/>
       <c r="O656" s="25"/>
     </row>
-    <row r="657" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="657" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A657" s="18"/>
       <c r="B657" s="18"/>
       <c r="C657" s="18"/>
@@ -14251,7 +14262,7 @@
       <c r="N657" s="6"/>
       <c r="O657" s="25"/>
     </row>
-    <row r="658" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="658" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A658" s="18"/>
       <c r="B658" s="18"/>
       <c r="C658" s="18"/>
@@ -14268,7 +14279,7 @@
       <c r="N658" s="6"/>
       <c r="O658" s="25"/>
     </row>
-    <row r="659" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="659" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A659" s="18"/>
       <c r="B659" s="18"/>
       <c r="C659" s="18"/>
@@ -14285,7 +14296,7 @@
       <c r="N659" s="6"/>
       <c r="O659" s="25"/>
     </row>
-    <row r="660" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="660" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A660" s="18"/>
       <c r="B660" s="18"/>
       <c r="C660" s="18"/>
@@ -14302,7 +14313,7 @@
       <c r="N660" s="6"/>
       <c r="O660" s="25"/>
     </row>
-    <row r="661" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="661" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A661" s="18"/>
       <c r="B661" s="18"/>
       <c r="C661" s="18"/>
@@ -14319,7 +14330,7 @@
       <c r="N661" s="6"/>
       <c r="O661" s="25"/>
     </row>
-    <row r="662" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="662" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A662" s="18"/>
       <c r="B662" s="18"/>
       <c r="C662" s="18"/>
@@ -14336,7 +14347,7 @@
       <c r="N662" s="6"/>
       <c r="O662" s="25"/>
     </row>
-    <row r="663" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="663" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A663" s="18"/>
       <c r="B663" s="18"/>
       <c r="C663" s="18"/>
@@ -14353,7 +14364,7 @@
       <c r="N663" s="6"/>
       <c r="O663" s="25"/>
     </row>
-    <row r="664" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="664" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A664" s="18"/>
       <c r="B664" s="18"/>
       <c r="C664" s="18"/>
@@ -14370,7 +14381,7 @@
       <c r="N664" s="6"/>
       <c r="O664" s="25"/>
     </row>
-    <row r="665" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="665" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A665" s="18"/>
       <c r="B665" s="18"/>
       <c r="C665" s="18"/>
@@ -14387,7 +14398,7 @@
       <c r="N665" s="6"/>
       <c r="O665" s="25"/>
     </row>
-    <row r="666" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="666" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A666" s="18"/>
       <c r="B666" s="18"/>
       <c r="C666" s="18"/>
@@ -14404,7 +14415,7 @@
       <c r="N666" s="6"/>
       <c r="O666" s="25"/>
     </row>
-    <row r="667" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="667" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A667" s="18"/>
       <c r="B667" s="18"/>
       <c r="C667" s="18"/>
@@ -14421,7 +14432,7 @@
       <c r="N667" s="6"/>
       <c r="O667" s="25"/>
     </row>
-    <row r="668" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="668" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A668" s="18"/>
       <c r="B668" s="18"/>
       <c r="C668" s="18"/>
@@ -14438,7 +14449,7 @@
       <c r="N668" s="6"/>
       <c r="O668" s="25"/>
     </row>
-    <row r="669" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="669" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A669" s="18"/>
       <c r="B669" s="18"/>
       <c r="C669" s="18"/>
@@ -14455,7 +14466,7 @@
       <c r="N669" s="6"/>
       <c r="O669" s="25"/>
     </row>
-    <row r="670" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="670" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A670" s="18"/>
       <c r="B670" s="18"/>
       <c r="C670" s="18"/>
@@ -14472,7 +14483,7 @@
       <c r="N670" s="6"/>
       <c r="O670" s="25"/>
     </row>
-    <row r="671" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="671" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A671" s="18"/>
       <c r="B671" s="18"/>
       <c r="C671" s="18"/>
@@ -14489,7 +14500,7 @@
       <c r="N671" s="6"/>
       <c r="O671" s="25"/>
     </row>
-    <row r="672" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="672" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A672" s="18"/>
       <c r="B672" s="18"/>
       <c r="C672" s="18"/>
@@ -14506,7 +14517,7 @@
       <c r="N672" s="6"/>
       <c r="O672" s="25"/>
     </row>
-    <row r="673" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="673" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A673" s="18"/>
       <c r="B673" s="18"/>
       <c r="C673" s="18"/>
@@ -14523,7 +14534,7 @@
       <c r="N673" s="6"/>
       <c r="O673" s="25"/>
     </row>
-    <row r="674" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="674" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A674" s="18"/>
       <c r="B674" s="18"/>
       <c r="C674" s="18"/>
@@ -14540,7 +14551,7 @@
       <c r="N674" s="6"/>
       <c r="O674" s="25"/>
     </row>
-    <row r="675" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="675" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A675" s="18"/>
       <c r="B675" s="18"/>
       <c r="C675" s="18"/>
@@ -14557,7 +14568,7 @@
       <c r="N675" s="6"/>
       <c r="O675" s="25"/>
     </row>
-    <row r="676" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="676" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A676" s="18"/>
       <c r="B676" s="18"/>
       <c r="C676" s="18"/>
@@ -14574,7 +14585,7 @@
       <c r="N676" s="6"/>
       <c r="O676" s="25"/>
     </row>
-    <row r="677" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="677" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A677" s="18"/>
       <c r="B677" s="18"/>
       <c r="C677" s="18"/>
@@ -14591,7 +14602,7 @@
       <c r="N677" s="6"/>
       <c r="O677" s="25"/>
     </row>
-    <row r="678" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="678" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A678" s="18"/>
       <c r="B678" s="18"/>
       <c r="C678" s="18"/>
@@ -14608,7 +14619,7 @@
       <c r="N678" s="6"/>
       <c r="O678" s="25"/>
     </row>
-    <row r="679" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="679" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A679" s="18"/>
       <c r="B679" s="18"/>
       <c r="C679" s="18"/>
@@ -14625,7 +14636,7 @@
       <c r="N679" s="6"/>
       <c r="O679" s="25"/>
     </row>
-    <row r="680" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="680" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A680" s="18"/>
       <c r="B680" s="18"/>
       <c r="C680" s="18"/>
@@ -14642,7 +14653,7 @@
       <c r="N680" s="6"/>
       <c r="O680" s="25"/>
     </row>
-    <row r="681" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="681" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A681" s="18"/>
       <c r="B681" s="18"/>
       <c r="C681" s="18"/>
@@ -14659,7 +14670,7 @@
       <c r="N681" s="6"/>
       <c r="O681" s="25"/>
     </row>
-    <row r="682" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="682" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A682" s="18"/>
       <c r="B682" s="18"/>
       <c r="C682" s="18"/>
@@ -14676,7 +14687,7 @@
       <c r="N682" s="6"/>
       <c r="O682" s="25"/>
     </row>
-    <row r="683" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="683" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A683" s="18"/>
       <c r="B683" s="18"/>
       <c r="C683" s="18"/>
@@ -14693,7 +14704,7 @@
       <c r="N683" s="6"/>
       <c r="O683" s="25"/>
     </row>
-    <row r="684" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="684" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A684" s="18"/>
       <c r="B684" s="18"/>
       <c r="C684" s="18"/>
@@ -14710,7 +14721,7 @@
       <c r="N684" s="6"/>
       <c r="O684" s="25"/>
     </row>
-    <row r="685" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="685" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A685" s="18"/>
       <c r="B685" s="18"/>
       <c r="C685" s="18"/>
@@ -14727,7 +14738,7 @@
       <c r="N685" s="6"/>
       <c r="O685" s="25"/>
     </row>
-    <row r="686" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="686" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A686" s="18"/>
       <c r="B686" s="18"/>
       <c r="C686" s="18"/>
@@ -14744,7 +14755,7 @@
       <c r="N686" s="6"/>
       <c r="O686" s="25"/>
     </row>
-    <row r="687" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="687" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A687" s="18"/>
       <c r="B687" s="18"/>
       <c r="C687" s="18"/>
@@ -14761,7 +14772,7 @@
       <c r="N687" s="6"/>
       <c r="O687" s="25"/>
     </row>
-    <row r="688" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="688" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A688" s="18"/>
       <c r="B688" s="18"/>
       <c r="C688" s="18"/>
@@ -14778,7 +14789,7 @@
       <c r="N688" s="6"/>
       <c r="O688" s="25"/>
     </row>
-    <row r="689" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="689" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A689" s="18"/>
       <c r="B689" s="18"/>
       <c r="C689" s="18"/>
@@ -14795,7 +14806,7 @@
       <c r="N689" s="6"/>
       <c r="O689" s="25"/>
     </row>
-    <row r="690" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="690" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A690" s="18"/>
       <c r="B690" s="18"/>
       <c r="C690" s="18"/>
@@ -14812,7 +14823,7 @@
       <c r="N690" s="6"/>
       <c r="O690" s="25"/>
     </row>
-    <row r="691" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="691" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A691" s="18"/>
       <c r="B691" s="18"/>
       <c r="C691" s="18"/>
@@ -14829,7 +14840,7 @@
       <c r="N691" s="6"/>
       <c r="O691" s="25"/>
     </row>
-    <row r="692" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="692" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A692" s="18"/>
       <c r="B692" s="18"/>
       <c r="C692" s="18"/>
@@ -14846,7 +14857,7 @@
       <c r="N692" s="6"/>
       <c r="O692" s="25"/>
     </row>
-    <row r="693" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="693" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A693" s="18"/>
       <c r="B693" s="18"/>
       <c r="C693" s="18"/>
@@ -14863,7 +14874,7 @@
       <c r="N693" s="6"/>
       <c r="O693" s="25"/>
     </row>
-    <row r="694" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="694" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A694" s="18"/>
       <c r="B694" s="18"/>
       <c r="C694" s="18"/>
@@ -14880,7 +14891,7 @@
       <c r="N694" s="6"/>
       <c r="O694" s="25"/>
     </row>
-    <row r="695" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="695" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A695" s="18"/>
       <c r="B695" s="18"/>
       <c r="C695" s="18"/>
@@ -14897,7 +14908,7 @@
       <c r="N695" s="6"/>
       <c r="O695" s="25"/>
     </row>
-    <row r="696" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="696" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A696" s="18"/>
       <c r="B696" s="18"/>
       <c r="C696" s="18"/>
@@ -14914,7 +14925,7 @@
       <c r="N696" s="6"/>
       <c r="O696" s="25"/>
     </row>
-    <row r="697" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="697" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A697" s="18"/>
       <c r="B697" s="18"/>
       <c r="C697" s="18"/>
@@ -14931,7 +14942,7 @@
       <c r="N697" s="6"/>
       <c r="O697" s="25"/>
     </row>
-    <row r="698" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="698" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A698" s="18"/>
       <c r="B698" s="18"/>
       <c r="C698" s="18"/>
@@ -14948,7 +14959,7 @@
       <c r="N698" s="6"/>
       <c r="O698" s="25"/>
     </row>
-    <row r="699" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="699" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A699" s="18"/>
       <c r="B699" s="18"/>
       <c r="C699" s="18"/>
@@ -14965,7 +14976,7 @@
       <c r="N699" s="6"/>
       <c r="O699" s="25"/>
     </row>
-    <row r="700" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="700" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A700" s="18"/>
       <c r="B700" s="18"/>
       <c r="C700" s="18"/>
@@ -14982,7 +14993,7 @@
       <c r="N700" s="6"/>
       <c r="O700" s="25"/>
     </row>
-    <row r="701" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="701" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A701" s="18"/>
       <c r="B701" s="18"/>
       <c r="C701" s="18"/>
@@ -14999,7 +15010,7 @@
       <c r="N701" s="6"/>
       <c r="O701" s="25"/>
     </row>
-    <row r="702" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="702" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A702" s="18"/>
       <c r="B702" s="18"/>
       <c r="C702" s="18"/>
@@ -15016,7 +15027,7 @@
       <c r="N702" s="6"/>
       <c r="O702" s="25"/>
     </row>
-    <row r="703" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="703" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A703" s="18"/>
       <c r="B703" s="18"/>
       <c r="C703" s="18"/>
@@ -15033,7 +15044,7 @@
       <c r="N703" s="6"/>
       <c r="O703" s="25"/>
     </row>
-    <row r="704" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="704" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A704" s="18"/>
       <c r="B704" s="18"/>
       <c r="C704" s="18"/>
@@ -15050,7 +15061,7 @@
       <c r="N704" s="6"/>
       <c r="O704" s="25"/>
     </row>
-    <row r="705" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="705" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A705" s="18"/>
       <c r="B705" s="18"/>
       <c r="C705" s="18"/>
@@ -15067,7 +15078,7 @@
       <c r="N705" s="6"/>
       <c r="O705" s="25"/>
     </row>
-    <row r="706" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="706" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A706" s="18"/>
       <c r="B706" s="18"/>
       <c r="C706" s="18"/>
@@ -15084,7 +15095,7 @@
       <c r="N706" s="6"/>
       <c r="O706" s="25"/>
     </row>
-    <row r="707" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="707" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A707" s="18"/>
       <c r="B707" s="18"/>
       <c r="C707" s="18"/>
@@ -15101,7 +15112,7 @@
       <c r="N707" s="6"/>
       <c r="O707" s="25"/>
     </row>
-    <row r="708" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="708" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A708" s="18"/>
       <c r="B708" s="18"/>
       <c r="C708" s="18"/>
@@ -15118,7 +15129,7 @@
       <c r="N708" s="6"/>
       <c r="O708" s="25"/>
     </row>
-    <row r="709" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="709" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A709" s="18"/>
       <c r="B709" s="18"/>
       <c r="C709" s="18"/>
@@ -15135,7 +15146,7 @@
       <c r="N709" s="6"/>
       <c r="O709" s="25"/>
     </row>
-    <row r="710" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="710" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A710" s="18"/>
       <c r="B710" s="18"/>
       <c r="C710" s="18"/>
@@ -15152,7 +15163,7 @@
       <c r="N710" s="6"/>
       <c r="O710" s="25"/>
     </row>
-    <row r="711" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="711" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A711" s="18"/>
       <c r="B711" s="18"/>
       <c r="C711" s="18"/>
@@ -15169,7 +15180,7 @@
       <c r="N711" s="6"/>
       <c r="O711" s="25"/>
     </row>
-    <row r="712" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="712" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A712" s="18"/>
       <c r="B712" s="18"/>
       <c r="C712" s="18"/>
@@ -15186,7 +15197,7 @@
       <c r="N712" s="6"/>
       <c r="O712" s="25"/>
     </row>
-    <row r="713" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="713" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A713" s="18"/>
       <c r="B713" s="18"/>
       <c r="C713" s="18"/>
@@ -15203,7 +15214,7 @@
       <c r="N713" s="6"/>
       <c r="O713" s="25"/>
     </row>
-    <row r="714" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="714" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A714" s="18"/>
       <c r="B714" s="18"/>
       <c r="C714" s="18"/>
@@ -15220,7 +15231,7 @@
       <c r="N714" s="6"/>
       <c r="O714" s="25"/>
     </row>
-    <row r="715" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="715" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A715" s="18"/>
       <c r="B715" s="18"/>
       <c r="C715" s="18"/>
@@ -15237,7 +15248,7 @@
       <c r="N715" s="6"/>
       <c r="O715" s="25"/>
     </row>
-    <row r="716" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="716" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A716" s="18"/>
       <c r="B716" s="18"/>
       <c r="C716" s="18"/>
@@ -15254,7 +15265,7 @@
       <c r="N716" s="6"/>
       <c r="O716" s="25"/>
     </row>
-    <row r="717" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="717" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A717" s="18"/>
       <c r="B717" s="18"/>
       <c r="C717" s="18"/>
@@ -15271,7 +15282,7 @@
       <c r="N717" s="6"/>
       <c r="O717" s="25"/>
     </row>
-    <row r="718" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="718" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A718" s="18"/>
       <c r="B718" s="18"/>
       <c r="C718" s="18"/>
@@ -15288,7 +15299,7 @@
       <c r="N718" s="6"/>
       <c r="O718" s="25"/>
     </row>
-    <row r="719" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="719" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A719" s="18"/>
       <c r="B719" s="18"/>
       <c r="C719" s="18"/>
@@ -15305,7 +15316,7 @@
       <c r="N719" s="6"/>
       <c r="O719" s="25"/>
     </row>
-    <row r="720" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="720" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A720" s="18"/>
       <c r="B720" s="18"/>
       <c r="C720" s="18"/>
@@ -15322,7 +15333,7 @@
       <c r="N720" s="6"/>
       <c r="O720" s="25"/>
     </row>
-    <row r="721" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="721" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A721" s="18"/>
       <c r="B721" s="18"/>
       <c r="C721" s="18"/>
@@ -15339,7 +15350,7 @@
       <c r="N721" s="6"/>
       <c r="O721" s="25"/>
     </row>
-    <row r="722" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="722" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A722" s="18"/>
       <c r="B722" s="18"/>
       <c r="C722" s="18"/>
@@ -15356,7 +15367,7 @@
       <c r="N722" s="6"/>
       <c r="O722" s="25"/>
     </row>
-    <row r="723" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="723" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A723" s="18"/>
       <c r="B723" s="18"/>
       <c r="C723" s="18"/>
@@ -15373,7 +15384,7 @@
       <c r="N723" s="6"/>
       <c r="O723" s="25"/>
     </row>
-    <row r="724" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="724" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A724" s="18"/>
       <c r="B724" s="18"/>
       <c r="C724" s="18"/>
@@ -15390,7 +15401,7 @@
       <c r="N724" s="6"/>
       <c r="O724" s="25"/>
     </row>
-    <row r="725" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="725" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A725" s="18"/>
       <c r="B725" s="18"/>
       <c r="C725" s="18"/>
@@ -15407,7 +15418,7 @@
       <c r="N725" s="6"/>
       <c r="O725" s="25"/>
     </row>
-    <row r="726" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="726" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A726" s="18"/>
       <c r="B726" s="18"/>
       <c r="C726" s="18"/>
@@ -15424,7 +15435,7 @@
       <c r="N726" s="6"/>
       <c r="O726" s="25"/>
     </row>
-    <row r="727" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="727" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A727" s="18"/>
       <c r="B727" s="18"/>
       <c r="C727" s="18"/>
@@ -15441,7 +15452,7 @@
       <c r="N727" s="6"/>
       <c r="O727" s="25"/>
     </row>
-    <row r="728" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="728" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A728" s="18"/>
       <c r="B728" s="18"/>
       <c r="C728" s="18"/>
@@ -15458,7 +15469,7 @@
       <c r="N728" s="6"/>
       <c r="O728" s="25"/>
     </row>
-    <row r="729" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="729" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A729" s="18"/>
       <c r="B729" s="18"/>
       <c r="C729" s="18"/>
@@ -15475,7 +15486,7 @@
       <c r="N729" s="6"/>
       <c r="O729" s="25"/>
     </row>
-    <row r="730" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="730" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A730" s="18"/>
       <c r="B730" s="18"/>
       <c r="C730" s="18"/>
@@ -15492,7 +15503,7 @@
       <c r="N730" s="6"/>
       <c r="O730" s="25"/>
     </row>
-    <row r="731" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="731" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A731" s="18"/>
       <c r="B731" s="18"/>
       <c r="C731" s="18"/>
@@ -15509,7 +15520,7 @@
       <c r="N731" s="6"/>
       <c r="O731" s="25"/>
     </row>
-    <row r="732" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="732" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A732" s="18"/>
       <c r="B732" s="18"/>
       <c r="C732" s="18"/>
@@ -15526,7 +15537,7 @@
       <c r="N732" s="6"/>
       <c r="O732" s="25"/>
     </row>
-    <row r="733" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="733" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A733" s="18"/>
       <c r="B733" s="18"/>
       <c r="C733" s="18"/>
@@ -15543,7 +15554,7 @@
       <c r="N733" s="6"/>
       <c r="O733" s="25"/>
     </row>
-    <row r="734" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="734" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A734" s="18"/>
       <c r="B734" s="18"/>
       <c r="C734" s="18"/>
@@ -15560,7 +15571,7 @@
       <c r="N734" s="6"/>
       <c r="O734" s="25"/>
     </row>
-    <row r="735" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="735" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A735" s="18"/>
       <c r="B735" s="18"/>
       <c r="C735" s="18"/>
@@ -15577,7 +15588,7 @@
       <c r="N735" s="6"/>
       <c r="O735" s="25"/>
     </row>
-    <row r="736" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="736" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A736" s="18"/>
       <c r="B736" s="18"/>
       <c r="C736" s="18"/>
@@ -15594,7 +15605,7 @@
       <c r="N736" s="6"/>
       <c r="O736" s="25"/>
     </row>
-    <row r="737" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="737" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A737" s="18"/>
       <c r="B737" s="18"/>
       <c r="C737" s="18"/>
@@ -15611,7 +15622,7 @@
       <c r="N737" s="6"/>
       <c r="O737" s="25"/>
     </row>
-    <row r="738" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="738" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A738" s="18"/>
       <c r="B738" s="18"/>
       <c r="C738" s="18"/>
@@ -15628,7 +15639,7 @@
       <c r="N738" s="6"/>
       <c r="O738" s="25"/>
     </row>
-    <row r="739" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="739" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A739" s="18"/>
       <c r="B739" s="18"/>
       <c r="C739" s="18"/>
@@ -15645,7 +15656,7 @@
       <c r="N739" s="6"/>
       <c r="O739" s="25"/>
     </row>
-    <row r="740" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="740" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A740" s="18"/>
       <c r="B740" s="18"/>
       <c r="C740" s="18"/>
@@ -15662,7 +15673,7 @@
       <c r="N740" s="6"/>
       <c r="O740" s="25"/>
     </row>
-    <row r="741" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="741" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A741" s="18"/>
       <c r="B741" s="18"/>
       <c r="C741" s="18"/>
@@ -15679,7 +15690,7 @@
       <c r="N741" s="6"/>
       <c r="O741" s="25"/>
     </row>
-    <row r="742" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="742" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A742" s="18"/>
       <c r="B742" s="18"/>
       <c r="C742" s="18"/>
@@ -15696,7 +15707,7 @@
       <c r="N742" s="6"/>
       <c r="O742" s="25"/>
     </row>
-    <row r="743" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="743" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A743" s="18"/>
       <c r="B743" s="18"/>
       <c r="C743" s="18"/>
@@ -15713,7 +15724,7 @@
       <c r="N743" s="6"/>
       <c r="O743" s="25"/>
     </row>
-    <row r="744" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="744" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A744" s="18"/>
       <c r="B744" s="18"/>
       <c r="C744" s="18"/>
@@ -15730,7 +15741,7 @@
       <c r="N744" s="6"/>
       <c r="O744" s="25"/>
     </row>
-    <row r="745" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="745" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A745" s="18"/>
       <c r="B745" s="18"/>
       <c r="C745" s="18"/>
@@ -15747,7 +15758,7 @@
       <c r="N745" s="6"/>
       <c r="O745" s="25"/>
     </row>
-    <row r="746" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="746" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A746" s="18"/>
       <c r="B746" s="18"/>
       <c r="C746" s="18"/>
@@ -15764,7 +15775,7 @@
       <c r="N746" s="6"/>
       <c r="O746" s="25"/>
     </row>
-    <row r="747" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="747" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A747" s="18"/>
       <c r="B747" s="18"/>
       <c r="C747" s="18"/>
@@ -15781,7 +15792,7 @@
       <c r="N747" s="6"/>
       <c r="O747" s="25"/>
     </row>
-    <row r="748" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="748" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A748" s="18"/>
       <c r="B748" s="18"/>
       <c r="C748" s="18"/>
@@ -15798,7 +15809,7 @@
       <c r="N748" s="6"/>
       <c r="O748" s="25"/>
     </row>
-    <row r="749" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="749" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A749" s="18"/>
       <c r="B749" s="18"/>
       <c r="C749" s="18"/>
@@ -15815,7 +15826,7 @@
       <c r="N749" s="6"/>
       <c r="O749" s="25"/>
     </row>
-    <row r="750" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="750" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A750" s="18"/>
       <c r="B750" s="18"/>
       <c r="C750" s="18"/>
@@ -15832,7 +15843,7 @@
       <c r="N750" s="6"/>
       <c r="O750" s="25"/>
     </row>
-    <row r="751" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="751" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A751" s="18"/>
       <c r="B751" s="18"/>
       <c r="C751" s="18"/>
@@ -15849,7 +15860,7 @@
       <c r="N751" s="6"/>
       <c r="O751" s="25"/>
     </row>
-    <row r="752" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="752" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A752" s="18"/>
       <c r="B752" s="18"/>
       <c r="C752" s="18"/>
@@ -15866,7 +15877,7 @@
       <c r="N752" s="6"/>
       <c r="O752" s="25"/>
     </row>
-    <row r="753" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="753" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A753" s="18"/>
       <c r="B753" s="18"/>
       <c r="C753" s="18"/>
@@ -15883,7 +15894,7 @@
       <c r="N753" s="6"/>
       <c r="O753" s="25"/>
     </row>
-    <row r="754" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="754" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A754" s="18"/>
       <c r="B754" s="18"/>
       <c r="C754" s="18"/>
@@ -15900,7 +15911,7 @@
       <c r="N754" s="6"/>
       <c r="O754" s="25"/>
     </row>
-    <row r="755" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="755" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A755" s="18"/>
       <c r="B755" s="18"/>
       <c r="C755" s="18"/>
@@ -15917,7 +15928,7 @@
       <c r="N755" s="6"/>
       <c r="O755" s="25"/>
     </row>
-    <row r="756" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="756" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A756" s="18"/>
       <c r="B756" s="18"/>
       <c r="C756" s="18"/>
@@ -15934,7 +15945,7 @@
       <c r="N756" s="6"/>
       <c r="O756" s="25"/>
     </row>
-    <row r="757" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="757" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A757" s="18"/>
       <c r="B757" s="18"/>
       <c r="C757" s="18"/>
@@ -15951,7 +15962,7 @@
       <c r="N757" s="6"/>
       <c r="O757" s="25"/>
     </row>
-    <row r="758" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="758" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A758" s="18"/>
       <c r="B758" s="18"/>
       <c r="C758" s="18"/>
@@ -15968,7 +15979,7 @@
       <c r="N758" s="6"/>
       <c r="O758" s="25"/>
     </row>
-    <row r="759" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="759" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A759" s="18"/>
       <c r="B759" s="18"/>
       <c r="C759" s="18"/>
@@ -15985,7 +15996,7 @@
       <c r="N759" s="6"/>
       <c r="O759" s="25"/>
     </row>
-    <row r="760" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="760" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A760" s="18"/>
       <c r="B760" s="18"/>
       <c r="C760" s="18"/>
@@ -16002,7 +16013,7 @@
       <c r="N760" s="6"/>
       <c r="O760" s="25"/>
     </row>
-    <row r="761" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="761" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A761" s="18"/>
       <c r="B761" s="18"/>
       <c r="C761" s="18"/>
@@ -16019,7 +16030,7 @@
       <c r="N761" s="6"/>
       <c r="O761" s="25"/>
     </row>
-    <row r="762" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="762" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A762" s="18"/>
       <c r="B762" s="18"/>
       <c r="C762" s="18"/>
@@ -16036,7 +16047,7 @@
       <c r="N762" s="6"/>
       <c r="O762" s="25"/>
     </row>
-    <row r="763" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="763" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A763" s="18"/>
       <c r="B763" s="18"/>
       <c r="C763" s="18"/>
@@ -16053,7 +16064,7 @@
       <c r="N763" s="6"/>
       <c r="O763" s="25"/>
     </row>
-    <row r="764" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="764" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A764" s="18"/>
       <c r="B764" s="18"/>
       <c r="C764" s="18"/>
@@ -16070,7 +16081,7 @@
       <c r="N764" s="6"/>
       <c r="O764" s="25"/>
     </row>
-    <row r="765" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="765" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A765" s="18"/>
       <c r="B765" s="18"/>
       <c r="C765" s="18"/>
@@ -16087,7 +16098,7 @@
       <c r="N765" s="6"/>
       <c r="O765" s="25"/>
     </row>
-    <row r="766" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="766" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A766" s="18"/>
       <c r="B766" s="18"/>
       <c r="C766" s="18"/>
@@ -16104,7 +16115,7 @@
       <c r="N766" s="6"/>
       <c r="O766" s="25"/>
     </row>
-    <row r="767" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="767" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A767" s="18"/>
       <c r="B767" s="18"/>
       <c r="C767" s="18"/>
@@ -16121,7 +16132,7 @@
       <c r="N767" s="6"/>
       <c r="O767" s="25"/>
     </row>
-    <row r="768" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="768" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A768" s="18"/>
       <c r="B768" s="18"/>
       <c r="C768" s="18"/>
@@ -16138,7 +16149,7 @@
       <c r="N768" s="6"/>
       <c r="O768" s="25"/>
     </row>
-    <row r="769" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="769" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A769" s="18"/>
       <c r="B769" s="18"/>
       <c r="C769" s="18"/>
@@ -16155,7 +16166,7 @@
       <c r="N769" s="6"/>
       <c r="O769" s="25"/>
     </row>
-    <row r="770" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="770" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A770" s="18"/>
       <c r="B770" s="18"/>
       <c r="C770" s="18"/>
@@ -16172,7 +16183,7 @@
       <c r="N770" s="6"/>
       <c r="O770" s="25"/>
     </row>
-    <row r="771" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="771" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A771" s="18"/>
       <c r="B771" s="18"/>
       <c r="C771" s="18"/>
@@ -16189,7 +16200,7 @@
       <c r="N771" s="6"/>
       <c r="O771" s="25"/>
     </row>
-    <row r="772" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="772" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A772" s="18"/>
       <c r="B772" s="18"/>
       <c r="C772" s="18"/>
@@ -16206,7 +16217,7 @@
       <c r="N772" s="6"/>
       <c r="O772" s="25"/>
     </row>
-    <row r="773" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="773" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A773" s="18"/>
       <c r="B773" s="18"/>
       <c r="C773" s="18"/>
@@ -16223,7 +16234,7 @@
       <c r="N773" s="6"/>
       <c r="O773" s="25"/>
     </row>
-    <row r="774" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="774" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A774" s="18"/>
       <c r="B774" s="18"/>
       <c r="C774" s="18"/>
@@ -16240,7 +16251,7 @@
       <c r="N774" s="6"/>
       <c r="O774" s="25"/>
     </row>
-    <row r="775" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="775" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A775" s="18"/>
       <c r="B775" s="18"/>
       <c r="C775" s="18"/>
@@ -16257,7 +16268,7 @@
       <c r="N775" s="6"/>
       <c r="O775" s="25"/>
     </row>
-    <row r="776" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="776" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A776" s="18"/>
       <c r="B776" s="18"/>
       <c r="C776" s="18"/>
@@ -16274,7 +16285,7 @@
       <c r="N776" s="6"/>
       <c r="O776" s="25"/>
     </row>
-    <row r="777" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="777" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A777" s="18"/>
       <c r="B777" s="18"/>
       <c r="C777" s="18"/>
@@ -16291,7 +16302,7 @@
       <c r="N777" s="6"/>
       <c r="O777" s="25"/>
     </row>
-    <row r="778" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="778" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A778" s="18"/>
       <c r="B778" s="18"/>
       <c r="C778" s="18"/>
@@ -16308,7 +16319,7 @@
       <c r="N778" s="6"/>
       <c r="O778" s="25"/>
     </row>
-    <row r="779" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="779" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A779" s="18"/>
       <c r="B779" s="18"/>
       <c r="C779" s="18"/>
@@ -16325,7 +16336,7 @@
       <c r="N779" s="6"/>
       <c r="O779" s="25"/>
     </row>
-    <row r="780" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="780" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A780" s="18"/>
       <c r="B780" s="18"/>
       <c r="C780" s="18"/>
@@ -16342,7 +16353,7 @@
       <c r="N780" s="6"/>
       <c r="O780" s="25"/>
     </row>
-    <row r="781" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="781" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A781" s="18"/>
       <c r="B781" s="18"/>
       <c r="C781" s="18"/>
@@ -16359,7 +16370,7 @@
       <c r="N781" s="6"/>
       <c r="O781" s="25"/>
     </row>
-    <row r="782" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="782" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A782" s="18"/>
       <c r="B782" s="18"/>
       <c r="C782" s="18"/>
@@ -16376,7 +16387,7 @@
       <c r="N782" s="6"/>
       <c r="O782" s="25"/>
     </row>
-    <row r="783" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="783" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A783" s="18"/>
       <c r="B783" s="18"/>
       <c r="C783" s="18"/>
@@ -16393,7 +16404,7 @@
       <c r="N783" s="6"/>
       <c r="O783" s="25"/>
     </row>
-    <row r="784" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="784" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A784" s="18"/>
       <c r="B784" s="18"/>
       <c r="C784" s="18"/>
@@ -16410,7 +16421,7 @@
       <c r="N784" s="6"/>
       <c r="O784" s="25"/>
     </row>
-    <row r="785" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="785" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A785" s="18"/>
       <c r="B785" s="18"/>
       <c r="C785" s="18"/>
@@ -16427,7 +16438,7 @@
       <c r="N785" s="6"/>
       <c r="O785" s="25"/>
     </row>
-    <row r="786" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="786" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A786" s="18"/>
       <c r="B786" s="18"/>
       <c r="C786" s="18"/>
@@ -16444,7 +16455,7 @@
       <c r="N786" s="6"/>
       <c r="O786" s="25"/>
     </row>
-    <row r="787" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="787" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A787" s="18"/>
       <c r="B787" s="18"/>
       <c r="C787" s="18"/>
@@ -16461,7 +16472,7 @@
       <c r="N787" s="6"/>
       <c r="O787" s="25"/>
     </row>
-    <row r="788" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="788" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A788" s="18"/>
       <c r="B788" s="18"/>
       <c r="C788" s="18"/>
@@ -16478,7 +16489,7 @@
       <c r="N788" s="6"/>
       <c r="O788" s="25"/>
     </row>
-    <row r="789" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="789" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A789" s="18"/>
       <c r="B789" s="18"/>
       <c r="C789" s="18"/>
@@ -16495,7 +16506,7 @@
       <c r="N789" s="6"/>
       <c r="O789" s="25"/>
     </row>
-    <row r="790" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="790" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A790" s="18"/>
       <c r="B790" s="18"/>
       <c r="C790" s="18"/>
@@ -16512,7 +16523,7 @@
       <c r="N790" s="6"/>
       <c r="O790" s="25"/>
     </row>
-    <row r="791" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="791" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A791" s="18"/>
       <c r="B791" s="18"/>
       <c r="C791" s="18"/>
@@ -16529,7 +16540,7 @@
       <c r="N791" s="6"/>
       <c r="O791" s="25"/>
     </row>
-    <row r="792" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="792" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A792" s="18"/>
       <c r="B792" s="18"/>
       <c r="C792" s="18"/>
@@ -16546,7 +16557,7 @@
       <c r="N792" s="6"/>
       <c r="O792" s="25"/>
     </row>
-    <row r="793" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="793" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A793" s="18"/>
       <c r="B793" s="18"/>
       <c r="C793" s="18"/>
@@ -16563,7 +16574,7 @@
       <c r="N793" s="6"/>
       <c r="O793" s="25"/>
     </row>
-    <row r="794" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="794" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A794" s="18"/>
       <c r="B794" s="18"/>
       <c r="C794" s="18"/>
@@ -16580,7 +16591,7 @@
       <c r="N794" s="6"/>
       <c r="O794" s="25"/>
     </row>
-    <row r="795" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="795" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A795" s="18"/>
       <c r="B795" s="18"/>
       <c r="C795" s="18"/>
@@ -16597,7 +16608,7 @@
       <c r="N795" s="6"/>
       <c r="O795" s="25"/>
     </row>
-    <row r="796" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="796" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A796" s="18"/>
       <c r="B796" s="18"/>
       <c r="C796" s="18"/>
@@ -16614,7 +16625,7 @@
       <c r="N796" s="6"/>
       <c r="O796" s="25"/>
     </row>
-    <row r="797" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="797" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A797" s="18"/>
       <c r="B797" s="18"/>
       <c r="C797" s="18"/>
@@ -16631,7 +16642,7 @@
       <c r="N797" s="6"/>
       <c r="O797" s="25"/>
     </row>
-    <row r="798" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="798" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A798" s="18"/>
       <c r="B798" s="18"/>
       <c r="C798" s="18"/>
@@ -16648,7 +16659,7 @@
       <c r="N798" s="6"/>
       <c r="O798" s="25"/>
     </row>
-    <row r="799" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="799" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A799" s="18"/>
       <c r="B799" s="18"/>
       <c r="C799" s="18"/>
@@ -16665,7 +16676,7 @@
       <c r="N799" s="6"/>
       <c r="O799" s="25"/>
     </row>
-    <row r="800" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="800" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A800" s="18"/>
       <c r="B800" s="18"/>
       <c r="C800" s="18"/>
@@ -16682,7 +16693,7 @@
       <c r="N800" s="6"/>
       <c r="O800" s="25"/>
     </row>
-    <row r="801" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="801" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A801" s="18"/>
       <c r="B801" s="18"/>
       <c r="C801" s="18"/>
@@ -16699,7 +16710,7 @@
       <c r="N801" s="6"/>
       <c r="O801" s="25"/>
     </row>
-    <row r="802" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="802" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A802" s="18"/>
       <c r="B802" s="18"/>
       <c r="C802" s="18"/>
@@ -16716,7 +16727,7 @@
       <c r="N802" s="6"/>
       <c r="O802" s="25"/>
     </row>
-    <row r="803" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="803" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A803" s="18"/>
       <c r="B803" s="18"/>
       <c r="C803" s="18"/>
@@ -16733,7 +16744,7 @@
       <c r="N803" s="6"/>
       <c r="O803" s="25"/>
     </row>
-    <row r="804" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="804" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A804" s="18"/>
       <c r="B804" s="18"/>
       <c r="C804" s="18"/>
@@ -16750,7 +16761,7 @@
       <c r="N804" s="6"/>
       <c r="O804" s="25"/>
     </row>
-    <row r="805" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="805" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A805" s="18"/>
       <c r="B805" s="18"/>
       <c r="C805" s="18"/>
@@ -16767,7 +16778,7 @@
       <c r="N805" s="6"/>
       <c r="O805" s="25"/>
     </row>
-    <row r="806" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="806" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A806" s="18"/>
       <c r="B806" s="18"/>
       <c r="C806" s="18"/>
@@ -16784,7 +16795,7 @@
       <c r="N806" s="6"/>
       <c r="O806" s="25"/>
     </row>
-    <row r="807" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="807" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A807" s="18"/>
       <c r="B807" s="18"/>
       <c r="C807" s="18"/>
@@ -16801,7 +16812,7 @@
       <c r="N807" s="6"/>
       <c r="O807" s="25"/>
     </row>
-    <row r="808" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="808" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A808" s="18"/>
       <c r="B808" s="18"/>
       <c r="C808" s="18"/>
@@ -16818,7 +16829,7 @@
       <c r="N808" s="6"/>
       <c r="O808" s="25"/>
     </row>
-    <row r="809" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="809" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A809" s="18"/>
       <c r="B809" s="18"/>
       <c r="C809" s="18"/>
@@ -16835,7 +16846,7 @@
       <c r="N809" s="6"/>
       <c r="O809" s="25"/>
     </row>
-    <row r="810" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="810" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A810" s="18"/>
       <c r="B810" s="18"/>
       <c r="C810" s="18"/>
@@ -16852,7 +16863,7 @@
       <c r="N810" s="6"/>
       <c r="O810" s="25"/>
     </row>
-    <row r="811" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="811" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A811" s="18"/>
       <c r="B811" s="18"/>
       <c r="C811" s="18"/>
@@ -16869,7 +16880,7 @@
       <c r="N811" s="6"/>
       <c r="O811" s="25"/>
     </row>
-    <row r="812" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="812" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A812" s="18"/>
       <c r="B812" s="18"/>
       <c r="C812" s="18"/>
@@ -16886,7 +16897,7 @@
       <c r="N812" s="6"/>
       <c r="O812" s="25"/>
     </row>
-    <row r="813" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="813" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A813" s="18"/>
       <c r="B813" s="18"/>
       <c r="C813" s="18"/>
@@ -16903,7 +16914,7 @@
       <c r="N813" s="6"/>
       <c r="O813" s="25"/>
     </row>
-    <row r="814" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="814" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A814" s="18"/>
       <c r="B814" s="18"/>
       <c r="C814" s="18"/>
@@ -16920,7 +16931,7 @@
       <c r="N814" s="6"/>
       <c r="O814" s="25"/>
     </row>
-    <row r="815" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="815" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A815" s="18"/>
       <c r="B815" s="18"/>
       <c r="C815" s="18"/>
@@ -16937,7 +16948,7 @@
       <c r="N815" s="6"/>
       <c r="O815" s="25"/>
     </row>
-    <row r="816" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="816" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A816" s="18"/>
       <c r="B816" s="18"/>
       <c r="C816" s="18"/>
@@ -16954,7 +16965,7 @@
       <c r="N816" s="6"/>
       <c r="O816" s="25"/>
     </row>
-    <row r="817" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="817" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A817" s="18"/>
       <c r="B817" s="18"/>
       <c r="C817" s="18"/>
@@ -16971,7 +16982,7 @@
       <c r="N817" s="6"/>
       <c r="O817" s="25"/>
     </row>
-    <row r="818" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="818" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A818" s="18"/>
       <c r="B818" s="18"/>
       <c r="C818" s="18"/>
@@ -16988,7 +16999,7 @@
       <c r="N818" s="6"/>
       <c r="O818" s="25"/>
     </row>
-    <row r="819" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="819" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A819" s="18"/>
       <c r="B819" s="18"/>
       <c r="C819" s="18"/>
@@ -17005,7 +17016,7 @@
       <c r="N819" s="6"/>
       <c r="O819" s="25"/>
     </row>
-    <row r="820" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="820" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A820" s="18"/>
       <c r="B820" s="18"/>
       <c r="C820" s="18"/>
@@ -17022,7 +17033,7 @@
       <c r="N820" s="6"/>
       <c r="O820" s="25"/>
     </row>
-    <row r="821" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="821" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A821" s="18"/>
       <c r="B821" s="18"/>
       <c r="C821" s="18"/>
@@ -17039,7 +17050,7 @@
       <c r="N821" s="6"/>
       <c r="O821" s="25"/>
     </row>
-    <row r="822" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="822" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A822" s="18"/>
       <c r="B822" s="18"/>
       <c r="C822" s="18"/>
@@ -17056,7 +17067,7 @@
       <c r="N822" s="6"/>
       <c r="O822" s="25"/>
     </row>
-    <row r="823" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="823" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A823" s="18"/>
       <c r="B823" s="18"/>
       <c r="C823" s="18"/>
@@ -17073,7 +17084,7 @@
       <c r="N823" s="6"/>
       <c r="O823" s="25"/>
     </row>
-    <row r="824" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="824" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A824" s="18"/>
       <c r="B824" s="18"/>
       <c r="C824" s="18"/>
@@ -17090,7 +17101,7 @@
       <c r="N824" s="6"/>
       <c r="O824" s="25"/>
     </row>
-    <row r="825" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="825" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A825" s="18"/>
       <c r="B825" s="18"/>
       <c r="C825" s="18"/>
@@ -17107,7 +17118,7 @@
       <c r="N825" s="6"/>
       <c r="O825" s="25"/>
     </row>
-    <row r="826" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="826" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A826" s="18"/>
       <c r="B826" s="18"/>
       <c r="C826" s="18"/>
@@ -17124,7 +17135,7 @@
       <c r="N826" s="6"/>
       <c r="O826" s="25"/>
     </row>
-    <row r="827" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="827" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A827" s="18"/>
       <c r="B827" s="18"/>
       <c r="C827" s="18"/>
@@ -17141,7 +17152,7 @@
       <c r="N827" s="6"/>
       <c r="O827" s="25"/>
     </row>
-    <row r="828" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="828" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A828" s="18"/>
       <c r="B828" s="18"/>
       <c r="C828" s="18"/>
@@ -17158,7 +17169,7 @@
       <c r="N828" s="6"/>
       <c r="O828" s="25"/>
     </row>
-    <row r="829" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="829" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A829" s="18"/>
       <c r="B829" s="18"/>
       <c r="C829" s="18"/>
@@ -17175,7 +17186,7 @@
       <c r="N829" s="6"/>
       <c r="O829" s="25"/>
     </row>
-    <row r="830" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="830" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A830" s="18"/>
       <c r="B830" s="18"/>
       <c r="C830" s="18"/>
@@ -17192,7 +17203,7 @@
       <c r="N830" s="6"/>
       <c r="O830" s="25"/>
     </row>
-    <row r="831" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="831" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A831" s="18"/>
       <c r="B831" s="18"/>
       <c r="C831" s="18"/>
@@ -17209,7 +17220,7 @@
       <c r="N831" s="6"/>
       <c r="O831" s="25"/>
     </row>
-    <row r="832" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="832" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A832" s="18"/>
       <c r="B832" s="18"/>
       <c r="C832" s="18"/>
@@ -17226,7 +17237,7 @@
       <c r="N832" s="6"/>
       <c r="O832" s="25"/>
     </row>
-    <row r="833" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="833" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A833" s="18"/>
       <c r="B833" s="18"/>
       <c r="C833" s="18"/>
@@ -17243,7 +17254,7 @@
       <c r="N833" s="6"/>
       <c r="O833" s="25"/>
     </row>
-    <row r="834" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="834" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A834" s="18"/>
       <c r="B834" s="18"/>
       <c r="C834" s="18"/>
@@ -17260,7 +17271,7 @@
       <c r="N834" s="6"/>
       <c r="O834" s="25"/>
     </row>
-    <row r="835" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="835" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A835" s="18"/>
       <c r="B835" s="18"/>
       <c r="C835" s="18"/>
@@ -17277,7 +17288,7 @@
       <c r="N835" s="6"/>
       <c r="O835" s="25"/>
     </row>
-    <row r="836" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="836" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A836" s="18"/>
       <c r="B836" s="18"/>
       <c r="C836" s="18"/>
@@ -17294,7 +17305,7 @@
       <c r="N836" s="6"/>
       <c r="O836" s="25"/>
     </row>
-    <row r="837" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="837" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A837" s="18"/>
       <c r="B837" s="18"/>
       <c r="C837" s="18"/>
@@ -17311,7 +17322,7 @@
       <c r="N837" s="6"/>
       <c r="O837" s="25"/>
     </row>
-    <row r="838" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="838" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A838" s="18"/>
       <c r="B838" s="18"/>
       <c r="C838" s="18"/>
@@ -17328,7 +17339,7 @@
       <c r="N838" s="6"/>
       <c r="O838" s="25"/>
     </row>
-    <row r="839" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="839" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A839" s="18"/>
       <c r="B839" s="18"/>
       <c r="C839" s="18"/>
@@ -17345,7 +17356,7 @@
       <c r="N839" s="6"/>
       <c r="O839" s="25"/>
     </row>
-    <row r="840" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="840" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A840" s="18"/>
       <c r="B840" s="18"/>
       <c r="C840" s="18"/>
@@ -17362,7 +17373,7 @@
       <c r="N840" s="6"/>
       <c r="O840" s="25"/>
     </row>
-    <row r="841" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="841" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A841" s="18"/>
       <c r="B841" s="18"/>
       <c r="C841" s="18"/>
@@ -17379,7 +17390,7 @@
       <c r="N841" s="6"/>
       <c r="O841" s="25"/>
     </row>
-    <row r="842" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="842" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A842" s="18"/>
       <c r="B842" s="18"/>
       <c r="C842" s="18"/>
@@ -17396,7 +17407,7 @@
       <c r="N842" s="6"/>
       <c r="O842" s="25"/>
     </row>
-    <row r="843" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="843" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A843" s="18"/>
       <c r="B843" s="18"/>
       <c r="C843" s="18"/>
@@ -17413,7 +17424,7 @@
       <c r="N843" s="6"/>
       <c r="O843" s="25"/>
     </row>
-    <row r="844" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="844" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A844" s="18"/>
       <c r="B844" s="18"/>
       <c r="C844" s="18"/>
@@ -17430,7 +17441,7 @@
       <c r="N844" s="6"/>
       <c r="O844" s="25"/>
     </row>
-    <row r="845" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="845" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A845" s="18"/>
       <c r="B845" s="18"/>
       <c r="C845" s="18"/>
@@ -17447,7 +17458,7 @@
       <c r="N845" s="6"/>
       <c r="O845" s="25"/>
     </row>
-    <row r="846" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="846" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A846" s="18"/>
       <c r="B846" s="18"/>
       <c r="C846" s="18"/>
@@ -17464,7 +17475,7 @@
       <c r="N846" s="6"/>
       <c r="O846" s="25"/>
     </row>
-    <row r="847" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="847" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A847" s="18"/>
       <c r="B847" s="18"/>
       <c r="C847" s="18"/>
@@ -17481,7 +17492,7 @@
       <c r="N847" s="6"/>
       <c r="O847" s="25"/>
     </row>
-    <row r="848" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="848" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A848" s="18"/>
       <c r="B848" s="18"/>
       <c r="C848" s="18"/>
@@ -17498,7 +17509,7 @@
       <c r="N848" s="6"/>
       <c r="O848" s="25"/>
     </row>
-    <row r="849" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="849" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A849" s="18"/>
       <c r="B849" s="18"/>
       <c r="C849" s="18"/>
@@ -17515,7 +17526,7 @@
       <c r="N849" s="6"/>
       <c r="O849" s="25"/>
     </row>
-    <row r="850" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="850" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A850" s="18"/>
       <c r="B850" s="18"/>
       <c r="C850" s="18"/>
@@ -17532,7 +17543,7 @@
       <c r="N850" s="6"/>
       <c r="O850" s="25"/>
     </row>
-    <row r="851" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="851" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A851" s="18"/>
       <c r="B851" s="18"/>
       <c r="C851" s="18"/>
@@ -17549,7 +17560,7 @@
       <c r="N851" s="6"/>
       <c r="O851" s="25"/>
     </row>
-    <row r="852" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="852" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A852" s="18"/>
       <c r="B852" s="18"/>
       <c r="C852" s="18"/>
@@ -17566,7 +17577,7 @@
       <c r="N852" s="6"/>
       <c r="O852" s="25"/>
     </row>
-    <row r="853" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="853" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A853" s="18"/>
       <c r="B853" s="18"/>
       <c r="C853" s="18"/>
@@ -17583,7 +17594,7 @@
       <c r="N853" s="6"/>
       <c r="O853" s="25"/>
     </row>
-    <row r="854" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="854" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A854" s="18"/>
       <c r="B854" s="18"/>
       <c r="C854" s="18"/>
@@ -17600,7 +17611,7 @@
       <c r="N854" s="6"/>
       <c r="O854" s="25"/>
     </row>
-    <row r="855" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="855" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A855" s="18"/>
       <c r="B855" s="18"/>
       <c r="C855" s="18"/>
@@ -17617,7 +17628,7 @@
       <c r="N855" s="6"/>
       <c r="O855" s="25"/>
     </row>
-    <row r="856" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="856" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A856" s="18"/>
       <c r="B856" s="18"/>
       <c r="C856" s="18"/>
@@ -17634,7 +17645,7 @@
       <c r="N856" s="6"/>
       <c r="O856" s="25"/>
     </row>
-    <row r="857" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="857" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A857" s="18"/>
       <c r="B857" s="18"/>
       <c r="C857" s="18"/>
@@ -17651,7 +17662,7 @@
       <c r="N857" s="6"/>
       <c r="O857" s="25"/>
     </row>
-    <row r="858" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="858" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A858" s="18"/>
       <c r="B858" s="18"/>
       <c r="C858" s="18"/>
@@ -17668,7 +17679,7 @@
       <c r="N858" s="6"/>
       <c r="O858" s="25"/>
     </row>
-    <row r="859" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="859" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A859" s="18"/>
       <c r="B859" s="18"/>
       <c r="C859" s="18"/>
@@ -17685,7 +17696,7 @@
       <c r="N859" s="6"/>
       <c r="O859" s="25"/>
     </row>
-    <row r="860" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="860" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A860" s="18"/>
       <c r="B860" s="18"/>
       <c r="C860" s="18"/>
@@ -17702,7 +17713,7 @@
       <c r="N860" s="6"/>
       <c r="O860" s="25"/>
     </row>
-    <row r="861" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="861" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A861" s="18"/>
       <c r="B861" s="18"/>
       <c r="C861" s="18"/>
@@ -17719,7 +17730,7 @@
       <c r="N861" s="6"/>
       <c r="O861" s="25"/>
     </row>
-    <row r="862" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="862" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A862" s="18"/>
       <c r="B862" s="18"/>
       <c r="C862" s="18"/>
@@ -17736,7 +17747,7 @@
       <c r="N862" s="6"/>
       <c r="O862" s="25"/>
     </row>
-    <row r="863" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="863" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A863" s="18"/>
       <c r="B863" s="18"/>
       <c r="C863" s="18"/>
@@ -17753,7 +17764,7 @@
       <c r="N863" s="6"/>
       <c r="O863" s="25"/>
     </row>
-    <row r="864" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="864" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A864" s="18"/>
       <c r="B864" s="18"/>
       <c r="C864" s="18"/>
@@ -17770,7 +17781,7 @@
       <c r="N864" s="6"/>
       <c r="O864" s="25"/>
     </row>
-    <row r="865" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="865" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A865" s="18"/>
       <c r="B865" s="18"/>
       <c r="C865" s="18"/>
@@ -17787,7 +17798,7 @@
       <c r="N865" s="6"/>
       <c r="O865" s="25"/>
     </row>
-    <row r="866" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="866" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A866" s="18"/>
       <c r="B866" s="18"/>
       <c r="C866" s="18"/>
@@ -17804,7 +17815,7 @@
       <c r="N866" s="6"/>
       <c r="O866" s="25"/>
     </row>
-    <row r="867" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="867" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A867" s="18"/>
       <c r="B867" s="18"/>
       <c r="C867" s="18"/>
@@ -17821,7 +17832,7 @@
       <c r="N867" s="6"/>
       <c r="O867" s="25"/>
     </row>
-    <row r="868" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="868" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A868" s="18"/>
       <c r="B868" s="18"/>
       <c r="C868" s="18"/>
@@ -17838,7 +17849,7 @@
       <c r="N868" s="6"/>
       <c r="O868" s="25"/>
     </row>
-    <row r="869" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="869" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A869" s="18"/>
       <c r="B869" s="18"/>
       <c r="C869" s="18"/>
@@ -17855,7 +17866,7 @@
       <c r="N869" s="6"/>
       <c r="O869" s="25"/>
     </row>
-    <row r="870" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="870" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A870" s="18"/>
       <c r="B870" s="18"/>
       <c r="C870" s="18"/>
@@ -17872,7 +17883,7 @@
       <c r="N870" s="6"/>
       <c r="O870" s="25"/>
     </row>
-    <row r="871" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="871" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A871" s="18"/>
       <c r="B871" s="18"/>
       <c r="C871" s="18"/>
@@ -17889,7 +17900,7 @@
       <c r="N871" s="6"/>
       <c r="O871" s="25"/>
     </row>
-    <row r="872" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="872" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A872" s="18"/>
       <c r="B872" s="18"/>
       <c r="C872" s="18"/>
@@ -17906,7 +17917,7 @@
       <c r="N872" s="6"/>
       <c r="O872" s="25"/>
     </row>
-    <row r="873" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="873" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A873" s="18"/>
       <c r="B873" s="18"/>
       <c r="C873" s="18"/>
@@ -17923,7 +17934,7 @@
       <c r="N873" s="6"/>
       <c r="O873" s="25"/>
     </row>
-    <row r="874" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="874" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A874" s="18"/>
       <c r="B874" s="18"/>
       <c r="C874" s="18"/>
@@ -17940,7 +17951,7 @@
       <c r="N874" s="6"/>
       <c r="O874" s="25"/>
     </row>
-    <row r="875" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="875" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A875" s="18"/>
       <c r="B875" s="18"/>
       <c r="C875" s="18"/>
@@ -17957,7 +17968,7 @@
       <c r="N875" s="6"/>
       <c r="O875" s="25"/>
     </row>
-    <row r="876" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="876" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A876" s="18"/>
       <c r="B876" s="18"/>
       <c r="C876" s="18"/>
@@ -17974,7 +17985,7 @@
       <c r="N876" s="6"/>
       <c r="O876" s="25"/>
     </row>
-    <row r="877" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="877" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A877" s="18"/>
       <c r="B877" s="18"/>
       <c r="C877" s="18"/>
@@ -17991,7 +18002,7 @@
       <c r="N877" s="6"/>
       <c r="O877" s="25"/>
     </row>
-    <row r="878" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="878" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A878" s="18"/>
       <c r="B878" s="18"/>
       <c r="C878" s="18"/>
@@ -18008,7 +18019,7 @@
       <c r="N878" s="6"/>
       <c r="O878" s="25"/>
     </row>
-    <row r="879" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="879" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A879" s="18"/>
       <c r="B879" s="18"/>
       <c r="C879" s="18"/>
@@ -18025,7 +18036,7 @@
       <c r="N879" s="6"/>
       <c r="O879" s="25"/>
     </row>
-    <row r="880" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="880" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A880" s="18"/>
       <c r="B880" s="18"/>
       <c r="C880" s="18"/>
@@ -18042,7 +18053,7 @@
       <c r="N880" s="6"/>
       <c r="O880" s="25"/>
     </row>
-    <row r="881" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="881" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A881" s="18"/>
       <c r="B881" s="18"/>
       <c r="C881" s="18"/>
@@ -18059,7 +18070,7 @@
       <c r="N881" s="6"/>
       <c r="O881" s="25"/>
     </row>
-    <row r="882" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="882" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A882" s="18"/>
       <c r="B882" s="18"/>
       <c r="C882" s="18"/>
@@ -18076,7 +18087,7 @@
       <c r="N882" s="6"/>
       <c r="O882" s="25"/>
     </row>
-    <row r="883" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="883" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A883" s="18"/>
       <c r="B883" s="18"/>
       <c r="C883" s="18"/>
@@ -18093,7 +18104,7 @@
       <c r="N883" s="6"/>
       <c r="O883" s="25"/>
     </row>
-    <row r="884" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="884" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A884" s="18"/>
       <c r="B884" s="18"/>
       <c r="C884" s="18"/>
@@ -18110,7 +18121,7 @@
       <c r="N884" s="6"/>
       <c r="O884" s="25"/>
     </row>
-    <row r="885" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="885" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A885" s="18"/>
       <c r="B885" s="18"/>
       <c r="C885" s="18"/>
@@ -18127,7 +18138,7 @@
       <c r="N885" s="6"/>
       <c r="O885" s="25"/>
     </row>
-    <row r="886" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="886" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A886" s="18"/>
       <c r="B886" s="18"/>
       <c r="C886" s="18"/>
@@ -18144,7 +18155,7 @@
       <c r="N886" s="6"/>
       <c r="O886" s="25"/>
     </row>
-    <row r="887" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="887" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A887" s="18"/>
       <c r="B887" s="18"/>
       <c r="C887" s="18"/>
@@ -18161,7 +18172,7 @@
       <c r="N887" s="6"/>
       <c r="O887" s="25"/>
     </row>
-    <row r="888" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="888" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A888" s="18"/>
       <c r="B888" s="18"/>
       <c r="C888" s="18"/>
@@ -18178,7 +18189,7 @@
       <c r="N888" s="6"/>
       <c r="O888" s="25"/>
     </row>
-    <row r="889" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="889" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A889" s="18"/>
       <c r="B889" s="18"/>
       <c r="C889" s="18"/>
@@ -18195,7 +18206,7 @@
       <c r="N889" s="6"/>
       <c r="O889" s="25"/>
     </row>
-    <row r="890" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="890" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A890" s="18"/>
       <c r="B890" s="18"/>
       <c r="C890" s="18"/>
@@ -18212,7 +18223,7 @@
       <c r="N890" s="6"/>
       <c r="O890" s="25"/>
     </row>
-    <row r="891" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="891" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A891" s="18"/>
       <c r="B891" s="18"/>
       <c r="C891" s="18"/>
@@ -18229,7 +18240,7 @@
       <c r="N891" s="6"/>
       <c r="O891" s="25"/>
     </row>
-    <row r="892" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="892" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A892" s="18"/>
       <c r="B892" s="18"/>
       <c r="C892" s="18"/>
@@ -18246,7 +18257,7 @@
       <c r="N892" s="6"/>
       <c r="O892" s="25"/>
     </row>
-    <row r="893" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="893" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A893" s="18"/>
       <c r="B893" s="18"/>
       <c r="C893" s="18"/>
@@ -18263,7 +18274,7 @@
       <c r="N893" s="6"/>
       <c r="O893" s="25"/>
     </row>
-    <row r="894" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="894" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A894" s="18"/>
       <c r="B894" s="18"/>
       <c r="C894" s="18"/>
@@ -18280,7 +18291,7 @@
       <c r="N894" s="6"/>
       <c r="O894" s="25"/>
     </row>
-    <row r="895" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="895" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A895" s="18"/>
       <c r="B895" s="18"/>
       <c r="C895" s="18"/>
@@ -18297,7 +18308,7 @@
       <c r="N895" s="6"/>
       <c r="O895" s="25"/>
     </row>
-    <row r="896" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="896" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A896" s="18"/>
       <c r="B896" s="18"/>
       <c r="C896" s="18"/>
@@ -18314,7 +18325,7 @@
       <c r="N896" s="6"/>
       <c r="O896" s="25"/>
     </row>
-    <row r="897" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="897" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A897" s="18"/>
       <c r="B897" s="18"/>
       <c r="C897" s="18"/>
@@ -18331,7 +18342,7 @@
       <c r="N897" s="6"/>
       <c r="O897" s="25"/>
     </row>
-    <row r="898" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="898" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A898" s="18"/>
       <c r="B898" s="18"/>
       <c r="C898" s="18"/>
@@ -18348,7 +18359,7 @@
       <c r="N898" s="6"/>
       <c r="O898" s="25"/>
     </row>
-    <row r="899" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="899" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A899" s="18"/>
       <c r="B899" s="18"/>
       <c r="C899" s="18"/>
@@ -18365,7 +18376,7 @@
       <c r="N899" s="6"/>
       <c r="O899" s="25"/>
     </row>
-    <row r="900" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="900" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A900" s="18"/>
       <c r="B900" s="18"/>
       <c r="C900" s="18"/>
@@ -18382,7 +18393,7 @@
       <c r="N900" s="6"/>
       <c r="O900" s="25"/>
     </row>
-    <row r="901" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="901" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A901" s="18"/>
       <c r="B901" s="18"/>
       <c r="C901" s="18"/>
@@ -18399,7 +18410,7 @@
       <c r="N901" s="6"/>
       <c r="O901" s="25"/>
     </row>
-    <row r="902" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="902" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A902" s="18"/>
       <c r="B902" s="18"/>
       <c r="C902" s="18"/>
@@ -18416,7 +18427,7 @@
       <c r="N902" s="6"/>
       <c r="O902" s="25"/>
     </row>
-    <row r="903" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="903" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A903" s="18"/>
       <c r="B903" s="18"/>
       <c r="C903" s="18"/>
@@ -18433,7 +18444,7 @@
       <c r="N903" s="6"/>
       <c r="O903" s="25"/>
     </row>
-    <row r="904" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="904" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A904" s="18"/>
       <c r="B904" s="18"/>
       <c r="C904" s="18"/>
@@ -18450,7 +18461,7 @@
       <c r="N904" s="6"/>
       <c r="O904" s="25"/>
     </row>
-    <row r="905" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="905" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A905" s="18"/>
       <c r="B905" s="18"/>
       <c r="C905" s="18"/>
@@ -18467,7 +18478,7 @@
       <c r="N905" s="6"/>
       <c r="O905" s="25"/>
     </row>
-    <row r="906" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="906" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A906" s="18"/>
       <c r="B906" s="18"/>
       <c r="C906" s="18"/>
@@ -18484,7 +18495,7 @@
       <c r="N906" s="6"/>
       <c r="O906" s="25"/>
     </row>
-    <row r="907" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="907" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A907" s="18"/>
       <c r="B907" s="18"/>
       <c r="C907" s="18"/>
@@ -18501,7 +18512,7 @@
       <c r="N907" s="6"/>
       <c r="O907" s="25"/>
     </row>
-    <row r="908" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="908" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A908" s="18"/>
       <c r="B908" s="18"/>
       <c r="C908" s="18"/>
@@ -18518,7 +18529,7 @@
       <c r="N908" s="6"/>
       <c r="O908" s="25"/>
     </row>
-    <row r="909" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="909" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A909" s="18"/>
       <c r="B909" s="18"/>
       <c r="C909" s="18"/>
@@ -18535,7 +18546,7 @@
       <c r="N909" s="6"/>
       <c r="O909" s="25"/>
     </row>
-    <row r="910" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="910" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A910" s="18"/>
       <c r="B910" s="18"/>
       <c r="C910" s="18"/>
@@ -18552,7 +18563,7 @@
       <c r="N910" s="6"/>
       <c r="O910" s="25"/>
     </row>
-    <row r="911" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="911" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A911" s="18"/>
       <c r="B911" s="18"/>
       <c r="C911" s="18"/>
@@ -18569,7 +18580,7 @@
       <c r="N911" s="6"/>
       <c r="O911" s="25"/>
     </row>
-    <row r="912" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="912" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A912" s="18"/>
       <c r="B912" s="18"/>
       <c r="C912" s="18"/>
@@ -18586,7 +18597,7 @@
       <c r="N912" s="6"/>
       <c r="O912" s="25"/>
     </row>
-    <row r="913" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="913" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A913" s="18"/>
       <c r="B913" s="18"/>
       <c r="C913" s="18"/>
@@ -18603,7 +18614,7 @@
       <c r="N913" s="6"/>
       <c r="O913" s="25"/>
     </row>
-    <row r="914" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="914" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A914" s="18"/>
       <c r="B914" s="18"/>
       <c r="C914" s="18"/>
@@ -18620,7 +18631,7 @@
       <c r="N914" s="6"/>
       <c r="O914" s="25"/>
     </row>
-    <row r="915" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="915" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A915" s="18"/>
       <c r="B915" s="18"/>
       <c r="C915" s="18"/>
@@ -18637,7 +18648,7 @@
       <c r="N915" s="6"/>
       <c r="O915" s="25"/>
     </row>
-    <row r="916" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="916" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A916" s="18"/>
       <c r="B916" s="18"/>
       <c r="C916" s="18"/>
@@ -18654,7 +18665,7 @@
       <c r="N916" s="6"/>
       <c r="O916" s="25"/>
     </row>
-    <row r="917" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="917" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A917" s="18"/>
       <c r="B917" s="18"/>
       <c r="C917" s="18"/>
@@ -18671,7 +18682,7 @@
       <c r="N917" s="6"/>
       <c r="O917" s="25"/>
     </row>
-    <row r="918" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="918" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A918" s="18"/>
       <c r="B918" s="18"/>
       <c r="C918" s="18"/>
@@ -18688,7 +18699,7 @@
       <c r="N918" s="6"/>
       <c r="O918" s="25"/>
     </row>
-    <row r="919" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="919" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A919" s="18"/>
       <c r="B919" s="18"/>
       <c r="C919" s="18"/>
@@ -18705,7 +18716,7 @@
       <c r="N919" s="6"/>
       <c r="O919" s="25"/>
     </row>
-    <row r="920" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="920" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A920" s="18"/>
       <c r="B920" s="18"/>
       <c r="C920" s="18"/>
@@ -18722,7 +18733,7 @@
       <c r="N920" s="6"/>
       <c r="O920" s="25"/>
     </row>
-    <row r="921" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="921" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A921" s="18"/>
       <c r="B921" s="18"/>
       <c r="C921" s="18"/>
@@ -18739,7 +18750,7 @@
       <c r="N921" s="6"/>
       <c r="O921" s="25"/>
     </row>
-    <row r="922" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="922" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A922" s="18"/>
       <c r="B922" s="18"/>
       <c r="C922" s="18"/>
@@ -18756,7 +18767,7 @@
       <c r="N922" s="6"/>
       <c r="O922" s="25"/>
     </row>
-    <row r="923" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="923" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A923" s="18"/>
       <c r="B923" s="18"/>
       <c r="C923" s="18"/>
@@ -18773,7 +18784,7 @@
       <c r="N923" s="6"/>
       <c r="O923" s="25"/>
     </row>
-    <row r="924" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="924" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A924" s="18"/>
       <c r="B924" s="18"/>
       <c r="C924" s="18"/>
@@ -18790,7 +18801,7 @@
       <c r="N924" s="6"/>
       <c r="O924" s="25"/>
     </row>
-    <row r="925" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="925" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A925" s="18"/>
       <c r="B925" s="18"/>
       <c r="C925" s="18"/>
@@ -18807,7 +18818,7 @@
       <c r="N925" s="6"/>
       <c r="O925" s="25"/>
     </row>
-    <row r="926" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="926" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A926" s="18"/>
       <c r="B926" s="18"/>
       <c r="C926" s="18"/>
@@ -18824,7 +18835,7 @@
       <c r="N926" s="6"/>
       <c r="O926" s="25"/>
     </row>
-    <row r="927" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="927" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A927" s="18"/>
       <c r="B927" s="18"/>
       <c r="C927" s="18"/>
@@ -18841,7 +18852,7 @@
       <c r="N927" s="6"/>
       <c r="O927" s="25"/>
     </row>
-    <row r="928" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="928" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A928" s="18"/>
       <c r="B928" s="18"/>
       <c r="C928" s="18"/>
@@ -18858,7 +18869,7 @@
       <c r="N928" s="6"/>
       <c r="O928" s="25"/>
     </row>
-    <row r="929" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="929" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A929" s="18"/>
       <c r="B929" s="18"/>
       <c r="C929" s="18"/>
@@ -18875,7 +18886,7 @@
       <c r="N929" s="6"/>
       <c r="O929" s="25"/>
     </row>
-    <row r="930" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="930" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A930" s="18"/>
       <c r="B930" s="18"/>
       <c r="C930" s="18"/>
@@ -18892,7 +18903,7 @@
       <c r="N930" s="6"/>
       <c r="O930" s="25"/>
     </row>
-    <row r="931" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="931" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A931" s="18"/>
       <c r="B931" s="18"/>
       <c r="C931" s="18"/>
@@ -18909,7 +18920,7 @@
       <c r="N931" s="6"/>
       <c r="O931" s="25"/>
     </row>
-    <row r="932" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="932" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A932" s="18"/>
       <c r="B932" s="18"/>
       <c r="C932" s="18"/>
@@ -18926,7 +18937,7 @@
       <c r="N932" s="6"/>
       <c r="O932" s="25"/>
     </row>
-    <row r="933" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="933" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A933" s="18"/>
       <c r="B933" s="18"/>
       <c r="C933" s="18"/>
@@ -18943,7 +18954,7 @@
       <c r="N933" s="6"/>
       <c r="O933" s="25"/>
     </row>
-    <row r="934" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="934" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A934" s="18"/>
       <c r="B934" s="18"/>
       <c r="C934" s="18"/>
@@ -18960,7 +18971,7 @@
       <c r="N934" s="6"/>
       <c r="O934" s="25"/>
     </row>
-    <row r="935" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="935" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A935" s="18"/>
       <c r="B935" s="18"/>
       <c r="C935" s="18"/>
@@ -18977,7 +18988,7 @@
       <c r="N935" s="6"/>
       <c r="O935" s="25"/>
     </row>
-    <row r="936" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="936" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A936" s="18"/>
       <c r="B936" s="18"/>
       <c r="C936" s="18"/>
@@ -18994,7 +19005,7 @@
       <c r="N936" s="6"/>
       <c r="O936" s="25"/>
     </row>
-    <row r="937" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="937" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A937" s="18"/>
       <c r="B937" s="18"/>
       <c r="C937" s="18"/>
@@ -19011,7 +19022,7 @@
       <c r="N937" s="6"/>
       <c r="O937" s="25"/>
     </row>
-    <row r="938" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="938" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A938" s="18"/>
       <c r="B938" s="18"/>
       <c r="C938" s="18"/>
@@ -19028,7 +19039,7 @@
       <c r="N938" s="6"/>
       <c r="O938" s="25"/>
     </row>
-    <row r="939" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="939" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A939" s="18"/>
       <c r="B939" s="18"/>
       <c r="C939" s="18"/>
@@ -19045,7 +19056,7 @@
       <c r="N939" s="6"/>
       <c r="O939" s="25"/>
     </row>
-    <row r="940" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="940" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A940" s="18"/>
       <c r="B940" s="18"/>
       <c r="C940" s="18"/>
@@ -19062,7 +19073,7 @@
       <c r="N940" s="6"/>
       <c r="O940" s="25"/>
     </row>
-    <row r="941" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="941" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A941" s="18"/>
       <c r="B941" s="18"/>
       <c r="C941" s="18"/>
@@ -19079,7 +19090,7 @@
       <c r="N941" s="6"/>
       <c r="O941" s="25"/>
     </row>
-    <row r="942" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="942" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A942" s="18"/>
       <c r="B942" s="18"/>
       <c r="C942" s="18"/>
@@ -19096,7 +19107,7 @@
       <c r="N942" s="6"/>
       <c r="O942" s="25"/>
     </row>
-    <row r="943" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="943" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A943" s="18"/>
       <c r="B943" s="18"/>
       <c r="C943" s="18"/>
@@ -19113,7 +19124,7 @@
       <c r="N943" s="6"/>
       <c r="O943" s="25"/>
     </row>
-    <row r="944" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="944" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A944" s="18"/>
       <c r="B944" s="18"/>
       <c r="C944" s="18"/>
@@ -19130,7 +19141,7 @@
       <c r="N944" s="6"/>
       <c r="O944" s="25"/>
     </row>
-    <row r="945" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="945" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A945" s="18"/>
       <c r="B945" s="18"/>
       <c r="C945" s="18"/>
@@ -19147,7 +19158,7 @@
       <c r="N945" s="6"/>
       <c r="O945" s="25"/>
     </row>
-    <row r="946" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="946" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A946" s="18"/>
       <c r="B946" s="18"/>
       <c r="C946" s="18"/>
@@ -19164,7 +19175,7 @@
       <c r="N946" s="6"/>
       <c r="O946" s="25"/>
     </row>
-    <row r="947" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="947" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A947" s="18"/>
       <c r="B947" s="18"/>
       <c r="C947" s="18"/>
@@ -19181,7 +19192,7 @@
       <c r="N947" s="6"/>
       <c r="O947" s="25"/>
     </row>
-    <row r="948" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="948" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A948" s="18"/>
       <c r="B948" s="18"/>
       <c r="C948" s="18"/>
@@ -19198,7 +19209,7 @@
       <c r="N948" s="6"/>
       <c r="O948" s="25"/>
     </row>
-    <row r="949" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="949" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A949" s="18"/>
       <c r="B949" s="18"/>
       <c r="C949" s="18"/>
@@ -19215,7 +19226,7 @@
       <c r="N949" s="6"/>
       <c r="O949" s="25"/>
     </row>
-    <row r="950" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="950" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A950" s="18"/>
       <c r="B950" s="18"/>
       <c r="C950" s="18"/>
@@ -19232,7 +19243,7 @@
       <c r="N950" s="6"/>
       <c r="O950" s="25"/>
     </row>
-    <row r="951" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="951" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A951" s="18"/>
       <c r="B951" s="18"/>
       <c r="C951" s="18"/>
@@ -19249,7 +19260,7 @@
       <c r="N951" s="6"/>
       <c r="O951" s="25"/>
     </row>
-    <row r="952" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="952" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A952" s="18"/>
       <c r="B952" s="18"/>
       <c r="C952" s="18"/>
@@ -19266,7 +19277,7 @@
       <c r="N952" s="6"/>
       <c r="O952" s="25"/>
     </row>
-    <row r="953" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="953" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A953" s="18"/>
       <c r="B953" s="18"/>
       <c r="C953" s="18"/>
@@ -19283,7 +19294,7 @@
       <c r="N953" s="6"/>
       <c r="O953" s="25"/>
     </row>
-    <row r="954" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="954" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A954" s="18"/>
       <c r="B954" s="18"/>
       <c r="C954" s="18"/>
@@ -19300,7 +19311,7 @@
       <c r="N954" s="6"/>
       <c r="O954" s="25"/>
     </row>
-    <row r="955" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="955" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A955" s="18"/>
       <c r="B955" s="18"/>
       <c r="C955" s="18"/>
@@ -19317,7 +19328,7 @@
       <c r="N955" s="6"/>
       <c r="O955" s="25"/>
     </row>
-    <row r="956" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="956" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A956" s="18"/>
       <c r="B956" s="18"/>
       <c r="C956" s="18"/>
@@ -19334,7 +19345,7 @@
       <c r="N956" s="6"/>
       <c r="O956" s="25"/>
     </row>
-    <row r="957" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="957" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A957" s="18"/>
       <c r="B957" s="18"/>
       <c r="C957" s="18"/>
@@ -19351,7 +19362,7 @@
       <c r="N957" s="6"/>
       <c r="O957" s="25"/>
     </row>
-    <row r="958" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="958" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A958" s="18"/>
       <c r="B958" s="18"/>
       <c r="C958" s="18"/>
@@ -19368,7 +19379,7 @@
       <c r="N958" s="6"/>
       <c r="O958" s="25"/>
     </row>
-    <row r="959" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="959" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A959" s="18"/>
       <c r="B959" s="18"/>
       <c r="C959" s="18"/>
@@ -19385,7 +19396,7 @@
       <c r="N959" s="6"/>
       <c r="O959" s="25"/>
     </row>
-    <row r="960" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="960" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A960" s="18"/>
       <c r="B960" s="18"/>
       <c r="C960" s="18"/>
@@ -19402,7 +19413,7 @@
       <c r="N960" s="6"/>
       <c r="O960" s="25"/>
     </row>
-    <row r="961" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="961" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A961" s="18"/>
       <c r="B961" s="18"/>
       <c r="C961" s="18"/>
@@ -19419,7 +19430,7 @@
       <c r="N961" s="6"/>
       <c r="O961" s="25"/>
     </row>
-    <row r="962" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="962" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A962" s="18"/>
       <c r="B962" s="18"/>
       <c r="C962" s="18"/>
@@ -19436,7 +19447,7 @@
       <c r="N962" s="6"/>
       <c r="O962" s="25"/>
     </row>
-    <row r="963" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="963" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A963" s="18"/>
       <c r="B963" s="18"/>
       <c r="C963" s="18"/>
@@ -19453,7 +19464,7 @@
       <c r="N963" s="6"/>
       <c r="O963" s="25"/>
     </row>
-    <row r="964" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="964" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A964" s="18"/>
       <c r="B964" s="18"/>
       <c r="C964" s="18"/>
@@ -19470,7 +19481,7 @@
       <c r="N964" s="6"/>
       <c r="O964" s="25"/>
     </row>
-    <row r="965" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="965" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A965" s="18"/>
       <c r="B965" s="18"/>
       <c r="C965" s="18"/>
@@ -19487,7 +19498,7 @@
       <c r="N965" s="6"/>
       <c r="O965" s="25"/>
     </row>
-    <row r="966" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="966" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A966" s="18"/>
       <c r="B966" s="18"/>
       <c r="C966" s="18"/>
@@ -19504,7 +19515,7 @@
       <c r="N966" s="6"/>
       <c r="O966" s="25"/>
     </row>
-    <row r="967" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="967" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A967" s="18"/>
       <c r="B967" s="18"/>
       <c r="C967" s="18"/>
@@ -19521,7 +19532,7 @@
       <c r="N967" s="6"/>
       <c r="O967" s="25"/>
     </row>
-    <row r="968" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="968" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A968" s="18"/>
       <c r="B968" s="18"/>
       <c r="C968" s="18"/>
@@ -19538,7 +19549,7 @@
       <c r="N968" s="6"/>
       <c r="O968" s="25"/>
     </row>
-    <row r="969" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="969" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A969" s="18"/>
       <c r="B969" s="18"/>
       <c r="C969" s="18"/>
@@ -19555,7 +19566,7 @@
       <c r="N969" s="6"/>
       <c r="O969" s="25"/>
     </row>
-    <row r="970" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="970" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A970" s="18"/>
       <c r="B970" s="18"/>
       <c r="C970" s="18"/>
@@ -19572,7 +19583,7 @@
       <c r="N970" s="6"/>
       <c r="O970" s="25"/>
     </row>
-    <row r="971" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="971" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A971" s="18"/>
       <c r="B971" s="18"/>
       <c r="C971" s="18"/>
@@ -19589,7 +19600,7 @@
       <c r="N971" s="6"/>
       <c r="O971" s="25"/>
     </row>
-    <row r="972" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="972" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A972" s="18"/>
       <c r="B972" s="18"/>
       <c r="C972" s="18"/>
@@ -19606,7 +19617,7 @@
       <c r="N972" s="6"/>
       <c r="O972" s="25"/>
     </row>
-    <row r="973" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="973" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A973" s="18"/>
       <c r="B973" s="18"/>
       <c r="C973" s="18"/>
@@ -19623,7 +19634,7 @@
       <c r="N973" s="6"/>
       <c r="O973" s="25"/>
     </row>
-    <row r="974" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="974" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A974" s="18"/>
       <c r="B974" s="18"/>
       <c r="C974" s="18"/>
@@ -19640,7 +19651,7 @@
       <c r="N974" s="6"/>
       <c r="O974" s="25"/>
     </row>
-    <row r="975" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="975" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A975" s="18"/>
       <c r="B975" s="18"/>
       <c r="C975" s="18"/>
@@ -19657,7 +19668,7 @@
       <c r="N975" s="6"/>
       <c r="O975" s="25"/>
     </row>
-    <row r="976" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="976" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A976" s="18"/>
       <c r="B976" s="18"/>
       <c r="C976" s="18"/>
@@ -19674,7 +19685,7 @@
       <c r="N976" s="6"/>
       <c r="O976" s="25"/>
     </row>
-    <row r="977" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="977" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A977" s="18"/>
       <c r="B977" s="18"/>
       <c r="C977" s="18"/>
@@ -19691,7 +19702,7 @@
       <c r="N977" s="6"/>
       <c r="O977" s="25"/>
     </row>
-    <row r="978" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="978" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A978" s="18"/>
       <c r="B978" s="18"/>
       <c r="C978" s="18"/>
@@ -19708,7 +19719,7 @@
       <c r="N978" s="6"/>
       <c r="O978" s="25"/>
     </row>
-    <row r="979" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="979" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A979" s="18"/>
       <c r="B979" s="18"/>
       <c r="C979" s="18"/>
@@ -19725,7 +19736,7 @@
       <c r="N979" s="6"/>
       <c r="O979" s="25"/>
     </row>
-    <row r="980" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="980" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A980" s="18"/>
       <c r="B980" s="18"/>
       <c r="C980" s="18"/>
@@ -19742,7 +19753,7 @@
       <c r="N980" s="6"/>
       <c r="O980" s="25"/>
     </row>
-    <row r="981" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="981" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A981" s="18"/>
       <c r="B981" s="18"/>
       <c r="C981" s="18"/>
@@ -19759,7 +19770,7 @@
       <c r="N981" s="6"/>
       <c r="O981" s="25"/>
     </row>
-    <row r="982" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="982" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A982" s="18"/>
       <c r="B982" s="18"/>
       <c r="C982" s="18"/>
@@ -19776,7 +19787,7 @@
       <c r="N982" s="6"/>
       <c r="O982" s="25"/>
     </row>
-    <row r="983" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="983" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A983" s="18"/>
       <c r="B983" s="18"/>
       <c r="C983" s="18"/>
@@ -19793,7 +19804,7 @@
       <c r="N983" s="6"/>
       <c r="O983" s="25"/>
     </row>
-    <row r="984" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="984" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A984" s="18"/>
       <c r="B984" s="18"/>
       <c r="C984" s="18"/>
@@ -19810,7 +19821,7 @@
       <c r="N984" s="6"/>
       <c r="O984" s="25"/>
     </row>
-    <row r="985" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="985" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A985" s="18"/>
       <c r="B985" s="18"/>
       <c r="C985" s="18"/>
@@ -19827,7 +19838,7 @@
       <c r="N985" s="6"/>
       <c r="O985" s="25"/>
     </row>
-    <row r="986" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="986" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A986" s="18"/>
       <c r="B986" s="18"/>
       <c r="C986" s="18"/>
@@ -19844,7 +19855,7 @@
       <c r="N986" s="6"/>
       <c r="O986" s="25"/>
     </row>
-    <row r="987" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="987" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A987" s="18"/>
       <c r="B987" s="18"/>
       <c r="C987" s="18"/>
@@ -19861,7 +19872,7 @@
       <c r="N987" s="6"/>
       <c r="O987" s="25"/>
     </row>
-    <row r="988" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="988" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A988" s="18"/>
       <c r="B988" s="18"/>
       <c r="C988" s="18"/>
@@ -19878,7 +19889,7 @@
       <c r="N988" s="6"/>
       <c r="O988" s="25"/>
     </row>
-    <row r="989" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="989" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A989" s="18"/>
       <c r="B989" s="18"/>
       <c r="C989" s="18"/>
@@ -19895,7 +19906,7 @@
       <c r="N989" s="6"/>
       <c r="O989" s="25"/>
     </row>
-    <row r="990" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="990" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A990" s="18"/>
       <c r="B990" s="18"/>
       <c r="C990" s="18"/>
@@ -19912,7 +19923,7 @@
       <c r="N990" s="6"/>
       <c r="O990" s="25"/>
     </row>
-    <row r="991" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="991" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A991" s="18"/>
       <c r="B991" s="18"/>
       <c r="C991" s="18"/>
@@ -19929,7 +19940,7 @@
       <c r="N991" s="6"/>
       <c r="O991" s="25"/>
     </row>
-    <row r="992" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="992" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A992" s="18"/>
       <c r="B992" s="18"/>
       <c r="C992" s="18"/>
@@ -19946,7 +19957,7 @@
       <c r="N992" s="6"/>
       <c r="O992" s="25"/>
     </row>
-    <row r="993" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="993" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A993" s="18"/>
       <c r="B993" s="18"/>
       <c r="C993" s="18"/>
@@ -19963,7 +19974,7 @@
       <c r="N993" s="6"/>
       <c r="O993" s="25"/>
     </row>
-    <row r="994" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="994" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A994" s="18"/>
       <c r="B994" s="18"/>
       <c r="C994" s="18"/>
@@ -19980,7 +19991,7 @@
       <c r="N994" s="6"/>
       <c r="O994" s="25"/>
     </row>
-    <row r="995" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="995" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A995" s="18"/>
       <c r="B995" s="18"/>
       <c r="C995" s="18"/>
@@ -19997,7 +20008,7 @@
       <c r="N995" s="6"/>
       <c r="O995" s="25"/>
     </row>
-    <row r="996" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="996" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A996" s="18"/>
       <c r="B996" s="18"/>
       <c r="C996" s="18"/>
@@ -20014,7 +20025,7 @@
       <c r="N996" s="6"/>
       <c r="O996" s="25"/>
     </row>
-    <row r="997" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="997" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A997" s="18"/>
       <c r="B997" s="18"/>
       <c r="C997" s="18"/>
@@ -20031,7 +20042,7 @@
       <c r="N997" s="6"/>
       <c r="O997" s="25"/>
     </row>
-    <row r="998" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="998" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A998" s="18"/>
       <c r="B998" s="18"/>
       <c r="C998" s="18"/>
@@ -20048,7 +20059,7 @@
       <c r="N998" s="6"/>
       <c r="O998" s="25"/>
     </row>
-    <row r="999" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="999" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A999" s="18"/>
       <c r="B999" s="18"/>
       <c r="C999" s="18"/>
@@ -20065,7 +20076,7 @@
       <c r="N999" s="6"/>
       <c r="O999" s="25"/>
     </row>
-    <row r="1000" spans="1:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1000" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1000" s="18"/>
       <c r="B1000" s="18"/>
       <c r="C1000" s="18"/>
@@ -20100,15 +20111,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4AB3D7E12E5884885757EFDE1791F7B" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b7e2dcc0b3cf728055ea3c227da0f2ee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d624ff89-a3d8-48ad-8a73-6b7263eb58d2" xmlns:ns4="caebe9e7-4d6b-4886-b893-b59babeb2752" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eefd83996488ad3ae4a896beada0342f" ns3:_="" ns4:_="">
     <xsd:import namespace="d624ff89-a3d8-48ad-8a73-6b7263eb58d2"/>
@@ -20355,6 +20357,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{643E2EEA-CCBB-4A59-A4B0-FBA954000719}">
   <ds:schemaRefs>
@@ -20373,14 +20384,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E361C660-8B5A-497A-AEA7-466AA4F145C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A596979B-234A-4DF1-9F2E-F7E3C31C1EE5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20397,4 +20400,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E361C660-8B5A-497A-AEA7-466AA4F145C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Airfoil Database/list_airfoils.xlsx
+++ b/Airfoil Database/list_airfoils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cloned Respositories\GP-Aero\Airfoil Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166FA3A9-7141-4D2A-9445-3E383B0D1642}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8E13BB-316B-489A-A585-6EFC87EE5E80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="20930" windowHeight="12430" xr2:uid="{93C099FC-639E-4F92-AB96-B77E1C5407CC}"/>
   </bookViews>
@@ -462,9 +462,6 @@
     <t>4.4e6, 7e6</t>
   </si>
   <si>
-    <t>DU 91-W2-250</t>
-  </si>
-  <si>
     <t>6.7, 9.2, 15.2</t>
   </si>
   <si>
@@ -729,6 +726,9 @@
   </si>
   <si>
     <t>SC 1094 R8</t>
+  </si>
+  <si>
+    <t>DU 91-W-250</t>
   </si>
 </sst>
 </file>
@@ -1777,9 +1777,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4963D9-C860-49EC-92EF-EA8C9FAB7162}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1834,13 +1834,13 @@
         <v>95</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>4</v>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>12</v>
@@ -1882,13 +1882,13 @@
         <v>93</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O2" s="12"/>
       <c r="Q2" s="3">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>12</v>
@@ -1929,13 +1929,13 @@
         <v>93</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O3" s="12"/>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>12</v>
@@ -1972,13 +1972,13 @@
         <v>92</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>86</v>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>12</v>
@@ -2017,13 +2017,13 @@
         <v>92</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O5" s="12"/>
       <c r="Q5" s="3" t="s">
@@ -2040,7 +2040,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="47" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>12</v>
@@ -2072,13 +2072,13 @@
         <v>92</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O6" s="12"/>
       <c r="Q6" s="3" t="s">
@@ -2089,7 +2089,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="47" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>12</v>
@@ -2121,13 +2121,13 @@
         <v>92</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O7" s="12"/>
       <c r="Q7" s="3" t="s">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>12</v>
@@ -2171,13 +2171,13 @@
         <v>92</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>115</v>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>12</v>
@@ -2216,13 +2216,13 @@
         <v>92</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O9" s="20" t="s">
         <v>56</v>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>12</v>
@@ -2261,13 +2261,13 @@
         <v>93</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O10" s="16" t="s">
         <v>100</v>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>12</v>
@@ -2306,13 +2306,13 @@
         <v>93</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O11" s="12" t="s">
         <v>90</v>
@@ -2342,7 +2342,7 @@
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>12</v>
@@ -2351,13 +2351,13 @@
         <v>93</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O12" s="20" t="s">
         <v>55</v>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>12</v>
@@ -2396,13 +2396,13 @@
         <v>92</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O13" s="20" t="s">
         <v>91</v>
@@ -2441,13 +2441,13 @@
         <v>92</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O14" s="16" t="s">
         <v>46</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="15" spans="1:20" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>28</v>
@@ -2486,19 +2486,19 @@
         <v>92</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:20" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>28</v>
@@ -2529,13 +2529,13 @@
         <v>92</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O16" s="12"/>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J17" s="18" t="s">
         <v>12</v>
@@ -2572,13 +2572,13 @@
         <v>92</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O17" s="25" t="s">
         <v>52</v>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>12</v>
@@ -2617,13 +2617,13 @@
         <v>93</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O18" s="16" t="s">
         <v>58</v>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>94</v>
@@ -2665,10 +2665,10 @@
         <v>12</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O19" s="12" t="s">
         <v>64</v>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="H20" s="36"/>
       <c r="I20" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>94</v>
@@ -2710,10 +2710,10 @@
         <v>12</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O20" s="12" t="s">
         <v>128</v>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>94</v>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O21" s="12"/>
     </row>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>94</v>
@@ -2793,13 +2793,13 @@
         <v>92</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O22" s="12"/>
     </row>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J23" s="18" t="s">
         <v>94</v>
@@ -2836,13 +2836,13 @@
         <v>92</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O23" s="25"/>
     </row>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>94</v>
@@ -2877,13 +2877,13 @@
         <v>92</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O24" s="12" t="s">
         <v>81</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="25" spans="1:15" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>83</v>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>94</v>
@@ -2922,19 +2922,19 @@
         <v>92</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O25" s="12"/>
     </row>
     <row r="26" spans="1:15" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>87</v>
@@ -2965,13 +2965,13 @@
         <v>92</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O26" s="12"/>
     </row>
@@ -3008,13 +3008,13 @@
         <v>93</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O27" s="12"/>
     </row>
@@ -3051,25 +3051,25 @@
         <v>92</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O28" s="12"/>
     </row>
     <row r="29" spans="1:15" s="2" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="47" t="s">
         <v>106</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D29" s="8">
         <v>2000000</v>
@@ -3094,13 +3094,13 @@
         <v>92</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O29" s="16" t="s">
         <v>109</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="30" spans="1:15" s="3" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>110</v>
@@ -3139,21 +3139,21 @@
         <v>92</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>117</v>
@@ -3184,13 +3184,13 @@
         <v>93</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O31" s="12" t="s">
         <v>113</v>
@@ -3229,13 +3229,13 @@
         <v>92</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O32" s="12"/>
     </row>
@@ -3272,13 +3272,13 @@
         <v>92</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O33" s="25" t="s">
         <v>138</v>
@@ -3320,10 +3320,10 @@
         <v>12</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O34" s="12" t="s">
         <v>130</v>
@@ -3360,13 +3360,13 @@
         <v>92</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O35" s="12" t="s">
         <v>135</v>
@@ -3374,10 +3374,10 @@
     </row>
     <row r="36" spans="1:15" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="C36" s="32">
         <v>0.22</v>
@@ -3389,7 +3389,7 @@
         <v>12</v>
       </c>
       <c r="F36" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G36" s="6">
         <v>3</v>
@@ -3405,22 +3405,22 @@
         <v>92</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O36" s="6"/>
     </row>
     <row r="37" spans="1:15" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="C37" s="6">
         <v>0.22</v>
@@ -3432,7 +3432,7 @@
         <v>12</v>
       </c>
       <c r="F37" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G37" s="6">
         <v>3</v>
@@ -3448,34 +3448,34 @@
         <v>92</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O37" s="12"/>
     </row>
     <row r="38" spans="1:15" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E38" s="28">
         <v>0.01</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G38" s="6">
         <v>18</v>
@@ -3491,34 +3491,34 @@
         <v>92</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O38" s="12"/>
     </row>
     <row r="39" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="E39" s="6">
         <v>0.08</v>
       </c>
       <c r="F39" s="43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G39" s="6">
         <v>6</v>
@@ -3534,24 +3534,24 @@
         <v>92</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O39" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="B40" s="38" t="s">
         <v>192</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>193</v>
       </c>
       <c r="C40" s="38">
         <v>0.1</v>
@@ -3563,7 +3563,7 @@
         <v>12</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G40" s="38">
         <v>2</v>
@@ -3579,22 +3579,22 @@
         <v>92</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O40" s="25"/>
     </row>
     <row r="41" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" s="38" t="s">
         <v>195</v>
-      </c>
-      <c r="B41" s="38" t="s">
-        <v>196</v>
       </c>
       <c r="C41" s="38">
         <v>0.15</v>
@@ -3606,7 +3606,7 @@
         <v>12</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G41" s="38">
         <v>6</v>
@@ -3622,22 +3622,22 @@
         <v>92</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O41" s="25"/>
     </row>
     <row r="42" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" s="38" t="s">
         <v>198</v>
-      </c>
-      <c r="B42" s="38" t="s">
-        <v>199</v>
       </c>
       <c r="C42" s="38">
         <v>0.15</v>
@@ -3649,7 +3649,7 @@
         <v>12</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G42" s="38">
         <v>6</v>
@@ -3665,22 +3665,22 @@
         <v>92</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O42" s="25"/>
     </row>
     <row r="43" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="B43" s="38" t="s">
         <v>200</v>
-      </c>
-      <c r="B43" s="38" t="s">
-        <v>201</v>
       </c>
       <c r="C43" s="38">
         <v>0.122</v>
@@ -3692,7 +3692,7 @@
         <v>12</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G43" s="38">
         <v>6</v>
@@ -3708,22 +3708,22 @@
         <v>92</v>
       </c>
       <c r="L43" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="M43" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="M43" s="6" t="s">
-        <v>214</v>
-      </c>
       <c r="N43" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O43" s="25"/>
     </row>
     <row r="44" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="B44" s="38" t="s">
         <v>202</v>
-      </c>
-      <c r="B44" s="38" t="s">
-        <v>203</v>
       </c>
       <c r="C44" s="38">
         <v>0.122</v>
@@ -3735,7 +3735,7 @@
         <v>12</v>
       </c>
       <c r="F44" s="43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G44" s="38">
         <v>6</v>
@@ -3751,22 +3751,22 @@
         <v>92</v>
       </c>
       <c r="L44" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="M44" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="M44" s="6" t="s">
-        <v>214</v>
-      </c>
       <c r="N44" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O44" s="25"/>
     </row>
     <row r="45" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="B45" s="38" t="s">
         <v>204</v>
-      </c>
-      <c r="B45" s="38" t="s">
-        <v>205</v>
       </c>
       <c r="C45" s="38">
         <v>0.122</v>
@@ -3778,7 +3778,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G45" s="38">
         <v>6</v>
@@ -3794,22 +3794,22 @@
         <v>92</v>
       </c>
       <c r="L45" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="M45" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="M45" s="6" t="s">
-        <v>214</v>
-      </c>
       <c r="N45" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O45" s="25"/>
     </row>
     <row r="46" spans="1:15" s="51" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="B46" s="49" t="s">
         <v>224</v>
-      </c>
-      <c r="B46" s="49" t="s">
-        <v>225</v>
       </c>
       <c r="C46" s="48">
         <v>0.09</v>
@@ -3821,14 +3821,14 @@
         <v>12</v>
       </c>
       <c r="F46" s="53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G46" s="48">
         <v>10</v>
       </c>
       <c r="H46" s="31"/>
       <c r="I46" s="48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J46" s="48" t="s">
         <v>12</v>
@@ -3837,21 +3837,21 @@
         <v>92</v>
       </c>
       <c r="L46" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="M46" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="N46" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="O46" s="50" t="s">
         <v>227</v>
-      </c>
-      <c r="M46" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="N46" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="O46" s="50" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>122</v>
@@ -3882,13 +3882,13 @@
         <v>92</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O47" s="12"/>
     </row>
@@ -20111,6 +20111,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4AB3D7E12E5884885757EFDE1791F7B" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b7e2dcc0b3cf728055ea3c227da0f2ee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d624ff89-a3d8-48ad-8a73-6b7263eb58d2" xmlns:ns4="caebe9e7-4d6b-4886-b893-b59babeb2752" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eefd83996488ad3ae4a896beada0342f" ns3:_="" ns4:_="">
     <xsd:import namespace="d624ff89-a3d8-48ad-8a73-6b7263eb58d2"/>
@@ -20357,15 +20366,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{643E2EEA-CCBB-4A59-A4B0-FBA954000719}">
   <ds:schemaRefs>
@@ -20384,6 +20384,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E361C660-8B5A-497A-AEA7-466AA4F145C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A596979B-234A-4DF1-9F2E-F7E3C31C1EE5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20400,12 +20408,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E361C660-8B5A-497A-AEA7-466AA4F145C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Airfoil Database/list_airfoils.xlsx
+++ b/Airfoil Database/list_airfoils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cloned Respositories\GP-Aero\Airfoil Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3048C918-42C9-48AC-A0E6-6FCF3E152453}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557B928D-3808-46B0-9FEB-9219F97F8476}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="248">
   <si>
     <t>Airfoil</t>
   </si>
@@ -425,9 +425,6 @@
     <t>MBB</t>
   </si>
   <si>
-    <t>1. Did only up to p 295</t>
-  </si>
-  <si>
     <t>Supercritical airfoil 9a</t>
   </si>
   <si>
@@ -477,9 +474,6 @@
   </si>
   <si>
     <t>NACA TM 100526</t>
-  </si>
-  <si>
-    <t>Wing</t>
   </si>
   <si>
     <t>SSC-A09</t>
@@ -771,13 +765,31 @@
   </si>
   <si>
     <t>Shifted by 1.0</t>
+  </si>
+  <si>
+    <t>1. Did only up to p 295 (Results from ARA Bedford Tunnel)</t>
+  </si>
+  <si>
+    <t>NACA 45-100</t>
+  </si>
+  <si>
+    <t>Interpolated results discretized into provided pressure tap locations</t>
+  </si>
+  <si>
+    <t>R &amp; M No. 2251</t>
+  </si>
+  <si>
+    <t>0.4 - 0.775</t>
+  </si>
+  <si>
+    <t>will be filled in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -958,8 +970,31 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -982,6 +1017,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
         <bgColor rgb="FF202124"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1048,14 +1088,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1210,11 +1251,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Excel Built-in Good" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Excel Built-in Good 1" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Excel Built-in Neutral" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
@@ -1622,10 +1670,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A30" sqref="A30"/>
-      <selection pane="topRight" activeCell="O51" sqref="O51"/>
+      <selection pane="topRight" activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1739,7 +1787,7 @@
       <c r="O2" s="10"/>
       <c r="Q2" s="11">
         <f>SUM(G2:G11,G14:G16,G18:G22,G24:G65)</f>
-        <v>1570</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2693,7 +2741,7 @@
       <c r="O23" s="27"/>
     </row>
     <row r="24" spans="1:15" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="54" t="s">
         <v>123</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -2702,7 +2750,9 @@
       <c r="C24" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="5">
+        <v>6000000</v>
+      </c>
       <c r="E24" s="31" t="s">
         <v>126</v>
       </c>
@@ -2710,7 +2760,7 @@
         <v>94</v>
       </c>
       <c r="G24" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="4" t="s">
@@ -2732,24 +2782,24 @@
         <v>25</v>
       </c>
       <c r="O24" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="54" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="32" t="s">
         <v>132</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>133</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>94</v>
@@ -2768,10 +2818,10 @@
         <v>29</v>
       </c>
       <c r="L25" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M25" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>25</v>
@@ -2780,22 +2830,22 @@
     </row>
     <row r="26" spans="1:15" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G26" s="4">
         <v>18</v>
@@ -2811,10 +2861,10 @@
         <v>29</v>
       </c>
       <c r="L26" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M26" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="N26" s="4" t="s">
         <v>25</v>
@@ -2823,13 +2873,13 @@
     </row>
     <row r="27" spans="1:15" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="D27" s="5">
         <v>3000000</v>
@@ -2838,14 +2888,14 @@
         <v>21</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G27" s="4">
         <v>66</v>
       </c>
       <c r="H27" s="20"/>
       <c r="I27" s="4" t="s">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>21</v>
@@ -2866,22 +2916,22 @@
     </row>
     <row r="28" spans="1:15" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G28" s="4">
         <v>16</v>
@@ -2897,10 +2947,10 @@
         <v>29</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N28" s="4" t="s">
         <v>25</v>
@@ -2909,13 +2959,13 @@
     </row>
     <row r="29" spans="1:15" s="34" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="D29" s="5">
         <v>2000000</v>
@@ -2924,14 +2974,14 @@
         <v>0.03</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G29" s="4">
         <v>7</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="4" t="s">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>9</v>
@@ -2940,27 +2990,27 @@
         <v>29</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N29" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O29" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="11" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A30" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D30" s="5">
         <v>4400000</v>
@@ -2969,14 +3019,14 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G30" s="4">
         <v>86</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="4" t="s">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>9</v>
@@ -2985,36 +3035,36 @@
         <v>29</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N30" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="D31" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>21</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G31" s="4">
         <v>112</v>
@@ -3030,36 +3080,36 @@
         <v>22</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N31" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G32" s="4">
         <v>17</v>
@@ -3075,10 +3125,10 @@
         <v>29</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>25</v>
@@ -3087,22 +3137,22 @@
     </row>
     <row r="33" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E33" s="18" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G33" s="4">
         <v>18</v>
@@ -3118,30 +3168,30 @@
         <v>29</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N33" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O33" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C34" s="4">
         <v>0.76</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E34" s="32">
         <v>0.01</v>
@@ -3154,7 +3204,7 @@
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="4" t="s">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>9</v>
@@ -3166,31 +3216,31 @@
         <v>21</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N34" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G35" s="4">
         <v>55</v>
@@ -3206,24 +3256,24 @@
         <v>29</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="34" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C36" s="38">
         <v>0.22</v>
@@ -3235,7 +3285,7 @@
         <v>21</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G36" s="4">
         <v>3</v>
@@ -3251,10 +3301,10 @@
         <v>29</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>25</v>
@@ -3263,10 +3313,10 @@
     </row>
     <row r="37" spans="1:15" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C37" s="4">
         <v>0.22</v>
@@ -3278,7 +3328,7 @@
         <v>21</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G37" s="4">
         <v>3</v>
@@ -3294,10 +3344,10 @@
         <v>29</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>25</v>
@@ -3306,22 +3356,22 @@
     </row>
     <row r="38" spans="1:15" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="E38" s="32">
         <v>0.01</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G38" s="4">
         <v>18</v>
@@ -3337,10 +3387,10 @@
         <v>29</v>
       </c>
       <c r="L38" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M38" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="N38" s="4" t="s">
         <v>25</v>
@@ -3349,22 +3399,22 @@
     </row>
     <row r="39" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="E39" s="4">
         <v>0.08</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G39" s="4">
         <v>6</v>
@@ -3380,24 +3430,24 @@
         <v>29</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N39" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="40" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C40" s="41">
         <v>0.1</v>
@@ -3409,7 +3459,7 @@
         <v>21</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G40" s="41">
         <v>2</v>
@@ -3425,10 +3475,10 @@
         <v>29</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N40" s="4" t="s">
         <v>25</v>
@@ -3437,10 +3487,10 @@
     </row>
     <row r="41" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="40" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C41" s="41">
         <v>0.15</v>
@@ -3452,7 +3502,7 @@
         <v>21</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G41" s="41">
         <v>6</v>
@@ -3468,10 +3518,10 @@
         <v>29</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N41" s="4" t="s">
         <v>25</v>
@@ -3480,10 +3530,10 @@
     </row>
     <row r="42" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C42" s="41">
         <v>0.15</v>
@@ -3495,7 +3545,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G42" s="41">
         <v>6</v>
@@ -3511,10 +3561,10 @@
         <v>29</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N42" s="4" t="s">
         <v>25</v>
@@ -3523,10 +3573,10 @@
     </row>
     <row r="43" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="40" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B43" s="41" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C43" s="41">
         <v>0.122</v>
@@ -3538,7 +3588,7 @@
         <v>21</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G43" s="41">
         <v>6</v>
@@ -3554,10 +3604,10 @@
         <v>29</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N43" s="4" t="s">
         <v>25</v>
@@ -3566,10 +3616,10 @@
     </row>
     <row r="44" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B44" s="41" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C44" s="41">
         <v>0.122</v>
@@ -3581,7 +3631,7 @@
         <v>21</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G44" s="41">
         <v>6</v>
@@ -3597,10 +3647,10 @@
         <v>29</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N44" s="4" t="s">
         <v>25</v>
@@ -3609,10 +3659,10 @@
     </row>
     <row r="45" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="40" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B45" s="41" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C45" s="41">
         <v>0.122</v>
@@ -3624,7 +3674,7 @@
         <v>21</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G45" s="41">
         <v>6</v>
@@ -3640,10 +3690,10 @@
         <v>29</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N45" s="4" t="s">
         <v>25</v>
@@ -3652,10 +3702,10 @@
     </row>
     <row r="46" spans="1:15" s="49" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A46" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C46" s="44">
         <v>0.09</v>
@@ -3667,7 +3717,7 @@
         <v>21</v>
       </c>
       <c r="F46" s="47" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G46" s="44">
         <v>10</v>
@@ -3683,36 +3733,36 @@
         <v>29</v>
       </c>
       <c r="L46" s="44" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M46" s="44" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N46" s="44" t="s">
         <v>25</v>
       </c>
       <c r="O46" s="48" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G47" s="4">
         <v>17</v>
@@ -3728,10 +3778,10 @@
         <v>29</v>
       </c>
       <c r="L47" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M47" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="N47" s="4" t="s">
         <v>25</v>
@@ -3740,10 +3790,10 @@
     </row>
     <row r="48" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C48" s="4">
         <v>0.104</v>
@@ -3755,7 +3805,7 @@
         <v>21</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G48" s="4">
         <v>6</v>
@@ -3780,15 +3830,15 @@
         <v>25</v>
       </c>
       <c r="O48" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C49" s="4">
         <v>0.106</v>
@@ -3800,7 +3850,7 @@
         <v>21</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G49" s="4">
         <v>6</v>
@@ -3825,12 +3875,12 @@
         <v>25</v>
       </c>
       <c r="O49" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>21</v>
@@ -3845,7 +3895,7 @@
         <v>21</v>
       </c>
       <c r="F50" s="50" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G50" s="4">
         <v>14</v>
@@ -3861,7 +3911,7 @@
         <v>29</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>24</v>
@@ -3870,15 +3920,15 @@
         <v>25</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C51" s="4">
         <v>0.12</v>
@@ -3890,7 +3940,7 @@
         <v>21</v>
       </c>
       <c r="F51" s="51" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G51" s="4">
         <v>8</v>
@@ -3906,24 +3956,24 @@
         <v>29</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N51" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O51" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C52" s="4">
         <v>0.12</v>
@@ -3935,7 +3985,7 @@
         <v>21</v>
       </c>
       <c r="F52" s="51" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G52" s="4">
         <v>8</v>
@@ -3951,34 +4001,62 @@
         <v>29</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N52" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O52" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="27"/>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F53" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="G53" s="4">
+        <v>3</v>
+      </c>
+      <c r="H53" s="55"/>
+      <c r="I53" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O53" s="10" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="54" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="18"/>
@@ -20081,9 +20159,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Airfoil Database/list_airfoils.xlsx
+++ b/Airfoil Database/list_airfoils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Howon Lee\Documents\Git Repositories\GP-Aero\Airfoil Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257A6755-2785-40E9-806D-83D4FF567CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61146F6-66BC-4146-85E9-0C360523FE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="267">
   <si>
     <t>Airfoil</t>
   </si>
@@ -839,6 +839,19 @@
   </si>
   <si>
     <t>Uncertain airfoil name</t>
+  </si>
+  <si>
+    <t>NASA LS(1)-0013</t>
+  </si>
+  <si>
+    <t>NASA TM 4003</t>
+  </si>
+  <si>
+    <t>-4 - 16</t>
+  </si>
+  <si>
+    <t>1. Transition fixed at 0.075c
+2. Only 2.2e6 case is digitized</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1141,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1272,25 +1285,20 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Excel Built-in Good" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
@@ -1704,10 +1712,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A30" sqref="A30"/>
-      <selection pane="topRight" activeCell="A57" sqref="A57"/>
+      <selection pane="topRight" activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,7 +1801,7 @@
       <c r="E2" s="4">
         <v>0.01</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="2">
@@ -1821,7 +1829,7 @@
       <c r="O2" s="7"/>
       <c r="Q2" s="8">
         <f>SUM(G2:G11,G14:G16,G18:G22,G24:G65)</f>
-        <v>1604</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1840,7 +1848,7 @@
       <c r="E3" s="4">
         <v>0.01</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="2">
@@ -1883,7 +1891,7 @@
       <c r="E4" s="4">
         <v>0.01</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="2">
@@ -1928,7 +1936,7 @@
       <c r="E5" s="4">
         <v>0.01</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="2">
@@ -1983,7 +1991,7 @@
       <c r="E6" s="11">
         <v>0.02</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="2">
@@ -2032,7 +2040,7 @@
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="2">
@@ -2082,7 +2090,7 @@
       <c r="E8" s="10">
         <v>0.03</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G8" s="2">
@@ -2127,7 +2135,7 @@
       <c r="E9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="51" t="s">
         <v>50</v>
       </c>
       <c r="G9" s="15" t="s">
@@ -2172,7 +2180,7 @@
       <c r="E10" s="2">
         <v>1.44E-2</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G10" s="2">
@@ -2217,7 +2225,7 @@
       <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="6" t="s">
         <v>60</v>
       </c>
       <c r="G11" s="2">
@@ -2262,7 +2270,7 @@
       <c r="E12" s="20">
         <v>1.6E-2</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="51" t="s">
         <v>64</v>
       </c>
       <c r="G12" s="15">
@@ -2307,7 +2315,7 @@
       <c r="E13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="51" t="s">
         <v>69</v>
       </c>
       <c r="G13" s="15">
@@ -2352,7 +2360,7 @@
       <c r="E14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="6" t="s">
         <v>73</v>
       </c>
       <c r="G14" s="2">
@@ -2397,7 +2405,7 @@
       <c r="E15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G15" s="2">
@@ -2440,7 +2448,7 @@
       <c r="E16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G16" s="2">
@@ -2483,7 +2491,7 @@
       <c r="E17" s="22">
         <v>0.04</v>
       </c>
-      <c r="F17" s="52" t="s">
+      <c r="F17" s="51" t="s">
         <v>87</v>
       </c>
       <c r="G17" s="15">
@@ -2528,7 +2536,7 @@
       <c r="E18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="6" t="s">
         <v>94</v>
       </c>
       <c r="G18" s="2">
@@ -2573,7 +2581,7 @@
       <c r="E19" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="6" t="s">
         <v>94</v>
       </c>
       <c r="G19" s="2">
@@ -2618,7 +2626,7 @@
       <c r="E20" s="11">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F20" s="51" t="s">
+      <c r="F20" s="6" t="s">
         <v>94</v>
       </c>
       <c r="G20" s="2">
@@ -2663,7 +2671,7 @@
       <c r="E21" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="51" t="s">
+      <c r="F21" s="6" t="s">
         <v>94</v>
       </c>
       <c r="G21" s="2">
@@ -2704,7 +2712,7 @@
       <c r="E22" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="51" t="s">
+      <c r="F22" s="6" t="s">
         <v>94</v>
       </c>
       <c r="G22" s="2">
@@ -2747,7 +2755,7 @@
       <c r="E23" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F23" s="52" t="s">
+      <c r="F23" s="51" t="s">
         <v>94</v>
       </c>
       <c r="G23" s="15">
@@ -2790,7 +2798,7 @@
       <c r="E24" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="51" t="s">
+      <c r="F24" s="6" t="s">
         <v>94</v>
       </c>
       <c r="G24" s="2">
@@ -2835,7 +2843,7 @@
       <c r="E25" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="F25" s="51" t="s">
+      <c r="F25" s="6" t="s">
         <v>94</v>
       </c>
       <c r="G25" s="2">
@@ -2878,7 +2886,7 @@
       <c r="E26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="51" t="s">
+      <c r="F26" s="6" t="s">
         <v>139</v>
       </c>
       <c r="G26" s="2">
@@ -2921,7 +2929,7 @@
       <c r="E27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="51" t="s">
+      <c r="F27" s="6" t="s">
         <v>145</v>
       </c>
       <c r="G27" s="2">
@@ -2964,7 +2972,7 @@
       <c r="E28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="51" t="s">
+      <c r="F28" s="6" t="s">
         <v>139</v>
       </c>
       <c r="G28" s="2">
@@ -3007,7 +3015,7 @@
       <c r="E29" s="10">
         <v>0.03</v>
       </c>
-      <c r="F29" s="51" t="s">
+      <c r="F29" s="6" t="s">
         <v>153</v>
       </c>
       <c r="G29" s="2">
@@ -3052,7 +3060,7 @@
       <c r="E30" s="31">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F30" s="51" t="s">
+      <c r="F30" s="6" t="s">
         <v>159</v>
       </c>
       <c r="G30" s="2">
@@ -3097,7 +3105,7 @@
       <c r="E31" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="51" t="s">
+      <c r="F31" s="6" t="s">
         <v>167</v>
       </c>
       <c r="G31" s="2">
@@ -3142,7 +3150,7 @@
       <c r="E32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="51" t="s">
+      <c r="F32" s="6" t="s">
         <v>139</v>
       </c>
       <c r="G32" s="2">
@@ -3185,7 +3193,7 @@
       <c r="E33" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="51" t="s">
+      <c r="F33" s="6" t="s">
         <v>139</v>
       </c>
       <c r="G33" s="2">
@@ -3230,7 +3238,7 @@
       <c r="E34" s="28">
         <v>0.01</v>
       </c>
-      <c r="F34" s="51" t="s">
+      <c r="F34" s="6" t="s">
         <v>94</v>
       </c>
       <c r="G34" s="2">
@@ -3273,7 +3281,7 @@
       <c r="E35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="51" t="s">
+      <c r="F35" s="6" t="s">
         <v>183</v>
       </c>
       <c r="G35" s="2">
@@ -3318,7 +3326,7 @@
       <c r="E36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="51" t="s">
+      <c r="F36" s="6" t="s">
         <v>188</v>
       </c>
       <c r="G36" s="2">
@@ -3361,7 +3369,7 @@
       <c r="E37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="51" t="s">
+      <c r="F37" s="6" t="s">
         <v>188</v>
       </c>
       <c r="G37" s="2">
@@ -3404,7 +3412,7 @@
       <c r="E38" s="28">
         <v>0.01</v>
       </c>
-      <c r="F38" s="51" t="s">
+      <c r="F38" s="6" t="s">
         <v>196</v>
       </c>
       <c r="G38" s="2">
@@ -3447,7 +3455,7 @@
       <c r="E39" s="2">
         <v>0.08</v>
       </c>
-      <c r="F39" s="51" t="s">
+      <c r="F39" s="6" t="s">
         <v>201</v>
       </c>
       <c r="G39" s="2">
@@ -3492,7 +3500,7 @@
       <c r="E40" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="51" t="s">
+      <c r="F40" s="6" t="s">
         <v>205</v>
       </c>
       <c r="G40" s="37">
@@ -3535,7 +3543,7 @@
       <c r="E41" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="51" t="s">
+      <c r="F41" s="6" t="s">
         <v>209</v>
       </c>
       <c r="G41" s="37">
@@ -3578,7 +3586,7 @@
       <c r="E42" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="51" t="s">
+      <c r="F42" s="6" t="s">
         <v>209</v>
       </c>
       <c r="G42" s="37">
@@ -3621,7 +3629,7 @@
       <c r="E43" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="51" t="s">
+      <c r="F43" s="6" t="s">
         <v>209</v>
       </c>
       <c r="G43" s="37">
@@ -3664,7 +3672,7 @@
       <c r="E44" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="51" t="s">
+      <c r="F44" s="6" t="s">
         <v>209</v>
       </c>
       <c r="G44" s="37">
@@ -3707,7 +3715,7 @@
       <c r="E45" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="51" t="s">
+      <c r="F45" s="6" t="s">
         <v>209</v>
       </c>
       <c r="G45" s="37">
@@ -3750,7 +3758,7 @@
       <c r="E46" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="53" t="s">
+      <c r="F46" s="41" t="s">
         <v>224</v>
       </c>
       <c r="G46" s="40">
@@ -3795,7 +3803,7 @@
       <c r="E47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="51" t="s">
+      <c r="F47" s="6" t="s">
         <v>139</v>
       </c>
       <c r="G47" s="2">
@@ -3838,7 +3846,7 @@
       <c r="E48" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F48" s="51" t="s">
+      <c r="F48" s="6" t="s">
         <v>209</v>
       </c>
       <c r="G48" s="2">
@@ -3883,7 +3891,7 @@
       <c r="E49" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F49" s="51" t="s">
+      <c r="F49" s="6" t="s">
         <v>209</v>
       </c>
       <c r="G49" s="2">
@@ -3928,7 +3936,7 @@
       <c r="E50" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="54" t="s">
+      <c r="F50" s="52" t="s">
         <v>233</v>
       </c>
       <c r="G50" s="2">
@@ -3973,7 +3981,7 @@
       <c r="E51" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="55" t="s">
+      <c r="F51" s="53" t="s">
         <v>237</v>
       </c>
       <c r="G51" s="2">
@@ -4018,7 +4026,7 @@
       <c r="E52" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F52" s="55" t="s">
+      <c r="F52" s="53" t="s">
         <v>237</v>
       </c>
       <c r="G52" s="2">
@@ -4063,7 +4071,7 @@
       <c r="E53" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F53" s="55" t="s">
+      <c r="F53" s="53" t="s">
         <v>245</v>
       </c>
       <c r="G53" s="2">
@@ -4108,7 +4116,7 @@
       <c r="E54" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F54" s="55" t="s">
+      <c r="F54" s="53" t="s">
         <v>253</v>
       </c>
       <c r="G54" s="2">
@@ -4153,7 +4161,7 @@
       <c r="E55" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F55" s="55" t="s">
+      <c r="F55" s="53" t="s">
         <v>256</v>
       </c>
       <c r="G55" s="2">
@@ -4190,9 +4198,9 @@
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
-      <c r="F56" s="56"/>
+      <c r="F56" s="54"/>
       <c r="G56" s="15"/>
-      <c r="H56" s="57"/>
+      <c r="H56" s="55"/>
       <c r="I56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -4215,7 +4223,7 @@
       <c r="E57" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="55" t="s">
+      <c r="F57" s="53" t="s">
         <v>261</v>
       </c>
       <c r="G57" s="2">
@@ -4244,22 +4252,42 @@
         <v>262</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="15"/>
+    <row r="58" spans="1:15" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B58" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2200000</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="G58" s="2">
+        <v>8</v>
+      </c>
+      <c r="H58" s="56"/>
+      <c r="I58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
-      <c r="O58" s="23"/>
+      <c r="O58" s="14" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="59" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
@@ -4267,7 +4295,7 @@
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
-      <c r="F59" s="56"/>
+      <c r="F59" s="54"/>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
       <c r="I59" s="2"/>
@@ -4284,7 +4312,7 @@
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
-      <c r="F60" s="56"/>
+      <c r="F60" s="54"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
       <c r="I60" s="2"/>
@@ -4301,7 +4329,7 @@
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
-      <c r="F61" s="56"/>
+      <c r="F61" s="54"/>
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
       <c r="I61" s="2"/>
@@ -4318,7 +4346,7 @@
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
-      <c r="F62" s="56"/>
+      <c r="F62" s="54"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
       <c r="I62" s="2"/>
@@ -4335,7 +4363,7 @@
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
-      <c r="F63" s="56"/>
+      <c r="F63" s="54"/>
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
       <c r="I63" s="2"/>
@@ -4352,7 +4380,7 @@
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
-      <c r="F64" s="56"/>
+      <c r="F64" s="54"/>
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
       <c r="I64" s="2"/>
@@ -4369,7 +4397,7 @@
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
-      <c r="F65" s="56"/>
+      <c r="F65" s="54"/>
       <c r="G65" s="15"/>
       <c r="H65" s="15"/>
       <c r="I65" s="2"/>
@@ -4386,7 +4414,7 @@
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
-      <c r="F66" s="56"/>
+      <c r="F66" s="54"/>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
       <c r="I66" s="2"/>
@@ -4403,7 +4431,7 @@
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
-      <c r="F67" s="56"/>
+      <c r="F67" s="54"/>
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
       <c r="I67" s="2"/>
@@ -4420,7 +4448,7 @@
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
-      <c r="F68" s="56"/>
+      <c r="F68" s="54"/>
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
       <c r="I68" s="2"/>
@@ -4437,7 +4465,7 @@
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
-      <c r="F69" s="56"/>
+      <c r="F69" s="54"/>
       <c r="G69" s="15"/>
       <c r="H69" s="15"/>
       <c r="I69" s="2"/>
@@ -4454,7 +4482,7 @@
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
-      <c r="F70" s="56"/>
+      <c r="F70" s="54"/>
       <c r="G70" s="15"/>
       <c r="H70" s="15"/>
       <c r="I70" s="2"/>
@@ -4471,7 +4499,7 @@
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
-      <c r="F71" s="56"/>
+      <c r="F71" s="54"/>
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
       <c r="I71" s="2"/>
@@ -4488,7 +4516,7 @@
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
-      <c r="F72" s="56"/>
+      <c r="F72" s="54"/>
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
       <c r="I72" s="2"/>
@@ -4505,7 +4533,7 @@
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
-      <c r="F73" s="56"/>
+      <c r="F73" s="54"/>
       <c r="G73" s="15"/>
       <c r="H73" s="15"/>
       <c r="I73" s="2"/>
@@ -4522,7 +4550,7 @@
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
-      <c r="F74" s="56"/>
+      <c r="F74" s="54"/>
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
       <c r="I74" s="2"/>
@@ -4539,7 +4567,7 @@
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
-      <c r="F75" s="56"/>
+      <c r="F75" s="54"/>
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
       <c r="I75" s="2"/>
@@ -4556,7 +4584,7 @@
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
-      <c r="F76" s="56"/>
+      <c r="F76" s="54"/>
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
       <c r="I76" s="2"/>
@@ -4573,7 +4601,7 @@
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
-      <c r="F77" s="56"/>
+      <c r="F77" s="54"/>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
       <c r="I77" s="2"/>
@@ -4590,7 +4618,7 @@
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
-      <c r="F78" s="56"/>
+      <c r="F78" s="54"/>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
       <c r="I78" s="2"/>
@@ -4607,7 +4635,7 @@
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
-      <c r="F79" s="56"/>
+      <c r="F79" s="54"/>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
       <c r="I79" s="2"/>
@@ -4624,7 +4652,7 @@
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
-      <c r="F80" s="56"/>
+      <c r="F80" s="54"/>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
       <c r="I80" s="2"/>
@@ -4641,7 +4669,7 @@
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
-      <c r="F81" s="56"/>
+      <c r="F81" s="54"/>
       <c r="G81" s="15"/>
       <c r="H81" s="15"/>
       <c r="I81" s="2"/>
@@ -4658,7 +4686,7 @@
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
-      <c r="F82" s="56"/>
+      <c r="F82" s="54"/>
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
       <c r="I82" s="2"/>
@@ -4675,7 +4703,7 @@
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
-      <c r="F83" s="56"/>
+      <c r="F83" s="54"/>
       <c r="G83" s="15"/>
       <c r="H83" s="15"/>
       <c r="I83" s="2"/>
@@ -4692,7 +4720,7 @@
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15"/>
-      <c r="F84" s="56"/>
+      <c r="F84" s="54"/>
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>
       <c r="I84" s="2"/>
@@ -4709,7 +4737,7 @@
       <c r="C85" s="15"/>
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
-      <c r="F85" s="56"/>
+      <c r="F85" s="54"/>
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
       <c r="I85" s="2"/>
@@ -4726,7 +4754,7 @@
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
       <c r="E86" s="15"/>
-      <c r="F86" s="56"/>
+      <c r="F86" s="54"/>
       <c r="G86" s="15"/>
       <c r="H86" s="15"/>
       <c r="I86" s="2"/>
@@ -4743,7 +4771,7 @@
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
-      <c r="F87" s="56"/>
+      <c r="F87" s="54"/>
       <c r="G87" s="15"/>
       <c r="H87" s="15"/>
       <c r="I87" s="2"/>
@@ -4760,7 +4788,7 @@
       <c r="C88" s="15"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
-      <c r="F88" s="56"/>
+      <c r="F88" s="54"/>
       <c r="G88" s="15"/>
       <c r="H88" s="15"/>
       <c r="I88" s="2"/>
@@ -4777,7 +4805,7 @@
       <c r="C89" s="15"/>
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
-      <c r="F89" s="56"/>
+      <c r="F89" s="54"/>
       <c r="G89" s="15"/>
       <c r="H89" s="15"/>
       <c r="I89" s="2"/>
@@ -4794,7 +4822,7 @@
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
-      <c r="F90" s="56"/>
+      <c r="F90" s="54"/>
       <c r="G90" s="15"/>
       <c r="H90" s="15"/>
       <c r="I90" s="2"/>
@@ -4811,7 +4839,7 @@
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
-      <c r="F91" s="56"/>
+      <c r="F91" s="54"/>
       <c r="G91" s="15"/>
       <c r="H91" s="15"/>
       <c r="I91" s="2"/>
@@ -4828,7 +4856,7 @@
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15"/>
-      <c r="F92" s="56"/>
+      <c r="F92" s="54"/>
       <c r="G92" s="15"/>
       <c r="H92" s="15"/>
       <c r="I92" s="2"/>
@@ -4845,7 +4873,7 @@
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15"/>
-      <c r="F93" s="56"/>
+      <c r="F93" s="54"/>
       <c r="G93" s="15"/>
       <c r="H93" s="15"/>
       <c r="I93" s="2"/>
@@ -4862,7 +4890,7 @@
       <c r="C94" s="15"/>
       <c r="D94" s="15"/>
       <c r="E94" s="15"/>
-      <c r="F94" s="56"/>
+      <c r="F94" s="54"/>
       <c r="G94" s="15"/>
       <c r="H94" s="15"/>
       <c r="I94" s="2"/>
@@ -4879,7 +4907,7 @@
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15"/>
-      <c r="F95" s="56"/>
+      <c r="F95" s="54"/>
       <c r="G95" s="15"/>
       <c r="H95" s="15"/>
       <c r="I95" s="2"/>
@@ -4896,7 +4924,7 @@
       <c r="C96" s="15"/>
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
-      <c r="F96" s="56"/>
+      <c r="F96" s="54"/>
       <c r="G96" s="15"/>
       <c r="H96" s="15"/>
       <c r="I96" s="2"/>
@@ -4913,7 +4941,7 @@
       <c r="C97" s="15"/>
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
-      <c r="F97" s="56"/>
+      <c r="F97" s="54"/>
       <c r="G97" s="15"/>
       <c r="H97" s="15"/>
       <c r="I97" s="2"/>
@@ -4930,7 +4958,7 @@
       <c r="C98" s="15"/>
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
-      <c r="F98" s="56"/>
+      <c r="F98" s="54"/>
       <c r="G98" s="15"/>
       <c r="H98" s="15"/>
       <c r="I98" s="2"/>
@@ -4947,7 +4975,7 @@
       <c r="C99" s="15"/>
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
-      <c r="F99" s="56"/>
+      <c r="F99" s="54"/>
       <c r="G99" s="15"/>
       <c r="H99" s="15"/>
       <c r="I99" s="2"/>
@@ -4964,7 +4992,7 @@
       <c r="C100" s="15"/>
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
-      <c r="F100" s="56"/>
+      <c r="F100" s="54"/>
       <c r="G100" s="15"/>
       <c r="H100" s="15"/>
       <c r="I100" s="2"/>
@@ -4981,7 +5009,7 @@
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15"/>
-      <c r="F101" s="56"/>
+      <c r="F101" s="54"/>
       <c r="G101" s="15"/>
       <c r="H101" s="15"/>
       <c r="I101" s="2"/>
@@ -4998,7 +5026,7 @@
       <c r="C102" s="15"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
-      <c r="F102" s="56"/>
+      <c r="F102" s="54"/>
       <c r="G102" s="15"/>
       <c r="H102" s="15"/>
       <c r="I102" s="2"/>
@@ -5015,7 +5043,7 @@
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15"/>
-      <c r="F103" s="56"/>
+      <c r="F103" s="54"/>
       <c r="G103" s="15"/>
       <c r="H103" s="15"/>
       <c r="I103" s="2"/>
@@ -5032,7 +5060,7 @@
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
       <c r="E104" s="15"/>
-      <c r="F104" s="56"/>
+      <c r="F104" s="54"/>
       <c r="G104" s="15"/>
       <c r="H104" s="15"/>
       <c r="I104" s="2"/>
@@ -5049,7 +5077,7 @@
       <c r="C105" s="15"/>
       <c r="D105" s="15"/>
       <c r="E105" s="15"/>
-      <c r="F105" s="56"/>
+      <c r="F105" s="54"/>
       <c r="G105" s="15"/>
       <c r="H105" s="15"/>
       <c r="I105" s="2"/>
@@ -5066,7 +5094,7 @@
       <c r="C106" s="15"/>
       <c r="D106" s="15"/>
       <c r="E106" s="15"/>
-      <c r="F106" s="56"/>
+      <c r="F106" s="54"/>
       <c r="G106" s="15"/>
       <c r="H106" s="15"/>
       <c r="I106" s="2"/>
@@ -5083,7 +5111,7 @@
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
-      <c r="F107" s="56"/>
+      <c r="F107" s="54"/>
       <c r="G107" s="15"/>
       <c r="H107" s="15"/>
       <c r="I107" s="2"/>
@@ -5100,7 +5128,7 @@
       <c r="C108" s="15"/>
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
-      <c r="F108" s="56"/>
+      <c r="F108" s="54"/>
       <c r="G108" s="15"/>
       <c r="H108" s="15"/>
       <c r="I108" s="2"/>
@@ -5117,7 +5145,7 @@
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
       <c r="E109" s="15"/>
-      <c r="F109" s="56"/>
+      <c r="F109" s="54"/>
       <c r="G109" s="15"/>
       <c r="H109" s="15"/>
       <c r="I109" s="2"/>
@@ -5134,7 +5162,7 @@
       <c r="C110" s="15"/>
       <c r="D110" s="15"/>
       <c r="E110" s="15"/>
-      <c r="F110" s="56"/>
+      <c r="F110" s="54"/>
       <c r="G110" s="15"/>
       <c r="H110" s="15"/>
       <c r="I110" s="2"/>
@@ -5151,7 +5179,7 @@
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
-      <c r="F111" s="56"/>
+      <c r="F111" s="54"/>
       <c r="G111" s="15"/>
       <c r="H111" s="15"/>
       <c r="I111" s="2"/>
@@ -5168,7 +5196,7 @@
       <c r="C112" s="15"/>
       <c r="D112" s="15"/>
       <c r="E112" s="15"/>
-      <c r="F112" s="56"/>
+      <c r="F112" s="54"/>
       <c r="G112" s="15"/>
       <c r="H112" s="15"/>
       <c r="I112" s="2"/>
@@ -5185,7 +5213,7 @@
       <c r="C113" s="15"/>
       <c r="D113" s="15"/>
       <c r="E113" s="15"/>
-      <c r="F113" s="56"/>
+      <c r="F113" s="54"/>
       <c r="G113" s="15"/>
       <c r="H113" s="15"/>
       <c r="I113" s="2"/>
@@ -5202,7 +5230,7 @@
       <c r="C114" s="15"/>
       <c r="D114" s="15"/>
       <c r="E114" s="15"/>
-      <c r="F114" s="56"/>
+      <c r="F114" s="54"/>
       <c r="G114" s="15"/>
       <c r="H114" s="15"/>
       <c r="I114" s="2"/>
@@ -5219,7 +5247,7 @@
       <c r="C115" s="15"/>
       <c r="D115" s="15"/>
       <c r="E115" s="15"/>
-      <c r="F115" s="56"/>
+      <c r="F115" s="54"/>
       <c r="G115" s="15"/>
       <c r="H115" s="15"/>
       <c r="I115" s="2"/>
@@ -5236,7 +5264,7 @@
       <c r="C116" s="15"/>
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
-      <c r="F116" s="56"/>
+      <c r="F116" s="54"/>
       <c r="G116" s="15"/>
       <c r="H116" s="15"/>
       <c r="I116" s="2"/>
@@ -5253,7 +5281,7 @@
       <c r="C117" s="15"/>
       <c r="D117" s="15"/>
       <c r="E117" s="15"/>
-      <c r="F117" s="56"/>
+      <c r="F117" s="54"/>
       <c r="G117" s="15"/>
       <c r="H117" s="15"/>
       <c r="I117" s="2"/>
@@ -5270,7 +5298,7 @@
       <c r="C118" s="15"/>
       <c r="D118" s="15"/>
       <c r="E118" s="15"/>
-      <c r="F118" s="56"/>
+      <c r="F118" s="54"/>
       <c r="G118" s="15"/>
       <c r="H118" s="15"/>
       <c r="I118" s="2"/>
@@ -5287,7 +5315,7 @@
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15"/>
-      <c r="F119" s="56"/>
+      <c r="F119" s="54"/>
       <c r="G119" s="15"/>
       <c r="H119" s="15"/>
       <c r="I119" s="2"/>
@@ -5304,7 +5332,7 @@
       <c r="C120" s="15"/>
       <c r="D120" s="15"/>
       <c r="E120" s="15"/>
-      <c r="F120" s="56"/>
+      <c r="F120" s="54"/>
       <c r="G120" s="15"/>
       <c r="H120" s="15"/>
       <c r="I120" s="2"/>
@@ -5321,7 +5349,7 @@
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15"/>
-      <c r="F121" s="56"/>
+      <c r="F121" s="54"/>
       <c r="G121" s="15"/>
       <c r="H121" s="15"/>
       <c r="I121" s="2"/>
@@ -5338,7 +5366,7 @@
       <c r="C122" s="15"/>
       <c r="D122" s="15"/>
       <c r="E122" s="15"/>
-      <c r="F122" s="56"/>
+      <c r="F122" s="54"/>
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
       <c r="I122" s="2"/>
@@ -5355,7 +5383,7 @@
       <c r="C123" s="15"/>
       <c r="D123" s="15"/>
       <c r="E123" s="15"/>
-      <c r="F123" s="56"/>
+      <c r="F123" s="54"/>
       <c r="G123" s="15"/>
       <c r="H123" s="15"/>
       <c r="I123" s="2"/>
@@ -5372,7 +5400,7 @@
       <c r="C124" s="15"/>
       <c r="D124" s="15"/>
       <c r="E124" s="15"/>
-      <c r="F124" s="56"/>
+      <c r="F124" s="54"/>
       <c r="G124" s="15"/>
       <c r="H124" s="15"/>
       <c r="I124" s="2"/>
@@ -5389,7 +5417,7 @@
       <c r="C125" s="15"/>
       <c r="D125" s="15"/>
       <c r="E125" s="15"/>
-      <c r="F125" s="56"/>
+      <c r="F125" s="54"/>
       <c r="G125" s="15"/>
       <c r="H125" s="15"/>
       <c r="I125" s="2"/>
@@ -5406,7 +5434,7 @@
       <c r="C126" s="15"/>
       <c r="D126" s="15"/>
       <c r="E126" s="15"/>
-      <c r="F126" s="56"/>
+      <c r="F126" s="54"/>
       <c r="G126" s="15"/>
       <c r="H126" s="15"/>
       <c r="I126" s="2"/>
@@ -5423,7 +5451,7 @@
       <c r="C127" s="15"/>
       <c r="D127" s="15"/>
       <c r="E127" s="15"/>
-      <c r="F127" s="56"/>
+      <c r="F127" s="54"/>
       <c r="G127" s="15"/>
       <c r="H127" s="15"/>
       <c r="I127" s="2"/>
@@ -5440,7 +5468,7 @@
       <c r="C128" s="15"/>
       <c r="D128" s="15"/>
       <c r="E128" s="15"/>
-      <c r="F128" s="56"/>
+      <c r="F128" s="54"/>
       <c r="G128" s="15"/>
       <c r="H128" s="15"/>
       <c r="I128" s="2"/>
@@ -5457,7 +5485,7 @@
       <c r="C129" s="15"/>
       <c r="D129" s="15"/>
       <c r="E129" s="15"/>
-      <c r="F129" s="56"/>
+      <c r="F129" s="54"/>
       <c r="G129" s="15"/>
       <c r="H129" s="15"/>
       <c r="I129" s="2"/>
@@ -5474,7 +5502,7 @@
       <c r="C130" s="15"/>
       <c r="D130" s="15"/>
       <c r="E130" s="15"/>
-      <c r="F130" s="56"/>
+      <c r="F130" s="54"/>
       <c r="G130" s="15"/>
       <c r="H130" s="15"/>
       <c r="I130" s="2"/>
@@ -5491,7 +5519,7 @@
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
       <c r="E131" s="15"/>
-      <c r="F131" s="56"/>
+      <c r="F131" s="54"/>
       <c r="G131" s="15"/>
       <c r="H131" s="15"/>
       <c r="I131" s="2"/>
@@ -5508,7 +5536,7 @@
       <c r="C132" s="15"/>
       <c r="D132" s="15"/>
       <c r="E132" s="15"/>
-      <c r="F132" s="56"/>
+      <c r="F132" s="54"/>
       <c r="G132" s="15"/>
       <c r="H132" s="15"/>
       <c r="I132" s="2"/>
@@ -5525,7 +5553,7 @@
       <c r="C133" s="15"/>
       <c r="D133" s="15"/>
       <c r="E133" s="15"/>
-      <c r="F133" s="56"/>
+      <c r="F133" s="54"/>
       <c r="G133" s="15"/>
       <c r="H133" s="15"/>
       <c r="I133" s="2"/>
@@ -5542,7 +5570,7 @@
       <c r="C134" s="15"/>
       <c r="D134" s="15"/>
       <c r="E134" s="15"/>
-      <c r="F134" s="56"/>
+      <c r="F134" s="54"/>
       <c r="G134" s="15"/>
       <c r="H134" s="15"/>
       <c r="I134" s="2"/>
@@ -5559,7 +5587,7 @@
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="15"/>
-      <c r="F135" s="56"/>
+      <c r="F135" s="54"/>
       <c r="G135" s="15"/>
       <c r="H135" s="15"/>
       <c r="I135" s="2"/>
@@ -5576,7 +5604,7 @@
       <c r="C136" s="15"/>
       <c r="D136" s="15"/>
       <c r="E136" s="15"/>
-      <c r="F136" s="56"/>
+      <c r="F136" s="54"/>
       <c r="G136" s="15"/>
       <c r="H136" s="15"/>
       <c r="I136" s="2"/>
@@ -5593,7 +5621,7 @@
       <c r="C137" s="15"/>
       <c r="D137" s="15"/>
       <c r="E137" s="15"/>
-      <c r="F137" s="56"/>
+      <c r="F137" s="54"/>
       <c r="G137" s="15"/>
       <c r="H137" s="15"/>
       <c r="I137" s="2"/>
@@ -5610,7 +5638,7 @@
       <c r="C138" s="15"/>
       <c r="D138" s="15"/>
       <c r="E138" s="15"/>
-      <c r="F138" s="56"/>
+      <c r="F138" s="54"/>
       <c r="G138" s="15"/>
       <c r="H138" s="15"/>
       <c r="I138" s="2"/>
@@ -5627,7 +5655,7 @@
       <c r="C139" s="15"/>
       <c r="D139" s="15"/>
       <c r="E139" s="15"/>
-      <c r="F139" s="56"/>
+      <c r="F139" s="54"/>
       <c r="G139" s="15"/>
       <c r="H139" s="15"/>
       <c r="I139" s="2"/>
@@ -5644,7 +5672,7 @@
       <c r="C140" s="15"/>
       <c r="D140" s="15"/>
       <c r="E140" s="15"/>
-      <c r="F140" s="56"/>
+      <c r="F140" s="54"/>
       <c r="G140" s="15"/>
       <c r="H140" s="15"/>
       <c r="I140" s="2"/>
@@ -5661,7 +5689,7 @@
       <c r="C141" s="15"/>
       <c r="D141" s="15"/>
       <c r="E141" s="15"/>
-      <c r="F141" s="56"/>
+      <c r="F141" s="54"/>
       <c r="G141" s="15"/>
       <c r="H141" s="15"/>
       <c r="I141" s="2"/>
@@ -5678,7 +5706,7 @@
       <c r="C142" s="15"/>
       <c r="D142" s="15"/>
       <c r="E142" s="15"/>
-      <c r="F142" s="56"/>
+      <c r="F142" s="54"/>
       <c r="G142" s="15"/>
       <c r="H142" s="15"/>
       <c r="I142" s="2"/>
@@ -5695,7 +5723,7 @@
       <c r="C143" s="15"/>
       <c r="D143" s="15"/>
       <c r="E143" s="15"/>
-      <c r="F143" s="56"/>
+      <c r="F143" s="54"/>
       <c r="G143" s="15"/>
       <c r="H143" s="15"/>
       <c r="I143" s="2"/>
@@ -5712,7 +5740,7 @@
       <c r="C144" s="15"/>
       <c r="D144" s="15"/>
       <c r="E144" s="15"/>
-      <c r="F144" s="56"/>
+      <c r="F144" s="54"/>
       <c r="G144" s="15"/>
       <c r="H144" s="15"/>
       <c r="I144" s="2"/>
@@ -5729,7 +5757,7 @@
       <c r="C145" s="15"/>
       <c r="D145" s="15"/>
       <c r="E145" s="15"/>
-      <c r="F145" s="56"/>
+      <c r="F145" s="54"/>
       <c r="G145" s="15"/>
       <c r="H145" s="15"/>
       <c r="I145" s="2"/>
@@ -5746,7 +5774,7 @@
       <c r="C146" s="15"/>
       <c r="D146" s="15"/>
       <c r="E146" s="15"/>
-      <c r="F146" s="56"/>
+      <c r="F146" s="54"/>
       <c r="G146" s="15"/>
       <c r="H146" s="15"/>
       <c r="I146" s="2"/>
@@ -5763,7 +5791,7 @@
       <c r="C147" s="15"/>
       <c r="D147" s="15"/>
       <c r="E147" s="15"/>
-      <c r="F147" s="56"/>
+      <c r="F147" s="54"/>
       <c r="G147" s="15"/>
       <c r="H147" s="15"/>
       <c r="I147" s="2"/>
@@ -5780,7 +5808,7 @@
       <c r="C148" s="15"/>
       <c r="D148" s="15"/>
       <c r="E148" s="15"/>
-      <c r="F148" s="56"/>
+      <c r="F148" s="54"/>
       <c r="G148" s="15"/>
       <c r="H148" s="15"/>
       <c r="I148" s="2"/>
@@ -5797,7 +5825,7 @@
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
       <c r="E149" s="15"/>
-      <c r="F149" s="56"/>
+      <c r="F149" s="54"/>
       <c r="G149" s="15"/>
       <c r="H149" s="15"/>
       <c r="I149" s="2"/>
@@ -5814,7 +5842,7 @@
       <c r="C150" s="15"/>
       <c r="D150" s="15"/>
       <c r="E150" s="15"/>
-      <c r="F150" s="56"/>
+      <c r="F150" s="54"/>
       <c r="G150" s="15"/>
       <c r="H150" s="15"/>
       <c r="I150" s="2"/>
@@ -5831,7 +5859,7 @@
       <c r="C151" s="15"/>
       <c r="D151" s="15"/>
       <c r="E151" s="15"/>
-      <c r="F151" s="56"/>
+      <c r="F151" s="54"/>
       <c r="G151" s="15"/>
       <c r="H151" s="15"/>
       <c r="I151" s="2"/>
@@ -5848,7 +5876,7 @@
       <c r="C152" s="15"/>
       <c r="D152" s="15"/>
       <c r="E152" s="15"/>
-      <c r="F152" s="56"/>
+      <c r="F152" s="54"/>
       <c r="G152" s="15"/>
       <c r="H152" s="15"/>
       <c r="I152" s="2"/>
@@ -5865,7 +5893,7 @@
       <c r="C153" s="15"/>
       <c r="D153" s="15"/>
       <c r="E153" s="15"/>
-      <c r="F153" s="56"/>
+      <c r="F153" s="54"/>
       <c r="G153" s="15"/>
       <c r="H153" s="15"/>
       <c r="I153" s="2"/>
@@ -5882,7 +5910,7 @@
       <c r="C154" s="15"/>
       <c r="D154" s="15"/>
       <c r="E154" s="15"/>
-      <c r="F154" s="56"/>
+      <c r="F154" s="54"/>
       <c r="G154" s="15"/>
       <c r="H154" s="15"/>
       <c r="I154" s="2"/>
@@ -5899,7 +5927,7 @@
       <c r="C155" s="15"/>
       <c r="D155" s="15"/>
       <c r="E155" s="15"/>
-      <c r="F155" s="56"/>
+      <c r="F155" s="54"/>
       <c r="G155" s="15"/>
       <c r="H155" s="15"/>
       <c r="I155" s="2"/>
@@ -5916,7 +5944,7 @@
       <c r="C156" s="15"/>
       <c r="D156" s="15"/>
       <c r="E156" s="15"/>
-      <c r="F156" s="56"/>
+      <c r="F156" s="54"/>
       <c r="G156" s="15"/>
       <c r="H156" s="15"/>
       <c r="I156" s="2"/>
@@ -5933,7 +5961,7 @@
       <c r="C157" s="15"/>
       <c r="D157" s="15"/>
       <c r="E157" s="15"/>
-      <c r="F157" s="56"/>
+      <c r="F157" s="54"/>
       <c r="G157" s="15"/>
       <c r="H157" s="15"/>
       <c r="I157" s="2"/>
@@ -5950,7 +5978,7 @@
       <c r="C158" s="15"/>
       <c r="D158" s="15"/>
       <c r="E158" s="15"/>
-      <c r="F158" s="56"/>
+      <c r="F158" s="54"/>
       <c r="G158" s="15"/>
       <c r="H158" s="15"/>
       <c r="I158" s="2"/>
@@ -5967,7 +5995,7 @@
       <c r="C159" s="15"/>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
-      <c r="F159" s="56"/>
+      <c r="F159" s="54"/>
       <c r="G159" s="15"/>
       <c r="H159" s="15"/>
       <c r="I159" s="2"/>
@@ -5984,7 +6012,7 @@
       <c r="C160" s="15"/>
       <c r="D160" s="15"/>
       <c r="E160" s="15"/>
-      <c r="F160" s="56"/>
+      <c r="F160" s="54"/>
       <c r="G160" s="15"/>
       <c r="H160" s="15"/>
       <c r="I160" s="2"/>
@@ -6001,7 +6029,7 @@
       <c r="C161" s="15"/>
       <c r="D161" s="15"/>
       <c r="E161" s="15"/>
-      <c r="F161" s="56"/>
+      <c r="F161" s="54"/>
       <c r="G161" s="15"/>
       <c r="H161" s="15"/>
       <c r="I161" s="2"/>
@@ -6018,7 +6046,7 @@
       <c r="C162" s="15"/>
       <c r="D162" s="15"/>
       <c r="E162" s="15"/>
-      <c r="F162" s="56"/>
+      <c r="F162" s="54"/>
       <c r="G162" s="15"/>
       <c r="H162" s="15"/>
       <c r="I162" s="2"/>
@@ -6035,7 +6063,7 @@
       <c r="C163" s="15"/>
       <c r="D163" s="15"/>
       <c r="E163" s="15"/>
-      <c r="F163" s="56"/>
+      <c r="F163" s="54"/>
       <c r="G163" s="15"/>
       <c r="H163" s="15"/>
       <c r="I163" s="2"/>
@@ -6052,7 +6080,7 @@
       <c r="C164" s="15"/>
       <c r="D164" s="15"/>
       <c r="E164" s="15"/>
-      <c r="F164" s="56"/>
+      <c r="F164" s="54"/>
       <c r="G164" s="15"/>
       <c r="H164" s="15"/>
       <c r="I164" s="2"/>
@@ -6069,7 +6097,7 @@
       <c r="C165" s="15"/>
       <c r="D165" s="15"/>
       <c r="E165" s="15"/>
-      <c r="F165" s="56"/>
+      <c r="F165" s="54"/>
       <c r="G165" s="15"/>
       <c r="H165" s="15"/>
       <c r="I165" s="2"/>
@@ -6086,7 +6114,7 @@
       <c r="C166" s="15"/>
       <c r="D166" s="15"/>
       <c r="E166" s="15"/>
-      <c r="F166" s="56"/>
+      <c r="F166" s="54"/>
       <c r="G166" s="15"/>
       <c r="H166" s="15"/>
       <c r="I166" s="2"/>
@@ -6103,7 +6131,7 @@
       <c r="C167" s="15"/>
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
-      <c r="F167" s="56"/>
+      <c r="F167" s="54"/>
       <c r="G167" s="15"/>
       <c r="H167" s="15"/>
       <c r="I167" s="2"/>
@@ -6120,7 +6148,7 @@
       <c r="C168" s="15"/>
       <c r="D168" s="15"/>
       <c r="E168" s="15"/>
-      <c r="F168" s="56"/>
+      <c r="F168" s="54"/>
       <c r="G168" s="15"/>
       <c r="H168" s="15"/>
       <c r="I168" s="2"/>
@@ -6137,7 +6165,7 @@
       <c r="C169" s="15"/>
       <c r="D169" s="15"/>
       <c r="E169" s="15"/>
-      <c r="F169" s="56"/>
+      <c r="F169" s="54"/>
       <c r="G169" s="15"/>
       <c r="H169" s="15"/>
       <c r="I169" s="2"/>
@@ -6154,7 +6182,7 @@
       <c r="C170" s="15"/>
       <c r="D170" s="15"/>
       <c r="E170" s="15"/>
-      <c r="F170" s="56"/>
+      <c r="F170" s="54"/>
       <c r="G170" s="15"/>
       <c r="H170" s="15"/>
       <c r="I170" s="2"/>
@@ -6171,7 +6199,7 @@
       <c r="C171" s="15"/>
       <c r="D171" s="15"/>
       <c r="E171" s="15"/>
-      <c r="F171" s="56"/>
+      <c r="F171" s="54"/>
       <c r="G171" s="15"/>
       <c r="H171" s="15"/>
       <c r="I171" s="2"/>
@@ -6188,7 +6216,7 @@
       <c r="C172" s="15"/>
       <c r="D172" s="15"/>
       <c r="E172" s="15"/>
-      <c r="F172" s="56"/>
+      <c r="F172" s="54"/>
       <c r="G172" s="15"/>
       <c r="H172" s="15"/>
       <c r="I172" s="2"/>
@@ -6205,7 +6233,7 @@
       <c r="C173" s="15"/>
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
-      <c r="F173" s="56"/>
+      <c r="F173" s="54"/>
       <c r="G173" s="15"/>
       <c r="H173" s="15"/>
       <c r="I173" s="2"/>
@@ -6222,7 +6250,7 @@
       <c r="C174" s="15"/>
       <c r="D174" s="15"/>
       <c r="E174" s="15"/>
-      <c r="F174" s="56"/>
+      <c r="F174" s="54"/>
       <c r="G174" s="15"/>
       <c r="H174" s="15"/>
       <c r="I174" s="2"/>
@@ -6239,7 +6267,7 @@
       <c r="C175" s="15"/>
       <c r="D175" s="15"/>
       <c r="E175" s="15"/>
-      <c r="F175" s="56"/>
+      <c r="F175" s="54"/>
       <c r="G175" s="15"/>
       <c r="H175" s="15"/>
       <c r="I175" s="2"/>
@@ -6256,7 +6284,7 @@
       <c r="C176" s="15"/>
       <c r="D176" s="15"/>
       <c r="E176" s="15"/>
-      <c r="F176" s="56"/>
+      <c r="F176" s="54"/>
       <c r="G176" s="15"/>
       <c r="H176" s="15"/>
       <c r="I176" s="2"/>
@@ -6273,7 +6301,7 @@
       <c r="C177" s="15"/>
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
-      <c r="F177" s="56"/>
+      <c r="F177" s="54"/>
       <c r="G177" s="15"/>
       <c r="H177" s="15"/>
       <c r="I177" s="2"/>
@@ -6290,7 +6318,7 @@
       <c r="C178" s="15"/>
       <c r="D178" s="15"/>
       <c r="E178" s="15"/>
-      <c r="F178" s="56"/>
+      <c r="F178" s="54"/>
       <c r="G178" s="15"/>
       <c r="H178" s="15"/>
       <c r="I178" s="2"/>
@@ -6307,7 +6335,7 @@
       <c r="C179" s="15"/>
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
-      <c r="F179" s="56"/>
+      <c r="F179" s="54"/>
       <c r="G179" s="15"/>
       <c r="H179" s="15"/>
       <c r="I179" s="2"/>
@@ -6324,7 +6352,7 @@
       <c r="C180" s="15"/>
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
-      <c r="F180" s="56"/>
+      <c r="F180" s="54"/>
       <c r="G180" s="15"/>
       <c r="H180" s="15"/>
       <c r="I180" s="2"/>
@@ -6341,7 +6369,7 @@
       <c r="C181" s="15"/>
       <c r="D181" s="15"/>
       <c r="E181" s="15"/>
-      <c r="F181" s="56"/>
+      <c r="F181" s="54"/>
       <c r="G181" s="15"/>
       <c r="H181" s="15"/>
       <c r="I181" s="2"/>
@@ -6358,7 +6386,7 @@
       <c r="C182" s="15"/>
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
-      <c r="F182" s="56"/>
+      <c r="F182" s="54"/>
       <c r="G182" s="15"/>
       <c r="H182" s="15"/>
       <c r="I182" s="2"/>
@@ -6375,7 +6403,7 @@
       <c r="C183" s="15"/>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
-      <c r="F183" s="56"/>
+      <c r="F183" s="54"/>
       <c r="G183" s="15"/>
       <c r="H183" s="15"/>
       <c r="I183" s="2"/>
@@ -6392,7 +6420,7 @@
       <c r="C184" s="15"/>
       <c r="D184" s="15"/>
       <c r="E184" s="15"/>
-      <c r="F184" s="56"/>
+      <c r="F184" s="54"/>
       <c r="G184" s="15"/>
       <c r="H184" s="15"/>
       <c r="I184" s="2"/>
@@ -6409,7 +6437,7 @@
       <c r="C185" s="15"/>
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
-      <c r="F185" s="56"/>
+      <c r="F185" s="54"/>
       <c r="G185" s="15"/>
       <c r="H185" s="15"/>
       <c r="I185" s="2"/>
@@ -6426,7 +6454,7 @@
       <c r="C186" s="15"/>
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
-      <c r="F186" s="56"/>
+      <c r="F186" s="54"/>
       <c r="G186" s="15"/>
       <c r="H186" s="15"/>
       <c r="I186" s="2"/>
@@ -6443,7 +6471,7 @@
       <c r="C187" s="15"/>
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
-      <c r="F187" s="56"/>
+      <c r="F187" s="54"/>
       <c r="G187" s="15"/>
       <c r="H187" s="15"/>
       <c r="I187" s="2"/>
@@ -6460,7 +6488,7 @@
       <c r="C188" s="15"/>
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
-      <c r="F188" s="56"/>
+      <c r="F188" s="54"/>
       <c r="G188" s="15"/>
       <c r="H188" s="15"/>
       <c r="I188" s="2"/>
@@ -6477,7 +6505,7 @@
       <c r="C189" s="15"/>
       <c r="D189" s="15"/>
       <c r="E189" s="15"/>
-      <c r="F189" s="56"/>
+      <c r="F189" s="54"/>
       <c r="G189" s="15"/>
       <c r="H189" s="15"/>
       <c r="I189" s="2"/>
@@ -6494,7 +6522,7 @@
       <c r="C190" s="15"/>
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>
-      <c r="F190" s="56"/>
+      <c r="F190" s="54"/>
       <c r="G190" s="15"/>
       <c r="H190" s="15"/>
       <c r="I190" s="2"/>
@@ -6511,7 +6539,7 @@
       <c r="C191" s="15"/>
       <c r="D191" s="15"/>
       <c r="E191" s="15"/>
-      <c r="F191" s="56"/>
+      <c r="F191" s="54"/>
       <c r="G191" s="15"/>
       <c r="H191" s="15"/>
       <c r="I191" s="2"/>
@@ -6528,7 +6556,7 @@
       <c r="C192" s="15"/>
       <c r="D192" s="15"/>
       <c r="E192" s="15"/>
-      <c r="F192" s="56"/>
+      <c r="F192" s="54"/>
       <c r="G192" s="15"/>
       <c r="H192" s="15"/>
       <c r="I192" s="2"/>
@@ -6545,7 +6573,7 @@
       <c r="C193" s="15"/>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
-      <c r="F193" s="56"/>
+      <c r="F193" s="54"/>
       <c r="G193" s="15"/>
       <c r="H193" s="15"/>
       <c r="I193" s="2"/>
@@ -6562,7 +6590,7 @@
       <c r="C194" s="15"/>
       <c r="D194" s="15"/>
       <c r="E194" s="15"/>
-      <c r="F194" s="56"/>
+      <c r="F194" s="54"/>
       <c r="G194" s="15"/>
       <c r="H194" s="15"/>
       <c r="I194" s="2"/>
@@ -6579,7 +6607,7 @@
       <c r="C195" s="15"/>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
-      <c r="F195" s="56"/>
+      <c r="F195" s="54"/>
       <c r="G195" s="15"/>
       <c r="H195" s="15"/>
       <c r="I195" s="2"/>
@@ -6596,7 +6624,7 @@
       <c r="C196" s="15"/>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
-      <c r="F196" s="56"/>
+      <c r="F196" s="54"/>
       <c r="G196" s="15"/>
       <c r="H196" s="15"/>
       <c r="I196" s="2"/>
@@ -6613,7 +6641,7 @@
       <c r="C197" s="15"/>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
-      <c r="F197" s="56"/>
+      <c r="F197" s="54"/>
       <c r="G197" s="15"/>
       <c r="H197" s="15"/>
       <c r="I197" s="2"/>
@@ -6630,7 +6658,7 @@
       <c r="C198" s="15"/>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
-      <c r="F198" s="56"/>
+      <c r="F198" s="54"/>
       <c r="G198" s="15"/>
       <c r="H198" s="15"/>
       <c r="I198" s="2"/>
@@ -6647,7 +6675,7 @@
       <c r="C199" s="15"/>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
-      <c r="F199" s="56"/>
+      <c r="F199" s="54"/>
       <c r="G199" s="15"/>
       <c r="H199" s="15"/>
       <c r="I199" s="2"/>
@@ -6664,7 +6692,7 @@
       <c r="C200" s="15"/>
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
-      <c r="F200" s="56"/>
+      <c r="F200" s="54"/>
       <c r="G200" s="15"/>
       <c r="H200" s="15"/>
       <c r="I200" s="2"/>
@@ -6681,7 +6709,7 @@
       <c r="C201" s="15"/>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
-      <c r="F201" s="56"/>
+      <c r="F201" s="54"/>
       <c r="G201" s="15"/>
       <c r="H201" s="15"/>
       <c r="I201" s="2"/>
@@ -6698,7 +6726,7 @@
       <c r="C202" s="15"/>
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
-      <c r="F202" s="56"/>
+      <c r="F202" s="54"/>
       <c r="G202" s="15"/>
       <c r="H202" s="15"/>
       <c r="I202" s="2"/>
@@ -6715,7 +6743,7 @@
       <c r="C203" s="15"/>
       <c r="D203" s="15"/>
       <c r="E203" s="15"/>
-      <c r="F203" s="56"/>
+      <c r="F203" s="54"/>
       <c r="G203" s="15"/>
       <c r="H203" s="15"/>
       <c r="I203" s="2"/>
@@ -6732,7 +6760,7 @@
       <c r="C204" s="15"/>
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
-      <c r="F204" s="56"/>
+      <c r="F204" s="54"/>
       <c r="G204" s="15"/>
       <c r="H204" s="15"/>
       <c r="I204" s="2"/>
@@ -6749,7 +6777,7 @@
       <c r="C205" s="15"/>
       <c r="D205" s="15"/>
       <c r="E205" s="15"/>
-      <c r="F205" s="56"/>
+      <c r="F205" s="54"/>
       <c r="G205" s="15"/>
       <c r="H205" s="15"/>
       <c r="I205" s="2"/>
@@ -6766,7 +6794,7 @@
       <c r="C206" s="15"/>
       <c r="D206" s="15"/>
       <c r="E206" s="15"/>
-      <c r="F206" s="56"/>
+      <c r="F206" s="54"/>
       <c r="G206" s="15"/>
       <c r="H206" s="15"/>
       <c r="I206" s="2"/>
@@ -6783,7 +6811,7 @@
       <c r="C207" s="15"/>
       <c r="D207" s="15"/>
       <c r="E207" s="15"/>
-      <c r="F207" s="56"/>
+      <c r="F207" s="54"/>
       <c r="G207" s="15"/>
       <c r="H207" s="15"/>
       <c r="I207" s="2"/>
@@ -6800,7 +6828,7 @@
       <c r="C208" s="15"/>
       <c r="D208" s="15"/>
       <c r="E208" s="15"/>
-      <c r="F208" s="56"/>
+      <c r="F208" s="54"/>
       <c r="G208" s="15"/>
       <c r="H208" s="15"/>
       <c r="I208" s="2"/>
@@ -6817,7 +6845,7 @@
       <c r="C209" s="15"/>
       <c r="D209" s="15"/>
       <c r="E209" s="15"/>
-      <c r="F209" s="56"/>
+      <c r="F209" s="54"/>
       <c r="G209" s="15"/>
       <c r="H209" s="15"/>
       <c r="I209" s="2"/>
@@ -6834,7 +6862,7 @@
       <c r="C210" s="15"/>
       <c r="D210" s="15"/>
       <c r="E210" s="15"/>
-      <c r="F210" s="56"/>
+      <c r="F210" s="54"/>
       <c r="G210" s="15"/>
       <c r="H210" s="15"/>
       <c r="I210" s="2"/>
@@ -6851,7 +6879,7 @@
       <c r="C211" s="15"/>
       <c r="D211" s="15"/>
       <c r="E211" s="15"/>
-      <c r="F211" s="56"/>
+      <c r="F211" s="54"/>
       <c r="G211" s="15"/>
       <c r="H211" s="15"/>
       <c r="I211" s="2"/>
@@ -6868,7 +6896,7 @@
       <c r="C212" s="15"/>
       <c r="D212" s="15"/>
       <c r="E212" s="15"/>
-      <c r="F212" s="56"/>
+      <c r="F212" s="54"/>
       <c r="G212" s="15"/>
       <c r="H212" s="15"/>
       <c r="I212" s="2"/>
@@ -6885,7 +6913,7 @@
       <c r="C213" s="15"/>
       <c r="D213" s="15"/>
       <c r="E213" s="15"/>
-      <c r="F213" s="56"/>
+      <c r="F213" s="54"/>
       <c r="G213" s="15"/>
       <c r="H213" s="15"/>
       <c r="I213" s="2"/>
@@ -6902,7 +6930,7 @@
       <c r="C214" s="15"/>
       <c r="D214" s="15"/>
       <c r="E214" s="15"/>
-      <c r="F214" s="56"/>
+      <c r="F214" s="54"/>
       <c r="G214" s="15"/>
       <c r="H214" s="15"/>
       <c r="I214" s="2"/>
@@ -6919,7 +6947,7 @@
       <c r="C215" s="15"/>
       <c r="D215" s="15"/>
       <c r="E215" s="15"/>
-      <c r="F215" s="56"/>
+      <c r="F215" s="54"/>
       <c r="G215" s="15"/>
       <c r="H215" s="15"/>
       <c r="I215" s="2"/>
@@ -6936,7 +6964,7 @@
       <c r="C216" s="15"/>
       <c r="D216" s="15"/>
       <c r="E216" s="15"/>
-      <c r="F216" s="56"/>
+      <c r="F216" s="54"/>
       <c r="G216" s="15"/>
       <c r="H216" s="15"/>
       <c r="I216" s="2"/>
@@ -6953,7 +6981,7 @@
       <c r="C217" s="15"/>
       <c r="D217" s="15"/>
       <c r="E217" s="15"/>
-      <c r="F217" s="56"/>
+      <c r="F217" s="54"/>
       <c r="G217" s="15"/>
       <c r="H217" s="15"/>
       <c r="I217" s="2"/>
@@ -6970,7 +6998,7 @@
       <c r="C218" s="15"/>
       <c r="D218" s="15"/>
       <c r="E218" s="15"/>
-      <c r="F218" s="56"/>
+      <c r="F218" s="54"/>
       <c r="G218" s="15"/>
       <c r="H218" s="15"/>
       <c r="I218" s="2"/>
@@ -6987,7 +7015,7 @@
       <c r="C219" s="15"/>
       <c r="D219" s="15"/>
       <c r="E219" s="15"/>
-      <c r="F219" s="56"/>
+      <c r="F219" s="54"/>
       <c r="G219" s="15"/>
       <c r="H219" s="15"/>
       <c r="I219" s="2"/>
@@ -7004,7 +7032,7 @@
       <c r="C220" s="15"/>
       <c r="D220" s="15"/>
       <c r="E220" s="15"/>
-      <c r="F220" s="56"/>
+      <c r="F220" s="54"/>
       <c r="G220" s="15"/>
       <c r="H220" s="15"/>
       <c r="I220" s="2"/>
@@ -7021,7 +7049,7 @@
       <c r="C221" s="15"/>
       <c r="D221" s="15"/>
       <c r="E221" s="15"/>
-      <c r="F221" s="56"/>
+      <c r="F221" s="54"/>
       <c r="G221" s="15"/>
       <c r="H221" s="15"/>
       <c r="I221" s="2"/>
@@ -7038,7 +7066,7 @@
       <c r="C222" s="15"/>
       <c r="D222" s="15"/>
       <c r="E222" s="15"/>
-      <c r="F222" s="56"/>
+      <c r="F222" s="54"/>
       <c r="G222" s="15"/>
       <c r="H222" s="15"/>
       <c r="I222" s="2"/>
@@ -7055,7 +7083,7 @@
       <c r="C223" s="15"/>
       <c r="D223" s="15"/>
       <c r="E223" s="15"/>
-      <c r="F223" s="56"/>
+      <c r="F223" s="54"/>
       <c r="G223" s="15"/>
       <c r="H223" s="15"/>
       <c r="I223" s="2"/>
@@ -7072,7 +7100,7 @@
       <c r="C224" s="15"/>
       <c r="D224" s="15"/>
       <c r="E224" s="15"/>
-      <c r="F224" s="56"/>
+      <c r="F224" s="54"/>
       <c r="G224" s="15"/>
       <c r="H224" s="15"/>
       <c r="I224" s="2"/>
@@ -7089,7 +7117,7 @@
       <c r="C225" s="15"/>
       <c r="D225" s="15"/>
       <c r="E225" s="15"/>
-      <c r="F225" s="56"/>
+      <c r="F225" s="54"/>
       <c r="G225" s="15"/>
       <c r="H225" s="15"/>
       <c r="I225" s="2"/>
@@ -7106,7 +7134,7 @@
       <c r="C226" s="15"/>
       <c r="D226" s="15"/>
       <c r="E226" s="15"/>
-      <c r="F226" s="56"/>
+      <c r="F226" s="54"/>
       <c r="G226" s="15"/>
       <c r="H226" s="15"/>
       <c r="I226" s="2"/>
@@ -7123,7 +7151,7 @@
       <c r="C227" s="15"/>
       <c r="D227" s="15"/>
       <c r="E227" s="15"/>
-      <c r="F227" s="56"/>
+      <c r="F227" s="54"/>
       <c r="G227" s="15"/>
       <c r="H227" s="15"/>
       <c r="I227" s="2"/>
@@ -7140,7 +7168,7 @@
       <c r="C228" s="15"/>
       <c r="D228" s="15"/>
       <c r="E228" s="15"/>
-      <c r="F228" s="56"/>
+      <c r="F228" s="54"/>
       <c r="G228" s="15"/>
       <c r="H228" s="15"/>
       <c r="I228" s="2"/>
@@ -7157,7 +7185,7 @@
       <c r="C229" s="15"/>
       <c r="D229" s="15"/>
       <c r="E229" s="15"/>
-      <c r="F229" s="56"/>
+      <c r="F229" s="54"/>
       <c r="G229" s="15"/>
       <c r="H229" s="15"/>
       <c r="I229" s="2"/>
@@ -7174,7 +7202,7 @@
       <c r="C230" s="15"/>
       <c r="D230" s="15"/>
       <c r="E230" s="15"/>
-      <c r="F230" s="56"/>
+      <c r="F230" s="54"/>
       <c r="G230" s="15"/>
       <c r="H230" s="15"/>
       <c r="I230" s="2"/>
@@ -7191,7 +7219,7 @@
       <c r="C231" s="15"/>
       <c r="D231" s="15"/>
       <c r="E231" s="15"/>
-      <c r="F231" s="56"/>
+      <c r="F231" s="54"/>
       <c r="G231" s="15"/>
       <c r="H231" s="15"/>
       <c r="I231" s="2"/>
@@ -7208,7 +7236,7 @@
       <c r="C232" s="15"/>
       <c r="D232" s="15"/>
       <c r="E232" s="15"/>
-      <c r="F232" s="56"/>
+      <c r="F232" s="54"/>
       <c r="G232" s="15"/>
       <c r="H232" s="15"/>
       <c r="I232" s="2"/>
@@ -7225,7 +7253,7 @@
       <c r="C233" s="15"/>
       <c r="D233" s="15"/>
       <c r="E233" s="15"/>
-      <c r="F233" s="56"/>
+      <c r="F233" s="54"/>
       <c r="G233" s="15"/>
       <c r="H233" s="15"/>
       <c r="I233" s="2"/>
@@ -7242,7 +7270,7 @@
       <c r="C234" s="15"/>
       <c r="D234" s="15"/>
       <c r="E234" s="15"/>
-      <c r="F234" s="56"/>
+      <c r="F234" s="54"/>
       <c r="G234" s="15"/>
       <c r="H234" s="15"/>
       <c r="I234" s="2"/>
@@ -7259,7 +7287,7 @@
       <c r="C235" s="15"/>
       <c r="D235" s="15"/>
       <c r="E235" s="15"/>
-      <c r="F235" s="56"/>
+      <c r="F235" s="54"/>
       <c r="G235" s="15"/>
       <c r="H235" s="15"/>
       <c r="I235" s="2"/>
@@ -7276,7 +7304,7 @@
       <c r="C236" s="15"/>
       <c r="D236" s="15"/>
       <c r="E236" s="15"/>
-      <c r="F236" s="56"/>
+      <c r="F236" s="54"/>
       <c r="G236" s="15"/>
       <c r="H236" s="15"/>
       <c r="I236" s="2"/>
@@ -7293,7 +7321,7 @@
       <c r="C237" s="15"/>
       <c r="D237" s="15"/>
       <c r="E237" s="15"/>
-      <c r="F237" s="56"/>
+      <c r="F237" s="54"/>
       <c r="G237" s="15"/>
       <c r="H237" s="15"/>
       <c r="I237" s="2"/>
@@ -7310,7 +7338,7 @@
       <c r="C238" s="15"/>
       <c r="D238" s="15"/>
       <c r="E238" s="15"/>
-      <c r="F238" s="56"/>
+      <c r="F238" s="54"/>
       <c r="G238" s="15"/>
       <c r="H238" s="15"/>
       <c r="I238" s="2"/>
@@ -7327,7 +7355,7 @@
       <c r="C239" s="15"/>
       <c r="D239" s="15"/>
       <c r="E239" s="15"/>
-      <c r="F239" s="56"/>
+      <c r="F239" s="54"/>
       <c r="G239" s="15"/>
       <c r="H239" s="15"/>
       <c r="I239" s="2"/>
@@ -7344,7 +7372,7 @@
       <c r="C240" s="15"/>
       <c r="D240" s="15"/>
       <c r="E240" s="15"/>
-      <c r="F240" s="56"/>
+      <c r="F240" s="54"/>
       <c r="G240" s="15"/>
       <c r="H240" s="15"/>
       <c r="I240" s="2"/>
@@ -7361,7 +7389,7 @@
       <c r="C241" s="15"/>
       <c r="D241" s="15"/>
       <c r="E241" s="15"/>
-      <c r="F241" s="56"/>
+      <c r="F241" s="54"/>
       <c r="G241" s="15"/>
       <c r="H241" s="15"/>
       <c r="I241" s="2"/>
@@ -7378,7 +7406,7 @@
       <c r="C242" s="15"/>
       <c r="D242" s="15"/>
       <c r="E242" s="15"/>
-      <c r="F242" s="56"/>
+      <c r="F242" s="54"/>
       <c r="G242" s="15"/>
       <c r="H242" s="15"/>
       <c r="I242" s="2"/>
@@ -7395,7 +7423,7 @@
       <c r="C243" s="15"/>
       <c r="D243" s="15"/>
       <c r="E243" s="15"/>
-      <c r="F243" s="56"/>
+      <c r="F243" s="54"/>
       <c r="G243" s="15"/>
       <c r="H243" s="15"/>
       <c r="I243" s="2"/>
@@ -7412,7 +7440,7 @@
       <c r="C244" s="15"/>
       <c r="D244" s="15"/>
       <c r="E244" s="15"/>
-      <c r="F244" s="56"/>
+      <c r="F244" s="54"/>
       <c r="G244" s="15"/>
       <c r="H244" s="15"/>
       <c r="I244" s="2"/>
@@ -7429,7 +7457,7 @@
       <c r="C245" s="15"/>
       <c r="D245" s="15"/>
       <c r="E245" s="15"/>
-      <c r="F245" s="56"/>
+      <c r="F245" s="54"/>
       <c r="G245" s="15"/>
       <c r="H245" s="15"/>
       <c r="I245" s="2"/>
@@ -7446,7 +7474,7 @@
       <c r="C246" s="15"/>
       <c r="D246" s="15"/>
       <c r="E246" s="15"/>
-      <c r="F246" s="56"/>
+      <c r="F246" s="54"/>
       <c r="G246" s="15"/>
       <c r="H246" s="15"/>
       <c r="I246" s="2"/>
@@ -7463,7 +7491,7 @@
       <c r="C247" s="15"/>
       <c r="D247" s="15"/>
       <c r="E247" s="15"/>
-      <c r="F247" s="56"/>
+      <c r="F247" s="54"/>
       <c r="G247" s="15"/>
       <c r="H247" s="15"/>
       <c r="I247" s="2"/>
@@ -7480,7 +7508,7 @@
       <c r="C248" s="15"/>
       <c r="D248" s="15"/>
       <c r="E248" s="15"/>
-      <c r="F248" s="56"/>
+      <c r="F248" s="54"/>
       <c r="G248" s="15"/>
       <c r="H248" s="15"/>
       <c r="I248" s="2"/>
@@ -7497,7 +7525,7 @@
       <c r="C249" s="15"/>
       <c r="D249" s="15"/>
       <c r="E249" s="15"/>
-      <c r="F249" s="56"/>
+      <c r="F249" s="54"/>
       <c r="G249" s="15"/>
       <c r="H249" s="15"/>
       <c r="I249" s="2"/>
@@ -7514,7 +7542,7 @@
       <c r="C250" s="15"/>
       <c r="D250" s="15"/>
       <c r="E250" s="15"/>
-      <c r="F250" s="56"/>
+      <c r="F250" s="54"/>
       <c r="G250" s="15"/>
       <c r="H250" s="15"/>
       <c r="I250" s="2"/>
@@ -7531,7 +7559,7 @@
       <c r="C251" s="15"/>
       <c r="D251" s="15"/>
       <c r="E251" s="15"/>
-      <c r="F251" s="56"/>
+      <c r="F251" s="54"/>
       <c r="G251" s="15"/>
       <c r="H251" s="15"/>
       <c r="I251" s="2"/>
@@ -7548,7 +7576,7 @@
       <c r="C252" s="15"/>
       <c r="D252" s="15"/>
       <c r="E252" s="15"/>
-      <c r="F252" s="56"/>
+      <c r="F252" s="54"/>
       <c r="G252" s="15"/>
       <c r="H252" s="15"/>
       <c r="I252" s="2"/>
@@ -7565,7 +7593,7 @@
       <c r="C253" s="15"/>
       <c r="D253" s="15"/>
       <c r="E253" s="15"/>
-      <c r="F253" s="56"/>
+      <c r="F253" s="54"/>
       <c r="G253" s="15"/>
       <c r="H253" s="15"/>
       <c r="I253" s="2"/>
@@ -7582,7 +7610,7 @@
       <c r="C254" s="15"/>
       <c r="D254" s="15"/>
       <c r="E254" s="15"/>
-      <c r="F254" s="56"/>
+      <c r="F254" s="54"/>
       <c r="G254" s="15"/>
       <c r="H254" s="15"/>
       <c r="I254" s="2"/>
@@ -7599,7 +7627,7 @@
       <c r="C255" s="15"/>
       <c r="D255" s="15"/>
       <c r="E255" s="15"/>
-      <c r="F255" s="56"/>
+      <c r="F255" s="54"/>
       <c r="G255" s="15"/>
       <c r="H255" s="15"/>
       <c r="I255" s="2"/>
@@ -7616,7 +7644,7 @@
       <c r="C256" s="15"/>
       <c r="D256" s="15"/>
       <c r="E256" s="15"/>
-      <c r="F256" s="56"/>
+      <c r="F256" s="54"/>
       <c r="G256" s="15"/>
       <c r="H256" s="15"/>
       <c r="I256" s="2"/>
@@ -7633,7 +7661,7 @@
       <c r="C257" s="15"/>
       <c r="D257" s="15"/>
       <c r="E257" s="15"/>
-      <c r="F257" s="56"/>
+      <c r="F257" s="54"/>
       <c r="G257" s="15"/>
       <c r="H257" s="15"/>
       <c r="I257" s="2"/>
@@ -7650,7 +7678,7 @@
       <c r="C258" s="15"/>
       <c r="D258" s="15"/>
       <c r="E258" s="15"/>
-      <c r="F258" s="56"/>
+      <c r="F258" s="54"/>
       <c r="G258" s="15"/>
       <c r="H258" s="15"/>
       <c r="I258" s="2"/>
@@ -7667,7 +7695,7 @@
       <c r="C259" s="15"/>
       <c r="D259" s="15"/>
       <c r="E259" s="15"/>
-      <c r="F259" s="56"/>
+      <c r="F259" s="54"/>
       <c r="G259" s="15"/>
       <c r="H259" s="15"/>
       <c r="I259" s="2"/>
@@ -7684,7 +7712,7 @@
       <c r="C260" s="15"/>
       <c r="D260" s="15"/>
       <c r="E260" s="15"/>
-      <c r="F260" s="56"/>
+      <c r="F260" s="54"/>
       <c r="G260" s="15"/>
       <c r="H260" s="15"/>
       <c r="I260" s="2"/>
@@ -7701,7 +7729,7 @@
       <c r="C261" s="15"/>
       <c r="D261" s="15"/>
       <c r="E261" s="15"/>
-      <c r="F261" s="56"/>
+      <c r="F261" s="54"/>
       <c r="G261" s="15"/>
       <c r="H261" s="15"/>
       <c r="I261" s="2"/>
@@ -7718,7 +7746,7 @@
       <c r="C262" s="15"/>
       <c r="D262" s="15"/>
       <c r="E262" s="15"/>
-      <c r="F262" s="56"/>
+      <c r="F262" s="54"/>
       <c r="G262" s="15"/>
       <c r="H262" s="15"/>
       <c r="I262" s="2"/>
@@ -7735,7 +7763,7 @@
       <c r="C263" s="15"/>
       <c r="D263" s="15"/>
       <c r="E263" s="15"/>
-      <c r="F263" s="56"/>
+      <c r="F263" s="54"/>
       <c r="G263" s="15"/>
       <c r="H263" s="15"/>
       <c r="I263" s="2"/>
@@ -7752,7 +7780,7 @@
       <c r="C264" s="15"/>
       <c r="D264" s="15"/>
       <c r="E264" s="15"/>
-      <c r="F264" s="56"/>
+      <c r="F264" s="54"/>
       <c r="G264" s="15"/>
       <c r="H264" s="15"/>
       <c r="I264" s="2"/>
@@ -7769,7 +7797,7 @@
       <c r="C265" s="15"/>
       <c r="D265" s="15"/>
       <c r="E265" s="15"/>
-      <c r="F265" s="56"/>
+      <c r="F265" s="54"/>
       <c r="G265" s="15"/>
       <c r="H265" s="15"/>
       <c r="I265" s="2"/>
@@ -7786,7 +7814,7 @@
       <c r="C266" s="15"/>
       <c r="D266" s="15"/>
       <c r="E266" s="15"/>
-      <c r="F266" s="56"/>
+      <c r="F266" s="54"/>
       <c r="G266" s="15"/>
       <c r="H266" s="15"/>
       <c r="I266" s="2"/>
@@ -7803,7 +7831,7 @@
       <c r="C267" s="15"/>
       <c r="D267" s="15"/>
       <c r="E267" s="15"/>
-      <c r="F267" s="56"/>
+      <c r="F267" s="54"/>
       <c r="G267" s="15"/>
       <c r="H267" s="15"/>
       <c r="I267" s="2"/>
@@ -7820,7 +7848,7 @@
       <c r="C268" s="15"/>
       <c r="D268" s="15"/>
       <c r="E268" s="15"/>
-      <c r="F268" s="56"/>
+      <c r="F268" s="54"/>
       <c r="G268" s="15"/>
       <c r="H268" s="15"/>
       <c r="I268" s="2"/>
@@ -7837,7 +7865,7 @@
       <c r="C269" s="15"/>
       <c r="D269" s="15"/>
       <c r="E269" s="15"/>
-      <c r="F269" s="56"/>
+      <c r="F269" s="54"/>
       <c r="G269" s="15"/>
       <c r="H269" s="15"/>
       <c r="I269" s="2"/>
@@ -7854,7 +7882,7 @@
       <c r="C270" s="15"/>
       <c r="D270" s="15"/>
       <c r="E270" s="15"/>
-      <c r="F270" s="56"/>
+      <c r="F270" s="54"/>
       <c r="G270" s="15"/>
       <c r="H270" s="15"/>
       <c r="I270" s="2"/>
@@ -7871,7 +7899,7 @@
       <c r="C271" s="15"/>
       <c r="D271" s="15"/>
       <c r="E271" s="15"/>
-      <c r="F271" s="56"/>
+      <c r="F271" s="54"/>
       <c r="G271" s="15"/>
       <c r="H271" s="15"/>
       <c r="I271" s="2"/>
@@ -7888,7 +7916,7 @@
       <c r="C272" s="15"/>
       <c r="D272" s="15"/>
       <c r="E272" s="15"/>
-      <c r="F272" s="56"/>
+      <c r="F272" s="54"/>
       <c r="G272" s="15"/>
       <c r="H272" s="15"/>
       <c r="I272" s="2"/>
@@ -7905,7 +7933,7 @@
       <c r="C273" s="15"/>
       <c r="D273" s="15"/>
       <c r="E273" s="15"/>
-      <c r="F273" s="56"/>
+      <c r="F273" s="54"/>
       <c r="G273" s="15"/>
       <c r="H273" s="15"/>
       <c r="I273" s="2"/>
@@ -7922,7 +7950,7 @@
       <c r="C274" s="15"/>
       <c r="D274" s="15"/>
       <c r="E274" s="15"/>
-      <c r="F274" s="56"/>
+      <c r="F274" s="54"/>
       <c r="G274" s="15"/>
       <c r="H274" s="15"/>
       <c r="I274" s="2"/>
@@ -7939,7 +7967,7 @@
       <c r="C275" s="15"/>
       <c r="D275" s="15"/>
       <c r="E275" s="15"/>
-      <c r="F275" s="56"/>
+      <c r="F275" s="54"/>
       <c r="G275" s="15"/>
       <c r="H275" s="15"/>
       <c r="I275" s="2"/>
@@ -7956,7 +7984,7 @@
       <c r="C276" s="15"/>
       <c r="D276" s="15"/>
       <c r="E276" s="15"/>
-      <c r="F276" s="56"/>
+      <c r="F276" s="54"/>
       <c r="G276" s="15"/>
       <c r="H276" s="15"/>
       <c r="I276" s="2"/>
@@ -7973,7 +8001,7 @@
       <c r="C277" s="15"/>
       <c r="D277" s="15"/>
       <c r="E277" s="15"/>
-      <c r="F277" s="56"/>
+      <c r="F277" s="54"/>
       <c r="G277" s="15"/>
       <c r="H277" s="15"/>
       <c r="I277" s="2"/>
@@ -7990,7 +8018,7 @@
       <c r="C278" s="15"/>
       <c r="D278" s="15"/>
       <c r="E278" s="15"/>
-      <c r="F278" s="56"/>
+      <c r="F278" s="54"/>
       <c r="G278" s="15"/>
       <c r="H278" s="15"/>
       <c r="I278" s="2"/>
@@ -8007,7 +8035,7 @@
       <c r="C279" s="15"/>
       <c r="D279" s="15"/>
       <c r="E279" s="15"/>
-      <c r="F279" s="56"/>
+      <c r="F279" s="54"/>
       <c r="G279" s="15"/>
       <c r="H279" s="15"/>
       <c r="I279" s="2"/>
@@ -8024,7 +8052,7 @@
       <c r="C280" s="15"/>
       <c r="D280" s="15"/>
       <c r="E280" s="15"/>
-      <c r="F280" s="56"/>
+      <c r="F280" s="54"/>
       <c r="G280" s="15"/>
       <c r="H280" s="15"/>
       <c r="I280" s="2"/>
@@ -8041,7 +8069,7 @@
       <c r="C281" s="15"/>
       <c r="D281" s="15"/>
       <c r="E281" s="15"/>
-      <c r="F281" s="56"/>
+      <c r="F281" s="54"/>
       <c r="G281" s="15"/>
       <c r="H281" s="15"/>
       <c r="I281" s="2"/>
@@ -8058,7 +8086,7 @@
       <c r="C282" s="15"/>
       <c r="D282" s="15"/>
       <c r="E282" s="15"/>
-      <c r="F282" s="56"/>
+      <c r="F282" s="54"/>
       <c r="G282" s="15"/>
       <c r="H282" s="15"/>
       <c r="I282" s="2"/>
@@ -8075,7 +8103,7 @@
       <c r="C283" s="15"/>
       <c r="D283" s="15"/>
       <c r="E283" s="15"/>
-      <c r="F283" s="56"/>
+      <c r="F283" s="54"/>
       <c r="G283" s="15"/>
       <c r="H283" s="15"/>
       <c r="I283" s="2"/>
@@ -8092,7 +8120,7 @@
       <c r="C284" s="15"/>
       <c r="D284" s="15"/>
       <c r="E284" s="15"/>
-      <c r="F284" s="56"/>
+      <c r="F284" s="54"/>
       <c r="G284" s="15"/>
       <c r="H284" s="15"/>
       <c r="I284" s="2"/>
@@ -8109,7 +8137,7 @@
       <c r="C285" s="15"/>
       <c r="D285" s="15"/>
       <c r="E285" s="15"/>
-      <c r="F285" s="56"/>
+      <c r="F285" s="54"/>
       <c r="G285" s="15"/>
       <c r="H285" s="15"/>
       <c r="I285" s="2"/>
@@ -8126,7 +8154,7 @@
       <c r="C286" s="15"/>
       <c r="D286" s="15"/>
       <c r="E286" s="15"/>
-      <c r="F286" s="56"/>
+      <c r="F286" s="54"/>
       <c r="G286" s="15"/>
       <c r="H286" s="15"/>
       <c r="I286" s="2"/>
@@ -8143,7 +8171,7 @@
       <c r="C287" s="15"/>
       <c r="D287" s="15"/>
       <c r="E287" s="15"/>
-      <c r="F287" s="56"/>
+      <c r="F287" s="54"/>
       <c r="G287" s="15"/>
       <c r="H287" s="15"/>
       <c r="I287" s="2"/>
@@ -8160,7 +8188,7 @@
       <c r="C288" s="15"/>
       <c r="D288" s="15"/>
       <c r="E288" s="15"/>
-      <c r="F288" s="56"/>
+      <c r="F288" s="54"/>
       <c r="G288" s="15"/>
       <c r="H288" s="15"/>
       <c r="I288" s="2"/>
@@ -8177,7 +8205,7 @@
       <c r="C289" s="15"/>
       <c r="D289" s="15"/>
       <c r="E289" s="15"/>
-      <c r="F289" s="56"/>
+      <c r="F289" s="54"/>
       <c r="G289" s="15"/>
       <c r="H289" s="15"/>
       <c r="I289" s="2"/>
@@ -8194,7 +8222,7 @@
       <c r="C290" s="15"/>
       <c r="D290" s="15"/>
       <c r="E290" s="15"/>
-      <c r="F290" s="56"/>
+      <c r="F290" s="54"/>
       <c r="G290" s="15"/>
       <c r="H290" s="15"/>
       <c r="I290" s="2"/>
@@ -8211,7 +8239,7 @@
       <c r="C291" s="15"/>
       <c r="D291" s="15"/>
       <c r="E291" s="15"/>
-      <c r="F291" s="56"/>
+      <c r="F291" s="54"/>
       <c r="G291" s="15"/>
       <c r="H291" s="15"/>
       <c r="I291" s="2"/>
@@ -8228,7 +8256,7 @@
       <c r="C292" s="15"/>
       <c r="D292" s="15"/>
       <c r="E292" s="15"/>
-      <c r="F292" s="56"/>
+      <c r="F292" s="54"/>
       <c r="G292" s="15"/>
       <c r="H292" s="15"/>
       <c r="I292" s="2"/>
@@ -8245,7 +8273,7 @@
       <c r="C293" s="15"/>
       <c r="D293" s="15"/>
       <c r="E293" s="15"/>
-      <c r="F293" s="56"/>
+      <c r="F293" s="54"/>
       <c r="G293" s="15"/>
       <c r="H293" s="15"/>
       <c r="I293" s="2"/>
@@ -8262,7 +8290,7 @@
       <c r="C294" s="15"/>
       <c r="D294" s="15"/>
       <c r="E294" s="15"/>
-      <c r="F294" s="56"/>
+      <c r="F294" s="54"/>
       <c r="G294" s="15"/>
       <c r="H294" s="15"/>
       <c r="I294" s="2"/>
@@ -8279,7 +8307,7 @@
       <c r="C295" s="15"/>
       <c r="D295" s="15"/>
       <c r="E295" s="15"/>
-      <c r="F295" s="56"/>
+      <c r="F295" s="54"/>
       <c r="G295" s="15"/>
       <c r="H295" s="15"/>
       <c r="I295" s="2"/>
@@ -8296,7 +8324,7 @@
       <c r="C296" s="15"/>
       <c r="D296" s="15"/>
       <c r="E296" s="15"/>
-      <c r="F296" s="56"/>
+      <c r="F296" s="54"/>
       <c r="G296" s="15"/>
       <c r="H296" s="15"/>
       <c r="I296" s="2"/>
@@ -8313,7 +8341,7 @@
       <c r="C297" s="15"/>
       <c r="D297" s="15"/>
       <c r="E297" s="15"/>
-      <c r="F297" s="56"/>
+      <c r="F297" s="54"/>
       <c r="G297" s="15"/>
       <c r="H297" s="15"/>
       <c r="I297" s="2"/>
@@ -8330,7 +8358,7 @@
       <c r="C298" s="15"/>
       <c r="D298" s="15"/>
       <c r="E298" s="15"/>
-      <c r="F298" s="56"/>
+      <c r="F298" s="54"/>
       <c r="G298" s="15"/>
       <c r="H298" s="15"/>
       <c r="I298" s="2"/>
@@ -8347,7 +8375,7 @@
       <c r="C299" s="15"/>
       <c r="D299" s="15"/>
       <c r="E299" s="15"/>
-      <c r="F299" s="56"/>
+      <c r="F299" s="54"/>
       <c r="G299" s="15"/>
       <c r="H299" s="15"/>
       <c r="I299" s="2"/>
@@ -8364,7 +8392,7 @@
       <c r="C300" s="15"/>
       <c r="D300" s="15"/>
       <c r="E300" s="15"/>
-      <c r="F300" s="56"/>
+      <c r="F300" s="54"/>
       <c r="G300" s="15"/>
       <c r="H300" s="15"/>
       <c r="I300" s="2"/>
@@ -8381,7 +8409,7 @@
       <c r="C301" s="15"/>
       <c r="D301" s="15"/>
       <c r="E301" s="15"/>
-      <c r="F301" s="56"/>
+      <c r="F301" s="54"/>
       <c r="G301" s="15"/>
       <c r="H301" s="15"/>
       <c r="I301" s="2"/>
@@ -8398,7 +8426,7 @@
       <c r="C302" s="15"/>
       <c r="D302" s="15"/>
       <c r="E302" s="15"/>
-      <c r="F302" s="56"/>
+      <c r="F302" s="54"/>
       <c r="G302" s="15"/>
       <c r="H302" s="15"/>
       <c r="I302" s="2"/>
@@ -8415,7 +8443,7 @@
       <c r="C303" s="15"/>
       <c r="D303" s="15"/>
       <c r="E303" s="15"/>
-      <c r="F303" s="56"/>
+      <c r="F303" s="54"/>
       <c r="G303" s="15"/>
       <c r="H303" s="15"/>
       <c r="I303" s="2"/>
@@ -8432,7 +8460,7 @@
       <c r="C304" s="15"/>
       <c r="D304" s="15"/>
       <c r="E304" s="15"/>
-      <c r="F304" s="56"/>
+      <c r="F304" s="54"/>
       <c r="G304" s="15"/>
       <c r="H304" s="15"/>
       <c r="I304" s="2"/>
@@ -8449,7 +8477,7 @@
       <c r="C305" s="15"/>
       <c r="D305" s="15"/>
       <c r="E305" s="15"/>
-      <c r="F305" s="56"/>
+      <c r="F305" s="54"/>
       <c r="G305" s="15"/>
       <c r="H305" s="15"/>
       <c r="I305" s="2"/>
@@ -8466,7 +8494,7 @@
       <c r="C306" s="15"/>
       <c r="D306" s="15"/>
       <c r="E306" s="15"/>
-      <c r="F306" s="56"/>
+      <c r="F306" s="54"/>
       <c r="G306" s="15"/>
       <c r="H306" s="15"/>
       <c r="I306" s="2"/>
@@ -8483,7 +8511,7 @@
       <c r="C307" s="15"/>
       <c r="D307" s="15"/>
       <c r="E307" s="15"/>
-      <c r="F307" s="56"/>
+      <c r="F307" s="54"/>
       <c r="G307" s="15"/>
       <c r="H307" s="15"/>
       <c r="I307" s="2"/>
@@ -8500,7 +8528,7 @@
       <c r="C308" s="15"/>
       <c r="D308" s="15"/>
       <c r="E308" s="15"/>
-      <c r="F308" s="56"/>
+      <c r="F308" s="54"/>
       <c r="G308" s="15"/>
       <c r="H308" s="15"/>
       <c r="I308" s="2"/>
@@ -8517,7 +8545,7 @@
       <c r="C309" s="15"/>
       <c r="D309" s="15"/>
       <c r="E309" s="15"/>
-      <c r="F309" s="56"/>
+      <c r="F309" s="54"/>
       <c r="G309" s="15"/>
       <c r="H309" s="15"/>
       <c r="I309" s="2"/>
@@ -8534,7 +8562,7 @@
       <c r="C310" s="15"/>
       <c r="D310" s="15"/>
       <c r="E310" s="15"/>
-      <c r="F310" s="56"/>
+      <c r="F310" s="54"/>
       <c r="G310" s="15"/>
       <c r="H310" s="15"/>
       <c r="I310" s="2"/>
@@ -8551,7 +8579,7 @@
       <c r="C311" s="15"/>
       <c r="D311" s="15"/>
       <c r="E311" s="15"/>
-      <c r="F311" s="56"/>
+      <c r="F311" s="54"/>
       <c r="G311" s="15"/>
       <c r="H311" s="15"/>
       <c r="I311" s="2"/>
@@ -8568,7 +8596,7 @@
       <c r="C312" s="15"/>
       <c r="D312" s="15"/>
       <c r="E312" s="15"/>
-      <c r="F312" s="56"/>
+      <c r="F312" s="54"/>
       <c r="G312" s="15"/>
       <c r="H312" s="15"/>
       <c r="I312" s="2"/>
@@ -8585,7 +8613,7 @@
       <c r="C313" s="15"/>
       <c r="D313" s="15"/>
       <c r="E313" s="15"/>
-      <c r="F313" s="56"/>
+      <c r="F313" s="54"/>
       <c r="G313" s="15"/>
       <c r="H313" s="15"/>
       <c r="I313" s="2"/>
@@ -8602,7 +8630,7 @@
       <c r="C314" s="15"/>
       <c r="D314" s="15"/>
       <c r="E314" s="15"/>
-      <c r="F314" s="56"/>
+      <c r="F314" s="54"/>
       <c r="G314" s="15"/>
       <c r="H314" s="15"/>
       <c r="I314" s="2"/>
@@ -8619,7 +8647,7 @@
       <c r="C315" s="15"/>
       <c r="D315" s="15"/>
       <c r="E315" s="15"/>
-      <c r="F315" s="56"/>
+      <c r="F315" s="54"/>
       <c r="G315" s="15"/>
       <c r="H315" s="15"/>
       <c r="I315" s="2"/>
@@ -8636,7 +8664,7 @@
       <c r="C316" s="15"/>
       <c r="D316" s="15"/>
       <c r="E316" s="15"/>
-      <c r="F316" s="56"/>
+      <c r="F316" s="54"/>
       <c r="G316" s="15"/>
       <c r="H316" s="15"/>
       <c r="I316" s="2"/>
@@ -8653,7 +8681,7 @@
       <c r="C317" s="15"/>
       <c r="D317" s="15"/>
       <c r="E317" s="15"/>
-      <c r="F317" s="56"/>
+      <c r="F317" s="54"/>
       <c r="G317" s="15"/>
       <c r="H317" s="15"/>
       <c r="I317" s="2"/>
@@ -8670,7 +8698,7 @@
       <c r="C318" s="15"/>
       <c r="D318" s="15"/>
       <c r="E318" s="15"/>
-      <c r="F318" s="56"/>
+      <c r="F318" s="54"/>
       <c r="G318" s="15"/>
       <c r="H318" s="15"/>
       <c r="I318" s="2"/>
@@ -8687,7 +8715,7 @@
       <c r="C319" s="15"/>
       <c r="D319" s="15"/>
       <c r="E319" s="15"/>
-      <c r="F319" s="56"/>
+      <c r="F319" s="54"/>
       <c r="G319" s="15"/>
       <c r="H319" s="15"/>
       <c r="I319" s="2"/>
@@ -8704,7 +8732,7 @@
       <c r="C320" s="15"/>
       <c r="D320" s="15"/>
       <c r="E320" s="15"/>
-      <c r="F320" s="56"/>
+      <c r="F320" s="54"/>
       <c r="G320" s="15"/>
       <c r="H320" s="15"/>
       <c r="I320" s="2"/>
@@ -8721,7 +8749,7 @@
       <c r="C321" s="15"/>
       <c r="D321" s="15"/>
       <c r="E321" s="15"/>
-      <c r="F321" s="56"/>
+      <c r="F321" s="54"/>
       <c r="G321" s="15"/>
       <c r="H321" s="15"/>
       <c r="I321" s="2"/>
@@ -8738,7 +8766,7 @@
       <c r="C322" s="15"/>
       <c r="D322" s="15"/>
       <c r="E322" s="15"/>
-      <c r="F322" s="56"/>
+      <c r="F322" s="54"/>
       <c r="G322" s="15"/>
       <c r="H322" s="15"/>
       <c r="I322" s="2"/>
@@ -8755,7 +8783,7 @@
       <c r="C323" s="15"/>
       <c r="D323" s="15"/>
       <c r="E323" s="15"/>
-      <c r="F323" s="56"/>
+      <c r="F323" s="54"/>
       <c r="G323" s="15"/>
       <c r="H323" s="15"/>
       <c r="I323" s="2"/>
@@ -8772,7 +8800,7 @@
       <c r="C324" s="15"/>
       <c r="D324" s="15"/>
       <c r="E324" s="15"/>
-      <c r="F324" s="56"/>
+      <c r="F324" s="54"/>
       <c r="G324" s="15"/>
       <c r="H324" s="15"/>
       <c r="I324" s="2"/>
@@ -8789,7 +8817,7 @@
       <c r="C325" s="15"/>
       <c r="D325" s="15"/>
       <c r="E325" s="15"/>
-      <c r="F325" s="56"/>
+      <c r="F325" s="54"/>
       <c r="G325" s="15"/>
       <c r="H325" s="15"/>
       <c r="I325" s="2"/>
@@ -8806,7 +8834,7 @@
       <c r="C326" s="15"/>
       <c r="D326" s="15"/>
       <c r="E326" s="15"/>
-      <c r="F326" s="56"/>
+      <c r="F326" s="54"/>
       <c r="G326" s="15"/>
       <c r="H326" s="15"/>
       <c r="I326" s="2"/>
@@ -8823,7 +8851,7 @@
       <c r="C327" s="15"/>
       <c r="D327" s="15"/>
       <c r="E327" s="15"/>
-      <c r="F327" s="56"/>
+      <c r="F327" s="54"/>
       <c r="G327" s="15"/>
       <c r="H327" s="15"/>
       <c r="I327" s="2"/>
@@ -8840,7 +8868,7 @@
       <c r="C328" s="15"/>
       <c r="D328" s="15"/>
       <c r="E328" s="15"/>
-      <c r="F328" s="56"/>
+      <c r="F328" s="54"/>
       <c r="G328" s="15"/>
       <c r="H328" s="15"/>
       <c r="I328" s="2"/>
@@ -8857,7 +8885,7 @@
       <c r="C329" s="15"/>
       <c r="D329" s="15"/>
       <c r="E329" s="15"/>
-      <c r="F329" s="56"/>
+      <c r="F329" s="54"/>
       <c r="G329" s="15"/>
       <c r="H329" s="15"/>
       <c r="I329" s="2"/>
@@ -8874,7 +8902,7 @@
       <c r="C330" s="15"/>
       <c r="D330" s="15"/>
       <c r="E330" s="15"/>
-      <c r="F330" s="56"/>
+      <c r="F330" s="54"/>
       <c r="G330" s="15"/>
       <c r="H330" s="15"/>
       <c r="I330" s="2"/>
@@ -8891,7 +8919,7 @@
       <c r="C331" s="15"/>
       <c r="D331" s="15"/>
       <c r="E331" s="15"/>
-      <c r="F331" s="56"/>
+      <c r="F331" s="54"/>
       <c r="G331" s="15"/>
       <c r="H331" s="15"/>
       <c r="I331" s="2"/>
@@ -8908,7 +8936,7 @@
       <c r="C332" s="15"/>
       <c r="D332" s="15"/>
       <c r="E332" s="15"/>
-      <c r="F332" s="56"/>
+      <c r="F332" s="54"/>
       <c r="G332" s="15"/>
       <c r="H332" s="15"/>
       <c r="I332" s="2"/>
@@ -8925,7 +8953,7 @@
       <c r="C333" s="15"/>
       <c r="D333" s="15"/>
       <c r="E333" s="15"/>
-      <c r="F333" s="56"/>
+      <c r="F333" s="54"/>
       <c r="G333" s="15"/>
       <c r="H333" s="15"/>
       <c r="I333" s="2"/>
@@ -8942,7 +8970,7 @@
       <c r="C334" s="15"/>
       <c r="D334" s="15"/>
       <c r="E334" s="15"/>
-      <c r="F334" s="56"/>
+      <c r="F334" s="54"/>
       <c r="G334" s="15"/>
       <c r="H334" s="15"/>
       <c r="I334" s="2"/>
@@ -8959,7 +8987,7 @@
       <c r="C335" s="15"/>
       <c r="D335" s="15"/>
       <c r="E335" s="15"/>
-      <c r="F335" s="56"/>
+      <c r="F335" s="54"/>
       <c r="G335" s="15"/>
       <c r="H335" s="15"/>
       <c r="I335" s="2"/>
@@ -8976,7 +9004,7 @@
       <c r="C336" s="15"/>
       <c r="D336" s="15"/>
       <c r="E336" s="15"/>
-      <c r="F336" s="56"/>
+      <c r="F336" s="54"/>
       <c r="G336" s="15"/>
       <c r="H336" s="15"/>
       <c r="I336" s="2"/>
@@ -8993,7 +9021,7 @@
       <c r="C337" s="15"/>
       <c r="D337" s="15"/>
       <c r="E337" s="15"/>
-      <c r="F337" s="56"/>
+      <c r="F337" s="54"/>
       <c r="G337" s="15"/>
       <c r="H337" s="15"/>
       <c r="I337" s="2"/>
@@ -9010,7 +9038,7 @@
       <c r="C338" s="15"/>
       <c r="D338" s="15"/>
       <c r="E338" s="15"/>
-      <c r="F338" s="56"/>
+      <c r="F338" s="54"/>
       <c r="G338" s="15"/>
       <c r="H338" s="15"/>
       <c r="I338" s="2"/>
@@ -9027,7 +9055,7 @@
       <c r="C339" s="15"/>
       <c r="D339" s="15"/>
       <c r="E339" s="15"/>
-      <c r="F339" s="56"/>
+      <c r="F339" s="54"/>
       <c r="G339" s="15"/>
       <c r="H339" s="15"/>
       <c r="I339" s="2"/>
@@ -9044,7 +9072,7 @@
       <c r="C340" s="15"/>
       <c r="D340" s="15"/>
       <c r="E340" s="15"/>
-      <c r="F340" s="56"/>
+      <c r="F340" s="54"/>
       <c r="G340" s="15"/>
       <c r="H340" s="15"/>
       <c r="I340" s="2"/>
@@ -9061,7 +9089,7 @@
       <c r="C341" s="15"/>
       <c r="D341" s="15"/>
       <c r="E341" s="15"/>
-      <c r="F341" s="56"/>
+      <c r="F341" s="54"/>
       <c r="G341" s="15"/>
       <c r="H341" s="15"/>
       <c r="I341" s="2"/>
@@ -9078,7 +9106,7 @@
       <c r="C342" s="15"/>
       <c r="D342" s="15"/>
       <c r="E342" s="15"/>
-      <c r="F342" s="56"/>
+      <c r="F342" s="54"/>
       <c r="G342" s="15"/>
       <c r="H342" s="15"/>
       <c r="I342" s="2"/>
@@ -9095,7 +9123,7 @@
       <c r="C343" s="15"/>
       <c r="D343" s="15"/>
       <c r="E343" s="15"/>
-      <c r="F343" s="56"/>
+      <c r="F343" s="54"/>
       <c r="G343" s="15"/>
       <c r="H343" s="15"/>
       <c r="I343" s="2"/>
@@ -9112,7 +9140,7 @@
       <c r="C344" s="15"/>
       <c r="D344" s="15"/>
       <c r="E344" s="15"/>
-      <c r="F344" s="56"/>
+      <c r="F344" s="54"/>
       <c r="G344" s="15"/>
       <c r="H344" s="15"/>
       <c r="I344" s="2"/>
@@ -9129,7 +9157,7 @@
       <c r="C345" s="15"/>
       <c r="D345" s="15"/>
       <c r="E345" s="15"/>
-      <c r="F345" s="56"/>
+      <c r="F345" s="54"/>
       <c r="G345" s="15"/>
       <c r="H345" s="15"/>
       <c r="I345" s="2"/>
@@ -9146,7 +9174,7 @@
       <c r="C346" s="15"/>
       <c r="D346" s="15"/>
       <c r="E346" s="15"/>
-      <c r="F346" s="56"/>
+      <c r="F346" s="54"/>
       <c r="G346" s="15"/>
       <c r="H346" s="15"/>
       <c r="I346" s="2"/>
@@ -9163,7 +9191,7 @@
       <c r="C347" s="15"/>
       <c r="D347" s="15"/>
       <c r="E347" s="15"/>
-      <c r="F347" s="56"/>
+      <c r="F347" s="54"/>
       <c r="G347" s="15"/>
       <c r="H347" s="15"/>
       <c r="I347" s="2"/>
@@ -9180,7 +9208,7 @@
       <c r="C348" s="15"/>
       <c r="D348" s="15"/>
       <c r="E348" s="15"/>
-      <c r="F348" s="56"/>
+      <c r="F348" s="54"/>
       <c r="G348" s="15"/>
       <c r="H348" s="15"/>
       <c r="I348" s="2"/>
@@ -9197,7 +9225,7 @@
       <c r="C349" s="15"/>
       <c r="D349" s="15"/>
       <c r="E349" s="15"/>
-      <c r="F349" s="56"/>
+      <c r="F349" s="54"/>
       <c r="G349" s="15"/>
       <c r="H349" s="15"/>
       <c r="I349" s="2"/>
@@ -9214,7 +9242,7 @@
       <c r="C350" s="15"/>
       <c r="D350" s="15"/>
       <c r="E350" s="15"/>
-      <c r="F350" s="56"/>
+      <c r="F350" s="54"/>
       <c r="G350" s="15"/>
       <c r="H350" s="15"/>
       <c r="I350" s="2"/>
@@ -9231,7 +9259,7 @@
       <c r="C351" s="15"/>
       <c r="D351" s="15"/>
       <c r="E351" s="15"/>
-      <c r="F351" s="56"/>
+      <c r="F351" s="54"/>
       <c r="G351" s="15"/>
       <c r="H351" s="15"/>
       <c r="I351" s="2"/>
@@ -9248,7 +9276,7 @@
       <c r="C352" s="15"/>
       <c r="D352" s="15"/>
       <c r="E352" s="15"/>
-      <c r="F352" s="56"/>
+      <c r="F352" s="54"/>
       <c r="G352" s="15"/>
       <c r="H352" s="15"/>
       <c r="I352" s="2"/>
@@ -9265,7 +9293,7 @@
       <c r="C353" s="15"/>
       <c r="D353" s="15"/>
       <c r="E353" s="15"/>
-      <c r="F353" s="56"/>
+      <c r="F353" s="54"/>
       <c r="G353" s="15"/>
       <c r="H353" s="15"/>
       <c r="I353" s="2"/>
@@ -9282,7 +9310,7 @@
       <c r="C354" s="15"/>
       <c r="D354" s="15"/>
       <c r="E354" s="15"/>
-      <c r="F354" s="56"/>
+      <c r="F354" s="54"/>
       <c r="G354" s="15"/>
       <c r="H354" s="15"/>
       <c r="I354" s="2"/>
@@ -9299,7 +9327,7 @@
       <c r="C355" s="15"/>
       <c r="D355" s="15"/>
       <c r="E355" s="15"/>
-      <c r="F355" s="56"/>
+      <c r="F355" s="54"/>
       <c r="G355" s="15"/>
       <c r="H355" s="15"/>
       <c r="I355" s="2"/>
@@ -9316,7 +9344,7 @@
       <c r="C356" s="15"/>
       <c r="D356" s="15"/>
       <c r="E356" s="15"/>
-      <c r="F356" s="56"/>
+      <c r="F356" s="54"/>
       <c r="G356" s="15"/>
       <c r="H356" s="15"/>
       <c r="I356" s="2"/>
@@ -9333,7 +9361,7 @@
       <c r="C357" s="15"/>
       <c r="D357" s="15"/>
       <c r="E357" s="15"/>
-      <c r="F357" s="56"/>
+      <c r="F357" s="54"/>
       <c r="G357" s="15"/>
       <c r="H357" s="15"/>
       <c r="I357" s="2"/>
@@ -9350,7 +9378,7 @@
       <c r="C358" s="15"/>
       <c r="D358" s="15"/>
       <c r="E358" s="15"/>
-      <c r="F358" s="56"/>
+      <c r="F358" s="54"/>
       <c r="G358" s="15"/>
       <c r="H358" s="15"/>
       <c r="I358" s="2"/>
@@ -9367,7 +9395,7 @@
       <c r="C359" s="15"/>
       <c r="D359" s="15"/>
       <c r="E359" s="15"/>
-      <c r="F359" s="56"/>
+      <c r="F359" s="54"/>
       <c r="G359" s="15"/>
       <c r="H359" s="15"/>
       <c r="I359" s="2"/>
@@ -9384,7 +9412,7 @@
       <c r="C360" s="15"/>
       <c r="D360" s="15"/>
       <c r="E360" s="15"/>
-      <c r="F360" s="56"/>
+      <c r="F360" s="54"/>
       <c r="G360" s="15"/>
       <c r="H360" s="15"/>
       <c r="I360" s="2"/>
@@ -9401,7 +9429,7 @@
       <c r="C361" s="15"/>
       <c r="D361" s="15"/>
       <c r="E361" s="15"/>
-      <c r="F361" s="56"/>
+      <c r="F361" s="54"/>
       <c r="G361" s="15"/>
       <c r="H361" s="15"/>
       <c r="I361" s="2"/>
@@ -9418,7 +9446,7 @@
       <c r="C362" s="15"/>
       <c r="D362" s="15"/>
       <c r="E362" s="15"/>
-      <c r="F362" s="56"/>
+      <c r="F362" s="54"/>
       <c r="G362" s="15"/>
       <c r="H362" s="15"/>
       <c r="I362" s="2"/>
@@ -9435,7 +9463,7 @@
       <c r="C363" s="15"/>
       <c r="D363" s="15"/>
       <c r="E363" s="15"/>
-      <c r="F363" s="56"/>
+      <c r="F363" s="54"/>
       <c r="G363" s="15"/>
       <c r="H363" s="15"/>
       <c r="I363" s="2"/>
@@ -9452,7 +9480,7 @@
       <c r="C364" s="15"/>
       <c r="D364" s="15"/>
       <c r="E364" s="15"/>
-      <c r="F364" s="56"/>
+      <c r="F364" s="54"/>
       <c r="G364" s="15"/>
       <c r="H364" s="15"/>
       <c r="I364" s="2"/>
@@ -9469,7 +9497,7 @@
       <c r="C365" s="15"/>
       <c r="D365" s="15"/>
       <c r="E365" s="15"/>
-      <c r="F365" s="56"/>
+      <c r="F365" s="54"/>
       <c r="G365" s="15"/>
       <c r="H365" s="15"/>
       <c r="I365" s="2"/>
@@ -9486,7 +9514,7 @@
       <c r="C366" s="15"/>
       <c r="D366" s="15"/>
       <c r="E366" s="15"/>
-      <c r="F366" s="56"/>
+      <c r="F366" s="54"/>
       <c r="G366" s="15"/>
       <c r="H366" s="15"/>
       <c r="I366" s="2"/>
@@ -9503,7 +9531,7 @@
       <c r="C367" s="15"/>
       <c r="D367" s="15"/>
       <c r="E367" s="15"/>
-      <c r="F367" s="56"/>
+      <c r="F367" s="54"/>
       <c r="G367" s="15"/>
       <c r="H367" s="15"/>
       <c r="I367" s="2"/>
@@ -9520,7 +9548,7 @@
       <c r="C368" s="15"/>
       <c r="D368" s="15"/>
       <c r="E368" s="15"/>
-      <c r="F368" s="56"/>
+      <c r="F368" s="54"/>
       <c r="G368" s="15"/>
       <c r="H368" s="15"/>
       <c r="I368" s="2"/>
@@ -9537,7 +9565,7 @@
       <c r="C369" s="15"/>
       <c r="D369" s="15"/>
       <c r="E369" s="15"/>
-      <c r="F369" s="56"/>
+      <c r="F369" s="54"/>
       <c r="G369" s="15"/>
       <c r="H369" s="15"/>
       <c r="I369" s="2"/>
@@ -9554,7 +9582,7 @@
       <c r="C370" s="15"/>
       <c r="D370" s="15"/>
       <c r="E370" s="15"/>
-      <c r="F370" s="56"/>
+      <c r="F370" s="54"/>
       <c r="G370" s="15"/>
       <c r="H370" s="15"/>
       <c r="I370" s="2"/>
@@ -9571,7 +9599,7 @@
       <c r="C371" s="15"/>
       <c r="D371" s="15"/>
       <c r="E371" s="15"/>
-      <c r="F371" s="56"/>
+      <c r="F371" s="54"/>
       <c r="G371" s="15"/>
       <c r="H371" s="15"/>
       <c r="I371" s="2"/>
@@ -9588,7 +9616,7 @@
       <c r="C372" s="15"/>
       <c r="D372" s="15"/>
       <c r="E372" s="15"/>
-      <c r="F372" s="56"/>
+      <c r="F372" s="54"/>
       <c r="G372" s="15"/>
       <c r="H372" s="15"/>
       <c r="I372" s="2"/>
@@ -9605,7 +9633,7 @@
       <c r="C373" s="15"/>
       <c r="D373" s="15"/>
       <c r="E373" s="15"/>
-      <c r="F373" s="56"/>
+      <c r="F373" s="54"/>
       <c r="G373" s="15"/>
       <c r="H373" s="15"/>
       <c r="I373" s="2"/>
@@ -9622,7 +9650,7 @@
       <c r="C374" s="15"/>
       <c r="D374" s="15"/>
       <c r="E374" s="15"/>
-      <c r="F374" s="56"/>
+      <c r="F374" s="54"/>
       <c r="G374" s="15"/>
       <c r="H374" s="15"/>
       <c r="I374" s="2"/>
@@ -9639,7 +9667,7 @@
       <c r="C375" s="15"/>
       <c r="D375" s="15"/>
       <c r="E375" s="15"/>
-      <c r="F375" s="56"/>
+      <c r="F375" s="54"/>
       <c r="G375" s="15"/>
       <c r="H375" s="15"/>
       <c r="I375" s="2"/>
@@ -9656,7 +9684,7 @@
       <c r="C376" s="15"/>
       <c r="D376" s="15"/>
       <c r="E376" s="15"/>
-      <c r="F376" s="56"/>
+      <c r="F376" s="54"/>
       <c r="G376" s="15"/>
       <c r="H376" s="15"/>
       <c r="I376" s="2"/>
@@ -9673,7 +9701,7 @@
       <c r="C377" s="15"/>
       <c r="D377" s="15"/>
       <c r="E377" s="15"/>
-      <c r="F377" s="56"/>
+      <c r="F377" s="54"/>
       <c r="G377" s="15"/>
       <c r="H377" s="15"/>
       <c r="I377" s="2"/>
@@ -9690,7 +9718,7 @@
       <c r="C378" s="15"/>
       <c r="D378" s="15"/>
       <c r="E378" s="15"/>
-      <c r="F378" s="56"/>
+      <c r="F378" s="54"/>
       <c r="G378" s="15"/>
       <c r="H378" s="15"/>
       <c r="I378" s="2"/>
@@ -9707,7 +9735,7 @@
       <c r="C379" s="15"/>
       <c r="D379" s="15"/>
       <c r="E379" s="15"/>
-      <c r="F379" s="56"/>
+      <c r="F379" s="54"/>
       <c r="G379" s="15"/>
       <c r="H379" s="15"/>
       <c r="I379" s="2"/>
@@ -9724,7 +9752,7 @@
       <c r="C380" s="15"/>
       <c r="D380" s="15"/>
       <c r="E380" s="15"/>
-      <c r="F380" s="56"/>
+      <c r="F380" s="54"/>
       <c r="G380" s="15"/>
       <c r="H380" s="15"/>
       <c r="I380" s="2"/>
@@ -9741,7 +9769,7 @@
       <c r="C381" s="15"/>
       <c r="D381" s="15"/>
       <c r="E381" s="15"/>
-      <c r="F381" s="56"/>
+      <c r="F381" s="54"/>
       <c r="G381" s="15"/>
       <c r="H381" s="15"/>
       <c r="I381" s="2"/>
@@ -9758,7 +9786,7 @@
       <c r="C382" s="15"/>
       <c r="D382" s="15"/>
       <c r="E382" s="15"/>
-      <c r="F382" s="56"/>
+      <c r="F382" s="54"/>
       <c r="G382" s="15"/>
       <c r="H382" s="15"/>
       <c r="I382" s="2"/>
@@ -9775,7 +9803,7 @@
       <c r="C383" s="15"/>
       <c r="D383" s="15"/>
       <c r="E383" s="15"/>
-      <c r="F383" s="56"/>
+      <c r="F383" s="54"/>
       <c r="G383" s="15"/>
       <c r="H383" s="15"/>
       <c r="I383" s="2"/>
@@ -9792,7 +9820,7 @@
       <c r="C384" s="15"/>
       <c r="D384" s="15"/>
       <c r="E384" s="15"/>
-      <c r="F384" s="56"/>
+      <c r="F384" s="54"/>
       <c r="G384" s="15"/>
       <c r="H384" s="15"/>
       <c r="I384" s="2"/>
@@ -9809,7 +9837,7 @@
       <c r="C385" s="15"/>
       <c r="D385" s="15"/>
       <c r="E385" s="15"/>
-      <c r="F385" s="56"/>
+      <c r="F385" s="54"/>
       <c r="G385" s="15"/>
       <c r="H385" s="15"/>
       <c r="I385" s="2"/>
@@ -9826,7 +9854,7 @@
       <c r="C386" s="15"/>
       <c r="D386" s="15"/>
       <c r="E386" s="15"/>
-      <c r="F386" s="56"/>
+      <c r="F386" s="54"/>
       <c r="G386" s="15"/>
       <c r="H386" s="15"/>
       <c r="I386" s="2"/>
@@ -9843,7 +9871,7 @@
       <c r="C387" s="15"/>
       <c r="D387" s="15"/>
       <c r="E387" s="15"/>
-      <c r="F387" s="56"/>
+      <c r="F387" s="54"/>
       <c r="G387" s="15"/>
       <c r="H387" s="15"/>
       <c r="I387" s="2"/>
@@ -9860,7 +9888,7 @@
       <c r="C388" s="15"/>
       <c r="D388" s="15"/>
       <c r="E388" s="15"/>
-      <c r="F388" s="56"/>
+      <c r="F388" s="54"/>
       <c r="G388" s="15"/>
       <c r="H388" s="15"/>
       <c r="I388" s="2"/>
@@ -9877,7 +9905,7 @@
       <c r="C389" s="15"/>
       <c r="D389" s="15"/>
       <c r="E389" s="15"/>
-      <c r="F389" s="56"/>
+      <c r="F389" s="54"/>
       <c r="G389" s="15"/>
       <c r="H389" s="15"/>
       <c r="I389" s="2"/>
@@ -9894,7 +9922,7 @@
       <c r="C390" s="15"/>
       <c r="D390" s="15"/>
       <c r="E390" s="15"/>
-      <c r="F390" s="56"/>
+      <c r="F390" s="54"/>
       <c r="G390" s="15"/>
       <c r="H390" s="15"/>
       <c r="I390" s="2"/>
@@ -9911,7 +9939,7 @@
       <c r="C391" s="15"/>
       <c r="D391" s="15"/>
       <c r="E391" s="15"/>
-      <c r="F391" s="56"/>
+      <c r="F391" s="54"/>
       <c r="G391" s="15"/>
       <c r="H391" s="15"/>
       <c r="I391" s="2"/>
@@ -9928,7 +9956,7 @@
       <c r="C392" s="15"/>
       <c r="D392" s="15"/>
       <c r="E392" s="15"/>
-      <c r="F392" s="56"/>
+      <c r="F392" s="54"/>
       <c r="G392" s="15"/>
       <c r="H392" s="15"/>
       <c r="I392" s="2"/>
@@ -9945,7 +9973,7 @@
       <c r="C393" s="15"/>
       <c r="D393" s="15"/>
       <c r="E393" s="15"/>
-      <c r="F393" s="56"/>
+      <c r="F393" s="54"/>
       <c r="G393" s="15"/>
       <c r="H393" s="15"/>
       <c r="I393" s="2"/>
@@ -9962,7 +9990,7 @@
       <c r="C394" s="15"/>
       <c r="D394" s="15"/>
       <c r="E394" s="15"/>
-      <c r="F394" s="56"/>
+      <c r="F394" s="54"/>
       <c r="G394" s="15"/>
       <c r="H394" s="15"/>
       <c r="I394" s="2"/>
@@ -9979,7 +10007,7 @@
       <c r="C395" s="15"/>
       <c r="D395" s="15"/>
       <c r="E395" s="15"/>
-      <c r="F395" s="56"/>
+      <c r="F395" s="54"/>
       <c r="G395" s="15"/>
       <c r="H395" s="15"/>
       <c r="I395" s="2"/>
@@ -9996,7 +10024,7 @@
       <c r="C396" s="15"/>
       <c r="D396" s="15"/>
       <c r="E396" s="15"/>
-      <c r="F396" s="56"/>
+      <c r="F396" s="54"/>
       <c r="G396" s="15"/>
       <c r="H396" s="15"/>
       <c r="I396" s="2"/>
@@ -10013,7 +10041,7 @@
       <c r="C397" s="15"/>
       <c r="D397" s="15"/>
       <c r="E397" s="15"/>
-      <c r="F397" s="56"/>
+      <c r="F397" s="54"/>
       <c r="G397" s="15"/>
       <c r="H397" s="15"/>
       <c r="I397" s="2"/>
@@ -10030,7 +10058,7 @@
       <c r="C398" s="15"/>
       <c r="D398" s="15"/>
       <c r="E398" s="15"/>
-      <c r="F398" s="56"/>
+      <c r="F398" s="54"/>
       <c r="G398" s="15"/>
       <c r="H398" s="15"/>
       <c r="I398" s="2"/>
@@ -10047,7 +10075,7 @@
       <c r="C399" s="15"/>
       <c r="D399" s="15"/>
       <c r="E399" s="15"/>
-      <c r="F399" s="56"/>
+      <c r="F399" s="54"/>
       <c r="G399" s="15"/>
       <c r="H399" s="15"/>
       <c r="I399" s="2"/>
@@ -10064,7 +10092,7 @@
       <c r="C400" s="15"/>
       <c r="D400" s="15"/>
       <c r="E400" s="15"/>
-      <c r="F400" s="56"/>
+      <c r="F400" s="54"/>
       <c r="G400" s="15"/>
       <c r="H400" s="15"/>
       <c r="I400" s="2"/>
@@ -10081,7 +10109,7 @@
       <c r="C401" s="15"/>
       <c r="D401" s="15"/>
       <c r="E401" s="15"/>
-      <c r="F401" s="56"/>
+      <c r="F401" s="54"/>
       <c r="G401" s="15"/>
       <c r="H401" s="15"/>
       <c r="I401" s="2"/>
@@ -10098,7 +10126,7 @@
       <c r="C402" s="15"/>
       <c r="D402" s="15"/>
       <c r="E402" s="15"/>
-      <c r="F402" s="56"/>
+      <c r="F402" s="54"/>
       <c r="G402" s="15"/>
       <c r="H402" s="15"/>
       <c r="I402" s="2"/>
@@ -10115,7 +10143,7 @@
       <c r="C403" s="15"/>
       <c r="D403" s="15"/>
       <c r="E403" s="15"/>
-      <c r="F403" s="56"/>
+      <c r="F403" s="54"/>
       <c r="G403" s="15"/>
       <c r="H403" s="15"/>
       <c r="I403" s="2"/>
@@ -10132,7 +10160,7 @@
       <c r="C404" s="15"/>
       <c r="D404" s="15"/>
       <c r="E404" s="15"/>
-      <c r="F404" s="56"/>
+      <c r="F404" s="54"/>
       <c r="G404" s="15"/>
       <c r="H404" s="15"/>
       <c r="I404" s="2"/>
@@ -10149,7 +10177,7 @@
       <c r="C405" s="15"/>
       <c r="D405" s="15"/>
       <c r="E405" s="15"/>
-      <c r="F405" s="56"/>
+      <c r="F405" s="54"/>
       <c r="G405" s="15"/>
       <c r="H405" s="15"/>
       <c r="I405" s="2"/>
@@ -10166,7 +10194,7 @@
       <c r="C406" s="15"/>
       <c r="D406" s="15"/>
       <c r="E406" s="15"/>
-      <c r="F406" s="56"/>
+      <c r="F406" s="54"/>
       <c r="G406" s="15"/>
       <c r="H406" s="15"/>
       <c r="I406" s="2"/>
@@ -10183,7 +10211,7 @@
       <c r="C407" s="15"/>
       <c r="D407" s="15"/>
       <c r="E407" s="15"/>
-      <c r="F407" s="56"/>
+      <c r="F407" s="54"/>
       <c r="G407" s="15"/>
       <c r="H407" s="15"/>
       <c r="I407" s="2"/>
@@ -10200,7 +10228,7 @@
       <c r="C408" s="15"/>
       <c r="D408" s="15"/>
       <c r="E408" s="15"/>
-      <c r="F408" s="56"/>
+      <c r="F408" s="54"/>
       <c r="G408" s="15"/>
       <c r="H408" s="15"/>
       <c r="I408" s="2"/>
@@ -10217,7 +10245,7 @@
       <c r="C409" s="15"/>
       <c r="D409" s="15"/>
       <c r="E409" s="15"/>
-      <c r="F409" s="56"/>
+      <c r="F409" s="54"/>
       <c r="G409" s="15"/>
       <c r="H409" s="15"/>
       <c r="I409" s="2"/>
@@ -10234,7 +10262,7 @@
       <c r="C410" s="15"/>
       <c r="D410" s="15"/>
       <c r="E410" s="15"/>
-      <c r="F410" s="56"/>
+      <c r="F410" s="54"/>
       <c r="G410" s="15"/>
       <c r="H410" s="15"/>
       <c r="I410" s="2"/>
@@ -10251,7 +10279,7 @@
       <c r="C411" s="15"/>
       <c r="D411" s="15"/>
       <c r="E411" s="15"/>
-      <c r="F411" s="56"/>
+      <c r="F411" s="54"/>
       <c r="G411" s="15"/>
       <c r="H411" s="15"/>
       <c r="I411" s="2"/>
@@ -10268,7 +10296,7 @@
       <c r="C412" s="15"/>
       <c r="D412" s="15"/>
       <c r="E412" s="15"/>
-      <c r="F412" s="56"/>
+      <c r="F412" s="54"/>
       <c r="G412" s="15"/>
       <c r="H412" s="15"/>
       <c r="I412" s="2"/>
@@ -10285,7 +10313,7 @@
       <c r="C413" s="15"/>
       <c r="D413" s="15"/>
       <c r="E413" s="15"/>
-      <c r="F413" s="56"/>
+      <c r="F413" s="54"/>
       <c r="G413" s="15"/>
       <c r="H413" s="15"/>
       <c r="I413" s="2"/>
@@ -10302,7 +10330,7 @@
       <c r="C414" s="15"/>
       <c r="D414" s="15"/>
       <c r="E414" s="15"/>
-      <c r="F414" s="56"/>
+      <c r="F414" s="54"/>
       <c r="G414" s="15"/>
       <c r="H414" s="15"/>
       <c r="I414" s="2"/>
@@ -10319,7 +10347,7 @@
       <c r="C415" s="15"/>
       <c r="D415" s="15"/>
       <c r="E415" s="15"/>
-      <c r="F415" s="56"/>
+      <c r="F415" s="54"/>
       <c r="G415" s="15"/>
       <c r="H415" s="15"/>
       <c r="I415" s="2"/>
@@ -10336,7 +10364,7 @@
       <c r="C416" s="15"/>
       <c r="D416" s="15"/>
       <c r="E416" s="15"/>
-      <c r="F416" s="56"/>
+      <c r="F416" s="54"/>
       <c r="G416" s="15"/>
       <c r="H416" s="15"/>
       <c r="I416" s="2"/>
@@ -10353,7 +10381,7 @@
       <c r="C417" s="15"/>
       <c r="D417" s="15"/>
       <c r="E417" s="15"/>
-      <c r="F417" s="56"/>
+      <c r="F417" s="54"/>
       <c r="G417" s="15"/>
       <c r="H417" s="15"/>
       <c r="I417" s="2"/>
@@ -10370,7 +10398,7 @@
       <c r="C418" s="15"/>
       <c r="D418" s="15"/>
       <c r="E418" s="15"/>
-      <c r="F418" s="56"/>
+      <c r="F418" s="54"/>
       <c r="G418" s="15"/>
       <c r="H418" s="15"/>
       <c r="I418" s="2"/>
@@ -10387,7 +10415,7 @@
       <c r="C419" s="15"/>
       <c r="D419" s="15"/>
       <c r="E419" s="15"/>
-      <c r="F419" s="56"/>
+      <c r="F419" s="54"/>
       <c r="G419" s="15"/>
       <c r="H419" s="15"/>
       <c r="I419" s="2"/>
@@ -10404,7 +10432,7 @@
       <c r="C420" s="15"/>
       <c r="D420" s="15"/>
       <c r="E420" s="15"/>
-      <c r="F420" s="56"/>
+      <c r="F420" s="54"/>
       <c r="G420" s="15"/>
       <c r="H420" s="15"/>
       <c r="I420" s="2"/>
@@ -10421,7 +10449,7 @@
       <c r="C421" s="15"/>
       <c r="D421" s="15"/>
       <c r="E421" s="15"/>
-      <c r="F421" s="56"/>
+      <c r="F421" s="54"/>
       <c r="G421" s="15"/>
       <c r="H421" s="15"/>
       <c r="I421" s="2"/>
@@ -10438,7 +10466,7 @@
       <c r="C422" s="15"/>
       <c r="D422" s="15"/>
       <c r="E422" s="15"/>
-      <c r="F422" s="56"/>
+      <c r="F422" s="54"/>
       <c r="G422" s="15"/>
       <c r="H422" s="15"/>
       <c r="I422" s="2"/>
@@ -10455,7 +10483,7 @@
       <c r="C423" s="15"/>
       <c r="D423" s="15"/>
       <c r="E423" s="15"/>
-      <c r="F423" s="56"/>
+      <c r="F423" s="54"/>
       <c r="G423" s="15"/>
       <c r="H423" s="15"/>
       <c r="I423" s="2"/>
@@ -10472,7 +10500,7 @@
       <c r="C424" s="15"/>
       <c r="D424" s="15"/>
       <c r="E424" s="15"/>
-      <c r="F424" s="56"/>
+      <c r="F424" s="54"/>
       <c r="G424" s="15"/>
       <c r="H424" s="15"/>
       <c r="I424" s="2"/>
@@ -10489,7 +10517,7 @@
       <c r="C425" s="15"/>
       <c r="D425" s="15"/>
       <c r="E425" s="15"/>
-      <c r="F425" s="56"/>
+      <c r="F425" s="54"/>
       <c r="G425" s="15"/>
       <c r="H425" s="15"/>
       <c r="I425" s="2"/>
@@ -10506,7 +10534,7 @@
       <c r="C426" s="15"/>
       <c r="D426" s="15"/>
       <c r="E426" s="15"/>
-      <c r="F426" s="56"/>
+      <c r="F426" s="54"/>
       <c r="G426" s="15"/>
       <c r="H426" s="15"/>
       <c r="I426" s="2"/>
@@ -10523,7 +10551,7 @@
       <c r="C427" s="15"/>
       <c r="D427" s="15"/>
       <c r="E427" s="15"/>
-      <c r="F427" s="56"/>
+      <c r="F427" s="54"/>
       <c r="G427" s="15"/>
       <c r="H427" s="15"/>
       <c r="I427" s="2"/>
@@ -10540,7 +10568,7 @@
       <c r="C428" s="15"/>
       <c r="D428" s="15"/>
       <c r="E428" s="15"/>
-      <c r="F428" s="56"/>
+      <c r="F428" s="54"/>
       <c r="G428" s="15"/>
       <c r="H428" s="15"/>
       <c r="I428" s="2"/>
@@ -10557,7 +10585,7 @@
       <c r="C429" s="15"/>
       <c r="D429" s="15"/>
       <c r="E429" s="15"/>
-      <c r="F429" s="56"/>
+      <c r="F429" s="54"/>
       <c r="G429" s="15"/>
       <c r="H429" s="15"/>
       <c r="I429" s="2"/>
@@ -10574,7 +10602,7 @@
       <c r="C430" s="15"/>
       <c r="D430" s="15"/>
       <c r="E430" s="15"/>
-      <c r="F430" s="56"/>
+      <c r="F430" s="54"/>
       <c r="G430" s="15"/>
       <c r="H430" s="15"/>
       <c r="I430" s="2"/>
@@ -10591,7 +10619,7 @@
       <c r="C431" s="15"/>
       <c r="D431" s="15"/>
       <c r="E431" s="15"/>
-      <c r="F431" s="56"/>
+      <c r="F431" s="54"/>
       <c r="G431" s="15"/>
       <c r="H431" s="15"/>
       <c r="I431" s="2"/>
@@ -10608,7 +10636,7 @@
       <c r="C432" s="15"/>
       <c r="D432" s="15"/>
       <c r="E432" s="15"/>
-      <c r="F432" s="56"/>
+      <c r="F432" s="54"/>
       <c r="G432" s="15"/>
       <c r="H432" s="15"/>
       <c r="I432" s="2"/>
@@ -10625,7 +10653,7 @@
       <c r="C433" s="15"/>
       <c r="D433" s="15"/>
       <c r="E433" s="15"/>
-      <c r="F433" s="56"/>
+      <c r="F433" s="54"/>
       <c r="G433" s="15"/>
       <c r="H433" s="15"/>
       <c r="I433" s="2"/>
@@ -10642,7 +10670,7 @@
       <c r="C434" s="15"/>
       <c r="D434" s="15"/>
       <c r="E434" s="15"/>
-      <c r="F434" s="56"/>
+      <c r="F434" s="54"/>
       <c r="G434" s="15"/>
       <c r="H434" s="15"/>
       <c r="I434" s="2"/>
@@ -10659,7 +10687,7 @@
       <c r="C435" s="15"/>
       <c r="D435" s="15"/>
       <c r="E435" s="15"/>
-      <c r="F435" s="56"/>
+      <c r="F435" s="54"/>
       <c r="G435" s="15"/>
       <c r="H435" s="15"/>
       <c r="I435" s="2"/>
@@ -10676,7 +10704,7 @@
       <c r="C436" s="15"/>
       <c r="D436" s="15"/>
       <c r="E436" s="15"/>
-      <c r="F436" s="56"/>
+      <c r="F436" s="54"/>
       <c r="G436" s="15"/>
       <c r="H436" s="15"/>
       <c r="I436" s="2"/>
@@ -10693,7 +10721,7 @@
       <c r="C437" s="15"/>
       <c r="D437" s="15"/>
       <c r="E437" s="15"/>
-      <c r="F437" s="56"/>
+      <c r="F437" s="54"/>
       <c r="G437" s="15"/>
       <c r="H437" s="15"/>
       <c r="I437" s="2"/>
@@ -10710,7 +10738,7 @@
       <c r="C438" s="15"/>
       <c r="D438" s="15"/>
       <c r="E438" s="15"/>
-      <c r="F438" s="56"/>
+      <c r="F438" s="54"/>
       <c r="G438" s="15"/>
       <c r="H438" s="15"/>
       <c r="I438" s="2"/>
@@ -10727,7 +10755,7 @@
       <c r="C439" s="15"/>
       <c r="D439" s="15"/>
       <c r="E439" s="15"/>
-      <c r="F439" s="56"/>
+      <c r="F439" s="54"/>
       <c r="G439" s="15"/>
       <c r="H439" s="15"/>
       <c r="I439" s="2"/>
@@ -10744,7 +10772,7 @@
       <c r="C440" s="15"/>
       <c r="D440" s="15"/>
       <c r="E440" s="15"/>
-      <c r="F440" s="56"/>
+      <c r="F440" s="54"/>
       <c r="G440" s="15"/>
       <c r="H440" s="15"/>
       <c r="I440" s="2"/>
@@ -10761,7 +10789,7 @@
       <c r="C441" s="15"/>
       <c r="D441" s="15"/>
       <c r="E441" s="15"/>
-      <c r="F441" s="56"/>
+      <c r="F441" s="54"/>
       <c r="G441" s="15"/>
       <c r="H441" s="15"/>
       <c r="I441" s="2"/>
@@ -10778,7 +10806,7 @@
       <c r="C442" s="15"/>
       <c r="D442" s="15"/>
       <c r="E442" s="15"/>
-      <c r="F442" s="56"/>
+      <c r="F442" s="54"/>
       <c r="G442" s="15"/>
       <c r="H442" s="15"/>
       <c r="I442" s="2"/>
@@ -10795,7 +10823,7 @@
       <c r="C443" s="15"/>
       <c r="D443" s="15"/>
       <c r="E443" s="15"/>
-      <c r="F443" s="56"/>
+      <c r="F443" s="54"/>
       <c r="G443" s="15"/>
       <c r="H443" s="15"/>
       <c r="I443" s="2"/>
@@ -10812,7 +10840,7 @@
       <c r="C444" s="15"/>
       <c r="D444" s="15"/>
       <c r="E444" s="15"/>
-      <c r="F444" s="56"/>
+      <c r="F444" s="54"/>
       <c r="G444" s="15"/>
       <c r="H444" s="15"/>
       <c r="I444" s="2"/>
@@ -10829,7 +10857,7 @@
       <c r="C445" s="15"/>
       <c r="D445" s="15"/>
       <c r="E445" s="15"/>
-      <c r="F445" s="56"/>
+      <c r="F445" s="54"/>
       <c r="G445" s="15"/>
       <c r="H445" s="15"/>
       <c r="I445" s="2"/>
@@ -10846,7 +10874,7 @@
       <c r="C446" s="15"/>
       <c r="D446" s="15"/>
       <c r="E446" s="15"/>
-      <c r="F446" s="56"/>
+      <c r="F446" s="54"/>
       <c r="G446" s="15"/>
       <c r="H446" s="15"/>
       <c r="I446" s="2"/>
@@ -10863,7 +10891,7 @@
       <c r="C447" s="15"/>
       <c r="D447" s="15"/>
       <c r="E447" s="15"/>
-      <c r="F447" s="56"/>
+      <c r="F447" s="54"/>
       <c r="G447" s="15"/>
       <c r="H447" s="15"/>
       <c r="I447" s="2"/>
@@ -10880,7 +10908,7 @@
       <c r="C448" s="15"/>
       <c r="D448" s="15"/>
       <c r="E448" s="15"/>
-      <c r="F448" s="56"/>
+      <c r="F448" s="54"/>
       <c r="G448" s="15"/>
       <c r="H448" s="15"/>
       <c r="I448" s="2"/>
@@ -10897,7 +10925,7 @@
       <c r="C449" s="15"/>
       <c r="D449" s="15"/>
       <c r="E449" s="15"/>
-      <c r="F449" s="56"/>
+      <c r="F449" s="54"/>
       <c r="G449" s="15"/>
       <c r="H449" s="15"/>
       <c r="I449" s="2"/>
@@ -10914,7 +10942,7 @@
       <c r="C450" s="15"/>
       <c r="D450" s="15"/>
       <c r="E450" s="15"/>
-      <c r="F450" s="56"/>
+      <c r="F450" s="54"/>
       <c r="G450" s="15"/>
       <c r="H450" s="15"/>
       <c r="I450" s="2"/>
@@ -10931,7 +10959,7 @@
       <c r="C451" s="15"/>
       <c r="D451" s="15"/>
       <c r="E451" s="15"/>
-      <c r="F451" s="56"/>
+      <c r="F451" s="54"/>
       <c r="G451" s="15"/>
       <c r="H451" s="15"/>
       <c r="I451" s="2"/>
@@ -10948,7 +10976,7 @@
       <c r="C452" s="15"/>
       <c r="D452" s="15"/>
       <c r="E452" s="15"/>
-      <c r="F452" s="56"/>
+      <c r="F452" s="54"/>
       <c r="G452" s="15"/>
       <c r="H452" s="15"/>
       <c r="I452" s="2"/>
@@ -10965,7 +10993,7 @@
       <c r="C453" s="15"/>
       <c r="D453" s="15"/>
       <c r="E453" s="15"/>
-      <c r="F453" s="56"/>
+      <c r="F453" s="54"/>
       <c r="G453" s="15"/>
       <c r="H453" s="15"/>
       <c r="I453" s="2"/>
@@ -10982,7 +11010,7 @@
       <c r="C454" s="15"/>
       <c r="D454" s="15"/>
       <c r="E454" s="15"/>
-      <c r="F454" s="56"/>
+      <c r="F454" s="54"/>
       <c r="G454" s="15"/>
       <c r="H454" s="15"/>
       <c r="I454" s="2"/>
@@ -10999,7 +11027,7 @@
       <c r="C455" s="15"/>
       <c r="D455" s="15"/>
       <c r="E455" s="15"/>
-      <c r="F455" s="56"/>
+      <c r="F455" s="54"/>
       <c r="G455" s="15"/>
       <c r="H455" s="15"/>
       <c r="I455" s="2"/>
@@ -11016,7 +11044,7 @@
       <c r="C456" s="15"/>
       <c r="D456" s="15"/>
       <c r="E456" s="15"/>
-      <c r="F456" s="56"/>
+      <c r="F456" s="54"/>
       <c r="G456" s="15"/>
       <c r="H456" s="15"/>
       <c r="I456" s="2"/>
@@ -11033,7 +11061,7 @@
       <c r="C457" s="15"/>
       <c r="D457" s="15"/>
       <c r="E457" s="15"/>
-      <c r="F457" s="56"/>
+      <c r="F457" s="54"/>
       <c r="G457" s="15"/>
       <c r="H457" s="15"/>
       <c r="I457" s="2"/>
@@ -11050,7 +11078,7 @@
       <c r="C458" s="15"/>
       <c r="D458" s="15"/>
       <c r="E458" s="15"/>
-      <c r="F458" s="56"/>
+      <c r="F458" s="54"/>
       <c r="G458" s="15"/>
       <c r="H458" s="15"/>
       <c r="I458" s="2"/>
@@ -11067,7 +11095,7 @@
       <c r="C459" s="15"/>
       <c r="D459" s="15"/>
       <c r="E459" s="15"/>
-      <c r="F459" s="56"/>
+      <c r="F459" s="54"/>
       <c r="G459" s="15"/>
       <c r="H459" s="15"/>
       <c r="I459" s="2"/>
@@ -11084,7 +11112,7 @@
       <c r="C460" s="15"/>
       <c r="D460" s="15"/>
       <c r="E460" s="15"/>
-      <c r="F460" s="56"/>
+      <c r="F460" s="54"/>
       <c r="G460" s="15"/>
       <c r="H460" s="15"/>
       <c r="I460" s="2"/>
@@ -11101,7 +11129,7 @@
       <c r="C461" s="15"/>
       <c r="D461" s="15"/>
       <c r="E461" s="15"/>
-      <c r="F461" s="56"/>
+      <c r="F461" s="54"/>
       <c r="G461" s="15"/>
       <c r="H461" s="15"/>
       <c r="I461" s="2"/>
@@ -11118,7 +11146,7 @@
       <c r="C462" s="15"/>
       <c r="D462" s="15"/>
       <c r="E462" s="15"/>
-      <c r="F462" s="56"/>
+      <c r="F462" s="54"/>
       <c r="G462" s="15"/>
       <c r="H462" s="15"/>
       <c r="I462" s="2"/>
@@ -11135,7 +11163,7 @@
       <c r="C463" s="15"/>
       <c r="D463" s="15"/>
       <c r="E463" s="15"/>
-      <c r="F463" s="56"/>
+      <c r="F463" s="54"/>
       <c r="G463" s="15"/>
       <c r="H463" s="15"/>
       <c r="I463" s="2"/>
@@ -11152,7 +11180,7 @@
       <c r="C464" s="15"/>
       <c r="D464" s="15"/>
       <c r="E464" s="15"/>
-      <c r="F464" s="56"/>
+      <c r="F464" s="54"/>
       <c r="G464" s="15"/>
       <c r="H464" s="15"/>
       <c r="I464" s="2"/>
@@ -11169,7 +11197,7 @@
       <c r="C465" s="15"/>
       <c r="D465" s="15"/>
       <c r="E465" s="15"/>
-      <c r="F465" s="56"/>
+      <c r="F465" s="54"/>
       <c r="G465" s="15"/>
       <c r="H465" s="15"/>
       <c r="I465" s="2"/>
@@ -11186,7 +11214,7 @@
       <c r="C466" s="15"/>
       <c r="D466" s="15"/>
       <c r="E466" s="15"/>
-      <c r="F466" s="56"/>
+      <c r="F466" s="54"/>
       <c r="G466" s="15"/>
       <c r="H466" s="15"/>
       <c r="I466" s="2"/>
@@ -11203,7 +11231,7 @@
       <c r="C467" s="15"/>
       <c r="D467" s="15"/>
       <c r="E467" s="15"/>
-      <c r="F467" s="56"/>
+      <c r="F467" s="54"/>
       <c r="G467" s="15"/>
       <c r="H467" s="15"/>
       <c r="I467" s="2"/>
@@ -11220,7 +11248,7 @@
       <c r="C468" s="15"/>
       <c r="D468" s="15"/>
       <c r="E468" s="15"/>
-      <c r="F468" s="56"/>
+      <c r="F468" s="54"/>
       <c r="G468" s="15"/>
       <c r="H468" s="15"/>
       <c r="I468" s="2"/>
@@ -11237,7 +11265,7 @@
       <c r="C469" s="15"/>
       <c r="D469" s="15"/>
       <c r="E469" s="15"/>
-      <c r="F469" s="56"/>
+      <c r="F469" s="54"/>
       <c r="G469" s="15"/>
       <c r="H469" s="15"/>
       <c r="I469" s="2"/>
@@ -11254,7 +11282,7 @@
       <c r="C470" s="15"/>
       <c r="D470" s="15"/>
       <c r="E470" s="15"/>
-      <c r="F470" s="56"/>
+      <c r="F470" s="54"/>
       <c r="G470" s="15"/>
       <c r="H470" s="15"/>
       <c r="I470" s="2"/>
@@ -11271,7 +11299,7 @@
       <c r="C471" s="15"/>
       <c r="D471" s="15"/>
       <c r="E471" s="15"/>
-      <c r="F471" s="56"/>
+      <c r="F471" s="54"/>
       <c r="G471" s="15"/>
       <c r="H471" s="15"/>
       <c r="I471" s="2"/>
@@ -11288,7 +11316,7 @@
       <c r="C472" s="15"/>
       <c r="D472" s="15"/>
       <c r="E472" s="15"/>
-      <c r="F472" s="56"/>
+      <c r="F472" s="54"/>
       <c r="G472" s="15"/>
       <c r="H472" s="15"/>
       <c r="I472" s="2"/>
@@ -11305,7 +11333,7 @@
       <c r="C473" s="15"/>
       <c r="D473" s="15"/>
       <c r="E473" s="15"/>
-      <c r="F473" s="56"/>
+      <c r="F473" s="54"/>
       <c r="G473" s="15"/>
       <c r="H473" s="15"/>
       <c r="I473" s="2"/>
@@ -11322,7 +11350,7 @@
       <c r="C474" s="15"/>
       <c r="D474" s="15"/>
       <c r="E474" s="15"/>
-      <c r="F474" s="56"/>
+      <c r="F474" s="54"/>
       <c r="G474" s="15"/>
       <c r="H474" s="15"/>
       <c r="I474" s="2"/>
@@ -11339,7 +11367,7 @@
       <c r="C475" s="15"/>
       <c r="D475" s="15"/>
       <c r="E475" s="15"/>
-      <c r="F475" s="56"/>
+      <c r="F475" s="54"/>
       <c r="G475" s="15"/>
       <c r="H475" s="15"/>
       <c r="I475" s="2"/>
@@ -11356,7 +11384,7 @@
       <c r="C476" s="15"/>
       <c r="D476" s="15"/>
       <c r="E476" s="15"/>
-      <c r="F476" s="56"/>
+      <c r="F476" s="54"/>
       <c r="G476" s="15"/>
       <c r="H476" s="15"/>
       <c r="I476" s="2"/>
@@ -11373,7 +11401,7 @@
       <c r="C477" s="15"/>
       <c r="D477" s="15"/>
       <c r="E477" s="15"/>
-      <c r="F477" s="56"/>
+      <c r="F477" s="54"/>
       <c r="G477" s="15"/>
       <c r="H477" s="15"/>
       <c r="I477" s="2"/>
@@ -11390,7 +11418,7 @@
       <c r="C478" s="15"/>
       <c r="D478" s="15"/>
       <c r="E478" s="15"/>
-      <c r="F478" s="56"/>
+      <c r="F478" s="54"/>
       <c r="G478" s="15"/>
       <c r="H478" s="15"/>
       <c r="I478" s="2"/>
@@ -11407,7 +11435,7 @@
       <c r="C479" s="15"/>
       <c r="D479" s="15"/>
       <c r="E479" s="15"/>
-      <c r="F479" s="56"/>
+      <c r="F479" s="54"/>
       <c r="G479" s="15"/>
       <c r="H479" s="15"/>
       <c r="I479" s="2"/>
@@ -11424,7 +11452,7 @@
       <c r="C480" s="15"/>
       <c r="D480" s="15"/>
       <c r="E480" s="15"/>
-      <c r="F480" s="56"/>
+      <c r="F480" s="54"/>
       <c r="G480" s="15"/>
       <c r="H480" s="15"/>
       <c r="I480" s="2"/>
@@ -11441,7 +11469,7 @@
       <c r="C481" s="15"/>
       <c r="D481" s="15"/>
       <c r="E481" s="15"/>
-      <c r="F481" s="56"/>
+      <c r="F481" s="54"/>
       <c r="G481" s="15"/>
       <c r="H481" s="15"/>
       <c r="I481" s="2"/>
@@ -11458,7 +11486,7 @@
       <c r="C482" s="15"/>
       <c r="D482" s="15"/>
       <c r="E482" s="15"/>
-      <c r="F482" s="56"/>
+      <c r="F482" s="54"/>
       <c r="G482" s="15"/>
       <c r="H482" s="15"/>
       <c r="I482" s="2"/>
@@ -11475,7 +11503,7 @@
       <c r="C483" s="15"/>
       <c r="D483" s="15"/>
       <c r="E483" s="15"/>
-      <c r="F483" s="56"/>
+      <c r="F483" s="54"/>
       <c r="G483" s="15"/>
       <c r="H483" s="15"/>
       <c r="I483" s="2"/>
@@ -11492,7 +11520,7 @@
       <c r="C484" s="15"/>
       <c r="D484" s="15"/>
       <c r="E484" s="15"/>
-      <c r="F484" s="56"/>
+      <c r="F484" s="54"/>
       <c r="G484" s="15"/>
       <c r="H484" s="15"/>
       <c r="I484" s="2"/>
@@ -11509,7 +11537,7 @@
       <c r="C485" s="15"/>
       <c r="D485" s="15"/>
       <c r="E485" s="15"/>
-      <c r="F485" s="56"/>
+      <c r="F485" s="54"/>
       <c r="G485" s="15"/>
       <c r="H485" s="15"/>
       <c r="I485" s="2"/>
@@ -11526,7 +11554,7 @@
       <c r="C486" s="15"/>
       <c r="D486" s="15"/>
       <c r="E486" s="15"/>
-      <c r="F486" s="56"/>
+      <c r="F486" s="54"/>
       <c r="G486" s="15"/>
       <c r="H486" s="15"/>
       <c r="I486" s="2"/>
@@ -11543,7 +11571,7 @@
       <c r="C487" s="15"/>
       <c r="D487" s="15"/>
       <c r="E487" s="15"/>
-      <c r="F487" s="56"/>
+      <c r="F487" s="54"/>
       <c r="G487" s="15"/>
       <c r="H487" s="15"/>
       <c r="I487" s="2"/>
@@ -11560,7 +11588,7 @@
       <c r="C488" s="15"/>
       <c r="D488" s="15"/>
       <c r="E488" s="15"/>
-      <c r="F488" s="56"/>
+      <c r="F488" s="54"/>
       <c r="G488" s="15"/>
       <c r="H488" s="15"/>
       <c r="I488" s="2"/>
@@ -11577,7 +11605,7 @@
       <c r="C489" s="15"/>
       <c r="D489" s="15"/>
       <c r="E489" s="15"/>
-      <c r="F489" s="56"/>
+      <c r="F489" s="54"/>
       <c r="G489" s="15"/>
       <c r="H489" s="15"/>
       <c r="I489" s="2"/>
@@ -11594,7 +11622,7 @@
       <c r="C490" s="15"/>
       <c r="D490" s="15"/>
       <c r="E490" s="15"/>
-      <c r="F490" s="56"/>
+      <c r="F490" s="54"/>
       <c r="G490" s="15"/>
       <c r="H490" s="15"/>
       <c r="I490" s="2"/>
@@ -11611,7 +11639,7 @@
       <c r="C491" s="15"/>
       <c r="D491" s="15"/>
       <c r="E491" s="15"/>
-      <c r="F491" s="56"/>
+      <c r="F491" s="54"/>
       <c r="G491" s="15"/>
       <c r="H491" s="15"/>
       <c r="I491" s="2"/>
@@ -11628,7 +11656,7 @@
       <c r="C492" s="15"/>
       <c r="D492" s="15"/>
       <c r="E492" s="15"/>
-      <c r="F492" s="56"/>
+      <c r="F492" s="54"/>
       <c r="G492" s="15"/>
       <c r="H492" s="15"/>
       <c r="I492" s="2"/>
@@ -11645,7 +11673,7 @@
       <c r="C493" s="15"/>
       <c r="D493" s="15"/>
       <c r="E493" s="15"/>
-      <c r="F493" s="56"/>
+      <c r="F493" s="54"/>
       <c r="G493" s="15"/>
       <c r="H493" s="15"/>
       <c r="I493" s="2"/>
@@ -11662,7 +11690,7 @@
       <c r="C494" s="15"/>
       <c r="D494" s="15"/>
       <c r="E494" s="15"/>
-      <c r="F494" s="56"/>
+      <c r="F494" s="54"/>
       <c r="G494" s="15"/>
       <c r="H494" s="15"/>
       <c r="I494" s="2"/>
@@ -11679,7 +11707,7 @@
       <c r="C495" s="15"/>
       <c r="D495" s="15"/>
       <c r="E495" s="15"/>
-      <c r="F495" s="56"/>
+      <c r="F495" s="54"/>
       <c r="G495" s="15"/>
       <c r="H495" s="15"/>
       <c r="I495" s="2"/>
@@ -11696,7 +11724,7 @@
       <c r="C496" s="15"/>
       <c r="D496" s="15"/>
       <c r="E496" s="15"/>
-      <c r="F496" s="56"/>
+      <c r="F496" s="54"/>
       <c r="G496" s="15"/>
       <c r="H496" s="15"/>
       <c r="I496" s="2"/>
@@ -11713,7 +11741,7 @@
       <c r="C497" s="15"/>
       <c r="D497" s="15"/>
       <c r="E497" s="15"/>
-      <c r="F497" s="56"/>
+      <c r="F497" s="54"/>
       <c r="G497" s="15"/>
       <c r="H497" s="15"/>
       <c r="I497" s="2"/>
@@ -11730,7 +11758,7 @@
       <c r="C498" s="15"/>
       <c r="D498" s="15"/>
       <c r="E498" s="15"/>
-      <c r="F498" s="56"/>
+      <c r="F498" s="54"/>
       <c r="G498" s="15"/>
       <c r="H498" s="15"/>
       <c r="I498" s="2"/>
@@ -11747,7 +11775,7 @@
       <c r="C499" s="15"/>
       <c r="D499" s="15"/>
       <c r="E499" s="15"/>
-      <c r="F499" s="56"/>
+      <c r="F499" s="54"/>
       <c r="G499" s="15"/>
       <c r="H499" s="15"/>
       <c r="I499" s="2"/>
@@ -11764,7 +11792,7 @@
       <c r="C500" s="15"/>
       <c r="D500" s="15"/>
       <c r="E500" s="15"/>
-      <c r="F500" s="56"/>
+      <c r="F500" s="54"/>
       <c r="G500" s="15"/>
       <c r="H500" s="15"/>
       <c r="I500" s="2"/>
@@ -11781,7 +11809,7 @@
       <c r="C501" s="15"/>
       <c r="D501" s="15"/>
       <c r="E501" s="15"/>
-      <c r="F501" s="56"/>
+      <c r="F501" s="54"/>
       <c r="G501" s="15"/>
       <c r="H501" s="15"/>
       <c r="I501" s="2"/>
@@ -11798,7 +11826,7 @@
       <c r="C502" s="15"/>
       <c r="D502" s="15"/>
       <c r="E502" s="15"/>
-      <c r="F502" s="56"/>
+      <c r="F502" s="54"/>
       <c r="G502" s="15"/>
       <c r="H502" s="15"/>
       <c r="I502" s="2"/>
@@ -11815,7 +11843,7 @@
       <c r="C503" s="15"/>
       <c r="D503" s="15"/>
       <c r="E503" s="15"/>
-      <c r="F503" s="56"/>
+      <c r="F503" s="54"/>
       <c r="G503" s="15"/>
       <c r="H503" s="15"/>
       <c r="I503" s="2"/>
@@ -11832,7 +11860,7 @@
       <c r="C504" s="15"/>
       <c r="D504" s="15"/>
       <c r="E504" s="15"/>
-      <c r="F504" s="56"/>
+      <c r="F504" s="54"/>
       <c r="G504" s="15"/>
       <c r="H504" s="15"/>
       <c r="I504" s="2"/>
@@ -11849,7 +11877,7 @@
       <c r="C505" s="15"/>
       <c r="D505" s="15"/>
       <c r="E505" s="15"/>
-      <c r="F505" s="56"/>
+      <c r="F505" s="54"/>
       <c r="G505" s="15"/>
       <c r="H505" s="15"/>
       <c r="I505" s="2"/>
@@ -11866,7 +11894,7 @@
       <c r="C506" s="15"/>
       <c r="D506" s="15"/>
       <c r="E506" s="15"/>
-      <c r="F506" s="56"/>
+      <c r="F506" s="54"/>
       <c r="G506" s="15"/>
       <c r="H506" s="15"/>
       <c r="I506" s="2"/>
@@ -11883,7 +11911,7 @@
       <c r="C507" s="15"/>
       <c r="D507" s="15"/>
       <c r="E507" s="15"/>
-      <c r="F507" s="56"/>
+      <c r="F507" s="54"/>
       <c r="G507" s="15"/>
       <c r="H507" s="15"/>
       <c r="I507" s="2"/>
@@ -11900,7 +11928,7 @@
       <c r="C508" s="15"/>
       <c r="D508" s="15"/>
       <c r="E508" s="15"/>
-      <c r="F508" s="56"/>
+      <c r="F508" s="54"/>
       <c r="G508" s="15"/>
       <c r="H508" s="15"/>
       <c r="I508" s="2"/>
@@ -11917,7 +11945,7 @@
       <c r="C509" s="15"/>
       <c r="D509" s="15"/>
       <c r="E509" s="15"/>
-      <c r="F509" s="56"/>
+      <c r="F509" s="54"/>
       <c r="G509" s="15"/>
       <c r="H509" s="15"/>
       <c r="I509" s="2"/>
@@ -11934,7 +11962,7 @@
       <c r="C510" s="15"/>
       <c r="D510" s="15"/>
       <c r="E510" s="15"/>
-      <c r="F510" s="56"/>
+      <c r="F510" s="54"/>
       <c r="G510" s="15"/>
       <c r="H510" s="15"/>
       <c r="I510" s="2"/>
@@ -11951,7 +11979,7 @@
       <c r="C511" s="15"/>
       <c r="D511" s="15"/>
       <c r="E511" s="15"/>
-      <c r="F511" s="56"/>
+      <c r="F511" s="54"/>
       <c r="G511" s="15"/>
       <c r="H511" s="15"/>
       <c r="I511" s="2"/>
@@ -11968,7 +11996,7 @@
       <c r="C512" s="15"/>
       <c r="D512" s="15"/>
       <c r="E512" s="15"/>
-      <c r="F512" s="56"/>
+      <c r="F512" s="54"/>
       <c r="G512" s="15"/>
       <c r="H512" s="15"/>
       <c r="I512" s="2"/>
@@ -11985,7 +12013,7 @@
       <c r="C513" s="15"/>
       <c r="D513" s="15"/>
       <c r="E513" s="15"/>
-      <c r="F513" s="56"/>
+      <c r="F513" s="54"/>
       <c r="G513" s="15"/>
       <c r="H513" s="15"/>
       <c r="I513" s="2"/>
@@ -12002,7 +12030,7 @@
       <c r="C514" s="15"/>
       <c r="D514" s="15"/>
       <c r="E514" s="15"/>
-      <c r="F514" s="56"/>
+      <c r="F514" s="54"/>
       <c r="G514" s="15"/>
       <c r="H514" s="15"/>
       <c r="I514" s="2"/>
@@ -12019,7 +12047,7 @@
       <c r="C515" s="15"/>
       <c r="D515" s="15"/>
       <c r="E515" s="15"/>
-      <c r="F515" s="56"/>
+      <c r="F515" s="54"/>
       <c r="G515" s="15"/>
       <c r="H515" s="15"/>
       <c r="I515" s="2"/>
@@ -12036,7 +12064,7 @@
       <c r="C516" s="15"/>
       <c r="D516" s="15"/>
       <c r="E516" s="15"/>
-      <c r="F516" s="56"/>
+      <c r="F516" s="54"/>
       <c r="G516" s="15"/>
       <c r="H516" s="15"/>
       <c r="I516" s="2"/>
@@ -12053,7 +12081,7 @@
       <c r="C517" s="15"/>
       <c r="D517" s="15"/>
       <c r="E517" s="15"/>
-      <c r="F517" s="56"/>
+      <c r="F517" s="54"/>
       <c r="G517" s="15"/>
       <c r="H517" s="15"/>
       <c r="I517" s="2"/>
@@ -12070,7 +12098,7 @@
       <c r="C518" s="15"/>
       <c r="D518" s="15"/>
       <c r="E518" s="15"/>
-      <c r="F518" s="56"/>
+      <c r="F518" s="54"/>
       <c r="G518" s="15"/>
       <c r="H518" s="15"/>
       <c r="I518" s="2"/>
@@ -12087,7 +12115,7 @@
       <c r="C519" s="15"/>
       <c r="D519" s="15"/>
       <c r="E519" s="15"/>
-      <c r="F519" s="56"/>
+      <c r="F519" s="54"/>
       <c r="G519" s="15"/>
       <c r="H519" s="15"/>
       <c r="I519" s="2"/>
@@ -12104,7 +12132,7 @@
       <c r="C520" s="15"/>
       <c r="D520" s="15"/>
       <c r="E520" s="15"/>
-      <c r="F520" s="56"/>
+      <c r="F520" s="54"/>
       <c r="G520" s="15"/>
       <c r="H520" s="15"/>
       <c r="I520" s="2"/>
@@ -12121,7 +12149,7 @@
       <c r="C521" s="15"/>
       <c r="D521" s="15"/>
       <c r="E521" s="15"/>
-      <c r="F521" s="56"/>
+      <c r="F521" s="54"/>
       <c r="G521" s="15"/>
       <c r="H521" s="15"/>
       <c r="I521" s="2"/>
@@ -12138,7 +12166,7 @@
       <c r="C522" s="15"/>
       <c r="D522" s="15"/>
       <c r="E522" s="15"/>
-      <c r="F522" s="56"/>
+      <c r="F522" s="54"/>
       <c r="G522" s="15"/>
       <c r="H522" s="15"/>
       <c r="I522" s="2"/>
@@ -12155,7 +12183,7 @@
       <c r="C523" s="15"/>
       <c r="D523" s="15"/>
       <c r="E523" s="15"/>
-      <c r="F523" s="56"/>
+      <c r="F523" s="54"/>
       <c r="G523" s="15"/>
       <c r="H523" s="15"/>
       <c r="I523" s="2"/>
@@ -12172,7 +12200,7 @@
       <c r="C524" s="15"/>
       <c r="D524" s="15"/>
       <c r="E524" s="15"/>
-      <c r="F524" s="56"/>
+      <c r="F524" s="54"/>
       <c r="G524" s="15"/>
       <c r="H524" s="15"/>
       <c r="I524" s="2"/>
@@ -12189,7 +12217,7 @@
       <c r="C525" s="15"/>
       <c r="D525" s="15"/>
       <c r="E525" s="15"/>
-      <c r="F525" s="56"/>
+      <c r="F525" s="54"/>
       <c r="G525" s="15"/>
       <c r="H525" s="15"/>
       <c r="I525" s="2"/>
@@ -12206,7 +12234,7 @@
       <c r="C526" s="15"/>
       <c r="D526" s="15"/>
       <c r="E526" s="15"/>
-      <c r="F526" s="56"/>
+      <c r="F526" s="54"/>
       <c r="G526" s="15"/>
       <c r="H526" s="15"/>
       <c r="I526" s="2"/>
@@ -12223,7 +12251,7 @@
       <c r="C527" s="15"/>
       <c r="D527" s="15"/>
       <c r="E527" s="15"/>
-      <c r="F527" s="56"/>
+      <c r="F527" s="54"/>
       <c r="G527" s="15"/>
       <c r="H527" s="15"/>
       <c r="I527" s="2"/>
@@ -12240,7 +12268,7 @@
       <c r="C528" s="15"/>
       <c r="D528" s="15"/>
       <c r="E528" s="15"/>
-      <c r="F528" s="56"/>
+      <c r="F528" s="54"/>
       <c r="G528" s="15"/>
       <c r="H528" s="15"/>
       <c r="I528" s="2"/>
@@ -12257,7 +12285,7 @@
       <c r="C529" s="15"/>
       <c r="D529" s="15"/>
       <c r="E529" s="15"/>
-      <c r="F529" s="56"/>
+      <c r="F529" s="54"/>
       <c r="G529" s="15"/>
       <c r="H529" s="15"/>
       <c r="I529" s="2"/>
@@ -12274,7 +12302,7 @@
       <c r="C530" s="15"/>
       <c r="D530" s="15"/>
       <c r="E530" s="15"/>
-      <c r="F530" s="56"/>
+      <c r="F530" s="54"/>
       <c r="G530" s="15"/>
       <c r="H530" s="15"/>
       <c r="I530" s="2"/>
@@ -12291,7 +12319,7 @@
       <c r="C531" s="15"/>
       <c r="D531" s="15"/>
       <c r="E531" s="15"/>
-      <c r="F531" s="56"/>
+      <c r="F531" s="54"/>
       <c r="G531" s="15"/>
       <c r="H531" s="15"/>
       <c r="I531" s="2"/>
@@ -12308,7 +12336,7 @@
       <c r="C532" s="15"/>
       <c r="D532" s="15"/>
       <c r="E532" s="15"/>
-      <c r="F532" s="56"/>
+      <c r="F532" s="54"/>
       <c r="G532" s="15"/>
       <c r="H532" s="15"/>
       <c r="I532" s="2"/>
@@ -12325,7 +12353,7 @@
       <c r="C533" s="15"/>
       <c r="D533" s="15"/>
       <c r="E533" s="15"/>
-      <c r="F533" s="56"/>
+      <c r="F533" s="54"/>
       <c r="G533" s="15"/>
       <c r="H533" s="15"/>
       <c r="I533" s="2"/>
@@ -12342,7 +12370,7 @@
       <c r="C534" s="15"/>
       <c r="D534" s="15"/>
       <c r="E534" s="15"/>
-      <c r="F534" s="56"/>
+      <c r="F534" s="54"/>
       <c r="G534" s="15"/>
       <c r="H534" s="15"/>
       <c r="I534" s="2"/>
@@ -12359,7 +12387,7 @@
       <c r="C535" s="15"/>
       <c r="D535" s="15"/>
       <c r="E535" s="15"/>
-      <c r="F535" s="56"/>
+      <c r="F535" s="54"/>
       <c r="G535" s="15"/>
       <c r="H535" s="15"/>
       <c r="I535" s="2"/>
@@ -12376,7 +12404,7 @@
       <c r="C536" s="15"/>
       <c r="D536" s="15"/>
       <c r="E536" s="15"/>
-      <c r="F536" s="56"/>
+      <c r="F536" s="54"/>
       <c r="G536" s="15"/>
       <c r="H536" s="15"/>
       <c r="I536" s="2"/>
@@ -12393,7 +12421,7 @@
       <c r="C537" s="15"/>
       <c r="D537" s="15"/>
       <c r="E537" s="15"/>
-      <c r="F537" s="56"/>
+      <c r="F537" s="54"/>
       <c r="G537" s="15"/>
       <c r="H537" s="15"/>
       <c r="I537" s="2"/>
@@ -12410,7 +12438,7 @@
       <c r="C538" s="15"/>
       <c r="D538" s="15"/>
       <c r="E538" s="15"/>
-      <c r="F538" s="56"/>
+      <c r="F538" s="54"/>
       <c r="G538" s="15"/>
       <c r="H538" s="15"/>
       <c r="I538" s="2"/>
@@ -12427,7 +12455,7 @@
       <c r="C539" s="15"/>
       <c r="D539" s="15"/>
       <c r="E539" s="15"/>
-      <c r="F539" s="56"/>
+      <c r="F539" s="54"/>
       <c r="G539" s="15"/>
       <c r="H539" s="15"/>
       <c r="I539" s="2"/>
@@ -12444,7 +12472,7 @@
       <c r="C540" s="15"/>
       <c r="D540" s="15"/>
       <c r="E540" s="15"/>
-      <c r="F540" s="56"/>
+      <c r="F540" s="54"/>
       <c r="G540" s="15"/>
       <c r="H540" s="15"/>
       <c r="I540" s="2"/>
@@ -12461,7 +12489,7 @@
       <c r="C541" s="15"/>
       <c r="D541" s="15"/>
       <c r="E541" s="15"/>
-      <c r="F541" s="56"/>
+      <c r="F541" s="54"/>
       <c r="G541" s="15"/>
       <c r="H541" s="15"/>
       <c r="I541" s="2"/>
@@ -12478,7 +12506,7 @@
       <c r="C542" s="15"/>
       <c r="D542" s="15"/>
       <c r="E542" s="15"/>
-      <c r="F542" s="56"/>
+      <c r="F542" s="54"/>
       <c r="G542" s="15"/>
       <c r="H542" s="15"/>
       <c r="I542" s="2"/>
@@ -12495,7 +12523,7 @@
       <c r="C543" s="15"/>
       <c r="D543" s="15"/>
       <c r="E543" s="15"/>
-      <c r="F543" s="56"/>
+      <c r="F543" s="54"/>
       <c r="G543" s="15"/>
       <c r="H543" s="15"/>
       <c r="I543" s="2"/>
@@ -12512,7 +12540,7 @@
       <c r="C544" s="15"/>
       <c r="D544" s="15"/>
       <c r="E544" s="15"/>
-      <c r="F544" s="56"/>
+      <c r="F544" s="54"/>
       <c r="G544" s="15"/>
       <c r="H544" s="15"/>
       <c r="I544" s="2"/>
@@ -12529,7 +12557,7 @@
       <c r="C545" s="15"/>
       <c r="D545" s="15"/>
       <c r="E545" s="15"/>
-      <c r="F545" s="56"/>
+      <c r="F545" s="54"/>
       <c r="G545" s="15"/>
       <c r="H545" s="15"/>
       <c r="I545" s="2"/>
@@ -12546,7 +12574,7 @@
       <c r="C546" s="15"/>
       <c r="D546" s="15"/>
       <c r="E546" s="15"/>
-      <c r="F546" s="56"/>
+      <c r="F546" s="54"/>
       <c r="G546" s="15"/>
       <c r="H546" s="15"/>
       <c r="I546" s="2"/>
@@ -12563,7 +12591,7 @@
       <c r="C547" s="15"/>
       <c r="D547" s="15"/>
       <c r="E547" s="15"/>
-      <c r="F547" s="56"/>
+      <c r="F547" s="54"/>
       <c r="G547" s="15"/>
       <c r="H547" s="15"/>
       <c r="I547" s="2"/>
@@ -12580,7 +12608,7 @@
       <c r="C548" s="15"/>
       <c r="D548" s="15"/>
       <c r="E548" s="15"/>
-      <c r="F548" s="56"/>
+      <c r="F548" s="54"/>
       <c r="G548" s="15"/>
       <c r="H548" s="15"/>
       <c r="I548" s="2"/>
@@ -12597,7 +12625,7 @@
       <c r="C549" s="15"/>
       <c r="D549" s="15"/>
       <c r="E549" s="15"/>
-      <c r="F549" s="56"/>
+      <c r="F549" s="54"/>
       <c r="G549" s="15"/>
       <c r="H549" s="15"/>
       <c r="I549" s="2"/>
@@ -12614,7 +12642,7 @@
       <c r="C550" s="15"/>
       <c r="D550" s="15"/>
       <c r="E550" s="15"/>
-      <c r="F550" s="56"/>
+      <c r="F550" s="54"/>
       <c r="G550" s="15"/>
       <c r="H550" s="15"/>
       <c r="I550" s="2"/>
@@ -12631,7 +12659,7 @@
       <c r="C551" s="15"/>
       <c r="D551" s="15"/>
       <c r="E551" s="15"/>
-      <c r="F551" s="56"/>
+      <c r="F551" s="54"/>
       <c r="G551" s="15"/>
       <c r="H551" s="15"/>
       <c r="I551" s="2"/>
@@ -12648,7 +12676,7 @@
       <c r="C552" s="15"/>
       <c r="D552" s="15"/>
       <c r="E552" s="15"/>
-      <c r="F552" s="56"/>
+      <c r="F552" s="54"/>
       <c r="G552" s="15"/>
       <c r="H552" s="15"/>
       <c r="I552" s="2"/>
@@ -12665,7 +12693,7 @@
       <c r="C553" s="15"/>
       <c r="D553" s="15"/>
       <c r="E553" s="15"/>
-      <c r="F553" s="56"/>
+      <c r="F553" s="54"/>
       <c r="G553" s="15"/>
       <c r="H553" s="15"/>
       <c r="I553" s="2"/>
@@ -12682,7 +12710,7 @@
       <c r="C554" s="15"/>
       <c r="D554" s="15"/>
       <c r="E554" s="15"/>
-      <c r="F554" s="56"/>
+      <c r="F554" s="54"/>
       <c r="G554" s="15"/>
       <c r="H554" s="15"/>
       <c r="I554" s="2"/>
@@ -12699,7 +12727,7 @@
       <c r="C555" s="15"/>
       <c r="D555" s="15"/>
       <c r="E555" s="15"/>
-      <c r="F555" s="56"/>
+      <c r="F555" s="54"/>
       <c r="G555" s="15"/>
       <c r="H555" s="15"/>
       <c r="I555" s="2"/>
@@ -12716,7 +12744,7 @@
       <c r="C556" s="15"/>
       <c r="D556" s="15"/>
       <c r="E556" s="15"/>
-      <c r="F556" s="56"/>
+      <c r="F556" s="54"/>
       <c r="G556" s="15"/>
       <c r="H556" s="15"/>
       <c r="I556" s="2"/>
@@ -12733,7 +12761,7 @@
       <c r="C557" s="15"/>
       <c r="D557" s="15"/>
       <c r="E557" s="15"/>
-      <c r="F557" s="56"/>
+      <c r="F557" s="54"/>
       <c r="G557" s="15"/>
       <c r="H557" s="15"/>
       <c r="I557" s="2"/>
@@ -12750,7 +12778,7 @@
       <c r="C558" s="15"/>
       <c r="D558" s="15"/>
       <c r="E558" s="15"/>
-      <c r="F558" s="56"/>
+      <c r="F558" s="54"/>
       <c r="G558" s="15"/>
       <c r="H558" s="15"/>
       <c r="I558" s="2"/>
@@ -12767,7 +12795,7 @@
       <c r="C559" s="15"/>
       <c r="D559" s="15"/>
       <c r="E559" s="15"/>
-      <c r="F559" s="56"/>
+      <c r="F559" s="54"/>
       <c r="G559" s="15"/>
       <c r="H559" s="15"/>
       <c r="I559" s="2"/>
@@ -12784,7 +12812,7 @@
       <c r="C560" s="15"/>
       <c r="D560" s="15"/>
       <c r="E560" s="15"/>
-      <c r="F560" s="56"/>
+      <c r="F560" s="54"/>
       <c r="G560" s="15"/>
       <c r="H560" s="15"/>
       <c r="I560" s="2"/>
@@ -12801,7 +12829,7 @@
       <c r="C561" s="15"/>
       <c r="D561" s="15"/>
       <c r="E561" s="15"/>
-      <c r="F561" s="56"/>
+      <c r="F561" s="54"/>
       <c r="G561" s="15"/>
       <c r="H561" s="15"/>
       <c r="I561" s="2"/>
@@ -12818,7 +12846,7 @@
       <c r="C562" s="15"/>
       <c r="D562" s="15"/>
       <c r="E562" s="15"/>
-      <c r="F562" s="56"/>
+      <c r="F562" s="54"/>
       <c r="G562" s="15"/>
       <c r="H562" s="15"/>
       <c r="I562" s="2"/>
@@ -12835,7 +12863,7 @@
       <c r="C563" s="15"/>
       <c r="D563" s="15"/>
       <c r="E563" s="15"/>
-      <c r="F563" s="56"/>
+      <c r="F563" s="54"/>
       <c r="G563" s="15"/>
       <c r="H563" s="15"/>
       <c r="I563" s="2"/>
@@ -12852,7 +12880,7 @@
       <c r="C564" s="15"/>
       <c r="D564" s="15"/>
       <c r="E564" s="15"/>
-      <c r="F564" s="56"/>
+      <c r="F564" s="54"/>
       <c r="G564" s="15"/>
       <c r="H564" s="15"/>
       <c r="I564" s="2"/>
@@ -12869,7 +12897,7 @@
       <c r="C565" s="15"/>
       <c r="D565" s="15"/>
       <c r="E565" s="15"/>
-      <c r="F565" s="56"/>
+      <c r="F565" s="54"/>
       <c r="G565" s="15"/>
       <c r="H565" s="15"/>
       <c r="I565" s="2"/>
@@ -12886,7 +12914,7 @@
       <c r="C566" s="15"/>
       <c r="D566" s="15"/>
       <c r="E566" s="15"/>
-      <c r="F566" s="56"/>
+      <c r="F566" s="54"/>
       <c r="G566" s="15"/>
       <c r="H566" s="15"/>
       <c r="I566" s="2"/>
@@ -12903,7 +12931,7 @@
       <c r="C567" s="15"/>
       <c r="D567" s="15"/>
       <c r="E567" s="15"/>
-      <c r="F567" s="56"/>
+      <c r="F567" s="54"/>
       <c r="G567" s="15"/>
       <c r="H567" s="15"/>
       <c r="I567" s="2"/>
@@ -12920,7 +12948,7 @@
       <c r="C568" s="15"/>
       <c r="D568" s="15"/>
       <c r="E568" s="15"/>
-      <c r="F568" s="56"/>
+      <c r="F568" s="54"/>
       <c r="G568" s="15"/>
       <c r="H568" s="15"/>
       <c r="I568" s="2"/>
@@ -12937,7 +12965,7 @@
       <c r="C569" s="15"/>
       <c r="D569" s="15"/>
       <c r="E569" s="15"/>
-      <c r="F569" s="56"/>
+      <c r="F569" s="54"/>
       <c r="G569" s="15"/>
       <c r="H569" s="15"/>
       <c r="I569" s="2"/>
@@ -12954,7 +12982,7 @@
       <c r="C570" s="15"/>
       <c r="D570" s="15"/>
       <c r="E570" s="15"/>
-      <c r="F570" s="56"/>
+      <c r="F570" s="54"/>
       <c r="G570" s="15"/>
       <c r="H570" s="15"/>
       <c r="I570" s="2"/>
@@ -12971,7 +12999,7 @@
       <c r="C571" s="15"/>
       <c r="D571" s="15"/>
       <c r="E571" s="15"/>
-      <c r="F571" s="56"/>
+      <c r="F571" s="54"/>
       <c r="G571" s="15"/>
       <c r="H571" s="15"/>
       <c r="I571" s="2"/>
@@ -12988,7 +13016,7 @@
       <c r="C572" s="15"/>
       <c r="D572" s="15"/>
       <c r="E572" s="15"/>
-      <c r="F572" s="56"/>
+      <c r="F572" s="54"/>
       <c r="G572" s="15"/>
       <c r="H572" s="15"/>
       <c r="I572" s="2"/>
@@ -13005,7 +13033,7 @@
       <c r="C573" s="15"/>
       <c r="D573" s="15"/>
       <c r="E573" s="15"/>
-      <c r="F573" s="56"/>
+      <c r="F573" s="54"/>
       <c r="G573" s="15"/>
       <c r="H573" s="15"/>
       <c r="I573" s="2"/>
@@ -13022,7 +13050,7 @@
       <c r="C574" s="15"/>
       <c r="D574" s="15"/>
       <c r="E574" s="15"/>
-      <c r="F574" s="56"/>
+      <c r="F574" s="54"/>
       <c r="G574" s="15"/>
       <c r="H574" s="15"/>
       <c r="I574" s="2"/>
@@ -13039,7 +13067,7 @@
       <c r="C575" s="15"/>
       <c r="D575" s="15"/>
       <c r="E575" s="15"/>
-      <c r="F575" s="56"/>
+      <c r="F575" s="54"/>
       <c r="G575" s="15"/>
       <c r="H575" s="15"/>
       <c r="I575" s="2"/>
@@ -13056,7 +13084,7 @@
       <c r="C576" s="15"/>
       <c r="D576" s="15"/>
       <c r="E576" s="15"/>
-      <c r="F576" s="56"/>
+      <c r="F576" s="54"/>
       <c r="G576" s="15"/>
       <c r="H576" s="15"/>
       <c r="I576" s="2"/>
@@ -13073,7 +13101,7 @@
       <c r="C577" s="15"/>
       <c r="D577" s="15"/>
       <c r="E577" s="15"/>
-      <c r="F577" s="56"/>
+      <c r="F577" s="54"/>
       <c r="G577" s="15"/>
       <c r="H577" s="15"/>
       <c r="I577" s="2"/>
@@ -13090,7 +13118,7 @@
       <c r="C578" s="15"/>
       <c r="D578" s="15"/>
       <c r="E578" s="15"/>
-      <c r="F578" s="56"/>
+      <c r="F578" s="54"/>
       <c r="G578" s="15"/>
       <c r="H578" s="15"/>
       <c r="I578" s="2"/>
@@ -13107,7 +13135,7 @@
       <c r="C579" s="15"/>
       <c r="D579" s="15"/>
       <c r="E579" s="15"/>
-      <c r="F579" s="56"/>
+      <c r="F579" s="54"/>
       <c r="G579" s="15"/>
       <c r="H579" s="15"/>
       <c r="I579" s="2"/>
@@ -13124,7 +13152,7 @@
       <c r="C580" s="15"/>
       <c r="D580" s="15"/>
       <c r="E580" s="15"/>
-      <c r="F580" s="56"/>
+      <c r="F580" s="54"/>
       <c r="G580" s="15"/>
       <c r="H580" s="15"/>
       <c r="I580" s="2"/>
@@ -13141,7 +13169,7 @@
       <c r="C581" s="15"/>
       <c r="D581" s="15"/>
       <c r="E581" s="15"/>
-      <c r="F581" s="56"/>
+      <c r="F581" s="54"/>
       <c r="G581" s="15"/>
       <c r="H581" s="15"/>
       <c r="I581" s="2"/>
@@ -13158,7 +13186,7 @@
       <c r="C582" s="15"/>
       <c r="D582" s="15"/>
       <c r="E582" s="15"/>
-      <c r="F582" s="56"/>
+      <c r="F582" s="54"/>
       <c r="G582" s="15"/>
       <c r="H582" s="15"/>
       <c r="I582" s="2"/>
@@ -13175,7 +13203,7 @@
       <c r="C583" s="15"/>
       <c r="D583" s="15"/>
       <c r="E583" s="15"/>
-      <c r="F583" s="56"/>
+      <c r="F583" s="54"/>
       <c r="G583" s="15"/>
       <c r="H583" s="15"/>
       <c r="I583" s="2"/>
@@ -13192,7 +13220,7 @@
       <c r="C584" s="15"/>
       <c r="D584" s="15"/>
       <c r="E584" s="15"/>
-      <c r="F584" s="56"/>
+      <c r="F584" s="54"/>
       <c r="G584" s="15"/>
       <c r="H584" s="15"/>
       <c r="I584" s="2"/>
@@ -13209,7 +13237,7 @@
       <c r="C585" s="15"/>
       <c r="D585" s="15"/>
       <c r="E585" s="15"/>
-      <c r="F585" s="56"/>
+      <c r="F585" s="54"/>
       <c r="G585" s="15"/>
       <c r="H585" s="15"/>
       <c r="I585" s="2"/>
@@ -13226,7 +13254,7 @@
       <c r="C586" s="15"/>
       <c r="D586" s="15"/>
       <c r="E586" s="15"/>
-      <c r="F586" s="56"/>
+      <c r="F586" s="54"/>
       <c r="G586" s="15"/>
       <c r="H586" s="15"/>
       <c r="I586" s="2"/>
@@ -13243,7 +13271,7 @@
       <c r="C587" s="15"/>
       <c r="D587" s="15"/>
       <c r="E587" s="15"/>
-      <c r="F587" s="56"/>
+      <c r="F587" s="54"/>
       <c r="G587" s="15"/>
       <c r="H587" s="15"/>
       <c r="I587" s="2"/>
@@ -13260,7 +13288,7 @@
       <c r="C588" s="15"/>
       <c r="D588" s="15"/>
       <c r="E588" s="15"/>
-      <c r="F588" s="56"/>
+      <c r="F588" s="54"/>
       <c r="G588" s="15"/>
       <c r="H588" s="15"/>
       <c r="I588" s="2"/>
@@ -13277,7 +13305,7 @@
       <c r="C589" s="15"/>
       <c r="D589" s="15"/>
       <c r="E589" s="15"/>
-      <c r="F589" s="56"/>
+      <c r="F589" s="54"/>
       <c r="G589" s="15"/>
       <c r="H589" s="15"/>
       <c r="I589" s="2"/>
@@ -13294,7 +13322,7 @@
       <c r="C590" s="15"/>
       <c r="D590" s="15"/>
       <c r="E590" s="15"/>
-      <c r="F590" s="56"/>
+      <c r="F590" s="54"/>
       <c r="G590" s="15"/>
       <c r="H590" s="15"/>
       <c r="I590" s="2"/>
@@ -13311,7 +13339,7 @@
       <c r="C591" s="15"/>
       <c r="D591" s="15"/>
       <c r="E591" s="15"/>
-      <c r="F591" s="56"/>
+      <c r="F591" s="54"/>
       <c r="G591" s="15"/>
       <c r="H591" s="15"/>
       <c r="I591" s="2"/>
@@ -13328,7 +13356,7 @@
       <c r="C592" s="15"/>
       <c r="D592" s="15"/>
       <c r="E592" s="15"/>
-      <c r="F592" s="56"/>
+      <c r="F592" s="54"/>
       <c r="G592" s="15"/>
       <c r="H592" s="15"/>
       <c r="I592" s="2"/>
@@ -13345,7 +13373,7 @@
       <c r="C593" s="15"/>
       <c r="D593" s="15"/>
       <c r="E593" s="15"/>
-      <c r="F593" s="56"/>
+      <c r="F593" s="54"/>
       <c r="G593" s="15"/>
       <c r="H593" s="15"/>
       <c r="I593" s="2"/>
@@ -13362,7 +13390,7 @@
       <c r="C594" s="15"/>
       <c r="D594" s="15"/>
       <c r="E594" s="15"/>
-      <c r="F594" s="56"/>
+      <c r="F594" s="54"/>
       <c r="G594" s="15"/>
       <c r="H594" s="15"/>
       <c r="I594" s="2"/>
@@ -13379,7 +13407,7 @@
       <c r="C595" s="15"/>
       <c r="D595" s="15"/>
       <c r="E595" s="15"/>
-      <c r="F595" s="56"/>
+      <c r="F595" s="54"/>
       <c r="G595" s="15"/>
       <c r="H595" s="15"/>
       <c r="I595" s="2"/>
@@ -13396,7 +13424,7 @@
       <c r="C596" s="15"/>
       <c r="D596" s="15"/>
       <c r="E596" s="15"/>
-      <c r="F596" s="56"/>
+      <c r="F596" s="54"/>
       <c r="G596" s="15"/>
       <c r="H596" s="15"/>
       <c r="I596" s="2"/>
@@ -13413,7 +13441,7 @@
       <c r="C597" s="15"/>
       <c r="D597" s="15"/>
       <c r="E597" s="15"/>
-      <c r="F597" s="56"/>
+      <c r="F597" s="54"/>
       <c r="G597" s="15"/>
       <c r="H597" s="15"/>
       <c r="I597" s="2"/>
@@ -13430,7 +13458,7 @@
       <c r="C598" s="15"/>
       <c r="D598" s="15"/>
       <c r="E598" s="15"/>
-      <c r="F598" s="56"/>
+      <c r="F598" s="54"/>
       <c r="G598" s="15"/>
       <c r="H598" s="15"/>
       <c r="I598" s="2"/>
@@ -13447,7 +13475,7 @@
       <c r="C599" s="15"/>
       <c r="D599" s="15"/>
       <c r="E599" s="15"/>
-      <c r="F599" s="56"/>
+      <c r="F599" s="54"/>
       <c r="G599" s="15"/>
       <c r="H599" s="15"/>
       <c r="I599" s="2"/>
@@ -13464,7 +13492,7 @@
       <c r="C600" s="15"/>
       <c r="D600" s="15"/>
       <c r="E600" s="15"/>
-      <c r="F600" s="56"/>
+      <c r="F600" s="54"/>
       <c r="G600" s="15"/>
       <c r="H600" s="15"/>
       <c r="I600" s="2"/>
@@ -13481,7 +13509,7 @@
       <c r="C601" s="15"/>
       <c r="D601" s="15"/>
       <c r="E601" s="15"/>
-      <c r="F601" s="56"/>
+      <c r="F601" s="54"/>
       <c r="G601" s="15"/>
       <c r="H601" s="15"/>
       <c r="I601" s="2"/>
@@ -13498,7 +13526,7 @@
       <c r="C602" s="15"/>
       <c r="D602" s="15"/>
       <c r="E602" s="15"/>
-      <c r="F602" s="56"/>
+      <c r="F602" s="54"/>
       <c r="G602" s="15"/>
       <c r="H602" s="15"/>
       <c r="I602" s="2"/>
@@ -13515,7 +13543,7 @@
       <c r="C603" s="15"/>
       <c r="D603" s="15"/>
       <c r="E603" s="15"/>
-      <c r="F603" s="56"/>
+      <c r="F603" s="54"/>
       <c r="G603" s="15"/>
       <c r="H603" s="15"/>
       <c r="I603" s="2"/>
@@ -13532,7 +13560,7 @@
       <c r="C604" s="15"/>
       <c r="D604" s="15"/>
       <c r="E604" s="15"/>
-      <c r="F604" s="56"/>
+      <c r="F604" s="54"/>
       <c r="G604" s="15"/>
       <c r="H604" s="15"/>
       <c r="I604" s="2"/>
@@ -13549,7 +13577,7 @@
       <c r="C605" s="15"/>
       <c r="D605" s="15"/>
       <c r="E605" s="15"/>
-      <c r="F605" s="56"/>
+      <c r="F605" s="54"/>
       <c r="G605" s="15"/>
       <c r="H605" s="15"/>
       <c r="I605" s="2"/>
@@ -13566,7 +13594,7 @@
       <c r="C606" s="15"/>
       <c r="D606" s="15"/>
       <c r="E606" s="15"/>
-      <c r="F606" s="56"/>
+      <c r="F606" s="54"/>
       <c r="G606" s="15"/>
       <c r="H606" s="15"/>
       <c r="I606" s="2"/>
@@ -13583,7 +13611,7 @@
       <c r="C607" s="15"/>
       <c r="D607" s="15"/>
       <c r="E607" s="15"/>
-      <c r="F607" s="56"/>
+      <c r="F607" s="54"/>
       <c r="G607" s="15"/>
       <c r="H607" s="15"/>
       <c r="I607" s="2"/>
@@ -13600,7 +13628,7 @@
       <c r="C608" s="15"/>
       <c r="D608" s="15"/>
       <c r="E608" s="15"/>
-      <c r="F608" s="56"/>
+      <c r="F608" s="54"/>
       <c r="G608" s="15"/>
       <c r="H608" s="15"/>
       <c r="I608" s="2"/>
@@ -13617,7 +13645,7 @@
       <c r="C609" s="15"/>
       <c r="D609" s="15"/>
       <c r="E609" s="15"/>
-      <c r="F609" s="56"/>
+      <c r="F609" s="54"/>
       <c r="G609" s="15"/>
       <c r="H609" s="15"/>
       <c r="I609" s="2"/>
@@ -13634,7 +13662,7 @@
       <c r="C610" s="15"/>
       <c r="D610" s="15"/>
       <c r="E610" s="15"/>
-      <c r="F610" s="56"/>
+      <c r="F610" s="54"/>
       <c r="G610" s="15"/>
       <c r="H610" s="15"/>
       <c r="I610" s="2"/>
@@ -13651,7 +13679,7 @@
       <c r="C611" s="15"/>
       <c r="D611" s="15"/>
       <c r="E611" s="15"/>
-      <c r="F611" s="56"/>
+      <c r="F611" s="54"/>
       <c r="G611" s="15"/>
       <c r="H611" s="15"/>
       <c r="I611" s="2"/>
@@ -13668,7 +13696,7 @@
       <c r="C612" s="15"/>
       <c r="D612" s="15"/>
       <c r="E612" s="15"/>
-      <c r="F612" s="56"/>
+      <c r="F612" s="54"/>
       <c r="G612" s="15"/>
       <c r="H612" s="15"/>
       <c r="I612" s="2"/>
@@ -13685,7 +13713,7 @@
       <c r="C613" s="15"/>
       <c r="D613" s="15"/>
       <c r="E613" s="15"/>
-      <c r="F613" s="56"/>
+      <c r="F613" s="54"/>
       <c r="G613" s="15"/>
       <c r="H613" s="15"/>
       <c r="I613" s="2"/>
@@ -13702,7 +13730,7 @@
       <c r="C614" s="15"/>
       <c r="D614" s="15"/>
       <c r="E614" s="15"/>
-      <c r="F614" s="56"/>
+      <c r="F614" s="54"/>
       <c r="G614" s="15"/>
       <c r="H614" s="15"/>
       <c r="I614" s="2"/>
@@ -13719,7 +13747,7 @@
       <c r="C615" s="15"/>
       <c r="D615" s="15"/>
       <c r="E615" s="15"/>
-      <c r="F615" s="56"/>
+      <c r="F615" s="54"/>
       <c r="G615" s="15"/>
       <c r="H615" s="15"/>
       <c r="I615" s="2"/>
@@ -13736,7 +13764,7 @@
       <c r="C616" s="15"/>
       <c r="D616" s="15"/>
       <c r="E616" s="15"/>
-      <c r="F616" s="56"/>
+      <c r="F616" s="54"/>
       <c r="G616" s="15"/>
       <c r="H616" s="15"/>
       <c r="I616" s="2"/>
@@ -13753,7 +13781,7 @@
       <c r="C617" s="15"/>
       <c r="D617" s="15"/>
       <c r="E617" s="15"/>
-      <c r="F617" s="56"/>
+      <c r="F617" s="54"/>
       <c r="G617" s="15"/>
       <c r="H617" s="15"/>
       <c r="I617" s="2"/>
@@ -13770,7 +13798,7 @@
       <c r="C618" s="15"/>
       <c r="D618" s="15"/>
       <c r="E618" s="15"/>
-      <c r="F618" s="56"/>
+      <c r="F618" s="54"/>
       <c r="G618" s="15"/>
       <c r="H618" s="15"/>
       <c r="I618" s="2"/>
@@ -13787,7 +13815,7 @@
       <c r="C619" s="15"/>
       <c r="D619" s="15"/>
       <c r="E619" s="15"/>
-      <c r="F619" s="56"/>
+      <c r="F619" s="54"/>
       <c r="G619" s="15"/>
       <c r="H619" s="15"/>
       <c r="I619" s="2"/>
@@ -13804,7 +13832,7 @@
       <c r="C620" s="15"/>
       <c r="D620" s="15"/>
       <c r="E620" s="15"/>
-      <c r="F620" s="56"/>
+      <c r="F620" s="54"/>
       <c r="G620" s="15"/>
       <c r="H620" s="15"/>
       <c r="I620" s="2"/>
@@ -13821,7 +13849,7 @@
       <c r="C621" s="15"/>
       <c r="D621" s="15"/>
       <c r="E621" s="15"/>
-      <c r="F621" s="56"/>
+      <c r="F621" s="54"/>
       <c r="G621" s="15"/>
       <c r="H621" s="15"/>
       <c r="I621" s="2"/>
@@ -13838,7 +13866,7 @@
       <c r="C622" s="15"/>
       <c r="D622" s="15"/>
       <c r="E622" s="15"/>
-      <c r="F622" s="56"/>
+      <c r="F622" s="54"/>
       <c r="G622" s="15"/>
       <c r="H622" s="15"/>
       <c r="I622" s="2"/>
@@ -13855,7 +13883,7 @@
       <c r="C623" s="15"/>
       <c r="D623" s="15"/>
       <c r="E623" s="15"/>
-      <c r="F623" s="56"/>
+      <c r="F623" s="54"/>
       <c r="G623" s="15"/>
       <c r="H623" s="15"/>
       <c r="I623" s="2"/>
@@ -13872,7 +13900,7 @@
       <c r="C624" s="15"/>
       <c r="D624" s="15"/>
       <c r="E624" s="15"/>
-      <c r="F624" s="56"/>
+      <c r="F624" s="54"/>
       <c r="G624" s="15"/>
       <c r="H624" s="15"/>
       <c r="I624" s="2"/>
@@ -13889,7 +13917,7 @@
       <c r="C625" s="15"/>
       <c r="D625" s="15"/>
       <c r="E625" s="15"/>
-      <c r="F625" s="56"/>
+      <c r="F625" s="54"/>
       <c r="G625" s="15"/>
       <c r="H625" s="15"/>
       <c r="I625" s="2"/>
@@ -13906,7 +13934,7 @@
       <c r="C626" s="15"/>
       <c r="D626" s="15"/>
       <c r="E626" s="15"/>
-      <c r="F626" s="56"/>
+      <c r="F626" s="54"/>
       <c r="G626" s="15"/>
       <c r="H626" s="15"/>
       <c r="I626" s="2"/>
@@ -13923,7 +13951,7 @@
       <c r="C627" s="15"/>
       <c r="D627" s="15"/>
       <c r="E627" s="15"/>
-      <c r="F627" s="56"/>
+      <c r="F627" s="54"/>
       <c r="G627" s="15"/>
       <c r="H627" s="15"/>
       <c r="I627" s="2"/>
@@ -13940,7 +13968,7 @@
       <c r="C628" s="15"/>
       <c r="D628" s="15"/>
       <c r="E628" s="15"/>
-      <c r="F628" s="56"/>
+      <c r="F628" s="54"/>
       <c r="G628" s="15"/>
       <c r="H628" s="15"/>
       <c r="I628" s="2"/>
@@ -13957,7 +13985,7 @@
       <c r="C629" s="15"/>
       <c r="D629" s="15"/>
       <c r="E629" s="15"/>
-      <c r="F629" s="56"/>
+      <c r="F629" s="54"/>
       <c r="G629" s="15"/>
       <c r="H629" s="15"/>
       <c r="I629" s="2"/>
@@ -13974,7 +14002,7 @@
       <c r="C630" s="15"/>
       <c r="D630" s="15"/>
       <c r="E630" s="15"/>
-      <c r="F630" s="56"/>
+      <c r="F630" s="54"/>
       <c r="G630" s="15"/>
       <c r="H630" s="15"/>
       <c r="I630" s="2"/>
@@ -13991,7 +14019,7 @@
       <c r="C631" s="15"/>
       <c r="D631" s="15"/>
       <c r="E631" s="15"/>
-      <c r="F631" s="56"/>
+      <c r="F631" s="54"/>
       <c r="G631" s="15"/>
       <c r="H631" s="15"/>
       <c r="I631" s="2"/>
@@ -14008,7 +14036,7 @@
       <c r="C632" s="15"/>
       <c r="D632" s="15"/>
       <c r="E632" s="15"/>
-      <c r="F632" s="56"/>
+      <c r="F632" s="54"/>
       <c r="G632" s="15"/>
       <c r="H632" s="15"/>
       <c r="I632" s="2"/>
@@ -14025,7 +14053,7 @@
       <c r="C633" s="15"/>
       <c r="D633" s="15"/>
       <c r="E633" s="15"/>
-      <c r="F633" s="56"/>
+      <c r="F633" s="54"/>
       <c r="G633" s="15"/>
       <c r="H633" s="15"/>
       <c r="I633" s="2"/>
@@ -14042,7 +14070,7 @@
       <c r="C634" s="15"/>
       <c r="D634" s="15"/>
       <c r="E634" s="15"/>
-      <c r="F634" s="56"/>
+      <c r="F634" s="54"/>
       <c r="G634" s="15"/>
       <c r="H634" s="15"/>
       <c r="I634" s="2"/>
@@ -14059,7 +14087,7 @@
       <c r="C635" s="15"/>
       <c r="D635" s="15"/>
       <c r="E635" s="15"/>
-      <c r="F635" s="56"/>
+      <c r="F635" s="54"/>
       <c r="G635" s="15"/>
       <c r="H635" s="15"/>
       <c r="I635" s="2"/>
@@ -14076,7 +14104,7 @@
       <c r="C636" s="15"/>
       <c r="D636" s="15"/>
       <c r="E636" s="15"/>
-      <c r="F636" s="56"/>
+      <c r="F636" s="54"/>
       <c r="G636" s="15"/>
       <c r="H636" s="15"/>
       <c r="I636" s="2"/>
@@ -14093,7 +14121,7 @@
       <c r="C637" s="15"/>
       <c r="D637" s="15"/>
       <c r="E637" s="15"/>
-      <c r="F637" s="56"/>
+      <c r="F637" s="54"/>
       <c r="G637" s="15"/>
       <c r="H637" s="15"/>
       <c r="I637" s="2"/>
@@ -14110,7 +14138,7 @@
       <c r="C638" s="15"/>
       <c r="D638" s="15"/>
       <c r="E638" s="15"/>
-      <c r="F638" s="56"/>
+      <c r="F638" s="54"/>
       <c r="G638" s="15"/>
       <c r="H638" s="15"/>
       <c r="I638" s="2"/>
@@ -14127,7 +14155,7 @@
       <c r="C639" s="15"/>
       <c r="D639" s="15"/>
       <c r="E639" s="15"/>
-      <c r="F639" s="56"/>
+      <c r="F639" s="54"/>
       <c r="G639" s="15"/>
       <c r="H639" s="15"/>
       <c r="I639" s="2"/>
@@ -14144,7 +14172,7 @@
       <c r="C640" s="15"/>
       <c r="D640" s="15"/>
       <c r="E640" s="15"/>
-      <c r="F640" s="56"/>
+      <c r="F640" s="54"/>
       <c r="G640" s="15"/>
       <c r="H640" s="15"/>
       <c r="I640" s="2"/>
@@ -14161,7 +14189,7 @@
       <c r="C641" s="15"/>
       <c r="D641" s="15"/>
       <c r="E641" s="15"/>
-      <c r="F641" s="56"/>
+      <c r="F641" s="54"/>
       <c r="G641" s="15"/>
       <c r="H641" s="15"/>
       <c r="I641" s="2"/>
@@ -14178,7 +14206,7 @@
       <c r="C642" s="15"/>
       <c r="D642" s="15"/>
       <c r="E642" s="15"/>
-      <c r="F642" s="56"/>
+      <c r="F642" s="54"/>
       <c r="G642" s="15"/>
       <c r="H642" s="15"/>
       <c r="I642" s="2"/>
@@ -14195,7 +14223,7 @@
       <c r="C643" s="15"/>
       <c r="D643" s="15"/>
       <c r="E643" s="15"/>
-      <c r="F643" s="56"/>
+      <c r="F643" s="54"/>
       <c r="G643" s="15"/>
       <c r="H643" s="15"/>
       <c r="I643" s="2"/>
@@ -14212,7 +14240,7 @@
       <c r="C644" s="15"/>
       <c r="D644" s="15"/>
       <c r="E644" s="15"/>
-      <c r="F644" s="56"/>
+      <c r="F644" s="54"/>
       <c r="G644" s="15"/>
       <c r="H644" s="15"/>
       <c r="I644" s="2"/>
@@ -14229,7 +14257,7 @@
       <c r="C645" s="15"/>
       <c r="D645" s="15"/>
       <c r="E645" s="15"/>
-      <c r="F645" s="56"/>
+      <c r="F645" s="54"/>
       <c r="G645" s="15"/>
       <c r="H645" s="15"/>
       <c r="I645" s="2"/>
@@ -14246,7 +14274,7 @@
       <c r="C646" s="15"/>
       <c r="D646" s="15"/>
       <c r="E646" s="15"/>
-      <c r="F646" s="56"/>
+      <c r="F646" s="54"/>
       <c r="G646" s="15"/>
       <c r="H646" s="15"/>
       <c r="I646" s="2"/>
@@ -14263,7 +14291,7 @@
       <c r="C647" s="15"/>
       <c r="D647" s="15"/>
       <c r="E647" s="15"/>
-      <c r="F647" s="56"/>
+      <c r="F647" s="54"/>
       <c r="G647" s="15"/>
       <c r="H647" s="15"/>
       <c r="I647" s="2"/>
@@ -14280,7 +14308,7 @@
       <c r="C648" s="15"/>
       <c r="D648" s="15"/>
       <c r="E648" s="15"/>
-      <c r="F648" s="56"/>
+      <c r="F648" s="54"/>
       <c r="G648" s="15"/>
       <c r="H648" s="15"/>
       <c r="I648" s="2"/>
@@ -14297,7 +14325,7 @@
       <c r="C649" s="15"/>
       <c r="D649" s="15"/>
       <c r="E649" s="15"/>
-      <c r="F649" s="56"/>
+      <c r="F649" s="54"/>
       <c r="G649" s="15"/>
       <c r="H649" s="15"/>
       <c r="I649" s="2"/>
@@ -14314,7 +14342,7 @@
       <c r="C650" s="15"/>
       <c r="D650" s="15"/>
       <c r="E650" s="15"/>
-      <c r="F650" s="56"/>
+      <c r="F650" s="54"/>
       <c r="G650" s="15"/>
       <c r="H650" s="15"/>
       <c r="I650" s="2"/>
@@ -14331,7 +14359,7 @@
       <c r="C651" s="15"/>
       <c r="D651" s="15"/>
       <c r="E651" s="15"/>
-      <c r="F651" s="56"/>
+      <c r="F651" s="54"/>
       <c r="G651" s="15"/>
       <c r="H651" s="15"/>
       <c r="I651" s="2"/>
@@ -14348,7 +14376,7 @@
       <c r="C652" s="15"/>
       <c r="D652" s="15"/>
       <c r="E652" s="15"/>
-      <c r="F652" s="56"/>
+      <c r="F652" s="54"/>
       <c r="G652" s="15"/>
       <c r="H652" s="15"/>
       <c r="I652" s="2"/>
@@ -14365,7 +14393,7 @@
       <c r="C653" s="15"/>
       <c r="D653" s="15"/>
       <c r="E653" s="15"/>
-      <c r="F653" s="56"/>
+      <c r="F653" s="54"/>
       <c r="G653" s="15"/>
       <c r="H653" s="15"/>
       <c r="I653" s="2"/>
@@ -14382,7 +14410,7 @@
       <c r="C654" s="15"/>
       <c r="D654" s="15"/>
       <c r="E654" s="15"/>
-      <c r="F654" s="56"/>
+      <c r="F654" s="54"/>
       <c r="G654" s="15"/>
       <c r="H654" s="15"/>
       <c r="I654" s="2"/>
@@ -14399,7 +14427,7 @@
       <c r="C655" s="15"/>
       <c r="D655" s="15"/>
       <c r="E655" s="15"/>
-      <c r="F655" s="56"/>
+      <c r="F655" s="54"/>
       <c r="G655" s="15"/>
       <c r="H655" s="15"/>
       <c r="I655" s="2"/>
@@ -14416,7 +14444,7 @@
       <c r="C656" s="15"/>
       <c r="D656" s="15"/>
       <c r="E656" s="15"/>
-      <c r="F656" s="56"/>
+      <c r="F656" s="54"/>
       <c r="G656" s="15"/>
       <c r="H656" s="15"/>
       <c r="I656" s="2"/>
@@ -14433,7 +14461,7 @@
       <c r="C657" s="15"/>
       <c r="D657" s="15"/>
       <c r="E657" s="15"/>
-      <c r="F657" s="56"/>
+      <c r="F657" s="54"/>
       <c r="G657" s="15"/>
       <c r="H657" s="15"/>
       <c r="I657" s="2"/>
@@ -14450,7 +14478,7 @@
       <c r="C658" s="15"/>
       <c r="D658" s="15"/>
       <c r="E658" s="15"/>
-      <c r="F658" s="56"/>
+      <c r="F658" s="54"/>
       <c r="G658" s="15"/>
       <c r="H658" s="15"/>
       <c r="I658" s="2"/>
@@ -14467,7 +14495,7 @@
       <c r="C659" s="15"/>
       <c r="D659" s="15"/>
       <c r="E659" s="15"/>
-      <c r="F659" s="56"/>
+      <c r="F659" s="54"/>
       <c r="G659" s="15"/>
       <c r="H659" s="15"/>
       <c r="I659" s="2"/>
@@ -14484,7 +14512,7 @@
       <c r="C660" s="15"/>
       <c r="D660" s="15"/>
       <c r="E660" s="15"/>
-      <c r="F660" s="56"/>
+      <c r="F660" s="54"/>
       <c r="G660" s="15"/>
       <c r="H660" s="15"/>
       <c r="I660" s="2"/>
@@ -14501,7 +14529,7 @@
       <c r="C661" s="15"/>
       <c r="D661" s="15"/>
       <c r="E661" s="15"/>
-      <c r="F661" s="56"/>
+      <c r="F661" s="54"/>
       <c r="G661" s="15"/>
       <c r="H661" s="15"/>
       <c r="I661" s="2"/>
@@ -14518,7 +14546,7 @@
       <c r="C662" s="15"/>
       <c r="D662" s="15"/>
       <c r="E662" s="15"/>
-      <c r="F662" s="56"/>
+      <c r="F662" s="54"/>
       <c r="G662" s="15"/>
       <c r="H662" s="15"/>
       <c r="I662" s="2"/>
@@ -14535,7 +14563,7 @@
       <c r="C663" s="15"/>
       <c r="D663" s="15"/>
       <c r="E663" s="15"/>
-      <c r="F663" s="56"/>
+      <c r="F663" s="54"/>
       <c r="G663" s="15"/>
       <c r="H663" s="15"/>
       <c r="I663" s="2"/>
@@ -14552,7 +14580,7 @@
       <c r="C664" s="15"/>
       <c r="D664" s="15"/>
       <c r="E664" s="15"/>
-      <c r="F664" s="56"/>
+      <c r="F664" s="54"/>
       <c r="G664" s="15"/>
       <c r="H664" s="15"/>
       <c r="I664" s="2"/>
@@ -14569,7 +14597,7 @@
       <c r="C665" s="15"/>
       <c r="D665" s="15"/>
       <c r="E665" s="15"/>
-      <c r="F665" s="56"/>
+      <c r="F665" s="54"/>
       <c r="G665" s="15"/>
       <c r="H665" s="15"/>
       <c r="I665" s="2"/>
@@ -14586,7 +14614,7 @@
       <c r="C666" s="15"/>
       <c r="D666" s="15"/>
       <c r="E666" s="15"/>
-      <c r="F666" s="56"/>
+      <c r="F666" s="54"/>
       <c r="G666" s="15"/>
       <c r="H666" s="15"/>
       <c r="I666" s="2"/>
@@ -14603,7 +14631,7 @@
       <c r="C667" s="15"/>
       <c r="D667" s="15"/>
       <c r="E667" s="15"/>
-      <c r="F667" s="56"/>
+      <c r="F667" s="54"/>
       <c r="G667" s="15"/>
       <c r="H667" s="15"/>
       <c r="I667" s="2"/>
@@ -14620,7 +14648,7 @@
       <c r="C668" s="15"/>
       <c r="D668" s="15"/>
       <c r="E668" s="15"/>
-      <c r="F668" s="56"/>
+      <c r="F668" s="54"/>
       <c r="G668" s="15"/>
       <c r="H668" s="15"/>
       <c r="I668" s="2"/>
@@ -14637,7 +14665,7 @@
       <c r="C669" s="15"/>
       <c r="D669" s="15"/>
       <c r="E669" s="15"/>
-      <c r="F669" s="56"/>
+      <c r="F669" s="54"/>
       <c r="G669" s="15"/>
       <c r="H669" s="15"/>
       <c r="I669" s="2"/>
@@ -14654,7 +14682,7 @@
       <c r="C670" s="15"/>
       <c r="D670" s="15"/>
       <c r="E670" s="15"/>
-      <c r="F670" s="56"/>
+      <c r="F670" s="54"/>
       <c r="G670" s="15"/>
       <c r="H670" s="15"/>
       <c r="I670" s="2"/>
@@ -14671,7 +14699,7 @@
       <c r="C671" s="15"/>
       <c r="D671" s="15"/>
       <c r="E671" s="15"/>
-      <c r="F671" s="56"/>
+      <c r="F671" s="54"/>
       <c r="G671" s="15"/>
       <c r="H671" s="15"/>
       <c r="I671" s="2"/>
@@ -14688,7 +14716,7 @@
       <c r="C672" s="15"/>
       <c r="D672" s="15"/>
       <c r="E672" s="15"/>
-      <c r="F672" s="56"/>
+      <c r="F672" s="54"/>
       <c r="G672" s="15"/>
       <c r="H672" s="15"/>
       <c r="I672" s="2"/>
@@ -14705,7 +14733,7 @@
       <c r="C673" s="15"/>
       <c r="D673" s="15"/>
       <c r="E673" s="15"/>
-      <c r="F673" s="56"/>
+      <c r="F673" s="54"/>
       <c r="G673" s="15"/>
       <c r="H673" s="15"/>
       <c r="I673" s="2"/>
@@ -14722,7 +14750,7 @@
       <c r="C674" s="15"/>
       <c r="D674" s="15"/>
       <c r="E674" s="15"/>
-      <c r="F674" s="56"/>
+      <c r="F674" s="54"/>
       <c r="G674" s="15"/>
       <c r="H674" s="15"/>
       <c r="I674" s="2"/>
@@ -14739,7 +14767,7 @@
       <c r="C675" s="15"/>
       <c r="D675" s="15"/>
       <c r="E675" s="15"/>
-      <c r="F675" s="56"/>
+      <c r="F675" s="54"/>
       <c r="G675" s="15"/>
       <c r="H675" s="15"/>
       <c r="I675" s="2"/>
@@ -14756,7 +14784,7 @@
       <c r="C676" s="15"/>
       <c r="D676" s="15"/>
       <c r="E676" s="15"/>
-      <c r="F676" s="56"/>
+      <c r="F676" s="54"/>
       <c r="G676" s="15"/>
       <c r="H676" s="15"/>
       <c r="I676" s="2"/>
@@ -14773,7 +14801,7 @@
       <c r="C677" s="15"/>
       <c r="D677" s="15"/>
       <c r="E677" s="15"/>
-      <c r="F677" s="56"/>
+      <c r="F677" s="54"/>
       <c r="G677" s="15"/>
       <c r="H677" s="15"/>
       <c r="I677" s="2"/>
@@ -14790,7 +14818,7 @@
       <c r="C678" s="15"/>
       <c r="D678" s="15"/>
       <c r="E678" s="15"/>
-      <c r="F678" s="56"/>
+      <c r="F678" s="54"/>
       <c r="G678" s="15"/>
       <c r="H678" s="15"/>
       <c r="I678" s="2"/>
@@ -14807,7 +14835,7 @@
       <c r="C679" s="15"/>
       <c r="D679" s="15"/>
       <c r="E679" s="15"/>
-      <c r="F679" s="56"/>
+      <c r="F679" s="54"/>
       <c r="G679" s="15"/>
       <c r="H679" s="15"/>
       <c r="I679" s="2"/>
@@ -14824,7 +14852,7 @@
       <c r="C680" s="15"/>
       <c r="D680" s="15"/>
       <c r="E680" s="15"/>
-      <c r="F680" s="56"/>
+      <c r="F680" s="54"/>
       <c r="G680" s="15"/>
       <c r="H680" s="15"/>
       <c r="I680" s="2"/>
@@ -14841,7 +14869,7 @@
       <c r="C681" s="15"/>
       <c r="D681" s="15"/>
       <c r="E681" s="15"/>
-      <c r="F681" s="56"/>
+      <c r="F681" s="54"/>
       <c r="G681" s="15"/>
       <c r="H681" s="15"/>
       <c r="I681" s="2"/>
@@ -14858,7 +14886,7 @@
       <c r="C682" s="15"/>
       <c r="D682" s="15"/>
       <c r="E682" s="15"/>
-      <c r="F682" s="56"/>
+      <c r="F682" s="54"/>
       <c r="G682" s="15"/>
       <c r="H682" s="15"/>
       <c r="I682" s="2"/>
@@ -14875,7 +14903,7 @@
       <c r="C683" s="15"/>
       <c r="D683" s="15"/>
       <c r="E683" s="15"/>
-      <c r="F683" s="56"/>
+      <c r="F683" s="54"/>
       <c r="G683" s="15"/>
       <c r="H683" s="15"/>
       <c r="I683" s="2"/>
@@ -14892,7 +14920,7 @@
       <c r="C684" s="15"/>
       <c r="D684" s="15"/>
       <c r="E684" s="15"/>
-      <c r="F684" s="56"/>
+      <c r="F684" s="54"/>
       <c r="G684" s="15"/>
       <c r="H684" s="15"/>
       <c r="I684" s="2"/>
@@ -14909,7 +14937,7 @@
       <c r="C685" s="15"/>
       <c r="D685" s="15"/>
       <c r="E685" s="15"/>
-      <c r="F685" s="56"/>
+      <c r="F685" s="54"/>
       <c r="G685" s="15"/>
       <c r="H685" s="15"/>
       <c r="I685" s="2"/>
@@ -14926,7 +14954,7 @@
       <c r="C686" s="15"/>
       <c r="D686" s="15"/>
       <c r="E686" s="15"/>
-      <c r="F686" s="56"/>
+      <c r="F686" s="54"/>
       <c r="G686" s="15"/>
       <c r="H686" s="15"/>
       <c r="I686" s="2"/>
@@ -14943,7 +14971,7 @@
       <c r="C687" s="15"/>
       <c r="D687" s="15"/>
       <c r="E687" s="15"/>
-      <c r="F687" s="56"/>
+      <c r="F687" s="54"/>
       <c r="G687" s="15"/>
       <c r="H687" s="15"/>
       <c r="I687" s="2"/>
@@ -14960,7 +14988,7 @@
       <c r="C688" s="15"/>
       <c r="D688" s="15"/>
       <c r="E688" s="15"/>
-      <c r="F688" s="56"/>
+      <c r="F688" s="54"/>
       <c r="G688" s="15"/>
       <c r="H688" s="15"/>
       <c r="I688" s="2"/>
@@ -14977,7 +15005,7 @@
       <c r="C689" s="15"/>
       <c r="D689" s="15"/>
       <c r="E689" s="15"/>
-      <c r="F689" s="56"/>
+      <c r="F689" s="54"/>
       <c r="G689" s="15"/>
       <c r="H689" s="15"/>
       <c r="I689" s="2"/>
@@ -14994,7 +15022,7 @@
       <c r="C690" s="15"/>
       <c r="D690" s="15"/>
       <c r="E690" s="15"/>
-      <c r="F690" s="56"/>
+      <c r="F690" s="54"/>
       <c r="G690" s="15"/>
       <c r="H690" s="15"/>
       <c r="I690" s="2"/>
@@ -15011,7 +15039,7 @@
       <c r="C691" s="15"/>
       <c r="D691" s="15"/>
       <c r="E691" s="15"/>
-      <c r="F691" s="56"/>
+      <c r="F691" s="54"/>
       <c r="G691" s="15"/>
       <c r="H691" s="15"/>
       <c r="I691" s="2"/>
@@ -15028,7 +15056,7 @@
       <c r="C692" s="15"/>
       <c r="D692" s="15"/>
       <c r="E692" s="15"/>
-      <c r="F692" s="56"/>
+      <c r="F692" s="54"/>
       <c r="G692" s="15"/>
       <c r="H692" s="15"/>
       <c r="I692" s="2"/>
@@ -15045,7 +15073,7 @@
       <c r="C693" s="15"/>
       <c r="D693" s="15"/>
       <c r="E693" s="15"/>
-      <c r="F693" s="56"/>
+      <c r="F693" s="54"/>
       <c r="G693" s="15"/>
       <c r="H693" s="15"/>
       <c r="I693" s="2"/>
@@ -15062,7 +15090,7 @@
       <c r="C694" s="15"/>
       <c r="D694" s="15"/>
       <c r="E694" s="15"/>
-      <c r="F694" s="56"/>
+      <c r="F694" s="54"/>
       <c r="G694" s="15"/>
       <c r="H694" s="15"/>
       <c r="I694" s="2"/>
@@ -15079,7 +15107,7 @@
       <c r="C695" s="15"/>
       <c r="D695" s="15"/>
       <c r="E695" s="15"/>
-      <c r="F695" s="56"/>
+      <c r="F695" s="54"/>
       <c r="G695" s="15"/>
       <c r="H695" s="15"/>
       <c r="I695" s="2"/>
@@ -15096,7 +15124,7 @@
       <c r="C696" s="15"/>
       <c r="D696" s="15"/>
       <c r="E696" s="15"/>
-      <c r="F696" s="56"/>
+      <c r="F696" s="54"/>
       <c r="G696" s="15"/>
       <c r="H696" s="15"/>
       <c r="I696" s="2"/>
@@ -15113,7 +15141,7 @@
       <c r="C697" s="15"/>
       <c r="D697" s="15"/>
       <c r="E697" s="15"/>
-      <c r="F697" s="56"/>
+      <c r="F697" s="54"/>
       <c r="G697" s="15"/>
       <c r="H697" s="15"/>
       <c r="I697" s="2"/>
@@ -15130,7 +15158,7 @@
       <c r="C698" s="15"/>
       <c r="D698" s="15"/>
       <c r="E698" s="15"/>
-      <c r="F698" s="56"/>
+      <c r="F698" s="54"/>
       <c r="G698" s="15"/>
       <c r="H698" s="15"/>
       <c r="I698" s="2"/>
@@ -15147,7 +15175,7 @@
       <c r="C699" s="15"/>
       <c r="D699" s="15"/>
       <c r="E699" s="15"/>
-      <c r="F699" s="56"/>
+      <c r="F699" s="54"/>
       <c r="G699" s="15"/>
       <c r="H699" s="15"/>
       <c r="I699" s="2"/>
@@ -15164,7 +15192,7 @@
       <c r="C700" s="15"/>
       <c r="D700" s="15"/>
       <c r="E700" s="15"/>
-      <c r="F700" s="56"/>
+      <c r="F700" s="54"/>
       <c r="G700" s="15"/>
       <c r="H700" s="15"/>
       <c r="I700" s="2"/>
@@ -15181,7 +15209,7 @@
       <c r="C701" s="15"/>
       <c r="D701" s="15"/>
       <c r="E701" s="15"/>
-      <c r="F701" s="56"/>
+      <c r="F701" s="54"/>
       <c r="G701" s="15"/>
       <c r="H701" s="15"/>
       <c r="I701" s="2"/>
@@ -15198,7 +15226,7 @@
       <c r="C702" s="15"/>
       <c r="D702" s="15"/>
       <c r="E702" s="15"/>
-      <c r="F702" s="56"/>
+      <c r="F702" s="54"/>
       <c r="G702" s="15"/>
       <c r="H702" s="15"/>
       <c r="I702" s="2"/>
@@ -15215,7 +15243,7 @@
       <c r="C703" s="15"/>
       <c r="D703" s="15"/>
       <c r="E703" s="15"/>
-      <c r="F703" s="56"/>
+      <c r="F703" s="54"/>
       <c r="G703" s="15"/>
       <c r="H703" s="15"/>
       <c r="I703" s="2"/>
@@ -15232,7 +15260,7 @@
       <c r="C704" s="15"/>
       <c r="D704" s="15"/>
       <c r="E704" s="15"/>
-      <c r="F704" s="56"/>
+      <c r="F704" s="54"/>
       <c r="G704" s="15"/>
       <c r="H704" s="15"/>
       <c r="I704" s="2"/>
@@ -15249,7 +15277,7 @@
       <c r="C705" s="15"/>
       <c r="D705" s="15"/>
       <c r="E705" s="15"/>
-      <c r="F705" s="56"/>
+      <c r="F705" s="54"/>
       <c r="G705" s="15"/>
       <c r="H705" s="15"/>
       <c r="I705" s="2"/>
@@ -15266,7 +15294,7 @@
       <c r="C706" s="15"/>
       <c r="D706" s="15"/>
       <c r="E706" s="15"/>
-      <c r="F706" s="56"/>
+      <c r="F706" s="54"/>
       <c r="G706" s="15"/>
       <c r="H706" s="15"/>
       <c r="I706" s="2"/>
@@ -15283,7 +15311,7 @@
       <c r="C707" s="15"/>
       <c r="D707" s="15"/>
       <c r="E707" s="15"/>
-      <c r="F707" s="56"/>
+      <c r="F707" s="54"/>
       <c r="G707" s="15"/>
       <c r="H707" s="15"/>
       <c r="I707" s="2"/>
@@ -15300,7 +15328,7 @@
       <c r="C708" s="15"/>
       <c r="D708" s="15"/>
       <c r="E708" s="15"/>
-      <c r="F708" s="56"/>
+      <c r="F708" s="54"/>
       <c r="G708" s="15"/>
       <c r="H708" s="15"/>
       <c r="I708" s="2"/>
@@ -15317,7 +15345,7 @@
       <c r="C709" s="15"/>
       <c r="D709" s="15"/>
       <c r="E709" s="15"/>
-      <c r="F709" s="56"/>
+      <c r="F709" s="54"/>
       <c r="G709" s="15"/>
       <c r="H709" s="15"/>
       <c r="I709" s="2"/>
@@ -15334,7 +15362,7 @@
       <c r="C710" s="15"/>
       <c r="D710" s="15"/>
       <c r="E710" s="15"/>
-      <c r="F710" s="56"/>
+      <c r="F710" s="54"/>
       <c r="G710" s="15"/>
       <c r="H710" s="15"/>
       <c r="I710" s="2"/>
@@ -15351,7 +15379,7 @@
       <c r="C711" s="15"/>
       <c r="D711" s="15"/>
       <c r="E711" s="15"/>
-      <c r="F711" s="56"/>
+      <c r="F711" s="54"/>
       <c r="G711" s="15"/>
       <c r="H711" s="15"/>
       <c r="I711" s="2"/>
@@ -15368,7 +15396,7 @@
       <c r="C712" s="15"/>
       <c r="D712" s="15"/>
       <c r="E712" s="15"/>
-      <c r="F712" s="56"/>
+      <c r="F712" s="54"/>
       <c r="G712" s="15"/>
       <c r="H712" s="15"/>
       <c r="I712" s="2"/>
@@ -15385,7 +15413,7 @@
       <c r="C713" s="15"/>
       <c r="D713" s="15"/>
       <c r="E713" s="15"/>
-      <c r="F713" s="56"/>
+      <c r="F713" s="54"/>
       <c r="G713" s="15"/>
       <c r="H713" s="15"/>
       <c r="I713" s="2"/>
@@ -15402,7 +15430,7 @@
       <c r="C714" s="15"/>
       <c r="D714" s="15"/>
       <c r="E714" s="15"/>
-      <c r="F714" s="56"/>
+      <c r="F714" s="54"/>
       <c r="G714" s="15"/>
       <c r="H714" s="15"/>
       <c r="I714" s="2"/>
@@ -15419,7 +15447,7 @@
       <c r="C715" s="15"/>
       <c r="D715" s="15"/>
       <c r="E715" s="15"/>
-      <c r="F715" s="56"/>
+      <c r="F715" s="54"/>
       <c r="G715" s="15"/>
       <c r="H715" s="15"/>
       <c r="I715" s="2"/>
@@ -15436,7 +15464,7 @@
       <c r="C716" s="15"/>
       <c r="D716" s="15"/>
       <c r="E716" s="15"/>
-      <c r="F716" s="56"/>
+      <c r="F716" s="54"/>
       <c r="G716" s="15"/>
       <c r="H716" s="15"/>
       <c r="I716" s="2"/>
@@ -15453,7 +15481,7 @@
       <c r="C717" s="15"/>
       <c r="D717" s="15"/>
       <c r="E717" s="15"/>
-      <c r="F717" s="56"/>
+      <c r="F717" s="54"/>
       <c r="G717" s="15"/>
       <c r="H717" s="15"/>
       <c r="I717" s="2"/>
@@ -15470,7 +15498,7 @@
       <c r="C718" s="15"/>
       <c r="D718" s="15"/>
       <c r="E718" s="15"/>
-      <c r="F718" s="56"/>
+      <c r="F718" s="54"/>
       <c r="G718" s="15"/>
       <c r="H718" s="15"/>
       <c r="I718" s="2"/>
@@ -15487,7 +15515,7 @@
       <c r="C719" s="15"/>
       <c r="D719" s="15"/>
       <c r="E719" s="15"/>
-      <c r="F719" s="56"/>
+      <c r="F719" s="54"/>
       <c r="G719" s="15"/>
       <c r="H719" s="15"/>
       <c r="I719" s="2"/>
@@ -15504,7 +15532,7 @@
       <c r="C720" s="15"/>
       <c r="D720" s="15"/>
       <c r="E720" s="15"/>
-      <c r="F720" s="56"/>
+      <c r="F720" s="54"/>
       <c r="G720" s="15"/>
       <c r="H720" s="15"/>
       <c r="I720" s="2"/>
@@ -15521,7 +15549,7 @@
       <c r="C721" s="15"/>
       <c r="D721" s="15"/>
       <c r="E721" s="15"/>
-      <c r="F721" s="56"/>
+      <c r="F721" s="54"/>
       <c r="G721" s="15"/>
       <c r="H721" s="15"/>
       <c r="I721" s="2"/>
@@ -15538,7 +15566,7 @@
       <c r="C722" s="15"/>
       <c r="D722" s="15"/>
       <c r="E722" s="15"/>
-      <c r="F722" s="56"/>
+      <c r="F722" s="54"/>
       <c r="G722" s="15"/>
       <c r="H722" s="15"/>
       <c r="I722" s="2"/>
@@ -15555,7 +15583,7 @@
       <c r="C723" s="15"/>
       <c r="D723" s="15"/>
       <c r="E723" s="15"/>
-      <c r="F723" s="56"/>
+      <c r="F723" s="54"/>
       <c r="G723" s="15"/>
       <c r="H723" s="15"/>
       <c r="I723" s="2"/>
@@ -15572,7 +15600,7 @@
       <c r="C724" s="15"/>
       <c r="D724" s="15"/>
       <c r="E724" s="15"/>
-      <c r="F724" s="56"/>
+      <c r="F724" s="54"/>
       <c r="G724" s="15"/>
       <c r="H724" s="15"/>
       <c r="I724" s="2"/>
@@ -15589,7 +15617,7 @@
       <c r="C725" s="15"/>
       <c r="D725" s="15"/>
       <c r="E725" s="15"/>
-      <c r="F725" s="56"/>
+      <c r="F725" s="54"/>
       <c r="G725" s="15"/>
       <c r="H725" s="15"/>
       <c r="I725" s="2"/>
@@ -15606,7 +15634,7 @@
       <c r="C726" s="15"/>
       <c r="D726" s="15"/>
       <c r="E726" s="15"/>
-      <c r="F726" s="56"/>
+      <c r="F726" s="54"/>
       <c r="G726" s="15"/>
       <c r="H726" s="15"/>
       <c r="I726" s="2"/>
@@ -15623,7 +15651,7 @@
       <c r="C727" s="15"/>
       <c r="D727" s="15"/>
       <c r="E727" s="15"/>
-      <c r="F727" s="56"/>
+      <c r="F727" s="54"/>
       <c r="G727" s="15"/>
       <c r="H727" s="15"/>
       <c r="I727" s="2"/>
@@ -15640,7 +15668,7 @@
       <c r="C728" s="15"/>
       <c r="D728" s="15"/>
       <c r="E728" s="15"/>
-      <c r="F728" s="56"/>
+      <c r="F728" s="54"/>
       <c r="G728" s="15"/>
       <c r="H728" s="15"/>
       <c r="I728" s="2"/>
@@ -15657,7 +15685,7 @@
       <c r="C729" s="15"/>
       <c r="D729" s="15"/>
       <c r="E729" s="15"/>
-      <c r="F729" s="56"/>
+      <c r="F729" s="54"/>
       <c r="G729" s="15"/>
       <c r="H729" s="15"/>
       <c r="I729" s="2"/>
@@ -15674,7 +15702,7 @@
       <c r="C730" s="15"/>
       <c r="D730" s="15"/>
       <c r="E730" s="15"/>
-      <c r="F730" s="56"/>
+      <c r="F730" s="54"/>
       <c r="G730" s="15"/>
       <c r="H730" s="15"/>
       <c r="I730" s="2"/>
@@ -15691,7 +15719,7 @@
       <c r="C731" s="15"/>
       <c r="D731" s="15"/>
       <c r="E731" s="15"/>
-      <c r="F731" s="56"/>
+      <c r="F731" s="54"/>
       <c r="G731" s="15"/>
       <c r="H731" s="15"/>
       <c r="I731" s="2"/>
@@ -15708,7 +15736,7 @@
       <c r="C732" s="15"/>
       <c r="D732" s="15"/>
       <c r="E732" s="15"/>
-      <c r="F732" s="56"/>
+      <c r="F732" s="54"/>
       <c r="G732" s="15"/>
       <c r="H732" s="15"/>
       <c r="I732" s="2"/>
@@ -15725,7 +15753,7 @@
       <c r="C733" s="15"/>
       <c r="D733" s="15"/>
       <c r="E733" s="15"/>
-      <c r="F733" s="56"/>
+      <c r="F733" s="54"/>
       <c r="G733" s="15"/>
       <c r="H733" s="15"/>
       <c r="I733" s="2"/>
@@ -15742,7 +15770,7 @@
       <c r="C734" s="15"/>
       <c r="D734" s="15"/>
       <c r="E734" s="15"/>
-      <c r="F734" s="56"/>
+      <c r="F734" s="54"/>
       <c r="G734" s="15"/>
       <c r="H734" s="15"/>
       <c r="I734" s="2"/>
@@ -15759,7 +15787,7 @@
       <c r="C735" s="15"/>
       <c r="D735" s="15"/>
       <c r="E735" s="15"/>
-      <c r="F735" s="56"/>
+      <c r="F735" s="54"/>
       <c r="G735" s="15"/>
       <c r="H735" s="15"/>
       <c r="I735" s="2"/>
@@ -15776,7 +15804,7 @@
       <c r="C736" s="15"/>
       <c r="D736" s="15"/>
       <c r="E736" s="15"/>
-      <c r="F736" s="56"/>
+      <c r="F736" s="54"/>
       <c r="G736" s="15"/>
       <c r="H736" s="15"/>
       <c r="I736" s="2"/>
@@ -15793,7 +15821,7 @@
       <c r="C737" s="15"/>
       <c r="D737" s="15"/>
       <c r="E737" s="15"/>
-      <c r="F737" s="56"/>
+      <c r="F737" s="54"/>
       <c r="G737" s="15"/>
       <c r="H737" s="15"/>
       <c r="I737" s="2"/>
@@ -15810,7 +15838,7 @@
       <c r="C738" s="15"/>
       <c r="D738" s="15"/>
       <c r="E738" s="15"/>
-      <c r="F738" s="56"/>
+      <c r="F738" s="54"/>
       <c r="G738" s="15"/>
       <c r="H738" s="15"/>
       <c r="I738" s="2"/>
@@ -15827,7 +15855,7 @@
       <c r="C739" s="15"/>
       <c r="D739" s="15"/>
       <c r="E739" s="15"/>
-      <c r="F739" s="56"/>
+      <c r="F739" s="54"/>
       <c r="G739" s="15"/>
       <c r="H739" s="15"/>
       <c r="I739" s="2"/>
@@ -15844,7 +15872,7 @@
       <c r="C740" s="15"/>
       <c r="D740" s="15"/>
       <c r="E740" s="15"/>
-      <c r="F740" s="56"/>
+      <c r="F740" s="54"/>
       <c r="G740" s="15"/>
       <c r="H740" s="15"/>
       <c r="I740" s="2"/>
@@ -15861,7 +15889,7 @@
       <c r="C741" s="15"/>
       <c r="D741" s="15"/>
       <c r="E741" s="15"/>
-      <c r="F741" s="56"/>
+      <c r="F741" s="54"/>
       <c r="G741" s="15"/>
       <c r="H741" s="15"/>
       <c r="I741" s="2"/>
@@ -15878,7 +15906,7 @@
       <c r="C742" s="15"/>
       <c r="D742" s="15"/>
       <c r="E742" s="15"/>
-      <c r="F742" s="56"/>
+      <c r="F742" s="54"/>
       <c r="G742" s="15"/>
       <c r="H742" s="15"/>
       <c r="I742" s="2"/>
@@ -15895,7 +15923,7 @@
       <c r="C743" s="15"/>
       <c r="D743" s="15"/>
       <c r="E743" s="15"/>
-      <c r="F743" s="56"/>
+      <c r="F743" s="54"/>
       <c r="G743" s="15"/>
       <c r="H743" s="15"/>
       <c r="I743" s="2"/>
@@ -15912,7 +15940,7 @@
       <c r="C744" s="15"/>
       <c r="D744" s="15"/>
       <c r="E744" s="15"/>
-      <c r="F744" s="56"/>
+      <c r="F744" s="54"/>
       <c r="G744" s="15"/>
       <c r="H744" s="15"/>
       <c r="I744" s="2"/>
@@ -15929,7 +15957,7 @@
       <c r="C745" s="15"/>
       <c r="D745" s="15"/>
       <c r="E745" s="15"/>
-      <c r="F745" s="56"/>
+      <c r="F745" s="54"/>
       <c r="G745" s="15"/>
       <c r="H745" s="15"/>
       <c r="I745" s="2"/>
@@ -15946,7 +15974,7 @@
       <c r="C746" s="15"/>
       <c r="D746" s="15"/>
       <c r="E746" s="15"/>
-      <c r="F746" s="56"/>
+      <c r="F746" s="54"/>
       <c r="G746" s="15"/>
       <c r="H746" s="15"/>
       <c r="I746" s="2"/>
@@ -15963,7 +15991,7 @@
       <c r="C747" s="15"/>
       <c r="D747" s="15"/>
       <c r="E747" s="15"/>
-      <c r="F747" s="56"/>
+      <c r="F747" s="54"/>
       <c r="G747" s="15"/>
       <c r="H747" s="15"/>
       <c r="I747" s="2"/>
@@ -15980,7 +16008,7 @@
       <c r="C748" s="15"/>
       <c r="D748" s="15"/>
       <c r="E748" s="15"/>
-      <c r="F748" s="56"/>
+      <c r="F748" s="54"/>
       <c r="G748" s="15"/>
       <c r="H748" s="15"/>
       <c r="I748" s="2"/>
@@ -15997,7 +16025,7 @@
       <c r="C749" s="15"/>
       <c r="D749" s="15"/>
       <c r="E749" s="15"/>
-      <c r="F749" s="56"/>
+      <c r="F749" s="54"/>
       <c r="G749" s="15"/>
       <c r="H749" s="15"/>
       <c r="I749" s="2"/>
@@ -16014,7 +16042,7 @@
       <c r="C750" s="15"/>
       <c r="D750" s="15"/>
       <c r="E750" s="15"/>
-      <c r="F750" s="56"/>
+      <c r="F750" s="54"/>
       <c r="G750" s="15"/>
       <c r="H750" s="15"/>
       <c r="I750" s="2"/>
@@ -16031,7 +16059,7 @@
       <c r="C751" s="15"/>
       <c r="D751" s="15"/>
       <c r="E751" s="15"/>
-      <c r="F751" s="56"/>
+      <c r="F751" s="54"/>
       <c r="G751" s="15"/>
       <c r="H751" s="15"/>
       <c r="I751" s="2"/>
@@ -16048,7 +16076,7 @@
       <c r="C752" s="15"/>
       <c r="D752" s="15"/>
       <c r="E752" s="15"/>
-      <c r="F752" s="56"/>
+      <c r="F752" s="54"/>
       <c r="G752" s="15"/>
       <c r="H752" s="15"/>
       <c r="I752" s="2"/>
@@ -16065,7 +16093,7 @@
       <c r="C753" s="15"/>
       <c r="D753" s="15"/>
       <c r="E753" s="15"/>
-      <c r="F753" s="56"/>
+      <c r="F753" s="54"/>
       <c r="G753" s="15"/>
       <c r="H753" s="15"/>
       <c r="I753" s="2"/>
@@ -16082,7 +16110,7 @@
       <c r="C754" s="15"/>
       <c r="D754" s="15"/>
       <c r="E754" s="15"/>
-      <c r="F754" s="56"/>
+      <c r="F754" s="54"/>
       <c r="G754" s="15"/>
       <c r="H754" s="15"/>
       <c r="I754" s="2"/>
@@ -16099,7 +16127,7 @@
       <c r="C755" s="15"/>
       <c r="D755" s="15"/>
       <c r="E755" s="15"/>
-      <c r="F755" s="56"/>
+      <c r="F755" s="54"/>
       <c r="G755" s="15"/>
       <c r="H755" s="15"/>
       <c r="I755" s="2"/>
@@ -16116,7 +16144,7 @@
       <c r="C756" s="15"/>
       <c r="D756" s="15"/>
       <c r="E756" s="15"/>
-      <c r="F756" s="56"/>
+      <c r="F756" s="54"/>
       <c r="G756" s="15"/>
       <c r="H756" s="15"/>
       <c r="I756" s="2"/>
@@ -16133,7 +16161,7 @@
       <c r="C757" s="15"/>
       <c r="D757" s="15"/>
       <c r="E757" s="15"/>
-      <c r="F757" s="56"/>
+      <c r="F757" s="54"/>
       <c r="G757" s="15"/>
       <c r="H757" s="15"/>
       <c r="I757" s="2"/>
@@ -16150,7 +16178,7 @@
       <c r="C758" s="15"/>
       <c r="D758" s="15"/>
       <c r="E758" s="15"/>
-      <c r="F758" s="56"/>
+      <c r="F758" s="54"/>
       <c r="G758" s="15"/>
       <c r="H758" s="15"/>
       <c r="I758" s="2"/>
@@ -16167,7 +16195,7 @@
       <c r="C759" s="15"/>
       <c r="D759" s="15"/>
       <c r="E759" s="15"/>
-      <c r="F759" s="56"/>
+      <c r="F759" s="54"/>
       <c r="G759" s="15"/>
       <c r="H759" s="15"/>
       <c r="I759" s="2"/>
@@ -16184,7 +16212,7 @@
       <c r="C760" s="15"/>
       <c r="D760" s="15"/>
       <c r="E760" s="15"/>
-      <c r="F760" s="56"/>
+      <c r="F760" s="54"/>
       <c r="G760" s="15"/>
       <c r="H760" s="15"/>
       <c r="I760" s="2"/>
@@ -16201,7 +16229,7 @@
       <c r="C761" s="15"/>
       <c r="D761" s="15"/>
       <c r="E761" s="15"/>
-      <c r="F761" s="56"/>
+      <c r="F761" s="54"/>
       <c r="G761" s="15"/>
       <c r="H761" s="15"/>
       <c r="I761" s="2"/>
@@ -16218,7 +16246,7 @@
       <c r="C762" s="15"/>
       <c r="D762" s="15"/>
       <c r="E762" s="15"/>
-      <c r="F762" s="56"/>
+      <c r="F762" s="54"/>
       <c r="G762" s="15"/>
       <c r="H762" s="15"/>
       <c r="I762" s="2"/>
@@ -16235,7 +16263,7 @@
       <c r="C763" s="15"/>
       <c r="D763" s="15"/>
       <c r="E763" s="15"/>
-      <c r="F763" s="56"/>
+      <c r="F763" s="54"/>
       <c r="G763" s="15"/>
       <c r="H763" s="15"/>
       <c r="I763" s="2"/>
@@ -16252,7 +16280,7 @@
       <c r="C764" s="15"/>
       <c r="D764" s="15"/>
       <c r="E764" s="15"/>
-      <c r="F764" s="56"/>
+      <c r="F764" s="54"/>
       <c r="G764" s="15"/>
       <c r="H764" s="15"/>
       <c r="I764" s="2"/>
@@ -16269,7 +16297,7 @@
       <c r="C765" s="15"/>
       <c r="D765" s="15"/>
       <c r="E765" s="15"/>
-      <c r="F765" s="56"/>
+      <c r="F765" s="54"/>
       <c r="G765" s="15"/>
       <c r="H765" s="15"/>
       <c r="I765" s="2"/>
@@ -16286,7 +16314,7 @@
       <c r="C766" s="15"/>
       <c r="D766" s="15"/>
       <c r="E766" s="15"/>
-      <c r="F766" s="56"/>
+      <c r="F766" s="54"/>
       <c r="G766" s="15"/>
       <c r="H766" s="15"/>
       <c r="I766" s="2"/>
@@ -16303,7 +16331,7 @@
       <c r="C767" s="15"/>
       <c r="D767" s="15"/>
       <c r="E767" s="15"/>
-      <c r="F767" s="56"/>
+      <c r="F767" s="54"/>
       <c r="G767" s="15"/>
       <c r="H767" s="15"/>
       <c r="I767" s="2"/>
@@ -16320,7 +16348,7 @@
       <c r="C768" s="15"/>
       <c r="D768" s="15"/>
       <c r="E768" s="15"/>
-      <c r="F768" s="56"/>
+      <c r="F768" s="54"/>
       <c r="G768" s="15"/>
       <c r="H768" s="15"/>
       <c r="I768" s="2"/>
@@ -16337,7 +16365,7 @@
       <c r="C769" s="15"/>
       <c r="D769" s="15"/>
       <c r="E769" s="15"/>
-      <c r="F769" s="56"/>
+      <c r="F769" s="54"/>
       <c r="G769" s="15"/>
       <c r="H769" s="15"/>
       <c r="I769" s="2"/>
@@ -16354,7 +16382,7 @@
       <c r="C770" s="15"/>
       <c r="D770" s="15"/>
       <c r="E770" s="15"/>
-      <c r="F770" s="56"/>
+      <c r="F770" s="54"/>
       <c r="G770" s="15"/>
       <c r="H770" s="15"/>
       <c r="I770" s="2"/>
@@ -16371,7 +16399,7 @@
       <c r="C771" s="15"/>
       <c r="D771" s="15"/>
       <c r="E771" s="15"/>
-      <c r="F771" s="56"/>
+      <c r="F771" s="54"/>
       <c r="G771" s="15"/>
       <c r="H771" s="15"/>
       <c r="I771" s="2"/>
@@ -16388,7 +16416,7 @@
       <c r="C772" s="15"/>
       <c r="D772" s="15"/>
       <c r="E772" s="15"/>
-      <c r="F772" s="56"/>
+      <c r="F772" s="54"/>
       <c r="G772" s="15"/>
       <c r="H772" s="15"/>
       <c r="I772" s="2"/>
@@ -16405,7 +16433,7 @@
       <c r="C773" s="15"/>
       <c r="D773" s="15"/>
       <c r="E773" s="15"/>
-      <c r="F773" s="56"/>
+      <c r="F773" s="54"/>
       <c r="G773" s="15"/>
       <c r="H773" s="15"/>
       <c r="I773" s="2"/>
@@ -16422,7 +16450,7 @@
       <c r="C774" s="15"/>
       <c r="D774" s="15"/>
       <c r="E774" s="15"/>
-      <c r="F774" s="56"/>
+      <c r="F774" s="54"/>
       <c r="G774" s="15"/>
       <c r="H774" s="15"/>
       <c r="I774" s="2"/>
@@ -16439,7 +16467,7 @@
       <c r="C775" s="15"/>
       <c r="D775" s="15"/>
       <c r="E775" s="15"/>
-      <c r="F775" s="56"/>
+      <c r="F775" s="54"/>
       <c r="G775" s="15"/>
       <c r="H775" s="15"/>
       <c r="I775" s="2"/>
@@ -16456,7 +16484,7 @@
       <c r="C776" s="15"/>
       <c r="D776" s="15"/>
       <c r="E776" s="15"/>
-      <c r="F776" s="56"/>
+      <c r="F776" s="54"/>
       <c r="G776" s="15"/>
       <c r="H776" s="15"/>
       <c r="I776" s="2"/>
@@ -16473,7 +16501,7 @@
       <c r="C777" s="15"/>
       <c r="D777" s="15"/>
       <c r="E777" s="15"/>
-      <c r="F777" s="56"/>
+      <c r="F777" s="54"/>
       <c r="G777" s="15"/>
       <c r="H777" s="15"/>
       <c r="I777" s="2"/>
@@ -16490,7 +16518,7 @@
       <c r="C778" s="15"/>
       <c r="D778" s="15"/>
       <c r="E778" s="15"/>
-      <c r="F778" s="56"/>
+      <c r="F778" s="54"/>
       <c r="G778" s="15"/>
       <c r="H778" s="15"/>
       <c r="I778" s="2"/>
@@ -16507,7 +16535,7 @@
       <c r="C779" s="15"/>
       <c r="D779" s="15"/>
       <c r="E779" s="15"/>
-      <c r="F779" s="56"/>
+      <c r="F779" s="54"/>
       <c r="G779" s="15"/>
       <c r="H779" s="15"/>
       <c r="I779" s="2"/>
@@ -16524,7 +16552,7 @@
       <c r="C780" s="15"/>
       <c r="D780" s="15"/>
       <c r="E780" s="15"/>
-      <c r="F780" s="56"/>
+      <c r="F780" s="54"/>
       <c r="G780" s="15"/>
       <c r="H780" s="15"/>
       <c r="I780" s="2"/>
@@ -16541,7 +16569,7 @@
       <c r="C781" s="15"/>
       <c r="D781" s="15"/>
       <c r="E781" s="15"/>
-      <c r="F781" s="56"/>
+      <c r="F781" s="54"/>
       <c r="G781" s="15"/>
       <c r="H781" s="15"/>
       <c r="I781" s="2"/>
@@ -16558,7 +16586,7 @@
       <c r="C782" s="15"/>
       <c r="D782" s="15"/>
       <c r="E782" s="15"/>
-      <c r="F782" s="56"/>
+      <c r="F782" s="54"/>
       <c r="G782" s="15"/>
       <c r="H782" s="15"/>
       <c r="I782" s="2"/>
@@ -16575,7 +16603,7 @@
       <c r="C783" s="15"/>
       <c r="D783" s="15"/>
       <c r="E783" s="15"/>
-      <c r="F783" s="56"/>
+      <c r="F783" s="54"/>
       <c r="G783" s="15"/>
       <c r="H783" s="15"/>
       <c r="I783" s="2"/>
@@ -16592,7 +16620,7 @@
       <c r="C784" s="15"/>
       <c r="D784" s="15"/>
       <c r="E784" s="15"/>
-      <c r="F784" s="56"/>
+      <c r="F784" s="54"/>
       <c r="G784" s="15"/>
       <c r="H784" s="15"/>
       <c r="I784" s="2"/>
@@ -16609,7 +16637,7 @@
       <c r="C785" s="15"/>
       <c r="D785" s="15"/>
       <c r="E785" s="15"/>
-      <c r="F785" s="56"/>
+      <c r="F785" s="54"/>
       <c r="G785" s="15"/>
       <c r="H785" s="15"/>
       <c r="I785" s="2"/>
@@ -16626,7 +16654,7 @@
       <c r="C786" s="15"/>
       <c r="D786" s="15"/>
       <c r="E786" s="15"/>
-      <c r="F786" s="56"/>
+      <c r="F786" s="54"/>
       <c r="G786" s="15"/>
       <c r="H786" s="15"/>
       <c r="I786" s="2"/>
@@ -16643,7 +16671,7 @@
       <c r="C787" s="15"/>
       <c r="D787" s="15"/>
       <c r="E787" s="15"/>
-      <c r="F787" s="56"/>
+      <c r="F787" s="54"/>
       <c r="G787" s="15"/>
       <c r="H787" s="15"/>
       <c r="I787" s="2"/>
@@ -16660,7 +16688,7 @@
       <c r="C788" s="15"/>
       <c r="D788" s="15"/>
       <c r="E788" s="15"/>
-      <c r="F788" s="56"/>
+      <c r="F788" s="54"/>
       <c r="G788" s="15"/>
       <c r="H788" s="15"/>
       <c r="I788" s="2"/>
@@ -16677,7 +16705,7 @@
       <c r="C789" s="15"/>
       <c r="D789" s="15"/>
       <c r="E789" s="15"/>
-      <c r="F789" s="56"/>
+      <c r="F789" s="54"/>
       <c r="G789" s="15"/>
       <c r="H789" s="15"/>
       <c r="I789" s="2"/>
@@ -16694,7 +16722,7 @@
       <c r="C790" s="15"/>
       <c r="D790" s="15"/>
       <c r="E790" s="15"/>
-      <c r="F790" s="56"/>
+      <c r="F790" s="54"/>
       <c r="G790" s="15"/>
       <c r="H790" s="15"/>
       <c r="I790" s="2"/>
@@ -16711,7 +16739,7 @@
       <c r="C791" s="15"/>
       <c r="D791" s="15"/>
       <c r="E791" s="15"/>
-      <c r="F791" s="56"/>
+      <c r="F791" s="54"/>
       <c r="G791" s="15"/>
       <c r="H791" s="15"/>
       <c r="I791" s="2"/>
@@ -16728,7 +16756,7 @@
       <c r="C792" s="15"/>
       <c r="D792" s="15"/>
       <c r="E792" s="15"/>
-      <c r="F792" s="56"/>
+      <c r="F792" s="54"/>
       <c r="G792" s="15"/>
       <c r="H792" s="15"/>
       <c r="I792" s="2"/>
@@ -16745,7 +16773,7 @@
       <c r="C793" s="15"/>
       <c r="D793" s="15"/>
       <c r="E793" s="15"/>
-      <c r="F793" s="56"/>
+      <c r="F793" s="54"/>
       <c r="G793" s="15"/>
       <c r="H793" s="15"/>
       <c r="I793" s="2"/>
@@ -16762,7 +16790,7 @@
       <c r="C794" s="15"/>
       <c r="D794" s="15"/>
       <c r="E794" s="15"/>
-      <c r="F794" s="56"/>
+      <c r="F794" s="54"/>
       <c r="G794" s="15"/>
       <c r="H794" s="15"/>
       <c r="I794" s="2"/>
@@ -16779,7 +16807,7 @@
       <c r="C795" s="15"/>
       <c r="D795" s="15"/>
       <c r="E795" s="15"/>
-      <c r="F795" s="56"/>
+      <c r="F795" s="54"/>
       <c r="G795" s="15"/>
       <c r="H795" s="15"/>
       <c r="I795" s="2"/>
@@ -16796,7 +16824,7 @@
       <c r="C796" s="15"/>
       <c r="D796" s="15"/>
       <c r="E796" s="15"/>
-      <c r="F796" s="56"/>
+      <c r="F796" s="54"/>
       <c r="G796" s="15"/>
       <c r="H796" s="15"/>
       <c r="I796" s="2"/>
@@ -16813,7 +16841,7 @@
       <c r="C797" s="15"/>
       <c r="D797" s="15"/>
       <c r="E797" s="15"/>
-      <c r="F797" s="56"/>
+      <c r="F797" s="54"/>
       <c r="G797" s="15"/>
       <c r="H797" s="15"/>
       <c r="I797" s="2"/>
@@ -16830,7 +16858,7 @@
       <c r="C798" s="15"/>
       <c r="D798" s="15"/>
       <c r="E798" s="15"/>
-      <c r="F798" s="56"/>
+      <c r="F798" s="54"/>
       <c r="G798" s="15"/>
       <c r="H798" s="15"/>
       <c r="I798" s="2"/>
@@ -16847,7 +16875,7 @@
       <c r="C799" s="15"/>
       <c r="D799" s="15"/>
       <c r="E799" s="15"/>
-      <c r="F799" s="56"/>
+      <c r="F799" s="54"/>
       <c r="G799" s="15"/>
       <c r="H799" s="15"/>
       <c r="I799" s="2"/>
@@ -16864,7 +16892,7 @@
       <c r="C800" s="15"/>
       <c r="D800" s="15"/>
       <c r="E800" s="15"/>
-      <c r="F800" s="56"/>
+      <c r="F800" s="54"/>
       <c r="G800" s="15"/>
       <c r="H800" s="15"/>
       <c r="I800" s="2"/>
@@ -16881,7 +16909,7 @@
       <c r="C801" s="15"/>
       <c r="D801" s="15"/>
       <c r="E801" s="15"/>
-      <c r="F801" s="56"/>
+      <c r="F801" s="54"/>
       <c r="G801" s="15"/>
       <c r="H801" s="15"/>
       <c r="I801" s="2"/>
@@ -16898,7 +16926,7 @@
       <c r="C802" s="15"/>
       <c r="D802" s="15"/>
       <c r="E802" s="15"/>
-      <c r="F802" s="56"/>
+      <c r="F802" s="54"/>
       <c r="G802" s="15"/>
       <c r="H802" s="15"/>
       <c r="I802" s="2"/>
@@ -16915,7 +16943,7 @@
       <c r="C803" s="15"/>
       <c r="D803" s="15"/>
       <c r="E803" s="15"/>
-      <c r="F803" s="56"/>
+      <c r="F803" s="54"/>
       <c r="G803" s="15"/>
       <c r="H803" s="15"/>
       <c r="I803" s="2"/>
@@ -16932,7 +16960,7 @@
       <c r="C804" s="15"/>
       <c r="D804" s="15"/>
       <c r="E804" s="15"/>
-      <c r="F804" s="56"/>
+      <c r="F804" s="54"/>
       <c r="G804" s="15"/>
       <c r="H804" s="15"/>
       <c r="I804" s="2"/>
@@ -16949,7 +16977,7 @@
       <c r="C805" s="15"/>
       <c r="D805" s="15"/>
       <c r="E805" s="15"/>
-      <c r="F805" s="56"/>
+      <c r="F805" s="54"/>
       <c r="G805" s="15"/>
       <c r="H805" s="15"/>
       <c r="I805" s="2"/>
@@ -16966,7 +16994,7 @@
       <c r="C806" s="15"/>
       <c r="D806" s="15"/>
       <c r="E806" s="15"/>
-      <c r="F806" s="56"/>
+      <c r="F806" s="54"/>
       <c r="G806" s="15"/>
       <c r="H806" s="15"/>
       <c r="I806" s="2"/>
@@ -16983,7 +17011,7 @@
       <c r="C807" s="15"/>
       <c r="D807" s="15"/>
       <c r="E807" s="15"/>
-      <c r="F807" s="56"/>
+      <c r="F807" s="54"/>
       <c r="G807" s="15"/>
       <c r="H807" s="15"/>
       <c r="I807" s="2"/>
@@ -17000,7 +17028,7 @@
       <c r="C808" s="15"/>
       <c r="D808" s="15"/>
       <c r="E808" s="15"/>
-      <c r="F808" s="56"/>
+      <c r="F808" s="54"/>
       <c r="G808" s="15"/>
       <c r="H808" s="15"/>
       <c r="I808" s="2"/>
@@ -17017,7 +17045,7 @@
       <c r="C809" s="15"/>
       <c r="D809" s="15"/>
       <c r="E809" s="15"/>
-      <c r="F809" s="56"/>
+      <c r="F809" s="54"/>
       <c r="G809" s="15"/>
       <c r="H809" s="15"/>
       <c r="I809" s="2"/>
@@ -17034,7 +17062,7 @@
       <c r="C810" s="15"/>
       <c r="D810" s="15"/>
       <c r="E810" s="15"/>
-      <c r="F810" s="56"/>
+      <c r="F810" s="54"/>
       <c r="G810" s="15"/>
       <c r="H810" s="15"/>
       <c r="I810" s="2"/>
@@ -17051,7 +17079,7 @@
       <c r="C811" s="15"/>
       <c r="D811" s="15"/>
       <c r="E811" s="15"/>
-      <c r="F811" s="56"/>
+      <c r="F811" s="54"/>
       <c r="G811" s="15"/>
       <c r="H811" s="15"/>
       <c r="I811" s="2"/>
@@ -17068,7 +17096,7 @@
       <c r="C812" s="15"/>
       <c r="D812" s="15"/>
       <c r="E812" s="15"/>
-      <c r="F812" s="56"/>
+      <c r="F812" s="54"/>
       <c r="G812" s="15"/>
       <c r="H812" s="15"/>
       <c r="I812" s="2"/>
@@ -17085,7 +17113,7 @@
       <c r="C813" s="15"/>
       <c r="D813" s="15"/>
       <c r="E813" s="15"/>
-      <c r="F813" s="56"/>
+      <c r="F813" s="54"/>
       <c r="G813" s="15"/>
       <c r="H813" s="15"/>
       <c r="I813" s="2"/>
@@ -17102,7 +17130,7 @@
       <c r="C814" s="15"/>
       <c r="D814" s="15"/>
       <c r="E814" s="15"/>
-      <c r="F814" s="56"/>
+      <c r="F814" s="54"/>
       <c r="G814" s="15"/>
       <c r="H814" s="15"/>
       <c r="I814" s="2"/>
@@ -17119,7 +17147,7 @@
       <c r="C815" s="15"/>
       <c r="D815" s="15"/>
       <c r="E815" s="15"/>
-      <c r="F815" s="56"/>
+      <c r="F815" s="54"/>
       <c r="G815" s="15"/>
       <c r="H815" s="15"/>
       <c r="I815" s="2"/>
@@ -17136,7 +17164,7 @@
       <c r="C816" s="15"/>
       <c r="D816" s="15"/>
       <c r="E816" s="15"/>
-      <c r="F816" s="56"/>
+      <c r="F816" s="54"/>
       <c r="G816" s="15"/>
       <c r="H816" s="15"/>
       <c r="I816" s="2"/>
@@ -17153,7 +17181,7 @@
       <c r="C817" s="15"/>
       <c r="D817" s="15"/>
       <c r="E817" s="15"/>
-      <c r="F817" s="56"/>
+      <c r="F817" s="54"/>
       <c r="G817" s="15"/>
       <c r="H817" s="15"/>
       <c r="I817" s="2"/>
@@ -17170,7 +17198,7 @@
       <c r="C818" s="15"/>
       <c r="D818" s="15"/>
       <c r="E818" s="15"/>
-      <c r="F818" s="56"/>
+      <c r="F818" s="54"/>
       <c r="G818" s="15"/>
       <c r="H818" s="15"/>
       <c r="I818" s="2"/>
@@ -17187,7 +17215,7 @@
       <c r="C819" s="15"/>
       <c r="D819" s="15"/>
       <c r="E819" s="15"/>
-      <c r="F819" s="56"/>
+      <c r="F819" s="54"/>
       <c r="G819" s="15"/>
       <c r="H819" s="15"/>
       <c r="I819" s="2"/>
@@ -17204,7 +17232,7 @@
       <c r="C820" s="15"/>
       <c r="D820" s="15"/>
       <c r="E820" s="15"/>
-      <c r="F820" s="56"/>
+      <c r="F820" s="54"/>
       <c r="G820" s="15"/>
       <c r="H820" s="15"/>
       <c r="I820" s="2"/>
@@ -17221,7 +17249,7 @@
       <c r="C821" s="15"/>
       <c r="D821" s="15"/>
       <c r="E821" s="15"/>
-      <c r="F821" s="56"/>
+      <c r="F821" s="54"/>
       <c r="G821" s="15"/>
       <c r="H821" s="15"/>
       <c r="I821" s="2"/>
@@ -17238,7 +17266,7 @@
       <c r="C822" s="15"/>
       <c r="D822" s="15"/>
       <c r="E822" s="15"/>
-      <c r="F822" s="56"/>
+      <c r="F822" s="54"/>
       <c r="G822" s="15"/>
       <c r="H822" s="15"/>
       <c r="I822" s="2"/>
@@ -17255,7 +17283,7 @@
       <c r="C823" s="15"/>
       <c r="D823" s="15"/>
       <c r="E823" s="15"/>
-      <c r="F823" s="56"/>
+      <c r="F823" s="54"/>
       <c r="G823" s="15"/>
       <c r="H823" s="15"/>
       <c r="I823" s="2"/>
@@ -17272,7 +17300,7 @@
       <c r="C824" s="15"/>
       <c r="D824" s="15"/>
       <c r="E824" s="15"/>
-      <c r="F824" s="56"/>
+      <c r="F824" s="54"/>
       <c r="G824" s="15"/>
       <c r="H824" s="15"/>
       <c r="I824" s="2"/>
@@ -17289,7 +17317,7 @@
       <c r="C825" s="15"/>
       <c r="D825" s="15"/>
       <c r="E825" s="15"/>
-      <c r="F825" s="56"/>
+      <c r="F825" s="54"/>
       <c r="G825" s="15"/>
       <c r="H825" s="15"/>
       <c r="I825" s="2"/>
@@ -17306,7 +17334,7 @@
       <c r="C826" s="15"/>
       <c r="D826" s="15"/>
       <c r="E826" s="15"/>
-      <c r="F826" s="56"/>
+      <c r="F826" s="54"/>
       <c r="G826" s="15"/>
       <c r="H826" s="15"/>
       <c r="I826" s="2"/>
@@ -17323,7 +17351,7 @@
       <c r="C827" s="15"/>
       <c r="D827" s="15"/>
       <c r="E827" s="15"/>
-      <c r="F827" s="56"/>
+      <c r="F827" s="54"/>
       <c r="G827" s="15"/>
       <c r="H827" s="15"/>
       <c r="I827" s="2"/>
@@ -17340,7 +17368,7 @@
       <c r="C828" s="15"/>
       <c r="D828" s="15"/>
       <c r="E828" s="15"/>
-      <c r="F828" s="56"/>
+      <c r="F828" s="54"/>
       <c r="G828" s="15"/>
       <c r="H828" s="15"/>
       <c r="I828" s="2"/>
@@ -17357,7 +17385,7 @@
       <c r="C829" s="15"/>
       <c r="D829" s="15"/>
       <c r="E829" s="15"/>
-      <c r="F829" s="56"/>
+      <c r="F829" s="54"/>
       <c r="G829" s="15"/>
       <c r="H829" s="15"/>
       <c r="I829" s="2"/>
@@ -17374,7 +17402,7 @@
       <c r="C830" s="15"/>
       <c r="D830" s="15"/>
       <c r="E830" s="15"/>
-      <c r="F830" s="56"/>
+      <c r="F830" s="54"/>
       <c r="G830" s="15"/>
       <c r="H830" s="15"/>
       <c r="I830" s="2"/>
@@ -17391,7 +17419,7 @@
       <c r="C831" s="15"/>
       <c r="D831" s="15"/>
       <c r="E831" s="15"/>
-      <c r="F831" s="56"/>
+      <c r="F831" s="54"/>
       <c r="G831" s="15"/>
       <c r="H831" s="15"/>
       <c r="I831" s="2"/>
@@ -17408,7 +17436,7 @@
       <c r="C832" s="15"/>
       <c r="D832" s="15"/>
       <c r="E832" s="15"/>
-      <c r="F832" s="56"/>
+      <c r="F832" s="54"/>
       <c r="G832" s="15"/>
       <c r="H832" s="15"/>
       <c r="I832" s="2"/>
@@ -17425,7 +17453,7 @@
       <c r="C833" s="15"/>
       <c r="D833" s="15"/>
       <c r="E833" s="15"/>
-      <c r="F833" s="56"/>
+      <c r="F833" s="54"/>
       <c r="G833" s="15"/>
       <c r="H833" s="15"/>
       <c r="I833" s="2"/>
@@ -17442,7 +17470,7 @@
       <c r="C834" s="15"/>
       <c r="D834" s="15"/>
       <c r="E834" s="15"/>
-      <c r="F834" s="56"/>
+      <c r="F834" s="54"/>
       <c r="G834" s="15"/>
       <c r="H834" s="15"/>
       <c r="I834" s="2"/>
@@ -17459,7 +17487,7 @@
       <c r="C835" s="15"/>
       <c r="D835" s="15"/>
       <c r="E835" s="15"/>
-      <c r="F835" s="56"/>
+      <c r="F835" s="54"/>
       <c r="G835" s="15"/>
       <c r="H835" s="15"/>
       <c r="I835" s="2"/>
@@ -17476,7 +17504,7 @@
       <c r="C836" s="15"/>
       <c r="D836" s="15"/>
       <c r="E836" s="15"/>
-      <c r="F836" s="56"/>
+      <c r="F836" s="54"/>
       <c r="G836" s="15"/>
       <c r="H836" s="15"/>
       <c r="I836" s="2"/>
@@ -17493,7 +17521,7 @@
       <c r="C837" s="15"/>
       <c r="D837" s="15"/>
       <c r="E837" s="15"/>
-      <c r="F837" s="56"/>
+      <c r="F837" s="54"/>
       <c r="G837" s="15"/>
       <c r="H837" s="15"/>
       <c r="I837" s="2"/>
@@ -17510,7 +17538,7 @@
       <c r="C838" s="15"/>
       <c r="D838" s="15"/>
       <c r="E838" s="15"/>
-      <c r="F838" s="56"/>
+      <c r="F838" s="54"/>
       <c r="G838" s="15"/>
       <c r="H838" s="15"/>
       <c r="I838" s="2"/>
@@ -17527,7 +17555,7 @@
       <c r="C839" s="15"/>
       <c r="D839" s="15"/>
       <c r="E839" s="15"/>
-      <c r="F839" s="56"/>
+      <c r="F839" s="54"/>
       <c r="G839" s="15"/>
       <c r="H839" s="15"/>
       <c r="I839" s="2"/>
@@ -17544,7 +17572,7 @@
       <c r="C840" s="15"/>
       <c r="D840" s="15"/>
       <c r="E840" s="15"/>
-      <c r="F840" s="56"/>
+      <c r="F840" s="54"/>
       <c r="G840" s="15"/>
       <c r="H840" s="15"/>
       <c r="I840" s="2"/>
@@ -17561,7 +17589,7 @@
       <c r="C841" s="15"/>
       <c r="D841" s="15"/>
       <c r="E841" s="15"/>
-      <c r="F841" s="56"/>
+      <c r="F841" s="54"/>
       <c r="G841" s="15"/>
       <c r="H841" s="15"/>
       <c r="I841" s="2"/>
@@ -17578,7 +17606,7 @@
       <c r="C842" s="15"/>
       <c r="D842" s="15"/>
       <c r="E842" s="15"/>
-      <c r="F842" s="56"/>
+      <c r="F842" s="54"/>
       <c r="G842" s="15"/>
       <c r="H842" s="15"/>
       <c r="I842" s="2"/>
@@ -17595,7 +17623,7 @@
       <c r="C843" s="15"/>
       <c r="D843" s="15"/>
       <c r="E843" s="15"/>
-      <c r="F843" s="56"/>
+      <c r="F843" s="54"/>
       <c r="G843" s="15"/>
       <c r="H843" s="15"/>
       <c r="I843" s="2"/>
@@ -17612,7 +17640,7 @@
       <c r="C844" s="15"/>
       <c r="D844" s="15"/>
       <c r="E844" s="15"/>
-      <c r="F844" s="56"/>
+      <c r="F844" s="54"/>
       <c r="G844" s="15"/>
       <c r="H844" s="15"/>
       <c r="I844" s="2"/>
@@ -17629,7 +17657,7 @@
       <c r="C845" s="15"/>
       <c r="D845" s="15"/>
       <c r="E845" s="15"/>
-      <c r="F845" s="56"/>
+      <c r="F845" s="54"/>
       <c r="G845" s="15"/>
       <c r="H845" s="15"/>
       <c r="I845" s="2"/>
@@ -17646,7 +17674,7 @@
       <c r="C846" s="15"/>
       <c r="D846" s="15"/>
       <c r="E846" s="15"/>
-      <c r="F846" s="56"/>
+      <c r="F846" s="54"/>
       <c r="G846" s="15"/>
       <c r="H846" s="15"/>
       <c r="I846" s="2"/>
@@ -17663,7 +17691,7 @@
       <c r="C847" s="15"/>
       <c r="D847" s="15"/>
       <c r="E847" s="15"/>
-      <c r="F847" s="56"/>
+      <c r="F847" s="54"/>
       <c r="G847" s="15"/>
       <c r="H847" s="15"/>
       <c r="I847" s="2"/>
@@ -17680,7 +17708,7 @@
       <c r="C848" s="15"/>
       <c r="D848" s="15"/>
       <c r="E848" s="15"/>
-      <c r="F848" s="56"/>
+      <c r="F848" s="54"/>
       <c r="G848" s="15"/>
       <c r="H848" s="15"/>
       <c r="I848" s="2"/>
@@ -17697,7 +17725,7 @@
       <c r="C849" s="15"/>
       <c r="D849" s="15"/>
       <c r="E849" s="15"/>
-      <c r="F849" s="56"/>
+      <c r="F849" s="54"/>
       <c r="G849" s="15"/>
       <c r="H849" s="15"/>
       <c r="I849" s="2"/>
@@ -17714,7 +17742,7 @@
       <c r="C850" s="15"/>
       <c r="D850" s="15"/>
       <c r="E850" s="15"/>
-      <c r="F850" s="56"/>
+      <c r="F850" s="54"/>
       <c r="G850" s="15"/>
       <c r="H850" s="15"/>
       <c r="I850" s="2"/>
@@ -17731,7 +17759,7 @@
       <c r="C851" s="15"/>
       <c r="D851" s="15"/>
       <c r="E851" s="15"/>
-      <c r="F851" s="56"/>
+      <c r="F851" s="54"/>
       <c r="G851" s="15"/>
       <c r="H851" s="15"/>
       <c r="I851" s="2"/>
@@ -17748,7 +17776,7 @@
       <c r="C852" s="15"/>
       <c r="D852" s="15"/>
       <c r="E852" s="15"/>
-      <c r="F852" s="56"/>
+      <c r="F852" s="54"/>
       <c r="G852" s="15"/>
       <c r="H852" s="15"/>
       <c r="I852" s="2"/>
@@ -17765,7 +17793,7 @@
       <c r="C853" s="15"/>
       <c r="D853" s="15"/>
       <c r="E853" s="15"/>
-      <c r="F853" s="56"/>
+      <c r="F853" s="54"/>
       <c r="G853" s="15"/>
       <c r="H853" s="15"/>
       <c r="I853" s="2"/>
@@ -17782,7 +17810,7 @@
       <c r="C854" s="15"/>
       <c r="D854" s="15"/>
       <c r="E854" s="15"/>
-      <c r="F854" s="56"/>
+      <c r="F854" s="54"/>
       <c r="G854" s="15"/>
       <c r="H854" s="15"/>
       <c r="I854" s="2"/>
@@ -17799,7 +17827,7 @@
       <c r="C855" s="15"/>
       <c r="D855" s="15"/>
       <c r="E855" s="15"/>
-      <c r="F855" s="56"/>
+      <c r="F855" s="54"/>
       <c r="G855" s="15"/>
       <c r="H855" s="15"/>
       <c r="I855" s="2"/>
@@ -17816,7 +17844,7 @@
       <c r="C856" s="15"/>
       <c r="D856" s="15"/>
       <c r="E856" s="15"/>
-      <c r="F856" s="56"/>
+      <c r="F856" s="54"/>
       <c r="G856" s="15"/>
       <c r="H856" s="15"/>
       <c r="I856" s="2"/>
@@ -17833,7 +17861,7 @@
       <c r="C857" s="15"/>
       <c r="D857" s="15"/>
       <c r="E857" s="15"/>
-      <c r="F857" s="56"/>
+      <c r="F857" s="54"/>
       <c r="G857" s="15"/>
       <c r="H857" s="15"/>
       <c r="I857" s="2"/>
@@ -17850,7 +17878,7 @@
       <c r="C858" s="15"/>
       <c r="D858" s="15"/>
       <c r="E858" s="15"/>
-      <c r="F858" s="56"/>
+      <c r="F858" s="54"/>
       <c r="G858" s="15"/>
       <c r="H858" s="15"/>
       <c r="I858" s="2"/>
@@ -17867,7 +17895,7 @@
       <c r="C859" s="15"/>
       <c r="D859" s="15"/>
       <c r="E859" s="15"/>
-      <c r="F859" s="56"/>
+      <c r="F859" s="54"/>
       <c r="G859" s="15"/>
       <c r="H859" s="15"/>
       <c r="I859" s="2"/>
@@ -17884,7 +17912,7 @@
       <c r="C860" s="15"/>
       <c r="D860" s="15"/>
       <c r="E860" s="15"/>
-      <c r="F860" s="56"/>
+      <c r="F860" s="54"/>
       <c r="G860" s="15"/>
       <c r="H860" s="15"/>
       <c r="I860" s="2"/>
@@ -17901,7 +17929,7 @@
       <c r="C861" s="15"/>
       <c r="D861" s="15"/>
       <c r="E861" s="15"/>
-      <c r="F861" s="56"/>
+      <c r="F861" s="54"/>
       <c r="G861" s="15"/>
       <c r="H861" s="15"/>
       <c r="I861" s="2"/>
@@ -17918,7 +17946,7 @@
       <c r="C862" s="15"/>
       <c r="D862" s="15"/>
       <c r="E862" s="15"/>
-      <c r="F862" s="56"/>
+      <c r="F862" s="54"/>
       <c r="G862" s="15"/>
       <c r="H862" s="15"/>
       <c r="I862" s="2"/>
@@ -17935,7 +17963,7 @@
       <c r="C863" s="15"/>
       <c r="D863" s="15"/>
       <c r="E863" s="15"/>
-      <c r="F863" s="56"/>
+      <c r="F863" s="54"/>
       <c r="G863" s="15"/>
       <c r="H863" s="15"/>
       <c r="I863" s="2"/>
@@ -17952,7 +17980,7 @@
       <c r="C864" s="15"/>
       <c r="D864" s="15"/>
       <c r="E864" s="15"/>
-      <c r="F864" s="56"/>
+      <c r="F864" s="54"/>
       <c r="G864" s="15"/>
       <c r="H864" s="15"/>
       <c r="I864" s="2"/>
@@ -17969,7 +17997,7 @@
       <c r="C865" s="15"/>
       <c r="D865" s="15"/>
       <c r="E865" s="15"/>
-      <c r="F865" s="56"/>
+      <c r="F865" s="54"/>
       <c r="G865" s="15"/>
       <c r="H865" s="15"/>
       <c r="I865" s="2"/>
@@ -17986,7 +18014,7 @@
       <c r="C866" s="15"/>
       <c r="D866" s="15"/>
       <c r="E866" s="15"/>
-      <c r="F866" s="56"/>
+      <c r="F866" s="54"/>
       <c r="G866" s="15"/>
       <c r="H866" s="15"/>
       <c r="I866" s="2"/>
@@ -18003,7 +18031,7 @@
       <c r="C867" s="15"/>
       <c r="D867" s="15"/>
       <c r="E867" s="15"/>
-      <c r="F867" s="56"/>
+      <c r="F867" s="54"/>
       <c r="G867" s="15"/>
       <c r="H867" s="15"/>
       <c r="I867" s="2"/>
@@ -18020,7 +18048,7 @@
       <c r="C868" s="15"/>
       <c r="D868" s="15"/>
       <c r="E868" s="15"/>
-      <c r="F868" s="56"/>
+      <c r="F868" s="54"/>
       <c r="G868" s="15"/>
       <c r="H868" s="15"/>
       <c r="I868" s="2"/>
@@ -18037,7 +18065,7 @@
       <c r="C869" s="15"/>
       <c r="D869" s="15"/>
       <c r="E869" s="15"/>
-      <c r="F869" s="56"/>
+      <c r="F869" s="54"/>
       <c r="G869" s="15"/>
       <c r="H869" s="15"/>
       <c r="I869" s="2"/>
@@ -18054,7 +18082,7 @@
       <c r="C870" s="15"/>
       <c r="D870" s="15"/>
       <c r="E870" s="15"/>
-      <c r="F870" s="56"/>
+      <c r="F870" s="54"/>
       <c r="G870" s="15"/>
       <c r="H870" s="15"/>
       <c r="I870" s="2"/>
@@ -18071,7 +18099,7 @@
       <c r="C871" s="15"/>
       <c r="D871" s="15"/>
       <c r="E871" s="15"/>
-      <c r="F871" s="56"/>
+      <c r="F871" s="54"/>
       <c r="G871" s="15"/>
       <c r="H871" s="15"/>
       <c r="I871" s="2"/>
@@ -18088,7 +18116,7 @@
       <c r="C872" s="15"/>
       <c r="D872" s="15"/>
       <c r="E872" s="15"/>
-      <c r="F872" s="56"/>
+      <c r="F872" s="54"/>
       <c r="G872" s="15"/>
       <c r="H872" s="15"/>
       <c r="I872" s="2"/>
@@ -18105,7 +18133,7 @@
       <c r="C873" s="15"/>
       <c r="D873" s="15"/>
       <c r="E873" s="15"/>
-      <c r="F873" s="56"/>
+      <c r="F873" s="54"/>
       <c r="G873" s="15"/>
       <c r="H873" s="15"/>
       <c r="I873" s="2"/>
@@ -18122,7 +18150,7 @@
       <c r="C874" s="15"/>
       <c r="D874" s="15"/>
       <c r="E874" s="15"/>
-      <c r="F874" s="56"/>
+      <c r="F874" s="54"/>
       <c r="G874" s="15"/>
       <c r="H874" s="15"/>
       <c r="I874" s="2"/>
@@ -18139,7 +18167,7 @@
       <c r="C875" s="15"/>
       <c r="D875" s="15"/>
       <c r="E875" s="15"/>
-      <c r="F875" s="56"/>
+      <c r="F875" s="54"/>
       <c r="G875" s="15"/>
       <c r="H875" s="15"/>
       <c r="I875" s="2"/>
@@ -18156,7 +18184,7 @@
       <c r="C876" s="15"/>
       <c r="D876" s="15"/>
       <c r="E876" s="15"/>
-      <c r="F876" s="56"/>
+      <c r="F876" s="54"/>
       <c r="G876" s="15"/>
       <c r="H876" s="15"/>
       <c r="I876" s="2"/>
@@ -18173,7 +18201,7 @@
       <c r="C877" s="15"/>
       <c r="D877" s="15"/>
       <c r="E877" s="15"/>
-      <c r="F877" s="56"/>
+      <c r="F877" s="54"/>
       <c r="G877" s="15"/>
       <c r="H877" s="15"/>
       <c r="I877" s="2"/>
@@ -18190,7 +18218,7 @@
       <c r="C878" s="15"/>
       <c r="D878" s="15"/>
       <c r="E878" s="15"/>
-      <c r="F878" s="56"/>
+      <c r="F878" s="54"/>
       <c r="G878" s="15"/>
       <c r="H878" s="15"/>
       <c r="I878" s="2"/>
@@ -18207,7 +18235,7 @@
       <c r="C879" s="15"/>
       <c r="D879" s="15"/>
       <c r="E879" s="15"/>
-      <c r="F879" s="56"/>
+      <c r="F879" s="54"/>
       <c r="G879" s="15"/>
       <c r="H879" s="15"/>
       <c r="I879" s="2"/>
@@ -18224,7 +18252,7 @@
       <c r="C880" s="15"/>
       <c r="D880" s="15"/>
       <c r="E880" s="15"/>
-      <c r="F880" s="56"/>
+      <c r="F880" s="54"/>
       <c r="G880" s="15"/>
       <c r="H880" s="15"/>
       <c r="I880" s="2"/>
@@ -18241,7 +18269,7 @@
       <c r="C881" s="15"/>
       <c r="D881" s="15"/>
       <c r="E881" s="15"/>
-      <c r="F881" s="56"/>
+      <c r="F881" s="54"/>
       <c r="G881" s="15"/>
       <c r="H881" s="15"/>
       <c r="I881" s="2"/>
@@ -18258,7 +18286,7 @@
       <c r="C882" s="15"/>
       <c r="D882" s="15"/>
       <c r="E882" s="15"/>
-      <c r="F882" s="56"/>
+      <c r="F882" s="54"/>
       <c r="G882" s="15"/>
       <c r="H882" s="15"/>
       <c r="I882" s="2"/>
@@ -18275,7 +18303,7 @@
       <c r="C883" s="15"/>
       <c r="D883" s="15"/>
       <c r="E883" s="15"/>
-      <c r="F883" s="56"/>
+      <c r="F883" s="54"/>
       <c r="G883" s="15"/>
       <c r="H883" s="15"/>
       <c r="I883" s="2"/>
@@ -18292,7 +18320,7 @@
       <c r="C884" s="15"/>
       <c r="D884" s="15"/>
       <c r="E884" s="15"/>
-      <c r="F884" s="56"/>
+      <c r="F884" s="54"/>
       <c r="G884" s="15"/>
       <c r="H884" s="15"/>
       <c r="I884" s="2"/>
@@ -18309,7 +18337,7 @@
       <c r="C885" s="15"/>
       <c r="D885" s="15"/>
       <c r="E885" s="15"/>
-      <c r="F885" s="56"/>
+      <c r="F885" s="54"/>
       <c r="G885" s="15"/>
       <c r="H885" s="15"/>
       <c r="I885" s="2"/>
@@ -18326,7 +18354,7 @@
       <c r="C886" s="15"/>
       <c r="D886" s="15"/>
       <c r="E886" s="15"/>
-      <c r="F886" s="56"/>
+      <c r="F886" s="54"/>
       <c r="G886" s="15"/>
       <c r="H886" s="15"/>
       <c r="I886" s="2"/>
@@ -18343,7 +18371,7 @@
       <c r="C887" s="15"/>
       <c r="D887" s="15"/>
       <c r="E887" s="15"/>
-      <c r="F887" s="56"/>
+      <c r="F887" s="54"/>
       <c r="G887" s="15"/>
       <c r="H887" s="15"/>
       <c r="I887" s="2"/>
@@ -18360,7 +18388,7 @@
       <c r="C888" s="15"/>
       <c r="D888" s="15"/>
       <c r="E888" s="15"/>
-      <c r="F888" s="56"/>
+      <c r="F888" s="54"/>
       <c r="G888" s="15"/>
       <c r="H888" s="15"/>
       <c r="I888" s="2"/>
@@ -18377,7 +18405,7 @@
       <c r="C889" s="15"/>
       <c r="D889" s="15"/>
       <c r="E889" s="15"/>
-      <c r="F889" s="56"/>
+      <c r="F889" s="54"/>
       <c r="G889" s="15"/>
       <c r="H889" s="15"/>
       <c r="I889" s="2"/>
@@ -18394,7 +18422,7 @@
       <c r="C890" s="15"/>
       <c r="D890" s="15"/>
       <c r="E890" s="15"/>
-      <c r="F890" s="56"/>
+      <c r="F890" s="54"/>
       <c r="G890" s="15"/>
       <c r="H890" s="15"/>
       <c r="I890" s="2"/>
@@ -18411,7 +18439,7 @@
       <c r="C891" s="15"/>
       <c r="D891" s="15"/>
       <c r="E891" s="15"/>
-      <c r="F891" s="56"/>
+      <c r="F891" s="54"/>
       <c r="G891" s="15"/>
       <c r="H891" s="15"/>
       <c r="I891" s="2"/>
@@ -18428,7 +18456,7 @@
       <c r="C892" s="15"/>
       <c r="D892" s="15"/>
       <c r="E892" s="15"/>
-      <c r="F892" s="56"/>
+      <c r="F892" s="54"/>
       <c r="G892" s="15"/>
       <c r="H892" s="15"/>
       <c r="I892" s="2"/>
@@ -18445,7 +18473,7 @@
       <c r="C893" s="15"/>
       <c r="D893" s="15"/>
       <c r="E893" s="15"/>
-      <c r="F893" s="56"/>
+      <c r="F893" s="54"/>
       <c r="G893" s="15"/>
       <c r="H893" s="15"/>
       <c r="I893" s="2"/>
@@ -18462,7 +18490,7 @@
       <c r="C894" s="15"/>
       <c r="D894" s="15"/>
       <c r="E894" s="15"/>
-      <c r="F894" s="56"/>
+      <c r="F894" s="54"/>
       <c r="G894" s="15"/>
       <c r="H894" s="15"/>
       <c r="I894" s="2"/>
@@ -18479,7 +18507,7 @@
       <c r="C895" s="15"/>
       <c r="D895" s="15"/>
       <c r="E895" s="15"/>
-      <c r="F895" s="56"/>
+      <c r="F895" s="54"/>
       <c r="G895" s="15"/>
       <c r="H895" s="15"/>
       <c r="I895" s="2"/>
@@ -18496,7 +18524,7 @@
       <c r="C896" s="15"/>
       <c r="D896" s="15"/>
       <c r="E896" s="15"/>
-      <c r="F896" s="56"/>
+      <c r="F896" s="54"/>
       <c r="G896" s="15"/>
       <c r="H896" s="15"/>
       <c r="I896" s="2"/>
@@ -18513,7 +18541,7 @@
       <c r="C897" s="15"/>
       <c r="D897" s="15"/>
       <c r="E897" s="15"/>
-      <c r="F897" s="56"/>
+      <c r="F897" s="54"/>
       <c r="G897" s="15"/>
       <c r="H897" s="15"/>
       <c r="I897" s="2"/>
@@ -18530,7 +18558,7 @@
       <c r="C898" s="15"/>
       <c r="D898" s="15"/>
       <c r="E898" s="15"/>
-      <c r="F898" s="56"/>
+      <c r="F898" s="54"/>
       <c r="G898" s="15"/>
       <c r="H898" s="15"/>
       <c r="I898" s="2"/>
@@ -18547,7 +18575,7 @@
       <c r="C899" s="15"/>
       <c r="D899" s="15"/>
       <c r="E899" s="15"/>
-      <c r="F899" s="56"/>
+      <c r="F899" s="54"/>
       <c r="G899" s="15"/>
       <c r="H899" s="15"/>
       <c r="I899" s="2"/>
@@ -18564,7 +18592,7 @@
       <c r="C900" s="15"/>
       <c r="D900" s="15"/>
       <c r="E900" s="15"/>
-      <c r="F900" s="56"/>
+      <c r="F900" s="54"/>
       <c r="G900" s="15"/>
       <c r="H900" s="15"/>
       <c r="I900" s="2"/>
@@ -18581,7 +18609,7 @@
       <c r="C901" s="15"/>
       <c r="D901" s="15"/>
       <c r="E901" s="15"/>
-      <c r="F901" s="56"/>
+      <c r="F901" s="54"/>
       <c r="G901" s="15"/>
       <c r="H901" s="15"/>
       <c r="I901" s="2"/>
@@ -18598,7 +18626,7 @@
       <c r="C902" s="15"/>
       <c r="D902" s="15"/>
       <c r="E902" s="15"/>
-      <c r="F902" s="56"/>
+      <c r="F902" s="54"/>
       <c r="G902" s="15"/>
       <c r="H902" s="15"/>
       <c r="I902" s="2"/>
@@ -18615,7 +18643,7 @@
       <c r="C903" s="15"/>
       <c r="D903" s="15"/>
       <c r="E903" s="15"/>
-      <c r="F903" s="56"/>
+      <c r="F903" s="54"/>
       <c r="G903" s="15"/>
       <c r="H903" s="15"/>
       <c r="I903" s="2"/>
@@ -18632,7 +18660,7 @@
       <c r="C904" s="15"/>
       <c r="D904" s="15"/>
       <c r="E904" s="15"/>
-      <c r="F904" s="56"/>
+      <c r="F904" s="54"/>
       <c r="G904" s="15"/>
       <c r="H904" s="15"/>
       <c r="I904" s="2"/>
@@ -18649,7 +18677,7 @@
       <c r="C905" s="15"/>
       <c r="D905" s="15"/>
       <c r="E905" s="15"/>
-      <c r="F905" s="56"/>
+      <c r="F905" s="54"/>
       <c r="G905" s="15"/>
       <c r="H905" s="15"/>
       <c r="I905" s="2"/>
@@ -18666,7 +18694,7 @@
       <c r="C906" s="15"/>
       <c r="D906" s="15"/>
       <c r="E906" s="15"/>
-      <c r="F906" s="56"/>
+      <c r="F906" s="54"/>
       <c r="G906" s="15"/>
       <c r="H906" s="15"/>
       <c r="I906" s="2"/>
@@ -18683,7 +18711,7 @@
       <c r="C907" s="15"/>
       <c r="D907" s="15"/>
       <c r="E907" s="15"/>
-      <c r="F907" s="56"/>
+      <c r="F907" s="54"/>
       <c r="G907" s="15"/>
       <c r="H907" s="15"/>
       <c r="I907" s="2"/>
@@ -18700,7 +18728,7 @@
       <c r="C908" s="15"/>
       <c r="D908" s="15"/>
       <c r="E908" s="15"/>
-      <c r="F908" s="56"/>
+      <c r="F908" s="54"/>
       <c r="G908" s="15"/>
       <c r="H908" s="15"/>
       <c r="I908" s="2"/>
@@ -18717,7 +18745,7 @@
       <c r="C909" s="15"/>
       <c r="D909" s="15"/>
       <c r="E909" s="15"/>
-      <c r="F909" s="56"/>
+      <c r="F909" s="54"/>
       <c r="G909" s="15"/>
       <c r="H909" s="15"/>
       <c r="I909" s="2"/>
@@ -18734,7 +18762,7 @@
       <c r="C910" s="15"/>
       <c r="D910" s="15"/>
       <c r="E910" s="15"/>
-      <c r="F910" s="56"/>
+      <c r="F910" s="54"/>
       <c r="G910" s="15"/>
       <c r="H910" s="15"/>
       <c r="I910" s="2"/>
@@ -18751,7 +18779,7 @@
       <c r="C911" s="15"/>
       <c r="D911" s="15"/>
       <c r="E911" s="15"/>
-      <c r="F911" s="56"/>
+      <c r="F911" s="54"/>
       <c r="G911" s="15"/>
       <c r="H911" s="15"/>
       <c r="I911" s="2"/>
@@ -18768,7 +18796,7 @@
       <c r="C912" s="15"/>
       <c r="D912" s="15"/>
       <c r="E912" s="15"/>
-      <c r="F912" s="56"/>
+      <c r="F912" s="54"/>
       <c r="G912" s="15"/>
       <c r="H912" s="15"/>
       <c r="I912" s="2"/>
@@ -18785,7 +18813,7 @@
       <c r="C913" s="15"/>
       <c r="D913" s="15"/>
       <c r="E913" s="15"/>
-      <c r="F913" s="56"/>
+      <c r="F913" s="54"/>
       <c r="G913" s="15"/>
       <c r="H913" s="15"/>
       <c r="I913" s="2"/>
@@ -18802,7 +18830,7 @@
       <c r="C914" s="15"/>
       <c r="D914" s="15"/>
       <c r="E914" s="15"/>
-      <c r="F914" s="56"/>
+      <c r="F914" s="54"/>
       <c r="G914" s="15"/>
       <c r="H914" s="15"/>
       <c r="I914" s="2"/>
@@ -18819,7 +18847,7 @@
       <c r="C915" s="15"/>
       <c r="D915" s="15"/>
       <c r="E915" s="15"/>
-      <c r="F915" s="56"/>
+      <c r="F915" s="54"/>
       <c r="G915" s="15"/>
       <c r="H915" s="15"/>
       <c r="I915" s="2"/>
@@ -18836,7 +18864,7 @@
       <c r="C916" s="15"/>
       <c r="D916" s="15"/>
       <c r="E916" s="15"/>
-      <c r="F916" s="56"/>
+      <c r="F916" s="54"/>
       <c r="G916" s="15"/>
       <c r="H916" s="15"/>
       <c r="I916" s="2"/>
@@ -18853,7 +18881,7 @@
       <c r="C917" s="15"/>
       <c r="D917" s="15"/>
       <c r="E917" s="15"/>
-      <c r="F917" s="56"/>
+      <c r="F917" s="54"/>
       <c r="G917" s="15"/>
       <c r="H917" s="15"/>
       <c r="I917" s="2"/>
@@ -18870,7 +18898,7 @@
       <c r="C918" s="15"/>
       <c r="D918" s="15"/>
       <c r="E918" s="15"/>
-      <c r="F918" s="56"/>
+      <c r="F918" s="54"/>
       <c r="G918" s="15"/>
       <c r="H918" s="15"/>
       <c r="I918" s="2"/>
@@ -18887,7 +18915,7 @@
       <c r="C919" s="15"/>
       <c r="D919" s="15"/>
       <c r="E919" s="15"/>
-      <c r="F919" s="56"/>
+      <c r="F919" s="54"/>
       <c r="G919" s="15"/>
       <c r="H919" s="15"/>
       <c r="I919" s="2"/>
@@ -18904,7 +18932,7 @@
       <c r="C920" s="15"/>
       <c r="D920" s="15"/>
       <c r="E920" s="15"/>
-      <c r="F920" s="56"/>
+      <c r="F920" s="54"/>
       <c r="G920" s="15"/>
       <c r="H920" s="15"/>
       <c r="I920" s="2"/>
@@ -18921,7 +18949,7 @@
       <c r="C921" s="15"/>
       <c r="D921" s="15"/>
       <c r="E921" s="15"/>
-      <c r="F921" s="56"/>
+      <c r="F921" s="54"/>
       <c r="G921" s="15"/>
       <c r="H921" s="15"/>
       <c r="I921" s="2"/>
@@ -18938,7 +18966,7 @@
       <c r="C922" s="15"/>
       <c r="D922" s="15"/>
       <c r="E922" s="15"/>
-      <c r="F922" s="56"/>
+      <c r="F922" s="54"/>
       <c r="G922" s="15"/>
       <c r="H922" s="15"/>
       <c r="I922" s="2"/>
@@ -18955,7 +18983,7 @@
       <c r="C923" s="15"/>
       <c r="D923" s="15"/>
       <c r="E923" s="15"/>
-      <c r="F923" s="56"/>
+      <c r="F923" s="54"/>
       <c r="G923" s="15"/>
       <c r="H923" s="15"/>
       <c r="I923" s="2"/>
@@ -18972,7 +19000,7 @@
       <c r="C924" s="15"/>
       <c r="D924" s="15"/>
       <c r="E924" s="15"/>
-      <c r="F924" s="56"/>
+      <c r="F924" s="54"/>
       <c r="G924" s="15"/>
       <c r="H924" s="15"/>
       <c r="I924" s="2"/>
@@ -18989,7 +19017,7 @@
       <c r="C925" s="15"/>
       <c r="D925" s="15"/>
       <c r="E925" s="15"/>
-      <c r="F925" s="56"/>
+      <c r="F925" s="54"/>
       <c r="G925" s="15"/>
       <c r="H925" s="15"/>
       <c r="I925" s="2"/>
@@ -19006,7 +19034,7 @@
       <c r="C926" s="15"/>
       <c r="D926" s="15"/>
       <c r="E926" s="15"/>
-      <c r="F926" s="56"/>
+      <c r="F926" s="54"/>
       <c r="G926" s="15"/>
       <c r="H926" s="15"/>
       <c r="I926" s="2"/>
@@ -19023,7 +19051,7 @@
       <c r="C927" s="15"/>
       <c r="D927" s="15"/>
       <c r="E927" s="15"/>
-      <c r="F927" s="56"/>
+      <c r="F927" s="54"/>
       <c r="G927" s="15"/>
       <c r="H927" s="15"/>
       <c r="I927" s="2"/>
@@ -19040,7 +19068,7 @@
       <c r="C928" s="15"/>
       <c r="D928" s="15"/>
       <c r="E928" s="15"/>
-      <c r="F928" s="56"/>
+      <c r="F928" s="54"/>
       <c r="G928" s="15"/>
       <c r="H928" s="15"/>
       <c r="I928" s="2"/>
@@ -19057,7 +19085,7 @@
       <c r="C929" s="15"/>
       <c r="D929" s="15"/>
       <c r="E929" s="15"/>
-      <c r="F929" s="56"/>
+      <c r="F929" s="54"/>
       <c r="G929" s="15"/>
       <c r="H929" s="15"/>
       <c r="I929" s="2"/>
@@ -19074,7 +19102,7 @@
       <c r="C930" s="15"/>
       <c r="D930" s="15"/>
       <c r="E930" s="15"/>
-      <c r="F930" s="56"/>
+      <c r="F930" s="54"/>
       <c r="G930" s="15"/>
       <c r="H930" s="15"/>
       <c r="I930" s="2"/>
@@ -19091,7 +19119,7 @@
       <c r="C931" s="15"/>
       <c r="D931" s="15"/>
       <c r="E931" s="15"/>
-      <c r="F931" s="56"/>
+      <c r="F931" s="54"/>
       <c r="G931" s="15"/>
       <c r="H931" s="15"/>
       <c r="I931" s="2"/>
@@ -19108,7 +19136,7 @@
       <c r="C932" s="15"/>
       <c r="D932" s="15"/>
       <c r="E932" s="15"/>
-      <c r="F932" s="56"/>
+      <c r="F932" s="54"/>
       <c r="G932" s="15"/>
       <c r="H932" s="15"/>
       <c r="I932" s="2"/>
@@ -19125,7 +19153,7 @@
       <c r="C933" s="15"/>
       <c r="D933" s="15"/>
       <c r="E933" s="15"/>
-      <c r="F933" s="56"/>
+      <c r="F933" s="54"/>
       <c r="G933" s="15"/>
       <c r="H933" s="15"/>
       <c r="I933" s="2"/>
@@ -19142,7 +19170,7 @@
       <c r="C934" s="15"/>
       <c r="D934" s="15"/>
       <c r="E934" s="15"/>
-      <c r="F934" s="56"/>
+      <c r="F934" s="54"/>
       <c r="G934" s="15"/>
       <c r="H934" s="15"/>
       <c r="I934" s="2"/>
@@ -19159,7 +19187,7 @@
       <c r="C935" s="15"/>
       <c r="D935" s="15"/>
       <c r="E935" s="15"/>
-      <c r="F935" s="56"/>
+      <c r="F935" s="54"/>
       <c r="G935" s="15"/>
       <c r="H935" s="15"/>
       <c r="I935" s="2"/>
@@ -19176,7 +19204,7 @@
       <c r="C936" s="15"/>
       <c r="D936" s="15"/>
       <c r="E936" s="15"/>
-      <c r="F936" s="56"/>
+      <c r="F936" s="54"/>
       <c r="G936" s="15"/>
       <c r="H936" s="15"/>
       <c r="I936" s="2"/>
@@ -19193,7 +19221,7 @@
       <c r="C937" s="15"/>
       <c r="D937" s="15"/>
       <c r="E937" s="15"/>
-      <c r="F937" s="56"/>
+      <c r="F937" s="54"/>
       <c r="G937" s="15"/>
       <c r="H937" s="15"/>
       <c r="I937" s="2"/>
@@ -19210,7 +19238,7 @@
       <c r="C938" s="15"/>
       <c r="D938" s="15"/>
       <c r="E938" s="15"/>
-      <c r="F938" s="56"/>
+      <c r="F938" s="54"/>
       <c r="G938" s="15"/>
       <c r="H938" s="15"/>
       <c r="I938" s="2"/>
@@ -19227,7 +19255,7 @@
       <c r="C939" s="15"/>
       <c r="D939" s="15"/>
       <c r="E939" s="15"/>
-      <c r="F939" s="56"/>
+      <c r="F939" s="54"/>
       <c r="G939" s="15"/>
       <c r="H939" s="15"/>
       <c r="I939" s="2"/>
@@ -19244,7 +19272,7 @@
       <c r="C940" s="15"/>
       <c r="D940" s="15"/>
       <c r="E940" s="15"/>
-      <c r="F940" s="56"/>
+      <c r="F940" s="54"/>
       <c r="G940" s="15"/>
       <c r="H940" s="15"/>
       <c r="I940" s="2"/>
@@ -19261,7 +19289,7 @@
       <c r="C941" s="15"/>
       <c r="D941" s="15"/>
       <c r="E941" s="15"/>
-      <c r="F941" s="56"/>
+      <c r="F941" s="54"/>
       <c r="G941" s="15"/>
       <c r="H941" s="15"/>
       <c r="I941" s="2"/>
@@ -19278,7 +19306,7 @@
       <c r="C942" s="15"/>
       <c r="D942" s="15"/>
       <c r="E942" s="15"/>
-      <c r="F942" s="56"/>
+      <c r="F942" s="54"/>
       <c r="G942" s="15"/>
       <c r="H942" s="15"/>
       <c r="I942" s="2"/>
@@ -19295,7 +19323,7 @@
       <c r="C943" s="15"/>
       <c r="D943" s="15"/>
       <c r="E943" s="15"/>
-      <c r="F943" s="56"/>
+      <c r="F943" s="54"/>
       <c r="G943" s="15"/>
       <c r="H943" s="15"/>
       <c r="I943" s="2"/>
@@ -19312,7 +19340,7 @@
       <c r="C944" s="15"/>
       <c r="D944" s="15"/>
       <c r="E944" s="15"/>
-      <c r="F944" s="56"/>
+      <c r="F944" s="54"/>
       <c r="G944" s="15"/>
       <c r="H944" s="15"/>
       <c r="I944" s="2"/>
@@ -19329,7 +19357,7 @@
       <c r="C945" s="15"/>
       <c r="D945" s="15"/>
       <c r="E945" s="15"/>
-      <c r="F945" s="56"/>
+      <c r="F945" s="54"/>
       <c r="G945" s="15"/>
       <c r="H945" s="15"/>
       <c r="I945" s="2"/>
@@ -19346,7 +19374,7 @@
       <c r="C946" s="15"/>
       <c r="D946" s="15"/>
       <c r="E946" s="15"/>
-      <c r="F946" s="56"/>
+      <c r="F946" s="54"/>
       <c r="G946" s="15"/>
       <c r="H946" s="15"/>
       <c r="I946" s="2"/>
@@ -19363,7 +19391,7 @@
       <c r="C947" s="15"/>
       <c r="D947" s="15"/>
       <c r="E947" s="15"/>
-      <c r="F947" s="56"/>
+      <c r="F947" s="54"/>
       <c r="G947" s="15"/>
       <c r="H947" s="15"/>
       <c r="I947" s="2"/>
@@ -19380,7 +19408,7 @@
       <c r="C948" s="15"/>
       <c r="D948" s="15"/>
       <c r="E948" s="15"/>
-      <c r="F948" s="56"/>
+      <c r="F948" s="54"/>
       <c r="G948" s="15"/>
       <c r="H948" s="15"/>
       <c r="I948" s="2"/>
@@ -19397,7 +19425,7 @@
       <c r="C949" s="15"/>
       <c r="D949" s="15"/>
       <c r="E949" s="15"/>
-      <c r="F949" s="56"/>
+      <c r="F949" s="54"/>
       <c r="G949" s="15"/>
       <c r="H949" s="15"/>
       <c r="I949" s="2"/>
@@ -19414,7 +19442,7 @@
       <c r="C950" s="15"/>
       <c r="D950" s="15"/>
       <c r="E950" s="15"/>
-      <c r="F950" s="56"/>
+      <c r="F950" s="54"/>
       <c r="G950" s="15"/>
       <c r="H950" s="15"/>
       <c r="I950" s="2"/>
@@ -19431,7 +19459,7 @@
       <c r="C951" s="15"/>
       <c r="D951" s="15"/>
       <c r="E951" s="15"/>
-      <c r="F951" s="56"/>
+      <c r="F951" s="54"/>
       <c r="G951" s="15"/>
       <c r="H951" s="15"/>
       <c r="I951" s="2"/>
@@ -19448,7 +19476,7 @@
       <c r="C952" s="15"/>
       <c r="D952" s="15"/>
       <c r="E952" s="15"/>
-      <c r="F952" s="56"/>
+      <c r="F952" s="54"/>
       <c r="G952" s="15"/>
       <c r="H952" s="15"/>
       <c r="I952" s="2"/>
@@ -19465,7 +19493,7 @@
       <c r="C953" s="15"/>
       <c r="D953" s="15"/>
       <c r="E953" s="15"/>
-      <c r="F953" s="56"/>
+      <c r="F953" s="54"/>
       <c r="G953" s="15"/>
       <c r="H953" s="15"/>
       <c r="I953" s="2"/>
@@ -19482,7 +19510,7 @@
       <c r="C954" s="15"/>
       <c r="D954" s="15"/>
       <c r="E954" s="15"/>
-      <c r="F954" s="56"/>
+      <c r="F954" s="54"/>
       <c r="G954" s="15"/>
       <c r="H954" s="15"/>
       <c r="I954" s="2"/>
@@ -19499,7 +19527,7 @@
       <c r="C955" s="15"/>
       <c r="D955" s="15"/>
       <c r="E955" s="15"/>
-      <c r="F955" s="56"/>
+      <c r="F955" s="54"/>
       <c r="G955" s="15"/>
       <c r="H955" s="15"/>
       <c r="I955" s="2"/>
@@ -19516,7 +19544,7 @@
       <c r="C956" s="15"/>
       <c r="D956" s="15"/>
       <c r="E956" s="15"/>
-      <c r="F956" s="56"/>
+      <c r="F956" s="54"/>
       <c r="G956" s="15"/>
       <c r="H956" s="15"/>
       <c r="I956" s="2"/>
@@ -19533,7 +19561,7 @@
       <c r="C957" s="15"/>
       <c r="D957" s="15"/>
       <c r="E957" s="15"/>
-      <c r="F957" s="56"/>
+      <c r="F957" s="54"/>
       <c r="G957" s="15"/>
       <c r="H957" s="15"/>
       <c r="I957" s="2"/>
@@ -19550,7 +19578,7 @@
       <c r="C958" s="15"/>
       <c r="D958" s="15"/>
       <c r="E958" s="15"/>
-      <c r="F958" s="56"/>
+      <c r="F958" s="54"/>
       <c r="G958" s="15"/>
       <c r="H958" s="15"/>
       <c r="I958" s="2"/>
@@ -19567,7 +19595,7 @@
       <c r="C959" s="15"/>
       <c r="D959" s="15"/>
       <c r="E959" s="15"/>
-      <c r="F959" s="56"/>
+      <c r="F959" s="54"/>
       <c r="G959" s="15"/>
       <c r="H959" s="15"/>
       <c r="I959" s="2"/>
@@ -19584,7 +19612,7 @@
       <c r="C960" s="15"/>
       <c r="D960" s="15"/>
       <c r="E960" s="15"/>
-      <c r="F960" s="56"/>
+      <c r="F960" s="54"/>
       <c r="G960" s="15"/>
       <c r="H960" s="15"/>
       <c r="I960" s="2"/>
@@ -19601,7 +19629,7 @@
       <c r="C961" s="15"/>
       <c r="D961" s="15"/>
       <c r="E961" s="15"/>
-      <c r="F961" s="56"/>
+      <c r="F961" s="54"/>
       <c r="G961" s="15"/>
       <c r="H961" s="15"/>
       <c r="I961" s="2"/>
@@ -19618,7 +19646,7 @@
       <c r="C962" s="15"/>
       <c r="D962" s="15"/>
       <c r="E962" s="15"/>
-      <c r="F962" s="56"/>
+      <c r="F962" s="54"/>
       <c r="G962" s="15"/>
       <c r="H962" s="15"/>
       <c r="I962" s="2"/>
@@ -19635,7 +19663,7 @@
       <c r="C963" s="15"/>
       <c r="D963" s="15"/>
       <c r="E963" s="15"/>
-      <c r="F963" s="56"/>
+      <c r="F963" s="54"/>
       <c r="G963" s="15"/>
       <c r="H963" s="15"/>
       <c r="I963" s="2"/>
@@ -19652,7 +19680,7 @@
       <c r="C964" s="15"/>
       <c r="D964" s="15"/>
       <c r="E964" s="15"/>
-      <c r="F964" s="56"/>
+      <c r="F964" s="54"/>
       <c r="G964" s="15"/>
       <c r="H964" s="15"/>
       <c r="I964" s="2"/>
@@ -19669,7 +19697,7 @@
       <c r="C965" s="15"/>
       <c r="D965" s="15"/>
       <c r="E965" s="15"/>
-      <c r="F965" s="56"/>
+      <c r="F965" s="54"/>
       <c r="G965" s="15"/>
       <c r="H965" s="15"/>
       <c r="I965" s="2"/>
@@ -19686,7 +19714,7 @@
       <c r="C966" s="15"/>
       <c r="D966" s="15"/>
       <c r="E966" s="15"/>
-      <c r="F966" s="56"/>
+      <c r="F966" s="54"/>
       <c r="G966" s="15"/>
       <c r="H966" s="15"/>
       <c r="I966" s="2"/>
@@ -19703,7 +19731,7 @@
       <c r="C967" s="15"/>
       <c r="D967" s="15"/>
       <c r="E967" s="15"/>
-      <c r="F967" s="56"/>
+      <c r="F967" s="54"/>
       <c r="G967" s="15"/>
       <c r="H967" s="15"/>
       <c r="I967" s="2"/>
@@ -19720,7 +19748,7 @@
       <c r="C968" s="15"/>
       <c r="D968" s="15"/>
       <c r="E968" s="15"/>
-      <c r="F968" s="56"/>
+      <c r="F968" s="54"/>
       <c r="G968" s="15"/>
       <c r="H968" s="15"/>
       <c r="I968" s="2"/>
@@ -19737,7 +19765,7 @@
       <c r="C969" s="15"/>
       <c r="D969" s="15"/>
       <c r="E969" s="15"/>
-      <c r="F969" s="56"/>
+      <c r="F969" s="54"/>
       <c r="G969" s="15"/>
       <c r="H969" s="15"/>
       <c r="I969" s="2"/>
@@ -19754,7 +19782,7 @@
       <c r="C970" s="15"/>
       <c r="D970" s="15"/>
       <c r="E970" s="15"/>
-      <c r="F970" s="56"/>
+      <c r="F970" s="54"/>
       <c r="G970" s="15"/>
       <c r="H970" s="15"/>
       <c r="I970" s="2"/>
@@ -19771,7 +19799,7 @@
       <c r="C971" s="15"/>
       <c r="D971" s="15"/>
       <c r="E971" s="15"/>
-      <c r="F971" s="56"/>
+      <c r="F971" s="54"/>
       <c r="G971" s="15"/>
       <c r="H971" s="15"/>
       <c r="I971" s="2"/>
@@ -19788,7 +19816,7 @@
       <c r="C972" s="15"/>
       <c r="D972" s="15"/>
       <c r="E972" s="15"/>
-      <c r="F972" s="56"/>
+      <c r="F972" s="54"/>
       <c r="G972" s="15"/>
       <c r="H972" s="15"/>
       <c r="I972" s="2"/>
@@ -19805,7 +19833,7 @@
       <c r="C973" s="15"/>
       <c r="D973" s="15"/>
       <c r="E973" s="15"/>
-      <c r="F973" s="56"/>
+      <c r="F973" s="54"/>
       <c r="G973" s="15"/>
       <c r="H973" s="15"/>
       <c r="I973" s="2"/>
@@ -19822,7 +19850,7 @@
       <c r="C974" s="15"/>
       <c r="D974" s="15"/>
       <c r="E974" s="15"/>
-      <c r="F974" s="56"/>
+      <c r="F974" s="54"/>
       <c r="G974" s="15"/>
       <c r="H974" s="15"/>
       <c r="I974" s="2"/>
@@ -19839,7 +19867,7 @@
       <c r="C975" s="15"/>
       <c r="D975" s="15"/>
       <c r="E975" s="15"/>
-      <c r="F975" s="56"/>
+      <c r="F975" s="54"/>
       <c r="G975" s="15"/>
       <c r="H975" s="15"/>
       <c r="I975" s="2"/>
@@ -19856,7 +19884,7 @@
       <c r="C976" s="15"/>
       <c r="D976" s="15"/>
       <c r="E976" s="15"/>
-      <c r="F976" s="56"/>
+      <c r="F976" s="54"/>
       <c r="G976" s="15"/>
       <c r="H976" s="15"/>
       <c r="I976" s="2"/>
@@ -19873,7 +19901,7 @@
       <c r="C977" s="15"/>
       <c r="D977" s="15"/>
       <c r="E977" s="15"/>
-      <c r="F977" s="56"/>
+      <c r="F977" s="54"/>
       <c r="G977" s="15"/>
       <c r="H977" s="15"/>
       <c r="I977" s="2"/>
@@ -19890,7 +19918,7 @@
       <c r="C978" s="15"/>
       <c r="D978" s="15"/>
       <c r="E978" s="15"/>
-      <c r="F978" s="56"/>
+      <c r="F978" s="54"/>
       <c r="G978" s="15"/>
       <c r="H978" s="15"/>
       <c r="I978" s="2"/>
@@ -19907,7 +19935,7 @@
       <c r="C979" s="15"/>
       <c r="D979" s="15"/>
       <c r="E979" s="15"/>
-      <c r="F979" s="56"/>
+      <c r="F979" s="54"/>
       <c r="G979" s="15"/>
       <c r="H979" s="15"/>
       <c r="I979" s="2"/>
@@ -19924,7 +19952,7 @@
       <c r="C980" s="15"/>
       <c r="D980" s="15"/>
       <c r="E980" s="15"/>
-      <c r="F980" s="56"/>
+      <c r="F980" s="54"/>
       <c r="G980" s="15"/>
       <c r="H980" s="15"/>
       <c r="I980" s="2"/>
@@ -19941,7 +19969,7 @@
       <c r="C981" s="15"/>
       <c r="D981" s="15"/>
       <c r="E981" s="15"/>
-      <c r="F981" s="56"/>
+      <c r="F981" s="54"/>
       <c r="G981" s="15"/>
       <c r="H981" s="15"/>
       <c r="I981" s="2"/>
@@ -19958,7 +19986,7 @@
       <c r="C982" s="15"/>
       <c r="D982" s="15"/>
       <c r="E982" s="15"/>
-      <c r="F982" s="56"/>
+      <c r="F982" s="54"/>
       <c r="G982" s="15"/>
       <c r="H982" s="15"/>
       <c r="I982" s="2"/>
@@ -19975,7 +20003,7 @@
       <c r="C983" s="15"/>
       <c r="D983" s="15"/>
       <c r="E983" s="15"/>
-      <c r="F983" s="56"/>
+      <c r="F983" s="54"/>
       <c r="G983" s="15"/>
       <c r="H983" s="15"/>
       <c r="I983" s="2"/>
@@ -19992,7 +20020,7 @@
       <c r="C984" s="15"/>
       <c r="D984" s="15"/>
       <c r="E984" s="15"/>
-      <c r="F984" s="56"/>
+      <c r="F984" s="54"/>
       <c r="G984" s="15"/>
       <c r="H984" s="15"/>
       <c r="I984" s="2"/>
@@ -20009,7 +20037,7 @@
       <c r="C985" s="15"/>
       <c r="D985" s="15"/>
       <c r="E985" s="15"/>
-      <c r="F985" s="56"/>
+      <c r="F985" s="54"/>
       <c r="G985" s="15"/>
       <c r="H985" s="15"/>
       <c r="I985" s="2"/>
@@ -20026,7 +20054,7 @@
       <c r="C986" s="15"/>
       <c r="D986" s="15"/>
       <c r="E986" s="15"/>
-      <c r="F986" s="56"/>
+      <c r="F986" s="54"/>
       <c r="G986" s="15"/>
       <c r="H986" s="15"/>
       <c r="I986" s="2"/>
@@ -20043,7 +20071,7 @@
       <c r="C987" s="15"/>
       <c r="D987" s="15"/>
       <c r="E987" s="15"/>
-      <c r="F987" s="56"/>
+      <c r="F987" s="54"/>
       <c r="G987" s="15"/>
       <c r="H987" s="15"/>
       <c r="I987" s="2"/>
@@ -20060,7 +20088,7 @@
       <c r="C988" s="15"/>
       <c r="D988" s="15"/>
       <c r="E988" s="15"/>
-      <c r="F988" s="56"/>
+      <c r="F988" s="54"/>
       <c r="G988" s="15"/>
       <c r="H988" s="15"/>
       <c r="I988" s="2"/>
@@ -20077,7 +20105,7 @@
       <c r="C989" s="15"/>
       <c r="D989" s="15"/>
       <c r="E989" s="15"/>
-      <c r="F989" s="56"/>
+      <c r="F989" s="54"/>
       <c r="G989" s="15"/>
       <c r="H989" s="15"/>
       <c r="I989" s="2"/>
@@ -20094,7 +20122,7 @@
       <c r="C990" s="15"/>
       <c r="D990" s="15"/>
       <c r="E990" s="15"/>
-      <c r="F990" s="56"/>
+      <c r="F990" s="54"/>
       <c r="G990" s="15"/>
       <c r="H990" s="15"/>
       <c r="I990" s="2"/>
@@ -20111,7 +20139,7 @@
       <c r="C991" s="15"/>
       <c r="D991" s="15"/>
       <c r="E991" s="15"/>
-      <c r="F991" s="56"/>
+      <c r="F991" s="54"/>
       <c r="G991" s="15"/>
       <c r="H991" s="15"/>
       <c r="I991" s="2"/>
@@ -20128,7 +20156,7 @@
       <c r="C992" s="15"/>
       <c r="D992" s="15"/>
       <c r="E992" s="15"/>
-      <c r="F992" s="56"/>
+      <c r="F992" s="54"/>
       <c r="G992" s="15"/>
       <c r="H992" s="15"/>
       <c r="I992" s="2"/>
@@ -20145,7 +20173,7 @@
       <c r="C993" s="15"/>
       <c r="D993" s="15"/>
       <c r="E993" s="15"/>
-      <c r="F993" s="56"/>
+      <c r="F993" s="54"/>
       <c r="G993" s="15"/>
       <c r="H993" s="15"/>
       <c r="I993" s="2"/>
@@ -20162,7 +20190,7 @@
       <c r="C994" s="15"/>
       <c r="D994" s="15"/>
       <c r="E994" s="15"/>
-      <c r="F994" s="56"/>
+      <c r="F994" s="54"/>
       <c r="G994" s="15"/>
       <c r="H994" s="15"/>
       <c r="I994" s="2"/>
@@ -20179,7 +20207,7 @@
       <c r="C995" s="15"/>
       <c r="D995" s="15"/>
       <c r="E995" s="15"/>
-      <c r="F995" s="56"/>
+      <c r="F995" s="54"/>
       <c r="G995" s="15"/>
       <c r="H995" s="15"/>
       <c r="I995" s="2"/>
@@ -20196,7 +20224,7 @@
       <c r="C996" s="15"/>
       <c r="D996" s="15"/>
       <c r="E996" s="15"/>
-      <c r="F996" s="56"/>
+      <c r="F996" s="54"/>
       <c r="G996" s="15"/>
       <c r="H996" s="15"/>
       <c r="I996" s="2"/>
@@ -20213,7 +20241,7 @@
       <c r="C997" s="15"/>
       <c r="D997" s="15"/>
       <c r="E997" s="15"/>
-      <c r="F997" s="56"/>
+      <c r="F997" s="54"/>
       <c r="G997" s="15"/>
       <c r="H997" s="15"/>
       <c r="I997" s="2"/>
@@ -20230,7 +20258,7 @@
       <c r="C998" s="15"/>
       <c r="D998" s="15"/>
       <c r="E998" s="15"/>
-      <c r="F998" s="56"/>
+      <c r="F998" s="54"/>
       <c r="G998" s="15"/>
       <c r="H998" s="15"/>
       <c r="I998" s="2"/>
@@ -20247,7 +20275,7 @@
       <c r="C999" s="15"/>
       <c r="D999" s="15"/>
       <c r="E999" s="15"/>
-      <c r="F999" s="56"/>
+      <c r="F999" s="54"/>
       <c r="G999" s="15"/>
       <c r="H999" s="15"/>
       <c r="I999" s="2"/>
@@ -20264,7 +20292,7 @@
       <c r="C1000" s="15"/>
       <c r="D1000" s="15"/>
       <c r="E1000" s="15"/>
-      <c r="F1000" s="56"/>
+      <c r="F1000" s="54"/>
       <c r="G1000" s="15"/>
       <c r="H1000" s="15"/>
       <c r="I1000" s="2"/>

--- a/Airfoil Database/list_airfoils.xlsx
+++ b/Airfoil Database/list_airfoils.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Howon Lee\Documents\Git Repositories\GP-Aero\Airfoil Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cloned Respositories\GP-Aero\Airfoil Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61146F6-66BC-4146-85E9-0C360523FE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9442CC48-9FCB-417B-BF9C-AC305051AFFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,17 +17,6 @@
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -36,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="268">
   <si>
     <t>Airfoil</t>
   </si>
@@ -829,9 +818,6 @@
     <t>Will add</t>
   </si>
   <si>
-    <t>SC0410</t>
-  </si>
-  <si>
     <t>-4.7 - 4.9</t>
   </si>
   <si>
@@ -852,6 +838,12 @@
   <si>
     <t>1. Transition fixed at 0.075c
 2. Only 2.2e6 case is digitized</t>
+  </si>
+  <si>
+    <t>NACA 64 series</t>
+  </si>
+  <si>
+    <t>SC 0410</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1133,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1299,14 +1291,15 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="3" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Excel Built-in Good" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Excel Built-in Good 1" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Excel Built-in Neutral" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="보통" xfId="5" builtinId="28"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1414,9 +1407,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1454,7 +1447,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1560,7 +1553,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1702,7 +1695,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1712,30 +1705,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A30" sqref="A30"/>
-      <selection pane="topRight" activeCell="L58" sqref="L58"/>
+      <selection pane="topRight" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="16.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="16.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1796875" style="1" customWidth="1"/>
     <col min="11" max="12" width="28" style="1" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" customWidth="1"/>
-    <col min="15" max="15" width="71.5703125" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" customWidth="1"/>
+    <col min="15" max="15" width="71.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1785,7 +1778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1829,10 +1822,10 @@
       <c r="O2" s="7"/>
       <c r="Q2" s="8">
         <f>SUM(G2:G11,G14:G16,G18:G22,G24:G65)</f>
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1875,7 +1868,7 @@
       </c>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:20" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -1920,7 +1913,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -1975,7 +1968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>34</v>
       </c>
@@ -2024,7 +2017,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>39</v>
       </c>
@@ -2074,7 +2067,7 @@
         <v>1.0265523532247542</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="8" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="8" customFormat="1" ht="62" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -2119,7 +2112,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
@@ -2164,7 +2157,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="8" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>53</v>
       </c>
@@ -2209,7 +2202,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>57</v>
       </c>
@@ -2254,7 +2247,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>62</v>
       </c>
@@ -2299,7 +2292,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="31" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>67</v>
       </c>
@@ -2344,7 +2337,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="8" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
         <v>71</v>
       </c>
@@ -2389,7 +2382,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="21" t="s">
         <v>77</v>
       </c>
@@ -2432,7 +2425,7 @@
       </c>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:20" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
         <v>82</v>
       </c>
@@ -2475,7 +2468,7 @@
       </c>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>83</v>
       </c>
@@ -2520,7 +2513,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="8" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>89</v>
       </c>
@@ -2565,7 +2558,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
         <v>96</v>
       </c>
@@ -2610,7 +2603,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>102</v>
       </c>
@@ -2655,7 +2648,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>107</v>
       </c>
@@ -2696,7 +2689,7 @@
       </c>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" spans="1:15" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>110</v>
       </c>
@@ -2739,7 +2732,7 @@
       </c>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="1:15" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>117</v>
       </c>
@@ -2782,7 +2775,7 @@
       </c>
       <c r="O23" s="23"/>
     </row>
-    <row r="24" spans="1:15" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="46" t="s">
         <v>123</v>
       </c>
@@ -2827,7 +2820,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="46" t="s">
         <v>129</v>
       </c>
@@ -2870,7 +2863,7 @@
       </c>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" spans="1:15" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="29" t="s">
         <v>135</v>
       </c>
@@ -2913,7 +2906,7 @@
       </c>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="1:15" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>142</v>
       </c>
@@ -2956,7 +2949,7 @@
       </c>
       <c r="O27" s="7"/>
     </row>
-    <row r="28" spans="1:15" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>146</v>
       </c>
@@ -2999,7 +2992,7 @@
       </c>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" spans="1:15" s="30" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="30" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>150</v>
       </c>
@@ -3044,7 +3037,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="8" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
         <v>157</v>
       </c>
@@ -3089,7 +3082,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="21" t="s">
         <v>163</v>
       </c>
@@ -3134,7 +3127,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="21" t="s">
         <v>171</v>
       </c>
@@ -3177,7 +3170,7 @@
       </c>
       <c r="O32" s="7"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="21" t="s">
         <v>172</v>
       </c>
@@ -3222,7 +3215,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="21" t="s">
         <v>175</v>
       </c>
@@ -3267,7 +3260,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>180</v>
       </c>
@@ -3310,7 +3303,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="30" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="21" t="s">
         <v>186</v>
       </c>
@@ -3353,7 +3346,7 @@
       </c>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="21" t="s">
         <v>191</v>
       </c>
@@ -3396,7 +3389,7 @@
       </c>
       <c r="O37" s="7"/>
     </row>
-    <row r="38" spans="1:15" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="s">
         <v>193</v>
       </c>
@@ -3439,7 +3432,7 @@
       </c>
       <c r="O38" s="7"/>
     </row>
-    <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>197</v>
       </c>
@@ -3484,7 +3477,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="36" t="s">
         <v>203</v>
       </c>
@@ -3527,7 +3520,7 @@
       </c>
       <c r="O40" s="23"/>
     </row>
-    <row r="41" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="36" t="s">
         <v>207</v>
       </c>
@@ -3570,7 +3563,7 @@
       </c>
       <c r="O41" s="23"/>
     </row>
-    <row r="42" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="36" t="s">
         <v>212</v>
       </c>
@@ -3613,7 +3606,7 @@
       </c>
       <c r="O42" s="23"/>
     </row>
-    <row r="43" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="36" t="s">
         <v>214</v>
       </c>
@@ -3656,7 +3649,7 @@
       </c>
       <c r="O43" s="23"/>
     </row>
-    <row r="44" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="36" t="s">
         <v>218</v>
       </c>
@@ -3699,7 +3692,7 @@
       </c>
       <c r="O44" s="23"/>
     </row>
-    <row r="45" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="36" t="s">
         <v>220</v>
       </c>
@@ -3742,7 +3735,7 @@
       </c>
       <c r="O45" s="23"/>
     </row>
-    <row r="46" spans="1:15" s="44" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" s="44" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A46" s="40" t="s">
         <v>222</v>
       </c>
@@ -3762,7 +3755,7 @@
         <v>224</v>
       </c>
       <c r="G46" s="40">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="H46" s="33"/>
       <c r="I46" s="40" t="s">
@@ -3787,7 +3780,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>227</v>
       </c>
@@ -3830,7 +3823,7 @@
       </c>
       <c r="O47" s="7"/>
     </row>
-    <row r="48" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>228</v>
       </c>
@@ -3875,7 +3868,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>230</v>
       </c>
@@ -3920,7 +3913,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>232</v>
       </c>
@@ -3965,7 +3958,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>235</v>
       </c>
@@ -3987,7 +3980,7 @@
       <c r="G51" s="2">
         <v>8</v>
       </c>
-      <c r="H51" s="35"/>
+      <c r="H51" s="57"/>
       <c r="I51" s="2" t="s">
         <v>74</v>
       </c>
@@ -4004,13 +3997,13 @@
         <v>217</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="39" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>240</v>
       </c>
@@ -4032,7 +4025,7 @@
       <c r="G52" s="2">
         <v>8</v>
       </c>
-      <c r="H52" s="35"/>
+      <c r="H52" s="57"/>
       <c r="I52" s="2" t="s">
         <v>74</v>
       </c>
@@ -4049,13 +4042,13 @@
         <v>217</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="O52" s="7" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>243</v>
       </c>
@@ -4094,13 +4087,13 @@
         <v>24</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="O53" s="7" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>248</v>
       </c>
@@ -4145,7 +4138,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>255</v>
       </c>
@@ -4186,7 +4179,7 @@
       </c>
       <c r="O55" s="7"/>
     </row>
-    <row r="56" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
         <v>257</v>
       </c>
@@ -4202,17 +4195,23 @@
       <c r="G56" s="15"/>
       <c r="H56" s="55"/>
       <c r="I56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+      <c r="L56" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="O56" s="23"/>
     </row>
-    <row r="57" spans="1:15" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B57" s="48" t="s">
         <v>259</v>
-      </c>
-      <c r="B57" s="48" t="s">
-        <v>260</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>104</v>
@@ -4224,7 +4223,7 @@
         <v>21</v>
       </c>
       <c r="F57" s="53" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G57" s="2">
         <v>16</v>
@@ -4240,24 +4239,24 @@
         <v>29</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="N57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O57" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" s="8" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="B58" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C58" s="2">
         <v>0.15</v>
@@ -4267,7 +4266,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="53" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G58" s="2">
         <v>8</v>
@@ -4282,14 +4281,20 @@
       <c r="K58" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+      <c r="L58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="O58" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
@@ -4306,7 +4311,7 @@
       <c r="N59" s="2"/>
       <c r="O59" s="23"/>
     </row>
-    <row r="60" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
@@ -4323,7 +4328,7 @@
       <c r="N60" s="2"/>
       <c r="O60" s="23"/>
     </row>
-    <row r="61" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -4340,7 +4345,7 @@
       <c r="N61" s="2"/>
       <c r="O61" s="23"/>
     </row>
-    <row r="62" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
@@ -4357,7 +4362,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="23"/>
     </row>
-    <row r="63" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -4374,7 +4379,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="23"/>
     </row>
-    <row r="64" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
@@ -4391,7 +4396,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="23"/>
     </row>
-    <row r="65" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
@@ -4408,7 +4413,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="23"/>
     </row>
-    <row r="66" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
@@ -4425,7 +4430,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="23"/>
     </row>
-    <row r="67" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
@@ -4442,7 +4447,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="23"/>
     </row>
-    <row r="68" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
@@ -4459,7 +4464,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="23"/>
     </row>
-    <row r="69" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -4476,7 +4481,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="23"/>
     </row>
-    <row r="70" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -4493,7 +4498,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="23"/>
     </row>
-    <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -4510,7 +4515,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="23"/>
     </row>
-    <row r="72" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -4527,7 +4532,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="23"/>
     </row>
-    <row r="73" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -4544,7 +4549,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="23"/>
     </row>
-    <row r="74" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -4561,7 +4566,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="23"/>
     </row>
-    <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -4578,7 +4583,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="23"/>
     </row>
-    <row r="76" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -4595,7 +4600,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="23"/>
     </row>
-    <row r="77" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -4612,7 +4617,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="23"/>
     </row>
-    <row r="78" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -4629,7 +4634,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="23"/>
     </row>
-    <row r="79" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -4646,7 +4651,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="23"/>
     </row>
-    <row r="80" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -4663,7 +4668,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="23"/>
     </row>
-    <row r="81" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -4680,7 +4685,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="23"/>
     </row>
-    <row r="82" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -4697,7 +4702,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="23"/>
     </row>
-    <row r="83" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -4714,7 +4719,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="23"/>
     </row>
-    <row r="84" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -4731,7 +4736,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="23"/>
     </row>
-    <row r="85" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -4748,7 +4753,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="23"/>
     </row>
-    <row r="86" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="15"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
@@ -4765,7 +4770,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="23"/>
     </row>
-    <row r="87" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="15"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -4782,7 +4787,7 @@
       <c r="N87" s="2"/>
       <c r="O87" s="23"/>
     </row>
-    <row r="88" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -4799,7 +4804,7 @@
       <c r="N88" s="2"/>
       <c r="O88" s="23"/>
     </row>
-    <row r="89" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -4816,7 +4821,7 @@
       <c r="N89" s="2"/>
       <c r="O89" s="23"/>
     </row>
-    <row r="90" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -4833,7 +4838,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="23"/>
     </row>
-    <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -4850,7 +4855,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="23"/>
     </row>
-    <row r="92" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -4867,7 +4872,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="23"/>
     </row>
-    <row r="93" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -4884,7 +4889,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="23"/>
     </row>
-    <row r="94" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -4901,7 +4906,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="23"/>
     </row>
-    <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -4918,7 +4923,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="23"/>
     </row>
-    <row r="96" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -4935,7 +4940,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="23"/>
     </row>
-    <row r="97" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -4952,7 +4957,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="23"/>
     </row>
-    <row r="98" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -4969,7 +4974,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="23"/>
     </row>
-    <row r="99" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="15"/>
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
@@ -4986,7 +4991,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="23"/>
     </row>
-    <row r="100" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="15"/>
       <c r="B100" s="15"/>
       <c r="C100" s="15"/>
@@ -5003,7 +5008,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="23"/>
     </row>
-    <row r="101" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="15"/>
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
@@ -5020,7 +5025,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="23"/>
     </row>
-    <row r="102" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="15"/>
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>
@@ -5037,7 +5042,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="23"/>
     </row>
-    <row r="103" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="15"/>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
@@ -5054,7 +5059,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="23"/>
     </row>
-    <row r="104" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="15"/>
       <c r="B104" s="15"/>
       <c r="C104" s="15"/>
@@ -5071,7 +5076,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="23"/>
     </row>
-    <row r="105" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="15"/>
       <c r="B105" s="15"/>
       <c r="C105" s="15"/>
@@ -5088,7 +5093,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="23"/>
     </row>
-    <row r="106" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="15"/>
       <c r="B106" s="15"/>
       <c r="C106" s="15"/>
@@ -5105,7 +5110,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="23"/>
     </row>
-    <row r="107" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="15"/>
       <c r="B107" s="15"/>
       <c r="C107" s="15"/>
@@ -5122,7 +5127,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="23"/>
     </row>
-    <row r="108" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="15"/>
       <c r="B108" s="15"/>
       <c r="C108" s="15"/>
@@ -5139,7 +5144,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="23"/>
     </row>
-    <row r="109" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="15"/>
       <c r="B109" s="15"/>
       <c r="C109" s="15"/>
@@ -5156,7 +5161,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="23"/>
     </row>
-    <row r="110" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="15"/>
       <c r="B110" s="15"/>
       <c r="C110" s="15"/>
@@ -5173,7 +5178,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="23"/>
     </row>
-    <row r="111" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="15"/>
       <c r="B111" s="15"/>
       <c r="C111" s="15"/>
@@ -5190,7 +5195,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="23"/>
     </row>
-    <row r="112" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="15"/>
       <c r="B112" s="15"/>
       <c r="C112" s="15"/>
@@ -5207,7 +5212,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="23"/>
     </row>
-    <row r="113" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="15"/>
       <c r="B113" s="15"/>
       <c r="C113" s="15"/>
@@ -5224,7 +5229,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="23"/>
     </row>
-    <row r="114" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="15"/>
       <c r="B114" s="15"/>
       <c r="C114" s="15"/>
@@ -5241,7 +5246,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="23"/>
     </row>
-    <row r="115" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="15"/>
       <c r="B115" s="15"/>
       <c r="C115" s="15"/>
@@ -5258,7 +5263,7 @@
       <c r="N115" s="2"/>
       <c r="O115" s="23"/>
     </row>
-    <row r="116" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="15"/>
       <c r="B116" s="15"/>
       <c r="C116" s="15"/>
@@ -5275,7 +5280,7 @@
       <c r="N116" s="2"/>
       <c r="O116" s="23"/>
     </row>
-    <row r="117" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="15"/>
       <c r="B117" s="15"/>
       <c r="C117" s="15"/>
@@ -5292,7 +5297,7 @@
       <c r="N117" s="2"/>
       <c r="O117" s="23"/>
     </row>
-    <row r="118" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="15"/>
       <c r="B118" s="15"/>
       <c r="C118" s="15"/>
@@ -5309,7 +5314,7 @@
       <c r="N118" s="2"/>
       <c r="O118" s="23"/>
     </row>
-    <row r="119" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="15"/>
       <c r="B119" s="15"/>
       <c r="C119" s="15"/>
@@ -5326,7 +5331,7 @@
       <c r="N119" s="2"/>
       <c r="O119" s="23"/>
     </row>
-    <row r="120" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="15"/>
       <c r="B120" s="15"/>
       <c r="C120" s="15"/>
@@ -5343,7 +5348,7 @@
       <c r="N120" s="2"/>
       <c r="O120" s="23"/>
     </row>
-    <row r="121" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="15"/>
       <c r="B121" s="15"/>
       <c r="C121" s="15"/>
@@ -5360,7 +5365,7 @@
       <c r="N121" s="2"/>
       <c r="O121" s="23"/>
     </row>
-    <row r="122" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="15"/>
       <c r="B122" s="15"/>
       <c r="C122" s="15"/>
@@ -5377,7 +5382,7 @@
       <c r="N122" s="2"/>
       <c r="O122" s="23"/>
     </row>
-    <row r="123" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="15"/>
       <c r="B123" s="15"/>
       <c r="C123" s="15"/>
@@ -5394,7 +5399,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="23"/>
     </row>
-    <row r="124" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="15"/>
       <c r="B124" s="15"/>
       <c r="C124" s="15"/>
@@ -5411,7 +5416,7 @@
       <c r="N124" s="2"/>
       <c r="O124" s="23"/>
     </row>
-    <row r="125" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="15"/>
       <c r="B125" s="15"/>
       <c r="C125" s="15"/>
@@ -5428,7 +5433,7 @@
       <c r="N125" s="2"/>
       <c r="O125" s="23"/>
     </row>
-    <row r="126" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="15"/>
       <c r="B126" s="15"/>
       <c r="C126" s="15"/>
@@ -5445,7 +5450,7 @@
       <c r="N126" s="2"/>
       <c r="O126" s="23"/>
     </row>
-    <row r="127" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="15"/>
       <c r="B127" s="15"/>
       <c r="C127" s="15"/>
@@ -5462,7 +5467,7 @@
       <c r="N127" s="2"/>
       <c r="O127" s="23"/>
     </row>
-    <row r="128" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="15"/>
       <c r="B128" s="15"/>
       <c r="C128" s="15"/>
@@ -5479,7 +5484,7 @@
       <c r="N128" s="2"/>
       <c r="O128" s="23"/>
     </row>
-    <row r="129" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
@@ -5496,7 +5501,7 @@
       <c r="N129" s="2"/>
       <c r="O129" s="23"/>
     </row>
-    <row r="130" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="15"/>
       <c r="B130" s="15"/>
       <c r="C130" s="15"/>
@@ -5513,7 +5518,7 @@
       <c r="N130" s="2"/>
       <c r="O130" s="23"/>
     </row>
-    <row r="131" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="15"/>
       <c r="B131" s="15"/>
       <c r="C131" s="15"/>
@@ -5530,7 +5535,7 @@
       <c r="N131" s="2"/>
       <c r="O131" s="23"/>
     </row>
-    <row r="132" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A132" s="15"/>
       <c r="B132" s="15"/>
       <c r="C132" s="15"/>
@@ -5547,7 +5552,7 @@
       <c r="N132" s="2"/>
       <c r="O132" s="23"/>
     </row>
-    <row r="133" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133" s="15"/>
       <c r="B133" s="15"/>
       <c r="C133" s="15"/>
@@ -5564,7 +5569,7 @@
       <c r="N133" s="2"/>
       <c r="O133" s="23"/>
     </row>
-    <row r="134" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" s="15"/>
       <c r="B134" s="15"/>
       <c r="C134" s="15"/>
@@ -5581,7 +5586,7 @@
       <c r="N134" s="2"/>
       <c r="O134" s="23"/>
     </row>
-    <row r="135" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A135" s="15"/>
       <c r="B135" s="15"/>
       <c r="C135" s="15"/>
@@ -5598,7 +5603,7 @@
       <c r="N135" s="2"/>
       <c r="O135" s="23"/>
     </row>
-    <row r="136" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A136" s="15"/>
       <c r="B136" s="15"/>
       <c r="C136" s="15"/>
@@ -5615,7 +5620,7 @@
       <c r="N136" s="2"/>
       <c r="O136" s="23"/>
     </row>
-    <row r="137" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A137" s="15"/>
       <c r="B137" s="15"/>
       <c r="C137" s="15"/>
@@ -5632,7 +5637,7 @@
       <c r="N137" s="2"/>
       <c r="O137" s="23"/>
     </row>
-    <row r="138" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A138" s="15"/>
       <c r="B138" s="15"/>
       <c r="C138" s="15"/>
@@ -5649,7 +5654,7 @@
       <c r="N138" s="2"/>
       <c r="O138" s="23"/>
     </row>
-    <row r="139" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="15"/>
       <c r="B139" s="15"/>
       <c r="C139" s="15"/>
@@ -5666,7 +5671,7 @@
       <c r="N139" s="2"/>
       <c r="O139" s="23"/>
     </row>
-    <row r="140" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="15"/>
       <c r="B140" s="15"/>
       <c r="C140" s="15"/>
@@ -5683,7 +5688,7 @@
       <c r="N140" s="2"/>
       <c r="O140" s="23"/>
     </row>
-    <row r="141" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141" s="15"/>
       <c r="B141" s="15"/>
       <c r="C141" s="15"/>
@@ -5700,7 +5705,7 @@
       <c r="N141" s="2"/>
       <c r="O141" s="23"/>
     </row>
-    <row r="142" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A142" s="15"/>
       <c r="B142" s="15"/>
       <c r="C142" s="15"/>
@@ -5717,7 +5722,7 @@
       <c r="N142" s="2"/>
       <c r="O142" s="23"/>
     </row>
-    <row r="143" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A143" s="15"/>
       <c r="B143" s="15"/>
       <c r="C143" s="15"/>
@@ -5734,7 +5739,7 @@
       <c r="N143" s="2"/>
       <c r="O143" s="23"/>
     </row>
-    <row r="144" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A144" s="15"/>
       <c r="B144" s="15"/>
       <c r="C144" s="15"/>
@@ -5751,7 +5756,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="23"/>
     </row>
-    <row r="145" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A145" s="15"/>
       <c r="B145" s="15"/>
       <c r="C145" s="15"/>
@@ -5768,7 +5773,7 @@
       <c r="N145" s="2"/>
       <c r="O145" s="23"/>
     </row>
-    <row r="146" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="15"/>
       <c r="B146" s="15"/>
       <c r="C146" s="15"/>
@@ -5785,7 +5790,7 @@
       <c r="N146" s="2"/>
       <c r="O146" s="23"/>
     </row>
-    <row r="147" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A147" s="15"/>
       <c r="B147" s="15"/>
       <c r="C147" s="15"/>
@@ -5802,7 +5807,7 @@
       <c r="N147" s="2"/>
       <c r="O147" s="23"/>
     </row>
-    <row r="148" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A148" s="15"/>
       <c r="B148" s="15"/>
       <c r="C148" s="15"/>
@@ -5819,7 +5824,7 @@
       <c r="N148" s="2"/>
       <c r="O148" s="23"/>
     </row>
-    <row r="149" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A149" s="15"/>
       <c r="B149" s="15"/>
       <c r="C149" s="15"/>
@@ -5836,7 +5841,7 @@
       <c r="N149" s="2"/>
       <c r="O149" s="23"/>
     </row>
-    <row r="150" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A150" s="15"/>
       <c r="B150" s="15"/>
       <c r="C150" s="15"/>
@@ -5853,7 +5858,7 @@
       <c r="N150" s="2"/>
       <c r="O150" s="23"/>
     </row>
-    <row r="151" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A151" s="15"/>
       <c r="B151" s="15"/>
       <c r="C151" s="15"/>
@@ -5870,7 +5875,7 @@
       <c r="N151" s="2"/>
       <c r="O151" s="23"/>
     </row>
-    <row r="152" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A152" s="15"/>
       <c r="B152" s="15"/>
       <c r="C152" s="15"/>
@@ -5887,7 +5892,7 @@
       <c r="N152" s="2"/>
       <c r="O152" s="23"/>
     </row>
-    <row r="153" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A153" s="15"/>
       <c r="B153" s="15"/>
       <c r="C153" s="15"/>
@@ -5904,7 +5909,7 @@
       <c r="N153" s="2"/>
       <c r="O153" s="23"/>
     </row>
-    <row r="154" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A154" s="15"/>
       <c r="B154" s="15"/>
       <c r="C154" s="15"/>
@@ -5921,7 +5926,7 @@
       <c r="N154" s="2"/>
       <c r="O154" s="23"/>
     </row>
-    <row r="155" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A155" s="15"/>
       <c r="B155" s="15"/>
       <c r="C155" s="15"/>
@@ -5938,7 +5943,7 @@
       <c r="N155" s="2"/>
       <c r="O155" s="23"/>
     </row>
-    <row r="156" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A156" s="15"/>
       <c r="B156" s="15"/>
       <c r="C156" s="15"/>
@@ -5955,7 +5960,7 @@
       <c r="N156" s="2"/>
       <c r="O156" s="23"/>
     </row>
-    <row r="157" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A157" s="15"/>
       <c r="B157" s="15"/>
       <c r="C157" s="15"/>
@@ -5972,7 +5977,7 @@
       <c r="N157" s="2"/>
       <c r="O157" s="23"/>
     </row>
-    <row r="158" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A158" s="15"/>
       <c r="B158" s="15"/>
       <c r="C158" s="15"/>
@@ -5989,7 +5994,7 @@
       <c r="N158" s="2"/>
       <c r="O158" s="23"/>
     </row>
-    <row r="159" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A159" s="15"/>
       <c r="B159" s="15"/>
       <c r="C159" s="15"/>
@@ -6006,7 +6011,7 @@
       <c r="N159" s="2"/>
       <c r="O159" s="23"/>
     </row>
-    <row r="160" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A160" s="15"/>
       <c r="B160" s="15"/>
       <c r="C160" s="15"/>
@@ -6023,7 +6028,7 @@
       <c r="N160" s="2"/>
       <c r="O160" s="23"/>
     </row>
-    <row r="161" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A161" s="15"/>
       <c r="B161" s="15"/>
       <c r="C161" s="15"/>
@@ -6040,7 +6045,7 @@
       <c r="N161" s="2"/>
       <c r="O161" s="23"/>
     </row>
-    <row r="162" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A162" s="15"/>
       <c r="B162" s="15"/>
       <c r="C162" s="15"/>
@@ -6057,7 +6062,7 @@
       <c r="N162" s="2"/>
       <c r="O162" s="23"/>
     </row>
-    <row r="163" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A163" s="15"/>
       <c r="B163" s="15"/>
       <c r="C163" s="15"/>
@@ -6074,7 +6079,7 @@
       <c r="N163" s="2"/>
       <c r="O163" s="23"/>
     </row>
-    <row r="164" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A164" s="15"/>
       <c r="B164" s="15"/>
       <c r="C164" s="15"/>
@@ -6091,7 +6096,7 @@
       <c r="N164" s="2"/>
       <c r="O164" s="23"/>
     </row>
-    <row r="165" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A165" s="15"/>
       <c r="B165" s="15"/>
       <c r="C165" s="15"/>
@@ -6108,7 +6113,7 @@
       <c r="N165" s="2"/>
       <c r="O165" s="23"/>
     </row>
-    <row r="166" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A166" s="15"/>
       <c r="B166" s="15"/>
       <c r="C166" s="15"/>
@@ -6125,7 +6130,7 @@
       <c r="N166" s="2"/>
       <c r="O166" s="23"/>
     </row>
-    <row r="167" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A167" s="15"/>
       <c r="B167" s="15"/>
       <c r="C167" s="15"/>
@@ -6142,7 +6147,7 @@
       <c r="N167" s="2"/>
       <c r="O167" s="23"/>
     </row>
-    <row r="168" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A168" s="15"/>
       <c r="B168" s="15"/>
       <c r="C168" s="15"/>
@@ -6159,7 +6164,7 @@
       <c r="N168" s="2"/>
       <c r="O168" s="23"/>
     </row>
-    <row r="169" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A169" s="15"/>
       <c r="B169" s="15"/>
       <c r="C169" s="15"/>
@@ -6176,7 +6181,7 @@
       <c r="N169" s="2"/>
       <c r="O169" s="23"/>
     </row>
-    <row r="170" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A170" s="15"/>
       <c r="B170" s="15"/>
       <c r="C170" s="15"/>
@@ -6193,7 +6198,7 @@
       <c r="N170" s="2"/>
       <c r="O170" s="23"/>
     </row>
-    <row r="171" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A171" s="15"/>
       <c r="B171" s="15"/>
       <c r="C171" s="15"/>
@@ -6210,7 +6215,7 @@
       <c r="N171" s="2"/>
       <c r="O171" s="23"/>
     </row>
-    <row r="172" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A172" s="15"/>
       <c r="B172" s="15"/>
       <c r="C172" s="15"/>
@@ -6227,7 +6232,7 @@
       <c r="N172" s="2"/>
       <c r="O172" s="23"/>
     </row>
-    <row r="173" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A173" s="15"/>
       <c r="B173" s="15"/>
       <c r="C173" s="15"/>
@@ -6244,7 +6249,7 @@
       <c r="N173" s="2"/>
       <c r="O173" s="23"/>
     </row>
-    <row r="174" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A174" s="15"/>
       <c r="B174" s="15"/>
       <c r="C174" s="15"/>
@@ -6261,7 +6266,7 @@
       <c r="N174" s="2"/>
       <c r="O174" s="23"/>
     </row>
-    <row r="175" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A175" s="15"/>
       <c r="B175" s="15"/>
       <c r="C175" s="15"/>
@@ -6278,7 +6283,7 @@
       <c r="N175" s="2"/>
       <c r="O175" s="23"/>
     </row>
-    <row r="176" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A176" s="15"/>
       <c r="B176" s="15"/>
       <c r="C176" s="15"/>
@@ -6295,7 +6300,7 @@
       <c r="N176" s="2"/>
       <c r="O176" s="23"/>
     </row>
-    <row r="177" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A177" s="15"/>
       <c r="B177" s="15"/>
       <c r="C177" s="15"/>
@@ -6312,7 +6317,7 @@
       <c r="N177" s="2"/>
       <c r="O177" s="23"/>
     </row>
-    <row r="178" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A178" s="15"/>
       <c r="B178" s="15"/>
       <c r="C178" s="15"/>
@@ -6329,7 +6334,7 @@
       <c r="N178" s="2"/>
       <c r="O178" s="23"/>
     </row>
-    <row r="179" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A179" s="15"/>
       <c r="B179" s="15"/>
       <c r="C179" s="15"/>
@@ -6346,7 +6351,7 @@
       <c r="N179" s="2"/>
       <c r="O179" s="23"/>
     </row>
-    <row r="180" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A180" s="15"/>
       <c r="B180" s="15"/>
       <c r="C180" s="15"/>
@@ -6363,7 +6368,7 @@
       <c r="N180" s="2"/>
       <c r="O180" s="23"/>
     </row>
-    <row r="181" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A181" s="15"/>
       <c r="B181" s="15"/>
       <c r="C181" s="15"/>
@@ -6380,7 +6385,7 @@
       <c r="N181" s="2"/>
       <c r="O181" s="23"/>
     </row>
-    <row r="182" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A182" s="15"/>
       <c r="B182" s="15"/>
       <c r="C182" s="15"/>
@@ -6397,7 +6402,7 @@
       <c r="N182" s="2"/>
       <c r="O182" s="23"/>
     </row>
-    <row r="183" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A183" s="15"/>
       <c r="B183" s="15"/>
       <c r="C183" s="15"/>
@@ -6414,7 +6419,7 @@
       <c r="N183" s="2"/>
       <c r="O183" s="23"/>
     </row>
-    <row r="184" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A184" s="15"/>
       <c r="B184" s="15"/>
       <c r="C184" s="15"/>
@@ -6431,7 +6436,7 @@
       <c r="N184" s="2"/>
       <c r="O184" s="23"/>
     </row>
-    <row r="185" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A185" s="15"/>
       <c r="B185" s="15"/>
       <c r="C185" s="15"/>
@@ -6448,7 +6453,7 @@
       <c r="N185" s="2"/>
       <c r="O185" s="23"/>
     </row>
-    <row r="186" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A186" s="15"/>
       <c r="B186" s="15"/>
       <c r="C186" s="15"/>
@@ -6465,7 +6470,7 @@
       <c r="N186" s="2"/>
       <c r="O186" s="23"/>
     </row>
-    <row r="187" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A187" s="15"/>
       <c r="B187" s="15"/>
       <c r="C187" s="15"/>
@@ -6482,7 +6487,7 @@
       <c r="N187" s="2"/>
       <c r="O187" s="23"/>
     </row>
-    <row r="188" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A188" s="15"/>
       <c r="B188" s="15"/>
       <c r="C188" s="15"/>
@@ -6499,7 +6504,7 @@
       <c r="N188" s="2"/>
       <c r="O188" s="23"/>
     </row>
-    <row r="189" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A189" s="15"/>
       <c r="B189" s="15"/>
       <c r="C189" s="15"/>
@@ -6516,7 +6521,7 @@
       <c r="N189" s="2"/>
       <c r="O189" s="23"/>
     </row>
-    <row r="190" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A190" s="15"/>
       <c r="B190" s="15"/>
       <c r="C190" s="15"/>
@@ -6533,7 +6538,7 @@
       <c r="N190" s="2"/>
       <c r="O190" s="23"/>
     </row>
-    <row r="191" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A191" s="15"/>
       <c r="B191" s="15"/>
       <c r="C191" s="15"/>
@@ -6550,7 +6555,7 @@
       <c r="N191" s="2"/>
       <c r="O191" s="23"/>
     </row>
-    <row r="192" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A192" s="15"/>
       <c r="B192" s="15"/>
       <c r="C192" s="15"/>
@@ -6567,7 +6572,7 @@
       <c r="N192" s="2"/>
       <c r="O192" s="23"/>
     </row>
-    <row r="193" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A193" s="15"/>
       <c r="B193" s="15"/>
       <c r="C193" s="15"/>
@@ -6584,7 +6589,7 @@
       <c r="N193" s="2"/>
       <c r="O193" s="23"/>
     </row>
-    <row r="194" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A194" s="15"/>
       <c r="B194" s="15"/>
       <c r="C194" s="15"/>
@@ -6601,7 +6606,7 @@
       <c r="N194" s="2"/>
       <c r="O194" s="23"/>
     </row>
-    <row r="195" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A195" s="15"/>
       <c r="B195" s="15"/>
       <c r="C195" s="15"/>
@@ -6618,7 +6623,7 @@
       <c r="N195" s="2"/>
       <c r="O195" s="23"/>
     </row>
-    <row r="196" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A196" s="15"/>
       <c r="B196" s="15"/>
       <c r="C196" s="15"/>
@@ -6635,7 +6640,7 @@
       <c r="N196" s="2"/>
       <c r="O196" s="23"/>
     </row>
-    <row r="197" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A197" s="15"/>
       <c r="B197" s="15"/>
       <c r="C197" s="15"/>
@@ -6652,7 +6657,7 @@
       <c r="N197" s="2"/>
       <c r="O197" s="23"/>
     </row>
-    <row r="198" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A198" s="15"/>
       <c r="B198" s="15"/>
       <c r="C198" s="15"/>
@@ -6669,7 +6674,7 @@
       <c r="N198" s="2"/>
       <c r="O198" s="23"/>
     </row>
-    <row r="199" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A199" s="15"/>
       <c r="B199" s="15"/>
       <c r="C199" s="15"/>
@@ -6686,7 +6691,7 @@
       <c r="N199" s="2"/>
       <c r="O199" s="23"/>
     </row>
-    <row r="200" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A200" s="15"/>
       <c r="B200" s="15"/>
       <c r="C200" s="15"/>
@@ -6703,7 +6708,7 @@
       <c r="N200" s="2"/>
       <c r="O200" s="23"/>
     </row>
-    <row r="201" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A201" s="15"/>
       <c r="B201" s="15"/>
       <c r="C201" s="15"/>
@@ -6720,7 +6725,7 @@
       <c r="N201" s="2"/>
       <c r="O201" s="23"/>
     </row>
-    <row r="202" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A202" s="15"/>
       <c r="B202" s="15"/>
       <c r="C202" s="15"/>
@@ -6737,7 +6742,7 @@
       <c r="N202" s="2"/>
       <c r="O202" s="23"/>
     </row>
-    <row r="203" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A203" s="15"/>
       <c r="B203" s="15"/>
       <c r="C203" s="15"/>
@@ -6754,7 +6759,7 @@
       <c r="N203" s="2"/>
       <c r="O203" s="23"/>
     </row>
-    <row r="204" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A204" s="15"/>
       <c r="B204" s="15"/>
       <c r="C204" s="15"/>
@@ -6771,7 +6776,7 @@
       <c r="N204" s="2"/>
       <c r="O204" s="23"/>
     </row>
-    <row r="205" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A205" s="15"/>
       <c r="B205" s="15"/>
       <c r="C205" s="15"/>
@@ -6788,7 +6793,7 @@
       <c r="N205" s="2"/>
       <c r="O205" s="23"/>
     </row>
-    <row r="206" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A206" s="15"/>
       <c r="B206" s="15"/>
       <c r="C206" s="15"/>
@@ -6805,7 +6810,7 @@
       <c r="N206" s="2"/>
       <c r="O206" s="23"/>
     </row>
-    <row r="207" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A207" s="15"/>
       <c r="B207" s="15"/>
       <c r="C207" s="15"/>
@@ -6822,7 +6827,7 @@
       <c r="N207" s="2"/>
       <c r="O207" s="23"/>
     </row>
-    <row r="208" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A208" s="15"/>
       <c r="B208" s="15"/>
       <c r="C208" s="15"/>
@@ -6839,7 +6844,7 @@
       <c r="N208" s="2"/>
       <c r="O208" s="23"/>
     </row>
-    <row r="209" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A209" s="15"/>
       <c r="B209" s="15"/>
       <c r="C209" s="15"/>
@@ -6856,7 +6861,7 @@
       <c r="N209" s="2"/>
       <c r="O209" s="23"/>
     </row>
-    <row r="210" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A210" s="15"/>
       <c r="B210" s="15"/>
       <c r="C210" s="15"/>
@@ -6873,7 +6878,7 @@
       <c r="N210" s="2"/>
       <c r="O210" s="23"/>
     </row>
-    <row r="211" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A211" s="15"/>
       <c r="B211" s="15"/>
       <c r="C211" s="15"/>
@@ -6890,7 +6895,7 @@
       <c r="N211" s="2"/>
       <c r="O211" s="23"/>
     </row>
-    <row r="212" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A212" s="15"/>
       <c r="B212" s="15"/>
       <c r="C212" s="15"/>
@@ -6907,7 +6912,7 @@
       <c r="N212" s="2"/>
       <c r="O212" s="23"/>
     </row>
-    <row r="213" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A213" s="15"/>
       <c r="B213" s="15"/>
       <c r="C213" s="15"/>
@@ -6924,7 +6929,7 @@
       <c r="N213" s="2"/>
       <c r="O213" s="23"/>
     </row>
-    <row r="214" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A214" s="15"/>
       <c r="B214" s="15"/>
       <c r="C214" s="15"/>
@@ -6941,7 +6946,7 @@
       <c r="N214" s="2"/>
       <c r="O214" s="23"/>
     </row>
-    <row r="215" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A215" s="15"/>
       <c r="B215" s="15"/>
       <c r="C215" s="15"/>
@@ -6958,7 +6963,7 @@
       <c r="N215" s="2"/>
       <c r="O215" s="23"/>
     </row>
-    <row r="216" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A216" s="15"/>
       <c r="B216" s="15"/>
       <c r="C216" s="15"/>
@@ -6975,7 +6980,7 @@
       <c r="N216" s="2"/>
       <c r="O216" s="23"/>
     </row>
-    <row r="217" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A217" s="15"/>
       <c r="B217" s="15"/>
       <c r="C217" s="15"/>
@@ -6992,7 +6997,7 @@
       <c r="N217" s="2"/>
       <c r="O217" s="23"/>
     </row>
-    <row r="218" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A218" s="15"/>
       <c r="B218" s="15"/>
       <c r="C218" s="15"/>
@@ -7009,7 +7014,7 @@
       <c r="N218" s="2"/>
       <c r="O218" s="23"/>
     </row>
-    <row r="219" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A219" s="15"/>
       <c r="B219" s="15"/>
       <c r="C219" s="15"/>
@@ -7026,7 +7031,7 @@
       <c r="N219" s="2"/>
       <c r="O219" s="23"/>
     </row>
-    <row r="220" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A220" s="15"/>
       <c r="B220" s="15"/>
       <c r="C220" s="15"/>
@@ -7043,7 +7048,7 @@
       <c r="N220" s="2"/>
       <c r="O220" s="23"/>
     </row>
-    <row r="221" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A221" s="15"/>
       <c r="B221" s="15"/>
       <c r="C221" s="15"/>
@@ -7060,7 +7065,7 @@
       <c r="N221" s="2"/>
       <c r="O221" s="23"/>
     </row>
-    <row r="222" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A222" s="15"/>
       <c r="B222" s="15"/>
       <c r="C222" s="15"/>
@@ -7077,7 +7082,7 @@
       <c r="N222" s="2"/>
       <c r="O222" s="23"/>
     </row>
-    <row r="223" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A223" s="15"/>
       <c r="B223" s="15"/>
       <c r="C223" s="15"/>
@@ -7094,7 +7099,7 @@
       <c r="N223" s="2"/>
       <c r="O223" s="23"/>
     </row>
-    <row r="224" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A224" s="15"/>
       <c r="B224" s="15"/>
       <c r="C224" s="15"/>
@@ -7111,7 +7116,7 @@
       <c r="N224" s="2"/>
       <c r="O224" s="23"/>
     </row>
-    <row r="225" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A225" s="15"/>
       <c r="B225" s="15"/>
       <c r="C225" s="15"/>
@@ -7128,7 +7133,7 @@
       <c r="N225" s="2"/>
       <c r="O225" s="23"/>
     </row>
-    <row r="226" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A226" s="15"/>
       <c r="B226" s="15"/>
       <c r="C226" s="15"/>
@@ -7145,7 +7150,7 @@
       <c r="N226" s="2"/>
       <c r="O226" s="23"/>
     </row>
-    <row r="227" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A227" s="15"/>
       <c r="B227" s="15"/>
       <c r="C227" s="15"/>
@@ -7162,7 +7167,7 @@
       <c r="N227" s="2"/>
       <c r="O227" s="23"/>
     </row>
-    <row r="228" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A228" s="15"/>
       <c r="B228" s="15"/>
       <c r="C228" s="15"/>
@@ -7179,7 +7184,7 @@
       <c r="N228" s="2"/>
       <c r="O228" s="23"/>
     </row>
-    <row r="229" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A229" s="15"/>
       <c r="B229" s="15"/>
       <c r="C229" s="15"/>
@@ -7196,7 +7201,7 @@
       <c r="N229" s="2"/>
       <c r="O229" s="23"/>
     </row>
-    <row r="230" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A230" s="15"/>
       <c r="B230" s="15"/>
       <c r="C230" s="15"/>
@@ -7213,7 +7218,7 @@
       <c r="N230" s="2"/>
       <c r="O230" s="23"/>
     </row>
-    <row r="231" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A231" s="15"/>
       <c r="B231" s="15"/>
       <c r="C231" s="15"/>
@@ -7230,7 +7235,7 @@
       <c r="N231" s="2"/>
       <c r="O231" s="23"/>
     </row>
-    <row r="232" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A232" s="15"/>
       <c r="B232" s="15"/>
       <c r="C232" s="15"/>
@@ -7247,7 +7252,7 @@
       <c r="N232" s="2"/>
       <c r="O232" s="23"/>
     </row>
-    <row r="233" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A233" s="15"/>
       <c r="B233" s="15"/>
       <c r="C233" s="15"/>
@@ -7264,7 +7269,7 @@
       <c r="N233" s="2"/>
       <c r="O233" s="23"/>
     </row>
-    <row r="234" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A234" s="15"/>
       <c r="B234" s="15"/>
       <c r="C234" s="15"/>
@@ -7281,7 +7286,7 @@
       <c r="N234" s="2"/>
       <c r="O234" s="23"/>
     </row>
-    <row r="235" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A235" s="15"/>
       <c r="B235" s="15"/>
       <c r="C235" s="15"/>
@@ -7298,7 +7303,7 @@
       <c r="N235" s="2"/>
       <c r="O235" s="23"/>
     </row>
-    <row r="236" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A236" s="15"/>
       <c r="B236" s="15"/>
       <c r="C236" s="15"/>
@@ -7315,7 +7320,7 @@
       <c r="N236" s="2"/>
       <c r="O236" s="23"/>
     </row>
-    <row r="237" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A237" s="15"/>
       <c r="B237" s="15"/>
       <c r="C237" s="15"/>
@@ -7332,7 +7337,7 @@
       <c r="N237" s="2"/>
       <c r="O237" s="23"/>
     </row>
-    <row r="238" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A238" s="15"/>
       <c r="B238" s="15"/>
       <c r="C238" s="15"/>
@@ -7349,7 +7354,7 @@
       <c r="N238" s="2"/>
       <c r="O238" s="23"/>
     </row>
-    <row r="239" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A239" s="15"/>
       <c r="B239" s="15"/>
       <c r="C239" s="15"/>
@@ -7366,7 +7371,7 @@
       <c r="N239" s="2"/>
       <c r="O239" s="23"/>
     </row>
-    <row r="240" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A240" s="15"/>
       <c r="B240" s="15"/>
       <c r="C240" s="15"/>
@@ -7383,7 +7388,7 @@
       <c r="N240" s="2"/>
       <c r="O240" s="23"/>
     </row>
-    <row r="241" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A241" s="15"/>
       <c r="B241" s="15"/>
       <c r="C241" s="15"/>
@@ -7400,7 +7405,7 @@
       <c r="N241" s="2"/>
       <c r="O241" s="23"/>
     </row>
-    <row r="242" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A242" s="15"/>
       <c r="B242" s="15"/>
       <c r="C242" s="15"/>
@@ -7417,7 +7422,7 @@
       <c r="N242" s="2"/>
       <c r="O242" s="23"/>
     </row>
-    <row r="243" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A243" s="15"/>
       <c r="B243" s="15"/>
       <c r="C243" s="15"/>
@@ -7434,7 +7439,7 @@
       <c r="N243" s="2"/>
       <c r="O243" s="23"/>
     </row>
-    <row r="244" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A244" s="15"/>
       <c r="B244" s="15"/>
       <c r="C244" s="15"/>
@@ -7451,7 +7456,7 @@
       <c r="N244" s="2"/>
       <c r="O244" s="23"/>
     </row>
-    <row r="245" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A245" s="15"/>
       <c r="B245" s="15"/>
       <c r="C245" s="15"/>
@@ -7468,7 +7473,7 @@
       <c r="N245" s="2"/>
       <c r="O245" s="23"/>
     </row>
-    <row r="246" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A246" s="15"/>
       <c r="B246" s="15"/>
       <c r="C246" s="15"/>
@@ -7485,7 +7490,7 @@
       <c r="N246" s="2"/>
       <c r="O246" s="23"/>
     </row>
-    <row r="247" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A247" s="15"/>
       <c r="B247" s="15"/>
       <c r="C247" s="15"/>
@@ -7502,7 +7507,7 @@
       <c r="N247" s="2"/>
       <c r="O247" s="23"/>
     </row>
-    <row r="248" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A248" s="15"/>
       <c r="B248" s="15"/>
       <c r="C248" s="15"/>
@@ -7519,7 +7524,7 @@
       <c r="N248" s="2"/>
       <c r="O248" s="23"/>
     </row>
-    <row r="249" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A249" s="15"/>
       <c r="B249" s="15"/>
       <c r="C249" s="15"/>
@@ -7536,7 +7541,7 @@
       <c r="N249" s="2"/>
       <c r="O249" s="23"/>
     </row>
-    <row r="250" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A250" s="15"/>
       <c r="B250" s="15"/>
       <c r="C250" s="15"/>
@@ -7553,7 +7558,7 @@
       <c r="N250" s="2"/>
       <c r="O250" s="23"/>
     </row>
-    <row r="251" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A251" s="15"/>
       <c r="B251" s="15"/>
       <c r="C251" s="15"/>
@@ -7570,7 +7575,7 @@
       <c r="N251" s="2"/>
       <c r="O251" s="23"/>
     </row>
-    <row r="252" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A252" s="15"/>
       <c r="B252" s="15"/>
       <c r="C252" s="15"/>
@@ -7587,7 +7592,7 @@
       <c r="N252" s="2"/>
       <c r="O252" s="23"/>
     </row>
-    <row r="253" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A253" s="15"/>
       <c r="B253" s="15"/>
       <c r="C253" s="15"/>
@@ -7604,7 +7609,7 @@
       <c r="N253" s="2"/>
       <c r="O253" s="23"/>
     </row>
-    <row r="254" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A254" s="15"/>
       <c r="B254" s="15"/>
       <c r="C254" s="15"/>
@@ -7621,7 +7626,7 @@
       <c r="N254" s="2"/>
       <c r="O254" s="23"/>
     </row>
-    <row r="255" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A255" s="15"/>
       <c r="B255" s="15"/>
       <c r="C255" s="15"/>
@@ -7638,7 +7643,7 @@
       <c r="N255" s="2"/>
       <c r="O255" s="23"/>
     </row>
-    <row r="256" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A256" s="15"/>
       <c r="B256" s="15"/>
       <c r="C256" s="15"/>
@@ -7655,7 +7660,7 @@
       <c r="N256" s="2"/>
       <c r="O256" s="23"/>
     </row>
-    <row r="257" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A257" s="15"/>
       <c r="B257" s="15"/>
       <c r="C257" s="15"/>
@@ -7672,7 +7677,7 @@
       <c r="N257" s="2"/>
       <c r="O257" s="23"/>
     </row>
-    <row r="258" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A258" s="15"/>
       <c r="B258" s="15"/>
       <c r="C258" s="15"/>
@@ -7689,7 +7694,7 @@
       <c r="N258" s="2"/>
       <c r="O258" s="23"/>
     </row>
-    <row r="259" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A259" s="15"/>
       <c r="B259" s="15"/>
       <c r="C259" s="15"/>
@@ -7706,7 +7711,7 @@
       <c r="N259" s="2"/>
       <c r="O259" s="23"/>
     </row>
-    <row r="260" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A260" s="15"/>
       <c r="B260" s="15"/>
       <c r="C260" s="15"/>
@@ -7723,7 +7728,7 @@
       <c r="N260" s="2"/>
       <c r="O260" s="23"/>
     </row>
-    <row r="261" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A261" s="15"/>
       <c r="B261" s="15"/>
       <c r="C261" s="15"/>
@@ -7740,7 +7745,7 @@
       <c r="N261" s="2"/>
       <c r="O261" s="23"/>
     </row>
-    <row r="262" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A262" s="15"/>
       <c r="B262" s="15"/>
       <c r="C262" s="15"/>
@@ -7757,7 +7762,7 @@
       <c r="N262" s="2"/>
       <c r="O262" s="23"/>
     </row>
-    <row r="263" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A263" s="15"/>
       <c r="B263" s="15"/>
       <c r="C263" s="15"/>
@@ -7774,7 +7779,7 @@
       <c r="N263" s="2"/>
       <c r="O263" s="23"/>
     </row>
-    <row r="264" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A264" s="15"/>
       <c r="B264" s="15"/>
       <c r="C264" s="15"/>
@@ -7791,7 +7796,7 @@
       <c r="N264" s="2"/>
       <c r="O264" s="23"/>
     </row>
-    <row r="265" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A265" s="15"/>
       <c r="B265" s="15"/>
       <c r="C265" s="15"/>
@@ -7808,7 +7813,7 @@
       <c r="N265" s="2"/>
       <c r="O265" s="23"/>
     </row>
-    <row r="266" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A266" s="15"/>
       <c r="B266" s="15"/>
       <c r="C266" s="15"/>
@@ -7825,7 +7830,7 @@
       <c r="N266" s="2"/>
       <c r="O266" s="23"/>
     </row>
-    <row r="267" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A267" s="15"/>
       <c r="B267" s="15"/>
       <c r="C267" s="15"/>
@@ -7842,7 +7847,7 @@
       <c r="N267" s="2"/>
       <c r="O267" s="23"/>
     </row>
-    <row r="268" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A268" s="15"/>
       <c r="B268" s="15"/>
       <c r="C268" s="15"/>
@@ -7859,7 +7864,7 @@
       <c r="N268" s="2"/>
       <c r="O268" s="23"/>
     </row>
-    <row r="269" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A269" s="15"/>
       <c r="B269" s="15"/>
       <c r="C269" s="15"/>
@@ -7876,7 +7881,7 @@
       <c r="N269" s="2"/>
       <c r="O269" s="23"/>
     </row>
-    <row r="270" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A270" s="15"/>
       <c r="B270" s="15"/>
       <c r="C270" s="15"/>
@@ -7893,7 +7898,7 @@
       <c r="N270" s="2"/>
       <c r="O270" s="23"/>
     </row>
-    <row r="271" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A271" s="15"/>
       <c r="B271" s="15"/>
       <c r="C271" s="15"/>
@@ -7910,7 +7915,7 @@
       <c r="N271" s="2"/>
       <c r="O271" s="23"/>
     </row>
-    <row r="272" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A272" s="15"/>
       <c r="B272" s="15"/>
       <c r="C272" s="15"/>
@@ -7927,7 +7932,7 @@
       <c r="N272" s="2"/>
       <c r="O272" s="23"/>
     </row>
-    <row r="273" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A273" s="15"/>
       <c r="B273" s="15"/>
       <c r="C273" s="15"/>
@@ -7944,7 +7949,7 @@
       <c r="N273" s="2"/>
       <c r="O273" s="23"/>
     </row>
-    <row r="274" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A274" s="15"/>
       <c r="B274" s="15"/>
       <c r="C274" s="15"/>
@@ -7961,7 +7966,7 @@
       <c r="N274" s="2"/>
       <c r="O274" s="23"/>
     </row>
-    <row r="275" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A275" s="15"/>
       <c r="B275" s="15"/>
       <c r="C275" s="15"/>
@@ -7978,7 +7983,7 @@
       <c r="N275" s="2"/>
       <c r="O275" s="23"/>
     </row>
-    <row r="276" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A276" s="15"/>
       <c r="B276" s="15"/>
       <c r="C276" s="15"/>
@@ -7995,7 +8000,7 @@
       <c r="N276" s="2"/>
       <c r="O276" s="23"/>
     </row>
-    <row r="277" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A277" s="15"/>
       <c r="B277" s="15"/>
       <c r="C277" s="15"/>
@@ -8012,7 +8017,7 @@
       <c r="N277" s="2"/>
       <c r="O277" s="23"/>
     </row>
-    <row r="278" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A278" s="15"/>
       <c r="B278" s="15"/>
       <c r="C278" s="15"/>
@@ -8029,7 +8034,7 @@
       <c r="N278" s="2"/>
       <c r="O278" s="23"/>
     </row>
-    <row r="279" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A279" s="15"/>
       <c r="B279" s="15"/>
       <c r="C279" s="15"/>
@@ -8046,7 +8051,7 @@
       <c r="N279" s="2"/>
       <c r="O279" s="23"/>
     </row>
-    <row r="280" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A280" s="15"/>
       <c r="B280" s="15"/>
       <c r="C280" s="15"/>
@@ -8063,7 +8068,7 @@
       <c r="N280" s="2"/>
       <c r="O280" s="23"/>
     </row>
-    <row r="281" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A281" s="15"/>
       <c r="B281" s="15"/>
       <c r="C281" s="15"/>
@@ -8080,7 +8085,7 @@
       <c r="N281" s="2"/>
       <c r="O281" s="23"/>
     </row>
-    <row r="282" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A282" s="15"/>
       <c r="B282" s="15"/>
       <c r="C282" s="15"/>
@@ -8097,7 +8102,7 @@
       <c r="N282" s="2"/>
       <c r="O282" s="23"/>
     </row>
-    <row r="283" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A283" s="15"/>
       <c r="B283" s="15"/>
       <c r="C283" s="15"/>
@@ -8114,7 +8119,7 @@
       <c r="N283" s="2"/>
       <c r="O283" s="23"/>
     </row>
-    <row r="284" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A284" s="15"/>
       <c r="B284" s="15"/>
       <c r="C284" s="15"/>
@@ -8131,7 +8136,7 @@
       <c r="N284" s="2"/>
       <c r="O284" s="23"/>
     </row>
-    <row r="285" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A285" s="15"/>
       <c r="B285" s="15"/>
       <c r="C285" s="15"/>
@@ -8148,7 +8153,7 @@
       <c r="N285" s="2"/>
       <c r="O285" s="23"/>
     </row>
-    <row r="286" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A286" s="15"/>
       <c r="B286" s="15"/>
       <c r="C286" s="15"/>
@@ -8165,7 +8170,7 @@
       <c r="N286" s="2"/>
       <c r="O286" s="23"/>
     </row>
-    <row r="287" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A287" s="15"/>
       <c r="B287" s="15"/>
       <c r="C287" s="15"/>
@@ -8182,7 +8187,7 @@
       <c r="N287" s="2"/>
       <c r="O287" s="23"/>
     </row>
-    <row r="288" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A288" s="15"/>
       <c r="B288" s="15"/>
       <c r="C288" s="15"/>
@@ -8199,7 +8204,7 @@
       <c r="N288" s="2"/>
       <c r="O288" s="23"/>
     </row>
-    <row r="289" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A289" s="15"/>
       <c r="B289" s="15"/>
       <c r="C289" s="15"/>
@@ -8216,7 +8221,7 @@
       <c r="N289" s="2"/>
       <c r="O289" s="23"/>
     </row>
-    <row r="290" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A290" s="15"/>
       <c r="B290" s="15"/>
       <c r="C290" s="15"/>
@@ -8233,7 +8238,7 @@
       <c r="N290" s="2"/>
       <c r="O290" s="23"/>
     </row>
-    <row r="291" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A291" s="15"/>
       <c r="B291" s="15"/>
       <c r="C291" s="15"/>
@@ -8250,7 +8255,7 @@
       <c r="N291" s="2"/>
       <c r="O291" s="23"/>
     </row>
-    <row r="292" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A292" s="15"/>
       <c r="B292" s="15"/>
       <c r="C292" s="15"/>
@@ -8267,7 +8272,7 @@
       <c r="N292" s="2"/>
       <c r="O292" s="23"/>
     </row>
-    <row r="293" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A293" s="15"/>
       <c r="B293" s="15"/>
       <c r="C293" s="15"/>
@@ -8284,7 +8289,7 @@
       <c r="N293" s="2"/>
       <c r="O293" s="23"/>
     </row>
-    <row r="294" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A294" s="15"/>
       <c r="B294" s="15"/>
       <c r="C294" s="15"/>
@@ -8301,7 +8306,7 @@
       <c r="N294" s="2"/>
       <c r="O294" s="23"/>
     </row>
-    <row r="295" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A295" s="15"/>
       <c r="B295" s="15"/>
       <c r="C295" s="15"/>
@@ -8318,7 +8323,7 @@
       <c r="N295" s="2"/>
       <c r="O295" s="23"/>
     </row>
-    <row r="296" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A296" s="15"/>
       <c r="B296" s="15"/>
       <c r="C296" s="15"/>
@@ -8335,7 +8340,7 @@
       <c r="N296" s="2"/>
       <c r="O296" s="23"/>
     </row>
-    <row r="297" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A297" s="15"/>
       <c r="B297" s="15"/>
       <c r="C297" s="15"/>
@@ -8352,7 +8357,7 @@
       <c r="N297" s="2"/>
       <c r="O297" s="23"/>
     </row>
-    <row r="298" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A298" s="15"/>
       <c r="B298" s="15"/>
       <c r="C298" s="15"/>
@@ -8369,7 +8374,7 @@
       <c r="N298" s="2"/>
       <c r="O298" s="23"/>
     </row>
-    <row r="299" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A299" s="15"/>
       <c r="B299" s="15"/>
       <c r="C299" s="15"/>
@@ -8386,7 +8391,7 @@
       <c r="N299" s="2"/>
       <c r="O299" s="23"/>
     </row>
-    <row r="300" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A300" s="15"/>
       <c r="B300" s="15"/>
       <c r="C300" s="15"/>
@@ -8403,7 +8408,7 @@
       <c r="N300" s="2"/>
       <c r="O300" s="23"/>
     </row>
-    <row r="301" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A301" s="15"/>
       <c r="B301" s="15"/>
       <c r="C301" s="15"/>
@@ -8420,7 +8425,7 @@
       <c r="N301" s="2"/>
       <c r="O301" s="23"/>
     </row>
-    <row r="302" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A302" s="15"/>
       <c r="B302" s="15"/>
       <c r="C302" s="15"/>
@@ -8437,7 +8442,7 @@
       <c r="N302" s="2"/>
       <c r="O302" s="23"/>
     </row>
-    <row r="303" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A303" s="15"/>
       <c r="B303" s="15"/>
       <c r="C303" s="15"/>
@@ -8454,7 +8459,7 @@
       <c r="N303" s="2"/>
       <c r="O303" s="23"/>
     </row>
-    <row r="304" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A304" s="15"/>
       <c r="B304" s="15"/>
       <c r="C304" s="15"/>
@@ -8471,7 +8476,7 @@
       <c r="N304" s="2"/>
       <c r="O304" s="23"/>
     </row>
-    <row r="305" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A305" s="15"/>
       <c r="B305" s="15"/>
       <c r="C305" s="15"/>
@@ -8488,7 +8493,7 @@
       <c r="N305" s="2"/>
       <c r="O305" s="23"/>
     </row>
-    <row r="306" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A306" s="15"/>
       <c r="B306" s="15"/>
       <c r="C306" s="15"/>
@@ -8505,7 +8510,7 @@
       <c r="N306" s="2"/>
       <c r="O306" s="23"/>
     </row>
-    <row r="307" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A307" s="15"/>
       <c r="B307" s="15"/>
       <c r="C307" s="15"/>
@@ -8522,7 +8527,7 @@
       <c r="N307" s="2"/>
       <c r="O307" s="23"/>
     </row>
-    <row r="308" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A308" s="15"/>
       <c r="B308" s="15"/>
       <c r="C308" s="15"/>
@@ -8539,7 +8544,7 @@
       <c r="N308" s="2"/>
       <c r="O308" s="23"/>
     </row>
-    <row r="309" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A309" s="15"/>
       <c r="B309" s="15"/>
       <c r="C309" s="15"/>
@@ -8556,7 +8561,7 @@
       <c r="N309" s="2"/>
       <c r="O309" s="23"/>
     </row>
-    <row r="310" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A310" s="15"/>
       <c r="B310" s="15"/>
       <c r="C310" s="15"/>
@@ -8573,7 +8578,7 @@
       <c r="N310" s="2"/>
       <c r="O310" s="23"/>
     </row>
-    <row r="311" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A311" s="15"/>
       <c r="B311" s="15"/>
       <c r="C311" s="15"/>
@@ -8590,7 +8595,7 @@
       <c r="N311" s="2"/>
       <c r="O311" s="23"/>
     </row>
-    <row r="312" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A312" s="15"/>
       <c r="B312" s="15"/>
       <c r="C312" s="15"/>
@@ -8607,7 +8612,7 @@
       <c r="N312" s="2"/>
       <c r="O312" s="23"/>
     </row>
-    <row r="313" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A313" s="15"/>
       <c r="B313" s="15"/>
       <c r="C313" s="15"/>
@@ -8624,7 +8629,7 @@
       <c r="N313" s="2"/>
       <c r="O313" s="23"/>
     </row>
-    <row r="314" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A314" s="15"/>
       <c r="B314" s="15"/>
       <c r="C314" s="15"/>
@@ -8641,7 +8646,7 @@
       <c r="N314" s="2"/>
       <c r="O314" s="23"/>
     </row>
-    <row r="315" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A315" s="15"/>
       <c r="B315" s="15"/>
       <c r="C315" s="15"/>
@@ -8658,7 +8663,7 @@
       <c r="N315" s="2"/>
       <c r="O315" s="23"/>
     </row>
-    <row r="316" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A316" s="15"/>
       <c r="B316" s="15"/>
       <c r="C316" s="15"/>
@@ -8675,7 +8680,7 @@
       <c r="N316" s="2"/>
       <c r="O316" s="23"/>
     </row>
-    <row r="317" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A317" s="15"/>
       <c r="B317" s="15"/>
       <c r="C317" s="15"/>
@@ -8692,7 +8697,7 @@
       <c r="N317" s="2"/>
       <c r="O317" s="23"/>
     </row>
-    <row r="318" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A318" s="15"/>
       <c r="B318" s="15"/>
       <c r="C318" s="15"/>
@@ -8709,7 +8714,7 @@
       <c r="N318" s="2"/>
       <c r="O318" s="23"/>
     </row>
-    <row r="319" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A319" s="15"/>
       <c r="B319" s="15"/>
       <c r="C319" s="15"/>
@@ -8726,7 +8731,7 @@
       <c r="N319" s="2"/>
       <c r="O319" s="23"/>
     </row>
-    <row r="320" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A320" s="15"/>
       <c r="B320" s="15"/>
       <c r="C320" s="15"/>
@@ -8743,7 +8748,7 @@
       <c r="N320" s="2"/>
       <c r="O320" s="23"/>
     </row>
-    <row r="321" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A321" s="15"/>
       <c r="B321" s="15"/>
       <c r="C321" s="15"/>
@@ -8760,7 +8765,7 @@
       <c r="N321" s="2"/>
       <c r="O321" s="23"/>
     </row>
-    <row r="322" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A322" s="15"/>
       <c r="B322" s="15"/>
       <c r="C322" s="15"/>
@@ -8777,7 +8782,7 @@
       <c r="N322" s="2"/>
       <c r="O322" s="23"/>
     </row>
-    <row r="323" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A323" s="15"/>
       <c r="B323" s="15"/>
       <c r="C323" s="15"/>
@@ -8794,7 +8799,7 @@
       <c r="N323" s="2"/>
       <c r="O323" s="23"/>
     </row>
-    <row r="324" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A324" s="15"/>
       <c r="B324" s="15"/>
       <c r="C324" s="15"/>
@@ -8811,7 +8816,7 @@
       <c r="N324" s="2"/>
       <c r="O324" s="23"/>
     </row>
-    <row r="325" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A325" s="15"/>
       <c r="B325" s="15"/>
       <c r="C325" s="15"/>
@@ -8828,7 +8833,7 @@
       <c r="N325" s="2"/>
       <c r="O325" s="23"/>
     </row>
-    <row r="326" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A326" s="15"/>
       <c r="B326" s="15"/>
       <c r="C326" s="15"/>
@@ -8845,7 +8850,7 @@
       <c r="N326" s="2"/>
       <c r="O326" s="23"/>
     </row>
-    <row r="327" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A327" s="15"/>
       <c r="B327" s="15"/>
       <c r="C327" s="15"/>
@@ -8862,7 +8867,7 @@
       <c r="N327" s="2"/>
       <c r="O327" s="23"/>
     </row>
-    <row r="328" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A328" s="15"/>
       <c r="B328" s="15"/>
       <c r="C328" s="15"/>
@@ -8879,7 +8884,7 @@
       <c r="N328" s="2"/>
       <c r="O328" s="23"/>
     </row>
-    <row r="329" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A329" s="15"/>
       <c r="B329" s="15"/>
       <c r="C329" s="15"/>
@@ -8896,7 +8901,7 @@
       <c r="N329" s="2"/>
       <c r="O329" s="23"/>
     </row>
-    <row r="330" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A330" s="15"/>
       <c r="B330" s="15"/>
       <c r="C330" s="15"/>
@@ -8913,7 +8918,7 @@
       <c r="N330" s="2"/>
       <c r="O330" s="23"/>
     </row>
-    <row r="331" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A331" s="15"/>
       <c r="B331" s="15"/>
       <c r="C331" s="15"/>
@@ -8930,7 +8935,7 @@
       <c r="N331" s="2"/>
       <c r="O331" s="23"/>
     </row>
-    <row r="332" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A332" s="15"/>
       <c r="B332" s="15"/>
       <c r="C332" s="15"/>
@@ -8947,7 +8952,7 @@
       <c r="N332" s="2"/>
       <c r="O332" s="23"/>
     </row>
-    <row r="333" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A333" s="15"/>
       <c r="B333" s="15"/>
       <c r="C333" s="15"/>
@@ -8964,7 +8969,7 @@
       <c r="N333" s="2"/>
       <c r="O333" s="23"/>
     </row>
-    <row r="334" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A334" s="15"/>
       <c r="B334" s="15"/>
       <c r="C334" s="15"/>
@@ -8981,7 +8986,7 @@
       <c r="N334" s="2"/>
       <c r="O334" s="23"/>
     </row>
-    <row r="335" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A335" s="15"/>
       <c r="B335" s="15"/>
       <c r="C335" s="15"/>
@@ -8998,7 +9003,7 @@
       <c r="N335" s="2"/>
       <c r="O335" s="23"/>
     </row>
-    <row r="336" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A336" s="15"/>
       <c r="B336" s="15"/>
       <c r="C336" s="15"/>
@@ -9015,7 +9020,7 @@
       <c r="N336" s="2"/>
       <c r="O336" s="23"/>
     </row>
-    <row r="337" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A337" s="15"/>
       <c r="B337" s="15"/>
       <c r="C337" s="15"/>
@@ -9032,7 +9037,7 @@
       <c r="N337" s="2"/>
       <c r="O337" s="23"/>
     </row>
-    <row r="338" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A338" s="15"/>
       <c r="B338" s="15"/>
       <c r="C338" s="15"/>
@@ -9049,7 +9054,7 @@
       <c r="N338" s="2"/>
       <c r="O338" s="23"/>
     </row>
-    <row r="339" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A339" s="15"/>
       <c r="B339" s="15"/>
       <c r="C339" s="15"/>
@@ -9066,7 +9071,7 @@
       <c r="N339" s="2"/>
       <c r="O339" s="23"/>
     </row>
-    <row r="340" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A340" s="15"/>
       <c r="B340" s="15"/>
       <c r="C340" s="15"/>
@@ -9083,7 +9088,7 @@
       <c r="N340" s="2"/>
       <c r="O340" s="23"/>
     </row>
-    <row r="341" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A341" s="15"/>
       <c r="B341" s="15"/>
       <c r="C341" s="15"/>
@@ -9100,7 +9105,7 @@
       <c r="N341" s="2"/>
       <c r="O341" s="23"/>
     </row>
-    <row r="342" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A342" s="15"/>
       <c r="B342" s="15"/>
       <c r="C342" s="15"/>
@@ -9117,7 +9122,7 @@
       <c r="N342" s="2"/>
       <c r="O342" s="23"/>
     </row>
-    <row r="343" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A343" s="15"/>
       <c r="B343" s="15"/>
       <c r="C343" s="15"/>
@@ -9134,7 +9139,7 @@
       <c r="N343" s="2"/>
       <c r="O343" s="23"/>
     </row>
-    <row r="344" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A344" s="15"/>
       <c r="B344" s="15"/>
       <c r="C344" s="15"/>
@@ -9151,7 +9156,7 @@
       <c r="N344" s="2"/>
       <c r="O344" s="23"/>
     </row>
-    <row r="345" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A345" s="15"/>
       <c r="B345" s="15"/>
       <c r="C345" s="15"/>
@@ -9168,7 +9173,7 @@
       <c r="N345" s="2"/>
       <c r="O345" s="23"/>
     </row>
-    <row r="346" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A346" s="15"/>
       <c r="B346" s="15"/>
       <c r="C346" s="15"/>
@@ -9185,7 +9190,7 @@
       <c r="N346" s="2"/>
       <c r="O346" s="23"/>
     </row>
-    <row r="347" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A347" s="15"/>
       <c r="B347" s="15"/>
       <c r="C347" s="15"/>
@@ -9202,7 +9207,7 @@
       <c r="N347" s="2"/>
       <c r="O347" s="23"/>
     </row>
-    <row r="348" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A348" s="15"/>
       <c r="B348" s="15"/>
       <c r="C348" s="15"/>
@@ -9219,7 +9224,7 @@
       <c r="N348" s="2"/>
       <c r="O348" s="23"/>
     </row>
-    <row r="349" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A349" s="15"/>
       <c r="B349" s="15"/>
       <c r="C349" s="15"/>
@@ -9236,7 +9241,7 @@
       <c r="N349" s="2"/>
       <c r="O349" s="23"/>
     </row>
-    <row r="350" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A350" s="15"/>
       <c r="B350" s="15"/>
       <c r="C350" s="15"/>
@@ -9253,7 +9258,7 @@
       <c r="N350" s="2"/>
       <c r="O350" s="23"/>
     </row>
-    <row r="351" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A351" s="15"/>
       <c r="B351" s="15"/>
       <c r="C351" s="15"/>
@@ -9270,7 +9275,7 @@
       <c r="N351" s="2"/>
       <c r="O351" s="23"/>
     </row>
-    <row r="352" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A352" s="15"/>
       <c r="B352" s="15"/>
       <c r="C352" s="15"/>
@@ -9287,7 +9292,7 @@
       <c r="N352" s="2"/>
       <c r="O352" s="23"/>
     </row>
-    <row r="353" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A353" s="15"/>
       <c r="B353" s="15"/>
       <c r="C353" s="15"/>
@@ -9304,7 +9309,7 @@
       <c r="N353" s="2"/>
       <c r="O353" s="23"/>
     </row>
-    <row r="354" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A354" s="15"/>
       <c r="B354" s="15"/>
       <c r="C354" s="15"/>
@@ -9321,7 +9326,7 @@
       <c r="N354" s="2"/>
       <c r="O354" s="23"/>
     </row>
-    <row r="355" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A355" s="15"/>
       <c r="B355" s="15"/>
       <c r="C355" s="15"/>
@@ -9338,7 +9343,7 @@
       <c r="N355" s="2"/>
       <c r="O355" s="23"/>
     </row>
-    <row r="356" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A356" s="15"/>
       <c r="B356" s="15"/>
       <c r="C356" s="15"/>
@@ -9355,7 +9360,7 @@
       <c r="N356" s="2"/>
       <c r="O356" s="23"/>
     </row>
-    <row r="357" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A357" s="15"/>
       <c r="B357" s="15"/>
       <c r="C357" s="15"/>
@@ -9372,7 +9377,7 @@
       <c r="N357" s="2"/>
       <c r="O357" s="23"/>
     </row>
-    <row r="358" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A358" s="15"/>
       <c r="B358" s="15"/>
       <c r="C358" s="15"/>
@@ -9389,7 +9394,7 @@
       <c r="N358" s="2"/>
       <c r="O358" s="23"/>
     </row>
-    <row r="359" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A359" s="15"/>
       <c r="B359" s="15"/>
       <c r="C359" s="15"/>
@@ -9406,7 +9411,7 @@
       <c r="N359" s="2"/>
       <c r="O359" s="23"/>
     </row>
-    <row r="360" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A360" s="15"/>
       <c r="B360" s="15"/>
       <c r="C360" s="15"/>
@@ -9423,7 +9428,7 @@
       <c r="N360" s="2"/>
       <c r="O360" s="23"/>
     </row>
-    <row r="361" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A361" s="15"/>
       <c r="B361" s="15"/>
       <c r="C361" s="15"/>
@@ -9440,7 +9445,7 @@
       <c r="N361" s="2"/>
       <c r="O361" s="23"/>
     </row>
-    <row r="362" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A362" s="15"/>
       <c r="B362" s="15"/>
       <c r="C362" s="15"/>
@@ -9457,7 +9462,7 @@
       <c r="N362" s="2"/>
       <c r="O362" s="23"/>
     </row>
-    <row r="363" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A363" s="15"/>
       <c r="B363" s="15"/>
       <c r="C363" s="15"/>
@@ -9474,7 +9479,7 @@
       <c r="N363" s="2"/>
       <c r="O363" s="23"/>
     </row>
-    <row r="364" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A364" s="15"/>
       <c r="B364" s="15"/>
       <c r="C364" s="15"/>
@@ -9491,7 +9496,7 @@
       <c r="N364" s="2"/>
       <c r="O364" s="23"/>
     </row>
-    <row r="365" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A365" s="15"/>
       <c r="B365" s="15"/>
       <c r="C365" s="15"/>
@@ -9508,7 +9513,7 @@
       <c r="N365" s="2"/>
       <c r="O365" s="23"/>
     </row>
-    <row r="366" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A366" s="15"/>
       <c r="B366" s="15"/>
       <c r="C366" s="15"/>
@@ -9525,7 +9530,7 @@
       <c r="N366" s="2"/>
       <c r="O366" s="23"/>
     </row>
-    <row r="367" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A367" s="15"/>
       <c r="B367" s="15"/>
       <c r="C367" s="15"/>
@@ -9542,7 +9547,7 @@
       <c r="N367" s="2"/>
       <c r="O367" s="23"/>
     </row>
-    <row r="368" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A368" s="15"/>
       <c r="B368" s="15"/>
       <c r="C368" s="15"/>
@@ -9559,7 +9564,7 @@
       <c r="N368" s="2"/>
       <c r="O368" s="23"/>
     </row>
-    <row r="369" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A369" s="15"/>
       <c r="B369" s="15"/>
       <c r="C369" s="15"/>
@@ -9576,7 +9581,7 @@
       <c r="N369" s="2"/>
       <c r="O369" s="23"/>
     </row>
-    <row r="370" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A370" s="15"/>
       <c r="B370" s="15"/>
       <c r="C370" s="15"/>
@@ -9593,7 +9598,7 @@
       <c r="N370" s="2"/>
       <c r="O370" s="23"/>
     </row>
-    <row r="371" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A371" s="15"/>
       <c r="B371" s="15"/>
       <c r="C371" s="15"/>
@@ -9610,7 +9615,7 @@
       <c r="N371" s="2"/>
       <c r="O371" s="23"/>
     </row>
-    <row r="372" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A372" s="15"/>
       <c r="B372" s="15"/>
       <c r="C372" s="15"/>
@@ -9627,7 +9632,7 @@
       <c r="N372" s="2"/>
       <c r="O372" s="23"/>
     </row>
-    <row r="373" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A373" s="15"/>
       <c r="B373" s="15"/>
       <c r="C373" s="15"/>
@@ -9644,7 +9649,7 @@
       <c r="N373" s="2"/>
       <c r="O373" s="23"/>
     </row>
-    <row r="374" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A374" s="15"/>
       <c r="B374" s="15"/>
       <c r="C374" s="15"/>
@@ -9661,7 +9666,7 @@
       <c r="N374" s="2"/>
       <c r="O374" s="23"/>
     </row>
-    <row r="375" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A375" s="15"/>
       <c r="B375" s="15"/>
       <c r="C375" s="15"/>
@@ -9678,7 +9683,7 @@
       <c r="N375" s="2"/>
       <c r="O375" s="23"/>
     </row>
-    <row r="376" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A376" s="15"/>
       <c r="B376" s="15"/>
       <c r="C376" s="15"/>
@@ -9695,7 +9700,7 @@
       <c r="N376" s="2"/>
       <c r="O376" s="23"/>
     </row>
-    <row r="377" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A377" s="15"/>
       <c r="B377" s="15"/>
       <c r="C377" s="15"/>
@@ -9712,7 +9717,7 @@
       <c r="N377" s="2"/>
       <c r="O377" s="23"/>
     </row>
-    <row r="378" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A378" s="15"/>
       <c r="B378" s="15"/>
       <c r="C378" s="15"/>
@@ -9729,7 +9734,7 @@
       <c r="N378" s="2"/>
       <c r="O378" s="23"/>
     </row>
-    <row r="379" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A379" s="15"/>
       <c r="B379" s="15"/>
       <c r="C379" s="15"/>
@@ -9746,7 +9751,7 @@
       <c r="N379" s="2"/>
       <c r="O379" s="23"/>
     </row>
-    <row r="380" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A380" s="15"/>
       <c r="B380" s="15"/>
       <c r="C380" s="15"/>
@@ -9763,7 +9768,7 @@
       <c r="N380" s="2"/>
       <c r="O380" s="23"/>
     </row>
-    <row r="381" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A381" s="15"/>
       <c r="B381" s="15"/>
       <c r="C381" s="15"/>
@@ -9780,7 +9785,7 @@
       <c r="N381" s="2"/>
       <c r="O381" s="23"/>
     </row>
-    <row r="382" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A382" s="15"/>
       <c r="B382" s="15"/>
       <c r="C382" s="15"/>
@@ -9797,7 +9802,7 @@
       <c r="N382" s="2"/>
       <c r="O382" s="23"/>
     </row>
-    <row r="383" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A383" s="15"/>
       <c r="B383" s="15"/>
       <c r="C383" s="15"/>
@@ -9814,7 +9819,7 @@
       <c r="N383" s="2"/>
       <c r="O383" s="23"/>
     </row>
-    <row r="384" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A384" s="15"/>
       <c r="B384" s="15"/>
       <c r="C384" s="15"/>
@@ -9831,7 +9836,7 @@
       <c r="N384" s="2"/>
       <c r="O384" s="23"/>
     </row>
-    <row r="385" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A385" s="15"/>
       <c r="B385" s="15"/>
       <c r="C385" s="15"/>
@@ -9848,7 +9853,7 @@
       <c r="N385" s="2"/>
       <c r="O385" s="23"/>
     </row>
-    <row r="386" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A386" s="15"/>
       <c r="B386" s="15"/>
       <c r="C386" s="15"/>
@@ -9865,7 +9870,7 @@
       <c r="N386" s="2"/>
       <c r="O386" s="23"/>
     </row>
-    <row r="387" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A387" s="15"/>
       <c r="B387" s="15"/>
       <c r="C387" s="15"/>
@@ -9882,7 +9887,7 @@
       <c r="N387" s="2"/>
       <c r="O387" s="23"/>
     </row>
-    <row r="388" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A388" s="15"/>
       <c r="B388" s="15"/>
       <c r="C388" s="15"/>
@@ -9899,7 +9904,7 @@
       <c r="N388" s="2"/>
       <c r="O388" s="23"/>
     </row>
-    <row r="389" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A389" s="15"/>
       <c r="B389" s="15"/>
       <c r="C389" s="15"/>
@@ -9916,7 +9921,7 @@
       <c r="N389" s="2"/>
       <c r="O389" s="23"/>
     </row>
-    <row r="390" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A390" s="15"/>
       <c r="B390" s="15"/>
       <c r="C390" s="15"/>
@@ -9933,7 +9938,7 @@
       <c r="N390" s="2"/>
       <c r="O390" s="23"/>
     </row>
-    <row r="391" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A391" s="15"/>
       <c r="B391" s="15"/>
       <c r="C391" s="15"/>
@@ -9950,7 +9955,7 @@
       <c r="N391" s="2"/>
       <c r="O391" s="23"/>
     </row>
-    <row r="392" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A392" s="15"/>
       <c r="B392" s="15"/>
       <c r="C392" s="15"/>
@@ -9967,7 +9972,7 @@
       <c r="N392" s="2"/>
       <c r="O392" s="23"/>
     </row>
-    <row r="393" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A393" s="15"/>
       <c r="B393" s="15"/>
       <c r="C393" s="15"/>
@@ -9984,7 +9989,7 @@
       <c r="N393" s="2"/>
       <c r="O393" s="23"/>
     </row>
-    <row r="394" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A394" s="15"/>
       <c r="B394" s="15"/>
       <c r="C394" s="15"/>
@@ -10001,7 +10006,7 @@
       <c r="N394" s="2"/>
       <c r="O394" s="23"/>
     </row>
-    <row r="395" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A395" s="15"/>
       <c r="B395" s="15"/>
       <c r="C395" s="15"/>
@@ -10018,7 +10023,7 @@
       <c r="N395" s="2"/>
       <c r="O395" s="23"/>
     </row>
-    <row r="396" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A396" s="15"/>
       <c r="B396" s="15"/>
       <c r="C396" s="15"/>
@@ -10035,7 +10040,7 @@
       <c r="N396" s="2"/>
       <c r="O396" s="23"/>
     </row>
-    <row r="397" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A397" s="15"/>
       <c r="B397" s="15"/>
       <c r="C397" s="15"/>
@@ -10052,7 +10057,7 @@
       <c r="N397" s="2"/>
       <c r="O397" s="23"/>
     </row>
-    <row r="398" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A398" s="15"/>
       <c r="B398" s="15"/>
       <c r="C398" s="15"/>
@@ -10069,7 +10074,7 @@
       <c r="N398" s="2"/>
       <c r="O398" s="23"/>
     </row>
-    <row r="399" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A399" s="15"/>
       <c r="B399" s="15"/>
       <c r="C399" s="15"/>
@@ -10086,7 +10091,7 @@
       <c r="N399" s="2"/>
       <c r="O399" s="23"/>
     </row>
-    <row r="400" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A400" s="15"/>
       <c r="B400" s="15"/>
       <c r="C400" s="15"/>
@@ -10103,7 +10108,7 @@
       <c r="N400" s="2"/>
       <c r="O400" s="23"/>
     </row>
-    <row r="401" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A401" s="15"/>
       <c r="B401" s="15"/>
       <c r="C401" s="15"/>
@@ -10120,7 +10125,7 @@
       <c r="N401" s="2"/>
       <c r="O401" s="23"/>
     </row>
-    <row r="402" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A402" s="15"/>
       <c r="B402" s="15"/>
       <c r="C402" s="15"/>
@@ -10137,7 +10142,7 @@
       <c r="N402" s="2"/>
       <c r="O402" s="23"/>
     </row>
-    <row r="403" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A403" s="15"/>
       <c r="B403" s="15"/>
       <c r="C403" s="15"/>
@@ -10154,7 +10159,7 @@
       <c r="N403" s="2"/>
       <c r="O403" s="23"/>
     </row>
-    <row r="404" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A404" s="15"/>
       <c r="B404" s="15"/>
       <c r="C404" s="15"/>
@@ -10171,7 +10176,7 @@
       <c r="N404" s="2"/>
       <c r="O404" s="23"/>
     </row>
-    <row r="405" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A405" s="15"/>
       <c r="B405" s="15"/>
       <c r="C405" s="15"/>
@@ -10188,7 +10193,7 @@
       <c r="N405" s="2"/>
       <c r="O405" s="23"/>
     </row>
-    <row r="406" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A406" s="15"/>
       <c r="B406" s="15"/>
       <c r="C406" s="15"/>
@@ -10205,7 +10210,7 @@
       <c r="N406" s="2"/>
       <c r="O406" s="23"/>
     </row>
-    <row r="407" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A407" s="15"/>
       <c r="B407" s="15"/>
       <c r="C407" s="15"/>
@@ -10222,7 +10227,7 @@
       <c r="N407" s="2"/>
       <c r="O407" s="23"/>
     </row>
-    <row r="408" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A408" s="15"/>
       <c r="B408" s="15"/>
       <c r="C408" s="15"/>
@@ -10239,7 +10244,7 @@
       <c r="N408" s="2"/>
       <c r="O408" s="23"/>
     </row>
-    <row r="409" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A409" s="15"/>
       <c r="B409" s="15"/>
       <c r="C409" s="15"/>
@@ -10256,7 +10261,7 @@
       <c r="N409" s="2"/>
       <c r="O409" s="23"/>
     </row>
-    <row r="410" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A410" s="15"/>
       <c r="B410" s="15"/>
       <c r="C410" s="15"/>
@@ -10273,7 +10278,7 @@
       <c r="N410" s="2"/>
       <c r="O410" s="23"/>
     </row>
-    <row r="411" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A411" s="15"/>
       <c r="B411" s="15"/>
       <c r="C411" s="15"/>
@@ -10290,7 +10295,7 @@
       <c r="N411" s="2"/>
       <c r="O411" s="23"/>
     </row>
-    <row r="412" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A412" s="15"/>
       <c r="B412" s="15"/>
       <c r="C412" s="15"/>
@@ -10307,7 +10312,7 @@
       <c r="N412" s="2"/>
       <c r="O412" s="23"/>
     </row>
-    <row r="413" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A413" s="15"/>
       <c r="B413" s="15"/>
       <c r="C413" s="15"/>
@@ -10324,7 +10329,7 @@
       <c r="N413" s="2"/>
       <c r="O413" s="23"/>
     </row>
-    <row r="414" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A414" s="15"/>
       <c r="B414" s="15"/>
       <c r="C414" s="15"/>
@@ -10341,7 +10346,7 @@
       <c r="N414" s="2"/>
       <c r="O414" s="23"/>
     </row>
-    <row r="415" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A415" s="15"/>
       <c r="B415" s="15"/>
       <c r="C415" s="15"/>
@@ -10358,7 +10363,7 @@
       <c r="N415" s="2"/>
       <c r="O415" s="23"/>
     </row>
-    <row r="416" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A416" s="15"/>
       <c r="B416" s="15"/>
       <c r="C416" s="15"/>
@@ -10375,7 +10380,7 @@
       <c r="N416" s="2"/>
       <c r="O416" s="23"/>
     </row>
-    <row r="417" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A417" s="15"/>
       <c r="B417" s="15"/>
       <c r="C417" s="15"/>
@@ -10392,7 +10397,7 @@
       <c r="N417" s="2"/>
       <c r="O417" s="23"/>
     </row>
-    <row r="418" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A418" s="15"/>
       <c r="B418" s="15"/>
       <c r="C418" s="15"/>
@@ -10409,7 +10414,7 @@
       <c r="N418" s="2"/>
       <c r="O418" s="23"/>
     </row>
-    <row r="419" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A419" s="15"/>
       <c r="B419" s="15"/>
       <c r="C419" s="15"/>
@@ -10426,7 +10431,7 @@
       <c r="N419" s="2"/>
       <c r="O419" s="23"/>
     </row>
-    <row r="420" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A420" s="15"/>
       <c r="B420" s="15"/>
       <c r="C420" s="15"/>
@@ -10443,7 +10448,7 @@
       <c r="N420" s="2"/>
       <c r="O420" s="23"/>
     </row>
-    <row r="421" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A421" s="15"/>
       <c r="B421" s="15"/>
       <c r="C421" s="15"/>
@@ -10460,7 +10465,7 @@
       <c r="N421" s="2"/>
       <c r="O421" s="23"/>
     </row>
-    <row r="422" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A422" s="15"/>
       <c r="B422" s="15"/>
       <c r="C422" s="15"/>
@@ -10477,7 +10482,7 @@
       <c r="N422" s="2"/>
       <c r="O422" s="23"/>
     </row>
-    <row r="423" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A423" s="15"/>
       <c r="B423" s="15"/>
       <c r="C423" s="15"/>
@@ -10494,7 +10499,7 @@
       <c r="N423" s="2"/>
       <c r="O423" s="23"/>
     </row>
-    <row r="424" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A424" s="15"/>
       <c r="B424" s="15"/>
       <c r="C424" s="15"/>
@@ -10511,7 +10516,7 @@
       <c r="N424" s="2"/>
       <c r="O424" s="23"/>
     </row>
-    <row r="425" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A425" s="15"/>
       <c r="B425" s="15"/>
       <c r="C425" s="15"/>
@@ -10528,7 +10533,7 @@
       <c r="N425" s="2"/>
       <c r="O425" s="23"/>
     </row>
-    <row r="426" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A426" s="15"/>
       <c r="B426" s="15"/>
       <c r="C426" s="15"/>
@@ -10545,7 +10550,7 @@
       <c r="N426" s="2"/>
       <c r="O426" s="23"/>
     </row>
-    <row r="427" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A427" s="15"/>
       <c r="B427" s="15"/>
       <c r="C427" s="15"/>
@@ -10562,7 +10567,7 @@
       <c r="N427" s="2"/>
       <c r="O427" s="23"/>
     </row>
-    <row r="428" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A428" s="15"/>
       <c r="B428" s="15"/>
       <c r="C428" s="15"/>
@@ -10579,7 +10584,7 @@
       <c r="N428" s="2"/>
       <c r="O428" s="23"/>
     </row>
-    <row r="429" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A429" s="15"/>
       <c r="B429" s="15"/>
       <c r="C429" s="15"/>
@@ -10596,7 +10601,7 @@
       <c r="N429" s="2"/>
       <c r="O429" s="23"/>
     </row>
-    <row r="430" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A430" s="15"/>
       <c r="B430" s="15"/>
       <c r="C430" s="15"/>
@@ -10613,7 +10618,7 @@
       <c r="N430" s="2"/>
       <c r="O430" s="23"/>
     </row>
-    <row r="431" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A431" s="15"/>
       <c r="B431" s="15"/>
       <c r="C431" s="15"/>
@@ -10630,7 +10635,7 @@
       <c r="N431" s="2"/>
       <c r="O431" s="23"/>
     </row>
-    <row r="432" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A432" s="15"/>
       <c r="B432" s="15"/>
       <c r="C432" s="15"/>
@@ -10647,7 +10652,7 @@
       <c r="N432" s="2"/>
       <c r="O432" s="23"/>
     </row>
-    <row r="433" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A433" s="15"/>
       <c r="B433" s="15"/>
       <c r="C433" s="15"/>
@@ -10664,7 +10669,7 @@
       <c r="N433" s="2"/>
       <c r="O433" s="23"/>
     </row>
-    <row r="434" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A434" s="15"/>
       <c r="B434" s="15"/>
       <c r="C434" s="15"/>
@@ -10681,7 +10686,7 @@
       <c r="N434" s="2"/>
       <c r="O434" s="23"/>
     </row>
-    <row r="435" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A435" s="15"/>
       <c r="B435" s="15"/>
       <c r="C435" s="15"/>
@@ -10698,7 +10703,7 @@
       <c r="N435" s="2"/>
       <c r="O435" s="23"/>
     </row>
-    <row r="436" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A436" s="15"/>
       <c r="B436" s="15"/>
       <c r="C436" s="15"/>
@@ -10715,7 +10720,7 @@
       <c r="N436" s="2"/>
       <c r="O436" s="23"/>
     </row>
-    <row r="437" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A437" s="15"/>
       <c r="B437" s="15"/>
       <c r="C437" s="15"/>
@@ -10732,7 +10737,7 @@
       <c r="N437" s="2"/>
       <c r="O437" s="23"/>
     </row>
-    <row r="438" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A438" s="15"/>
       <c r="B438" s="15"/>
       <c r="C438" s="15"/>
@@ -10749,7 +10754,7 @@
       <c r="N438" s="2"/>
       <c r="O438" s="23"/>
     </row>
-    <row r="439" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A439" s="15"/>
       <c r="B439" s="15"/>
       <c r="C439" s="15"/>
@@ -10766,7 +10771,7 @@
       <c r="N439" s="2"/>
       <c r="O439" s="23"/>
     </row>
-    <row r="440" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A440" s="15"/>
       <c r="B440" s="15"/>
       <c r="C440" s="15"/>
@@ -10783,7 +10788,7 @@
       <c r="N440" s="2"/>
       <c r="O440" s="23"/>
     </row>
-    <row r="441" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A441" s="15"/>
       <c r="B441" s="15"/>
       <c r="C441" s="15"/>
@@ -10800,7 +10805,7 @@
       <c r="N441" s="2"/>
       <c r="O441" s="23"/>
     </row>
-    <row r="442" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A442" s="15"/>
       <c r="B442" s="15"/>
       <c r="C442" s="15"/>
@@ -10817,7 +10822,7 @@
       <c r="N442" s="2"/>
       <c r="O442" s="23"/>
     </row>
-    <row r="443" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A443" s="15"/>
       <c r="B443" s="15"/>
       <c r="C443" s="15"/>
@@ -10834,7 +10839,7 @@
       <c r="N443" s="2"/>
       <c r="O443" s="23"/>
     </row>
-    <row r="444" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A444" s="15"/>
       <c r="B444" s="15"/>
       <c r="C444" s="15"/>
@@ -10851,7 +10856,7 @@
       <c r="N444" s="2"/>
       <c r="O444" s="23"/>
     </row>
-    <row r="445" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A445" s="15"/>
       <c r="B445" s="15"/>
       <c r="C445" s="15"/>
@@ -10868,7 +10873,7 @@
       <c r="N445" s="2"/>
       <c r="O445" s="23"/>
     </row>
-    <row r="446" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A446" s="15"/>
       <c r="B446" s="15"/>
       <c r="C446" s="15"/>
@@ -10885,7 +10890,7 @@
       <c r="N446" s="2"/>
       <c r="O446" s="23"/>
     </row>
-    <row r="447" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A447" s="15"/>
       <c r="B447" s="15"/>
       <c r="C447" s="15"/>
@@ -10902,7 +10907,7 @@
       <c r="N447" s="2"/>
       <c r="O447" s="23"/>
     </row>
-    <row r="448" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A448" s="15"/>
       <c r="B448" s="15"/>
       <c r="C448" s="15"/>
@@ -10919,7 +10924,7 @@
       <c r="N448" s="2"/>
       <c r="O448" s="23"/>
     </row>
-    <row r="449" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A449" s="15"/>
       <c r="B449" s="15"/>
       <c r="C449" s="15"/>
@@ -10936,7 +10941,7 @@
       <c r="N449" s="2"/>
       <c r="O449" s="23"/>
     </row>
-    <row r="450" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A450" s="15"/>
       <c r="B450" s="15"/>
       <c r="C450" s="15"/>
@@ -10953,7 +10958,7 @@
       <c r="N450" s="2"/>
       <c r="O450" s="23"/>
     </row>
-    <row r="451" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A451" s="15"/>
       <c r="B451" s="15"/>
       <c r="C451" s="15"/>
@@ -10970,7 +10975,7 @@
       <c r="N451" s="2"/>
       <c r="O451" s="23"/>
     </row>
-    <row r="452" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A452" s="15"/>
       <c r="B452" s="15"/>
       <c r="C452" s="15"/>
@@ -10987,7 +10992,7 @@
       <c r="N452" s="2"/>
       <c r="O452" s="23"/>
     </row>
-    <row r="453" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A453" s="15"/>
       <c r="B453" s="15"/>
       <c r="C453" s="15"/>
@@ -11004,7 +11009,7 @@
       <c r="N453" s="2"/>
       <c r="O453" s="23"/>
     </row>
-    <row r="454" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A454" s="15"/>
       <c r="B454" s="15"/>
       <c r="C454" s="15"/>
@@ -11021,7 +11026,7 @@
       <c r="N454" s="2"/>
       <c r="O454" s="23"/>
     </row>
-    <row r="455" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A455" s="15"/>
       <c r="B455" s="15"/>
       <c r="C455" s="15"/>
@@ -11038,7 +11043,7 @@
       <c r="N455" s="2"/>
       <c r="O455" s="23"/>
     </row>
-    <row r="456" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A456" s="15"/>
       <c r="B456" s="15"/>
       <c r="C456" s="15"/>
@@ -11055,7 +11060,7 @@
       <c r="N456" s="2"/>
       <c r="O456" s="23"/>
     </row>
-    <row r="457" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A457" s="15"/>
       <c r="B457" s="15"/>
       <c r="C457" s="15"/>
@@ -11072,7 +11077,7 @@
       <c r="N457" s="2"/>
       <c r="O457" s="23"/>
     </row>
-    <row r="458" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A458" s="15"/>
       <c r="B458" s="15"/>
       <c r="C458" s="15"/>
@@ -11089,7 +11094,7 @@
       <c r="N458" s="2"/>
       <c r="O458" s="23"/>
     </row>
-    <row r="459" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A459" s="15"/>
       <c r="B459" s="15"/>
       <c r="C459" s="15"/>
@@ -11106,7 +11111,7 @@
       <c r="N459" s="2"/>
       <c r="O459" s="23"/>
     </row>
-    <row r="460" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A460" s="15"/>
       <c r="B460" s="15"/>
       <c r="C460" s="15"/>
@@ -11123,7 +11128,7 @@
       <c r="N460" s="2"/>
       <c r="O460" s="23"/>
     </row>
-    <row r="461" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A461" s="15"/>
       <c r="B461" s="15"/>
       <c r="C461" s="15"/>
@@ -11140,7 +11145,7 @@
       <c r="N461" s="2"/>
       <c r="O461" s="23"/>
     </row>
-    <row r="462" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A462" s="15"/>
       <c r="B462" s="15"/>
       <c r="C462" s="15"/>
@@ -11157,7 +11162,7 @@
       <c r="N462" s="2"/>
       <c r="O462" s="23"/>
     </row>
-    <row r="463" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A463" s="15"/>
       <c r="B463" s="15"/>
       <c r="C463" s="15"/>
@@ -11174,7 +11179,7 @@
       <c r="N463" s="2"/>
       <c r="O463" s="23"/>
     </row>
-    <row r="464" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A464" s="15"/>
       <c r="B464" s="15"/>
       <c r="C464" s="15"/>
@@ -11191,7 +11196,7 @@
       <c r="N464" s="2"/>
       <c r="O464" s="23"/>
     </row>
-    <row r="465" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A465" s="15"/>
       <c r="B465" s="15"/>
       <c r="C465" s="15"/>
@@ -11208,7 +11213,7 @@
       <c r="N465" s="2"/>
       <c r="O465" s="23"/>
     </row>
-    <row r="466" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A466" s="15"/>
       <c r="B466" s="15"/>
       <c r="C466" s="15"/>
@@ -11225,7 +11230,7 @@
       <c r="N466" s="2"/>
       <c r="O466" s="23"/>
     </row>
-    <row r="467" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A467" s="15"/>
       <c r="B467" s="15"/>
       <c r="C467" s="15"/>
@@ -11242,7 +11247,7 @@
       <c r="N467" s="2"/>
       <c r="O467" s="23"/>
     </row>
-    <row r="468" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A468" s="15"/>
       <c r="B468" s="15"/>
       <c r="C468" s="15"/>
@@ -11259,7 +11264,7 @@
       <c r="N468" s="2"/>
       <c r="O468" s="23"/>
     </row>
-    <row r="469" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A469" s="15"/>
       <c r="B469" s="15"/>
       <c r="C469" s="15"/>
@@ -11276,7 +11281,7 @@
       <c r="N469" s="2"/>
       <c r="O469" s="23"/>
     </row>
-    <row r="470" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A470" s="15"/>
       <c r="B470" s="15"/>
       <c r="C470" s="15"/>
@@ -11293,7 +11298,7 @@
       <c r="N470" s="2"/>
       <c r="O470" s="23"/>
     </row>
-    <row r="471" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A471" s="15"/>
       <c r="B471" s="15"/>
       <c r="C471" s="15"/>
@@ -11310,7 +11315,7 @@
       <c r="N471" s="2"/>
       <c r="O471" s="23"/>
     </row>
-    <row r="472" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A472" s="15"/>
       <c r="B472" s="15"/>
       <c r="C472" s="15"/>
@@ -11327,7 +11332,7 @@
       <c r="N472" s="2"/>
       <c r="O472" s="23"/>
     </row>
-    <row r="473" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A473" s="15"/>
       <c r="B473" s="15"/>
       <c r="C473" s="15"/>
@@ -11344,7 +11349,7 @@
       <c r="N473" s="2"/>
       <c r="O473" s="23"/>
     </row>
-    <row r="474" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A474" s="15"/>
       <c r="B474" s="15"/>
       <c r="C474" s="15"/>
@@ -11361,7 +11366,7 @@
       <c r="N474" s="2"/>
       <c r="O474" s="23"/>
     </row>
-    <row r="475" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A475" s="15"/>
       <c r="B475" s="15"/>
       <c r="C475" s="15"/>
@@ -11378,7 +11383,7 @@
       <c r="N475" s="2"/>
       <c r="O475" s="23"/>
     </row>
-    <row r="476" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A476" s="15"/>
       <c r="B476" s="15"/>
       <c r="C476" s="15"/>
@@ -11395,7 +11400,7 @@
       <c r="N476" s="2"/>
       <c r="O476" s="23"/>
     </row>
-    <row r="477" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A477" s="15"/>
       <c r="B477" s="15"/>
       <c r="C477" s="15"/>
@@ -11412,7 +11417,7 @@
       <c r="N477" s="2"/>
       <c r="O477" s="23"/>
     </row>
-    <row r="478" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A478" s="15"/>
       <c r="B478" s="15"/>
       <c r="C478" s="15"/>
@@ -11429,7 +11434,7 @@
       <c r="N478" s="2"/>
       <c r="O478" s="23"/>
     </row>
-    <row r="479" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A479" s="15"/>
       <c r="B479" s="15"/>
       <c r="C479" s="15"/>
@@ -11446,7 +11451,7 @@
       <c r="N479" s="2"/>
       <c r="O479" s="23"/>
     </row>
-    <row r="480" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A480" s="15"/>
       <c r="B480" s="15"/>
       <c r="C480" s="15"/>
@@ -11463,7 +11468,7 @@
       <c r="N480" s="2"/>
       <c r="O480" s="23"/>
     </row>
-    <row r="481" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A481" s="15"/>
       <c r="B481" s="15"/>
       <c r="C481" s="15"/>
@@ -11480,7 +11485,7 @@
       <c r="N481" s="2"/>
       <c r="O481" s="23"/>
     </row>
-    <row r="482" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A482" s="15"/>
       <c r="B482" s="15"/>
       <c r="C482" s="15"/>
@@ -11497,7 +11502,7 @@
       <c r="N482" s="2"/>
       <c r="O482" s="23"/>
     </row>
-    <row r="483" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A483" s="15"/>
       <c r="B483" s="15"/>
       <c r="C483" s="15"/>
@@ -11514,7 +11519,7 @@
       <c r="N483" s="2"/>
       <c r="O483" s="23"/>
     </row>
-    <row r="484" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A484" s="15"/>
       <c r="B484" s="15"/>
       <c r="C484" s="15"/>
@@ -11531,7 +11536,7 @@
       <c r="N484" s="2"/>
       <c r="O484" s="23"/>
     </row>
-    <row r="485" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A485" s="15"/>
       <c r="B485" s="15"/>
       <c r="C485" s="15"/>
@@ -11548,7 +11553,7 @@
       <c r="N485" s="2"/>
       <c r="O485" s="23"/>
     </row>
-    <row r="486" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A486" s="15"/>
       <c r="B486" s="15"/>
       <c r="C486" s="15"/>
@@ -11565,7 +11570,7 @@
       <c r="N486" s="2"/>
       <c r="O486" s="23"/>
     </row>
-    <row r="487" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A487" s="15"/>
       <c r="B487" s="15"/>
       <c r="C487" s="15"/>
@@ -11582,7 +11587,7 @@
       <c r="N487" s="2"/>
       <c r="O487" s="23"/>
     </row>
-    <row r="488" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A488" s="15"/>
       <c r="B488" s="15"/>
       <c r="C488" s="15"/>
@@ -11599,7 +11604,7 @@
       <c r="N488" s="2"/>
       <c r="O488" s="23"/>
     </row>
-    <row r="489" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A489" s="15"/>
       <c r="B489" s="15"/>
       <c r="C489" s="15"/>
@@ -11616,7 +11621,7 @@
       <c r="N489" s="2"/>
       <c r="O489" s="23"/>
     </row>
-    <row r="490" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A490" s="15"/>
       <c r="B490" s="15"/>
       <c r="C490" s="15"/>
@@ -11633,7 +11638,7 @@
       <c r="N490" s="2"/>
       <c r="O490" s="23"/>
     </row>
-    <row r="491" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A491" s="15"/>
       <c r="B491" s="15"/>
       <c r="C491" s="15"/>
@@ -11650,7 +11655,7 @@
       <c r="N491" s="2"/>
       <c r="O491" s="23"/>
     </row>
-    <row r="492" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A492" s="15"/>
       <c r="B492" s="15"/>
       <c r="C492" s="15"/>
@@ -11667,7 +11672,7 @@
       <c r="N492" s="2"/>
       <c r="O492" s="23"/>
     </row>
-    <row r="493" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A493" s="15"/>
       <c r="B493" s="15"/>
       <c r="C493" s="15"/>
@@ -11684,7 +11689,7 @@
       <c r="N493" s="2"/>
       <c r="O493" s="23"/>
     </row>
-    <row r="494" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A494" s="15"/>
       <c r="B494" s="15"/>
       <c r="C494" s="15"/>
@@ -11701,7 +11706,7 @@
       <c r="N494" s="2"/>
       <c r="O494" s="23"/>
     </row>
-    <row r="495" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A495" s="15"/>
       <c r="B495" s="15"/>
       <c r="C495" s="15"/>
@@ -11718,7 +11723,7 @@
       <c r="N495" s="2"/>
       <c r="O495" s="23"/>
     </row>
-    <row r="496" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A496" s="15"/>
       <c r="B496" s="15"/>
       <c r="C496" s="15"/>
@@ -11735,7 +11740,7 @@
       <c r="N496" s="2"/>
       <c r="O496" s="23"/>
     </row>
-    <row r="497" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A497" s="15"/>
       <c r="B497" s="15"/>
       <c r="C497" s="15"/>
@@ -11752,7 +11757,7 @@
       <c r="N497" s="2"/>
       <c r="O497" s="23"/>
     </row>
-    <row r="498" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A498" s="15"/>
       <c r="B498" s="15"/>
       <c r="C498" s="15"/>
@@ -11769,7 +11774,7 @@
       <c r="N498" s="2"/>
       <c r="O498" s="23"/>
     </row>
-    <row r="499" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A499" s="15"/>
       <c r="B499" s="15"/>
       <c r="C499" s="15"/>
@@ -11786,7 +11791,7 @@
       <c r="N499" s="2"/>
       <c r="O499" s="23"/>
     </row>
-    <row r="500" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A500" s="15"/>
       <c r="B500" s="15"/>
       <c r="C500" s="15"/>
@@ -11803,7 +11808,7 @@
       <c r="N500" s="2"/>
       <c r="O500" s="23"/>
     </row>
-    <row r="501" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A501" s="15"/>
       <c r="B501" s="15"/>
       <c r="C501" s="15"/>
@@ -11820,7 +11825,7 @@
       <c r="N501" s="2"/>
       <c r="O501" s="23"/>
     </row>
-    <row r="502" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A502" s="15"/>
       <c r="B502" s="15"/>
       <c r="C502" s="15"/>
@@ -11837,7 +11842,7 @@
       <c r="N502" s="2"/>
       <c r="O502" s="23"/>
     </row>
-    <row r="503" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A503" s="15"/>
       <c r="B503" s="15"/>
       <c r="C503" s="15"/>
@@ -11854,7 +11859,7 @@
       <c r="N503" s="2"/>
       <c r="O503" s="23"/>
     </row>
-    <row r="504" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A504" s="15"/>
       <c r="B504" s="15"/>
       <c r="C504" s="15"/>
@@ -11871,7 +11876,7 @@
       <c r="N504" s="2"/>
       <c r="O504" s="23"/>
     </row>
-    <row r="505" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A505" s="15"/>
       <c r="B505" s="15"/>
       <c r="C505" s="15"/>
@@ -11888,7 +11893,7 @@
       <c r="N505" s="2"/>
       <c r="O505" s="23"/>
     </row>
-    <row r="506" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A506" s="15"/>
       <c r="B506" s="15"/>
       <c r="C506" s="15"/>
@@ -11905,7 +11910,7 @@
       <c r="N506" s="2"/>
       <c r="O506" s="23"/>
     </row>
-    <row r="507" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A507" s="15"/>
       <c r="B507" s="15"/>
       <c r="C507" s="15"/>
@@ -11922,7 +11927,7 @@
       <c r="N507" s="2"/>
       <c r="O507" s="23"/>
     </row>
-    <row r="508" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A508" s="15"/>
       <c r="B508" s="15"/>
       <c r="C508" s="15"/>
@@ -11939,7 +11944,7 @@
       <c r="N508" s="2"/>
       <c r="O508" s="23"/>
     </row>
-    <row r="509" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A509" s="15"/>
       <c r="B509" s="15"/>
       <c r="C509" s="15"/>
@@ -11956,7 +11961,7 @@
       <c r="N509" s="2"/>
       <c r="O509" s="23"/>
     </row>
-    <row r="510" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A510" s="15"/>
       <c r="B510" s="15"/>
       <c r="C510" s="15"/>
@@ -11973,7 +11978,7 @@
       <c r="N510" s="2"/>
       <c r="O510" s="23"/>
     </row>
-    <row r="511" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A511" s="15"/>
       <c r="B511" s="15"/>
       <c r="C511" s="15"/>
@@ -11990,7 +11995,7 @@
       <c r="N511" s="2"/>
       <c r="O511" s="23"/>
     </row>
-    <row r="512" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A512" s="15"/>
       <c r="B512" s="15"/>
       <c r="C512" s="15"/>
@@ -12007,7 +12012,7 @@
       <c r="N512" s="2"/>
       <c r="O512" s="23"/>
     </row>
-    <row r="513" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A513" s="15"/>
       <c r="B513" s="15"/>
       <c r="C513" s="15"/>
@@ -12024,7 +12029,7 @@
       <c r="N513" s="2"/>
       <c r="O513" s="23"/>
     </row>
-    <row r="514" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A514" s="15"/>
       <c r="B514" s="15"/>
       <c r="C514" s="15"/>
@@ -12041,7 +12046,7 @@
       <c r="N514" s="2"/>
       <c r="O514" s="23"/>
     </row>
-    <row r="515" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A515" s="15"/>
       <c r="B515" s="15"/>
       <c r="C515" s="15"/>
@@ -12058,7 +12063,7 @@
       <c r="N515" s="2"/>
       <c r="O515" s="23"/>
     </row>
-    <row r="516" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A516" s="15"/>
       <c r="B516" s="15"/>
       <c r="C516" s="15"/>
@@ -12075,7 +12080,7 @@
       <c r="N516" s="2"/>
       <c r="O516" s="23"/>
     </row>
-    <row r="517" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A517" s="15"/>
       <c r="B517" s="15"/>
       <c r="C517" s="15"/>
@@ -12092,7 +12097,7 @@
       <c r="N517" s="2"/>
       <c r="O517" s="23"/>
     </row>
-    <row r="518" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A518" s="15"/>
       <c r="B518" s="15"/>
       <c r="C518" s="15"/>
@@ -12109,7 +12114,7 @@
       <c r="N518" s="2"/>
       <c r="O518" s="23"/>
     </row>
-    <row r="519" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A519" s="15"/>
       <c r="B519" s="15"/>
       <c r="C519" s="15"/>
@@ -12126,7 +12131,7 @@
       <c r="N519" s="2"/>
       <c r="O519" s="23"/>
     </row>
-    <row r="520" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A520" s="15"/>
       <c r="B520" s="15"/>
       <c r="C520" s="15"/>
@@ -12143,7 +12148,7 @@
       <c r="N520" s="2"/>
       <c r="O520" s="23"/>
     </row>
-    <row r="521" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A521" s="15"/>
       <c r="B521" s="15"/>
       <c r="C521" s="15"/>
@@ -12160,7 +12165,7 @@
       <c r="N521" s="2"/>
       <c r="O521" s="23"/>
     </row>
-    <row r="522" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A522" s="15"/>
       <c r="B522" s="15"/>
       <c r="C522" s="15"/>
@@ -12177,7 +12182,7 @@
       <c r="N522" s="2"/>
       <c r="O522" s="23"/>
     </row>
-    <row r="523" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A523" s="15"/>
       <c r="B523" s="15"/>
       <c r="C523" s="15"/>
@@ -12194,7 +12199,7 @@
       <c r="N523" s="2"/>
       <c r="O523" s="23"/>
     </row>
-    <row r="524" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A524" s="15"/>
       <c r="B524" s="15"/>
       <c r="C524" s="15"/>
@@ -12211,7 +12216,7 @@
       <c r="N524" s="2"/>
       <c r="O524" s="23"/>
     </row>
-    <row r="525" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A525" s="15"/>
       <c r="B525" s="15"/>
       <c r="C525" s="15"/>
@@ -12228,7 +12233,7 @@
       <c r="N525" s="2"/>
       <c r="O525" s="23"/>
     </row>
-    <row r="526" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A526" s="15"/>
       <c r="B526" s="15"/>
       <c r="C526" s="15"/>
@@ -12245,7 +12250,7 @@
       <c r="N526" s="2"/>
       <c r="O526" s="23"/>
     </row>
-    <row r="527" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A527" s="15"/>
       <c r="B527" s="15"/>
       <c r="C527" s="15"/>
@@ -12262,7 +12267,7 @@
       <c r="N527" s="2"/>
       <c r="O527" s="23"/>
     </row>
-    <row r="528" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A528" s="15"/>
       <c r="B528" s="15"/>
       <c r="C528" s="15"/>
@@ -12279,7 +12284,7 @@
       <c r="N528" s="2"/>
       <c r="O528" s="23"/>
     </row>
-    <row r="529" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A529" s="15"/>
       <c r="B529" s="15"/>
       <c r="C529" s="15"/>
@@ -12296,7 +12301,7 @@
       <c r="N529" s="2"/>
       <c r="O529" s="23"/>
     </row>
-    <row r="530" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A530" s="15"/>
       <c r="B530" s="15"/>
       <c r="C530" s="15"/>
@@ -12313,7 +12318,7 @@
       <c r="N530" s="2"/>
       <c r="O530" s="23"/>
     </row>
-    <row r="531" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A531" s="15"/>
       <c r="B531" s="15"/>
       <c r="C531" s="15"/>
@@ -12330,7 +12335,7 @@
       <c r="N531" s="2"/>
       <c r="O531" s="23"/>
     </row>
-    <row r="532" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A532" s="15"/>
       <c r="B532" s="15"/>
       <c r="C532" s="15"/>
@@ -12347,7 +12352,7 @@
       <c r="N532" s="2"/>
       <c r="O532" s="23"/>
     </row>
-    <row r="533" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A533" s="15"/>
       <c r="B533" s="15"/>
       <c r="C533" s="15"/>
@@ -12364,7 +12369,7 @@
       <c r="N533" s="2"/>
       <c r="O533" s="23"/>
     </row>
-    <row r="534" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A534" s="15"/>
       <c r="B534" s="15"/>
       <c r="C534" s="15"/>
@@ -12381,7 +12386,7 @@
       <c r="N534" s="2"/>
       <c r="O534" s="23"/>
     </row>
-    <row r="535" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A535" s="15"/>
       <c r="B535" s="15"/>
       <c r="C535" s="15"/>
@@ -12398,7 +12403,7 @@
       <c r="N535" s="2"/>
       <c r="O535" s="23"/>
     </row>
-    <row r="536" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A536" s="15"/>
       <c r="B536" s="15"/>
       <c r="C536" s="15"/>
@@ -12415,7 +12420,7 @@
       <c r="N536" s="2"/>
       <c r="O536" s="23"/>
     </row>
-    <row r="537" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A537" s="15"/>
       <c r="B537" s="15"/>
       <c r="C537" s="15"/>
@@ -12432,7 +12437,7 @@
       <c r="N537" s="2"/>
       <c r="O537" s="23"/>
     </row>
-    <row r="538" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A538" s="15"/>
       <c r="B538" s="15"/>
       <c r="C538" s="15"/>
@@ -12449,7 +12454,7 @@
       <c r="N538" s="2"/>
       <c r="O538" s="23"/>
     </row>
-    <row r="539" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A539" s="15"/>
       <c r="B539" s="15"/>
       <c r="C539" s="15"/>
@@ -12466,7 +12471,7 @@
       <c r="N539" s="2"/>
       <c r="O539" s="23"/>
     </row>
-    <row r="540" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A540" s="15"/>
       <c r="B540" s="15"/>
       <c r="C540" s="15"/>
@@ -12483,7 +12488,7 @@
       <c r="N540" s="2"/>
       <c r="O540" s="23"/>
     </row>
-    <row r="541" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A541" s="15"/>
       <c r="B541" s="15"/>
       <c r="C541" s="15"/>
@@ -12500,7 +12505,7 @@
       <c r="N541" s="2"/>
       <c r="O541" s="23"/>
     </row>
-    <row r="542" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A542" s="15"/>
       <c r="B542" s="15"/>
       <c r="C542" s="15"/>
@@ -12517,7 +12522,7 @@
       <c r="N542" s="2"/>
       <c r="O542" s="23"/>
     </row>
-    <row r="543" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A543" s="15"/>
       <c r="B543" s="15"/>
       <c r="C543" s="15"/>
@@ -12534,7 +12539,7 @@
       <c r="N543" s="2"/>
       <c r="O543" s="23"/>
     </row>
-    <row r="544" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A544" s="15"/>
       <c r="B544" s="15"/>
       <c r="C544" s="15"/>
@@ -12551,7 +12556,7 @@
       <c r="N544" s="2"/>
       <c r="O544" s="23"/>
     </row>
-    <row r="545" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A545" s="15"/>
       <c r="B545" s="15"/>
       <c r="C545" s="15"/>
@@ -12568,7 +12573,7 @@
       <c r="N545" s="2"/>
       <c r="O545" s="23"/>
     </row>
-    <row r="546" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A546" s="15"/>
       <c r="B546" s="15"/>
       <c r="C546" s="15"/>
@@ -12585,7 +12590,7 @@
       <c r="N546" s="2"/>
       <c r="O546" s="23"/>
     </row>
-    <row r="547" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A547" s="15"/>
       <c r="B547" s="15"/>
       <c r="C547" s="15"/>
@@ -12602,7 +12607,7 @@
       <c r="N547" s="2"/>
       <c r="O547" s="23"/>
     </row>
-    <row r="548" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A548" s="15"/>
       <c r="B548" s="15"/>
       <c r="C548" s="15"/>
@@ -12619,7 +12624,7 @@
       <c r="N548" s="2"/>
       <c r="O548" s="23"/>
     </row>
-    <row r="549" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A549" s="15"/>
       <c r="B549" s="15"/>
       <c r="C549" s="15"/>
@@ -12636,7 +12641,7 @@
       <c r="N549" s="2"/>
       <c r="O549" s="23"/>
     </row>
-    <row r="550" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A550" s="15"/>
       <c r="B550" s="15"/>
       <c r="C550" s="15"/>
@@ -12653,7 +12658,7 @@
       <c r="N550" s="2"/>
       <c r="O550" s="23"/>
     </row>
-    <row r="551" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A551" s="15"/>
       <c r="B551" s="15"/>
       <c r="C551" s="15"/>
@@ -12670,7 +12675,7 @@
       <c r="N551" s="2"/>
       <c r="O551" s="23"/>
     </row>
-    <row r="552" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A552" s="15"/>
       <c r="B552" s="15"/>
       <c r="C552" s="15"/>
@@ -12687,7 +12692,7 @@
       <c r="N552" s="2"/>
       <c r="O552" s="23"/>
     </row>
-    <row r="553" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A553" s="15"/>
       <c r="B553" s="15"/>
       <c r="C553" s="15"/>
@@ -12704,7 +12709,7 @@
       <c r="N553" s="2"/>
       <c r="O553" s="23"/>
     </row>
-    <row r="554" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A554" s="15"/>
       <c r="B554" s="15"/>
       <c r="C554" s="15"/>
@@ -12721,7 +12726,7 @@
       <c r="N554" s="2"/>
       <c r="O554" s="23"/>
     </row>
-    <row r="555" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A555" s="15"/>
       <c r="B555" s="15"/>
       <c r="C555" s="15"/>
@@ -12738,7 +12743,7 @@
       <c r="N555" s="2"/>
       <c r="O555" s="23"/>
     </row>
-    <row r="556" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A556" s="15"/>
       <c r="B556" s="15"/>
       <c r="C556" s="15"/>
@@ -12755,7 +12760,7 @@
       <c r="N556" s="2"/>
       <c r="O556" s="23"/>
     </row>
-    <row r="557" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A557" s="15"/>
       <c r="B557" s="15"/>
       <c r="C557" s="15"/>
@@ -12772,7 +12777,7 @@
       <c r="N557" s="2"/>
       <c r="O557" s="23"/>
     </row>
-    <row r="558" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A558" s="15"/>
       <c r="B558" s="15"/>
       <c r="C558" s="15"/>
@@ -12789,7 +12794,7 @@
       <c r="N558" s="2"/>
       <c r="O558" s="23"/>
     </row>
-    <row r="559" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A559" s="15"/>
       <c r="B559" s="15"/>
       <c r="C559" s="15"/>
@@ -12806,7 +12811,7 @@
       <c r="N559" s="2"/>
       <c r="O559" s="23"/>
     </row>
-    <row r="560" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A560" s="15"/>
       <c r="B560" s="15"/>
       <c r="C560" s="15"/>
@@ -12823,7 +12828,7 @@
       <c r="N560" s="2"/>
       <c r="O560" s="23"/>
     </row>
-    <row r="561" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A561" s="15"/>
       <c r="B561" s="15"/>
       <c r="C561" s="15"/>
@@ -12840,7 +12845,7 @@
       <c r="N561" s="2"/>
       <c r="O561" s="23"/>
     </row>
-    <row r="562" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A562" s="15"/>
       <c r="B562" s="15"/>
       <c r="C562" s="15"/>
@@ -12857,7 +12862,7 @@
       <c r="N562" s="2"/>
       <c r="O562" s="23"/>
     </row>
-    <row r="563" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A563" s="15"/>
       <c r="B563" s="15"/>
       <c r="C563" s="15"/>
@@ -12874,7 +12879,7 @@
       <c r="N563" s="2"/>
       <c r="O563" s="23"/>
     </row>
-    <row r="564" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A564" s="15"/>
       <c r="B564" s="15"/>
       <c r="C564" s="15"/>
@@ -12891,7 +12896,7 @@
       <c r="N564" s="2"/>
       <c r="O564" s="23"/>
     </row>
-    <row r="565" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A565" s="15"/>
       <c r="B565" s="15"/>
       <c r="C565" s="15"/>
@@ -12908,7 +12913,7 @@
       <c r="N565" s="2"/>
       <c r="O565" s="23"/>
     </row>
-    <row r="566" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A566" s="15"/>
       <c r="B566" s="15"/>
       <c r="C566" s="15"/>
@@ -12925,7 +12930,7 @@
       <c r="N566" s="2"/>
       <c r="O566" s="23"/>
     </row>
-    <row r="567" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A567" s="15"/>
       <c r="B567" s="15"/>
       <c r="C567" s="15"/>
@@ -12942,7 +12947,7 @@
       <c r="N567" s="2"/>
       <c r="O567" s="23"/>
     </row>
-    <row r="568" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A568" s="15"/>
       <c r="B568" s="15"/>
       <c r="C568" s="15"/>
@@ -12959,7 +12964,7 @@
       <c r="N568" s="2"/>
       <c r="O568" s="23"/>
     </row>
-    <row r="569" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A569" s="15"/>
       <c r="B569" s="15"/>
       <c r="C569" s="15"/>
@@ -12976,7 +12981,7 @@
       <c r="N569" s="2"/>
       <c r="O569" s="23"/>
     </row>
-    <row r="570" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A570" s="15"/>
       <c r="B570" s="15"/>
       <c r="C570" s="15"/>
@@ -12993,7 +12998,7 @@
       <c r="N570" s="2"/>
       <c r="O570" s="23"/>
     </row>
-    <row r="571" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A571" s="15"/>
       <c r="B571" s="15"/>
       <c r="C571" s="15"/>
@@ -13010,7 +13015,7 @@
       <c r="N571" s="2"/>
       <c r="O571" s="23"/>
     </row>
-    <row r="572" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A572" s="15"/>
       <c r="B572" s="15"/>
       <c r="C572" s="15"/>
@@ -13027,7 +13032,7 @@
       <c r="N572" s="2"/>
       <c r="O572" s="23"/>
     </row>
-    <row r="573" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A573" s="15"/>
       <c r="B573" s="15"/>
       <c r="C573" s="15"/>
@@ -13044,7 +13049,7 @@
       <c r="N573" s="2"/>
       <c r="O573" s="23"/>
     </row>
-    <row r="574" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A574" s="15"/>
       <c r="B574" s="15"/>
       <c r="C574" s="15"/>
@@ -13061,7 +13066,7 @@
       <c r="N574" s="2"/>
       <c r="O574" s="23"/>
     </row>
-    <row r="575" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A575" s="15"/>
       <c r="B575" s="15"/>
       <c r="C575" s="15"/>
@@ -13078,7 +13083,7 @@
       <c r="N575" s="2"/>
       <c r="O575" s="23"/>
     </row>
-    <row r="576" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A576" s="15"/>
       <c r="B576" s="15"/>
       <c r="C576" s="15"/>
@@ -13095,7 +13100,7 @@
       <c r="N576" s="2"/>
       <c r="O576" s="23"/>
     </row>
-    <row r="577" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A577" s="15"/>
       <c r="B577" s="15"/>
       <c r="C577" s="15"/>
@@ -13112,7 +13117,7 @@
       <c r="N577" s="2"/>
       <c r="O577" s="23"/>
     </row>
-    <row r="578" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A578" s="15"/>
       <c r="B578" s="15"/>
       <c r="C578" s="15"/>
@@ -13129,7 +13134,7 @@
       <c r="N578" s="2"/>
       <c r="O578" s="23"/>
     </row>
-    <row r="579" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A579" s="15"/>
       <c r="B579" s="15"/>
       <c r="C579" s="15"/>
@@ -13146,7 +13151,7 @@
       <c r="N579" s="2"/>
       <c r="O579" s="23"/>
     </row>
-    <row r="580" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A580" s="15"/>
       <c r="B580" s="15"/>
       <c r="C580" s="15"/>
@@ -13163,7 +13168,7 @@
       <c r="N580" s="2"/>
       <c r="O580" s="23"/>
     </row>
-    <row r="581" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A581" s="15"/>
       <c r="B581" s="15"/>
       <c r="C581" s="15"/>
@@ -13180,7 +13185,7 @@
       <c r="N581" s="2"/>
       <c r="O581" s="23"/>
     </row>
-    <row r="582" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A582" s="15"/>
       <c r="B582" s="15"/>
       <c r="C582" s="15"/>
@@ -13197,7 +13202,7 @@
       <c r="N582" s="2"/>
       <c r="O582" s="23"/>
     </row>
-    <row r="583" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A583" s="15"/>
       <c r="B583" s="15"/>
       <c r="C583" s="15"/>
@@ -13214,7 +13219,7 @@
       <c r="N583" s="2"/>
       <c r="O583" s="23"/>
     </row>
-    <row r="584" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A584" s="15"/>
       <c r="B584" s="15"/>
       <c r="C584" s="15"/>
@@ -13231,7 +13236,7 @@
       <c r="N584" s="2"/>
       <c r="O584" s="23"/>
     </row>
-    <row r="585" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A585" s="15"/>
       <c r="B585" s="15"/>
       <c r="C585" s="15"/>
@@ -13248,7 +13253,7 @@
       <c r="N585" s="2"/>
       <c r="O585" s="23"/>
     </row>
-    <row r="586" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A586" s="15"/>
       <c r="B586" s="15"/>
       <c r="C586" s="15"/>
@@ -13265,7 +13270,7 @@
       <c r="N586" s="2"/>
       <c r="O586" s="23"/>
     </row>
-    <row r="587" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A587" s="15"/>
       <c r="B587" s="15"/>
       <c r="C587" s="15"/>
@@ -13282,7 +13287,7 @@
       <c r="N587" s="2"/>
       <c r="O587" s="23"/>
     </row>
-    <row r="588" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A588" s="15"/>
       <c r="B588" s="15"/>
       <c r="C588" s="15"/>
@@ -13299,7 +13304,7 @@
       <c r="N588" s="2"/>
       <c r="O588" s="23"/>
     </row>
-    <row r="589" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A589" s="15"/>
       <c r="B589" s="15"/>
       <c r="C589" s="15"/>
@@ -13316,7 +13321,7 @@
       <c r="N589" s="2"/>
       <c r="O589" s="23"/>
     </row>
-    <row r="590" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A590" s="15"/>
       <c r="B590" s="15"/>
       <c r="C590" s="15"/>
@@ -13333,7 +13338,7 @@
       <c r="N590" s="2"/>
       <c r="O590" s="23"/>
     </row>
-    <row r="591" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A591" s="15"/>
       <c r="B591" s="15"/>
       <c r="C591" s="15"/>
@@ -13350,7 +13355,7 @@
       <c r="N591" s="2"/>
       <c r="O591" s="23"/>
     </row>
-    <row r="592" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A592" s="15"/>
       <c r="B592" s="15"/>
       <c r="C592" s="15"/>
@@ -13367,7 +13372,7 @@
       <c r="N592" s="2"/>
       <c r="O592" s="23"/>
     </row>
-    <row r="593" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A593" s="15"/>
       <c r="B593" s="15"/>
       <c r="C593" s="15"/>
@@ -13384,7 +13389,7 @@
       <c r="N593" s="2"/>
       <c r="O593" s="23"/>
     </row>
-    <row r="594" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A594" s="15"/>
       <c r="B594" s="15"/>
       <c r="C594" s="15"/>
@@ -13401,7 +13406,7 @@
       <c r="N594" s="2"/>
       <c r="O594" s="23"/>
     </row>
-    <row r="595" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A595" s="15"/>
       <c r="B595" s="15"/>
       <c r="C595" s="15"/>
@@ -13418,7 +13423,7 @@
       <c r="N595" s="2"/>
       <c r="O595" s="23"/>
     </row>
-    <row r="596" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A596" s="15"/>
       <c r="B596" s="15"/>
       <c r="C596" s="15"/>
@@ -13435,7 +13440,7 @@
       <c r="N596" s="2"/>
       <c r="O596" s="23"/>
     </row>
-    <row r="597" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A597" s="15"/>
       <c r="B597" s="15"/>
       <c r="C597" s="15"/>
@@ -13452,7 +13457,7 @@
       <c r="N597" s="2"/>
       <c r="O597" s="23"/>
     </row>
-    <row r="598" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A598" s="15"/>
       <c r="B598" s="15"/>
       <c r="C598" s="15"/>
@@ -13469,7 +13474,7 @@
       <c r="N598" s="2"/>
       <c r="O598" s="23"/>
     </row>
-    <row r="599" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A599" s="15"/>
       <c r="B599" s="15"/>
       <c r="C599" s="15"/>
@@ -13486,7 +13491,7 @@
       <c r="N599" s="2"/>
       <c r="O599" s="23"/>
     </row>
-    <row r="600" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A600" s="15"/>
       <c r="B600" s="15"/>
       <c r="C600" s="15"/>
@@ -13503,7 +13508,7 @@
       <c r="N600" s="2"/>
       <c r="O600" s="23"/>
     </row>
-    <row r="601" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A601" s="15"/>
       <c r="B601" s="15"/>
       <c r="C601" s="15"/>
@@ -13520,7 +13525,7 @@
       <c r="N601" s="2"/>
       <c r="O601" s="23"/>
     </row>
-    <row r="602" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A602" s="15"/>
       <c r="B602" s="15"/>
       <c r="C602" s="15"/>
@@ -13537,7 +13542,7 @@
       <c r="N602" s="2"/>
       <c r="O602" s="23"/>
     </row>
-    <row r="603" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A603" s="15"/>
       <c r="B603" s="15"/>
       <c r="C603" s="15"/>
@@ -13554,7 +13559,7 @@
       <c r="N603" s="2"/>
       <c r="O603" s="23"/>
     </row>
-    <row r="604" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A604" s="15"/>
       <c r="B604" s="15"/>
       <c r="C604" s="15"/>
@@ -13571,7 +13576,7 @@
       <c r="N604" s="2"/>
       <c r="O604" s="23"/>
     </row>
-    <row r="605" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A605" s="15"/>
       <c r="B605" s="15"/>
       <c r="C605" s="15"/>
@@ -13588,7 +13593,7 @@
       <c r="N605" s="2"/>
       <c r="O605" s="23"/>
     </row>
-    <row r="606" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A606" s="15"/>
       <c r="B606" s="15"/>
       <c r="C606" s="15"/>
@@ -13605,7 +13610,7 @@
       <c r="N606" s="2"/>
       <c r="O606" s="23"/>
     </row>
-    <row r="607" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A607" s="15"/>
       <c r="B607" s="15"/>
       <c r="C607" s="15"/>
@@ -13622,7 +13627,7 @@
       <c r="N607" s="2"/>
       <c r="O607" s="23"/>
     </row>
-    <row r="608" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A608" s="15"/>
       <c r="B608" s="15"/>
       <c r="C608" s="15"/>
@@ -13639,7 +13644,7 @@
       <c r="N608" s="2"/>
       <c r="O608" s="23"/>
     </row>
-    <row r="609" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A609" s="15"/>
       <c r="B609" s="15"/>
       <c r="C609" s="15"/>
@@ -13656,7 +13661,7 @@
       <c r="N609" s="2"/>
       <c r="O609" s="23"/>
     </row>
-    <row r="610" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A610" s="15"/>
       <c r="B610" s="15"/>
       <c r="C610" s="15"/>
@@ -13673,7 +13678,7 @@
       <c r="N610" s="2"/>
       <c r="O610" s="23"/>
     </row>
-    <row r="611" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A611" s="15"/>
       <c r="B611" s="15"/>
       <c r="C611" s="15"/>
@@ -13690,7 +13695,7 @@
       <c r="N611" s="2"/>
       <c r="O611" s="23"/>
     </row>
-    <row r="612" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A612" s="15"/>
       <c r="B612" s="15"/>
       <c r="C612" s="15"/>
@@ -13707,7 +13712,7 @@
       <c r="N612" s="2"/>
       <c r="O612" s="23"/>
     </row>
-    <row r="613" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A613" s="15"/>
       <c r="B613" s="15"/>
       <c r="C613" s="15"/>
@@ -13724,7 +13729,7 @@
       <c r="N613" s="2"/>
       <c r="O613" s="23"/>
     </row>
-    <row r="614" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A614" s="15"/>
       <c r="B614" s="15"/>
       <c r="C614" s="15"/>
@@ -13741,7 +13746,7 @@
       <c r="N614" s="2"/>
       <c r="O614" s="23"/>
     </row>
-    <row r="615" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A615" s="15"/>
       <c r="B615" s="15"/>
       <c r="C615" s="15"/>
@@ -13758,7 +13763,7 @@
       <c r="N615" s="2"/>
       <c r="O615" s="23"/>
     </row>
-    <row r="616" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A616" s="15"/>
       <c r="B616" s="15"/>
       <c r="C616" s="15"/>
@@ -13775,7 +13780,7 @@
       <c r="N616" s="2"/>
       <c r="O616" s="23"/>
     </row>
-    <row r="617" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A617" s="15"/>
       <c r="B617" s="15"/>
       <c r="C617" s="15"/>
@@ -13792,7 +13797,7 @@
       <c r="N617" s="2"/>
       <c r="O617" s="23"/>
     </row>
-    <row r="618" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A618" s="15"/>
       <c r="B618" s="15"/>
       <c r="C618" s="15"/>
@@ -13809,7 +13814,7 @@
       <c r="N618" s="2"/>
       <c r="O618" s="23"/>
     </row>
-    <row r="619" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A619" s="15"/>
       <c r="B619" s="15"/>
       <c r="C619" s="15"/>
@@ -13826,7 +13831,7 @@
       <c r="N619" s="2"/>
       <c r="O619" s="23"/>
     </row>
-    <row r="620" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A620" s="15"/>
       <c r="B620" s="15"/>
       <c r="C620" s="15"/>
@@ -13843,7 +13848,7 @@
       <c r="N620" s="2"/>
       <c r="O620" s="23"/>
     </row>
-    <row r="621" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A621" s="15"/>
       <c r="B621" s="15"/>
       <c r="C621" s="15"/>
@@ -13860,7 +13865,7 @@
       <c r="N621" s="2"/>
       <c r="O621" s="23"/>
     </row>
-    <row r="622" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A622" s="15"/>
       <c r="B622" s="15"/>
       <c r="C622" s="15"/>
@@ -13877,7 +13882,7 @@
       <c r="N622" s="2"/>
       <c r="O622" s="23"/>
     </row>
-    <row r="623" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A623" s="15"/>
       <c r="B623" s="15"/>
       <c r="C623" s="15"/>
@@ -13894,7 +13899,7 @@
       <c r="N623" s="2"/>
       <c r="O623" s="23"/>
     </row>
-    <row r="624" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A624" s="15"/>
       <c r="B624" s="15"/>
       <c r="C624" s="15"/>
@@ -13911,7 +13916,7 @@
       <c r="N624" s="2"/>
       <c r="O624" s="23"/>
     </row>
-    <row r="625" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A625" s="15"/>
       <c r="B625" s="15"/>
       <c r="C625" s="15"/>
@@ -13928,7 +13933,7 @@
       <c r="N625" s="2"/>
       <c r="O625" s="23"/>
     </row>
-    <row r="626" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A626" s="15"/>
       <c r="B626" s="15"/>
       <c r="C626" s="15"/>
@@ -13945,7 +13950,7 @@
       <c r="N626" s="2"/>
       <c r="O626" s="23"/>
     </row>
-    <row r="627" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A627" s="15"/>
       <c r="B627" s="15"/>
       <c r="C627" s="15"/>
@@ -13962,7 +13967,7 @@
       <c r="N627" s="2"/>
       <c r="O627" s="23"/>
     </row>
-    <row r="628" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A628" s="15"/>
       <c r="B628" s="15"/>
       <c r="C628" s="15"/>
@@ -13979,7 +13984,7 @@
       <c r="N628" s="2"/>
       <c r="O628" s="23"/>
     </row>
-    <row r="629" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A629" s="15"/>
       <c r="B629" s="15"/>
       <c r="C629" s="15"/>
@@ -13996,7 +14001,7 @@
       <c r="N629" s="2"/>
       <c r="O629" s="23"/>
     </row>
-    <row r="630" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A630" s="15"/>
       <c r="B630" s="15"/>
       <c r="C630" s="15"/>
@@ -14013,7 +14018,7 @@
       <c r="N630" s="2"/>
       <c r="O630" s="23"/>
     </row>
-    <row r="631" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A631" s="15"/>
       <c r="B631" s="15"/>
       <c r="C631" s="15"/>
@@ -14030,7 +14035,7 @@
       <c r="N631" s="2"/>
       <c r="O631" s="23"/>
     </row>
-    <row r="632" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A632" s="15"/>
       <c r="B632" s="15"/>
       <c r="C632" s="15"/>
@@ -14047,7 +14052,7 @@
       <c r="N632" s="2"/>
       <c r="O632" s="23"/>
     </row>
-    <row r="633" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A633" s="15"/>
       <c r="B633" s="15"/>
       <c r="C633" s="15"/>
@@ -14064,7 +14069,7 @@
       <c r="N633" s="2"/>
       <c r="O633" s="23"/>
     </row>
-    <row r="634" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A634" s="15"/>
       <c r="B634" s="15"/>
       <c r="C634" s="15"/>
@@ -14081,7 +14086,7 @@
       <c r="N634" s="2"/>
       <c r="O634" s="23"/>
     </row>
-    <row r="635" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A635" s="15"/>
       <c r="B635" s="15"/>
       <c r="C635" s="15"/>
@@ -14098,7 +14103,7 @@
       <c r="N635" s="2"/>
       <c r="O635" s="23"/>
     </row>
-    <row r="636" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A636" s="15"/>
       <c r="B636" s="15"/>
       <c r="C636" s="15"/>
@@ -14115,7 +14120,7 @@
       <c r="N636" s="2"/>
       <c r="O636" s="23"/>
     </row>
-    <row r="637" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A637" s="15"/>
       <c r="B637" s="15"/>
       <c r="C637" s="15"/>
@@ -14132,7 +14137,7 @@
       <c r="N637" s="2"/>
       <c r="O637" s="23"/>
     </row>
-    <row r="638" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A638" s="15"/>
       <c r="B638" s="15"/>
       <c r="C638" s="15"/>
@@ -14149,7 +14154,7 @@
       <c r="N638" s="2"/>
       <c r="O638" s="23"/>
     </row>
-    <row r="639" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A639" s="15"/>
       <c r="B639" s="15"/>
       <c r="C639" s="15"/>
@@ -14166,7 +14171,7 @@
       <c r="N639" s="2"/>
       <c r="O639" s="23"/>
     </row>
-    <row r="640" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A640" s="15"/>
       <c r="B640" s="15"/>
       <c r="C640" s="15"/>
@@ -14183,7 +14188,7 @@
       <c r="N640" s="2"/>
       <c r="O640" s="23"/>
     </row>
-    <row r="641" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A641" s="15"/>
       <c r="B641" s="15"/>
       <c r="C641" s="15"/>
@@ -14200,7 +14205,7 @@
       <c r="N641" s="2"/>
       <c r="O641" s="23"/>
     </row>
-    <row r="642" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A642" s="15"/>
       <c r="B642" s="15"/>
       <c r="C642" s="15"/>
@@ -14217,7 +14222,7 @@
       <c r="N642" s="2"/>
       <c r="O642" s="23"/>
     </row>
-    <row r="643" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A643" s="15"/>
       <c r="B643" s="15"/>
       <c r="C643" s="15"/>
@@ -14234,7 +14239,7 @@
       <c r="N643" s="2"/>
       <c r="O643" s="23"/>
     </row>
-    <row r="644" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A644" s="15"/>
       <c r="B644" s="15"/>
       <c r="C644" s="15"/>
@@ -14251,7 +14256,7 @@
       <c r="N644" s="2"/>
       <c r="O644" s="23"/>
     </row>
-    <row r="645" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A645" s="15"/>
       <c r="B645" s="15"/>
       <c r="C645" s="15"/>
@@ -14268,7 +14273,7 @@
       <c r="N645" s="2"/>
       <c r="O645" s="23"/>
     </row>
-    <row r="646" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A646" s="15"/>
       <c r="B646" s="15"/>
       <c r="C646" s="15"/>
@@ -14285,7 +14290,7 @@
       <c r="N646" s="2"/>
       <c r="O646" s="23"/>
     </row>
-    <row r="647" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A647" s="15"/>
       <c r="B647" s="15"/>
       <c r="C647" s="15"/>
@@ -14302,7 +14307,7 @@
       <c r="N647" s="2"/>
       <c r="O647" s="23"/>
     </row>
-    <row r="648" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A648" s="15"/>
       <c r="B648" s="15"/>
       <c r="C648" s="15"/>
@@ -14319,7 +14324,7 @@
       <c r="N648" s="2"/>
       <c r="O648" s="23"/>
     </row>
-    <row r="649" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A649" s="15"/>
       <c r="B649" s="15"/>
       <c r="C649" s="15"/>
@@ -14336,7 +14341,7 @@
       <c r="N649" s="2"/>
       <c r="O649" s="23"/>
     </row>
-    <row r="650" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A650" s="15"/>
       <c r="B650" s="15"/>
       <c r="C650" s="15"/>
@@ -14353,7 +14358,7 @@
       <c r="N650" s="2"/>
       <c r="O650" s="23"/>
     </row>
-    <row r="651" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A651" s="15"/>
       <c r="B651" s="15"/>
       <c r="C651" s="15"/>
@@ -14370,7 +14375,7 @@
       <c r="N651" s="2"/>
       <c r="O651" s="23"/>
     </row>
-    <row r="652" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A652" s="15"/>
       <c r="B652" s="15"/>
       <c r="C652" s="15"/>
@@ -14387,7 +14392,7 @@
       <c r="N652" s="2"/>
       <c r="O652" s="23"/>
     </row>
-    <row r="653" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A653" s="15"/>
       <c r="B653" s="15"/>
       <c r="C653" s="15"/>
@@ -14404,7 +14409,7 @@
       <c r="N653" s="2"/>
       <c r="O653" s="23"/>
     </row>
-    <row r="654" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A654" s="15"/>
       <c r="B654" s="15"/>
       <c r="C654" s="15"/>
@@ -14421,7 +14426,7 @@
       <c r="N654" s="2"/>
       <c r="O654" s="23"/>
     </row>
-    <row r="655" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A655" s="15"/>
       <c r="B655" s="15"/>
       <c r="C655" s="15"/>
@@ -14438,7 +14443,7 @@
       <c r="N655" s="2"/>
       <c r="O655" s="23"/>
     </row>
-    <row r="656" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A656" s="15"/>
       <c r="B656" s="15"/>
       <c r="C656" s="15"/>
@@ -14455,7 +14460,7 @@
       <c r="N656" s="2"/>
       <c r="O656" s="23"/>
     </row>
-    <row r="657" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A657" s="15"/>
       <c r="B657" s="15"/>
       <c r="C657" s="15"/>
@@ -14472,7 +14477,7 @@
       <c r="N657" s="2"/>
       <c r="O657" s="23"/>
     </row>
-    <row r="658" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A658" s="15"/>
       <c r="B658" s="15"/>
       <c r="C658" s="15"/>
@@ -14489,7 +14494,7 @@
       <c r="N658" s="2"/>
       <c r="O658" s="23"/>
     </row>
-    <row r="659" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A659" s="15"/>
       <c r="B659" s="15"/>
       <c r="C659" s="15"/>
@@ -14506,7 +14511,7 @@
       <c r="N659" s="2"/>
       <c r="O659" s="23"/>
     </row>
-    <row r="660" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A660" s="15"/>
       <c r="B660" s="15"/>
       <c r="C660" s="15"/>
@@ -14523,7 +14528,7 @@
       <c r="N660" s="2"/>
       <c r="O660" s="23"/>
     </row>
-    <row r="661" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A661" s="15"/>
       <c r="B661" s="15"/>
       <c r="C661" s="15"/>
@@ -14540,7 +14545,7 @@
       <c r="N661" s="2"/>
       <c r="O661" s="23"/>
     </row>
-    <row r="662" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A662" s="15"/>
       <c r="B662" s="15"/>
       <c r="C662" s="15"/>
@@ -14557,7 +14562,7 @@
       <c r="N662" s="2"/>
       <c r="O662" s="23"/>
     </row>
-    <row r="663" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A663" s="15"/>
       <c r="B663" s="15"/>
       <c r="C663" s="15"/>
@@ -14574,7 +14579,7 @@
       <c r="N663" s="2"/>
       <c r="O663" s="23"/>
     </row>
-    <row r="664" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A664" s="15"/>
       <c r="B664" s="15"/>
       <c r="C664" s="15"/>
@@ -14591,7 +14596,7 @@
       <c r="N664" s="2"/>
       <c r="O664" s="23"/>
     </row>
-    <row r="665" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A665" s="15"/>
       <c r="B665" s="15"/>
       <c r="C665" s="15"/>
@@ -14608,7 +14613,7 @@
       <c r="N665" s="2"/>
       <c r="O665" s="23"/>
     </row>
-    <row r="666" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A666" s="15"/>
       <c r="B666" s="15"/>
       <c r="C666" s="15"/>
@@ -14625,7 +14630,7 @@
       <c r="N666" s="2"/>
       <c r="O666" s="23"/>
     </row>
-    <row r="667" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A667" s="15"/>
       <c r="B667" s="15"/>
       <c r="C667" s="15"/>
@@ -14642,7 +14647,7 @@
       <c r="N667" s="2"/>
       <c r="O667" s="23"/>
     </row>
-    <row r="668" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A668" s="15"/>
       <c r="B668" s="15"/>
       <c r="C668" s="15"/>
@@ -14659,7 +14664,7 @@
       <c r="N668" s="2"/>
       <c r="O668" s="23"/>
     </row>
-    <row r="669" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A669" s="15"/>
       <c r="B669" s="15"/>
       <c r="C669" s="15"/>
@@ -14676,7 +14681,7 @@
       <c r="N669" s="2"/>
       <c r="O669" s="23"/>
     </row>
-    <row r="670" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A670" s="15"/>
       <c r="B670" s="15"/>
       <c r="C670" s="15"/>
@@ -14693,7 +14698,7 @@
       <c r="N670" s="2"/>
       <c r="O670" s="23"/>
     </row>
-    <row r="671" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A671" s="15"/>
       <c r="B671" s="15"/>
       <c r="C671" s="15"/>
@@ -14710,7 +14715,7 @@
       <c r="N671" s="2"/>
       <c r="O671" s="23"/>
     </row>
-    <row r="672" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A672" s="15"/>
       <c r="B672" s="15"/>
       <c r="C672" s="15"/>
@@ -14727,7 +14732,7 @@
       <c r="N672" s="2"/>
       <c r="O672" s="23"/>
     </row>
-    <row r="673" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A673" s="15"/>
       <c r="B673" s="15"/>
       <c r="C673" s="15"/>
@@ -14744,7 +14749,7 @@
       <c r="N673" s="2"/>
       <c r="O673" s="23"/>
     </row>
-    <row r="674" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A674" s="15"/>
       <c r="B674" s="15"/>
       <c r="C674" s="15"/>
@@ -14761,7 +14766,7 @@
       <c r="N674" s="2"/>
       <c r="O674" s="23"/>
     </row>
-    <row r="675" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A675" s="15"/>
       <c r="B675" s="15"/>
       <c r="C675" s="15"/>
@@ -14778,7 +14783,7 @@
       <c r="N675" s="2"/>
       <c r="O675" s="23"/>
     </row>
-    <row r="676" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A676" s="15"/>
       <c r="B676" s="15"/>
       <c r="C676" s="15"/>
@@ -14795,7 +14800,7 @@
       <c r="N676" s="2"/>
       <c r="O676" s="23"/>
     </row>
-    <row r="677" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A677" s="15"/>
       <c r="B677" s="15"/>
       <c r="C677" s="15"/>
@@ -14812,7 +14817,7 @@
       <c r="N677" s="2"/>
       <c r="O677" s="23"/>
     </row>
-    <row r="678" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A678" s="15"/>
       <c r="B678" s="15"/>
       <c r="C678" s="15"/>
@@ -14829,7 +14834,7 @@
       <c r="N678" s="2"/>
       <c r="O678" s="23"/>
     </row>
-    <row r="679" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A679" s="15"/>
       <c r="B679" s="15"/>
       <c r="C679" s="15"/>
@@ -14846,7 +14851,7 @@
       <c r="N679" s="2"/>
       <c r="O679" s="23"/>
     </row>
-    <row r="680" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A680" s="15"/>
       <c r="B680" s="15"/>
       <c r="C680" s="15"/>
@@ -14863,7 +14868,7 @@
       <c r="N680" s="2"/>
       <c r="O680" s="23"/>
     </row>
-    <row r="681" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A681" s="15"/>
       <c r="B681" s="15"/>
       <c r="C681" s="15"/>
@@ -14880,7 +14885,7 @@
       <c r="N681" s="2"/>
       <c r="O681" s="23"/>
     </row>
-    <row r="682" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A682" s="15"/>
       <c r="B682" s="15"/>
       <c r="C682" s="15"/>
@@ -14897,7 +14902,7 @@
       <c r="N682" s="2"/>
       <c r="O682" s="23"/>
     </row>
-    <row r="683" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A683" s="15"/>
       <c r="B683" s="15"/>
       <c r="C683" s="15"/>
@@ -14914,7 +14919,7 @@
       <c r="N683" s="2"/>
       <c r="O683" s="23"/>
     </row>
-    <row r="684" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A684" s="15"/>
       <c r="B684" s="15"/>
       <c r="C684" s="15"/>
@@ -14931,7 +14936,7 @@
       <c r="N684" s="2"/>
       <c r="O684" s="23"/>
     </row>
-    <row r="685" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A685" s="15"/>
       <c r="B685" s="15"/>
       <c r="C685" s="15"/>
@@ -14948,7 +14953,7 @@
       <c r="N685" s="2"/>
       <c r="O685" s="23"/>
     </row>
-    <row r="686" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A686" s="15"/>
       <c r="B686" s="15"/>
       <c r="C686" s="15"/>
@@ -14965,7 +14970,7 @@
       <c r="N686" s="2"/>
       <c r="O686" s="23"/>
     </row>
-    <row r="687" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A687" s="15"/>
       <c r="B687" s="15"/>
       <c r="C687" s="15"/>
@@ -14982,7 +14987,7 @@
       <c r="N687" s="2"/>
       <c r="O687" s="23"/>
     </row>
-    <row r="688" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A688" s="15"/>
       <c r="B688" s="15"/>
       <c r="C688" s="15"/>
@@ -14999,7 +15004,7 @@
       <c r="N688" s="2"/>
       <c r="O688" s="23"/>
     </row>
-    <row r="689" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A689" s="15"/>
       <c r="B689" s="15"/>
       <c r="C689" s="15"/>
@@ -15016,7 +15021,7 @@
       <c r="N689" s="2"/>
       <c r="O689" s="23"/>
     </row>
-    <row r="690" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A690" s="15"/>
       <c r="B690" s="15"/>
       <c r="C690" s="15"/>
@@ -15033,7 +15038,7 @@
       <c r="N690" s="2"/>
       <c r="O690" s="23"/>
     </row>
-    <row r="691" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A691" s="15"/>
       <c r="B691" s="15"/>
       <c r="C691" s="15"/>
@@ -15050,7 +15055,7 @@
       <c r="N691" s="2"/>
       <c r="O691" s="23"/>
     </row>
-    <row r="692" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A692" s="15"/>
       <c r="B692" s="15"/>
       <c r="C692" s="15"/>
@@ -15067,7 +15072,7 @@
       <c r="N692" s="2"/>
       <c r="O692" s="23"/>
     </row>
-    <row r="693" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A693" s="15"/>
       <c r="B693" s="15"/>
       <c r="C693" s="15"/>
@@ -15084,7 +15089,7 @@
       <c r="N693" s="2"/>
       <c r="O693" s="23"/>
     </row>
-    <row r="694" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A694" s="15"/>
       <c r="B694" s="15"/>
       <c r="C694" s="15"/>
@@ -15101,7 +15106,7 @@
       <c r="N694" s="2"/>
       <c r="O694" s="23"/>
     </row>
-    <row r="695" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A695" s="15"/>
       <c r="B695" s="15"/>
       <c r="C695" s="15"/>
@@ -15118,7 +15123,7 @@
       <c r="N695" s="2"/>
       <c r="O695" s="23"/>
     </row>
-    <row r="696" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A696" s="15"/>
       <c r="B696" s="15"/>
       <c r="C696" s="15"/>
@@ -15135,7 +15140,7 @@
       <c r="N696" s="2"/>
       <c r="O696" s="23"/>
     </row>
-    <row r="697" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A697" s="15"/>
       <c r="B697" s="15"/>
       <c r="C697" s="15"/>
@@ -15152,7 +15157,7 @@
       <c r="N697" s="2"/>
       <c r="O697" s="23"/>
     </row>
-    <row r="698" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A698" s="15"/>
       <c r="B698" s="15"/>
       <c r="C698" s="15"/>
@@ -15169,7 +15174,7 @@
       <c r="N698" s="2"/>
       <c r="O698" s="23"/>
     </row>
-    <row r="699" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A699" s="15"/>
       <c r="B699" s="15"/>
       <c r="C699" s="15"/>
@@ -15186,7 +15191,7 @@
       <c r="N699" s="2"/>
       <c r="O699" s="23"/>
     </row>
-    <row r="700" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A700" s="15"/>
       <c r="B700" s="15"/>
       <c r="C700" s="15"/>
@@ -15203,7 +15208,7 @@
       <c r="N700" s="2"/>
       <c r="O700" s="23"/>
     </row>
-    <row r="701" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A701" s="15"/>
       <c r="B701" s="15"/>
       <c r="C701" s="15"/>
@@ -15220,7 +15225,7 @@
       <c r="N701" s="2"/>
       <c r="O701" s="23"/>
     </row>
-    <row r="702" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A702" s="15"/>
       <c r="B702" s="15"/>
       <c r="C702" s="15"/>
@@ -15237,7 +15242,7 @@
       <c r="N702" s="2"/>
       <c r="O702" s="23"/>
     </row>
-    <row r="703" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A703" s="15"/>
       <c r="B703" s="15"/>
       <c r="C703" s="15"/>
@@ -15254,7 +15259,7 @@
       <c r="N703" s="2"/>
       <c r="O703" s="23"/>
     </row>
-    <row r="704" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A704" s="15"/>
       <c r="B704" s="15"/>
       <c r="C704" s="15"/>
@@ -15271,7 +15276,7 @@
       <c r="N704" s="2"/>
       <c r="O704" s="23"/>
     </row>
-    <row r="705" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A705" s="15"/>
       <c r="B705" s="15"/>
       <c r="C705" s="15"/>
@@ -15288,7 +15293,7 @@
       <c r="N705" s="2"/>
       <c r="O705" s="23"/>
     </row>
-    <row r="706" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A706" s="15"/>
       <c r="B706" s="15"/>
       <c r="C706" s="15"/>
@@ -15305,7 +15310,7 @@
       <c r="N706" s="2"/>
       <c r="O706" s="23"/>
     </row>
-    <row r="707" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A707" s="15"/>
       <c r="B707" s="15"/>
       <c r="C707" s="15"/>
@@ -15322,7 +15327,7 @@
       <c r="N707" s="2"/>
       <c r="O707" s="23"/>
     </row>
-    <row r="708" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A708" s="15"/>
       <c r="B708" s="15"/>
       <c r="C708" s="15"/>
@@ -15339,7 +15344,7 @@
       <c r="N708" s="2"/>
       <c r="O708" s="23"/>
     </row>
-    <row r="709" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A709" s="15"/>
       <c r="B709" s="15"/>
       <c r="C709" s="15"/>
@@ -15356,7 +15361,7 @@
       <c r="N709" s="2"/>
       <c r="O709" s="23"/>
     </row>
-    <row r="710" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A710" s="15"/>
       <c r="B710" s="15"/>
       <c r="C710" s="15"/>
@@ -15373,7 +15378,7 @@
       <c r="N710" s="2"/>
       <c r="O710" s="23"/>
     </row>
-    <row r="711" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A711" s="15"/>
       <c r="B711" s="15"/>
       <c r="C711" s="15"/>
@@ -15390,7 +15395,7 @@
       <c r="N711" s="2"/>
       <c r="O711" s="23"/>
     </row>
-    <row r="712" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A712" s="15"/>
       <c r="B712" s="15"/>
       <c r="C712" s="15"/>
@@ -15407,7 +15412,7 @@
       <c r="N712" s="2"/>
       <c r="O712" s="23"/>
     </row>
-    <row r="713" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A713" s="15"/>
       <c r="B713" s="15"/>
       <c r="C713" s="15"/>
@@ -15424,7 +15429,7 @@
       <c r="N713" s="2"/>
       <c r="O713" s="23"/>
     </row>
-    <row r="714" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A714" s="15"/>
       <c r="B714" s="15"/>
       <c r="C714" s="15"/>
@@ -15441,7 +15446,7 @@
       <c r="N714" s="2"/>
       <c r="O714" s="23"/>
     </row>
-    <row r="715" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A715" s="15"/>
       <c r="B715" s="15"/>
       <c r="C715" s="15"/>
@@ -15458,7 +15463,7 @@
       <c r="N715" s="2"/>
       <c r="O715" s="23"/>
     </row>
-    <row r="716" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A716" s="15"/>
       <c r="B716" s="15"/>
       <c r="C716" s="15"/>
@@ -15475,7 +15480,7 @@
       <c r="N716" s="2"/>
       <c r="O716" s="23"/>
     </row>
-    <row r="717" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A717" s="15"/>
       <c r="B717" s="15"/>
       <c r="C717" s="15"/>
@@ -15492,7 +15497,7 @@
       <c r="N717" s="2"/>
       <c r="O717" s="23"/>
     </row>
-    <row r="718" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A718" s="15"/>
       <c r="B718" s="15"/>
       <c r="C718" s="15"/>
@@ -15509,7 +15514,7 @@
       <c r="N718" s="2"/>
       <c r="O718" s="23"/>
     </row>
-    <row r="719" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A719" s="15"/>
       <c r="B719" s="15"/>
       <c r="C719" s="15"/>
@@ -15526,7 +15531,7 @@
       <c r="N719" s="2"/>
       <c r="O719" s="23"/>
     </row>
-    <row r="720" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A720" s="15"/>
       <c r="B720" s="15"/>
       <c r="C720" s="15"/>
@@ -15543,7 +15548,7 @@
       <c r="N720" s="2"/>
       <c r="O720" s="23"/>
     </row>
-    <row r="721" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A721" s="15"/>
       <c r="B721" s="15"/>
       <c r="C721" s="15"/>
@@ -15560,7 +15565,7 @@
       <c r="N721" s="2"/>
       <c r="O721" s="23"/>
     </row>
-    <row r="722" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A722" s="15"/>
       <c r="B722" s="15"/>
       <c r="C722" s="15"/>
@@ -15577,7 +15582,7 @@
       <c r="N722" s="2"/>
       <c r="O722" s="23"/>
     </row>
-    <row r="723" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A723" s="15"/>
       <c r="B723" s="15"/>
       <c r="C723" s="15"/>
@@ -15594,7 +15599,7 @@
       <c r="N723" s="2"/>
       <c r="O723" s="23"/>
     </row>
-    <row r="724" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A724" s="15"/>
       <c r="B724" s="15"/>
       <c r="C724" s="15"/>
@@ -15611,7 +15616,7 @@
       <c r="N724" s="2"/>
       <c r="O724" s="23"/>
     </row>
-    <row r="725" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A725" s="15"/>
       <c r="B725" s="15"/>
       <c r="C725" s="15"/>
@@ -15628,7 +15633,7 @@
       <c r="N725" s="2"/>
       <c r="O725" s="23"/>
     </row>
-    <row r="726" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A726" s="15"/>
       <c r="B726" s="15"/>
       <c r="C726" s="15"/>
@@ -15645,7 +15650,7 @@
       <c r="N726" s="2"/>
       <c r="O726" s="23"/>
     </row>
-    <row r="727" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A727" s="15"/>
       <c r="B727" s="15"/>
       <c r="C727" s="15"/>
@@ -15662,7 +15667,7 @@
       <c r="N727" s="2"/>
       <c r="O727" s="23"/>
     </row>
-    <row r="728" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A728" s="15"/>
       <c r="B728" s="15"/>
       <c r="C728" s="15"/>
@@ -15679,7 +15684,7 @@
       <c r="N728" s="2"/>
       <c r="O728" s="23"/>
     </row>
-    <row r="729" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A729" s="15"/>
       <c r="B729" s="15"/>
       <c r="C729" s="15"/>
@@ -15696,7 +15701,7 @@
       <c r="N729" s="2"/>
       <c r="O729" s="23"/>
     </row>
-    <row r="730" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A730" s="15"/>
       <c r="B730" s="15"/>
       <c r="C730" s="15"/>
@@ -15713,7 +15718,7 @@
       <c r="N730" s="2"/>
       <c r="O730" s="23"/>
     </row>
-    <row r="731" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A731" s="15"/>
       <c r="B731" s="15"/>
       <c r="C731" s="15"/>
@@ -15730,7 +15735,7 @@
       <c r="N731" s="2"/>
       <c r="O731" s="23"/>
     </row>
-    <row r="732" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A732" s="15"/>
       <c r="B732" s="15"/>
       <c r="C732" s="15"/>
@@ -15747,7 +15752,7 @@
       <c r="N732" s="2"/>
       <c r="O732" s="23"/>
     </row>
-    <row r="733" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A733" s="15"/>
       <c r="B733" s="15"/>
       <c r="C733" s="15"/>
@@ -15764,7 +15769,7 @@
       <c r="N733" s="2"/>
       <c r="O733" s="23"/>
     </row>
-    <row r="734" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A734" s="15"/>
       <c r="B734" s="15"/>
       <c r="C734" s="15"/>
@@ -15781,7 +15786,7 @@
       <c r="N734" s="2"/>
       <c r="O734" s="23"/>
     </row>
-    <row r="735" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A735" s="15"/>
       <c r="B735" s="15"/>
       <c r="C735" s="15"/>
@@ -15798,7 +15803,7 @@
       <c r="N735" s="2"/>
       <c r="O735" s="23"/>
     </row>
-    <row r="736" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A736" s="15"/>
       <c r="B736" s="15"/>
       <c r="C736" s="15"/>
@@ -15815,7 +15820,7 @@
       <c r="N736" s="2"/>
       <c r="O736" s="23"/>
     </row>
-    <row r="737" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A737" s="15"/>
       <c r="B737" s="15"/>
       <c r="C737" s="15"/>
@@ -15832,7 +15837,7 @@
       <c r="N737" s="2"/>
       <c r="O737" s="23"/>
     </row>
-    <row r="738" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A738" s="15"/>
       <c r="B738" s="15"/>
       <c r="C738" s="15"/>
@@ -15849,7 +15854,7 @@
       <c r="N738" s="2"/>
       <c r="O738" s="23"/>
     </row>
-    <row r="739" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A739" s="15"/>
       <c r="B739" s="15"/>
       <c r="C739" s="15"/>
@@ -15866,7 +15871,7 @@
       <c r="N739" s="2"/>
       <c r="O739" s="23"/>
     </row>
-    <row r="740" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A740" s="15"/>
       <c r="B740" s="15"/>
       <c r="C740" s="15"/>
@@ -15883,7 +15888,7 @@
       <c r="N740" s="2"/>
       <c r="O740" s="23"/>
     </row>
-    <row r="741" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A741" s="15"/>
       <c r="B741" s="15"/>
       <c r="C741" s="15"/>
@@ -15900,7 +15905,7 @@
       <c r="N741" s="2"/>
       <c r="O741" s="23"/>
     </row>
-    <row r="742" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A742" s="15"/>
       <c r="B742" s="15"/>
       <c r="C742" s="15"/>
@@ -15917,7 +15922,7 @@
       <c r="N742" s="2"/>
       <c r="O742" s="23"/>
     </row>
-    <row r="743" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A743" s="15"/>
       <c r="B743" s="15"/>
       <c r="C743" s="15"/>
@@ -15934,7 +15939,7 @@
       <c r="N743" s="2"/>
       <c r="O743" s="23"/>
     </row>
-    <row r="744" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A744" s="15"/>
       <c r="B744" s="15"/>
       <c r="C744" s="15"/>
@@ -15951,7 +15956,7 @@
       <c r="N744" s="2"/>
       <c r="O744" s="23"/>
     </row>
-    <row r="745" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A745" s="15"/>
       <c r="B745" s="15"/>
       <c r="C745" s="15"/>
@@ -15968,7 +15973,7 @@
       <c r="N745" s="2"/>
       <c r="O745" s="23"/>
     </row>
-    <row r="746" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A746" s="15"/>
       <c r="B746" s="15"/>
       <c r="C746" s="15"/>
@@ -15985,7 +15990,7 @@
       <c r="N746" s="2"/>
       <c r="O746" s="23"/>
     </row>
-    <row r="747" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A747" s="15"/>
       <c r="B747" s="15"/>
       <c r="C747" s="15"/>
@@ -16002,7 +16007,7 @@
       <c r="N747" s="2"/>
       <c r="O747" s="23"/>
     </row>
-    <row r="748" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A748" s="15"/>
       <c r="B748" s="15"/>
       <c r="C748" s="15"/>
@@ -16019,7 +16024,7 @@
       <c r="N748" s="2"/>
       <c r="O748" s="23"/>
     </row>
-    <row r="749" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A749" s="15"/>
       <c r="B749" s="15"/>
       <c r="C749" s="15"/>
@@ -16036,7 +16041,7 @@
       <c r="N749" s="2"/>
       <c r="O749" s="23"/>
     </row>
-    <row r="750" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A750" s="15"/>
       <c r="B750" s="15"/>
       <c r="C750" s="15"/>
@@ -16053,7 +16058,7 @@
       <c r="N750" s="2"/>
       <c r="O750" s="23"/>
     </row>
-    <row r="751" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A751" s="15"/>
       <c r="B751" s="15"/>
       <c r="C751" s="15"/>
@@ -16070,7 +16075,7 @@
       <c r="N751" s="2"/>
       <c r="O751" s="23"/>
     </row>
-    <row r="752" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A752" s="15"/>
       <c r="B752" s="15"/>
       <c r="C752" s="15"/>
@@ -16087,7 +16092,7 @@
       <c r="N752" s="2"/>
       <c r="O752" s="23"/>
     </row>
-    <row r="753" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A753" s="15"/>
       <c r="B753" s="15"/>
       <c r="C753" s="15"/>
@@ -16104,7 +16109,7 @@
       <c r="N753" s="2"/>
       <c r="O753" s="23"/>
     </row>
-    <row r="754" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A754" s="15"/>
       <c r="B754" s="15"/>
       <c r="C754" s="15"/>
@@ -16121,7 +16126,7 @@
       <c r="N754" s="2"/>
       <c r="O754" s="23"/>
     </row>
-    <row r="755" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A755" s="15"/>
       <c r="B755" s="15"/>
       <c r="C755" s="15"/>
@@ -16138,7 +16143,7 @@
       <c r="N755" s="2"/>
       <c r="O755" s="23"/>
     </row>
-    <row r="756" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A756" s="15"/>
       <c r="B756" s="15"/>
       <c r="C756" s="15"/>
@@ -16155,7 +16160,7 @@
       <c r="N756" s="2"/>
       <c r="O756" s="23"/>
     </row>
-    <row r="757" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A757" s="15"/>
       <c r="B757" s="15"/>
       <c r="C757" s="15"/>
@@ -16172,7 +16177,7 @@
       <c r="N757" s="2"/>
       <c r="O757" s="23"/>
     </row>
-    <row r="758" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A758" s="15"/>
       <c r="B758" s="15"/>
       <c r="C758" s="15"/>
@@ -16189,7 +16194,7 @@
       <c r="N758" s="2"/>
       <c r="O758" s="23"/>
     </row>
-    <row r="759" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A759" s="15"/>
       <c r="B759" s="15"/>
       <c r="C759" s="15"/>
@@ -16206,7 +16211,7 @@
       <c r="N759" s="2"/>
       <c r="O759" s="23"/>
     </row>
-    <row r="760" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A760" s="15"/>
       <c r="B760" s="15"/>
       <c r="C760" s="15"/>
@@ -16223,7 +16228,7 @@
       <c r="N760" s="2"/>
       <c r="O760" s="23"/>
     </row>
-    <row r="761" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A761" s="15"/>
       <c r="B761" s="15"/>
       <c r="C761" s="15"/>
@@ -16240,7 +16245,7 @@
       <c r="N761" s="2"/>
       <c r="O761" s="23"/>
     </row>
-    <row r="762" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A762" s="15"/>
       <c r="B762" s="15"/>
       <c r="C762" s="15"/>
@@ -16257,7 +16262,7 @@
       <c r="N762" s="2"/>
       <c r="O762" s="23"/>
     </row>
-    <row r="763" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A763" s="15"/>
       <c r="B763" s="15"/>
       <c r="C763" s="15"/>
@@ -16274,7 +16279,7 @@
       <c r="N763" s="2"/>
       <c r="O763" s="23"/>
     </row>
-    <row r="764" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A764" s="15"/>
       <c r="B764" s="15"/>
       <c r="C764" s="15"/>
@@ -16291,7 +16296,7 @@
       <c r="N764" s="2"/>
       <c r="O764" s="23"/>
     </row>
-    <row r="765" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A765" s="15"/>
       <c r="B765" s="15"/>
       <c r="C765" s="15"/>
@@ -16308,7 +16313,7 @@
       <c r="N765" s="2"/>
       <c r="O765" s="23"/>
     </row>
-    <row r="766" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A766" s="15"/>
       <c r="B766" s="15"/>
       <c r="C766" s="15"/>
@@ -16325,7 +16330,7 @@
       <c r="N766" s="2"/>
       <c r="O766" s="23"/>
     </row>
-    <row r="767" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A767" s="15"/>
       <c r="B767" s="15"/>
       <c r="C767" s="15"/>
@@ -16342,7 +16347,7 @@
       <c r="N767" s="2"/>
       <c r="O767" s="23"/>
     </row>
-    <row r="768" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A768" s="15"/>
       <c r="B768" s="15"/>
       <c r="C768" s="15"/>
@@ -16359,7 +16364,7 @@
       <c r="N768" s="2"/>
       <c r="O768" s="23"/>
     </row>
-    <row r="769" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A769" s="15"/>
       <c r="B769" s="15"/>
       <c r="C769" s="15"/>
@@ -16376,7 +16381,7 @@
       <c r="N769" s="2"/>
       <c r="O769" s="23"/>
     </row>
-    <row r="770" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A770" s="15"/>
       <c r="B770" s="15"/>
       <c r="C770" s="15"/>
@@ -16393,7 +16398,7 @@
       <c r="N770" s="2"/>
       <c r="O770" s="23"/>
     </row>
-    <row r="771" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A771" s="15"/>
       <c r="B771" s="15"/>
       <c r="C771" s="15"/>
@@ -16410,7 +16415,7 @@
       <c r="N771" s="2"/>
       <c r="O771" s="23"/>
     </row>
-    <row r="772" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A772" s="15"/>
       <c r="B772" s="15"/>
       <c r="C772" s="15"/>
@@ -16427,7 +16432,7 @@
       <c r="N772" s="2"/>
       <c r="O772" s="23"/>
     </row>
-    <row r="773" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A773" s="15"/>
       <c r="B773" s="15"/>
       <c r="C773" s="15"/>
@@ -16444,7 +16449,7 @@
       <c r="N773" s="2"/>
       <c r="O773" s="23"/>
     </row>
-    <row r="774" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A774" s="15"/>
       <c r="B774" s="15"/>
       <c r="C774" s="15"/>
@@ -16461,7 +16466,7 @@
       <c r="N774" s="2"/>
       <c r="O774" s="23"/>
     </row>
-    <row r="775" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A775" s="15"/>
       <c r="B775" s="15"/>
       <c r="C775" s="15"/>
@@ -16478,7 +16483,7 @@
       <c r="N775" s="2"/>
       <c r="O775" s="23"/>
     </row>
-    <row r="776" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A776" s="15"/>
       <c r="B776" s="15"/>
       <c r="C776" s="15"/>
@@ -16495,7 +16500,7 @@
       <c r="N776" s="2"/>
       <c r="O776" s="23"/>
     </row>
-    <row r="777" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A777" s="15"/>
       <c r="B777" s="15"/>
       <c r="C777" s="15"/>
@@ -16512,7 +16517,7 @@
       <c r="N777" s="2"/>
       <c r="O777" s="23"/>
     </row>
-    <row r="778" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A778" s="15"/>
       <c r="B778" s="15"/>
       <c r="C778" s="15"/>
@@ -16529,7 +16534,7 @@
       <c r="N778" s="2"/>
       <c r="O778" s="23"/>
     </row>
-    <row r="779" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A779" s="15"/>
       <c r="B779" s="15"/>
       <c r="C779" s="15"/>
@@ -16546,7 +16551,7 @@
       <c r="N779" s="2"/>
       <c r="O779" s="23"/>
     </row>
-    <row r="780" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A780" s="15"/>
       <c r="B780" s="15"/>
       <c r="C780" s="15"/>
@@ -16563,7 +16568,7 @@
       <c r="N780" s="2"/>
       <c r="O780" s="23"/>
     </row>
-    <row r="781" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A781" s="15"/>
       <c r="B781" s="15"/>
       <c r="C781" s="15"/>
@@ -16580,7 +16585,7 @@
       <c r="N781" s="2"/>
       <c r="O781" s="23"/>
     </row>
-    <row r="782" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A782" s="15"/>
       <c r="B782" s="15"/>
       <c r="C782" s="15"/>
@@ -16597,7 +16602,7 @@
       <c r="N782" s="2"/>
       <c r="O782" s="23"/>
     </row>
-    <row r="783" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A783" s="15"/>
       <c r="B783" s="15"/>
       <c r="C783" s="15"/>
@@ -16614,7 +16619,7 @@
       <c r="N783" s="2"/>
       <c r="O783" s="23"/>
     </row>
-    <row r="784" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A784" s="15"/>
       <c r="B784" s="15"/>
       <c r="C784" s="15"/>
@@ -16631,7 +16636,7 @@
       <c r="N784" s="2"/>
       <c r="O784" s="23"/>
     </row>
-    <row r="785" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A785" s="15"/>
       <c r="B785" s="15"/>
       <c r="C785" s="15"/>
@@ -16648,7 +16653,7 @@
       <c r="N785" s="2"/>
       <c r="O785" s="23"/>
     </row>
-    <row r="786" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A786" s="15"/>
       <c r="B786" s="15"/>
       <c r="C786" s="15"/>
@@ -16665,7 +16670,7 @@
       <c r="N786" s="2"/>
       <c r="O786" s="23"/>
     </row>
-    <row r="787" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A787" s="15"/>
       <c r="B787" s="15"/>
       <c r="C787" s="15"/>
@@ -16682,7 +16687,7 @@
       <c r="N787" s="2"/>
       <c r="O787" s="23"/>
     </row>
-    <row r="788" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A788" s="15"/>
       <c r="B788" s="15"/>
       <c r="C788" s="15"/>
@@ -16699,7 +16704,7 @@
       <c r="N788" s="2"/>
       <c r="O788" s="23"/>
     </row>
-    <row r="789" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A789" s="15"/>
       <c r="B789" s="15"/>
       <c r="C789" s="15"/>
@@ -16716,7 +16721,7 @@
       <c r="N789" s="2"/>
       <c r="O789" s="23"/>
     </row>
-    <row r="790" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A790" s="15"/>
       <c r="B790" s="15"/>
       <c r="C790" s="15"/>
@@ -16733,7 +16738,7 @@
       <c r="N790" s="2"/>
       <c r="O790" s="23"/>
     </row>
-    <row r="791" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A791" s="15"/>
       <c r="B791" s="15"/>
       <c r="C791" s="15"/>
@@ -16750,7 +16755,7 @@
       <c r="N791" s="2"/>
       <c r="O791" s="23"/>
     </row>
-    <row r="792" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A792" s="15"/>
       <c r="B792" s="15"/>
       <c r="C792" s="15"/>
@@ -16767,7 +16772,7 @@
       <c r="N792" s="2"/>
       <c r="O792" s="23"/>
     </row>
-    <row r="793" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A793" s="15"/>
       <c r="B793" s="15"/>
       <c r="C793" s="15"/>
@@ -16784,7 +16789,7 @@
       <c r="N793" s="2"/>
       <c r="O793" s="23"/>
     </row>
-    <row r="794" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A794" s="15"/>
       <c r="B794" s="15"/>
       <c r="C794" s="15"/>
@@ -16801,7 +16806,7 @@
       <c r="N794" s="2"/>
       <c r="O794" s="23"/>
     </row>
-    <row r="795" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A795" s="15"/>
       <c r="B795" s="15"/>
       <c r="C795" s="15"/>
@@ -16818,7 +16823,7 @@
       <c r="N795" s="2"/>
       <c r="O795" s="23"/>
     </row>
-    <row r="796" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A796" s="15"/>
       <c r="B796" s="15"/>
       <c r="C796" s="15"/>
@@ -16835,7 +16840,7 @@
       <c r="N796" s="2"/>
       <c r="O796" s="23"/>
     </row>
-    <row r="797" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A797" s="15"/>
       <c r="B797" s="15"/>
       <c r="C797" s="15"/>
@@ -16852,7 +16857,7 @@
       <c r="N797" s="2"/>
       <c r="O797" s="23"/>
     </row>
-    <row r="798" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A798" s="15"/>
       <c r="B798" s="15"/>
       <c r="C798" s="15"/>
@@ -16869,7 +16874,7 @@
       <c r="N798" s="2"/>
       <c r="O798" s="23"/>
     </row>
-    <row r="799" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A799" s="15"/>
       <c r="B799" s="15"/>
       <c r="C799" s="15"/>
@@ -16886,7 +16891,7 @@
       <c r="N799" s="2"/>
       <c r="O799" s="23"/>
     </row>
-    <row r="800" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A800" s="15"/>
       <c r="B800" s="15"/>
       <c r="C800" s="15"/>
@@ -16903,7 +16908,7 @@
       <c r="N800" s="2"/>
       <c r="O800" s="23"/>
     </row>
-    <row r="801" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A801" s="15"/>
       <c r="B801" s="15"/>
       <c r="C801" s="15"/>
@@ -16920,7 +16925,7 @@
       <c r="N801" s="2"/>
       <c r="O801" s="23"/>
     </row>
-    <row r="802" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A802" s="15"/>
       <c r="B802" s="15"/>
       <c r="C802" s="15"/>
@@ -16937,7 +16942,7 @@
       <c r="N802" s="2"/>
       <c r="O802" s="23"/>
     </row>
-    <row r="803" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A803" s="15"/>
       <c r="B803" s="15"/>
       <c r="C803" s="15"/>
@@ -16954,7 +16959,7 @@
       <c r="N803" s="2"/>
       <c r="O803" s="23"/>
     </row>
-    <row r="804" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A804" s="15"/>
       <c r="B804" s="15"/>
       <c r="C804" s="15"/>
@@ -16971,7 +16976,7 @@
       <c r="N804" s="2"/>
       <c r="O804" s="23"/>
     </row>
-    <row r="805" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A805" s="15"/>
       <c r="B805" s="15"/>
       <c r="C805" s="15"/>
@@ -16988,7 +16993,7 @@
       <c r="N805" s="2"/>
       <c r="O805" s="23"/>
     </row>
-    <row r="806" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A806" s="15"/>
       <c r="B806" s="15"/>
       <c r="C806" s="15"/>
@@ -17005,7 +17010,7 @@
       <c r="N806" s="2"/>
       <c r="O806" s="23"/>
     </row>
-    <row r="807" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A807" s="15"/>
       <c r="B807" s="15"/>
       <c r="C807" s="15"/>
@@ -17022,7 +17027,7 @@
       <c r="N807" s="2"/>
       <c r="O807" s="23"/>
     </row>
-    <row r="808" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A808" s="15"/>
       <c r="B808" s="15"/>
       <c r="C808" s="15"/>
@@ -17039,7 +17044,7 @@
       <c r="N808" s="2"/>
       <c r="O808" s="23"/>
     </row>
-    <row r="809" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A809" s="15"/>
       <c r="B809" s="15"/>
       <c r="C809" s="15"/>
@@ -17056,7 +17061,7 @@
       <c r="N809" s="2"/>
       <c r="O809" s="23"/>
     </row>
-    <row r="810" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A810" s="15"/>
       <c r="B810" s="15"/>
       <c r="C810" s="15"/>
@@ -17073,7 +17078,7 @@
       <c r="N810" s="2"/>
       <c r="O810" s="23"/>
     </row>
-    <row r="811" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A811" s="15"/>
       <c r="B811" s="15"/>
       <c r="C811" s="15"/>
@@ -17090,7 +17095,7 @@
       <c r="N811" s="2"/>
       <c r="O811" s="23"/>
     </row>
-    <row r="812" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A812" s="15"/>
       <c r="B812" s="15"/>
       <c r="C812" s="15"/>
@@ -17107,7 +17112,7 @@
       <c r="N812" s="2"/>
       <c r="O812" s="23"/>
     </row>
-    <row r="813" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A813" s="15"/>
       <c r="B813" s="15"/>
       <c r="C813" s="15"/>
@@ -17124,7 +17129,7 @@
       <c r="N813" s="2"/>
       <c r="O813" s="23"/>
     </row>
-    <row r="814" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A814" s="15"/>
       <c r="B814" s="15"/>
       <c r="C814" s="15"/>
@@ -17141,7 +17146,7 @@
       <c r="N814" s="2"/>
       <c r="O814" s="23"/>
     </row>
-    <row r="815" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A815" s="15"/>
       <c r="B815" s="15"/>
       <c r="C815" s="15"/>
@@ -17158,7 +17163,7 @@
       <c r="N815" s="2"/>
       <c r="O815" s="23"/>
     </row>
-    <row r="816" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A816" s="15"/>
       <c r="B816" s="15"/>
       <c r="C816" s="15"/>
@@ -17175,7 +17180,7 @@
       <c r="N816" s="2"/>
       <c r="O816" s="23"/>
     </row>
-    <row r="817" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A817" s="15"/>
       <c r="B817" s="15"/>
       <c r="C817" s="15"/>
@@ -17192,7 +17197,7 @@
       <c r="N817" s="2"/>
       <c r="O817" s="23"/>
     </row>
-    <row r="818" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A818" s="15"/>
       <c r="B818" s="15"/>
       <c r="C818" s="15"/>
@@ -17209,7 +17214,7 @@
       <c r="N818" s="2"/>
       <c r="O818" s="23"/>
     </row>
-    <row r="819" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A819" s="15"/>
       <c r="B819" s="15"/>
       <c r="C819" s="15"/>
@@ -17226,7 +17231,7 @@
       <c r="N819" s="2"/>
       <c r="O819" s="23"/>
     </row>
-    <row r="820" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A820" s="15"/>
       <c r="B820" s="15"/>
       <c r="C820" s="15"/>
@@ -17243,7 +17248,7 @@
       <c r="N820" s="2"/>
       <c r="O820" s="23"/>
     </row>
-    <row r="821" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A821" s="15"/>
       <c r="B821" s="15"/>
       <c r="C821" s="15"/>
@@ -17260,7 +17265,7 @@
       <c r="N821" s="2"/>
       <c r="O821" s="23"/>
     </row>
-    <row r="822" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A822" s="15"/>
       <c r="B822" s="15"/>
       <c r="C822" s="15"/>
@@ -17277,7 +17282,7 @@
       <c r="N822" s="2"/>
       <c r="O822" s="23"/>
     </row>
-    <row r="823" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A823" s="15"/>
       <c r="B823" s="15"/>
       <c r="C823" s="15"/>
@@ -17294,7 +17299,7 @@
       <c r="N823" s="2"/>
       <c r="O823" s="23"/>
     </row>
-    <row r="824" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A824" s="15"/>
       <c r="B824" s="15"/>
       <c r="C824" s="15"/>
@@ -17311,7 +17316,7 @@
       <c r="N824" s="2"/>
       <c r="O824" s="23"/>
     </row>
-    <row r="825" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A825" s="15"/>
       <c r="B825" s="15"/>
       <c r="C825" s="15"/>
@@ -17328,7 +17333,7 @@
       <c r="N825" s="2"/>
       <c r="O825" s="23"/>
     </row>
-    <row r="826" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A826" s="15"/>
       <c r="B826" s="15"/>
       <c r="C826" s="15"/>
@@ -17345,7 +17350,7 @@
       <c r="N826" s="2"/>
       <c r="O826" s="23"/>
     </row>
-    <row r="827" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A827" s="15"/>
       <c r="B827" s="15"/>
       <c r="C827" s="15"/>
@@ -17362,7 +17367,7 @@
       <c r="N827" s="2"/>
       <c r="O827" s="23"/>
     </row>
-    <row r="828" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A828" s="15"/>
       <c r="B828" s="15"/>
       <c r="C828" s="15"/>
@@ -17379,7 +17384,7 @@
       <c r="N828" s="2"/>
       <c r="O828" s="23"/>
     </row>
-    <row r="829" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A829" s="15"/>
       <c r="B829" s="15"/>
       <c r="C829" s="15"/>
@@ -17396,7 +17401,7 @@
       <c r="N829" s="2"/>
       <c r="O829" s="23"/>
     </row>
-    <row r="830" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A830" s="15"/>
       <c r="B830" s="15"/>
       <c r="C830" s="15"/>
@@ -17413,7 +17418,7 @@
       <c r="N830" s="2"/>
       <c r="O830" s="23"/>
     </row>
-    <row r="831" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A831" s="15"/>
       <c r="B831" s="15"/>
       <c r="C831" s="15"/>
@@ -17430,7 +17435,7 @@
       <c r="N831" s="2"/>
       <c r="O831" s="23"/>
     </row>
-    <row r="832" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A832" s="15"/>
       <c r="B832" s="15"/>
       <c r="C832" s="15"/>
@@ -17447,7 +17452,7 @@
       <c r="N832" s="2"/>
       <c r="O832" s="23"/>
     </row>
-    <row r="833" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A833" s="15"/>
       <c r="B833" s="15"/>
       <c r="C833" s="15"/>
@@ -17464,7 +17469,7 @@
       <c r="N833" s="2"/>
       <c r="O833" s="23"/>
     </row>
-    <row r="834" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A834" s="15"/>
       <c r="B834" s="15"/>
       <c r="C834" s="15"/>
@@ -17481,7 +17486,7 @@
       <c r="N834" s="2"/>
       <c r="O834" s="23"/>
     </row>
-    <row r="835" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A835" s="15"/>
       <c r="B835" s="15"/>
       <c r="C835" s="15"/>
@@ -17498,7 +17503,7 @@
       <c r="N835" s="2"/>
       <c r="O835" s="23"/>
     </row>
-    <row r="836" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A836" s="15"/>
       <c r="B836" s="15"/>
       <c r="C836" s="15"/>
@@ -17515,7 +17520,7 @@
       <c r="N836" s="2"/>
       <c r="O836" s="23"/>
     </row>
-    <row r="837" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A837" s="15"/>
       <c r="B837" s="15"/>
       <c r="C837" s="15"/>
@@ -17532,7 +17537,7 @@
       <c r="N837" s="2"/>
       <c r="O837" s="23"/>
     </row>
-    <row r="838" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A838" s="15"/>
       <c r="B838" s="15"/>
       <c r="C838" s="15"/>
@@ -17549,7 +17554,7 @@
       <c r="N838" s="2"/>
       <c r="O838" s="23"/>
     </row>
-    <row r="839" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A839" s="15"/>
       <c r="B839" s="15"/>
       <c r="C839" s="15"/>
@@ -17566,7 +17571,7 @@
       <c r="N839" s="2"/>
       <c r="O839" s="23"/>
     </row>
-    <row r="840" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A840" s="15"/>
       <c r="B840" s="15"/>
       <c r="C840" s="15"/>
@@ -17583,7 +17588,7 @@
       <c r="N840" s="2"/>
       <c r="O840" s="23"/>
     </row>
-    <row r="841" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A841" s="15"/>
       <c r="B841" s="15"/>
       <c r="C841" s="15"/>
@@ -17600,7 +17605,7 @@
       <c r="N841" s="2"/>
       <c r="O841" s="23"/>
     </row>
-    <row r="842" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A842" s="15"/>
       <c r="B842" s="15"/>
       <c r="C842" s="15"/>
@@ -17617,7 +17622,7 @@
       <c r="N842" s="2"/>
       <c r="O842" s="23"/>
     </row>
-    <row r="843" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A843" s="15"/>
       <c r="B843" s="15"/>
       <c r="C843" s="15"/>
@@ -17634,7 +17639,7 @@
       <c r="N843" s="2"/>
       <c r="O843" s="23"/>
     </row>
-    <row r="844" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A844" s="15"/>
       <c r="B844" s="15"/>
       <c r="C844" s="15"/>
@@ -17651,7 +17656,7 @@
       <c r="N844" s="2"/>
       <c r="O844" s="23"/>
     </row>
-    <row r="845" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A845" s="15"/>
       <c r="B845" s="15"/>
       <c r="C845" s="15"/>
@@ -17668,7 +17673,7 @@
       <c r="N845" s="2"/>
       <c r="O845" s="23"/>
     </row>
-    <row r="846" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A846" s="15"/>
       <c r="B846" s="15"/>
       <c r="C846" s="15"/>
@@ -17685,7 +17690,7 @@
       <c r="N846" s="2"/>
       <c r="O846" s="23"/>
     </row>
-    <row r="847" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A847" s="15"/>
       <c r="B847" s="15"/>
       <c r="C847" s="15"/>
@@ -17702,7 +17707,7 @@
       <c r="N847" s="2"/>
       <c r="O847" s="23"/>
     </row>
-    <row r="848" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A848" s="15"/>
       <c r="B848" s="15"/>
       <c r="C848" s="15"/>
@@ -17719,7 +17724,7 @@
       <c r="N848" s="2"/>
       <c r="O848" s="23"/>
     </row>
-    <row r="849" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A849" s="15"/>
       <c r="B849" s="15"/>
       <c r="C849" s="15"/>
@@ -17736,7 +17741,7 @@
       <c r="N849" s="2"/>
       <c r="O849" s="23"/>
     </row>
-    <row r="850" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A850" s="15"/>
       <c r="B850" s="15"/>
       <c r="C850" s="15"/>
@@ -17753,7 +17758,7 @@
       <c r="N850" s="2"/>
       <c r="O850" s="23"/>
     </row>
-    <row r="851" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A851" s="15"/>
       <c r="B851" s="15"/>
       <c r="C851" s="15"/>
@@ -17770,7 +17775,7 @@
       <c r="N851" s="2"/>
       <c r="O851" s="23"/>
     </row>
-    <row r="852" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A852" s="15"/>
       <c r="B852" s="15"/>
       <c r="C852" s="15"/>
@@ -17787,7 +17792,7 @@
       <c r="N852" s="2"/>
       <c r="O852" s="23"/>
     </row>
-    <row r="853" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A853" s="15"/>
       <c r="B853" s="15"/>
       <c r="C853" s="15"/>
@@ -17804,7 +17809,7 @@
       <c r="N853" s="2"/>
       <c r="O853" s="23"/>
     </row>
-    <row r="854" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A854" s="15"/>
       <c r="B854" s="15"/>
       <c r="C854" s="15"/>
@@ -17821,7 +17826,7 @@
       <c r="N854" s="2"/>
       <c r="O854" s="23"/>
     </row>
-    <row r="855" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A855" s="15"/>
       <c r="B855" s="15"/>
       <c r="C855" s="15"/>
@@ -17838,7 +17843,7 @@
       <c r="N855" s="2"/>
       <c r="O855" s="23"/>
     </row>
-    <row r="856" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A856" s="15"/>
       <c r="B856" s="15"/>
       <c r="C856" s="15"/>
@@ -17855,7 +17860,7 @@
       <c r="N856" s="2"/>
       <c r="O856" s="23"/>
     </row>
-    <row r="857" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A857" s="15"/>
       <c r="B857" s="15"/>
       <c r="C857" s="15"/>
@@ -17872,7 +17877,7 @@
       <c r="N857" s="2"/>
       <c r="O857" s="23"/>
     </row>
-    <row r="858" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A858" s="15"/>
       <c r="B858" s="15"/>
       <c r="C858" s="15"/>
@@ -17889,7 +17894,7 @@
       <c r="N858" s="2"/>
       <c r="O858" s="23"/>
     </row>
-    <row r="859" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A859" s="15"/>
       <c r="B859" s="15"/>
       <c r="C859" s="15"/>
@@ -17906,7 +17911,7 @@
       <c r="N859" s="2"/>
       <c r="O859" s="23"/>
     </row>
-    <row r="860" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A860" s="15"/>
       <c r="B860" s="15"/>
       <c r="C860" s="15"/>
@@ -17923,7 +17928,7 @@
       <c r="N860" s="2"/>
       <c r="O860" s="23"/>
     </row>
-    <row r="861" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A861" s="15"/>
       <c r="B861" s="15"/>
       <c r="C861" s="15"/>
@@ -17940,7 +17945,7 @@
       <c r="N861" s="2"/>
       <c r="O861" s="23"/>
     </row>
-    <row r="862" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A862" s="15"/>
       <c r="B862" s="15"/>
       <c r="C862" s="15"/>
@@ -17957,7 +17962,7 @@
       <c r="N862" s="2"/>
       <c r="O862" s="23"/>
     </row>
-    <row r="863" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A863" s="15"/>
       <c r="B863" s="15"/>
       <c r="C863" s="15"/>
@@ -17974,7 +17979,7 @@
       <c r="N863" s="2"/>
       <c r="O863" s="23"/>
     </row>
-    <row r="864" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A864" s="15"/>
       <c r="B864" s="15"/>
       <c r="C864" s="15"/>
@@ -17991,7 +17996,7 @@
       <c r="N864" s="2"/>
       <c r="O864" s="23"/>
     </row>
-    <row r="865" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A865" s="15"/>
       <c r="B865" s="15"/>
       <c r="C865" s="15"/>
@@ -18008,7 +18013,7 @@
       <c r="N865" s="2"/>
       <c r="O865" s="23"/>
     </row>
-    <row r="866" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A866" s="15"/>
       <c r="B866" s="15"/>
       <c r="C866" s="15"/>
@@ -18025,7 +18030,7 @@
       <c r="N866" s="2"/>
       <c r="O866" s="23"/>
     </row>
-    <row r="867" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A867" s="15"/>
       <c r="B867" s="15"/>
       <c r="C867" s="15"/>
@@ -18042,7 +18047,7 @@
       <c r="N867" s="2"/>
       <c r="O867" s="23"/>
     </row>
-    <row r="868" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A868" s="15"/>
       <c r="B868" s="15"/>
       <c r="C868" s="15"/>
@@ -18059,7 +18064,7 @@
       <c r="N868" s="2"/>
       <c r="O868" s="23"/>
     </row>
-    <row r="869" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A869" s="15"/>
       <c r="B869" s="15"/>
       <c r="C869" s="15"/>
@@ -18076,7 +18081,7 @@
       <c r="N869" s="2"/>
       <c r="O869" s="23"/>
     </row>
-    <row r="870" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A870" s="15"/>
       <c r="B870" s="15"/>
       <c r="C870" s="15"/>
@@ -18093,7 +18098,7 @@
       <c r="N870" s="2"/>
       <c r="O870" s="23"/>
     </row>
-    <row r="871" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A871" s="15"/>
       <c r="B871" s="15"/>
       <c r="C871" s="15"/>
@@ -18110,7 +18115,7 @@
       <c r="N871" s="2"/>
       <c r="O871" s="23"/>
     </row>
-    <row r="872" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A872" s="15"/>
       <c r="B872" s="15"/>
       <c r="C872" s="15"/>
@@ -18127,7 +18132,7 @@
       <c r="N872" s="2"/>
       <c r="O872" s="23"/>
     </row>
-    <row r="873" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A873" s="15"/>
       <c r="B873" s="15"/>
       <c r="C873" s="15"/>
@@ -18144,7 +18149,7 @@
       <c r="N873" s="2"/>
       <c r="O873" s="23"/>
     </row>
-    <row r="874" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A874" s="15"/>
       <c r="B874" s="15"/>
       <c r="C874" s="15"/>
@@ -18161,7 +18166,7 @@
       <c r="N874" s="2"/>
       <c r="O874" s="23"/>
     </row>
-    <row r="875" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A875" s="15"/>
       <c r="B875" s="15"/>
       <c r="C875" s="15"/>
@@ -18178,7 +18183,7 @@
       <c r="N875" s="2"/>
       <c r="O875" s="23"/>
     </row>
-    <row r="876" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A876" s="15"/>
       <c r="B876" s="15"/>
       <c r="C876" s="15"/>
@@ -18195,7 +18200,7 @@
       <c r="N876" s="2"/>
       <c r="O876" s="23"/>
     </row>
-    <row r="877" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A877" s="15"/>
       <c r="B877" s="15"/>
       <c r="C877" s="15"/>
@@ -18212,7 +18217,7 @@
       <c r="N877" s="2"/>
       <c r="O877" s="23"/>
     </row>
-    <row r="878" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A878" s="15"/>
       <c r="B878" s="15"/>
       <c r="C878" s="15"/>
@@ -18229,7 +18234,7 @@
       <c r="N878" s="2"/>
       <c r="O878" s="23"/>
     </row>
-    <row r="879" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A879" s="15"/>
       <c r="B879" s="15"/>
       <c r="C879" s="15"/>
@@ -18246,7 +18251,7 @@
       <c r="N879" s="2"/>
       <c r="O879" s="23"/>
     </row>
-    <row r="880" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A880" s="15"/>
       <c r="B880" s="15"/>
       <c r="C880" s="15"/>
@@ -18263,7 +18268,7 @@
       <c r="N880" s="2"/>
       <c r="O880" s="23"/>
     </row>
-    <row r="881" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A881" s="15"/>
       <c r="B881" s="15"/>
       <c r="C881" s="15"/>
@@ -18280,7 +18285,7 @@
       <c r="N881" s="2"/>
       <c r="O881" s="23"/>
     </row>
-    <row r="882" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A882" s="15"/>
       <c r="B882" s="15"/>
       <c r="C882" s="15"/>
@@ -18297,7 +18302,7 @@
       <c r="N882" s="2"/>
       <c r="O882" s="23"/>
     </row>
-    <row r="883" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A883" s="15"/>
       <c r="B883" s="15"/>
       <c r="C883" s="15"/>
@@ -18314,7 +18319,7 @@
       <c r="N883" s="2"/>
       <c r="O883" s="23"/>
     </row>
-    <row r="884" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A884" s="15"/>
       <c r="B884" s="15"/>
       <c r="C884" s="15"/>
@@ -18331,7 +18336,7 @@
       <c r="N884" s="2"/>
       <c r="O884" s="23"/>
     </row>
-    <row r="885" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A885" s="15"/>
       <c r="B885" s="15"/>
       <c r="C885" s="15"/>
@@ -18348,7 +18353,7 @@
       <c r="N885" s="2"/>
       <c r="O885" s="23"/>
     </row>
-    <row r="886" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A886" s="15"/>
       <c r="B886" s="15"/>
       <c r="C886" s="15"/>
@@ -18365,7 +18370,7 @@
       <c r="N886" s="2"/>
       <c r="O886" s="23"/>
     </row>
-    <row r="887" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A887" s="15"/>
       <c r="B887" s="15"/>
       <c r="C887" s="15"/>
@@ -18382,7 +18387,7 @@
       <c r="N887" s="2"/>
       <c r="O887" s="23"/>
     </row>
-    <row r="888" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A888" s="15"/>
       <c r="B888" s="15"/>
       <c r="C888" s="15"/>
@@ -18399,7 +18404,7 @@
       <c r="N888" s="2"/>
       <c r="O888" s="23"/>
     </row>
-    <row r="889" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A889" s="15"/>
       <c r="B889" s="15"/>
       <c r="C889" s="15"/>
@@ -18416,7 +18421,7 @@
       <c r="N889" s="2"/>
       <c r="O889" s="23"/>
     </row>
-    <row r="890" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A890" s="15"/>
       <c r="B890" s="15"/>
       <c r="C890" s="15"/>
@@ -18433,7 +18438,7 @@
       <c r="N890" s="2"/>
       <c r="O890" s="23"/>
     </row>
-    <row r="891" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A891" s="15"/>
       <c r="B891" s="15"/>
       <c r="C891" s="15"/>
@@ -18450,7 +18455,7 @@
       <c r="N891" s="2"/>
       <c r="O891" s="23"/>
     </row>
-    <row r="892" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A892" s="15"/>
       <c r="B892" s="15"/>
       <c r="C892" s="15"/>
@@ -18467,7 +18472,7 @@
       <c r="N892" s="2"/>
       <c r="O892" s="23"/>
     </row>
-    <row r="893" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A893" s="15"/>
       <c r="B893" s="15"/>
       <c r="C893" s="15"/>
@@ -18484,7 +18489,7 @@
       <c r="N893" s="2"/>
       <c r="O893" s="23"/>
     </row>
-    <row r="894" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A894" s="15"/>
       <c r="B894" s="15"/>
       <c r="C894" s="15"/>
@@ -18501,7 +18506,7 @@
       <c r="N894" s="2"/>
       <c r="O894" s="23"/>
     </row>
-    <row r="895" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A895" s="15"/>
       <c r="B895" s="15"/>
       <c r="C895" s="15"/>
@@ -18518,7 +18523,7 @@
       <c r="N895" s="2"/>
       <c r="O895" s="23"/>
     </row>
-    <row r="896" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A896" s="15"/>
       <c r="B896" s="15"/>
       <c r="C896" s="15"/>
@@ -18535,7 +18540,7 @@
       <c r="N896" s="2"/>
       <c r="O896" s="23"/>
     </row>
-    <row r="897" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A897" s="15"/>
       <c r="B897" s="15"/>
       <c r="C897" s="15"/>
@@ -18552,7 +18557,7 @@
       <c r="N897" s="2"/>
       <c r="O897" s="23"/>
     </row>
-    <row r="898" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A898" s="15"/>
       <c r="B898" s="15"/>
       <c r="C898" s="15"/>
@@ -18569,7 +18574,7 @@
       <c r="N898" s="2"/>
       <c r="O898" s="23"/>
     </row>
-    <row r="899" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A899" s="15"/>
       <c r="B899" s="15"/>
       <c r="C899" s="15"/>
@@ -18586,7 +18591,7 @@
       <c r="N899" s="2"/>
       <c r="O899" s="23"/>
     </row>
-    <row r="900" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A900" s="15"/>
       <c r="B900" s="15"/>
       <c r="C900" s="15"/>
@@ -18603,7 +18608,7 @@
       <c r="N900" s="2"/>
       <c r="O900" s="23"/>
     </row>
-    <row r="901" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A901" s="15"/>
       <c r="B901" s="15"/>
       <c r="C901" s="15"/>
@@ -18620,7 +18625,7 @@
       <c r="N901" s="2"/>
       <c r="O901" s="23"/>
     </row>
-    <row r="902" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A902" s="15"/>
       <c r="B902" s="15"/>
       <c r="C902" s="15"/>
@@ -18637,7 +18642,7 @@
       <c r="N902" s="2"/>
       <c r="O902" s="23"/>
     </row>
-    <row r="903" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A903" s="15"/>
       <c r="B903" s="15"/>
       <c r="C903" s="15"/>
@@ -18654,7 +18659,7 @@
       <c r="N903" s="2"/>
       <c r="O903" s="23"/>
     </row>
-    <row r="904" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A904" s="15"/>
       <c r="B904" s="15"/>
       <c r="C904" s="15"/>
@@ -18671,7 +18676,7 @@
       <c r="N904" s="2"/>
       <c r="O904" s="23"/>
     </row>
-    <row r="905" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A905" s="15"/>
       <c r="B905" s="15"/>
       <c r="C905" s="15"/>
@@ -18688,7 +18693,7 @@
       <c r="N905" s="2"/>
       <c r="O905" s="23"/>
     </row>
-    <row r="906" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A906" s="15"/>
       <c r="B906" s="15"/>
       <c r="C906" s="15"/>
@@ -18705,7 +18710,7 @@
       <c r="N906" s="2"/>
       <c r="O906" s="23"/>
     </row>
-    <row r="907" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A907" s="15"/>
       <c r="B907" s="15"/>
       <c r="C907" s="15"/>
@@ -18722,7 +18727,7 @@
       <c r="N907" s="2"/>
       <c r="O907" s="23"/>
     </row>
-    <row r="908" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A908" s="15"/>
       <c r="B908" s="15"/>
       <c r="C908" s="15"/>
@@ -18739,7 +18744,7 @@
       <c r="N908" s="2"/>
       <c r="O908" s="23"/>
     </row>
-    <row r="909" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A909" s="15"/>
       <c r="B909" s="15"/>
       <c r="C909" s="15"/>
@@ -18756,7 +18761,7 @@
       <c r="N909" s="2"/>
       <c r="O909" s="23"/>
     </row>
-    <row r="910" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A910" s="15"/>
       <c r="B910" s="15"/>
       <c r="C910" s="15"/>
@@ -18773,7 +18778,7 @@
       <c r="N910" s="2"/>
       <c r="O910" s="23"/>
     </row>
-    <row r="911" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A911" s="15"/>
       <c r="B911" s="15"/>
       <c r="C911" s="15"/>
@@ -18790,7 +18795,7 @@
       <c r="N911" s="2"/>
       <c r="O911" s="23"/>
     </row>
-    <row r="912" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A912" s="15"/>
       <c r="B912" s="15"/>
       <c r="C912" s="15"/>
@@ -18807,7 +18812,7 @@
       <c r="N912" s="2"/>
       <c r="O912" s="23"/>
     </row>
-    <row r="913" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A913" s="15"/>
       <c r="B913" s="15"/>
       <c r="C913" s="15"/>
@@ -18824,7 +18829,7 @@
       <c r="N913" s="2"/>
       <c r="O913" s="23"/>
     </row>
-    <row r="914" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A914" s="15"/>
       <c r="B914" s="15"/>
       <c r="C914" s="15"/>
@@ -18841,7 +18846,7 @@
       <c r="N914" s="2"/>
       <c r="O914" s="23"/>
     </row>
-    <row r="915" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A915" s="15"/>
       <c r="B915" s="15"/>
       <c r="C915" s="15"/>
@@ -18858,7 +18863,7 @@
       <c r="N915" s="2"/>
       <c r="O915" s="23"/>
     </row>
-    <row r="916" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A916" s="15"/>
       <c r="B916" s="15"/>
       <c r="C916" s="15"/>
@@ -18875,7 +18880,7 @@
       <c r="N916" s="2"/>
       <c r="O916" s="23"/>
     </row>
-    <row r="917" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A917" s="15"/>
       <c r="B917" s="15"/>
       <c r="C917" s="15"/>
@@ -18892,7 +18897,7 @@
       <c r="N917" s="2"/>
       <c r="O917" s="23"/>
     </row>
-    <row r="918" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A918" s="15"/>
       <c r="B918" s="15"/>
       <c r="C918" s="15"/>
@@ -18909,7 +18914,7 @@
       <c r="N918" s="2"/>
       <c r="O918" s="23"/>
     </row>
-    <row r="919" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A919" s="15"/>
       <c r="B919" s="15"/>
       <c r="C919" s="15"/>
@@ -18926,7 +18931,7 @@
       <c r="N919" s="2"/>
       <c r="O919" s="23"/>
     </row>
-    <row r="920" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A920" s="15"/>
       <c r="B920" s="15"/>
       <c r="C920" s="15"/>
@@ -18943,7 +18948,7 @@
       <c r="N920" s="2"/>
       <c r="O920" s="23"/>
     </row>
-    <row r="921" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A921" s="15"/>
       <c r="B921" s="15"/>
       <c r="C921" s="15"/>
@@ -18960,7 +18965,7 @@
       <c r="N921" s="2"/>
       <c r="O921" s="23"/>
     </row>
-    <row r="922" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A922" s="15"/>
       <c r="B922" s="15"/>
       <c r="C922" s="15"/>
@@ -18977,7 +18982,7 @@
       <c r="N922" s="2"/>
       <c r="O922" s="23"/>
     </row>
-    <row r="923" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A923" s="15"/>
       <c r="B923" s="15"/>
       <c r="C923" s="15"/>
@@ -18994,7 +18999,7 @@
       <c r="N923" s="2"/>
       <c r="O923" s="23"/>
     </row>
-    <row r="924" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A924" s="15"/>
       <c r="B924" s="15"/>
       <c r="C924" s="15"/>
@@ -19011,7 +19016,7 @@
       <c r="N924" s="2"/>
       <c r="O924" s="23"/>
     </row>
-    <row r="925" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A925" s="15"/>
       <c r="B925" s="15"/>
       <c r="C925" s="15"/>
@@ -19028,7 +19033,7 @@
       <c r="N925" s="2"/>
       <c r="O925" s="23"/>
     </row>
-    <row r="926" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A926" s="15"/>
       <c r="B926" s="15"/>
       <c r="C926" s="15"/>
@@ -19045,7 +19050,7 @@
       <c r="N926" s="2"/>
       <c r="O926" s="23"/>
     </row>
-    <row r="927" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A927" s="15"/>
       <c r="B927" s="15"/>
       <c r="C927" s="15"/>
@@ -19062,7 +19067,7 @@
       <c r="N927" s="2"/>
       <c r="O927" s="23"/>
     </row>
-    <row r="928" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A928" s="15"/>
       <c r="B928" s="15"/>
       <c r="C928" s="15"/>
@@ -19079,7 +19084,7 @@
       <c r="N928" s="2"/>
       <c r="O928" s="23"/>
     </row>
-    <row r="929" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A929" s="15"/>
       <c r="B929" s="15"/>
       <c r="C929" s="15"/>
@@ -19096,7 +19101,7 @@
       <c r="N929" s="2"/>
       <c r="O929" s="23"/>
     </row>
-    <row r="930" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A930" s="15"/>
       <c r="B930" s="15"/>
       <c r="C930" s="15"/>
@@ -19113,7 +19118,7 @@
       <c r="N930" s="2"/>
       <c r="O930" s="23"/>
     </row>
-    <row r="931" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A931" s="15"/>
       <c r="B931" s="15"/>
       <c r="C931" s="15"/>
@@ -19130,7 +19135,7 @@
       <c r="N931" s="2"/>
       <c r="O931" s="23"/>
     </row>
-    <row r="932" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A932" s="15"/>
       <c r="B932" s="15"/>
       <c r="C932" s="15"/>
@@ -19147,7 +19152,7 @@
       <c r="N932" s="2"/>
       <c r="O932" s="23"/>
     </row>
-    <row r="933" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A933" s="15"/>
       <c r="B933" s="15"/>
       <c r="C933" s="15"/>
@@ -19164,7 +19169,7 @@
       <c r="N933" s="2"/>
       <c r="O933" s="23"/>
     </row>
-    <row r="934" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A934" s="15"/>
       <c r="B934" s="15"/>
       <c r="C934" s="15"/>
@@ -19181,7 +19186,7 @@
       <c r="N934" s="2"/>
       <c r="O934" s="23"/>
     </row>
-    <row r="935" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A935" s="15"/>
       <c r="B935" s="15"/>
       <c r="C935" s="15"/>
@@ -19198,7 +19203,7 @@
       <c r="N935" s="2"/>
       <c r="O935" s="23"/>
     </row>
-    <row r="936" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A936" s="15"/>
       <c r="B936" s="15"/>
       <c r="C936" s="15"/>
@@ -19215,7 +19220,7 @@
       <c r="N936" s="2"/>
       <c r="O936" s="23"/>
     </row>
-    <row r="937" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A937" s="15"/>
       <c r="B937" s="15"/>
       <c r="C937" s="15"/>
@@ -19232,7 +19237,7 @@
       <c r="N937" s="2"/>
       <c r="O937" s="23"/>
     </row>
-    <row r="938" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A938" s="15"/>
       <c r="B938" s="15"/>
       <c r="C938" s="15"/>
@@ -19249,7 +19254,7 @@
       <c r="N938" s="2"/>
       <c r="O938" s="23"/>
     </row>
-    <row r="939" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A939" s="15"/>
       <c r="B939" s="15"/>
       <c r="C939" s="15"/>
@@ -19266,7 +19271,7 @@
       <c r="N939" s="2"/>
       <c r="O939" s="23"/>
     </row>
-    <row r="940" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A940" s="15"/>
       <c r="B940" s="15"/>
       <c r="C940" s="15"/>
@@ -19283,7 +19288,7 @@
       <c r="N940" s="2"/>
       <c r="O940" s="23"/>
     </row>
-    <row r="941" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A941" s="15"/>
       <c r="B941" s="15"/>
       <c r="C941" s="15"/>
@@ -19300,7 +19305,7 @@
       <c r="N941" s="2"/>
       <c r="O941" s="23"/>
     </row>
-    <row r="942" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A942" s="15"/>
       <c r="B942" s="15"/>
       <c r="C942" s="15"/>
@@ -19317,7 +19322,7 @@
       <c r="N942" s="2"/>
       <c r="O942" s="23"/>
     </row>
-    <row r="943" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A943" s="15"/>
       <c r="B943" s="15"/>
       <c r="C943" s="15"/>
@@ -19334,7 +19339,7 @@
       <c r="N943" s="2"/>
       <c r="O943" s="23"/>
     </row>
-    <row r="944" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A944" s="15"/>
       <c r="B944" s="15"/>
       <c r="C944" s="15"/>
@@ -19351,7 +19356,7 @@
       <c r="N944" s="2"/>
       <c r="O944" s="23"/>
     </row>
-    <row r="945" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A945" s="15"/>
       <c r="B945" s="15"/>
       <c r="C945" s="15"/>
@@ -19368,7 +19373,7 @@
       <c r="N945" s="2"/>
       <c r="O945" s="23"/>
     </row>
-    <row r="946" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A946" s="15"/>
       <c r="B946" s="15"/>
       <c r="C946" s="15"/>
@@ -19385,7 +19390,7 @@
       <c r="N946" s="2"/>
       <c r="O946" s="23"/>
     </row>
-    <row r="947" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A947" s="15"/>
       <c r="B947" s="15"/>
       <c r="C947" s="15"/>
@@ -19402,7 +19407,7 @@
       <c r="N947" s="2"/>
       <c r="O947" s="23"/>
     </row>
-    <row r="948" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A948" s="15"/>
       <c r="B948" s="15"/>
       <c r="C948" s="15"/>
@@ -19419,7 +19424,7 @@
       <c r="N948" s="2"/>
       <c r="O948" s="23"/>
     </row>
-    <row r="949" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A949" s="15"/>
       <c r="B949" s="15"/>
       <c r="C949" s="15"/>
@@ -19436,7 +19441,7 @@
       <c r="N949" s="2"/>
       <c r="O949" s="23"/>
     </row>
-    <row r="950" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A950" s="15"/>
       <c r="B950" s="15"/>
       <c r="C950" s="15"/>
@@ -19453,7 +19458,7 @@
       <c r="N950" s="2"/>
       <c r="O950" s="23"/>
     </row>
-    <row r="951" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A951" s="15"/>
       <c r="B951" s="15"/>
       <c r="C951" s="15"/>
@@ -19470,7 +19475,7 @@
       <c r="N951" s="2"/>
       <c r="O951" s="23"/>
     </row>
-    <row r="952" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A952" s="15"/>
       <c r="B952" s="15"/>
       <c r="C952" s="15"/>
@@ -19487,7 +19492,7 @@
       <c r="N952" s="2"/>
       <c r="O952" s="23"/>
     </row>
-    <row r="953" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A953" s="15"/>
       <c r="B953" s="15"/>
       <c r="C953" s="15"/>
@@ -19504,7 +19509,7 @@
       <c r="N953" s="2"/>
       <c r="O953" s="23"/>
     </row>
-    <row r="954" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A954" s="15"/>
       <c r="B954" s="15"/>
       <c r="C954" s="15"/>
@@ -19521,7 +19526,7 @@
       <c r="N954" s="2"/>
       <c r="O954" s="23"/>
     </row>
-    <row r="955" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A955" s="15"/>
       <c r="B955" s="15"/>
       <c r="C955" s="15"/>
@@ -19538,7 +19543,7 @@
       <c r="N955" s="2"/>
       <c r="O955" s="23"/>
     </row>
-    <row r="956" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A956" s="15"/>
       <c r="B956" s="15"/>
       <c r="C956" s="15"/>
@@ -19555,7 +19560,7 @@
       <c r="N956" s="2"/>
       <c r="O956" s="23"/>
     </row>
-    <row r="957" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A957" s="15"/>
       <c r="B957" s="15"/>
       <c r="C957" s="15"/>
@@ -19572,7 +19577,7 @@
       <c r="N957" s="2"/>
       <c r="O957" s="23"/>
     </row>
-    <row r="958" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A958" s="15"/>
       <c r="B958" s="15"/>
       <c r="C958" s="15"/>
@@ -19589,7 +19594,7 @@
       <c r="N958" s="2"/>
       <c r="O958" s="23"/>
     </row>
-    <row r="959" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A959" s="15"/>
       <c r="B959" s="15"/>
       <c r="C959" s="15"/>
@@ -19606,7 +19611,7 @@
       <c r="N959" s="2"/>
       <c r="O959" s="23"/>
     </row>
-    <row r="960" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A960" s="15"/>
       <c r="B960" s="15"/>
       <c r="C960" s="15"/>
@@ -19623,7 +19628,7 @@
       <c r="N960" s="2"/>
       <c r="O960" s="23"/>
     </row>
-    <row r="961" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A961" s="15"/>
       <c r="B961" s="15"/>
       <c r="C961" s="15"/>
@@ -19640,7 +19645,7 @@
       <c r="N961" s="2"/>
       <c r="O961" s="23"/>
     </row>
-    <row r="962" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A962" s="15"/>
       <c r="B962" s="15"/>
       <c r="C962" s="15"/>
@@ -19657,7 +19662,7 @@
       <c r="N962" s="2"/>
       <c r="O962" s="23"/>
     </row>
-    <row r="963" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A963" s="15"/>
       <c r="B963" s="15"/>
       <c r="C963" s="15"/>
@@ -19674,7 +19679,7 @@
       <c r="N963" s="2"/>
       <c r="O963" s="23"/>
     </row>
-    <row r="964" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A964" s="15"/>
       <c r="B964" s="15"/>
       <c r="C964" s="15"/>
@@ -19691,7 +19696,7 @@
       <c r="N964" s="2"/>
       <c r="O964" s="23"/>
     </row>
-    <row r="965" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A965" s="15"/>
       <c r="B965" s="15"/>
       <c r="C965" s="15"/>
@@ -19708,7 +19713,7 @@
       <c r="N965" s="2"/>
       <c r="O965" s="23"/>
     </row>
-    <row r="966" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A966" s="15"/>
       <c r="B966" s="15"/>
       <c r="C966" s="15"/>
@@ -19725,7 +19730,7 @@
       <c r="N966" s="2"/>
       <c r="O966" s="23"/>
     </row>
-    <row r="967" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A967" s="15"/>
       <c r="B967" s="15"/>
       <c r="C967" s="15"/>
@@ -19742,7 +19747,7 @@
       <c r="N967" s="2"/>
       <c r="O967" s="23"/>
     </row>
-    <row r="968" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A968" s="15"/>
       <c r="B968" s="15"/>
       <c r="C968" s="15"/>
@@ -19759,7 +19764,7 @@
       <c r="N968" s="2"/>
       <c r="O968" s="23"/>
     </row>
-    <row r="969" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A969" s="15"/>
       <c r="B969" s="15"/>
       <c r="C969" s="15"/>
@@ -19776,7 +19781,7 @@
       <c r="N969" s="2"/>
       <c r="O969" s="23"/>
     </row>
-    <row r="970" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A970" s="15"/>
       <c r="B970" s="15"/>
       <c r="C970" s="15"/>
@@ -19793,7 +19798,7 @@
       <c r="N970" s="2"/>
       <c r="O970" s="23"/>
     </row>
-    <row r="971" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A971" s="15"/>
       <c r="B971" s="15"/>
       <c r="C971" s="15"/>
@@ -19810,7 +19815,7 @@
       <c r="N971" s="2"/>
       <c r="O971" s="23"/>
     </row>
-    <row r="972" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A972" s="15"/>
       <c r="B972" s="15"/>
       <c r="C972" s="15"/>
@@ -19827,7 +19832,7 @@
       <c r="N972" s="2"/>
       <c r="O972" s="23"/>
     </row>
-    <row r="973" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A973" s="15"/>
       <c r="B973" s="15"/>
       <c r="C973" s="15"/>
@@ -19844,7 +19849,7 @@
       <c r="N973" s="2"/>
       <c r="O973" s="23"/>
     </row>
-    <row r="974" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A974" s="15"/>
       <c r="B974" s="15"/>
       <c r="C974" s="15"/>
@@ -19861,7 +19866,7 @@
       <c r="N974" s="2"/>
       <c r="O974" s="23"/>
     </row>
-    <row r="975" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A975" s="15"/>
       <c r="B975" s="15"/>
       <c r="C975" s="15"/>
@@ -19878,7 +19883,7 @@
       <c r="N975" s="2"/>
       <c r="O975" s="23"/>
     </row>
-    <row r="976" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A976" s="15"/>
       <c r="B976" s="15"/>
       <c r="C976" s="15"/>
@@ -19895,7 +19900,7 @@
       <c r="N976" s="2"/>
       <c r="O976" s="23"/>
     </row>
-    <row r="977" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A977" s="15"/>
       <c r="B977" s="15"/>
       <c r="C977" s="15"/>
@@ -19912,7 +19917,7 @@
       <c r="N977" s="2"/>
       <c r="O977" s="23"/>
     </row>
-    <row r="978" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A978" s="15"/>
       <c r="B978" s="15"/>
       <c r="C978" s="15"/>
@@ -19929,7 +19934,7 @@
       <c r="N978" s="2"/>
       <c r="O978" s="23"/>
     </row>
-    <row r="979" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A979" s="15"/>
       <c r="B979" s="15"/>
       <c r="C979" s="15"/>
@@ -19946,7 +19951,7 @@
       <c r="N979" s="2"/>
       <c r="O979" s="23"/>
     </row>
-    <row r="980" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A980" s="15"/>
       <c r="B980" s="15"/>
       <c r="C980" s="15"/>
@@ -19963,7 +19968,7 @@
       <c r="N980" s="2"/>
       <c r="O980" s="23"/>
     </row>
-    <row r="981" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A981" s="15"/>
       <c r="B981" s="15"/>
       <c r="C981" s="15"/>
@@ -19980,7 +19985,7 @@
       <c r="N981" s="2"/>
       <c r="O981" s="23"/>
     </row>
-    <row r="982" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A982" s="15"/>
       <c r="B982" s="15"/>
       <c r="C982" s="15"/>
@@ -19997,7 +20002,7 @@
       <c r="N982" s="2"/>
       <c r="O982" s="23"/>
     </row>
-    <row r="983" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A983" s="15"/>
       <c r="B983" s="15"/>
       <c r="C983" s="15"/>
@@ -20014,7 +20019,7 @@
       <c r="N983" s="2"/>
       <c r="O983" s="23"/>
     </row>
-    <row r="984" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A984" s="15"/>
       <c r="B984" s="15"/>
       <c r="C984" s="15"/>
@@ -20031,7 +20036,7 @@
       <c r="N984" s="2"/>
       <c r="O984" s="23"/>
     </row>
-    <row r="985" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A985" s="15"/>
       <c r="B985" s="15"/>
       <c r="C985" s="15"/>
@@ -20048,7 +20053,7 @@
       <c r="N985" s="2"/>
       <c r="O985" s="23"/>
     </row>
-    <row r="986" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A986" s="15"/>
       <c r="B986" s="15"/>
       <c r="C986" s="15"/>
@@ -20065,7 +20070,7 @@
       <c r="N986" s="2"/>
       <c r="O986" s="23"/>
     </row>
-    <row r="987" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A987" s="15"/>
       <c r="B987" s="15"/>
       <c r="C987" s="15"/>
@@ -20082,7 +20087,7 @@
       <c r="N987" s="2"/>
       <c r="O987" s="23"/>
     </row>
-    <row r="988" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A988" s="15"/>
       <c r="B988" s="15"/>
       <c r="C988" s="15"/>
@@ -20099,7 +20104,7 @@
       <c r="N988" s="2"/>
       <c r="O988" s="23"/>
     </row>
-    <row r="989" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A989" s="15"/>
       <c r="B989" s="15"/>
       <c r="C989" s="15"/>
@@ -20116,7 +20121,7 @@
       <c r="N989" s="2"/>
       <c r="O989" s="23"/>
     </row>
-    <row r="990" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A990" s="15"/>
       <c r="B990" s="15"/>
       <c r="C990" s="15"/>
@@ -20133,7 +20138,7 @@
       <c r="N990" s="2"/>
       <c r="O990" s="23"/>
     </row>
-    <row r="991" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A991" s="15"/>
       <c r="B991" s="15"/>
       <c r="C991" s="15"/>
@@ -20150,7 +20155,7 @@
       <c r="N991" s="2"/>
       <c r="O991" s="23"/>
     </row>
-    <row r="992" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A992" s="15"/>
       <c r="B992" s="15"/>
       <c r="C992" s="15"/>
@@ -20167,7 +20172,7 @@
       <c r="N992" s="2"/>
       <c r="O992" s="23"/>
     </row>
-    <row r="993" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A993" s="15"/>
       <c r="B993" s="15"/>
       <c r="C993" s="15"/>
@@ -20184,7 +20189,7 @@
       <c r="N993" s="2"/>
       <c r="O993" s="23"/>
     </row>
-    <row r="994" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A994" s="15"/>
       <c r="B994" s="15"/>
       <c r="C994" s="15"/>
@@ -20201,7 +20206,7 @@
       <c r="N994" s="2"/>
       <c r="O994" s="23"/>
     </row>
-    <row r="995" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A995" s="15"/>
       <c r="B995" s="15"/>
       <c r="C995" s="15"/>
@@ -20218,7 +20223,7 @@
       <c r="N995" s="2"/>
       <c r="O995" s="23"/>
     </row>
-    <row r="996" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A996" s="15"/>
       <c r="B996" s="15"/>
       <c r="C996" s="15"/>
@@ -20235,7 +20240,7 @@
       <c r="N996" s="2"/>
       <c r="O996" s="23"/>
     </row>
-    <row r="997" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A997" s="15"/>
       <c r="B997" s="15"/>
       <c r="C997" s="15"/>
@@ -20252,7 +20257,7 @@
       <c r="N997" s="2"/>
       <c r="O997" s="23"/>
     </row>
-    <row r="998" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A998" s="15"/>
       <c r="B998" s="15"/>
       <c r="C998" s="15"/>
@@ -20269,7 +20274,7 @@
       <c r="N998" s="2"/>
       <c r="O998" s="23"/>
     </row>
-    <row r="999" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A999" s="15"/>
       <c r="B999" s="15"/>
       <c r="C999" s="15"/>
@@ -20286,7 +20291,7 @@
       <c r="N999" s="2"/>
       <c r="O999" s="23"/>
     </row>
-    <row r="1000" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1000" s="15"/>
       <c r="B1000" s="15"/>
       <c r="C1000" s="15"/>

--- a/Airfoil Database/list_airfoils.xlsx
+++ b/Airfoil Database/list_airfoils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cloned Respositories\GP-Aero\Airfoil Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9442CC48-9FCB-417B-BF9C-AC305051AFFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71039C8-CEE3-457D-BDD0-EB3819F1F63B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="267">
   <si>
     <t>Airfoil</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Symmetric</t>
-  </si>
-  <si>
-    <t>NACA 64A Series</t>
   </si>
   <si>
     <t>NACA</t>
@@ -743,9 +740,6 @@
     <t>NACA TN 1167</t>
   </si>
   <si>
-    <t>NACA 65 series</t>
-  </si>
-  <si>
     <t>RISO-B1-18</t>
   </si>
   <si>
@@ -844,6 +838,10 @@
   </si>
   <si>
     <t>SC 0410</t>
+  </si>
+  <si>
+    <t>1. Mach calculated from chord and Re
+2. Is a stretched 63-421</t>
   </si>
 </sst>
 </file>
@@ -1705,10 +1703,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A30" sqref="A30"/>
-      <selection pane="topRight" activeCell="K51" sqref="K51"/>
+      <selection pane="topRight" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1810,14 +1808,14 @@
       <c r="K2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="O2" s="7"/>
       <c r="Q2" s="8">
@@ -1827,7 +1825,7 @@
     </row>
     <row r="3" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
@@ -1857,23 +1855,23 @@
       <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -1898,27 +1896,27 @@
         <v>21</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -1943,26 +1941,26 @@
         <v>21</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="O5" s="7"/>
       <c r="Q5" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R5" s="8">
         <v>0.127</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T5" s="8">
         <v>1</v>
@@ -1970,10 +1968,10 @@
     </row>
     <row r="6" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C6" s="10">
         <v>0.12</v>
@@ -1985,7 +1983,7 @@
         <v>0.02</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="2">
         <v>8</v>
@@ -1998,20 +1996,20 @@
         <v>21</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="O6" s="7"/>
       <c r="Q6" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R6" s="12">
         <v>3000000</v>
@@ -2019,10 +2017,10 @@
     </row>
     <row r="7" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="C7" s="10">
         <v>0.14000000000000001</v>
@@ -2034,7 +2032,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2">
         <v>9</v>
@@ -2047,20 +2045,20 @@
         <v>21</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="O7" s="7"/>
       <c r="Q7" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R7" s="13">
         <f>(R6/T5*0.0000181)/(1.225*R5)/340</f>
@@ -2069,10 +2067,10 @@
     </row>
     <row r="8" spans="1:20" s="8" customFormat="1" ht="62" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="C8" s="10">
         <v>0.05</v>
@@ -2084,7 +2082,7 @@
         <v>0.03</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="2">
         <v>15</v>
@@ -2097,39 +2095,39 @@
         <v>21</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>44</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>45</v>
       </c>
       <c r="C9" s="10">
         <v>0.05</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>21</v>
@@ -2142,27 +2140,27 @@
         <v>21</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="17" t="s">
         <v>51</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="8" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="C10" s="10">
         <v>0.14000000000000001</v>
@@ -2174,7 +2172,7 @@
         <v>1.44E-2</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="2">
         <v>3</v>
@@ -2190,36 +2188,36 @@
         <v>22</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="O10" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="C11" s="10">
         <v>0.17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11" s="2">
         <v>6</v>
@@ -2235,24 +2233,24 @@
         <v>22</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>63</v>
       </c>
       <c r="C12" s="18">
         <v>0.02</v>
@@ -2264,7 +2262,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="15">
         <v>4</v>
@@ -2280,24 +2278,24 @@
         <v>22</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="O12" s="17" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="31" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>68</v>
       </c>
       <c r="C13" s="18">
         <v>0.06</v>
@@ -2309,7 +2307,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="15">
         <v>4</v>
@@ -2322,27 +2320,27 @@
         <v>21</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="8" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C14" s="2">
         <v>0.16</v>
@@ -2354,40 +2352,40 @@
         <v>21</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G14" s="2">
         <v>3</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C15" s="2">
         <v>0.6</v>
@@ -2399,38 +2397,38 @@
         <v>21</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G15" s="2">
         <v>4</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O15" s="7"/>
     </row>
     <row r="16" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="2">
         <v>0.6</v>
@@ -2442,50 +2440,50 @@
         <v>21</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G16" s="2">
         <v>4</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O16" s="7"/>
     </row>
     <row r="17" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="C17" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="D17" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>86</v>
       </c>
       <c r="E17" s="22">
         <v>0.04</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17" s="15">
         <v>12</v>
@@ -2498,39 +2496,39 @@
         <v>21</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="8" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="G18" s="2">
         <v>17</v>
@@ -2546,36 +2544,36 @@
         <v>22</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="O18" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F19" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G19" s="2">
         <v>10</v>
@@ -2594,24 +2592,24 @@
         <v>21</v>
       </c>
       <c r="M19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="D20" s="3">
         <v>6000000</v>
@@ -2620,7 +2618,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G20" s="2">
         <v>10</v>
@@ -2633,39 +2631,39 @@
         <v>9</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="D21" s="3">
         <v>2000000</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G21" s="2">
         <v>17</v>
@@ -2678,35 +2676,35 @@
         <v>9</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O21" s="7"/>
     </row>
     <row r="22" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F22" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G22" s="2">
         <v>10</v>
@@ -2719,37 +2717,37 @@
         <v>9</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="N22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O22" s="7"/>
     </row>
     <row r="23" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="C23" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="D23" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>120</v>
       </c>
       <c r="E23" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G23" s="15">
         <v>16</v>
@@ -2762,37 +2760,37 @@
         <v>9</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L23" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="M23" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="M23" s="15" t="s">
-        <v>122</v>
-      </c>
       <c r="N23" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O23" s="23"/>
     </row>
     <row r="24" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="D24" s="3">
         <v>6000000</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G24" s="2">
         <v>20</v>
@@ -2805,39 +2803,39 @@
         <v>9</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="M24" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="N24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="28" t="s">
-        <v>132</v>
-      </c>
       <c r="F25" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G25" s="2">
         <v>13</v>
@@ -2850,71 +2848,71 @@
         <v>9</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L25" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="M25" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="N25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O25" s="7"/>
     </row>
     <row r="26" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G26" s="2">
         <v>18</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J26" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L26" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="M26" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="N26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O26" s="7"/>
     </row>
     <row r="27" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="D27" s="3">
         <v>3000000</v>
@@ -2923,7 +2921,7 @@
         <v>21</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G27" s="2">
         <v>66</v>
@@ -2939,68 +2937,68 @@
         <v>22</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O27" s="7"/>
     </row>
     <row r="28" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G28" s="2">
         <v>16</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O28" s="7"/>
     </row>
     <row r="29" spans="1:15" s="30" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="D29" s="3">
         <v>2000000</v>
@@ -3009,7 +3007,7 @@
         <v>0.03</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G29" s="2">
         <v>7</v>
@@ -3022,30 +3020,30 @@
         <v>9</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L29" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="N29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="14" t="s">
         <v>155</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O29" s="14" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="8" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D30" s="3">
         <v>4400000</v>
@@ -3054,7 +3052,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G30" s="2">
         <v>86</v>
@@ -3067,46 +3065,46 @@
         <v>9</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M30" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="N30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O30" s="14" t="s">
         <v>161</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O30" s="14" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="C31" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G31" s="2">
         <v>112</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>21</v>
@@ -3115,124 +3113,124 @@
         <v>22</v>
       </c>
       <c r="L31" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M31" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="N31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G32" s="2">
         <v>17</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O32" s="7"/>
     </row>
     <row r="33" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G33" s="2">
         <v>18</v>
       </c>
       <c r="H33" s="32"/>
       <c r="I33" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L33" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O33" s="23" t="s">
         <v>173</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O33" s="23" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="C34" s="2">
         <v>0.76</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E34" s="28">
         <v>0.01</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G34" s="2">
         <v>6</v>
@@ -3245,70 +3243,70 @@
         <v>9</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M34" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G35" s="2">
         <v>55</v>
       </c>
       <c r="H35" s="33"/>
       <c r="I35" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L35" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="30" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="C36" s="34">
         <v>0.22</v>
@@ -3320,38 +3318,38 @@
         <v>21</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G36" s="2">
         <v>3</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L36" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="M36" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="N36" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O36" s="2"/>
     </row>
     <row r="37" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="C37" s="2">
         <v>0.22</v>
@@ -3363,126 +3361,126 @@
         <v>21</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G37" s="2">
         <v>3</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L37" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="M37" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="N37" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O37" s="7"/>
     </row>
     <row r="38" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="E38" s="28">
         <v>0.01</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G38" s="2">
         <v>18</v>
       </c>
       <c r="H38" s="35"/>
       <c r="I38" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L38" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M38" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="N38" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O38" s="7"/>
     </row>
     <row r="39" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="E39" s="2">
         <v>0.08</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G39" s="2">
         <v>6</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L39" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M39" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="M39" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="N39" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40" s="37" t="s">
         <v>203</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>204</v>
       </c>
       <c r="C40" s="37">
         <v>0.1</v>
@@ -3494,38 +3492,38 @@
         <v>21</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G40" s="37">
         <v>2</v>
       </c>
       <c r="H40" s="39"/>
       <c r="I40" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J40" s="37" t="s">
         <v>21</v>
       </c>
       <c r="K40" s="37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O40" s="23"/>
     </row>
     <row r="41" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B41" s="37" t="s">
         <v>207</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>208</v>
       </c>
       <c r="C41" s="37">
         <v>0.15</v>
@@ -3537,38 +3535,38 @@
         <v>21</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G41" s="37">
         <v>6</v>
       </c>
       <c r="H41" s="39"/>
       <c r="I41" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J41" s="37" t="s">
         <v>21</v>
       </c>
       <c r="K41" s="37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L41" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="M41" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="M41" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="N41" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O41" s="23"/>
     </row>
     <row r="42" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42" s="37" t="s">
         <v>212</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>213</v>
       </c>
       <c r="C42" s="37">
         <v>0.15</v>
@@ -3580,38 +3578,38 @@
         <v>21</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G42" s="37">
         <v>6</v>
       </c>
       <c r="H42" s="39"/>
       <c r="I42" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J42" s="37" t="s">
         <v>21</v>
       </c>
       <c r="K42" s="37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L42" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="M42" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="M42" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="N42" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O42" s="23"/>
     </row>
     <row r="43" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" s="37" t="s">
         <v>214</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>215</v>
       </c>
       <c r="C43" s="37">
         <v>0.122</v>
@@ -3623,38 +3621,38 @@
         <v>21</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G43" s="37">
         <v>6</v>
       </c>
       <c r="H43" s="39"/>
       <c r="I43" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J43" s="37" t="s">
         <v>21</v>
       </c>
       <c r="K43" s="37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L43" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="M43" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="M43" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="N43" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O43" s="23"/>
     </row>
     <row r="44" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="B44" s="37" t="s">
         <v>218</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>219</v>
       </c>
       <c r="C44" s="37">
         <v>0.122</v>
@@ -3666,38 +3664,38 @@
         <v>21</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G44" s="37">
         <v>6</v>
       </c>
       <c r="H44" s="39"/>
       <c r="I44" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J44" s="37" t="s">
         <v>21</v>
       </c>
       <c r="K44" s="37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L44" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="M44" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="M44" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="N44" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="B45" s="37" t="s">
         <v>220</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>221</v>
       </c>
       <c r="C45" s="37">
         <v>0.122</v>
@@ -3709,38 +3707,38 @@
         <v>21</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G45" s="37">
         <v>6</v>
       </c>
       <c r="H45" s="39"/>
       <c r="I45" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J45" s="37" t="s">
         <v>21</v>
       </c>
       <c r="K45" s="37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L45" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="M45" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="M45" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="N45" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O45" s="23"/>
     </row>
     <row r="46" spans="1:15" s="44" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A46" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B46" s="41" t="s">
         <v>222</v>
-      </c>
-      <c r="B46" s="41" t="s">
-        <v>223</v>
       </c>
       <c r="C46" s="40">
         <v>0.09</v>
@@ -3752,7 +3750,7 @@
         <v>21</v>
       </c>
       <c r="F46" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G46" s="40">
         <v>29</v>
@@ -3765,70 +3763,70 @@
         <v>21</v>
       </c>
       <c r="K46" s="40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L46" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="M46" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="N46" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="O46" s="43" t="s">
         <v>225</v>
-      </c>
-      <c r="M46" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="N46" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="O46" s="43" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G47" s="2">
         <v>17</v>
       </c>
       <c r="H47" s="35"/>
       <c r="I47" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M47" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="M47" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="N47" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O47" s="7"/>
     </row>
     <row r="48" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="C48" s="2">
         <v>0.104</v>
@@ -3840,40 +3838,40 @@
         <v>21</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G48" s="2">
         <v>6</v>
       </c>
       <c r="H48" s="35"/>
       <c r="I48" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N48" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N48" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="O48" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="31" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="C49" s="2">
         <v>0.106</v>
@@ -3885,37 +3883,37 @@
         <v>21</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G49" s="2">
         <v>6</v>
       </c>
       <c r="H49" s="35"/>
       <c r="I49" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N49" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N49" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O49" s="7" t="s">
-        <v>202</v>
+      <c r="O49" s="14" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>21</v>
@@ -3930,7 +3928,7 @@
         <v>21</v>
       </c>
       <c r="F50" s="52" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G50" s="2">
         <v>14</v>
@@ -3943,27 +3941,27 @@
         <v>21</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>234</v>
+        <v>41</v>
       </c>
       <c r="M50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N50" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="O50" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C51" s="2">
         <v>0.12</v>
@@ -3975,40 +3973,40 @@
         <v>21</v>
       </c>
       <c r="F51" s="53" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G51" s="2">
         <v>8</v>
       </c>
       <c r="H51" s="57"/>
       <c r="I51" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C52" s="2">
         <v>0.12</v>
@@ -4020,52 +4018,52 @@
         <v>21</v>
       </c>
       <c r="F52" s="53" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G52" s="2">
         <v>8</v>
       </c>
       <c r="H52" s="57"/>
       <c r="I52" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B53" s="48" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F53" s="53" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G53" s="2">
         <v>8</v>
@@ -4078,39 +4076,39 @@
         <v>21</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N53" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M53" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="O53" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B54" s="2">
         <v>0</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F54" s="53" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G54" s="2">
         <v>2</v>
@@ -4123,27 +4121,27 @@
         <v>9</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B55" s="48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C55" s="2">
         <v>0.17</v>
@@ -4155,7 +4153,7 @@
         <v>21</v>
       </c>
       <c r="F55" s="53" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G55" s="2">
         <v>9</v>
@@ -4166,25 +4164,25 @@
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N55" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="O55" s="7"/>
     </row>
     <row r="56" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C56" s="15">
         <v>0.1</v>
@@ -4196,25 +4194,25 @@
       <c r="H56" s="55"/>
       <c r="I56" s="2"/>
       <c r="L56" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O56" s="23"/>
     </row>
     <row r="57" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B57" s="48" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>21</v>
@@ -4223,7 +4221,7 @@
         <v>21</v>
       </c>
       <c r="F57" s="53" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G57" s="2">
         <v>16</v>
@@ -4236,27 +4234,27 @@
         <v>9</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L57" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M57" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="M57" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="N57" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:15" s="8" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B58" s="48" t="s">
         <v>262</v>
-      </c>
-      <c r="B58" s="48" t="s">
-        <v>264</v>
       </c>
       <c r="C58" s="2">
         <v>0.15</v>
@@ -4266,7 +4264,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="53" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G58" s="2">
         <v>8</v>
@@ -4288,10 +4286,10 @@
         <v>21</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O58" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">

--- a/Airfoil Database/list_airfoils.xlsx
+++ b/Airfoil Database/list_airfoils.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cloned Respositories\GP-Aero\Airfoil Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aadit\GP-Aero\Airfoil Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71039C8-CEE3-457D-BDD0-EB3819F1F63B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75770486-0417-4AE7-AC9F-6C376431F107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14520" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="268">
   <si>
     <t>Airfoil</t>
   </si>
@@ -580,9 +591,6 @@
     <t>NASA SC(3)-0712(B)</t>
   </si>
   <si>
-    <t>0.5 - 0.8</t>
-  </si>
-  <si>
     <t>4.4e6, 7e6</t>
   </si>
   <si>
@@ -842,6 +850,12 @@
   <si>
     <t>1. Mach calculated from chord and Re
 2. Is a stretched 63-421</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.0, -3.0, -2.0, -1.5, -1.0, 0.0, 0.5, 1.0, 1.1, 1.5, 2.0, 2.3, 2.5, 3.0 , 3.5</t>
+  </si>
+  <si>
+    <t>0.5, 0.6 , 0.65, 0.70, 0.72, 0.74, 0.76</t>
   </si>
 </sst>
 </file>
@@ -1405,9 +1419,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1445,7 +1459,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1551,7 +1565,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1693,7 +1707,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1703,30 +1717,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A30" sqref="A30"/>
-      <selection pane="topRight" activeCell="A44" sqref="A44"/>
+      <selection pane="topRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="16.54296875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="16.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" style="1" customWidth="1"/>
     <col min="11" max="12" width="28" style="1" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="17.1796875" customWidth="1"/>
-    <col min="15" max="15" width="71.54296875" customWidth="1"/>
+    <col min="14" max="14" width="17.21875" customWidth="1"/>
+    <col min="15" max="15" width="71.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1776,7 +1790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1823,7 +1837,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1866,7 +1880,7 @@
       </c>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -1911,7 +1925,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -1966,7 +1980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>33</v>
       </c>
@@ -2015,7 +2029,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>38</v>
       </c>
@@ -2065,7 +2079,7 @@
         <v>1.0265523532247542</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="8" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" s="8" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
@@ -2110,7 +2124,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
@@ -2155,7 +2169,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="8" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" s="8" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>52</v>
       </c>
@@ -2200,7 +2214,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
@@ -2245,7 +2259,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>61</v>
       </c>
@@ -2290,7 +2304,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>66</v>
       </c>
@@ -2335,7 +2349,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="8" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>70</v>
       </c>
@@ -2380,7 +2394,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>76</v>
       </c>
@@ -2423,7 +2437,7 @@
       </c>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>81</v>
       </c>
@@ -2466,7 +2480,7 @@
       </c>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>82</v>
       </c>
@@ -2511,7 +2525,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="8" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>88</v>
       </c>
@@ -2556,7 +2570,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
         <v>95</v>
       </c>
@@ -2601,7 +2615,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>101</v>
       </c>
@@ -2646,7 +2660,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>106</v>
       </c>
@@ -2687,7 +2701,7 @@
       </c>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>109</v>
       </c>
@@ -2730,7 +2744,7 @@
       </c>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>116</v>
       </c>
@@ -2773,7 +2787,7 @@
       </c>
       <c r="O23" s="23"/>
     </row>
-    <row r="24" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="46" t="s">
         <v>122</v>
       </c>
@@ -2815,10 +2829,10 @@
         <v>24</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="46" t="s">
         <v>128</v>
       </c>
@@ -2861,7 +2875,7 @@
       </c>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>134</v>
       </c>
@@ -2904,7 +2918,7 @@
       </c>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>141</v>
       </c>
@@ -2947,7 +2961,7 @@
       </c>
       <c r="O27" s="7"/>
     </row>
-    <row r="28" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>145</v>
       </c>
@@ -2990,7 +3004,7 @@
       </c>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" spans="1:15" s="30" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" s="30" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>149</v>
       </c>
@@ -3035,7 +3049,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="8" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
         <v>156</v>
       </c>
@@ -3080,7 +3094,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
         <v>162</v>
       </c>
@@ -3125,7 +3139,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
         <v>170</v>
       </c>
@@ -3168,7 +3182,7 @@
       </c>
       <c r="O32" s="7"/>
     </row>
-    <row r="33" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
         <v>171</v>
       </c>
@@ -3213,7 +3227,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
         <v>174</v>
       </c>
@@ -3258,22 +3272,24 @@
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="48" t="s">
+        <v>266</v>
+      </c>
       <c r="C35" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="31">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="G35" s="2">
         <v>55</v>
@@ -3289,7 +3305,7 @@
         <v>28</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>133</v>
@@ -3298,15 +3314,15 @@
         <v>24</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="21" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" s="30" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="21" t="s">
+      <c r="B36" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="C36" s="34">
         <v>0.22</v>
@@ -3318,7 +3334,7 @@
         <v>21</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G36" s="2">
         <v>3</v>
@@ -3334,22 +3350,22 @@
         <v>28</v>
       </c>
       <c r="L36" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>24</v>
       </c>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="C37" s="2">
         <v>0.22</v>
@@ -3361,7 +3377,7 @@
         <v>21</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G37" s="2">
         <v>3</v>
@@ -3377,34 +3393,34 @@
         <v>28</v>
       </c>
       <c r="L37" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>24</v>
       </c>
       <c r="O37" s="7"/>
     </row>
-    <row r="38" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E38" s="28">
         <v>0.01</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G38" s="2">
         <v>18</v>
@@ -3430,24 +3446,24 @@
       </c>
       <c r="O38" s="7"/>
     </row>
-    <row r="39" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="E39" s="2">
         <v>0.08</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G39" s="2">
         <v>6</v>
@@ -3463,24 +3479,24 @@
         <v>28</v>
       </c>
       <c r="L39" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="M39" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>24</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="36" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="36" t="s">
+      <c r="B40" s="37" t="s">
         <v>202</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>203</v>
       </c>
       <c r="C40" s="37">
         <v>0.1</v>
@@ -3492,7 +3508,7 @@
         <v>21</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G40" s="37">
         <v>2</v>
@@ -3508,22 +3524,22 @@
         <v>28</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>24</v>
       </c>
       <c r="O40" s="23"/>
     </row>
-    <row r="41" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B41" s="37" t="s">
         <v>206</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>207</v>
       </c>
       <c r="C41" s="37">
         <v>0.15</v>
@@ -3535,7 +3551,7 @@
         <v>21</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G41" s="37">
         <v>6</v>
@@ -3551,22 +3567,22 @@
         <v>28</v>
       </c>
       <c r="L41" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="M41" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>24</v>
       </c>
       <c r="O41" s="23"/>
     </row>
-    <row r="42" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="B42" s="37" t="s">
         <v>211</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>212</v>
       </c>
       <c r="C42" s="37">
         <v>0.15</v>
@@ -3578,7 +3594,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G42" s="37">
         <v>6</v>
@@ -3594,22 +3610,22 @@
         <v>28</v>
       </c>
       <c r="L42" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="M42" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>24</v>
       </c>
       <c r="O42" s="23"/>
     </row>
-    <row r="43" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="B43" s="37" t="s">
         <v>213</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>214</v>
       </c>
       <c r="C43" s="37">
         <v>0.122</v>
@@ -3621,7 +3637,7 @@
         <v>21</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G43" s="37">
         <v>6</v>
@@ -3637,22 +3653,22 @@
         <v>28</v>
       </c>
       <c r="L43" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="M43" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="O43" s="23"/>
     </row>
-    <row r="44" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="B44" s="37" t="s">
         <v>217</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>218</v>
       </c>
       <c r="C44" s="37">
         <v>0.122</v>
@@ -3664,7 +3680,7 @@
         <v>21</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G44" s="37">
         <v>6</v>
@@ -3680,22 +3696,22 @@
         <v>28</v>
       </c>
       <c r="L44" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="M44" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>24</v>
       </c>
       <c r="O44" s="23"/>
     </row>
-    <row r="45" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="B45" s="37" t="s">
         <v>219</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>220</v>
       </c>
       <c r="C45" s="37">
         <v>0.122</v>
@@ -3707,7 +3723,7 @@
         <v>21</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G45" s="37">
         <v>6</v>
@@ -3723,22 +3739,22 @@
         <v>28</v>
       </c>
       <c r="L45" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="M45" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>24</v>
       </c>
       <c r="O45" s="23"/>
     </row>
-    <row r="46" spans="1:15" s="44" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" s="44" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A46" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" s="41" t="s">
         <v>221</v>
-      </c>
-      <c r="B46" s="41" t="s">
-        <v>222</v>
       </c>
       <c r="C46" s="40">
         <v>0.09</v>
@@ -3750,7 +3766,7 @@
         <v>21</v>
       </c>
       <c r="F46" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G46" s="40">
         <v>29</v>
@@ -3766,21 +3782,21 @@
         <v>28</v>
       </c>
       <c r="L46" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M46" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N46" s="40" t="s">
         <v>64</v>
       </c>
       <c r="O46" s="43" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>146</v>
@@ -3821,12 +3837,12 @@
       </c>
       <c r="O47" s="7"/>
     </row>
-    <row r="48" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="C48" s="2">
         <v>0.104</v>
@@ -3838,7 +3854,7 @@
         <v>21</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G48" s="2">
         <v>6</v>
@@ -3863,15 +3879,15 @@
         <v>24</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="C49" s="2">
         <v>0.106</v>
@@ -3883,7 +3899,7 @@
         <v>21</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G49" s="2">
         <v>6</v>
@@ -3908,12 +3924,12 @@
         <v>24</v>
       </c>
       <c r="O49" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>21</v>
@@ -3928,7 +3944,7 @@
         <v>21</v>
       </c>
       <c r="F50" s="52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G50" s="2">
         <v>14</v>
@@ -3953,15 +3969,15 @@
         <v>24</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="39.5" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="C51" s="2">
         <v>0.12</v>
@@ -3973,7 +3989,7 @@
         <v>21</v>
       </c>
       <c r="F51" s="53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G51" s="2">
         <v>8</v>
@@ -3989,24 +4005,24 @@
         <v>28</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>64</v>
       </c>
       <c r="O51" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="B52" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C52" s="2">
         <v>0.12</v>
@@ -4018,7 +4034,7 @@
         <v>21</v>
       </c>
       <c r="F52" s="53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G52" s="2">
         <v>8</v>
@@ -4034,36 +4050,36 @@
         <v>28</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>64</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B53" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F53" s="53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G53" s="2">
         <v>8</v>
@@ -4088,27 +4104,27 @@
         <v>24</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B54" s="2">
         <v>0</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F54" s="53" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G54" s="2">
         <v>2</v>
@@ -4127,18 +4143,18 @@
         <v>21</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>24</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B55" s="48" t="s">
         <v>39</v>
@@ -4153,7 +4169,7 @@
         <v>21</v>
       </c>
       <c r="F55" s="53" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G55" s="2">
         <v>9</v>
@@ -4177,12 +4193,12 @@
       </c>
       <c r="O55" s="7"/>
     </row>
-    <row r="56" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B56" s="15" t="s">
         <v>255</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>256</v>
       </c>
       <c r="C56" s="15">
         <v>0.1</v>
@@ -4194,7 +4210,7 @@
       <c r="H56" s="55"/>
       <c r="I56" s="2"/>
       <c r="L56" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>23</v>
@@ -4204,12 +4220,12 @@
       </c>
       <c r="O56" s="23"/>
     </row>
-    <row r="57" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B57" s="48" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>103</v>
@@ -4221,7 +4237,7 @@
         <v>21</v>
       </c>
       <c r="F57" s="53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G57" s="2">
         <v>16</v>
@@ -4246,15 +4262,15 @@
         <v>24</v>
       </c>
       <c r="O57" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" s="8" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="B58" s="48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C58" s="2">
         <v>0.15</v>
@@ -4264,7 +4280,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="53" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G58" s="2">
         <v>8</v>
@@ -4289,10 +4305,10 @@
         <v>24</v>
       </c>
       <c r="O58" s="14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
@@ -4309,7 +4325,7 @@
       <c r="N59" s="2"/>
       <c r="O59" s="23"/>
     </row>
-    <row r="60" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
@@ -4326,7 +4342,7 @@
       <c r="N60" s="2"/>
       <c r="O60" s="23"/>
     </row>
-    <row r="61" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -4343,7 +4359,7 @@
       <c r="N61" s="2"/>
       <c r="O61" s="23"/>
     </row>
-    <row r="62" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
@@ -4360,7 +4376,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="23"/>
     </row>
-    <row r="63" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -4377,7 +4393,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="23"/>
     </row>
-    <row r="64" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
@@ -4394,7 +4410,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="23"/>
     </row>
-    <row r="65" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
@@ -4411,7 +4427,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="23"/>
     </row>
-    <row r="66" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
@@ -4428,7 +4444,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="23"/>
     </row>
-    <row r="67" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
@@ -4445,7 +4461,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="23"/>
     </row>
-    <row r="68" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
@@ -4462,7 +4478,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="23"/>
     </row>
-    <row r="69" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -4479,7 +4495,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="23"/>
     </row>
-    <row r="70" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -4496,7 +4512,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="23"/>
     </row>
-    <row r="71" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -4513,7 +4529,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="23"/>
     </row>
-    <row r="72" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -4530,7 +4546,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="23"/>
     </row>
-    <row r="73" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -4547,7 +4563,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="23"/>
     </row>
-    <row r="74" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -4564,7 +4580,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="23"/>
     </row>
-    <row r="75" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -4581,7 +4597,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="23"/>
     </row>
-    <row r="76" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -4598,7 +4614,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="23"/>
     </row>
-    <row r="77" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -4615,7 +4631,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="23"/>
     </row>
-    <row r="78" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -4632,7 +4648,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="23"/>
     </row>
-    <row r="79" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -4649,7 +4665,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="23"/>
     </row>
-    <row r="80" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -4666,7 +4682,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="23"/>
     </row>
-    <row r="81" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -4683,7 +4699,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="23"/>
     </row>
-    <row r="82" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -4700,7 +4716,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="23"/>
     </row>
-    <row r="83" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -4717,7 +4733,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="23"/>
     </row>
-    <row r="84" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -4734,7 +4750,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="23"/>
     </row>
-    <row r="85" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -4751,7 +4767,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="23"/>
     </row>
-    <row r="86" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="15"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
@@ -4768,7 +4784,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="23"/>
     </row>
-    <row r="87" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="15"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -4785,7 +4801,7 @@
       <c r="N87" s="2"/>
       <c r="O87" s="23"/>
     </row>
-    <row r="88" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -4802,7 +4818,7 @@
       <c r="N88" s="2"/>
       <c r="O88" s="23"/>
     </row>
-    <row r="89" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -4819,7 +4835,7 @@
       <c r="N89" s="2"/>
       <c r="O89" s="23"/>
     </row>
-    <row r="90" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -4836,7 +4852,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="23"/>
     </row>
-    <row r="91" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -4853,7 +4869,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="23"/>
     </row>
-    <row r="92" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -4870,7 +4886,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="23"/>
     </row>
-    <row r="93" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -4887,7 +4903,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="23"/>
     </row>
-    <row r="94" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -4904,7 +4920,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="23"/>
     </row>
-    <row r="95" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -4921,7 +4937,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="23"/>
     </row>
-    <row r="96" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -4938,7 +4954,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="23"/>
     </row>
-    <row r="97" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -4955,7 +4971,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="23"/>
     </row>
-    <row r="98" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -4972,7 +4988,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="23"/>
     </row>
-    <row r="99" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="15"/>
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
@@ -4989,7 +5005,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="23"/>
     </row>
-    <row r="100" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="15"/>
       <c r="B100" s="15"/>
       <c r="C100" s="15"/>
@@ -5006,7 +5022,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="23"/>
     </row>
-    <row r="101" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="15"/>
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
@@ -5023,7 +5039,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="23"/>
     </row>
-    <row r="102" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="15"/>
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>
@@ -5040,7 +5056,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="23"/>
     </row>
-    <row r="103" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="15"/>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
@@ -5057,7 +5073,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="23"/>
     </row>
-    <row r="104" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="15"/>
       <c r="B104" s="15"/>
       <c r="C104" s="15"/>
@@ -5074,7 +5090,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="23"/>
     </row>
-    <row r="105" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="15"/>
       <c r="B105" s="15"/>
       <c r="C105" s="15"/>
@@ -5091,7 +5107,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="23"/>
     </row>
-    <row r="106" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="15"/>
       <c r="B106" s="15"/>
       <c r="C106" s="15"/>
@@ -5108,7 +5124,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="23"/>
     </row>
-    <row r="107" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="15"/>
       <c r="B107" s="15"/>
       <c r="C107" s="15"/>
@@ -5125,7 +5141,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="23"/>
     </row>
-    <row r="108" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="15"/>
       <c r="B108" s="15"/>
       <c r="C108" s="15"/>
@@ -5142,7 +5158,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="23"/>
     </row>
-    <row r="109" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="15"/>
       <c r="B109" s="15"/>
       <c r="C109" s="15"/>
@@ -5159,7 +5175,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="23"/>
     </row>
-    <row r="110" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="15"/>
       <c r="B110" s="15"/>
       <c r="C110" s="15"/>
@@ -5176,7 +5192,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="23"/>
     </row>
-    <row r="111" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="15"/>
       <c r="B111" s="15"/>
       <c r="C111" s="15"/>
@@ -5193,7 +5209,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="23"/>
     </row>
-    <row r="112" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="15"/>
       <c r="B112" s="15"/>
       <c r="C112" s="15"/>
@@ -5210,7 +5226,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="23"/>
     </row>
-    <row r="113" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="15"/>
       <c r="B113" s="15"/>
       <c r="C113" s="15"/>
@@ -5227,7 +5243,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="23"/>
     </row>
-    <row r="114" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="15"/>
       <c r="B114" s="15"/>
       <c r="C114" s="15"/>
@@ -5244,7 +5260,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="23"/>
     </row>
-    <row r="115" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="15"/>
       <c r="B115" s="15"/>
       <c r="C115" s="15"/>
@@ -5261,7 +5277,7 @@
       <c r="N115" s="2"/>
       <c r="O115" s="23"/>
     </row>
-    <row r="116" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="15"/>
       <c r="B116" s="15"/>
       <c r="C116" s="15"/>
@@ -5278,7 +5294,7 @@
       <c r="N116" s="2"/>
       <c r="O116" s="23"/>
     </row>
-    <row r="117" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="15"/>
       <c r="B117" s="15"/>
       <c r="C117" s="15"/>
@@ -5295,7 +5311,7 @@
       <c r="N117" s="2"/>
       <c r="O117" s="23"/>
     </row>
-    <row r="118" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="15"/>
       <c r="B118" s="15"/>
       <c r="C118" s="15"/>
@@ -5312,7 +5328,7 @@
       <c r="N118" s="2"/>
       <c r="O118" s="23"/>
     </row>
-    <row r="119" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="15"/>
       <c r="B119" s="15"/>
       <c r="C119" s="15"/>
@@ -5329,7 +5345,7 @@
       <c r="N119" s="2"/>
       <c r="O119" s="23"/>
     </row>
-    <row r="120" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="15"/>
       <c r="B120" s="15"/>
       <c r="C120" s="15"/>
@@ -5346,7 +5362,7 @@
       <c r="N120" s="2"/>
       <c r="O120" s="23"/>
     </row>
-    <row r="121" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="15"/>
       <c r="B121" s="15"/>
       <c r="C121" s="15"/>
@@ -5363,7 +5379,7 @@
       <c r="N121" s="2"/>
       <c r="O121" s="23"/>
     </row>
-    <row r="122" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="15"/>
       <c r="B122" s="15"/>
       <c r="C122" s="15"/>
@@ -5380,7 +5396,7 @@
       <c r="N122" s="2"/>
       <c r="O122" s="23"/>
     </row>
-    <row r="123" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="15"/>
       <c r="B123" s="15"/>
       <c r="C123" s="15"/>
@@ -5397,7 +5413,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="23"/>
     </row>
-    <row r="124" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="15"/>
       <c r="B124" s="15"/>
       <c r="C124" s="15"/>
@@ -5414,7 +5430,7 @@
       <c r="N124" s="2"/>
       <c r="O124" s="23"/>
     </row>
-    <row r="125" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="15"/>
       <c r="B125" s="15"/>
       <c r="C125" s="15"/>
@@ -5431,7 +5447,7 @@
       <c r="N125" s="2"/>
       <c r="O125" s="23"/>
     </row>
-    <row r="126" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="15"/>
       <c r="B126" s="15"/>
       <c r="C126" s="15"/>
@@ -5448,7 +5464,7 @@
       <c r="N126" s="2"/>
       <c r="O126" s="23"/>
     </row>
-    <row r="127" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="15"/>
       <c r="B127" s="15"/>
       <c r="C127" s="15"/>
@@ -5465,7 +5481,7 @@
       <c r="N127" s="2"/>
       <c r="O127" s="23"/>
     </row>
-    <row r="128" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="15"/>
       <c r="B128" s="15"/>
       <c r="C128" s="15"/>
@@ -5482,7 +5498,7 @@
       <c r="N128" s="2"/>
       <c r="O128" s="23"/>
     </row>
-    <row r="129" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
@@ -5499,7 +5515,7 @@
       <c r="N129" s="2"/>
       <c r="O129" s="23"/>
     </row>
-    <row r="130" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="15"/>
       <c r="B130" s="15"/>
       <c r="C130" s="15"/>
@@ -5516,7 +5532,7 @@
       <c r="N130" s="2"/>
       <c r="O130" s="23"/>
     </row>
-    <row r="131" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="15"/>
       <c r="B131" s="15"/>
       <c r="C131" s="15"/>
@@ -5533,7 +5549,7 @@
       <c r="N131" s="2"/>
       <c r="O131" s="23"/>
     </row>
-    <row r="132" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="15"/>
       <c r="B132" s="15"/>
       <c r="C132" s="15"/>
@@ -5550,7 +5566,7 @@
       <c r="N132" s="2"/>
       <c r="O132" s="23"/>
     </row>
-    <row r="133" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="15"/>
       <c r="B133" s="15"/>
       <c r="C133" s="15"/>
@@ -5567,7 +5583,7 @@
       <c r="N133" s="2"/>
       <c r="O133" s="23"/>
     </row>
-    <row r="134" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="15"/>
       <c r="B134" s="15"/>
       <c r="C134" s="15"/>
@@ -5584,7 +5600,7 @@
       <c r="N134" s="2"/>
       <c r="O134" s="23"/>
     </row>
-    <row r="135" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="15"/>
       <c r="B135" s="15"/>
       <c r="C135" s="15"/>
@@ -5601,7 +5617,7 @@
       <c r="N135" s="2"/>
       <c r="O135" s="23"/>
     </row>
-    <row r="136" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="15"/>
       <c r="B136" s="15"/>
       <c r="C136" s="15"/>
@@ -5618,7 +5634,7 @@
       <c r="N136" s="2"/>
       <c r="O136" s="23"/>
     </row>
-    <row r="137" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="15"/>
       <c r="B137" s="15"/>
       <c r="C137" s="15"/>
@@ -5635,7 +5651,7 @@
       <c r="N137" s="2"/>
       <c r="O137" s="23"/>
     </row>
-    <row r="138" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="15"/>
       <c r="B138" s="15"/>
       <c r="C138" s="15"/>
@@ -5652,7 +5668,7 @@
       <c r="N138" s="2"/>
       <c r="O138" s="23"/>
     </row>
-    <row r="139" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="15"/>
       <c r="B139" s="15"/>
       <c r="C139" s="15"/>
@@ -5669,7 +5685,7 @@
       <c r="N139" s="2"/>
       <c r="O139" s="23"/>
     </row>
-    <row r="140" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="15"/>
       <c r="B140" s="15"/>
       <c r="C140" s="15"/>
@@ -5686,7 +5702,7 @@
       <c r="N140" s="2"/>
       <c r="O140" s="23"/>
     </row>
-    <row r="141" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="15"/>
       <c r="B141" s="15"/>
       <c r="C141" s="15"/>
@@ -5703,7 +5719,7 @@
       <c r="N141" s="2"/>
       <c r="O141" s="23"/>
     </row>
-    <row r="142" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="15"/>
       <c r="B142" s="15"/>
       <c r="C142" s="15"/>
@@ -5720,7 +5736,7 @@
       <c r="N142" s="2"/>
       <c r="O142" s="23"/>
     </row>
-    <row r="143" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="15"/>
       <c r="B143" s="15"/>
       <c r="C143" s="15"/>
@@ -5737,7 +5753,7 @@
       <c r="N143" s="2"/>
       <c r="O143" s="23"/>
     </row>
-    <row r="144" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="15"/>
       <c r="B144" s="15"/>
       <c r="C144" s="15"/>
@@ -5754,7 +5770,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="23"/>
     </row>
-    <row r="145" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="15"/>
       <c r="B145" s="15"/>
       <c r="C145" s="15"/>
@@ -5771,7 +5787,7 @@
       <c r="N145" s="2"/>
       <c r="O145" s="23"/>
     </row>
-    <row r="146" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="15"/>
       <c r="B146" s="15"/>
       <c r="C146" s="15"/>
@@ -5788,7 +5804,7 @@
       <c r="N146" s="2"/>
       <c r="O146" s="23"/>
     </row>
-    <row r="147" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="15"/>
       <c r="B147" s="15"/>
       <c r="C147" s="15"/>
@@ -5805,7 +5821,7 @@
       <c r="N147" s="2"/>
       <c r="O147" s="23"/>
     </row>
-    <row r="148" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="15"/>
       <c r="B148" s="15"/>
       <c r="C148" s="15"/>
@@ -5822,7 +5838,7 @@
       <c r="N148" s="2"/>
       <c r="O148" s="23"/>
     </row>
-    <row r="149" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="15"/>
       <c r="B149" s="15"/>
       <c r="C149" s="15"/>
@@ -5839,7 +5855,7 @@
       <c r="N149" s="2"/>
       <c r="O149" s="23"/>
     </row>
-    <row r="150" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="15"/>
       <c r="B150" s="15"/>
       <c r="C150" s="15"/>
@@ -5856,7 +5872,7 @@
       <c r="N150" s="2"/>
       <c r="O150" s="23"/>
     </row>
-    <row r="151" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="15"/>
       <c r="B151" s="15"/>
       <c r="C151" s="15"/>
@@ -5873,7 +5889,7 @@
       <c r="N151" s="2"/>
       <c r="O151" s="23"/>
     </row>
-    <row r="152" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="15"/>
       <c r="B152" s="15"/>
       <c r="C152" s="15"/>
@@ -5890,7 +5906,7 @@
       <c r="N152" s="2"/>
       <c r="O152" s="23"/>
     </row>
-    <row r="153" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="15"/>
       <c r="B153" s="15"/>
       <c r="C153" s="15"/>
@@ -5907,7 +5923,7 @@
       <c r="N153" s="2"/>
       <c r="O153" s="23"/>
     </row>
-    <row r="154" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="15"/>
       <c r="B154" s="15"/>
       <c r="C154" s="15"/>
@@ -5924,7 +5940,7 @@
       <c r="N154" s="2"/>
       <c r="O154" s="23"/>
     </row>
-    <row r="155" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="15"/>
       <c r="B155" s="15"/>
       <c r="C155" s="15"/>
@@ -5941,7 +5957,7 @@
       <c r="N155" s="2"/>
       <c r="O155" s="23"/>
     </row>
-    <row r="156" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="15"/>
       <c r="B156" s="15"/>
       <c r="C156" s="15"/>
@@ -5958,7 +5974,7 @@
       <c r="N156" s="2"/>
       <c r="O156" s="23"/>
     </row>
-    <row r="157" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="15"/>
       <c r="B157" s="15"/>
       <c r="C157" s="15"/>
@@ -5975,7 +5991,7 @@
       <c r="N157" s="2"/>
       <c r="O157" s="23"/>
     </row>
-    <row r="158" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="15"/>
       <c r="B158" s="15"/>
       <c r="C158" s="15"/>
@@ -5992,7 +6008,7 @@
       <c r="N158" s="2"/>
       <c r="O158" s="23"/>
     </row>
-    <row r="159" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="15"/>
       <c r="B159" s="15"/>
       <c r="C159" s="15"/>
@@ -6009,7 +6025,7 @@
       <c r="N159" s="2"/>
       <c r="O159" s="23"/>
     </row>
-    <row r="160" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="15"/>
       <c r="B160" s="15"/>
       <c r="C160" s="15"/>
@@ -6026,7 +6042,7 @@
       <c r="N160" s="2"/>
       <c r="O160" s="23"/>
     </row>
-    <row r="161" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="15"/>
       <c r="B161" s="15"/>
       <c r="C161" s="15"/>
@@ -6043,7 +6059,7 @@
       <c r="N161" s="2"/>
       <c r="O161" s="23"/>
     </row>
-    <row r="162" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="15"/>
       <c r="B162" s="15"/>
       <c r="C162" s="15"/>
@@ -6060,7 +6076,7 @@
       <c r="N162" s="2"/>
       <c r="O162" s="23"/>
     </row>
-    <row r="163" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="15"/>
       <c r="B163" s="15"/>
       <c r="C163" s="15"/>
@@ -6077,7 +6093,7 @@
       <c r="N163" s="2"/>
       <c r="O163" s="23"/>
     </row>
-    <row r="164" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="15"/>
       <c r="B164" s="15"/>
       <c r="C164" s="15"/>
@@ -6094,7 +6110,7 @@
       <c r="N164" s="2"/>
       <c r="O164" s="23"/>
     </row>
-    <row r="165" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="15"/>
       <c r="B165" s="15"/>
       <c r="C165" s="15"/>
@@ -6111,7 +6127,7 @@
       <c r="N165" s="2"/>
       <c r="O165" s="23"/>
     </row>
-    <row r="166" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="15"/>
       <c r="B166" s="15"/>
       <c r="C166" s="15"/>
@@ -6128,7 +6144,7 @@
       <c r="N166" s="2"/>
       <c r="O166" s="23"/>
     </row>
-    <row r="167" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="15"/>
       <c r="B167" s="15"/>
       <c r="C167" s="15"/>
@@ -6145,7 +6161,7 @@
       <c r="N167" s="2"/>
       <c r="O167" s="23"/>
     </row>
-    <row r="168" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="15"/>
       <c r="B168" s="15"/>
       <c r="C168" s="15"/>
@@ -6162,7 +6178,7 @@
       <c r="N168" s="2"/>
       <c r="O168" s="23"/>
     </row>
-    <row r="169" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="15"/>
       <c r="B169" s="15"/>
       <c r="C169" s="15"/>
@@ -6179,7 +6195,7 @@
       <c r="N169" s="2"/>
       <c r="O169" s="23"/>
     </row>
-    <row r="170" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="15"/>
       <c r="B170" s="15"/>
       <c r="C170" s="15"/>
@@ -6196,7 +6212,7 @@
       <c r="N170" s="2"/>
       <c r="O170" s="23"/>
     </row>
-    <row r="171" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="15"/>
       <c r="B171" s="15"/>
       <c r="C171" s="15"/>
@@ -6213,7 +6229,7 @@
       <c r="N171" s="2"/>
       <c r="O171" s="23"/>
     </row>
-    <row r="172" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="15"/>
       <c r="B172" s="15"/>
       <c r="C172" s="15"/>
@@ -6230,7 +6246,7 @@
       <c r="N172" s="2"/>
       <c r="O172" s="23"/>
     </row>
-    <row r="173" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="15"/>
       <c r="B173" s="15"/>
       <c r="C173" s="15"/>
@@ -6247,7 +6263,7 @@
       <c r="N173" s="2"/>
       <c r="O173" s="23"/>
     </row>
-    <row r="174" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="15"/>
       <c r="B174" s="15"/>
       <c r="C174" s="15"/>
@@ -6264,7 +6280,7 @@
       <c r="N174" s="2"/>
       <c r="O174" s="23"/>
     </row>
-    <row r="175" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="15"/>
       <c r="B175" s="15"/>
       <c r="C175" s="15"/>
@@ -6281,7 +6297,7 @@
       <c r="N175" s="2"/>
       <c r="O175" s="23"/>
     </row>
-    <row r="176" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="15"/>
       <c r="B176" s="15"/>
       <c r="C176" s="15"/>
@@ -6298,7 +6314,7 @@
       <c r="N176" s="2"/>
       <c r="O176" s="23"/>
     </row>
-    <row r="177" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="15"/>
       <c r="B177" s="15"/>
       <c r="C177" s="15"/>
@@ -6315,7 +6331,7 @@
       <c r="N177" s="2"/>
       <c r="O177" s="23"/>
     </row>
-    <row r="178" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="15"/>
       <c r="B178" s="15"/>
       <c r="C178" s="15"/>
@@ -6332,7 +6348,7 @@
       <c r="N178" s="2"/>
       <c r="O178" s="23"/>
     </row>
-    <row r="179" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="15"/>
       <c r="B179" s="15"/>
       <c r="C179" s="15"/>
@@ -6349,7 +6365,7 @@
       <c r="N179" s="2"/>
       <c r="O179" s="23"/>
     </row>
-    <row r="180" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="15"/>
       <c r="B180" s="15"/>
       <c r="C180" s="15"/>
@@ -6366,7 +6382,7 @@
       <c r="N180" s="2"/>
       <c r="O180" s="23"/>
     </row>
-    <row r="181" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="15"/>
       <c r="B181" s="15"/>
       <c r="C181" s="15"/>
@@ -6383,7 +6399,7 @@
       <c r="N181" s="2"/>
       <c r="O181" s="23"/>
     </row>
-    <row r="182" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="15"/>
       <c r="B182" s="15"/>
       <c r="C182" s="15"/>
@@ -6400,7 +6416,7 @@
       <c r="N182" s="2"/>
       <c r="O182" s="23"/>
     </row>
-    <row r="183" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="15"/>
       <c r="B183" s="15"/>
       <c r="C183" s="15"/>
@@ -6417,7 +6433,7 @@
       <c r="N183" s="2"/>
       <c r="O183" s="23"/>
     </row>
-    <row r="184" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="15"/>
       <c r="B184" s="15"/>
       <c r="C184" s="15"/>
@@ -6434,7 +6450,7 @@
       <c r="N184" s="2"/>
       <c r="O184" s="23"/>
     </row>
-    <row r="185" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="15"/>
       <c r="B185" s="15"/>
       <c r="C185" s="15"/>
@@ -6451,7 +6467,7 @@
       <c r="N185" s="2"/>
       <c r="O185" s="23"/>
     </row>
-    <row r="186" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="15"/>
       <c r="B186" s="15"/>
       <c r="C186" s="15"/>
@@ -6468,7 +6484,7 @@
       <c r="N186" s="2"/>
       <c r="O186" s="23"/>
     </row>
-    <row r="187" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="15"/>
       <c r="B187" s="15"/>
       <c r="C187" s="15"/>
@@ -6485,7 +6501,7 @@
       <c r="N187" s="2"/>
       <c r="O187" s="23"/>
     </row>
-    <row r="188" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="15"/>
       <c r="B188" s="15"/>
       <c r="C188" s="15"/>
@@ -6502,7 +6518,7 @@
       <c r="N188" s="2"/>
       <c r="O188" s="23"/>
     </row>
-    <row r="189" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="15"/>
       <c r="B189" s="15"/>
       <c r="C189" s="15"/>
@@ -6519,7 +6535,7 @@
       <c r="N189" s="2"/>
       <c r="O189" s="23"/>
     </row>
-    <row r="190" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="15"/>
       <c r="B190" s="15"/>
       <c r="C190" s="15"/>
@@ -6536,7 +6552,7 @@
       <c r="N190" s="2"/>
       <c r="O190" s="23"/>
     </row>
-    <row r="191" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="15"/>
       <c r="B191" s="15"/>
       <c r="C191" s="15"/>
@@ -6553,7 +6569,7 @@
       <c r="N191" s="2"/>
       <c r="O191" s="23"/>
     </row>
-    <row r="192" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="15"/>
       <c r="B192" s="15"/>
       <c r="C192" s="15"/>
@@ -6570,7 +6586,7 @@
       <c r="N192" s="2"/>
       <c r="O192" s="23"/>
     </row>
-    <row r="193" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="15"/>
       <c r="B193" s="15"/>
       <c r="C193" s="15"/>
@@ -6587,7 +6603,7 @@
       <c r="N193" s="2"/>
       <c r="O193" s="23"/>
     </row>
-    <row r="194" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="15"/>
       <c r="B194" s="15"/>
       <c r="C194" s="15"/>
@@ -6604,7 +6620,7 @@
       <c r="N194" s="2"/>
       <c r="O194" s="23"/>
     </row>
-    <row r="195" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="15"/>
       <c r="B195" s="15"/>
       <c r="C195" s="15"/>
@@ -6621,7 +6637,7 @@
       <c r="N195" s="2"/>
       <c r="O195" s="23"/>
     </row>
-    <row r="196" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="15"/>
       <c r="B196" s="15"/>
       <c r="C196" s="15"/>
@@ -6638,7 +6654,7 @@
       <c r="N196" s="2"/>
       <c r="O196" s="23"/>
     </row>
-    <row r="197" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="15"/>
       <c r="B197" s="15"/>
       <c r="C197" s="15"/>
@@ -6655,7 +6671,7 @@
       <c r="N197" s="2"/>
       <c r="O197" s="23"/>
     </row>
-    <row r="198" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="15"/>
       <c r="B198" s="15"/>
       <c r="C198" s="15"/>
@@ -6672,7 +6688,7 @@
       <c r="N198" s="2"/>
       <c r="O198" s="23"/>
     </row>
-    <row r="199" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="15"/>
       <c r="B199" s="15"/>
       <c r="C199" s="15"/>
@@ -6689,7 +6705,7 @@
       <c r="N199" s="2"/>
       <c r="O199" s="23"/>
     </row>
-    <row r="200" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="15"/>
       <c r="B200" s="15"/>
       <c r="C200" s="15"/>
@@ -6706,7 +6722,7 @@
       <c r="N200" s="2"/>
       <c r="O200" s="23"/>
     </row>
-    <row r="201" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="15"/>
       <c r="B201" s="15"/>
       <c r="C201" s="15"/>
@@ -6723,7 +6739,7 @@
       <c r="N201" s="2"/>
       <c r="O201" s="23"/>
     </row>
-    <row r="202" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="15"/>
       <c r="B202" s="15"/>
       <c r="C202" s="15"/>
@@ -6740,7 +6756,7 @@
       <c r="N202" s="2"/>
       <c r="O202" s="23"/>
     </row>
-    <row r="203" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="15"/>
       <c r="B203" s="15"/>
       <c r="C203" s="15"/>
@@ -6757,7 +6773,7 @@
       <c r="N203" s="2"/>
       <c r="O203" s="23"/>
     </row>
-    <row r="204" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="15"/>
       <c r="B204" s="15"/>
       <c r="C204" s="15"/>
@@ -6774,7 +6790,7 @@
       <c r="N204" s="2"/>
       <c r="O204" s="23"/>
     </row>
-    <row r="205" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="15"/>
       <c r="B205" s="15"/>
       <c r="C205" s="15"/>
@@ -6791,7 +6807,7 @@
       <c r="N205" s="2"/>
       <c r="O205" s="23"/>
     </row>
-    <row r="206" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="15"/>
       <c r="B206" s="15"/>
       <c r="C206" s="15"/>
@@ -6808,7 +6824,7 @@
       <c r="N206" s="2"/>
       <c r="O206" s="23"/>
     </row>
-    <row r="207" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="15"/>
       <c r="B207" s="15"/>
       <c r="C207" s="15"/>
@@ -6825,7 +6841,7 @@
       <c r="N207" s="2"/>
       <c r="O207" s="23"/>
     </row>
-    <row r="208" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="15"/>
       <c r="B208" s="15"/>
       <c r="C208" s="15"/>
@@ -6842,7 +6858,7 @@
       <c r="N208" s="2"/>
       <c r="O208" s="23"/>
     </row>
-    <row r="209" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="15"/>
       <c r="B209" s="15"/>
       <c r="C209" s="15"/>
@@ -6859,7 +6875,7 @@
       <c r="N209" s="2"/>
       <c r="O209" s="23"/>
     </row>
-    <row r="210" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="15"/>
       <c r="B210" s="15"/>
       <c r="C210" s="15"/>
@@ -6876,7 +6892,7 @@
       <c r="N210" s="2"/>
       <c r="O210" s="23"/>
     </row>
-    <row r="211" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="15"/>
       <c r="B211" s="15"/>
       <c r="C211" s="15"/>
@@ -6893,7 +6909,7 @@
       <c r="N211" s="2"/>
       <c r="O211" s="23"/>
     </row>
-    <row r="212" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="15"/>
       <c r="B212" s="15"/>
       <c r="C212" s="15"/>
@@ -6910,7 +6926,7 @@
       <c r="N212" s="2"/>
       <c r="O212" s="23"/>
     </row>
-    <row r="213" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="15"/>
       <c r="B213" s="15"/>
       <c r="C213" s="15"/>
@@ -6927,7 +6943,7 @@
       <c r="N213" s="2"/>
       <c r="O213" s="23"/>
     </row>
-    <row r="214" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="15"/>
       <c r="B214" s="15"/>
       <c r="C214" s="15"/>
@@ -6944,7 +6960,7 @@
       <c r="N214" s="2"/>
       <c r="O214" s="23"/>
     </row>
-    <row r="215" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="15"/>
       <c r="B215" s="15"/>
       <c r="C215" s="15"/>
@@ -6961,7 +6977,7 @@
       <c r="N215" s="2"/>
       <c r="O215" s="23"/>
     </row>
-    <row r="216" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="15"/>
       <c r="B216" s="15"/>
       <c r="C216" s="15"/>
@@ -6978,7 +6994,7 @@
       <c r="N216" s="2"/>
       <c r="O216" s="23"/>
     </row>
-    <row r="217" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="15"/>
       <c r="B217" s="15"/>
       <c r="C217" s="15"/>
@@ -6995,7 +7011,7 @@
       <c r="N217" s="2"/>
       <c r="O217" s="23"/>
     </row>
-    <row r="218" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="15"/>
       <c r="B218" s="15"/>
       <c r="C218" s="15"/>
@@ -7012,7 +7028,7 @@
       <c r="N218" s="2"/>
       <c r="O218" s="23"/>
     </row>
-    <row r="219" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="15"/>
       <c r="B219" s="15"/>
       <c r="C219" s="15"/>
@@ -7029,7 +7045,7 @@
       <c r="N219" s="2"/>
       <c r="O219" s="23"/>
     </row>
-    <row r="220" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="15"/>
       <c r="B220" s="15"/>
       <c r="C220" s="15"/>
@@ -7046,7 +7062,7 @@
       <c r="N220" s="2"/>
       <c r="O220" s="23"/>
     </row>
-    <row r="221" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="15"/>
       <c r="B221" s="15"/>
       <c r="C221" s="15"/>
@@ -7063,7 +7079,7 @@
       <c r="N221" s="2"/>
       <c r="O221" s="23"/>
     </row>
-    <row r="222" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="15"/>
       <c r="B222" s="15"/>
       <c r="C222" s="15"/>
@@ -7080,7 +7096,7 @@
       <c r="N222" s="2"/>
       <c r="O222" s="23"/>
     </row>
-    <row r="223" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="15"/>
       <c r="B223" s="15"/>
       <c r="C223" s="15"/>
@@ -7097,7 +7113,7 @@
       <c r="N223" s="2"/>
       <c r="O223" s="23"/>
     </row>
-    <row r="224" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="15"/>
       <c r="B224" s="15"/>
       <c r="C224" s="15"/>
@@ -7114,7 +7130,7 @@
       <c r="N224" s="2"/>
       <c r="O224" s="23"/>
     </row>
-    <row r="225" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="15"/>
       <c r="B225" s="15"/>
       <c r="C225" s="15"/>
@@ -7131,7 +7147,7 @@
       <c r="N225" s="2"/>
       <c r="O225" s="23"/>
     </row>
-    <row r="226" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="15"/>
       <c r="B226" s="15"/>
       <c r="C226" s="15"/>
@@ -7148,7 +7164,7 @@
       <c r="N226" s="2"/>
       <c r="O226" s="23"/>
     </row>
-    <row r="227" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="15"/>
       <c r="B227" s="15"/>
       <c r="C227" s="15"/>
@@ -7165,7 +7181,7 @@
       <c r="N227" s="2"/>
       <c r="O227" s="23"/>
     </row>
-    <row r="228" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="15"/>
       <c r="B228" s="15"/>
       <c r="C228" s="15"/>
@@ -7182,7 +7198,7 @@
       <c r="N228" s="2"/>
       <c r="O228" s="23"/>
     </row>
-    <row r="229" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="15"/>
       <c r="B229" s="15"/>
       <c r="C229" s="15"/>
@@ -7199,7 +7215,7 @@
       <c r="N229" s="2"/>
       <c r="O229" s="23"/>
     </row>
-    <row r="230" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="15"/>
       <c r="B230" s="15"/>
       <c r="C230" s="15"/>
@@ -7216,7 +7232,7 @@
       <c r="N230" s="2"/>
       <c r="O230" s="23"/>
     </row>
-    <row r="231" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="15"/>
       <c r="B231" s="15"/>
       <c r="C231" s="15"/>
@@ -7233,7 +7249,7 @@
       <c r="N231" s="2"/>
       <c r="O231" s="23"/>
     </row>
-    <row r="232" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="15"/>
       <c r="B232" s="15"/>
       <c r="C232" s="15"/>
@@ -7250,7 +7266,7 @@
       <c r="N232" s="2"/>
       <c r="O232" s="23"/>
     </row>
-    <row r="233" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="15"/>
       <c r="B233" s="15"/>
       <c r="C233" s="15"/>
@@ -7267,7 +7283,7 @@
       <c r="N233" s="2"/>
       <c r="O233" s="23"/>
     </row>
-    <row r="234" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="15"/>
       <c r="B234" s="15"/>
       <c r="C234" s="15"/>
@@ -7284,7 +7300,7 @@
       <c r="N234" s="2"/>
       <c r="O234" s="23"/>
     </row>
-    <row r="235" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="15"/>
       <c r="B235" s="15"/>
       <c r="C235" s="15"/>
@@ -7301,7 +7317,7 @@
       <c r="N235" s="2"/>
       <c r="O235" s="23"/>
     </row>
-    <row r="236" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="15"/>
       <c r="B236" s="15"/>
       <c r="C236" s="15"/>
@@ -7318,7 +7334,7 @@
       <c r="N236" s="2"/>
       <c r="O236" s="23"/>
     </row>
-    <row r="237" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="15"/>
       <c r="B237" s="15"/>
       <c r="C237" s="15"/>
@@ -7335,7 +7351,7 @@
       <c r="N237" s="2"/>
       <c r="O237" s="23"/>
     </row>
-    <row r="238" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="15"/>
       <c r="B238" s="15"/>
       <c r="C238" s="15"/>
@@ -7352,7 +7368,7 @@
       <c r="N238" s="2"/>
       <c r="O238" s="23"/>
     </row>
-    <row r="239" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="15"/>
       <c r="B239" s="15"/>
       <c r="C239" s="15"/>
@@ -7369,7 +7385,7 @@
       <c r="N239" s="2"/>
       <c r="O239" s="23"/>
     </row>
-    <row r="240" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="15"/>
       <c r="B240" s="15"/>
       <c r="C240" s="15"/>
@@ -7386,7 +7402,7 @@
       <c r="N240" s="2"/>
       <c r="O240" s="23"/>
     </row>
-    <row r="241" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="15"/>
       <c r="B241" s="15"/>
       <c r="C241" s="15"/>
@@ -7403,7 +7419,7 @@
       <c r="N241" s="2"/>
       <c r="O241" s="23"/>
     </row>
-    <row r="242" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="15"/>
       <c r="B242" s="15"/>
       <c r="C242" s="15"/>
@@ -7420,7 +7436,7 @@
       <c r="N242" s="2"/>
       <c r="O242" s="23"/>
     </row>
-    <row r="243" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="15"/>
       <c r="B243" s="15"/>
       <c r="C243" s="15"/>
@@ -7437,7 +7453,7 @@
       <c r="N243" s="2"/>
       <c r="O243" s="23"/>
     </row>
-    <row r="244" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="15"/>
       <c r="B244" s="15"/>
       <c r="C244" s="15"/>
@@ -7454,7 +7470,7 @@
       <c r="N244" s="2"/>
       <c r="O244" s="23"/>
     </row>
-    <row r="245" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="15"/>
       <c r="B245" s="15"/>
       <c r="C245" s="15"/>
@@ -7471,7 +7487,7 @@
       <c r="N245" s="2"/>
       <c r="O245" s="23"/>
     </row>
-    <row r="246" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="15"/>
       <c r="B246" s="15"/>
       <c r="C246" s="15"/>
@@ -7488,7 +7504,7 @@
       <c r="N246" s="2"/>
       <c r="O246" s="23"/>
     </row>
-    <row r="247" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="15"/>
       <c r="B247" s="15"/>
       <c r="C247" s="15"/>
@@ -7505,7 +7521,7 @@
       <c r="N247" s="2"/>
       <c r="O247" s="23"/>
     </row>
-    <row r="248" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="15"/>
       <c r="B248" s="15"/>
       <c r="C248" s="15"/>
@@ -7522,7 +7538,7 @@
       <c r="N248" s="2"/>
       <c r="O248" s="23"/>
     </row>
-    <row r="249" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="15"/>
       <c r="B249" s="15"/>
       <c r="C249" s="15"/>
@@ -7539,7 +7555,7 @@
       <c r="N249" s="2"/>
       <c r="O249" s="23"/>
     </row>
-    <row r="250" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="15"/>
       <c r="B250" s="15"/>
       <c r="C250" s="15"/>
@@ -7556,7 +7572,7 @@
       <c r="N250" s="2"/>
       <c r="O250" s="23"/>
     </row>
-    <row r="251" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="15"/>
       <c r="B251" s="15"/>
       <c r="C251" s="15"/>
@@ -7573,7 +7589,7 @@
       <c r="N251" s="2"/>
       <c r="O251" s="23"/>
     </row>
-    <row r="252" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="15"/>
       <c r="B252" s="15"/>
       <c r="C252" s="15"/>
@@ -7590,7 +7606,7 @@
       <c r="N252" s="2"/>
       <c r="O252" s="23"/>
     </row>
-    <row r="253" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="15"/>
       <c r="B253" s="15"/>
       <c r="C253" s="15"/>
@@ -7607,7 +7623,7 @@
       <c r="N253" s="2"/>
       <c r="O253" s="23"/>
     </row>
-    <row r="254" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="15"/>
       <c r="B254" s="15"/>
       <c r="C254" s="15"/>
@@ -7624,7 +7640,7 @@
       <c r="N254" s="2"/>
       <c r="O254" s="23"/>
     </row>
-    <row r="255" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="15"/>
       <c r="B255" s="15"/>
       <c r="C255" s="15"/>
@@ -7641,7 +7657,7 @@
       <c r="N255" s="2"/>
       <c r="O255" s="23"/>
     </row>
-    <row r="256" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="15"/>
       <c r="B256" s="15"/>
       <c r="C256" s="15"/>
@@ -7658,7 +7674,7 @@
       <c r="N256" s="2"/>
       <c r="O256" s="23"/>
     </row>
-    <row r="257" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="15"/>
       <c r="B257" s="15"/>
       <c r="C257" s="15"/>
@@ -7675,7 +7691,7 @@
       <c r="N257" s="2"/>
       <c r="O257" s="23"/>
     </row>
-    <row r="258" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="15"/>
       <c r="B258" s="15"/>
       <c r="C258" s="15"/>
@@ -7692,7 +7708,7 @@
       <c r="N258" s="2"/>
       <c r="O258" s="23"/>
     </row>
-    <row r="259" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="15"/>
       <c r="B259" s="15"/>
       <c r="C259" s="15"/>
@@ -7709,7 +7725,7 @@
       <c r="N259" s="2"/>
       <c r="O259" s="23"/>
     </row>
-    <row r="260" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="15"/>
       <c r="B260" s="15"/>
       <c r="C260" s="15"/>
@@ -7726,7 +7742,7 @@
       <c r="N260" s="2"/>
       <c r="O260" s="23"/>
     </row>
-    <row r="261" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="15"/>
       <c r="B261" s="15"/>
       <c r="C261" s="15"/>
@@ -7743,7 +7759,7 @@
       <c r="N261" s="2"/>
       <c r="O261" s="23"/>
     </row>
-    <row r="262" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="15"/>
       <c r="B262" s="15"/>
       <c r="C262" s="15"/>
@@ -7760,7 +7776,7 @@
       <c r="N262" s="2"/>
       <c r="O262" s="23"/>
     </row>
-    <row r="263" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="15"/>
       <c r="B263" s="15"/>
       <c r="C263" s="15"/>
@@ -7777,7 +7793,7 @@
       <c r="N263" s="2"/>
       <c r="O263" s="23"/>
     </row>
-    <row r="264" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="15"/>
       <c r="B264" s="15"/>
       <c r="C264" s="15"/>
@@ -7794,7 +7810,7 @@
       <c r="N264" s="2"/>
       <c r="O264" s="23"/>
     </row>
-    <row r="265" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="15"/>
       <c r="B265" s="15"/>
       <c r="C265" s="15"/>
@@ -7811,7 +7827,7 @@
       <c r="N265" s="2"/>
       <c r="O265" s="23"/>
     </row>
-    <row r="266" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="15"/>
       <c r="B266" s="15"/>
       <c r="C266" s="15"/>
@@ -7828,7 +7844,7 @@
       <c r="N266" s="2"/>
       <c r="O266" s="23"/>
     </row>
-    <row r="267" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="15"/>
       <c r="B267" s="15"/>
       <c r="C267" s="15"/>
@@ -7845,7 +7861,7 @@
       <c r="N267" s="2"/>
       <c r="O267" s="23"/>
     </row>
-    <row r="268" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="15"/>
       <c r="B268" s="15"/>
       <c r="C268" s="15"/>
@@ -7862,7 +7878,7 @@
       <c r="N268" s="2"/>
       <c r="O268" s="23"/>
     </row>
-    <row r="269" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="15"/>
       <c r="B269" s="15"/>
       <c r="C269" s="15"/>
@@ -7879,7 +7895,7 @@
       <c r="N269" s="2"/>
       <c r="O269" s="23"/>
     </row>
-    <row r="270" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="15"/>
       <c r="B270" s="15"/>
       <c r="C270" s="15"/>
@@ -7896,7 +7912,7 @@
       <c r="N270" s="2"/>
       <c r="O270" s="23"/>
     </row>
-    <row r="271" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="15"/>
       <c r="B271" s="15"/>
       <c r="C271" s="15"/>
@@ -7913,7 +7929,7 @@
       <c r="N271" s="2"/>
       <c r="O271" s="23"/>
     </row>
-    <row r="272" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="15"/>
       <c r="B272" s="15"/>
       <c r="C272" s="15"/>
@@ -7930,7 +7946,7 @@
       <c r="N272" s="2"/>
       <c r="O272" s="23"/>
     </row>
-    <row r="273" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="15"/>
       <c r="B273" s="15"/>
       <c r="C273" s="15"/>
@@ -7947,7 +7963,7 @@
       <c r="N273" s="2"/>
       <c r="O273" s="23"/>
     </row>
-    <row r="274" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="15"/>
       <c r="B274" s="15"/>
       <c r="C274" s="15"/>
@@ -7964,7 +7980,7 @@
       <c r="N274" s="2"/>
       <c r="O274" s="23"/>
     </row>
-    <row r="275" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="15"/>
       <c r="B275" s="15"/>
       <c r="C275" s="15"/>
@@ -7981,7 +7997,7 @@
       <c r="N275" s="2"/>
       <c r="O275" s="23"/>
     </row>
-    <row r="276" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="15"/>
       <c r="B276" s="15"/>
       <c r="C276" s="15"/>
@@ -7998,7 +8014,7 @@
       <c r="N276" s="2"/>
       <c r="O276" s="23"/>
     </row>
-    <row r="277" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="15"/>
       <c r="B277" s="15"/>
       <c r="C277" s="15"/>
@@ -8015,7 +8031,7 @@
       <c r="N277" s="2"/>
       <c r="O277" s="23"/>
     </row>
-    <row r="278" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="15"/>
       <c r="B278" s="15"/>
       <c r="C278" s="15"/>
@@ -8032,7 +8048,7 @@
       <c r="N278" s="2"/>
       <c r="O278" s="23"/>
     </row>
-    <row r="279" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="15"/>
       <c r="B279" s="15"/>
       <c r="C279" s="15"/>
@@ -8049,7 +8065,7 @@
       <c r="N279" s="2"/>
       <c r="O279" s="23"/>
     </row>
-    <row r="280" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="15"/>
       <c r="B280" s="15"/>
       <c r="C280" s="15"/>
@@ -8066,7 +8082,7 @@
       <c r="N280" s="2"/>
       <c r="O280" s="23"/>
     </row>
-    <row r="281" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="15"/>
       <c r="B281" s="15"/>
       <c r="C281" s="15"/>
@@ -8083,7 +8099,7 @@
       <c r="N281" s="2"/>
       <c r="O281" s="23"/>
     </row>
-    <row r="282" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="15"/>
       <c r="B282" s="15"/>
       <c r="C282" s="15"/>
@@ -8100,7 +8116,7 @@
       <c r="N282" s="2"/>
       <c r="O282" s="23"/>
     </row>
-    <row r="283" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="15"/>
       <c r="B283" s="15"/>
       <c r="C283" s="15"/>
@@ -8117,7 +8133,7 @@
       <c r="N283" s="2"/>
       <c r="O283" s="23"/>
     </row>
-    <row r="284" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="15"/>
       <c r="B284" s="15"/>
       <c r="C284" s="15"/>
@@ -8134,7 +8150,7 @@
       <c r="N284" s="2"/>
       <c r="O284" s="23"/>
     </row>
-    <row r="285" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="15"/>
       <c r="B285" s="15"/>
       <c r="C285" s="15"/>
@@ -8151,7 +8167,7 @@
       <c r="N285" s="2"/>
       <c r="O285" s="23"/>
     </row>
-    <row r="286" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="15"/>
       <c r="B286" s="15"/>
       <c r="C286" s="15"/>
@@ -8168,7 +8184,7 @@
       <c r="N286" s="2"/>
       <c r="O286" s="23"/>
     </row>
-    <row r="287" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="15"/>
       <c r="B287" s="15"/>
       <c r="C287" s="15"/>
@@ -8185,7 +8201,7 @@
       <c r="N287" s="2"/>
       <c r="O287" s="23"/>
     </row>
-    <row r="288" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="15"/>
       <c r="B288" s="15"/>
       <c r="C288" s="15"/>
@@ -8202,7 +8218,7 @@
       <c r="N288" s="2"/>
       <c r="O288" s="23"/>
     </row>
-    <row r="289" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="15"/>
       <c r="B289" s="15"/>
       <c r="C289" s="15"/>
@@ -8219,7 +8235,7 @@
       <c r="N289" s="2"/>
       <c r="O289" s="23"/>
     </row>
-    <row r="290" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="15"/>
       <c r="B290" s="15"/>
       <c r="C290" s="15"/>
@@ -8236,7 +8252,7 @@
       <c r="N290" s="2"/>
       <c r="O290" s="23"/>
     </row>
-    <row r="291" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="15"/>
       <c r="B291" s="15"/>
       <c r="C291" s="15"/>
@@ -8253,7 +8269,7 @@
       <c r="N291" s="2"/>
       <c r="O291" s="23"/>
     </row>
-    <row r="292" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="15"/>
       <c r="B292" s="15"/>
       <c r="C292" s="15"/>
@@ -8270,7 +8286,7 @@
       <c r="N292" s="2"/>
       <c r="O292" s="23"/>
     </row>
-    <row r="293" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="15"/>
       <c r="B293" s="15"/>
       <c r="C293" s="15"/>
@@ -8287,7 +8303,7 @@
       <c r="N293" s="2"/>
       <c r="O293" s="23"/>
     </row>
-    <row r="294" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="15"/>
       <c r="B294" s="15"/>
       <c r="C294" s="15"/>
@@ -8304,7 +8320,7 @@
       <c r="N294" s="2"/>
       <c r="O294" s="23"/>
     </row>
-    <row r="295" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="15"/>
       <c r="B295" s="15"/>
       <c r="C295" s="15"/>
@@ -8321,7 +8337,7 @@
       <c r="N295" s="2"/>
       <c r="O295" s="23"/>
     </row>
-    <row r="296" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="15"/>
       <c r="B296" s="15"/>
       <c r="C296" s="15"/>
@@ -8338,7 +8354,7 @@
       <c r="N296" s="2"/>
       <c r="O296" s="23"/>
     </row>
-    <row r="297" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="15"/>
       <c r="B297" s="15"/>
       <c r="C297" s="15"/>
@@ -8355,7 +8371,7 @@
       <c r="N297" s="2"/>
       <c r="O297" s="23"/>
     </row>
-    <row r="298" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="15"/>
       <c r="B298" s="15"/>
       <c r="C298" s="15"/>
@@ -8372,7 +8388,7 @@
       <c r="N298" s="2"/>
       <c r="O298" s="23"/>
     </row>
-    <row r="299" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="15"/>
       <c r="B299" s="15"/>
       <c r="C299" s="15"/>
@@ -8389,7 +8405,7 @@
       <c r="N299" s="2"/>
       <c r="O299" s="23"/>
     </row>
-    <row r="300" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="15"/>
       <c r="B300" s="15"/>
       <c r="C300" s="15"/>
@@ -8406,7 +8422,7 @@
       <c r="N300" s="2"/>
       <c r="O300" s="23"/>
     </row>
-    <row r="301" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="15"/>
       <c r="B301" s="15"/>
       <c r="C301" s="15"/>
@@ -8423,7 +8439,7 @@
       <c r="N301" s="2"/>
       <c r="O301" s="23"/>
     </row>
-    <row r="302" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="15"/>
       <c r="B302" s="15"/>
       <c r="C302" s="15"/>
@@ -8440,7 +8456,7 @@
       <c r="N302" s="2"/>
       <c r="O302" s="23"/>
     </row>
-    <row r="303" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="15"/>
       <c r="B303" s="15"/>
       <c r="C303" s="15"/>
@@ -8457,7 +8473,7 @@
       <c r="N303" s="2"/>
       <c r="O303" s="23"/>
     </row>
-    <row r="304" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="15"/>
       <c r="B304" s="15"/>
       <c r="C304" s="15"/>
@@ -8474,7 +8490,7 @@
       <c r="N304" s="2"/>
       <c r="O304" s="23"/>
     </row>
-    <row r="305" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="15"/>
       <c r="B305" s="15"/>
       <c r="C305" s="15"/>
@@ -8491,7 +8507,7 @@
       <c r="N305" s="2"/>
       <c r="O305" s="23"/>
     </row>
-    <row r="306" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="15"/>
       <c r="B306" s="15"/>
       <c r="C306" s="15"/>
@@ -8508,7 +8524,7 @@
       <c r="N306" s="2"/>
       <c r="O306" s="23"/>
     </row>
-    <row r="307" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="15"/>
       <c r="B307" s="15"/>
       <c r="C307" s="15"/>
@@ -8525,7 +8541,7 @@
       <c r="N307" s="2"/>
       <c r="O307" s="23"/>
     </row>
-    <row r="308" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="15"/>
       <c r="B308" s="15"/>
       <c r="C308" s="15"/>
@@ -8542,7 +8558,7 @@
       <c r="N308" s="2"/>
       <c r="O308" s="23"/>
     </row>
-    <row r="309" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="15"/>
       <c r="B309" s="15"/>
       <c r="C309" s="15"/>
@@ -8559,7 +8575,7 @@
       <c r="N309" s="2"/>
       <c r="O309" s="23"/>
     </row>
-    <row r="310" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="15"/>
       <c r="B310" s="15"/>
       <c r="C310" s="15"/>
@@ -8576,7 +8592,7 @@
       <c r="N310" s="2"/>
       <c r="O310" s="23"/>
     </row>
-    <row r="311" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="15"/>
       <c r="B311" s="15"/>
       <c r="C311" s="15"/>
@@ -8593,7 +8609,7 @@
       <c r="N311" s="2"/>
       <c r="O311" s="23"/>
     </row>
-    <row r="312" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="15"/>
       <c r="B312" s="15"/>
       <c r="C312" s="15"/>
@@ -8610,7 +8626,7 @@
       <c r="N312" s="2"/>
       <c r="O312" s="23"/>
     </row>
-    <row r="313" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="15"/>
       <c r="B313" s="15"/>
       <c r="C313" s="15"/>
@@ -8627,7 +8643,7 @@
       <c r="N313" s="2"/>
       <c r="O313" s="23"/>
     </row>
-    <row r="314" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="15"/>
       <c r="B314" s="15"/>
       <c r="C314" s="15"/>
@@ -8644,7 +8660,7 @@
       <c r="N314" s="2"/>
       <c r="O314" s="23"/>
     </row>
-    <row r="315" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="15"/>
       <c r="B315" s="15"/>
       <c r="C315" s="15"/>
@@ -8661,7 +8677,7 @@
       <c r="N315" s="2"/>
       <c r="O315" s="23"/>
     </row>
-    <row r="316" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="15"/>
       <c r="B316" s="15"/>
       <c r="C316" s="15"/>
@@ -8678,7 +8694,7 @@
       <c r="N316" s="2"/>
       <c r="O316" s="23"/>
     </row>
-    <row r="317" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="15"/>
       <c r="B317" s="15"/>
       <c r="C317" s="15"/>
@@ -8695,7 +8711,7 @@
       <c r="N317" s="2"/>
       <c r="O317" s="23"/>
     </row>
-    <row r="318" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="15"/>
       <c r="B318" s="15"/>
       <c r="C318" s="15"/>
@@ -8712,7 +8728,7 @@
       <c r="N318" s="2"/>
       <c r="O318" s="23"/>
     </row>
-    <row r="319" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="15"/>
       <c r="B319" s="15"/>
       <c r="C319" s="15"/>
@@ -8729,7 +8745,7 @@
       <c r="N319" s="2"/>
       <c r="O319" s="23"/>
     </row>
-    <row r="320" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="15"/>
       <c r="B320" s="15"/>
       <c r="C320" s="15"/>
@@ -8746,7 +8762,7 @@
       <c r="N320" s="2"/>
       <c r="O320" s="23"/>
     </row>
-    <row r="321" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="15"/>
       <c r="B321" s="15"/>
       <c r="C321" s="15"/>
@@ -8763,7 +8779,7 @@
       <c r="N321" s="2"/>
       <c r="O321" s="23"/>
     </row>
-    <row r="322" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="15"/>
       <c r="B322" s="15"/>
       <c r="C322" s="15"/>
@@ -8780,7 +8796,7 @@
       <c r="N322" s="2"/>
       <c r="O322" s="23"/>
     </row>
-    <row r="323" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="15"/>
       <c r="B323" s="15"/>
       <c r="C323" s="15"/>
@@ -8797,7 +8813,7 @@
       <c r="N323" s="2"/>
       <c r="O323" s="23"/>
     </row>
-    <row r="324" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="15"/>
       <c r="B324" s="15"/>
       <c r="C324" s="15"/>
@@ -8814,7 +8830,7 @@
       <c r="N324" s="2"/>
       <c r="O324" s="23"/>
     </row>
-    <row r="325" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="15"/>
       <c r="B325" s="15"/>
       <c r="C325" s="15"/>
@@ -8831,7 +8847,7 @@
       <c r="N325" s="2"/>
       <c r="O325" s="23"/>
     </row>
-    <row r="326" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="15"/>
       <c r="B326" s="15"/>
       <c r="C326" s="15"/>
@@ -8848,7 +8864,7 @@
       <c r="N326" s="2"/>
       <c r="O326" s="23"/>
     </row>
-    <row r="327" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="15"/>
       <c r="B327" s="15"/>
       <c r="C327" s="15"/>
@@ -8865,7 +8881,7 @@
       <c r="N327" s="2"/>
       <c r="O327" s="23"/>
     </row>
-    <row r="328" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A328" s="15"/>
       <c r="B328" s="15"/>
       <c r="C328" s="15"/>
@@ -8882,7 +8898,7 @@
       <c r="N328" s="2"/>
       <c r="O328" s="23"/>
     </row>
-    <row r="329" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A329" s="15"/>
       <c r="B329" s="15"/>
       <c r="C329" s="15"/>
@@ -8899,7 +8915,7 @@
       <c r="N329" s="2"/>
       <c r="O329" s="23"/>
     </row>
-    <row r="330" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A330" s="15"/>
       <c r="B330" s="15"/>
       <c r="C330" s="15"/>
@@ -8916,7 +8932,7 @@
       <c r="N330" s="2"/>
       <c r="O330" s="23"/>
     </row>
-    <row r="331" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A331" s="15"/>
       <c r="B331" s="15"/>
       <c r="C331" s="15"/>
@@ -8933,7 +8949,7 @@
       <c r="N331" s="2"/>
       <c r="O331" s="23"/>
     </row>
-    <row r="332" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A332" s="15"/>
       <c r="B332" s="15"/>
       <c r="C332" s="15"/>
@@ -8950,7 +8966,7 @@
       <c r="N332" s="2"/>
       <c r="O332" s="23"/>
     </row>
-    <row r="333" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A333" s="15"/>
       <c r="B333" s="15"/>
       <c r="C333" s="15"/>
@@ -8967,7 +8983,7 @@
       <c r="N333" s="2"/>
       <c r="O333" s="23"/>
     </row>
-    <row r="334" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A334" s="15"/>
       <c r="B334" s="15"/>
       <c r="C334" s="15"/>
@@ -8984,7 +9000,7 @@
       <c r="N334" s="2"/>
       <c r="O334" s="23"/>
     </row>
-    <row r="335" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A335" s="15"/>
       <c r="B335" s="15"/>
       <c r="C335" s="15"/>
@@ -9001,7 +9017,7 @@
       <c r="N335" s="2"/>
       <c r="O335" s="23"/>
     </row>
-    <row r="336" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A336" s="15"/>
       <c r="B336" s="15"/>
       <c r="C336" s="15"/>
@@ -9018,7 +9034,7 @@
       <c r="N336" s="2"/>
       <c r="O336" s="23"/>
     </row>
-    <row r="337" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A337" s="15"/>
       <c r="B337" s="15"/>
       <c r="C337" s="15"/>
@@ -9035,7 +9051,7 @@
       <c r="N337" s="2"/>
       <c r="O337" s="23"/>
     </row>
-    <row r="338" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A338" s="15"/>
       <c r="B338" s="15"/>
       <c r="C338" s="15"/>
@@ -9052,7 +9068,7 @@
       <c r="N338" s="2"/>
       <c r="O338" s="23"/>
     </row>
-    <row r="339" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A339" s="15"/>
       <c r="B339" s="15"/>
       <c r="C339" s="15"/>
@@ -9069,7 +9085,7 @@
       <c r="N339" s="2"/>
       <c r="O339" s="23"/>
     </row>
-    <row r="340" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A340" s="15"/>
       <c r="B340" s="15"/>
       <c r="C340" s="15"/>
@@ -9086,7 +9102,7 @@
       <c r="N340" s="2"/>
       <c r="O340" s="23"/>
     </row>
-    <row r="341" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A341" s="15"/>
       <c r="B341" s="15"/>
       <c r="C341" s="15"/>
@@ -9103,7 +9119,7 @@
       <c r="N341" s="2"/>
       <c r="O341" s="23"/>
     </row>
-    <row r="342" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A342" s="15"/>
       <c r="B342" s="15"/>
       <c r="C342" s="15"/>
@@ -9120,7 +9136,7 @@
       <c r="N342" s="2"/>
       <c r="O342" s="23"/>
     </row>
-    <row r="343" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A343" s="15"/>
       <c r="B343" s="15"/>
       <c r="C343" s="15"/>
@@ -9137,7 +9153,7 @@
       <c r="N343" s="2"/>
       <c r="O343" s="23"/>
     </row>
-    <row r="344" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" s="15"/>
       <c r="B344" s="15"/>
       <c r="C344" s="15"/>
@@ -9154,7 +9170,7 @@
       <c r="N344" s="2"/>
       <c r="O344" s="23"/>
     </row>
-    <row r="345" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A345" s="15"/>
       <c r="B345" s="15"/>
       <c r="C345" s="15"/>
@@ -9171,7 +9187,7 @@
       <c r="N345" s="2"/>
       <c r="O345" s="23"/>
     </row>
-    <row r="346" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A346" s="15"/>
       <c r="B346" s="15"/>
       <c r="C346" s="15"/>
@@ -9188,7 +9204,7 @@
       <c r="N346" s="2"/>
       <c r="O346" s="23"/>
     </row>
-    <row r="347" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A347" s="15"/>
       <c r="B347" s="15"/>
       <c r="C347" s="15"/>
@@ -9205,7 +9221,7 @@
       <c r="N347" s="2"/>
       <c r="O347" s="23"/>
     </row>
-    <row r="348" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A348" s="15"/>
       <c r="B348" s="15"/>
       <c r="C348" s="15"/>
@@ -9222,7 +9238,7 @@
       <c r="N348" s="2"/>
       <c r="O348" s="23"/>
     </row>
-    <row r="349" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A349" s="15"/>
       <c r="B349" s="15"/>
       <c r="C349" s="15"/>
@@ -9239,7 +9255,7 @@
       <c r="N349" s="2"/>
       <c r="O349" s="23"/>
     </row>
-    <row r="350" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A350" s="15"/>
       <c r="B350" s="15"/>
       <c r="C350" s="15"/>
@@ -9256,7 +9272,7 @@
       <c r="N350" s="2"/>
       <c r="O350" s="23"/>
     </row>
-    <row r="351" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A351" s="15"/>
       <c r="B351" s="15"/>
       <c r="C351" s="15"/>
@@ -9273,7 +9289,7 @@
       <c r="N351" s="2"/>
       <c r="O351" s="23"/>
     </row>
-    <row r="352" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A352" s="15"/>
       <c r="B352" s="15"/>
       <c r="C352" s="15"/>
@@ -9290,7 +9306,7 @@
       <c r="N352" s="2"/>
       <c r="O352" s="23"/>
     </row>
-    <row r="353" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A353" s="15"/>
       <c r="B353" s="15"/>
       <c r="C353" s="15"/>
@@ -9307,7 +9323,7 @@
       <c r="N353" s="2"/>
       <c r="O353" s="23"/>
     </row>
-    <row r="354" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A354" s="15"/>
       <c r="B354" s="15"/>
       <c r="C354" s="15"/>
@@ -9324,7 +9340,7 @@
       <c r="N354" s="2"/>
       <c r="O354" s="23"/>
     </row>
-    <row r="355" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A355" s="15"/>
       <c r="B355" s="15"/>
       <c r="C355" s="15"/>
@@ -9341,7 +9357,7 @@
       <c r="N355" s="2"/>
       <c r="O355" s="23"/>
     </row>
-    <row r="356" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A356" s="15"/>
       <c r="B356" s="15"/>
       <c r="C356" s="15"/>
@@ -9358,7 +9374,7 @@
       <c r="N356" s="2"/>
       <c r="O356" s="23"/>
     </row>
-    <row r="357" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A357" s="15"/>
       <c r="B357" s="15"/>
       <c r="C357" s="15"/>
@@ -9375,7 +9391,7 @@
       <c r="N357" s="2"/>
       <c r="O357" s="23"/>
     </row>
-    <row r="358" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A358" s="15"/>
       <c r="B358" s="15"/>
       <c r="C358" s="15"/>
@@ -9392,7 +9408,7 @@
       <c r="N358" s="2"/>
       <c r="O358" s="23"/>
     </row>
-    <row r="359" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A359" s="15"/>
       <c r="B359" s="15"/>
       <c r="C359" s="15"/>
@@ -9409,7 +9425,7 @@
       <c r="N359" s="2"/>
       <c r="O359" s="23"/>
     </row>
-    <row r="360" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A360" s="15"/>
       <c r="B360" s="15"/>
       <c r="C360" s="15"/>
@@ -9426,7 +9442,7 @@
       <c r="N360" s="2"/>
       <c r="O360" s="23"/>
     </row>
-    <row r="361" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A361" s="15"/>
       <c r="B361" s="15"/>
       <c r="C361" s="15"/>
@@ -9443,7 +9459,7 @@
       <c r="N361" s="2"/>
       <c r="O361" s="23"/>
     </row>
-    <row r="362" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A362" s="15"/>
       <c r="B362" s="15"/>
       <c r="C362" s="15"/>
@@ -9460,7 +9476,7 @@
       <c r="N362" s="2"/>
       <c r="O362" s="23"/>
     </row>
-    <row r="363" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A363" s="15"/>
       <c r="B363" s="15"/>
       <c r="C363" s="15"/>
@@ -9477,7 +9493,7 @@
       <c r="N363" s="2"/>
       <c r="O363" s="23"/>
     </row>
-    <row r="364" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A364" s="15"/>
       <c r="B364" s="15"/>
       <c r="C364" s="15"/>
@@ -9494,7 +9510,7 @@
       <c r="N364" s="2"/>
       <c r="O364" s="23"/>
     </row>
-    <row r="365" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A365" s="15"/>
       <c r="B365" s="15"/>
       <c r="C365" s="15"/>
@@ -9511,7 +9527,7 @@
       <c r="N365" s="2"/>
       <c r="O365" s="23"/>
     </row>
-    <row r="366" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A366" s="15"/>
       <c r="B366" s="15"/>
       <c r="C366" s="15"/>
@@ -9528,7 +9544,7 @@
       <c r="N366" s="2"/>
       <c r="O366" s="23"/>
     </row>
-    <row r="367" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A367" s="15"/>
       <c r="B367" s="15"/>
       <c r="C367" s="15"/>
@@ -9545,7 +9561,7 @@
       <c r="N367" s="2"/>
       <c r="O367" s="23"/>
     </row>
-    <row r="368" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A368" s="15"/>
       <c r="B368" s="15"/>
       <c r="C368" s="15"/>
@@ -9562,7 +9578,7 @@
       <c r="N368" s="2"/>
       <c r="O368" s="23"/>
     </row>
-    <row r="369" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A369" s="15"/>
       <c r="B369" s="15"/>
       <c r="C369" s="15"/>
@@ -9579,7 +9595,7 @@
       <c r="N369" s="2"/>
       <c r="O369" s="23"/>
     </row>
-    <row r="370" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A370" s="15"/>
       <c r="B370" s="15"/>
       <c r="C370" s="15"/>
@@ -9596,7 +9612,7 @@
       <c r="N370" s="2"/>
       <c r="O370" s="23"/>
     </row>
-    <row r="371" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A371" s="15"/>
       <c r="B371" s="15"/>
       <c r="C371" s="15"/>
@@ -9613,7 +9629,7 @@
       <c r="N371" s="2"/>
       <c r="O371" s="23"/>
     </row>
-    <row r="372" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A372" s="15"/>
       <c r="B372" s="15"/>
       <c r="C372" s="15"/>
@@ -9630,7 +9646,7 @@
       <c r="N372" s="2"/>
       <c r="O372" s="23"/>
     </row>
-    <row r="373" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A373" s="15"/>
       <c r="B373" s="15"/>
       <c r="C373" s="15"/>
@@ -9647,7 +9663,7 @@
       <c r="N373" s="2"/>
       <c r="O373" s="23"/>
     </row>
-    <row r="374" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A374" s="15"/>
       <c r="B374" s="15"/>
       <c r="C374" s="15"/>
@@ -9664,7 +9680,7 @@
       <c r="N374" s="2"/>
       <c r="O374" s="23"/>
     </row>
-    <row r="375" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A375" s="15"/>
       <c r="B375" s="15"/>
       <c r="C375" s="15"/>
@@ -9681,7 +9697,7 @@
       <c r="N375" s="2"/>
       <c r="O375" s="23"/>
     </row>
-    <row r="376" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A376" s="15"/>
       <c r="B376" s="15"/>
       <c r="C376" s="15"/>
@@ -9698,7 +9714,7 @@
       <c r="N376" s="2"/>
       <c r="O376" s="23"/>
     </row>
-    <row r="377" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A377" s="15"/>
       <c r="B377" s="15"/>
       <c r="C377" s="15"/>
@@ -9715,7 +9731,7 @@
       <c r="N377" s="2"/>
       <c r="O377" s="23"/>
     </row>
-    <row r="378" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A378" s="15"/>
       <c r="B378" s="15"/>
       <c r="C378" s="15"/>
@@ -9732,7 +9748,7 @@
       <c r="N378" s="2"/>
       <c r="O378" s="23"/>
     </row>
-    <row r="379" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A379" s="15"/>
       <c r="B379" s="15"/>
       <c r="C379" s="15"/>
@@ -9749,7 +9765,7 @@
       <c r="N379" s="2"/>
       <c r="O379" s="23"/>
     </row>
-    <row r="380" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A380" s="15"/>
       <c r="B380" s="15"/>
       <c r="C380" s="15"/>
@@ -9766,7 +9782,7 @@
       <c r="N380" s="2"/>
       <c r="O380" s="23"/>
     </row>
-    <row r="381" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A381" s="15"/>
       <c r="B381" s="15"/>
       <c r="C381" s="15"/>
@@ -9783,7 +9799,7 @@
       <c r="N381" s="2"/>
       <c r="O381" s="23"/>
     </row>
-    <row r="382" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A382" s="15"/>
       <c r="B382" s="15"/>
       <c r="C382" s="15"/>
@@ -9800,7 +9816,7 @@
       <c r="N382" s="2"/>
       <c r="O382" s="23"/>
     </row>
-    <row r="383" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A383" s="15"/>
       <c r="B383" s="15"/>
       <c r="C383" s="15"/>
@@ -9817,7 +9833,7 @@
       <c r="N383" s="2"/>
       <c r="O383" s="23"/>
     </row>
-    <row r="384" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A384" s="15"/>
       <c r="B384" s="15"/>
       <c r="C384" s="15"/>
@@ -9834,7 +9850,7 @@
       <c r="N384" s="2"/>
       <c r="O384" s="23"/>
     </row>
-    <row r="385" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A385" s="15"/>
       <c r="B385" s="15"/>
       <c r="C385" s="15"/>
@@ -9851,7 +9867,7 @@
       <c r="N385" s="2"/>
       <c r="O385" s="23"/>
     </row>
-    <row r="386" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A386" s="15"/>
       <c r="B386" s="15"/>
       <c r="C386" s="15"/>
@@ -9868,7 +9884,7 @@
       <c r="N386" s="2"/>
       <c r="O386" s="23"/>
     </row>
-    <row r="387" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A387" s="15"/>
       <c r="B387" s="15"/>
       <c r="C387" s="15"/>
@@ -9885,7 +9901,7 @@
       <c r="N387" s="2"/>
       <c r="O387" s="23"/>
     </row>
-    <row r="388" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A388" s="15"/>
       <c r="B388" s="15"/>
       <c r="C388" s="15"/>
@@ -9902,7 +9918,7 @@
       <c r="N388" s="2"/>
       <c r="O388" s="23"/>
     </row>
-    <row r="389" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A389" s="15"/>
       <c r="B389" s="15"/>
       <c r="C389" s="15"/>
@@ -9919,7 +9935,7 @@
       <c r="N389" s="2"/>
       <c r="O389" s="23"/>
     </row>
-    <row r="390" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A390" s="15"/>
       <c r="B390" s="15"/>
       <c r="C390" s="15"/>
@@ -9936,7 +9952,7 @@
       <c r="N390" s="2"/>
       <c r="O390" s="23"/>
     </row>
-    <row r="391" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A391" s="15"/>
       <c r="B391" s="15"/>
       <c r="C391" s="15"/>
@@ -9953,7 +9969,7 @@
       <c r="N391" s="2"/>
       <c r="O391" s="23"/>
     </row>
-    <row r="392" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A392" s="15"/>
       <c r="B392" s="15"/>
       <c r="C392" s="15"/>
@@ -9970,7 +9986,7 @@
       <c r="N392" s="2"/>
       <c r="O392" s="23"/>
     </row>
-    <row r="393" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A393" s="15"/>
       <c r="B393" s="15"/>
       <c r="C393" s="15"/>
@@ -9987,7 +10003,7 @@
       <c r="N393" s="2"/>
       <c r="O393" s="23"/>
     </row>
-    <row r="394" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A394" s="15"/>
       <c r="B394" s="15"/>
       <c r="C394" s="15"/>
@@ -10004,7 +10020,7 @@
       <c r="N394" s="2"/>
       <c r="O394" s="23"/>
     </row>
-    <row r="395" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A395" s="15"/>
       <c r="B395" s="15"/>
       <c r="C395" s="15"/>
@@ -10021,7 +10037,7 @@
       <c r="N395" s="2"/>
       <c r="O395" s="23"/>
     </row>
-    <row r="396" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A396" s="15"/>
       <c r="B396" s="15"/>
       <c r="C396" s="15"/>
@@ -10038,7 +10054,7 @@
       <c r="N396" s="2"/>
       <c r="O396" s="23"/>
     </row>
-    <row r="397" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A397" s="15"/>
       <c r="B397" s="15"/>
       <c r="C397" s="15"/>
@@ -10055,7 +10071,7 @@
       <c r="N397" s="2"/>
       <c r="O397" s="23"/>
     </row>
-    <row r="398" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A398" s="15"/>
       <c r="B398" s="15"/>
       <c r="C398" s="15"/>
@@ -10072,7 +10088,7 @@
       <c r="N398" s="2"/>
       <c r="O398" s="23"/>
     </row>
-    <row r="399" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A399" s="15"/>
       <c r="B399" s="15"/>
       <c r="C399" s="15"/>
@@ -10089,7 +10105,7 @@
       <c r="N399" s="2"/>
       <c r="O399" s="23"/>
     </row>
-    <row r="400" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A400" s="15"/>
       <c r="B400" s="15"/>
       <c r="C400" s="15"/>
@@ -10106,7 +10122,7 @@
       <c r="N400" s="2"/>
       <c r="O400" s="23"/>
     </row>
-    <row r="401" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A401" s="15"/>
       <c r="B401" s="15"/>
       <c r="C401" s="15"/>
@@ -10123,7 +10139,7 @@
       <c r="N401" s="2"/>
       <c r="O401" s="23"/>
     </row>
-    <row r="402" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A402" s="15"/>
       <c r="B402" s="15"/>
       <c r="C402" s="15"/>
@@ -10140,7 +10156,7 @@
       <c r="N402" s="2"/>
       <c r="O402" s="23"/>
     </row>
-    <row r="403" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A403" s="15"/>
       <c r="B403" s="15"/>
       <c r="C403" s="15"/>
@@ -10157,7 +10173,7 @@
       <c r="N403" s="2"/>
       <c r="O403" s="23"/>
     </row>
-    <row r="404" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A404" s="15"/>
       <c r="B404" s="15"/>
       <c r="C404" s="15"/>
@@ -10174,7 +10190,7 @@
       <c r="N404" s="2"/>
       <c r="O404" s="23"/>
     </row>
-    <row r="405" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A405" s="15"/>
       <c r="B405" s="15"/>
       <c r="C405" s="15"/>
@@ -10191,7 +10207,7 @@
       <c r="N405" s="2"/>
       <c r="O405" s="23"/>
     </row>
-    <row r="406" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A406" s="15"/>
       <c r="B406" s="15"/>
       <c r="C406" s="15"/>
@@ -10208,7 +10224,7 @@
       <c r="N406" s="2"/>
       <c r="O406" s="23"/>
     </row>
-    <row r="407" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A407" s="15"/>
       <c r="B407" s="15"/>
       <c r="C407" s="15"/>
@@ -10225,7 +10241,7 @@
       <c r="N407" s="2"/>
       <c r="O407" s="23"/>
     </row>
-    <row r="408" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A408" s="15"/>
       <c r="B408" s="15"/>
       <c r="C408" s="15"/>
@@ -10242,7 +10258,7 @@
       <c r="N408" s="2"/>
       <c r="O408" s="23"/>
     </row>
-    <row r="409" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A409" s="15"/>
       <c r="B409" s="15"/>
       <c r="C409" s="15"/>
@@ -10259,7 +10275,7 @@
       <c r="N409" s="2"/>
       <c r="O409" s="23"/>
     </row>
-    <row r="410" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A410" s="15"/>
       <c r="B410" s="15"/>
       <c r="C410" s="15"/>
@@ -10276,7 +10292,7 @@
       <c r="N410" s="2"/>
       <c r="O410" s="23"/>
     </row>
-    <row r="411" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A411" s="15"/>
       <c r="B411" s="15"/>
       <c r="C411" s="15"/>
@@ -10293,7 +10309,7 @@
       <c r="N411" s="2"/>
       <c r="O411" s="23"/>
     </row>
-    <row r="412" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A412" s="15"/>
       <c r="B412" s="15"/>
       <c r="C412" s="15"/>
@@ -10310,7 +10326,7 @@
       <c r="N412" s="2"/>
       <c r="O412" s="23"/>
     </row>
-    <row r="413" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A413" s="15"/>
       <c r="B413" s="15"/>
       <c r="C413" s="15"/>
@@ -10327,7 +10343,7 @@
       <c r="N413" s="2"/>
       <c r="O413" s="23"/>
     </row>
-    <row r="414" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A414" s="15"/>
       <c r="B414" s="15"/>
       <c r="C414" s="15"/>
@@ -10344,7 +10360,7 @@
       <c r="N414" s="2"/>
       <c r="O414" s="23"/>
     </row>
-    <row r="415" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A415" s="15"/>
       <c r="B415" s="15"/>
       <c r="C415" s="15"/>
@@ -10361,7 +10377,7 @@
       <c r="N415" s="2"/>
       <c r="O415" s="23"/>
     </row>
-    <row r="416" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A416" s="15"/>
       <c r="B416" s="15"/>
       <c r="C416" s="15"/>
@@ -10378,7 +10394,7 @@
       <c r="N416" s="2"/>
       <c r="O416" s="23"/>
     </row>
-    <row r="417" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A417" s="15"/>
       <c r="B417" s="15"/>
       <c r="C417" s="15"/>
@@ -10395,7 +10411,7 @@
       <c r="N417" s="2"/>
       <c r="O417" s="23"/>
     </row>
-    <row r="418" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A418" s="15"/>
       <c r="B418" s="15"/>
       <c r="C418" s="15"/>
@@ -10412,7 +10428,7 @@
       <c r="N418" s="2"/>
       <c r="O418" s="23"/>
     </row>
-    <row r="419" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A419" s="15"/>
       <c r="B419" s="15"/>
       <c r="C419" s="15"/>
@@ -10429,7 +10445,7 @@
       <c r="N419" s="2"/>
       <c r="O419" s="23"/>
     </row>
-    <row r="420" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A420" s="15"/>
       <c r="B420" s="15"/>
       <c r="C420" s="15"/>
@@ -10446,7 +10462,7 @@
       <c r="N420" s="2"/>
       <c r="O420" s="23"/>
     </row>
-    <row r="421" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A421" s="15"/>
       <c r="B421" s="15"/>
       <c r="C421" s="15"/>
@@ -10463,7 +10479,7 @@
       <c r="N421" s="2"/>
       <c r="O421" s="23"/>
     </row>
-    <row r="422" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A422" s="15"/>
       <c r="B422" s="15"/>
       <c r="C422" s="15"/>
@@ -10480,7 +10496,7 @@
       <c r="N422" s="2"/>
       <c r="O422" s="23"/>
     </row>
-    <row r="423" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A423" s="15"/>
       <c r="B423" s="15"/>
       <c r="C423" s="15"/>
@@ -10497,7 +10513,7 @@
       <c r="N423" s="2"/>
       <c r="O423" s="23"/>
     </row>
-    <row r="424" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A424" s="15"/>
       <c r="B424" s="15"/>
       <c r="C424" s="15"/>
@@ -10514,7 +10530,7 @@
       <c r="N424" s="2"/>
       <c r="O424" s="23"/>
     </row>
-    <row r="425" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A425" s="15"/>
       <c r="B425" s="15"/>
       <c r="C425" s="15"/>
@@ -10531,7 +10547,7 @@
       <c r="N425" s="2"/>
       <c r="O425" s="23"/>
     </row>
-    <row r="426" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A426" s="15"/>
       <c r="B426" s="15"/>
       <c r="C426" s="15"/>
@@ -10548,7 +10564,7 @@
       <c r="N426" s="2"/>
       <c r="O426" s="23"/>
     </row>
-    <row r="427" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A427" s="15"/>
       <c r="B427" s="15"/>
       <c r="C427" s="15"/>
@@ -10565,7 +10581,7 @@
       <c r="N427" s="2"/>
       <c r="O427" s="23"/>
     </row>
-    <row r="428" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A428" s="15"/>
       <c r="B428" s="15"/>
       <c r="C428" s="15"/>
@@ -10582,7 +10598,7 @@
       <c r="N428" s="2"/>
       <c r="O428" s="23"/>
     </row>
-    <row r="429" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A429" s="15"/>
       <c r="B429" s="15"/>
       <c r="C429" s="15"/>
@@ -10599,7 +10615,7 @@
       <c r="N429" s="2"/>
       <c r="O429" s="23"/>
     </row>
-    <row r="430" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A430" s="15"/>
       <c r="B430" s="15"/>
       <c r="C430" s="15"/>
@@ -10616,7 +10632,7 @@
       <c r="N430" s="2"/>
       <c r="O430" s="23"/>
     </row>
-    <row r="431" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A431" s="15"/>
       <c r="B431" s="15"/>
       <c r="C431" s="15"/>
@@ -10633,7 +10649,7 @@
       <c r="N431" s="2"/>
       <c r="O431" s="23"/>
     </row>
-    <row r="432" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A432" s="15"/>
       <c r="B432" s="15"/>
       <c r="C432" s="15"/>
@@ -10650,7 +10666,7 @@
       <c r="N432" s="2"/>
       <c r="O432" s="23"/>
     </row>
-    <row r="433" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A433" s="15"/>
       <c r="B433" s="15"/>
       <c r="C433" s="15"/>
@@ -10667,7 +10683,7 @@
       <c r="N433" s="2"/>
       <c r="O433" s="23"/>
     </row>
-    <row r="434" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A434" s="15"/>
       <c r="B434" s="15"/>
       <c r="C434" s="15"/>
@@ -10684,7 +10700,7 @@
       <c r="N434" s="2"/>
       <c r="O434" s="23"/>
     </row>
-    <row r="435" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A435" s="15"/>
       <c r="B435" s="15"/>
       <c r="C435" s="15"/>
@@ -10701,7 +10717,7 @@
       <c r="N435" s="2"/>
       <c r="O435" s="23"/>
     </row>
-    <row r="436" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A436" s="15"/>
       <c r="B436" s="15"/>
       <c r="C436" s="15"/>
@@ -10718,7 +10734,7 @@
       <c r="N436" s="2"/>
       <c r="O436" s="23"/>
     </row>
-    <row r="437" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A437" s="15"/>
       <c r="B437" s="15"/>
       <c r="C437" s="15"/>
@@ -10735,7 +10751,7 @@
       <c r="N437" s="2"/>
       <c r="O437" s="23"/>
     </row>
-    <row r="438" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A438" s="15"/>
       <c r="B438" s="15"/>
       <c r="C438" s="15"/>
@@ -10752,7 +10768,7 @@
       <c r="N438" s="2"/>
       <c r="O438" s="23"/>
     </row>
-    <row r="439" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A439" s="15"/>
       <c r="B439" s="15"/>
       <c r="C439" s="15"/>
@@ -10769,7 +10785,7 @@
       <c r="N439" s="2"/>
       <c r="O439" s="23"/>
     </row>
-    <row r="440" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A440" s="15"/>
       <c r="B440" s="15"/>
       <c r="C440" s="15"/>
@@ -10786,7 +10802,7 @@
       <c r="N440" s="2"/>
       <c r="O440" s="23"/>
     </row>
-    <row r="441" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A441" s="15"/>
       <c r="B441" s="15"/>
       <c r="C441" s="15"/>
@@ -10803,7 +10819,7 @@
       <c r="N441" s="2"/>
       <c r="O441" s="23"/>
     </row>
-    <row r="442" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A442" s="15"/>
       <c r="B442" s="15"/>
       <c r="C442" s="15"/>
@@ -10820,7 +10836,7 @@
       <c r="N442" s="2"/>
       <c r="O442" s="23"/>
     </row>
-    <row r="443" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A443" s="15"/>
       <c r="B443" s="15"/>
       <c r="C443" s="15"/>
@@ -10837,7 +10853,7 @@
       <c r="N443" s="2"/>
       <c r="O443" s="23"/>
     </row>
-    <row r="444" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A444" s="15"/>
       <c r="B444" s="15"/>
       <c r="C444" s="15"/>
@@ -10854,7 +10870,7 @@
       <c r="N444" s="2"/>
       <c r="O444" s="23"/>
     </row>
-    <row r="445" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A445" s="15"/>
       <c r="B445" s="15"/>
       <c r="C445" s="15"/>
@@ -10871,7 +10887,7 @@
       <c r="N445" s="2"/>
       <c r="O445" s="23"/>
     </row>
-    <row r="446" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A446" s="15"/>
       <c r="B446" s="15"/>
       <c r="C446" s="15"/>
@@ -10888,7 +10904,7 @@
       <c r="N446" s="2"/>
       <c r="O446" s="23"/>
     </row>
-    <row r="447" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A447" s="15"/>
       <c r="B447" s="15"/>
       <c r="C447" s="15"/>
@@ -10905,7 +10921,7 @@
       <c r="N447" s="2"/>
       <c r="O447" s="23"/>
     </row>
-    <row r="448" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A448" s="15"/>
       <c r="B448" s="15"/>
       <c r="C448" s="15"/>
@@ -10922,7 +10938,7 @@
       <c r="N448" s="2"/>
       <c r="O448" s="23"/>
     </row>
-    <row r="449" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A449" s="15"/>
       <c r="B449" s="15"/>
       <c r="C449" s="15"/>
@@ -10939,7 +10955,7 @@
       <c r="N449" s="2"/>
       <c r="O449" s="23"/>
     </row>
-    <row r="450" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A450" s="15"/>
       <c r="B450" s="15"/>
       <c r="C450" s="15"/>
@@ -10956,7 +10972,7 @@
       <c r="N450" s="2"/>
       <c r="O450" s="23"/>
     </row>
-    <row r="451" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A451" s="15"/>
       <c r="B451" s="15"/>
       <c r="C451" s="15"/>
@@ -10973,7 +10989,7 @@
       <c r="N451" s="2"/>
       <c r="O451" s="23"/>
     </row>
-    <row r="452" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A452" s="15"/>
       <c r="B452" s="15"/>
       <c r="C452" s="15"/>
@@ -10990,7 +11006,7 @@
       <c r="N452" s="2"/>
       <c r="O452" s="23"/>
     </row>
-    <row r="453" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A453" s="15"/>
       <c r="B453" s="15"/>
       <c r="C453" s="15"/>
@@ -11007,7 +11023,7 @@
       <c r="N453" s="2"/>
       <c r="O453" s="23"/>
     </row>
-    <row r="454" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A454" s="15"/>
       <c r="B454" s="15"/>
       <c r="C454" s="15"/>
@@ -11024,7 +11040,7 @@
       <c r="N454" s="2"/>
       <c r="O454" s="23"/>
     </row>
-    <row r="455" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A455" s="15"/>
       <c r="B455" s="15"/>
       <c r="C455" s="15"/>
@@ -11041,7 +11057,7 @@
       <c r="N455" s="2"/>
       <c r="O455" s="23"/>
     </row>
-    <row r="456" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A456" s="15"/>
       <c r="B456" s="15"/>
       <c r="C456" s="15"/>
@@ -11058,7 +11074,7 @@
       <c r="N456" s="2"/>
       <c r="O456" s="23"/>
     </row>
-    <row r="457" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A457" s="15"/>
       <c r="B457" s="15"/>
       <c r="C457" s="15"/>
@@ -11075,7 +11091,7 @@
       <c r="N457" s="2"/>
       <c r="O457" s="23"/>
     </row>
-    <row r="458" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A458" s="15"/>
       <c r="B458" s="15"/>
       <c r="C458" s="15"/>
@@ -11092,7 +11108,7 @@
       <c r="N458" s="2"/>
       <c r="O458" s="23"/>
     </row>
-    <row r="459" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A459" s="15"/>
       <c r="B459" s="15"/>
       <c r="C459" s="15"/>
@@ -11109,7 +11125,7 @@
       <c r="N459" s="2"/>
       <c r="O459" s="23"/>
     </row>
-    <row r="460" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A460" s="15"/>
       <c r="B460" s="15"/>
       <c r="C460" s="15"/>
@@ -11126,7 +11142,7 @@
       <c r="N460" s="2"/>
       <c r="O460" s="23"/>
     </row>
-    <row r="461" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A461" s="15"/>
       <c r="B461" s="15"/>
       <c r="C461" s="15"/>
@@ -11143,7 +11159,7 @@
       <c r="N461" s="2"/>
       <c r="O461" s="23"/>
     </row>
-    <row r="462" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A462" s="15"/>
       <c r="B462" s="15"/>
       <c r="C462" s="15"/>
@@ -11160,7 +11176,7 @@
       <c r="N462" s="2"/>
       <c r="O462" s="23"/>
     </row>
-    <row r="463" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A463" s="15"/>
       <c r="B463" s="15"/>
       <c r="C463" s="15"/>
@@ -11177,7 +11193,7 @@
       <c r="N463" s="2"/>
       <c r="O463" s="23"/>
     </row>
-    <row r="464" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A464" s="15"/>
       <c r="B464" s="15"/>
       <c r="C464" s="15"/>
@@ -11194,7 +11210,7 @@
       <c r="N464" s="2"/>
       <c r="O464" s="23"/>
     </row>
-    <row r="465" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A465" s="15"/>
       <c r="B465" s="15"/>
       <c r="C465" s="15"/>
@@ -11211,7 +11227,7 @@
       <c r="N465" s="2"/>
       <c r="O465" s="23"/>
     </row>
-    <row r="466" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A466" s="15"/>
       <c r="B466" s="15"/>
       <c r="C466" s="15"/>
@@ -11228,7 +11244,7 @@
       <c r="N466" s="2"/>
       <c r="O466" s="23"/>
     </row>
-    <row r="467" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A467" s="15"/>
       <c r="B467" s="15"/>
       <c r="C467" s="15"/>
@@ -11245,7 +11261,7 @@
       <c r="N467" s="2"/>
       <c r="O467" s="23"/>
     </row>
-    <row r="468" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A468" s="15"/>
       <c r="B468" s="15"/>
       <c r="C468" s="15"/>
@@ -11262,7 +11278,7 @@
       <c r="N468" s="2"/>
       <c r="O468" s="23"/>
     </row>
-    <row r="469" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A469" s="15"/>
       <c r="B469" s="15"/>
       <c r="C469" s="15"/>
@@ -11279,7 +11295,7 @@
       <c r="N469" s="2"/>
       <c r="O469" s="23"/>
     </row>
-    <row r="470" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A470" s="15"/>
       <c r="B470" s="15"/>
       <c r="C470" s="15"/>
@@ -11296,7 +11312,7 @@
       <c r="N470" s="2"/>
       <c r="O470" s="23"/>
     </row>
-    <row r="471" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A471" s="15"/>
       <c r="B471" s="15"/>
       <c r="C471" s="15"/>
@@ -11313,7 +11329,7 @@
       <c r="N471" s="2"/>
       <c r="O471" s="23"/>
     </row>
-    <row r="472" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A472" s="15"/>
       <c r="B472" s="15"/>
       <c r="C472" s="15"/>
@@ -11330,7 +11346,7 @@
       <c r="N472" s="2"/>
       <c r="O472" s="23"/>
     </row>
-    <row r="473" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A473" s="15"/>
       <c r="B473" s="15"/>
       <c r="C473" s="15"/>
@@ -11347,7 +11363,7 @@
       <c r="N473" s="2"/>
       <c r="O473" s="23"/>
     </row>
-    <row r="474" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A474" s="15"/>
       <c r="B474" s="15"/>
       <c r="C474" s="15"/>
@@ -11364,7 +11380,7 @@
       <c r="N474" s="2"/>
       <c r="O474" s="23"/>
     </row>
-    <row r="475" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A475" s="15"/>
       <c r="B475" s="15"/>
       <c r="C475" s="15"/>
@@ -11381,7 +11397,7 @@
       <c r="N475" s="2"/>
       <c r="O475" s="23"/>
     </row>
-    <row r="476" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A476" s="15"/>
       <c r="B476" s="15"/>
       <c r="C476" s="15"/>
@@ -11398,7 +11414,7 @@
       <c r="N476" s="2"/>
       <c r="O476" s="23"/>
     </row>
-    <row r="477" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A477" s="15"/>
       <c r="B477" s="15"/>
       <c r="C477" s="15"/>
@@ -11415,7 +11431,7 @@
       <c r="N477" s="2"/>
       <c r="O477" s="23"/>
     </row>
-    <row r="478" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A478" s="15"/>
       <c r="B478" s="15"/>
       <c r="C478" s="15"/>
@@ -11432,7 +11448,7 @@
       <c r="N478" s="2"/>
       <c r="O478" s="23"/>
     </row>
-    <row r="479" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A479" s="15"/>
       <c r="B479" s="15"/>
       <c r="C479" s="15"/>
@@ -11449,7 +11465,7 @@
       <c r="N479" s="2"/>
       <c r="O479" s="23"/>
     </row>
-    <row r="480" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A480" s="15"/>
       <c r="B480" s="15"/>
       <c r="C480" s="15"/>
@@ -11466,7 +11482,7 @@
       <c r="N480" s="2"/>
       <c r="O480" s="23"/>
     </row>
-    <row r="481" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A481" s="15"/>
       <c r="B481" s="15"/>
       <c r="C481" s="15"/>
@@ -11483,7 +11499,7 @@
       <c r="N481" s="2"/>
       <c r="O481" s="23"/>
     </row>
-    <row r="482" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A482" s="15"/>
       <c r="B482" s="15"/>
       <c r="C482" s="15"/>
@@ -11500,7 +11516,7 @@
       <c r="N482" s="2"/>
       <c r="O482" s="23"/>
     </row>
-    <row r="483" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A483" s="15"/>
       <c r="B483" s="15"/>
       <c r="C483" s="15"/>
@@ -11517,7 +11533,7 @@
       <c r="N483" s="2"/>
       <c r="O483" s="23"/>
     </row>
-    <row r="484" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A484" s="15"/>
       <c r="B484" s="15"/>
       <c r="C484" s="15"/>
@@ -11534,7 +11550,7 @@
       <c r="N484" s="2"/>
       <c r="O484" s="23"/>
     </row>
-    <row r="485" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A485" s="15"/>
       <c r="B485" s="15"/>
       <c r="C485" s="15"/>
@@ -11551,7 +11567,7 @@
       <c r="N485" s="2"/>
       <c r="O485" s="23"/>
     </row>
-    <row r="486" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A486" s="15"/>
       <c r="B486" s="15"/>
       <c r="C486" s="15"/>
@@ -11568,7 +11584,7 @@
       <c r="N486" s="2"/>
       <c r="O486" s="23"/>
     </row>
-    <row r="487" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A487" s="15"/>
       <c r="B487" s="15"/>
       <c r="C487" s="15"/>
@@ -11585,7 +11601,7 @@
       <c r="N487" s="2"/>
       <c r="O487" s="23"/>
     </row>
-    <row r="488" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A488" s="15"/>
       <c r="B488" s="15"/>
       <c r="C488" s="15"/>
@@ -11602,7 +11618,7 @@
       <c r="N488" s="2"/>
       <c r="O488" s="23"/>
     </row>
-    <row r="489" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A489" s="15"/>
       <c r="B489" s="15"/>
       <c r="C489" s="15"/>
@@ -11619,7 +11635,7 @@
       <c r="N489" s="2"/>
       <c r="O489" s="23"/>
     </row>
-    <row r="490" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A490" s="15"/>
       <c r="B490" s="15"/>
       <c r="C490" s="15"/>
@@ -11636,7 +11652,7 @@
       <c r="N490" s="2"/>
       <c r="O490" s="23"/>
     </row>
-    <row r="491" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A491" s="15"/>
       <c r="B491" s="15"/>
       <c r="C491" s="15"/>
@@ -11653,7 +11669,7 @@
       <c r="N491" s="2"/>
       <c r="O491" s="23"/>
     </row>
-    <row r="492" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A492" s="15"/>
       <c r="B492" s="15"/>
       <c r="C492" s="15"/>
@@ -11670,7 +11686,7 @@
       <c r="N492" s="2"/>
       <c r="O492" s="23"/>
     </row>
-    <row r="493" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A493" s="15"/>
       <c r="B493" s="15"/>
       <c r="C493" s="15"/>
@@ -11687,7 +11703,7 @@
       <c r="N493" s="2"/>
       <c r="O493" s="23"/>
     </row>
-    <row r="494" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A494" s="15"/>
       <c r="B494" s="15"/>
       <c r="C494" s="15"/>
@@ -11704,7 +11720,7 @@
       <c r="N494" s="2"/>
       <c r="O494" s="23"/>
     </row>
-    <row r="495" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A495" s="15"/>
       <c r="B495" s="15"/>
       <c r="C495" s="15"/>
@@ -11721,7 +11737,7 @@
       <c r="N495" s="2"/>
       <c r="O495" s="23"/>
     </row>
-    <row r="496" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A496" s="15"/>
       <c r="B496" s="15"/>
       <c r="C496" s="15"/>
@@ -11738,7 +11754,7 @@
       <c r="N496" s="2"/>
       <c r="O496" s="23"/>
     </row>
-    <row r="497" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A497" s="15"/>
       <c r="B497" s="15"/>
       <c r="C497" s="15"/>
@@ -11755,7 +11771,7 @@
       <c r="N497" s="2"/>
       <c r="O497" s="23"/>
     </row>
-    <row r="498" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A498" s="15"/>
       <c r="B498" s="15"/>
       <c r="C498" s="15"/>
@@ -11772,7 +11788,7 @@
       <c r="N498" s="2"/>
       <c r="O498" s="23"/>
     </row>
-    <row r="499" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A499" s="15"/>
       <c r="B499" s="15"/>
       <c r="C499" s="15"/>
@@ -11789,7 +11805,7 @@
       <c r="N499" s="2"/>
       <c r="O499" s="23"/>
     </row>
-    <row r="500" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A500" s="15"/>
       <c r="B500" s="15"/>
       <c r="C500" s="15"/>
@@ -11806,7 +11822,7 @@
       <c r="N500" s="2"/>
       <c r="O500" s="23"/>
     </row>
-    <row r="501" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A501" s="15"/>
       <c r="B501" s="15"/>
       <c r="C501" s="15"/>
@@ -11823,7 +11839,7 @@
       <c r="N501" s="2"/>
       <c r="O501" s="23"/>
     </row>
-    <row r="502" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A502" s="15"/>
       <c r="B502" s="15"/>
       <c r="C502" s="15"/>
@@ -11840,7 +11856,7 @@
       <c r="N502" s="2"/>
       <c r="O502" s="23"/>
     </row>
-    <row r="503" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A503" s="15"/>
       <c r="B503" s="15"/>
       <c r="C503" s="15"/>
@@ -11857,7 +11873,7 @@
       <c r="N503" s="2"/>
       <c r="O503" s="23"/>
     </row>
-    <row r="504" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A504" s="15"/>
       <c r="B504" s="15"/>
       <c r="C504" s="15"/>
@@ -11874,7 +11890,7 @@
       <c r="N504" s="2"/>
       <c r="O504" s="23"/>
     </row>
-    <row r="505" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A505" s="15"/>
       <c r="B505" s="15"/>
       <c r="C505" s="15"/>
@@ -11891,7 +11907,7 @@
       <c r="N505" s="2"/>
       <c r="O505" s="23"/>
     </row>
-    <row r="506" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A506" s="15"/>
       <c r="B506" s="15"/>
       <c r="C506" s="15"/>
@@ -11908,7 +11924,7 @@
       <c r="N506" s="2"/>
       <c r="O506" s="23"/>
     </row>
-    <row r="507" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A507" s="15"/>
       <c r="B507" s="15"/>
       <c r="C507" s="15"/>
@@ -11925,7 +11941,7 @@
       <c r="N507" s="2"/>
       <c r="O507" s="23"/>
     </row>
-    <row r="508" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A508" s="15"/>
       <c r="B508" s="15"/>
       <c r="C508" s="15"/>
@@ -11942,7 +11958,7 @@
       <c r="N508" s="2"/>
       <c r="O508" s="23"/>
     </row>
-    <row r="509" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A509" s="15"/>
       <c r="B509" s="15"/>
       <c r="C509" s="15"/>
@@ -11959,7 +11975,7 @@
       <c r="N509" s="2"/>
       <c r="O509" s="23"/>
     </row>
-    <row r="510" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A510" s="15"/>
       <c r="B510" s="15"/>
       <c r="C510" s="15"/>
@@ -11976,7 +11992,7 @@
       <c r="N510" s="2"/>
       <c r="O510" s="23"/>
     </row>
-    <row r="511" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A511" s="15"/>
       <c r="B511" s="15"/>
       <c r="C511" s="15"/>
@@ -11993,7 +12009,7 @@
       <c r="N511" s="2"/>
       <c r="O511" s="23"/>
     </row>
-    <row r="512" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A512" s="15"/>
       <c r="B512" s="15"/>
       <c r="C512" s="15"/>
@@ -12010,7 +12026,7 @@
       <c r="N512" s="2"/>
       <c r="O512" s="23"/>
     </row>
-    <row r="513" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A513" s="15"/>
       <c r="B513" s="15"/>
       <c r="C513" s="15"/>
@@ -12027,7 +12043,7 @@
       <c r="N513" s="2"/>
       <c r="O513" s="23"/>
     </row>
-    <row r="514" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A514" s="15"/>
       <c r="B514" s="15"/>
       <c r="C514" s="15"/>
@@ -12044,7 +12060,7 @@
       <c r="N514" s="2"/>
       <c r="O514" s="23"/>
     </row>
-    <row r="515" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A515" s="15"/>
       <c r="B515" s="15"/>
       <c r="C515" s="15"/>
@@ -12061,7 +12077,7 @@
       <c r="N515" s="2"/>
       <c r="O515" s="23"/>
     </row>
-    <row r="516" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A516" s="15"/>
       <c r="B516" s="15"/>
       <c r="C516" s="15"/>
@@ -12078,7 +12094,7 @@
       <c r="N516" s="2"/>
       <c r="O516" s="23"/>
     </row>
-    <row r="517" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A517" s="15"/>
       <c r="B517" s="15"/>
       <c r="C517" s="15"/>
@@ -12095,7 +12111,7 @@
       <c r="N517" s="2"/>
       <c r="O517" s="23"/>
     </row>
-    <row r="518" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A518" s="15"/>
       <c r="B518" s="15"/>
       <c r="C518" s="15"/>
@@ -12112,7 +12128,7 @@
       <c r="N518" s="2"/>
       <c r="O518" s="23"/>
     </row>
-    <row r="519" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A519" s="15"/>
       <c r="B519" s="15"/>
       <c r="C519" s="15"/>
@@ -12129,7 +12145,7 @@
       <c r="N519" s="2"/>
       <c r="O519" s="23"/>
     </row>
-    <row r="520" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A520" s="15"/>
       <c r="B520" s="15"/>
       <c r="C520" s="15"/>
@@ -12146,7 +12162,7 @@
       <c r="N520" s="2"/>
       <c r="O520" s="23"/>
     </row>
-    <row r="521" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A521" s="15"/>
       <c r="B521" s="15"/>
       <c r="C521" s="15"/>
@@ -12163,7 +12179,7 @@
       <c r="N521" s="2"/>
       <c r="O521" s="23"/>
     </row>
-    <row r="522" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A522" s="15"/>
       <c r="B522" s="15"/>
       <c r="C522" s="15"/>
@@ -12180,7 +12196,7 @@
       <c r="N522" s="2"/>
       <c r="O522" s="23"/>
     </row>
-    <row r="523" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A523" s="15"/>
       <c r="B523" s="15"/>
       <c r="C523" s="15"/>
@@ -12197,7 +12213,7 @@
       <c r="N523" s="2"/>
       <c r="O523" s="23"/>
     </row>
-    <row r="524" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A524" s="15"/>
       <c r="B524" s="15"/>
       <c r="C524" s="15"/>
@@ -12214,7 +12230,7 @@
       <c r="N524" s="2"/>
       <c r="O524" s="23"/>
     </row>
-    <row r="525" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A525" s="15"/>
       <c r="B525" s="15"/>
       <c r="C525" s="15"/>
@@ -12231,7 +12247,7 @@
       <c r="N525" s="2"/>
       <c r="O525" s="23"/>
     </row>
-    <row r="526" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A526" s="15"/>
       <c r="B526" s="15"/>
       <c r="C526" s="15"/>
@@ -12248,7 +12264,7 @@
       <c r="N526" s="2"/>
       <c r="O526" s="23"/>
     </row>
-    <row r="527" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A527" s="15"/>
       <c r="B527" s="15"/>
       <c r="C527" s="15"/>
@@ -12265,7 +12281,7 @@
       <c r="N527" s="2"/>
       <c r="O527" s="23"/>
     </row>
-    <row r="528" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A528" s="15"/>
       <c r="B528" s="15"/>
       <c r="C528" s="15"/>
@@ -12282,7 +12298,7 @@
       <c r="N528" s="2"/>
       <c r="O528" s="23"/>
     </row>
-    <row r="529" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A529" s="15"/>
       <c r="B529" s="15"/>
       <c r="C529" s="15"/>
@@ -12299,7 +12315,7 @@
       <c r="N529" s="2"/>
       <c r="O529" s="23"/>
     </row>
-    <row r="530" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A530" s="15"/>
       <c r="B530" s="15"/>
       <c r="C530" s="15"/>
@@ -12316,7 +12332,7 @@
       <c r="N530" s="2"/>
       <c r="O530" s="23"/>
     </row>
-    <row r="531" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A531" s="15"/>
       <c r="B531" s="15"/>
       <c r="C531" s="15"/>
@@ -12333,7 +12349,7 @@
       <c r="N531" s="2"/>
       <c r="O531" s="23"/>
     </row>
-    <row r="532" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A532" s="15"/>
       <c r="B532" s="15"/>
       <c r="C532" s="15"/>
@@ -12350,7 +12366,7 @@
       <c r="N532" s="2"/>
       <c r="O532" s="23"/>
     </row>
-    <row r="533" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A533" s="15"/>
       <c r="B533" s="15"/>
       <c r="C533" s="15"/>
@@ -12367,7 +12383,7 @@
       <c r="N533" s="2"/>
       <c r="O533" s="23"/>
     </row>
-    <row r="534" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A534" s="15"/>
       <c r="B534" s="15"/>
       <c r="C534" s="15"/>
@@ -12384,7 +12400,7 @@
       <c r="N534" s="2"/>
       <c r="O534" s="23"/>
     </row>
-    <row r="535" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A535" s="15"/>
       <c r="B535" s="15"/>
       <c r="C535" s="15"/>
@@ -12401,7 +12417,7 @@
       <c r="N535" s="2"/>
       <c r="O535" s="23"/>
     </row>
-    <row r="536" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A536" s="15"/>
       <c r="B536" s="15"/>
       <c r="C536" s="15"/>
@@ -12418,7 +12434,7 @@
       <c r="N536" s="2"/>
       <c r="O536" s="23"/>
     </row>
-    <row r="537" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A537" s="15"/>
       <c r="B537" s="15"/>
       <c r="C537" s="15"/>
@@ -12435,7 +12451,7 @@
       <c r="N537" s="2"/>
       <c r="O537" s="23"/>
     </row>
-    <row r="538" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A538" s="15"/>
       <c r="B538" s="15"/>
       <c r="C538" s="15"/>
@@ -12452,7 +12468,7 @@
       <c r="N538" s="2"/>
       <c r="O538" s="23"/>
     </row>
-    <row r="539" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A539" s="15"/>
       <c r="B539" s="15"/>
       <c r="C539" s="15"/>
@@ -12469,7 +12485,7 @@
       <c r="N539" s="2"/>
       <c r="O539" s="23"/>
     </row>
-    <row r="540" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A540" s="15"/>
       <c r="B540" s="15"/>
       <c r="C540" s="15"/>
@@ -12486,7 +12502,7 @@
       <c r="N540" s="2"/>
       <c r="O540" s="23"/>
     </row>
-    <row r="541" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A541" s="15"/>
       <c r="B541" s="15"/>
       <c r="C541" s="15"/>
@@ -12503,7 +12519,7 @@
       <c r="N541" s="2"/>
       <c r="O541" s="23"/>
     </row>
-    <row r="542" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A542" s="15"/>
       <c r="B542" s="15"/>
       <c r="C542" s="15"/>
@@ -12520,7 +12536,7 @@
       <c r="N542" s="2"/>
       <c r="O542" s="23"/>
     </row>
-    <row r="543" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A543" s="15"/>
       <c r="B543" s="15"/>
       <c r="C543" s="15"/>
@@ -12537,7 +12553,7 @@
       <c r="N543" s="2"/>
       <c r="O543" s="23"/>
     </row>
-    <row r="544" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A544" s="15"/>
       <c r="B544" s="15"/>
       <c r="C544" s="15"/>
@@ -12554,7 +12570,7 @@
       <c r="N544" s="2"/>
       <c r="O544" s="23"/>
     </row>
-    <row r="545" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A545" s="15"/>
       <c r="B545" s="15"/>
       <c r="C545" s="15"/>
@@ -12571,7 +12587,7 @@
       <c r="N545" s="2"/>
       <c r="O545" s="23"/>
     </row>
-    <row r="546" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A546" s="15"/>
       <c r="B546" s="15"/>
       <c r="C546" s="15"/>
@@ -12588,7 +12604,7 @@
       <c r="N546" s="2"/>
       <c r="O546" s="23"/>
     </row>
-    <row r="547" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A547" s="15"/>
       <c r="B547" s="15"/>
       <c r="C547" s="15"/>
@@ -12605,7 +12621,7 @@
       <c r="N547" s="2"/>
       <c r="O547" s="23"/>
     </row>
-    <row r="548" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A548" s="15"/>
       <c r="B548" s="15"/>
       <c r="C548" s="15"/>
@@ -12622,7 +12638,7 @@
       <c r="N548" s="2"/>
       <c r="O548" s="23"/>
     </row>
-    <row r="549" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A549" s="15"/>
       <c r="B549" s="15"/>
       <c r="C549" s="15"/>
@@ -12639,7 +12655,7 @@
       <c r="N549" s="2"/>
       <c r="O549" s="23"/>
     </row>
-    <row r="550" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A550" s="15"/>
       <c r="B550" s="15"/>
       <c r="C550" s="15"/>
@@ -12656,7 +12672,7 @@
       <c r="N550" s="2"/>
       <c r="O550" s="23"/>
     </row>
-    <row r="551" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A551" s="15"/>
       <c r="B551" s="15"/>
       <c r="C551" s="15"/>
@@ -12673,7 +12689,7 @@
       <c r="N551" s="2"/>
       <c r="O551" s="23"/>
     </row>
-    <row r="552" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A552" s="15"/>
       <c r="B552" s="15"/>
       <c r="C552" s="15"/>
@@ -12690,7 +12706,7 @@
       <c r="N552" s="2"/>
       <c r="O552" s="23"/>
     </row>
-    <row r="553" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A553" s="15"/>
       <c r="B553" s="15"/>
       <c r="C553" s="15"/>
@@ -12707,7 +12723,7 @@
       <c r="N553" s="2"/>
       <c r="O553" s="23"/>
     </row>
-    <row r="554" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A554" s="15"/>
       <c r="B554" s="15"/>
       <c r="C554" s="15"/>
@@ -12724,7 +12740,7 @@
       <c r="N554" s="2"/>
       <c r="O554" s="23"/>
     </row>
-    <row r="555" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A555" s="15"/>
       <c r="B555" s="15"/>
       <c r="C555" s="15"/>
@@ -12741,7 +12757,7 @@
       <c r="N555" s="2"/>
       <c r="O555" s="23"/>
     </row>
-    <row r="556" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A556" s="15"/>
       <c r="B556" s="15"/>
       <c r="C556" s="15"/>
@@ -12758,7 +12774,7 @@
       <c r="N556" s="2"/>
       <c r="O556" s="23"/>
     </row>
-    <row r="557" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A557" s="15"/>
       <c r="B557" s="15"/>
       <c r="C557" s="15"/>
@@ -12775,7 +12791,7 @@
       <c r="N557" s="2"/>
       <c r="O557" s="23"/>
     </row>
-    <row r="558" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A558" s="15"/>
       <c r="B558" s="15"/>
       <c r="C558" s="15"/>
@@ -12792,7 +12808,7 @@
       <c r="N558" s="2"/>
       <c r="O558" s="23"/>
     </row>
-    <row r="559" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A559" s="15"/>
       <c r="B559" s="15"/>
       <c r="C559" s="15"/>
@@ -12809,7 +12825,7 @@
       <c r="N559" s="2"/>
       <c r="O559" s="23"/>
     </row>
-    <row r="560" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A560" s="15"/>
       <c r="B560" s="15"/>
       <c r="C560" s="15"/>
@@ -12826,7 +12842,7 @@
       <c r="N560" s="2"/>
       <c r="O560" s="23"/>
     </row>
-    <row r="561" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A561" s="15"/>
       <c r="B561" s="15"/>
       <c r="C561" s="15"/>
@@ -12843,7 +12859,7 @@
       <c r="N561" s="2"/>
       <c r="O561" s="23"/>
     </row>
-    <row r="562" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A562" s="15"/>
       <c r="B562" s="15"/>
       <c r="C562" s="15"/>
@@ -12860,7 +12876,7 @@
       <c r="N562" s="2"/>
       <c r="O562" s="23"/>
     </row>
-    <row r="563" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A563" s="15"/>
       <c r="B563" s="15"/>
       <c r="C563" s="15"/>
@@ -12877,7 +12893,7 @@
       <c r="N563" s="2"/>
       <c r="O563" s="23"/>
     </row>
-    <row r="564" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A564" s="15"/>
       <c r="B564" s="15"/>
       <c r="C564" s="15"/>
@@ -12894,7 +12910,7 @@
       <c r="N564" s="2"/>
       <c r="O564" s="23"/>
     </row>
-    <row r="565" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A565" s="15"/>
       <c r="B565" s="15"/>
       <c r="C565" s="15"/>
@@ -12911,7 +12927,7 @@
       <c r="N565" s="2"/>
       <c r="O565" s="23"/>
     </row>
-    <row r="566" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A566" s="15"/>
       <c r="B566" s="15"/>
       <c r="C566" s="15"/>
@@ -12928,7 +12944,7 @@
       <c r="N566" s="2"/>
       <c r="O566" s="23"/>
     </row>
-    <row r="567" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A567" s="15"/>
       <c r="B567" s="15"/>
       <c r="C567" s="15"/>
@@ -12945,7 +12961,7 @@
       <c r="N567" s="2"/>
       <c r="O567" s="23"/>
     </row>
-    <row r="568" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A568" s="15"/>
       <c r="B568" s="15"/>
       <c r="C568" s="15"/>
@@ -12962,7 +12978,7 @@
       <c r="N568" s="2"/>
       <c r="O568" s="23"/>
     </row>
-    <row r="569" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A569" s="15"/>
       <c r="B569" s="15"/>
       <c r="C569" s="15"/>
@@ -12979,7 +12995,7 @@
       <c r="N569" s="2"/>
       <c r="O569" s="23"/>
     </row>
-    <row r="570" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A570" s="15"/>
       <c r="B570" s="15"/>
       <c r="C570" s="15"/>
@@ -12996,7 +13012,7 @@
       <c r="N570" s="2"/>
       <c r="O570" s="23"/>
     </row>
-    <row r="571" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A571" s="15"/>
       <c r="B571" s="15"/>
       <c r="C571" s="15"/>
@@ -13013,7 +13029,7 @@
       <c r="N571" s="2"/>
       <c r="O571" s="23"/>
     </row>
-    <row r="572" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A572" s="15"/>
       <c r="B572" s="15"/>
       <c r="C572" s="15"/>
@@ -13030,7 +13046,7 @@
       <c r="N572" s="2"/>
       <c r="O572" s="23"/>
     </row>
-    <row r="573" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A573" s="15"/>
       <c r="B573" s="15"/>
       <c r="C573" s="15"/>
@@ -13047,7 +13063,7 @@
       <c r="N573" s="2"/>
       <c r="O573" s="23"/>
     </row>
-    <row r="574" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A574" s="15"/>
       <c r="B574" s="15"/>
       <c r="C574" s="15"/>
@@ -13064,7 +13080,7 @@
       <c r="N574" s="2"/>
       <c r="O574" s="23"/>
     </row>
-    <row r="575" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A575" s="15"/>
       <c r="B575" s="15"/>
       <c r="C575" s="15"/>
@@ -13081,7 +13097,7 @@
       <c r="N575" s="2"/>
       <c r="O575" s="23"/>
     </row>
-    <row r="576" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A576" s="15"/>
       <c r="B576" s="15"/>
       <c r="C576" s="15"/>
@@ -13098,7 +13114,7 @@
       <c r="N576" s="2"/>
       <c r="O576" s="23"/>
     </row>
-    <row r="577" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A577" s="15"/>
       <c r="B577" s="15"/>
       <c r="C577" s="15"/>
@@ -13115,7 +13131,7 @@
       <c r="N577" s="2"/>
       <c r="O577" s="23"/>
     </row>
-    <row r="578" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A578" s="15"/>
       <c r="B578" s="15"/>
       <c r="C578" s="15"/>
@@ -13132,7 +13148,7 @@
       <c r="N578" s="2"/>
       <c r="O578" s="23"/>
     </row>
-    <row r="579" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A579" s="15"/>
       <c r="B579" s="15"/>
       <c r="C579" s="15"/>
@@ -13149,7 +13165,7 @@
       <c r="N579" s="2"/>
       <c r="O579" s="23"/>
     </row>
-    <row r="580" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A580" s="15"/>
       <c r="B580" s="15"/>
       <c r="C580" s="15"/>
@@ -13166,7 +13182,7 @@
       <c r="N580" s="2"/>
       <c r="O580" s="23"/>
     </row>
-    <row r="581" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A581" s="15"/>
       <c r="B581" s="15"/>
       <c r="C581" s="15"/>
@@ -13183,7 +13199,7 @@
       <c r="N581" s="2"/>
       <c r="O581" s="23"/>
     </row>
-    <row r="582" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A582" s="15"/>
       <c r="B582" s="15"/>
       <c r="C582" s="15"/>
@@ -13200,7 +13216,7 @@
       <c r="N582" s="2"/>
       <c r="O582" s="23"/>
     </row>
-    <row r="583" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A583" s="15"/>
       <c r="B583" s="15"/>
       <c r="C583" s="15"/>
@@ -13217,7 +13233,7 @@
       <c r="N583" s="2"/>
       <c r="O583" s="23"/>
     </row>
-    <row r="584" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A584" s="15"/>
       <c r="B584" s="15"/>
       <c r="C584" s="15"/>
@@ -13234,7 +13250,7 @@
       <c r="N584" s="2"/>
       <c r="O584" s="23"/>
     </row>
-    <row r="585" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A585" s="15"/>
       <c r="B585" s="15"/>
       <c r="C585" s="15"/>
@@ -13251,7 +13267,7 @@
       <c r="N585" s="2"/>
       <c r="O585" s="23"/>
     </row>
-    <row r="586" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A586" s="15"/>
       <c r="B586" s="15"/>
       <c r="C586" s="15"/>
@@ -13268,7 +13284,7 @@
       <c r="N586" s="2"/>
       <c r="O586" s="23"/>
     </row>
-    <row r="587" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A587" s="15"/>
       <c r="B587" s="15"/>
       <c r="C587" s="15"/>
@@ -13285,7 +13301,7 @@
       <c r="N587" s="2"/>
       <c r="O587" s="23"/>
     </row>
-    <row r="588" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A588" s="15"/>
       <c r="B588" s="15"/>
       <c r="C588" s="15"/>
@@ -13302,7 +13318,7 @@
       <c r="N588" s="2"/>
       <c r="O588" s="23"/>
     </row>
-    <row r="589" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A589" s="15"/>
       <c r="B589" s="15"/>
       <c r="C589" s="15"/>
@@ -13319,7 +13335,7 @@
       <c r="N589" s="2"/>
       <c r="O589" s="23"/>
     </row>
-    <row r="590" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A590" s="15"/>
       <c r="B590" s="15"/>
       <c r="C590" s="15"/>
@@ -13336,7 +13352,7 @@
       <c r="N590" s="2"/>
       <c r="O590" s="23"/>
     </row>
-    <row r="591" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A591" s="15"/>
       <c r="B591" s="15"/>
       <c r="C591" s="15"/>
@@ -13353,7 +13369,7 @@
       <c r="N591" s="2"/>
       <c r="O591" s="23"/>
     </row>
-    <row r="592" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A592" s="15"/>
       <c r="B592" s="15"/>
       <c r="C592" s="15"/>
@@ -13370,7 +13386,7 @@
       <c r="N592" s="2"/>
       <c r="O592" s="23"/>
     </row>
-    <row r="593" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A593" s="15"/>
       <c r="B593" s="15"/>
       <c r="C593" s="15"/>
@@ -13387,7 +13403,7 @@
       <c r="N593" s="2"/>
       <c r="O593" s="23"/>
     </row>
-    <row r="594" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A594" s="15"/>
       <c r="B594" s="15"/>
       <c r="C594" s="15"/>
@@ -13404,7 +13420,7 @@
       <c r="N594" s="2"/>
       <c r="O594" s="23"/>
     </row>
-    <row r="595" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A595" s="15"/>
       <c r="B595" s="15"/>
       <c r="C595" s="15"/>
@@ -13421,7 +13437,7 @@
       <c r="N595" s="2"/>
       <c r="O595" s="23"/>
     </row>
-    <row r="596" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A596" s="15"/>
       <c r="B596" s="15"/>
       <c r="C596" s="15"/>
@@ -13438,7 +13454,7 @@
       <c r="N596" s="2"/>
       <c r="O596" s="23"/>
     </row>
-    <row r="597" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A597" s="15"/>
       <c r="B597" s="15"/>
       <c r="C597" s="15"/>
@@ -13455,7 +13471,7 @@
       <c r="N597" s="2"/>
       <c r="O597" s="23"/>
     </row>
-    <row r="598" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A598" s="15"/>
       <c r="B598" s="15"/>
       <c r="C598" s="15"/>
@@ -13472,7 +13488,7 @@
       <c r="N598" s="2"/>
       <c r="O598" s="23"/>
     </row>
-    <row r="599" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A599" s="15"/>
       <c r="B599" s="15"/>
       <c r="C599" s="15"/>
@@ -13489,7 +13505,7 @@
       <c r="N599" s="2"/>
       <c r="O599" s="23"/>
     </row>
-    <row r="600" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A600" s="15"/>
       <c r="B600" s="15"/>
       <c r="C600" s="15"/>
@@ -13506,7 +13522,7 @@
       <c r="N600" s="2"/>
       <c r="O600" s="23"/>
     </row>
-    <row r="601" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A601" s="15"/>
       <c r="B601" s="15"/>
       <c r="C601" s="15"/>
@@ -13523,7 +13539,7 @@
       <c r="N601" s="2"/>
       <c r="O601" s="23"/>
     </row>
-    <row r="602" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A602" s="15"/>
       <c r="B602" s="15"/>
       <c r="C602" s="15"/>
@@ -13540,7 +13556,7 @@
       <c r="N602" s="2"/>
       <c r="O602" s="23"/>
     </row>
-    <row r="603" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A603" s="15"/>
       <c r="B603" s="15"/>
       <c r="C603" s="15"/>
@@ -13557,7 +13573,7 @@
       <c r="N603" s="2"/>
       <c r="O603" s="23"/>
     </row>
-    <row r="604" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A604" s="15"/>
       <c r="B604" s="15"/>
       <c r="C604" s="15"/>
@@ -13574,7 +13590,7 @@
       <c r="N604" s="2"/>
       <c r="O604" s="23"/>
     </row>
-    <row r="605" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A605" s="15"/>
       <c r="B605" s="15"/>
       <c r="C605" s="15"/>
@@ -13591,7 +13607,7 @@
       <c r="N605" s="2"/>
       <c r="O605" s="23"/>
     </row>
-    <row r="606" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A606" s="15"/>
       <c r="B606" s="15"/>
       <c r="C606" s="15"/>
@@ -13608,7 +13624,7 @@
       <c r="N606" s="2"/>
       <c r="O606" s="23"/>
     </row>
-    <row r="607" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A607" s="15"/>
       <c r="B607" s="15"/>
       <c r="C607" s="15"/>
@@ -13625,7 +13641,7 @@
       <c r="N607" s="2"/>
       <c r="O607" s="23"/>
     </row>
-    <row r="608" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A608" s="15"/>
       <c r="B608" s="15"/>
       <c r="C608" s="15"/>
@@ -13642,7 +13658,7 @@
       <c r="N608" s="2"/>
       <c r="O608" s="23"/>
     </row>
-    <row r="609" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A609" s="15"/>
       <c r="B609" s="15"/>
       <c r="C609" s="15"/>
@@ -13659,7 +13675,7 @@
       <c r="N609" s="2"/>
       <c r="O609" s="23"/>
     </row>
-    <row r="610" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A610" s="15"/>
       <c r="B610" s="15"/>
       <c r="C610" s="15"/>
@@ -13676,7 +13692,7 @@
       <c r="N610" s="2"/>
       <c r="O610" s="23"/>
     </row>
-    <row r="611" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A611" s="15"/>
       <c r="B611" s="15"/>
       <c r="C611" s="15"/>
@@ -13693,7 +13709,7 @@
       <c r="N611" s="2"/>
       <c r="O611" s="23"/>
     </row>
-    <row r="612" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A612" s="15"/>
       <c r="B612" s="15"/>
       <c r="C612" s="15"/>
@@ -13710,7 +13726,7 @@
       <c r="N612" s="2"/>
       <c r="O612" s="23"/>
     </row>
-    <row r="613" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A613" s="15"/>
       <c r="B613" s="15"/>
       <c r="C613" s="15"/>
@@ -13727,7 +13743,7 @@
       <c r="N613" s="2"/>
       <c r="O613" s="23"/>
     </row>
-    <row r="614" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A614" s="15"/>
       <c r="B614" s="15"/>
       <c r="C614" s="15"/>
@@ -13744,7 +13760,7 @@
       <c r="N614" s="2"/>
       <c r="O614" s="23"/>
     </row>
-    <row r="615" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A615" s="15"/>
       <c r="B615" s="15"/>
       <c r="C615" s="15"/>
@@ -13761,7 +13777,7 @@
       <c r="N615" s="2"/>
       <c r="O615" s="23"/>
     </row>
-    <row r="616" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A616" s="15"/>
       <c r="B616" s="15"/>
       <c r="C616" s="15"/>
@@ -13778,7 +13794,7 @@
       <c r="N616" s="2"/>
       <c r="O616" s="23"/>
     </row>
-    <row r="617" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A617" s="15"/>
       <c r="B617" s="15"/>
       <c r="C617" s="15"/>
@@ -13795,7 +13811,7 @@
       <c r="N617" s="2"/>
       <c r="O617" s="23"/>
     </row>
-    <row r="618" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A618" s="15"/>
       <c r="B618" s="15"/>
       <c r="C618" s="15"/>
@@ -13812,7 +13828,7 @@
       <c r="N618" s="2"/>
       <c r="O618" s="23"/>
     </row>
-    <row r="619" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A619" s="15"/>
       <c r="B619" s="15"/>
       <c r="C619" s="15"/>
@@ -13829,7 +13845,7 @@
       <c r="N619" s="2"/>
       <c r="O619" s="23"/>
     </row>
-    <row r="620" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A620" s="15"/>
       <c r="B620" s="15"/>
       <c r="C620" s="15"/>
@@ -13846,7 +13862,7 @@
       <c r="N620" s="2"/>
       <c r="O620" s="23"/>
     </row>
-    <row r="621" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A621" s="15"/>
       <c r="B621" s="15"/>
       <c r="C621" s="15"/>
@@ -13863,7 +13879,7 @@
       <c r="N621" s="2"/>
       <c r="O621" s="23"/>
     </row>
-    <row r="622" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A622" s="15"/>
       <c r="B622" s="15"/>
       <c r="C622" s="15"/>
@@ -13880,7 +13896,7 @@
       <c r="N622" s="2"/>
       <c r="O622" s="23"/>
     </row>
-    <row r="623" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A623" s="15"/>
       <c r="B623" s="15"/>
       <c r="C623" s="15"/>
@@ -13897,7 +13913,7 @@
       <c r="N623" s="2"/>
       <c r="O623" s="23"/>
     </row>
-    <row r="624" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A624" s="15"/>
       <c r="B624" s="15"/>
       <c r="C624" s="15"/>
@@ -13914,7 +13930,7 @@
       <c r="N624" s="2"/>
       <c r="O624" s="23"/>
     </row>
-    <row r="625" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A625" s="15"/>
       <c r="B625" s="15"/>
       <c r="C625" s="15"/>
@@ -13931,7 +13947,7 @@
       <c r="N625" s="2"/>
       <c r="O625" s="23"/>
     </row>
-    <row r="626" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A626" s="15"/>
       <c r="B626" s="15"/>
       <c r="C626" s="15"/>
@@ -13948,7 +13964,7 @@
       <c r="N626" s="2"/>
       <c r="O626" s="23"/>
     </row>
-    <row r="627" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A627" s="15"/>
       <c r="B627" s="15"/>
       <c r="C627" s="15"/>
@@ -13965,7 +13981,7 @@
       <c r="N627" s="2"/>
       <c r="O627" s="23"/>
     </row>
-    <row r="628" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A628" s="15"/>
       <c r="B628" s="15"/>
       <c r="C628" s="15"/>
@@ -13982,7 +13998,7 @@
       <c r="N628" s="2"/>
       <c r="O628" s="23"/>
     </row>
-    <row r="629" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A629" s="15"/>
       <c r="B629" s="15"/>
       <c r="C629" s="15"/>
@@ -13999,7 +14015,7 @@
       <c r="N629" s="2"/>
       <c r="O629" s="23"/>
     </row>
-    <row r="630" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A630" s="15"/>
       <c r="B630" s="15"/>
       <c r="C630" s="15"/>
@@ -14016,7 +14032,7 @@
       <c r="N630" s="2"/>
       <c r="O630" s="23"/>
     </row>
-    <row r="631" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A631" s="15"/>
       <c r="B631" s="15"/>
       <c r="C631" s="15"/>
@@ -14033,7 +14049,7 @@
       <c r="N631" s="2"/>
       <c r="O631" s="23"/>
     </row>
-    <row r="632" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A632" s="15"/>
       <c r="B632" s="15"/>
       <c r="C632" s="15"/>
@@ -14050,7 +14066,7 @@
       <c r="N632" s="2"/>
       <c r="O632" s="23"/>
     </row>
-    <row r="633" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A633" s="15"/>
       <c r="B633" s="15"/>
       <c r="C633" s="15"/>
@@ -14067,7 +14083,7 @@
       <c r="N633" s="2"/>
       <c r="O633" s="23"/>
     </row>
-    <row r="634" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A634" s="15"/>
       <c r="B634" s="15"/>
       <c r="C634" s="15"/>
@@ -14084,7 +14100,7 @@
       <c r="N634" s="2"/>
       <c r="O634" s="23"/>
     </row>
-    <row r="635" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A635" s="15"/>
       <c r="B635" s="15"/>
       <c r="C635" s="15"/>
@@ -14101,7 +14117,7 @@
       <c r="N635" s="2"/>
       <c r="O635" s="23"/>
     </row>
-    <row r="636" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A636" s="15"/>
       <c r="B636" s="15"/>
       <c r="C636" s="15"/>
@@ -14118,7 +14134,7 @@
       <c r="N636" s="2"/>
       <c r="O636" s="23"/>
     </row>
-    <row r="637" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A637" s="15"/>
       <c r="B637" s="15"/>
       <c r="C637" s="15"/>
@@ -14135,7 +14151,7 @@
       <c r="N637" s="2"/>
       <c r="O637" s="23"/>
     </row>
-    <row r="638" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A638" s="15"/>
       <c r="B638" s="15"/>
       <c r="C638" s="15"/>
@@ -14152,7 +14168,7 @@
       <c r="N638" s="2"/>
       <c r="O638" s="23"/>
     </row>
-    <row r="639" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A639" s="15"/>
       <c r="B639" s="15"/>
       <c r="C639" s="15"/>
@@ -14169,7 +14185,7 @@
       <c r="N639" s="2"/>
       <c r="O639" s="23"/>
     </row>
-    <row r="640" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A640" s="15"/>
       <c r="B640" s="15"/>
       <c r="C640" s="15"/>
@@ -14186,7 +14202,7 @@
       <c r="N640" s="2"/>
       <c r="O640" s="23"/>
     </row>
-    <row r="641" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A641" s="15"/>
       <c r="B641" s="15"/>
       <c r="C641" s="15"/>
@@ -14203,7 +14219,7 @@
       <c r="N641" s="2"/>
       <c r="O641" s="23"/>
     </row>
-    <row r="642" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A642" s="15"/>
       <c r="B642" s="15"/>
       <c r="C642" s="15"/>
@@ -14220,7 +14236,7 @@
       <c r="N642" s="2"/>
       <c r="O642" s="23"/>
     </row>
-    <row r="643" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A643" s="15"/>
       <c r="B643" s="15"/>
       <c r="C643" s="15"/>
@@ -14237,7 +14253,7 @@
       <c r="N643" s="2"/>
       <c r="O643" s="23"/>
     </row>
-    <row r="644" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A644" s="15"/>
       <c r="B644" s="15"/>
       <c r="C644" s="15"/>
@@ -14254,7 +14270,7 @@
       <c r="N644" s="2"/>
       <c r="O644" s="23"/>
     </row>
-    <row r="645" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A645" s="15"/>
       <c r="B645" s="15"/>
       <c r="C645" s="15"/>
@@ -14271,7 +14287,7 @@
       <c r="N645" s="2"/>
       <c r="O645" s="23"/>
     </row>
-    <row r="646" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A646" s="15"/>
       <c r="B646" s="15"/>
       <c r="C646" s="15"/>
@@ -14288,7 +14304,7 @@
       <c r="N646" s="2"/>
       <c r="O646" s="23"/>
     </row>
-    <row r="647" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A647" s="15"/>
       <c r="B647" s="15"/>
       <c r="C647" s="15"/>
@@ -14305,7 +14321,7 @@
       <c r="N647" s="2"/>
       <c r="O647" s="23"/>
     </row>
-    <row r="648" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A648" s="15"/>
       <c r="B648" s="15"/>
       <c r="C648" s="15"/>
@@ -14322,7 +14338,7 @@
       <c r="N648" s="2"/>
       <c r="O648" s="23"/>
     </row>
-    <row r="649" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A649" s="15"/>
       <c r="B649" s="15"/>
       <c r="C649" s="15"/>
@@ -14339,7 +14355,7 @@
       <c r="N649" s="2"/>
       <c r="O649" s="23"/>
     </row>
-    <row r="650" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A650" s="15"/>
       <c r="B650" s="15"/>
       <c r="C650" s="15"/>
@@ -14356,7 +14372,7 @@
       <c r="N650" s="2"/>
       <c r="O650" s="23"/>
     </row>
-    <row r="651" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A651" s="15"/>
       <c r="B651" s="15"/>
       <c r="C651" s="15"/>
@@ -14373,7 +14389,7 @@
       <c r="N651" s="2"/>
       <c r="O651" s="23"/>
     </row>
-    <row r="652" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A652" s="15"/>
       <c r="B652" s="15"/>
       <c r="C652" s="15"/>
@@ -14390,7 +14406,7 @@
       <c r="N652" s="2"/>
       <c r="O652" s="23"/>
     </row>
-    <row r="653" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A653" s="15"/>
       <c r="B653" s="15"/>
       <c r="C653" s="15"/>
@@ -14407,7 +14423,7 @@
       <c r="N653" s="2"/>
       <c r="O653" s="23"/>
     </row>
-    <row r="654" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A654" s="15"/>
       <c r="B654" s="15"/>
       <c r="C654" s="15"/>
@@ -14424,7 +14440,7 @@
       <c r="N654" s="2"/>
       <c r="O654" s="23"/>
     </row>
-    <row r="655" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A655" s="15"/>
       <c r="B655" s="15"/>
       <c r="C655" s="15"/>
@@ -14441,7 +14457,7 @@
       <c r="N655" s="2"/>
       <c r="O655" s="23"/>
     </row>
-    <row r="656" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A656" s="15"/>
       <c r="B656" s="15"/>
       <c r="C656" s="15"/>
@@ -14458,7 +14474,7 @@
       <c r="N656" s="2"/>
       <c r="O656" s="23"/>
     </row>
-    <row r="657" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A657" s="15"/>
       <c r="B657" s="15"/>
       <c r="C657" s="15"/>
@@ -14475,7 +14491,7 @@
       <c r="N657" s="2"/>
       <c r="O657" s="23"/>
     </row>
-    <row r="658" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A658" s="15"/>
       <c r="B658" s="15"/>
       <c r="C658" s="15"/>
@@ -14492,7 +14508,7 @@
       <c r="N658" s="2"/>
       <c r="O658" s="23"/>
     </row>
-    <row r="659" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A659" s="15"/>
       <c r="B659" s="15"/>
       <c r="C659" s="15"/>
@@ -14509,7 +14525,7 @@
       <c r="N659" s="2"/>
       <c r="O659" s="23"/>
     </row>
-    <row r="660" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A660" s="15"/>
       <c r="B660" s="15"/>
       <c r="C660" s="15"/>
@@ -14526,7 +14542,7 @@
       <c r="N660" s="2"/>
       <c r="O660" s="23"/>
     </row>
-    <row r="661" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A661" s="15"/>
       <c r="B661" s="15"/>
       <c r="C661" s="15"/>
@@ -14543,7 +14559,7 @@
       <c r="N661" s="2"/>
       <c r="O661" s="23"/>
     </row>
-    <row r="662" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A662" s="15"/>
       <c r="B662" s="15"/>
       <c r="C662" s="15"/>
@@ -14560,7 +14576,7 @@
       <c r="N662" s="2"/>
       <c r="O662" s="23"/>
     </row>
-    <row r="663" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A663" s="15"/>
       <c r="B663" s="15"/>
       <c r="C663" s="15"/>
@@ -14577,7 +14593,7 @@
       <c r="N663" s="2"/>
       <c r="O663" s="23"/>
     </row>
-    <row r="664" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A664" s="15"/>
       <c r="B664" s="15"/>
       <c r="C664" s="15"/>
@@ -14594,7 +14610,7 @@
       <c r="N664" s="2"/>
       <c r="O664" s="23"/>
     </row>
-    <row r="665" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A665" s="15"/>
       <c r="B665" s="15"/>
       <c r="C665" s="15"/>
@@ -14611,7 +14627,7 @@
       <c r="N665" s="2"/>
       <c r="O665" s="23"/>
     </row>
-    <row r="666" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A666" s="15"/>
       <c r="B666" s="15"/>
       <c r="C666" s="15"/>
@@ -14628,7 +14644,7 @@
       <c r="N666" s="2"/>
       <c r="O666" s="23"/>
     </row>
-    <row r="667" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A667" s="15"/>
       <c r="B667" s="15"/>
       <c r="C667" s="15"/>
@@ -14645,7 +14661,7 @@
       <c r="N667" s="2"/>
       <c r="O667" s="23"/>
     </row>
-    <row r="668" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A668" s="15"/>
       <c r="B668" s="15"/>
       <c r="C668" s="15"/>
@@ -14662,7 +14678,7 @@
       <c r="N668" s="2"/>
       <c r="O668" s="23"/>
     </row>
-    <row r="669" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A669" s="15"/>
       <c r="B669" s="15"/>
       <c r="C669" s="15"/>
@@ -14679,7 +14695,7 @@
       <c r="N669" s="2"/>
       <c r="O669" s="23"/>
     </row>
-    <row r="670" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A670" s="15"/>
       <c r="B670" s="15"/>
       <c r="C670" s="15"/>
@@ -14696,7 +14712,7 @@
       <c r="N670" s="2"/>
       <c r="O670" s="23"/>
     </row>
-    <row r="671" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A671" s="15"/>
       <c r="B671" s="15"/>
       <c r="C671" s="15"/>
@@ -14713,7 +14729,7 @@
       <c r="N671" s="2"/>
       <c r="O671" s="23"/>
     </row>
-    <row r="672" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A672" s="15"/>
       <c r="B672" s="15"/>
       <c r="C672" s="15"/>
@@ -14730,7 +14746,7 @@
       <c r="N672" s="2"/>
       <c r="O672" s="23"/>
     </row>
-    <row r="673" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A673" s="15"/>
       <c r="B673" s="15"/>
       <c r="C673" s="15"/>
@@ -14747,7 +14763,7 @@
       <c r="N673" s="2"/>
       <c r="O673" s="23"/>
     </row>
-    <row r="674" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A674" s="15"/>
       <c r="B674" s="15"/>
       <c r="C674" s="15"/>
@@ -14764,7 +14780,7 @@
       <c r="N674" s="2"/>
       <c r="O674" s="23"/>
     </row>
-    <row r="675" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A675" s="15"/>
       <c r="B675" s="15"/>
       <c r="C675" s="15"/>
@@ -14781,7 +14797,7 @@
       <c r="N675" s="2"/>
       <c r="O675" s="23"/>
     </row>
-    <row r="676" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A676" s="15"/>
       <c r="B676" s="15"/>
       <c r="C676" s="15"/>
@@ -14798,7 +14814,7 @@
       <c r="N676" s="2"/>
       <c r="O676" s="23"/>
     </row>
-    <row r="677" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A677" s="15"/>
       <c r="B677" s="15"/>
       <c r="C677" s="15"/>
@@ -14815,7 +14831,7 @@
       <c r="N677" s="2"/>
       <c r="O677" s="23"/>
     </row>
-    <row r="678" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A678" s="15"/>
       <c r="B678" s="15"/>
       <c r="C678" s="15"/>
@@ -14832,7 +14848,7 @@
       <c r="N678" s="2"/>
       <c r="O678" s="23"/>
     </row>
-    <row r="679" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A679" s="15"/>
       <c r="B679" s="15"/>
       <c r="C679" s="15"/>
@@ -14849,7 +14865,7 @@
       <c r="N679" s="2"/>
       <c r="O679" s="23"/>
     </row>
-    <row r="680" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A680" s="15"/>
       <c r="B680" s="15"/>
       <c r="C680" s="15"/>
@@ -14866,7 +14882,7 @@
       <c r="N680" s="2"/>
       <c r="O680" s="23"/>
     </row>
-    <row r="681" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A681" s="15"/>
       <c r="B681" s="15"/>
       <c r="C681" s="15"/>
@@ -14883,7 +14899,7 @@
       <c r="N681" s="2"/>
       <c r="O681" s="23"/>
     </row>
-    <row r="682" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A682" s="15"/>
       <c r="B682" s="15"/>
       <c r="C682" s="15"/>
@@ -14900,7 +14916,7 @@
       <c r="N682" s="2"/>
       <c r="O682" s="23"/>
     </row>
-    <row r="683" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A683" s="15"/>
       <c r="B683" s="15"/>
       <c r="C683" s="15"/>
@@ -14917,7 +14933,7 @@
       <c r="N683" s="2"/>
       <c r="O683" s="23"/>
     </row>
-    <row r="684" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A684" s="15"/>
       <c r="B684" s="15"/>
       <c r="C684" s="15"/>
@@ -14934,7 +14950,7 @@
       <c r="N684" s="2"/>
       <c r="O684" s="23"/>
     </row>
-    <row r="685" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A685" s="15"/>
       <c r="B685" s="15"/>
       <c r="C685" s="15"/>
@@ -14951,7 +14967,7 @@
       <c r="N685" s="2"/>
       <c r="O685" s="23"/>
     </row>
-    <row r="686" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A686" s="15"/>
       <c r="B686" s="15"/>
       <c r="C686" s="15"/>
@@ -14968,7 +14984,7 @@
       <c r="N686" s="2"/>
       <c r="O686" s="23"/>
     </row>
-    <row r="687" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A687" s="15"/>
       <c r="B687" s="15"/>
       <c r="C687" s="15"/>
@@ -14985,7 +15001,7 @@
       <c r="N687" s="2"/>
       <c r="O687" s="23"/>
     </row>
-    <row r="688" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A688" s="15"/>
       <c r="B688" s="15"/>
       <c r="C688" s="15"/>
@@ -15002,7 +15018,7 @@
       <c r="N688" s="2"/>
       <c r="O688" s="23"/>
     </row>
-    <row r="689" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A689" s="15"/>
       <c r="B689" s="15"/>
       <c r="C689" s="15"/>
@@ -15019,7 +15035,7 @@
       <c r="N689" s="2"/>
       <c r="O689" s="23"/>
     </row>
-    <row r="690" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A690" s="15"/>
       <c r="B690" s="15"/>
       <c r="C690" s="15"/>
@@ -15036,7 +15052,7 @@
       <c r="N690" s="2"/>
       <c r="O690" s="23"/>
     </row>
-    <row r="691" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A691" s="15"/>
       <c r="B691" s="15"/>
       <c r="C691" s="15"/>
@@ -15053,7 +15069,7 @@
       <c r="N691" s="2"/>
       <c r="O691" s="23"/>
     </row>
-    <row r="692" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A692" s="15"/>
       <c r="B692" s="15"/>
       <c r="C692" s="15"/>
@@ -15070,7 +15086,7 @@
       <c r="N692" s="2"/>
       <c r="O692" s="23"/>
     </row>
-    <row r="693" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A693" s="15"/>
       <c r="B693" s="15"/>
       <c r="C693" s="15"/>
@@ -15087,7 +15103,7 @@
       <c r="N693" s="2"/>
       <c r="O693" s="23"/>
     </row>
-    <row r="694" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A694" s="15"/>
       <c r="B694" s="15"/>
       <c r="C694" s="15"/>
@@ -15104,7 +15120,7 @@
       <c r="N694" s="2"/>
       <c r="O694" s="23"/>
     </row>
-    <row r="695" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A695" s="15"/>
       <c r="B695" s="15"/>
       <c r="C695" s="15"/>
@@ -15121,7 +15137,7 @@
       <c r="N695" s="2"/>
       <c r="O695" s="23"/>
     </row>
-    <row r="696" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A696" s="15"/>
       <c r="B696" s="15"/>
       <c r="C696" s="15"/>
@@ -15138,7 +15154,7 @@
       <c r="N696" s="2"/>
       <c r="O696" s="23"/>
     </row>
-    <row r="697" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A697" s="15"/>
       <c r="B697" s="15"/>
       <c r="C697" s="15"/>
@@ -15155,7 +15171,7 @@
       <c r="N697" s="2"/>
       <c r="O697" s="23"/>
     </row>
-    <row r="698" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A698" s="15"/>
       <c r="B698" s="15"/>
       <c r="C698" s="15"/>
@@ -15172,7 +15188,7 @@
       <c r="N698" s="2"/>
       <c r="O698" s="23"/>
     </row>
-    <row r="699" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A699" s="15"/>
       <c r="B699" s="15"/>
       <c r="C699" s="15"/>
@@ -15189,7 +15205,7 @@
       <c r="N699" s="2"/>
       <c r="O699" s="23"/>
     </row>
-    <row r="700" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A700" s="15"/>
       <c r="B700" s="15"/>
       <c r="C700" s="15"/>
@@ -15206,7 +15222,7 @@
       <c r="N700" s="2"/>
       <c r="O700" s="23"/>
     </row>
-    <row r="701" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A701" s="15"/>
       <c r="B701" s="15"/>
       <c r="C701" s="15"/>
@@ -15223,7 +15239,7 @@
       <c r="N701" s="2"/>
       <c r="O701" s="23"/>
     </row>
-    <row r="702" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A702" s="15"/>
       <c r="B702" s="15"/>
       <c r="C702" s="15"/>
@@ -15240,7 +15256,7 @@
       <c r="N702" s="2"/>
       <c r="O702" s="23"/>
     </row>
-    <row r="703" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A703" s="15"/>
       <c r="B703" s="15"/>
       <c r="C703" s="15"/>
@@ -15257,7 +15273,7 @@
       <c r="N703" s="2"/>
       <c r="O703" s="23"/>
     </row>
-    <row r="704" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A704" s="15"/>
       <c r="B704" s="15"/>
       <c r="C704" s="15"/>
@@ -15274,7 +15290,7 @@
       <c r="N704" s="2"/>
       <c r="O704" s="23"/>
     </row>
-    <row r="705" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A705" s="15"/>
       <c r="B705" s="15"/>
       <c r="C705" s="15"/>
@@ -15291,7 +15307,7 @@
       <c r="N705" s="2"/>
       <c r="O705" s="23"/>
     </row>
-    <row r="706" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A706" s="15"/>
       <c r="B706" s="15"/>
       <c r="C706" s="15"/>
@@ -15308,7 +15324,7 @@
       <c r="N706" s="2"/>
       <c r="O706" s="23"/>
     </row>
-    <row r="707" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A707" s="15"/>
       <c r="B707" s="15"/>
       <c r="C707" s="15"/>
@@ -15325,7 +15341,7 @@
       <c r="N707" s="2"/>
       <c r="O707" s="23"/>
     </row>
-    <row r="708" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A708" s="15"/>
       <c r="B708" s="15"/>
       <c r="C708" s="15"/>
@@ -15342,7 +15358,7 @@
       <c r="N708" s="2"/>
       <c r="O708" s="23"/>
     </row>
-    <row r="709" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A709" s="15"/>
       <c r="B709" s="15"/>
       <c r="C709" s="15"/>
@@ -15359,7 +15375,7 @@
       <c r="N709" s="2"/>
       <c r="O709" s="23"/>
     </row>
-    <row r="710" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A710" s="15"/>
       <c r="B710" s="15"/>
       <c r="C710" s="15"/>
@@ -15376,7 +15392,7 @@
       <c r="N710" s="2"/>
       <c r="O710" s="23"/>
     </row>
-    <row r="711" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A711" s="15"/>
       <c r="B711" s="15"/>
       <c r="C711" s="15"/>
@@ -15393,7 +15409,7 @@
       <c r="N711" s="2"/>
       <c r="O711" s="23"/>
     </row>
-    <row r="712" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A712" s="15"/>
       <c r="B712" s="15"/>
       <c r="C712" s="15"/>
@@ -15410,7 +15426,7 @@
       <c r="N712" s="2"/>
       <c r="O712" s="23"/>
     </row>
-    <row r="713" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A713" s="15"/>
       <c r="B713" s="15"/>
       <c r="C713" s="15"/>
@@ -15427,7 +15443,7 @@
       <c r="N713" s="2"/>
       <c r="O713" s="23"/>
     </row>
-    <row r="714" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A714" s="15"/>
       <c r="B714" s="15"/>
       <c r="C714" s="15"/>
@@ -15444,7 +15460,7 @@
       <c r="N714" s="2"/>
       <c r="O714" s="23"/>
     </row>
-    <row r="715" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A715" s="15"/>
       <c r="B715" s="15"/>
       <c r="C715" s="15"/>
@@ -15461,7 +15477,7 @@
       <c r="N715" s="2"/>
       <c r="O715" s="23"/>
     </row>
-    <row r="716" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A716" s="15"/>
       <c r="B716" s="15"/>
       <c r="C716" s="15"/>
@@ -15478,7 +15494,7 @@
       <c r="N716" s="2"/>
       <c r="O716" s="23"/>
     </row>
-    <row r="717" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A717" s="15"/>
       <c r="B717" s="15"/>
       <c r="C717" s="15"/>
@@ -15495,7 +15511,7 @@
       <c r="N717" s="2"/>
       <c r="O717" s="23"/>
     </row>
-    <row r="718" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A718" s="15"/>
       <c r="B718" s="15"/>
       <c r="C718" s="15"/>
@@ -15512,7 +15528,7 @@
       <c r="N718" s="2"/>
       <c r="O718" s="23"/>
     </row>
-    <row r="719" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A719" s="15"/>
       <c r="B719" s="15"/>
       <c r="C719" s="15"/>
@@ -15529,7 +15545,7 @@
       <c r="N719" s="2"/>
       <c r="O719" s="23"/>
     </row>
-    <row r="720" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A720" s="15"/>
       <c r="B720" s="15"/>
       <c r="C720" s="15"/>
@@ -15546,7 +15562,7 @@
       <c r="N720" s="2"/>
       <c r="O720" s="23"/>
     </row>
-    <row r="721" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A721" s="15"/>
       <c r="B721" s="15"/>
       <c r="C721" s="15"/>
@@ -15563,7 +15579,7 @@
       <c r="N721" s="2"/>
       <c r="O721" s="23"/>
     </row>
-    <row r="722" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A722" s="15"/>
       <c r="B722" s="15"/>
       <c r="C722" s="15"/>
@@ -15580,7 +15596,7 @@
       <c r="N722" s="2"/>
       <c r="O722" s="23"/>
     </row>
-    <row r="723" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A723" s="15"/>
       <c r="B723" s="15"/>
       <c r="C723" s="15"/>
@@ -15597,7 +15613,7 @@
       <c r="N723" s="2"/>
       <c r="O723" s="23"/>
     </row>
-    <row r="724" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A724" s="15"/>
       <c r="B724" s="15"/>
       <c r="C724" s="15"/>
@@ -15614,7 +15630,7 @@
       <c r="N724" s="2"/>
       <c r="O724" s="23"/>
     </row>
-    <row r="725" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A725" s="15"/>
       <c r="B725" s="15"/>
       <c r="C725" s="15"/>
@@ -15631,7 +15647,7 @@
       <c r="N725" s="2"/>
       <c r="O725" s="23"/>
     </row>
-    <row r="726" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A726" s="15"/>
       <c r="B726" s="15"/>
       <c r="C726" s="15"/>
@@ -15648,7 +15664,7 @@
       <c r="N726" s="2"/>
       <c r="O726" s="23"/>
     </row>
-    <row r="727" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A727" s="15"/>
       <c r="B727" s="15"/>
       <c r="C727" s="15"/>
@@ -15665,7 +15681,7 @@
       <c r="N727" s="2"/>
       <c r="O727" s="23"/>
     </row>
-    <row r="728" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A728" s="15"/>
       <c r="B728" s="15"/>
       <c r="C728" s="15"/>
@@ -15682,7 +15698,7 @@
       <c r="N728" s="2"/>
       <c r="O728" s="23"/>
     </row>
-    <row r="729" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A729" s="15"/>
       <c r="B729" s="15"/>
       <c r="C729" s="15"/>
@@ -15699,7 +15715,7 @@
       <c r="N729" s="2"/>
       <c r="O729" s="23"/>
     </row>
-    <row r="730" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A730" s="15"/>
       <c r="B730" s="15"/>
       <c r="C730" s="15"/>
@@ -15716,7 +15732,7 @@
       <c r="N730" s="2"/>
       <c r="O730" s="23"/>
     </row>
-    <row r="731" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A731" s="15"/>
       <c r="B731" s="15"/>
       <c r="C731" s="15"/>
@@ -15733,7 +15749,7 @@
       <c r="N731" s="2"/>
       <c r="O731" s="23"/>
     </row>
-    <row r="732" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A732" s="15"/>
       <c r="B732" s="15"/>
       <c r="C732" s="15"/>
@@ -15750,7 +15766,7 @@
       <c r="N732" s="2"/>
       <c r="O732" s="23"/>
     </row>
-    <row r="733" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A733" s="15"/>
       <c r="B733" s="15"/>
       <c r="C733" s="15"/>
@@ -15767,7 +15783,7 @@
       <c r="N733" s="2"/>
       <c r="O733" s="23"/>
     </row>
-    <row r="734" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A734" s="15"/>
       <c r="B734" s="15"/>
       <c r="C734" s="15"/>
@@ -15784,7 +15800,7 @@
       <c r="N734" s="2"/>
       <c r="O734" s="23"/>
     </row>
-    <row r="735" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A735" s="15"/>
       <c r="B735" s="15"/>
       <c r="C735" s="15"/>
@@ -15801,7 +15817,7 @@
       <c r="N735" s="2"/>
       <c r="O735" s="23"/>
     </row>
-    <row r="736" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A736" s="15"/>
       <c r="B736" s="15"/>
       <c r="C736" s="15"/>
@@ -15818,7 +15834,7 @@
       <c r="N736" s="2"/>
       <c r="O736" s="23"/>
     </row>
-    <row r="737" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A737" s="15"/>
       <c r="B737" s="15"/>
       <c r="C737" s="15"/>
@@ -15835,7 +15851,7 @@
       <c r="N737" s="2"/>
       <c r="O737" s="23"/>
     </row>
-    <row r="738" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A738" s="15"/>
       <c r="B738" s="15"/>
       <c r="C738" s="15"/>
@@ -15852,7 +15868,7 @@
       <c r="N738" s="2"/>
       <c r="O738" s="23"/>
     </row>
-    <row r="739" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A739" s="15"/>
       <c r="B739" s="15"/>
       <c r="C739" s="15"/>
@@ -15869,7 +15885,7 @@
       <c r="N739" s="2"/>
       <c r="O739" s="23"/>
     </row>
-    <row r="740" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A740" s="15"/>
       <c r="B740" s="15"/>
       <c r="C740" s="15"/>
@@ -15886,7 +15902,7 @@
       <c r="N740" s="2"/>
       <c r="O740" s="23"/>
     </row>
-    <row r="741" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A741" s="15"/>
       <c r="B741" s="15"/>
       <c r="C741" s="15"/>
@@ -15903,7 +15919,7 @@
       <c r="N741" s="2"/>
       <c r="O741" s="23"/>
     </row>
-    <row r="742" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A742" s="15"/>
       <c r="B742" s="15"/>
       <c r="C742" s="15"/>
@@ -15920,7 +15936,7 @@
       <c r="N742" s="2"/>
       <c r="O742" s="23"/>
     </row>
-    <row r="743" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A743" s="15"/>
       <c r="B743" s="15"/>
       <c r="C743" s="15"/>
@@ -15937,7 +15953,7 @@
       <c r="N743" s="2"/>
       <c r="O743" s="23"/>
     </row>
-    <row r="744" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A744" s="15"/>
       <c r="B744" s="15"/>
       <c r="C744" s="15"/>
@@ -15954,7 +15970,7 @@
       <c r="N744" s="2"/>
       <c r="O744" s="23"/>
     </row>
-    <row r="745" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A745" s="15"/>
       <c r="B745" s="15"/>
       <c r="C745" s="15"/>
@@ -15971,7 +15987,7 @@
       <c r="N745" s="2"/>
       <c r="O745" s="23"/>
     </row>
-    <row r="746" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A746" s="15"/>
       <c r="B746" s="15"/>
       <c r="C746" s="15"/>
@@ -15988,7 +16004,7 @@
       <c r="N746" s="2"/>
       <c r="O746" s="23"/>
     </row>
-    <row r="747" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A747" s="15"/>
       <c r="B747" s="15"/>
       <c r="C747" s="15"/>
@@ -16005,7 +16021,7 @@
       <c r="N747" s="2"/>
       <c r="O747" s="23"/>
     </row>
-    <row r="748" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A748" s="15"/>
       <c r="B748" s="15"/>
       <c r="C748" s="15"/>
@@ -16022,7 +16038,7 @@
       <c r="N748" s="2"/>
       <c r="O748" s="23"/>
     </row>
-    <row r="749" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A749" s="15"/>
       <c r="B749" s="15"/>
       <c r="C749" s="15"/>
@@ -16039,7 +16055,7 @@
       <c r="N749" s="2"/>
       <c r="O749" s="23"/>
     </row>
-    <row r="750" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A750" s="15"/>
       <c r="B750" s="15"/>
       <c r="C750" s="15"/>
@@ -16056,7 +16072,7 @@
       <c r="N750" s="2"/>
       <c r="O750" s="23"/>
     </row>
-    <row r="751" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A751" s="15"/>
       <c r="B751" s="15"/>
       <c r="C751" s="15"/>
@@ -16073,7 +16089,7 @@
       <c r="N751" s="2"/>
       <c r="O751" s="23"/>
     </row>
-    <row r="752" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A752" s="15"/>
       <c r="B752" s="15"/>
       <c r="C752" s="15"/>
@@ -16090,7 +16106,7 @@
       <c r="N752" s="2"/>
       <c r="O752" s="23"/>
     </row>
-    <row r="753" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A753" s="15"/>
       <c r="B753" s="15"/>
       <c r="C753" s="15"/>
@@ -16107,7 +16123,7 @@
       <c r="N753" s="2"/>
       <c r="O753" s="23"/>
     </row>
-    <row r="754" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A754" s="15"/>
       <c r="B754" s="15"/>
       <c r="C754" s="15"/>
@@ -16124,7 +16140,7 @@
       <c r="N754" s="2"/>
       <c r="O754" s="23"/>
     </row>
-    <row r="755" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A755" s="15"/>
       <c r="B755" s="15"/>
       <c r="C755" s="15"/>
@@ -16141,7 +16157,7 @@
       <c r="N755" s="2"/>
       <c r="O755" s="23"/>
     </row>
-    <row r="756" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A756" s="15"/>
       <c r="B756" s="15"/>
       <c r="C756" s="15"/>
@@ -16158,7 +16174,7 @@
       <c r="N756" s="2"/>
       <c r="O756" s="23"/>
     </row>
-    <row r="757" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A757" s="15"/>
       <c r="B757" s="15"/>
       <c r="C757" s="15"/>
@@ -16175,7 +16191,7 @@
       <c r="N757" s="2"/>
       <c r="O757" s="23"/>
     </row>
-    <row r="758" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A758" s="15"/>
       <c r="B758" s="15"/>
       <c r="C758" s="15"/>
@@ -16192,7 +16208,7 @@
       <c r="N758" s="2"/>
       <c r="O758" s="23"/>
     </row>
-    <row r="759" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A759" s="15"/>
       <c r="B759" s="15"/>
       <c r="C759" s="15"/>
@@ -16209,7 +16225,7 @@
       <c r="N759" s="2"/>
       <c r="O759" s="23"/>
     </row>
-    <row r="760" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A760" s="15"/>
       <c r="B760" s="15"/>
       <c r="C760" s="15"/>
@@ -16226,7 +16242,7 @@
       <c r="N760" s="2"/>
       <c r="O760" s="23"/>
     </row>
-    <row r="761" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A761" s="15"/>
       <c r="B761" s="15"/>
       <c r="C761" s="15"/>
@@ -16243,7 +16259,7 @@
       <c r="N761" s="2"/>
       <c r="O761" s="23"/>
     </row>
-    <row r="762" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A762" s="15"/>
       <c r="B762" s="15"/>
       <c r="C762" s="15"/>
@@ -16260,7 +16276,7 @@
       <c r="N762" s="2"/>
       <c r="O762" s="23"/>
     </row>
-    <row r="763" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A763" s="15"/>
       <c r="B763" s="15"/>
       <c r="C763" s="15"/>
@@ -16277,7 +16293,7 @@
       <c r="N763" s="2"/>
       <c r="O763" s="23"/>
     </row>
-    <row r="764" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A764" s="15"/>
       <c r="B764" s="15"/>
       <c r="C764" s="15"/>
@@ -16294,7 +16310,7 @@
       <c r="N764" s="2"/>
       <c r="O764" s="23"/>
     </row>
-    <row r="765" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A765" s="15"/>
       <c r="B765" s="15"/>
       <c r="C765" s="15"/>
@@ -16311,7 +16327,7 @@
       <c r="N765" s="2"/>
       <c r="O765" s="23"/>
     </row>
-    <row r="766" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A766" s="15"/>
       <c r="B766" s="15"/>
       <c r="C766" s="15"/>
@@ -16328,7 +16344,7 @@
       <c r="N766" s="2"/>
       <c r="O766" s="23"/>
     </row>
-    <row r="767" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A767" s="15"/>
       <c r="B767" s="15"/>
       <c r="C767" s="15"/>
@@ -16345,7 +16361,7 @@
       <c r="N767" s="2"/>
       <c r="O767" s="23"/>
     </row>
-    <row r="768" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A768" s="15"/>
       <c r="B768" s="15"/>
       <c r="C768" s="15"/>
@@ -16362,7 +16378,7 @@
       <c r="N768" s="2"/>
       <c r="O768" s="23"/>
     </row>
-    <row r="769" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A769" s="15"/>
       <c r="B769" s="15"/>
       <c r="C769" s="15"/>
@@ -16379,7 +16395,7 @@
       <c r="N769" s="2"/>
       <c r="O769" s="23"/>
     </row>
-    <row r="770" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A770" s="15"/>
       <c r="B770" s="15"/>
       <c r="C770" s="15"/>
@@ -16396,7 +16412,7 @@
       <c r="N770" s="2"/>
       <c r="O770" s="23"/>
     </row>
-    <row r="771" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A771" s="15"/>
       <c r="B771" s="15"/>
       <c r="C771" s="15"/>
@@ -16413,7 +16429,7 @@
       <c r="N771" s="2"/>
       <c r="O771" s="23"/>
     </row>
-    <row r="772" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A772" s="15"/>
       <c r="B772" s="15"/>
       <c r="C772" s="15"/>
@@ -16430,7 +16446,7 @@
       <c r="N772" s="2"/>
       <c r="O772" s="23"/>
     </row>
-    <row r="773" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A773" s="15"/>
       <c r="B773" s="15"/>
       <c r="C773" s="15"/>
@@ -16447,7 +16463,7 @@
       <c r="N773" s="2"/>
       <c r="O773" s="23"/>
     </row>
-    <row r="774" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A774" s="15"/>
       <c r="B774" s="15"/>
       <c r="C774" s="15"/>
@@ -16464,7 +16480,7 @@
       <c r="N774" s="2"/>
       <c r="O774" s="23"/>
     </row>
-    <row r="775" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A775" s="15"/>
       <c r="B775" s="15"/>
       <c r="C775" s="15"/>
@@ -16481,7 +16497,7 @@
       <c r="N775" s="2"/>
       <c r="O775" s="23"/>
     </row>
-    <row r="776" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A776" s="15"/>
       <c r="B776" s="15"/>
       <c r="C776" s="15"/>
@@ -16498,7 +16514,7 @@
       <c r="N776" s="2"/>
       <c r="O776" s="23"/>
     </row>
-    <row r="777" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A777" s="15"/>
       <c r="B777" s="15"/>
       <c r="C777" s="15"/>
@@ -16515,7 +16531,7 @@
       <c r="N777" s="2"/>
       <c r="O777" s="23"/>
     </row>
-    <row r="778" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A778" s="15"/>
       <c r="B778" s="15"/>
       <c r="C778" s="15"/>
@@ -16532,7 +16548,7 @@
       <c r="N778" s="2"/>
       <c r="O778" s="23"/>
     </row>
-    <row r="779" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A779" s="15"/>
       <c r="B779" s="15"/>
       <c r="C779" s="15"/>
@@ -16549,7 +16565,7 @@
       <c r="N779" s="2"/>
       <c r="O779" s="23"/>
     </row>
-    <row r="780" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A780" s="15"/>
       <c r="B780" s="15"/>
       <c r="C780" s="15"/>
@@ -16566,7 +16582,7 @@
       <c r="N780" s="2"/>
       <c r="O780" s="23"/>
     </row>
-    <row r="781" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A781" s="15"/>
       <c r="B781" s="15"/>
       <c r="C781" s="15"/>
@@ -16583,7 +16599,7 @@
       <c r="N781" s="2"/>
       <c r="O781" s="23"/>
     </row>
-    <row r="782" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A782" s="15"/>
       <c r="B782" s="15"/>
       <c r="C782" s="15"/>
@@ -16600,7 +16616,7 @@
       <c r="N782" s="2"/>
       <c r="O782" s="23"/>
     </row>
-    <row r="783" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A783" s="15"/>
       <c r="B783" s="15"/>
       <c r="C783" s="15"/>
@@ -16617,7 +16633,7 @@
       <c r="N783" s="2"/>
       <c r="O783" s="23"/>
     </row>
-    <row r="784" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A784" s="15"/>
       <c r="B784" s="15"/>
       <c r="C784" s="15"/>
@@ -16634,7 +16650,7 @@
       <c r="N784" s="2"/>
       <c r="O784" s="23"/>
     </row>
-    <row r="785" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A785" s="15"/>
       <c r="B785" s="15"/>
       <c r="C785" s="15"/>
@@ -16651,7 +16667,7 @@
       <c r="N785" s="2"/>
       <c r="O785" s="23"/>
     </row>
-    <row r="786" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A786" s="15"/>
       <c r="B786" s="15"/>
       <c r="C786" s="15"/>
@@ -16668,7 +16684,7 @@
       <c r="N786" s="2"/>
       <c r="O786" s="23"/>
     </row>
-    <row r="787" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A787" s="15"/>
       <c r="B787" s="15"/>
       <c r="C787" s="15"/>
@@ -16685,7 +16701,7 @@
       <c r="N787" s="2"/>
       <c r="O787" s="23"/>
     </row>
-    <row r="788" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A788" s="15"/>
       <c r="B788" s="15"/>
       <c r="C788" s="15"/>
@@ -16702,7 +16718,7 @@
       <c r="N788" s="2"/>
       <c r="O788" s="23"/>
     </row>
-    <row r="789" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A789" s="15"/>
       <c r="B789" s="15"/>
       <c r="C789" s="15"/>
@@ -16719,7 +16735,7 @@
       <c r="N789" s="2"/>
       <c r="O789" s="23"/>
     </row>
-    <row r="790" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A790" s="15"/>
       <c r="B790" s="15"/>
       <c r="C790" s="15"/>
@@ -16736,7 +16752,7 @@
       <c r="N790" s="2"/>
       <c r="O790" s="23"/>
     </row>
-    <row r="791" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A791" s="15"/>
       <c r="B791" s="15"/>
       <c r="C791" s="15"/>
@@ -16753,7 +16769,7 @@
       <c r="N791" s="2"/>
       <c r="O791" s="23"/>
     </row>
-    <row r="792" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A792" s="15"/>
       <c r="B792" s="15"/>
       <c r="C792" s="15"/>
@@ -16770,7 +16786,7 @@
       <c r="N792" s="2"/>
       <c r="O792" s="23"/>
     </row>
-    <row r="793" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A793" s="15"/>
       <c r="B793" s="15"/>
       <c r="C793" s="15"/>
@@ -16787,7 +16803,7 @@
       <c r="N793" s="2"/>
       <c r="O793" s="23"/>
     </row>
-    <row r="794" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A794" s="15"/>
       <c r="B794" s="15"/>
       <c r="C794" s="15"/>
@@ -16804,7 +16820,7 @@
       <c r="N794" s="2"/>
       <c r="O794" s="23"/>
     </row>
-    <row r="795" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A795" s="15"/>
       <c r="B795" s="15"/>
       <c r="C795" s="15"/>
@@ -16821,7 +16837,7 @@
       <c r="N795" s="2"/>
       <c r="O795" s="23"/>
     </row>
-    <row r="796" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A796" s="15"/>
       <c r="B796" s="15"/>
       <c r="C796" s="15"/>
@@ -16838,7 +16854,7 @@
       <c r="N796" s="2"/>
       <c r="O796" s="23"/>
     </row>
-    <row r="797" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A797" s="15"/>
       <c r="B797" s="15"/>
       <c r="C797" s="15"/>
@@ -16855,7 +16871,7 @@
       <c r="N797" s="2"/>
       <c r="O797" s="23"/>
     </row>
-    <row r="798" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A798" s="15"/>
       <c r="B798" s="15"/>
       <c r="C798" s="15"/>
@@ -16872,7 +16888,7 @@
       <c r="N798" s="2"/>
       <c r="O798" s="23"/>
     </row>
-    <row r="799" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A799" s="15"/>
       <c r="B799" s="15"/>
       <c r="C799" s="15"/>
@@ -16889,7 +16905,7 @@
       <c r="N799" s="2"/>
       <c r="O799" s="23"/>
     </row>
-    <row r="800" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A800" s="15"/>
       <c r="B800" s="15"/>
       <c r="C800" s="15"/>
@@ -16906,7 +16922,7 @@
       <c r="N800" s="2"/>
       <c r="O800" s="23"/>
     </row>
-    <row r="801" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A801" s="15"/>
       <c r="B801" s="15"/>
       <c r="C801" s="15"/>
@@ -16923,7 +16939,7 @@
       <c r="N801" s="2"/>
       <c r="O801" s="23"/>
     </row>
-    <row r="802" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A802" s="15"/>
       <c r="B802" s="15"/>
       <c r="C802" s="15"/>
@@ -16940,7 +16956,7 @@
       <c r="N802" s="2"/>
       <c r="O802" s="23"/>
     </row>
-    <row r="803" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A803" s="15"/>
       <c r="B803" s="15"/>
       <c r="C803" s="15"/>
@@ -16957,7 +16973,7 @@
       <c r="N803" s="2"/>
       <c r="O803" s="23"/>
     </row>
-    <row r="804" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A804" s="15"/>
       <c r="B804" s="15"/>
       <c r="C804" s="15"/>
@@ -16974,7 +16990,7 @@
       <c r="N804" s="2"/>
       <c r="O804" s="23"/>
     </row>
-    <row r="805" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A805" s="15"/>
       <c r="B805" s="15"/>
       <c r="C805" s="15"/>
@@ -16991,7 +17007,7 @@
       <c r="N805" s="2"/>
       <c r="O805" s="23"/>
     </row>
-    <row r="806" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A806" s="15"/>
       <c r="B806" s="15"/>
       <c r="C806" s="15"/>
@@ -17008,7 +17024,7 @@
       <c r="N806" s="2"/>
       <c r="O806" s="23"/>
     </row>
-    <row r="807" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A807" s="15"/>
       <c r="B807" s="15"/>
       <c r="C807" s="15"/>
@@ -17025,7 +17041,7 @@
       <c r="N807" s="2"/>
       <c r="O807" s="23"/>
     </row>
-    <row r="808" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A808" s="15"/>
       <c r="B808" s="15"/>
       <c r="C808" s="15"/>
@@ -17042,7 +17058,7 @@
       <c r="N808" s="2"/>
       <c r="O808" s="23"/>
     </row>
-    <row r="809" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A809" s="15"/>
       <c r="B809" s="15"/>
       <c r="C809" s="15"/>
@@ -17059,7 +17075,7 @@
       <c r="N809" s="2"/>
       <c r="O809" s="23"/>
     </row>
-    <row r="810" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A810" s="15"/>
       <c r="B810" s="15"/>
       <c r="C810" s="15"/>
@@ -17076,7 +17092,7 @@
       <c r="N810" s="2"/>
       <c r="O810" s="23"/>
     </row>
-    <row r="811" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A811" s="15"/>
       <c r="B811" s="15"/>
       <c r="C811" s="15"/>
@@ -17093,7 +17109,7 @@
       <c r="N811" s="2"/>
       <c r="O811" s="23"/>
     </row>
-    <row r="812" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A812" s="15"/>
       <c r="B812" s="15"/>
       <c r="C812" s="15"/>
@@ -17110,7 +17126,7 @@
       <c r="N812" s="2"/>
       <c r="O812" s="23"/>
     </row>
-    <row r="813" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A813" s="15"/>
       <c r="B813" s="15"/>
       <c r="C813" s="15"/>
@@ -17127,7 +17143,7 @@
       <c r="N813" s="2"/>
       <c r="O813" s="23"/>
     </row>
-    <row r="814" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A814" s="15"/>
       <c r="B814" s="15"/>
       <c r="C814" s="15"/>
@@ -17144,7 +17160,7 @@
       <c r="N814" s="2"/>
       <c r="O814" s="23"/>
     </row>
-    <row r="815" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A815" s="15"/>
       <c r="B815" s="15"/>
       <c r="C815" s="15"/>
@@ -17161,7 +17177,7 @@
       <c r="N815" s="2"/>
       <c r="O815" s="23"/>
     </row>
-    <row r="816" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A816" s="15"/>
       <c r="B816" s="15"/>
       <c r="C816" s="15"/>
@@ -17178,7 +17194,7 @@
       <c r="N816" s="2"/>
       <c r="O816" s="23"/>
     </row>
-    <row r="817" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A817" s="15"/>
       <c r="B817" s="15"/>
       <c r="C817" s="15"/>
@@ -17195,7 +17211,7 @@
       <c r="N817" s="2"/>
       <c r="O817" s="23"/>
     </row>
-    <row r="818" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A818" s="15"/>
       <c r="B818" s="15"/>
       <c r="C818" s="15"/>
@@ -17212,7 +17228,7 @@
       <c r="N818" s="2"/>
       <c r="O818" s="23"/>
     </row>
-    <row r="819" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A819" s="15"/>
       <c r="B819" s="15"/>
       <c r="C819" s="15"/>
@@ -17229,7 +17245,7 @@
       <c r="N819" s="2"/>
       <c r="O819" s="23"/>
     </row>
-    <row r="820" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A820" s="15"/>
       <c r="B820" s="15"/>
       <c r="C820" s="15"/>
@@ -17246,7 +17262,7 @@
       <c r="N820" s="2"/>
       <c r="O820" s="23"/>
     </row>
-    <row r="821" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A821" s="15"/>
       <c r="B821" s="15"/>
       <c r="C821" s="15"/>
@@ -17263,7 +17279,7 @@
       <c r="N821" s="2"/>
       <c r="O821" s="23"/>
     </row>
-    <row r="822" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A822" s="15"/>
       <c r="B822" s="15"/>
       <c r="C822" s="15"/>
@@ -17280,7 +17296,7 @@
       <c r="N822" s="2"/>
       <c r="O822" s="23"/>
     </row>
-    <row r="823" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A823" s="15"/>
       <c r="B823" s="15"/>
       <c r="C823" s="15"/>
@@ -17297,7 +17313,7 @@
       <c r="N823" s="2"/>
       <c r="O823" s="23"/>
     </row>
-    <row r="824" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A824" s="15"/>
       <c r="B824" s="15"/>
       <c r="C824" s="15"/>
@@ -17314,7 +17330,7 @@
       <c r="N824" s="2"/>
       <c r="O824" s="23"/>
     </row>
-    <row r="825" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A825" s="15"/>
       <c r="B825" s="15"/>
       <c r="C825" s="15"/>
@@ -17331,7 +17347,7 @@
       <c r="N825" s="2"/>
       <c r="O825" s="23"/>
     </row>
-    <row r="826" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A826" s="15"/>
       <c r="B826" s="15"/>
       <c r="C826" s="15"/>
@@ -17348,7 +17364,7 @@
       <c r="N826" s="2"/>
       <c r="O826" s="23"/>
     </row>
-    <row r="827" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A827" s="15"/>
       <c r="B827" s="15"/>
       <c r="C827" s="15"/>
@@ -17365,7 +17381,7 @@
       <c r="N827" s="2"/>
       <c r="O827" s="23"/>
     </row>
-    <row r="828" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A828" s="15"/>
       <c r="B828" s="15"/>
       <c r="C828" s="15"/>
@@ -17382,7 +17398,7 @@
       <c r="N828" s="2"/>
       <c r="O828" s="23"/>
     </row>
-    <row r="829" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A829" s="15"/>
       <c r="B829" s="15"/>
       <c r="C829" s="15"/>
@@ -17399,7 +17415,7 @@
       <c r="N829" s="2"/>
       <c r="O829" s="23"/>
     </row>
-    <row r="830" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A830" s="15"/>
       <c r="B830" s="15"/>
       <c r="C830" s="15"/>
@@ -17416,7 +17432,7 @@
       <c r="N830" s="2"/>
       <c r="O830" s="23"/>
     </row>
-    <row r="831" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A831" s="15"/>
       <c r="B831" s="15"/>
       <c r="C831" s="15"/>
@@ -17433,7 +17449,7 @@
       <c r="N831" s="2"/>
       <c r="O831" s="23"/>
     </row>
-    <row r="832" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A832" s="15"/>
       <c r="B832" s="15"/>
       <c r="C832" s="15"/>
@@ -17450,7 +17466,7 @@
       <c r="N832" s="2"/>
       <c r="O832" s="23"/>
     </row>
-    <row r="833" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A833" s="15"/>
       <c r="B833" s="15"/>
       <c r="C833" s="15"/>
@@ -17467,7 +17483,7 @@
       <c r="N833" s="2"/>
       <c r="O833" s="23"/>
     </row>
-    <row r="834" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A834" s="15"/>
       <c r="B834" s="15"/>
       <c r="C834" s="15"/>
@@ -17484,7 +17500,7 @@
       <c r="N834" s="2"/>
       <c r="O834" s="23"/>
     </row>
-    <row r="835" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A835" s="15"/>
       <c r="B835" s="15"/>
       <c r="C835" s="15"/>
@@ -17501,7 +17517,7 @@
       <c r="N835" s="2"/>
       <c r="O835" s="23"/>
     </row>
-    <row r="836" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A836" s="15"/>
       <c r="B836" s="15"/>
       <c r="C836" s="15"/>
@@ -17518,7 +17534,7 @@
       <c r="N836" s="2"/>
       <c r="O836" s="23"/>
     </row>
-    <row r="837" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A837" s="15"/>
       <c r="B837" s="15"/>
       <c r="C837" s="15"/>
@@ -17535,7 +17551,7 @@
       <c r="N837" s="2"/>
       <c r="O837" s="23"/>
     </row>
-    <row r="838" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A838" s="15"/>
       <c r="B838" s="15"/>
       <c r="C838" s="15"/>
@@ -17552,7 +17568,7 @@
       <c r="N838" s="2"/>
       <c r="O838" s="23"/>
     </row>
-    <row r="839" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A839" s="15"/>
       <c r="B839" s="15"/>
       <c r="C839" s="15"/>
@@ -17569,7 +17585,7 @@
       <c r="N839" s="2"/>
       <c r="O839" s="23"/>
     </row>
-    <row r="840" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A840" s="15"/>
       <c r="B840" s="15"/>
       <c r="C840" s="15"/>
@@ -17586,7 +17602,7 @@
       <c r="N840" s="2"/>
       <c r="O840" s="23"/>
     </row>
-    <row r="841" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A841" s="15"/>
       <c r="B841" s="15"/>
       <c r="C841" s="15"/>
@@ -17603,7 +17619,7 @@
       <c r="N841" s="2"/>
       <c r="O841" s="23"/>
     </row>
-    <row r="842" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A842" s="15"/>
       <c r="B842" s="15"/>
       <c r="C842" s="15"/>
@@ -17620,7 +17636,7 @@
       <c r="N842" s="2"/>
       <c r="O842" s="23"/>
     </row>
-    <row r="843" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A843" s="15"/>
       <c r="B843" s="15"/>
       <c r="C843" s="15"/>
@@ -17637,7 +17653,7 @@
       <c r="N843" s="2"/>
       <c r="O843" s="23"/>
     </row>
-    <row r="844" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A844" s="15"/>
       <c r="B844" s="15"/>
       <c r="C844" s="15"/>
@@ -17654,7 +17670,7 @@
       <c r="N844" s="2"/>
       <c r="O844" s="23"/>
     </row>
-    <row r="845" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A845" s="15"/>
       <c r="B845" s="15"/>
       <c r="C845" s="15"/>
@@ -17671,7 +17687,7 @@
       <c r="N845" s="2"/>
       <c r="O845" s="23"/>
     </row>
-    <row r="846" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A846" s="15"/>
       <c r="B846" s="15"/>
       <c r="C846" s="15"/>
@@ -17688,7 +17704,7 @@
       <c r="N846" s="2"/>
       <c r="O846" s="23"/>
     </row>
-    <row r="847" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A847" s="15"/>
       <c r="B847" s="15"/>
       <c r="C847" s="15"/>
@@ -17705,7 +17721,7 @@
       <c r="N847" s="2"/>
       <c r="O847" s="23"/>
     </row>
-    <row r="848" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A848" s="15"/>
       <c r="B848" s="15"/>
       <c r="C848" s="15"/>
@@ -17722,7 +17738,7 @@
       <c r="N848" s="2"/>
       <c r="O848" s="23"/>
     </row>
-    <row r="849" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A849" s="15"/>
       <c r="B849" s="15"/>
       <c r="C849" s="15"/>
@@ -17739,7 +17755,7 @@
       <c r="N849" s="2"/>
       <c r="O849" s="23"/>
     </row>
-    <row r="850" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A850" s="15"/>
       <c r="B850" s="15"/>
       <c r="C850" s="15"/>
@@ -17756,7 +17772,7 @@
       <c r="N850" s="2"/>
       <c r="O850" s="23"/>
     </row>
-    <row r="851" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A851" s="15"/>
       <c r="B851" s="15"/>
       <c r="C851" s="15"/>
@@ -17773,7 +17789,7 @@
       <c r="N851" s="2"/>
       <c r="O851" s="23"/>
     </row>
-    <row r="852" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A852" s="15"/>
       <c r="B852" s="15"/>
       <c r="C852" s="15"/>
@@ -17790,7 +17806,7 @@
       <c r="N852" s="2"/>
       <c r="O852" s="23"/>
     </row>
-    <row r="853" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A853" s="15"/>
       <c r="B853" s="15"/>
       <c r="C853" s="15"/>
@@ -17807,7 +17823,7 @@
       <c r="N853" s="2"/>
       <c r="O853" s="23"/>
     </row>
-    <row r="854" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A854" s="15"/>
       <c r="B854" s="15"/>
       <c r="C854" s="15"/>
@@ -17824,7 +17840,7 @@
       <c r="N854" s="2"/>
       <c r="O854" s="23"/>
     </row>
-    <row r="855" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A855" s="15"/>
       <c r="B855" s="15"/>
       <c r="C855" s="15"/>
@@ -17841,7 +17857,7 @@
       <c r="N855" s="2"/>
       <c r="O855" s="23"/>
     </row>
-    <row r="856" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A856" s="15"/>
       <c r="B856" s="15"/>
       <c r="C856" s="15"/>
@@ -17858,7 +17874,7 @@
       <c r="N856" s="2"/>
       <c r="O856" s="23"/>
     </row>
-    <row r="857" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A857" s="15"/>
       <c r="B857" s="15"/>
       <c r="C857" s="15"/>
@@ -17875,7 +17891,7 @@
       <c r="N857" s="2"/>
       <c r="O857" s="23"/>
     </row>
-    <row r="858" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A858" s="15"/>
       <c r="B858" s="15"/>
       <c r="C858" s="15"/>
@@ -17892,7 +17908,7 @@
       <c r="N858" s="2"/>
       <c r="O858" s="23"/>
     </row>
-    <row r="859" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A859" s="15"/>
       <c r="B859" s="15"/>
       <c r="C859" s="15"/>
@@ -17909,7 +17925,7 @@
       <c r="N859" s="2"/>
       <c r="O859" s="23"/>
     </row>
-    <row r="860" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A860" s="15"/>
       <c r="B860" s="15"/>
       <c r="C860" s="15"/>
@@ -17926,7 +17942,7 @@
       <c r="N860" s="2"/>
       <c r="O860" s="23"/>
     </row>
-    <row r="861" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A861" s="15"/>
       <c r="B861" s="15"/>
       <c r="C861" s="15"/>
@@ -17943,7 +17959,7 @@
       <c r="N861" s="2"/>
       <c r="O861" s="23"/>
     </row>
-    <row r="862" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A862" s="15"/>
       <c r="B862" s="15"/>
       <c r="C862" s="15"/>
@@ -17960,7 +17976,7 @@
       <c r="N862" s="2"/>
       <c r="O862" s="23"/>
     </row>
-    <row r="863" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A863" s="15"/>
       <c r="B863" s="15"/>
       <c r="C863" s="15"/>
@@ -17977,7 +17993,7 @@
       <c r="N863" s="2"/>
       <c r="O863" s="23"/>
     </row>
-    <row r="864" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A864" s="15"/>
       <c r="B864" s="15"/>
       <c r="C864" s="15"/>
@@ -17994,7 +18010,7 @@
       <c r="N864" s="2"/>
       <c r="O864" s="23"/>
     </row>
-    <row r="865" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A865" s="15"/>
       <c r="B865" s="15"/>
       <c r="C865" s="15"/>
@@ -18011,7 +18027,7 @@
       <c r="N865" s="2"/>
       <c r="O865" s="23"/>
     </row>
-    <row r="866" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A866" s="15"/>
       <c r="B866" s="15"/>
       <c r="C866" s="15"/>
@@ -18028,7 +18044,7 @@
       <c r="N866" s="2"/>
       <c r="O866" s="23"/>
     </row>
-    <row r="867" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A867" s="15"/>
       <c r="B867" s="15"/>
       <c r="C867" s="15"/>
@@ -18045,7 +18061,7 @@
       <c r="N867" s="2"/>
       <c r="O867" s="23"/>
     </row>
-    <row r="868" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A868" s="15"/>
       <c r="B868" s="15"/>
       <c r="C868" s="15"/>
@@ -18062,7 +18078,7 @@
       <c r="N868" s="2"/>
       <c r="O868" s="23"/>
     </row>
-    <row r="869" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A869" s="15"/>
       <c r="B869" s="15"/>
       <c r="C869" s="15"/>
@@ -18079,7 +18095,7 @@
       <c r="N869" s="2"/>
       <c r="O869" s="23"/>
     </row>
-    <row r="870" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A870" s="15"/>
       <c r="B870" s="15"/>
       <c r="C870" s="15"/>
@@ -18096,7 +18112,7 @@
       <c r="N870" s="2"/>
       <c r="O870" s="23"/>
     </row>
-    <row r="871" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A871" s="15"/>
       <c r="B871" s="15"/>
       <c r="C871" s="15"/>
@@ -18113,7 +18129,7 @@
       <c r="N871" s="2"/>
       <c r="O871" s="23"/>
     </row>
-    <row r="872" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A872" s="15"/>
       <c r="B872" s="15"/>
       <c r="C872" s="15"/>
@@ -18130,7 +18146,7 @@
       <c r="N872" s="2"/>
       <c r="O872" s="23"/>
     </row>
-    <row r="873" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A873" s="15"/>
       <c r="B873" s="15"/>
       <c r="C873" s="15"/>
@@ -18147,7 +18163,7 @@
       <c r="N873" s="2"/>
       <c r="O873" s="23"/>
     </row>
-    <row r="874" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A874" s="15"/>
       <c r="B874" s="15"/>
       <c r="C874" s="15"/>
@@ -18164,7 +18180,7 @@
       <c r="N874" s="2"/>
       <c r="O874" s="23"/>
     </row>
-    <row r="875" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A875" s="15"/>
       <c r="B875" s="15"/>
       <c r="C875" s="15"/>
@@ -18181,7 +18197,7 @@
       <c r="N875" s="2"/>
       <c r="O875" s="23"/>
     </row>
-    <row r="876" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A876" s="15"/>
       <c r="B876" s="15"/>
       <c r="C876" s="15"/>
@@ -18198,7 +18214,7 @@
       <c r="N876" s="2"/>
       <c r="O876" s="23"/>
     </row>
-    <row r="877" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A877" s="15"/>
       <c r="B877" s="15"/>
       <c r="C877" s="15"/>
@@ -18215,7 +18231,7 @@
       <c r="N877" s="2"/>
       <c r="O877" s="23"/>
     </row>
-    <row r="878" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A878" s="15"/>
       <c r="B878" s="15"/>
       <c r="C878" s="15"/>
@@ -18232,7 +18248,7 @@
       <c r="N878" s="2"/>
       <c r="O878" s="23"/>
     </row>
-    <row r="879" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A879" s="15"/>
       <c r="B879" s="15"/>
       <c r="C879" s="15"/>
@@ -18249,7 +18265,7 @@
       <c r="N879" s="2"/>
       <c r="O879" s="23"/>
     </row>
-    <row r="880" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A880" s="15"/>
       <c r="B880" s="15"/>
       <c r="C880" s="15"/>
@@ -18266,7 +18282,7 @@
       <c r="N880" s="2"/>
       <c r="O880" s="23"/>
     </row>
-    <row r="881" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A881" s="15"/>
       <c r="B881" s="15"/>
       <c r="C881" s="15"/>
@@ -18283,7 +18299,7 @@
       <c r="N881" s="2"/>
       <c r="O881" s="23"/>
     </row>
-    <row r="882" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A882" s="15"/>
       <c r="B882" s="15"/>
       <c r="C882" s="15"/>
@@ -18300,7 +18316,7 @@
       <c r="N882" s="2"/>
       <c r="O882" s="23"/>
     </row>
-    <row r="883" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A883" s="15"/>
       <c r="B883" s="15"/>
       <c r="C883" s="15"/>
@@ -18317,7 +18333,7 @@
       <c r="N883" s="2"/>
       <c r="O883" s="23"/>
     </row>
-    <row r="884" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A884" s="15"/>
       <c r="B884" s="15"/>
       <c r="C884" s="15"/>
@@ -18334,7 +18350,7 @@
       <c r="N884" s="2"/>
       <c r="O884" s="23"/>
     </row>
-    <row r="885" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A885" s="15"/>
       <c r="B885" s="15"/>
       <c r="C885" s="15"/>
@@ -18351,7 +18367,7 @@
       <c r="N885" s="2"/>
       <c r="O885" s="23"/>
     </row>
-    <row r="886" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A886" s="15"/>
       <c r="B886" s="15"/>
       <c r="C886" s="15"/>
@@ -18368,7 +18384,7 @@
       <c r="N886" s="2"/>
       <c r="O886" s="23"/>
     </row>
-    <row r="887" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A887" s="15"/>
       <c r="B887" s="15"/>
       <c r="C887" s="15"/>
@@ -18385,7 +18401,7 @@
       <c r="N887" s="2"/>
       <c r="O887" s="23"/>
     </row>
-    <row r="888" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A888" s="15"/>
       <c r="B888" s="15"/>
       <c r="C888" s="15"/>
@@ -18402,7 +18418,7 @@
       <c r="N888" s="2"/>
       <c r="O888" s="23"/>
     </row>
-    <row r="889" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A889" s="15"/>
       <c r="B889" s="15"/>
       <c r="C889" s="15"/>
@@ -18419,7 +18435,7 @@
       <c r="N889" s="2"/>
       <c r="O889" s="23"/>
     </row>
-    <row r="890" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A890" s="15"/>
       <c r="B890" s="15"/>
       <c r="C890" s="15"/>
@@ -18436,7 +18452,7 @@
       <c r="N890" s="2"/>
       <c r="O890" s="23"/>
     </row>
-    <row r="891" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A891" s="15"/>
       <c r="B891" s="15"/>
       <c r="C891" s="15"/>
@@ -18453,7 +18469,7 @@
       <c r="N891" s="2"/>
       <c r="O891" s="23"/>
     </row>
-    <row r="892" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A892" s="15"/>
       <c r="B892" s="15"/>
       <c r="C892" s="15"/>
@@ -18470,7 +18486,7 @@
       <c r="N892" s="2"/>
       <c r="O892" s="23"/>
     </row>
-    <row r="893" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A893" s="15"/>
       <c r="B893" s="15"/>
       <c r="C893" s="15"/>
@@ -18487,7 +18503,7 @@
       <c r="N893" s="2"/>
       <c r="O893" s="23"/>
     </row>
-    <row r="894" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A894" s="15"/>
       <c r="B894" s="15"/>
       <c r="C894" s="15"/>
@@ -18504,7 +18520,7 @@
       <c r="N894" s="2"/>
       <c r="O894" s="23"/>
     </row>
-    <row r="895" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A895" s="15"/>
       <c r="B895" s="15"/>
       <c r="C895" s="15"/>
@@ -18521,7 +18537,7 @@
       <c r="N895" s="2"/>
       <c r="O895" s="23"/>
     </row>
-    <row r="896" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A896" s="15"/>
       <c r="B896" s="15"/>
       <c r="C896" s="15"/>
@@ -18538,7 +18554,7 @@
       <c r="N896" s="2"/>
       <c r="O896" s="23"/>
     </row>
-    <row r="897" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A897" s="15"/>
       <c r="B897" s="15"/>
       <c r="C897" s="15"/>
@@ -18555,7 +18571,7 @@
       <c r="N897" s="2"/>
       <c r="O897" s="23"/>
     </row>
-    <row r="898" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A898" s="15"/>
       <c r="B898" s="15"/>
       <c r="C898" s="15"/>
@@ -18572,7 +18588,7 @@
       <c r="N898" s="2"/>
       <c r="O898" s="23"/>
     </row>
-    <row r="899" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A899" s="15"/>
       <c r="B899" s="15"/>
       <c r="C899" s="15"/>
@@ -18589,7 +18605,7 @@
       <c r="N899" s="2"/>
       <c r="O899" s="23"/>
     </row>
-    <row r="900" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A900" s="15"/>
       <c r="B900" s="15"/>
       <c r="C900" s="15"/>
@@ -18606,7 +18622,7 @@
       <c r="N900" s="2"/>
       <c r="O900" s="23"/>
     </row>
-    <row r="901" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A901" s="15"/>
       <c r="B901" s="15"/>
       <c r="C901" s="15"/>
@@ -18623,7 +18639,7 @@
       <c r="N901" s="2"/>
       <c r="O901" s="23"/>
     </row>
-    <row r="902" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A902" s="15"/>
       <c r="B902" s="15"/>
       <c r="C902" s="15"/>
@@ -18640,7 +18656,7 @@
       <c r="N902" s="2"/>
       <c r="O902" s="23"/>
     </row>
-    <row r="903" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A903" s="15"/>
       <c r="B903" s="15"/>
       <c r="C903" s="15"/>
@@ -18657,7 +18673,7 @@
       <c r="N903" s="2"/>
       <c r="O903" s="23"/>
     </row>
-    <row r="904" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A904" s="15"/>
       <c r="B904" s="15"/>
       <c r="C904" s="15"/>
@@ -18674,7 +18690,7 @@
       <c r="N904" s="2"/>
       <c r="O904" s="23"/>
     </row>
-    <row r="905" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A905" s="15"/>
       <c r="B905" s="15"/>
       <c r="C905" s="15"/>
@@ -18691,7 +18707,7 @@
       <c r="N905" s="2"/>
       <c r="O905" s="23"/>
     </row>
-    <row r="906" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A906" s="15"/>
       <c r="B906" s="15"/>
       <c r="C906" s="15"/>
@@ -18708,7 +18724,7 @@
       <c r="N906" s="2"/>
       <c r="O906" s="23"/>
     </row>
-    <row r="907" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A907" s="15"/>
       <c r="B907" s="15"/>
       <c r="C907" s="15"/>
@@ -18725,7 +18741,7 @@
       <c r="N907" s="2"/>
       <c r="O907" s="23"/>
     </row>
-    <row r="908" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A908" s="15"/>
       <c r="B908" s="15"/>
       <c r="C908" s="15"/>
@@ -18742,7 +18758,7 @@
       <c r="N908" s="2"/>
       <c r="O908" s="23"/>
     </row>
-    <row r="909" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A909" s="15"/>
       <c r="B909" s="15"/>
       <c r="C909" s="15"/>
@@ -18759,7 +18775,7 @@
       <c r="N909" s="2"/>
       <c r="O909" s="23"/>
     </row>
-    <row r="910" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A910" s="15"/>
       <c r="B910" s="15"/>
       <c r="C910" s="15"/>
@@ -18776,7 +18792,7 @@
       <c r="N910" s="2"/>
       <c r="O910" s="23"/>
     </row>
-    <row r="911" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A911" s="15"/>
       <c r="B911" s="15"/>
       <c r="C911" s="15"/>
@@ -18793,7 +18809,7 @@
       <c r="N911" s="2"/>
       <c r="O911" s="23"/>
     </row>
-    <row r="912" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A912" s="15"/>
       <c r="B912" s="15"/>
       <c r="C912" s="15"/>
@@ -18810,7 +18826,7 @@
       <c r="N912" s="2"/>
       <c r="O912" s="23"/>
     </row>
-    <row r="913" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A913" s="15"/>
       <c r="B913" s="15"/>
       <c r="C913" s="15"/>
@@ -18827,7 +18843,7 @@
       <c r="N913" s="2"/>
       <c r="O913" s="23"/>
     </row>
-    <row r="914" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A914" s="15"/>
       <c r="B914" s="15"/>
       <c r="C914" s="15"/>
@@ -18844,7 +18860,7 @@
       <c r="N914" s="2"/>
       <c r="O914" s="23"/>
     </row>
-    <row r="915" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A915" s="15"/>
       <c r="B915" s="15"/>
       <c r="C915" s="15"/>
@@ -18861,7 +18877,7 @@
       <c r="N915" s="2"/>
       <c r="O915" s="23"/>
     </row>
-    <row r="916" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A916" s="15"/>
       <c r="B916" s="15"/>
       <c r="C916" s="15"/>
@@ -18878,7 +18894,7 @@
       <c r="N916" s="2"/>
       <c r="O916" s="23"/>
     </row>
-    <row r="917" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A917" s="15"/>
       <c r="B917" s="15"/>
       <c r="C917" s="15"/>
@@ -18895,7 +18911,7 @@
       <c r="N917" s="2"/>
       <c r="O917" s="23"/>
     </row>
-    <row r="918" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A918" s="15"/>
       <c r="B918" s="15"/>
       <c r="C918" s="15"/>
@@ -18912,7 +18928,7 @@
       <c r="N918" s="2"/>
       <c r="O918" s="23"/>
     </row>
-    <row r="919" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A919" s="15"/>
       <c r="B919" s="15"/>
       <c r="C919" s="15"/>
@@ -18929,7 +18945,7 @@
       <c r="N919" s="2"/>
       <c r="O919" s="23"/>
     </row>
-    <row r="920" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A920" s="15"/>
       <c r="B920" s="15"/>
       <c r="C920" s="15"/>
@@ -18946,7 +18962,7 @@
       <c r="N920" s="2"/>
       <c r="O920" s="23"/>
     </row>
-    <row r="921" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A921" s="15"/>
       <c r="B921" s="15"/>
       <c r="C921" s="15"/>
@@ -18963,7 +18979,7 @@
       <c r="N921" s="2"/>
       <c r="O921" s="23"/>
     </row>
-    <row r="922" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A922" s="15"/>
       <c r="B922" s="15"/>
       <c r="C922" s="15"/>
@@ -18980,7 +18996,7 @@
       <c r="N922" s="2"/>
       <c r="O922" s="23"/>
     </row>
-    <row r="923" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A923" s="15"/>
       <c r="B923" s="15"/>
       <c r="C923" s="15"/>
@@ -18997,7 +19013,7 @@
       <c r="N923" s="2"/>
       <c r="O923" s="23"/>
     </row>
-    <row r="924" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A924" s="15"/>
       <c r="B924" s="15"/>
       <c r="C924" s="15"/>
@@ -19014,7 +19030,7 @@
       <c r="N924" s="2"/>
       <c r="O924" s="23"/>
     </row>
-    <row r="925" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A925" s="15"/>
       <c r="B925" s="15"/>
       <c r="C925" s="15"/>
@@ -19031,7 +19047,7 @@
       <c r="N925" s="2"/>
       <c r="O925" s="23"/>
     </row>
-    <row r="926" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A926" s="15"/>
       <c r="B926" s="15"/>
       <c r="C926" s="15"/>
@@ -19048,7 +19064,7 @@
       <c r="N926" s="2"/>
       <c r="O926" s="23"/>
     </row>
-    <row r="927" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A927" s="15"/>
       <c r="B927" s="15"/>
       <c r="C927" s="15"/>
@@ -19065,7 +19081,7 @@
       <c r="N927" s="2"/>
       <c r="O927" s="23"/>
     </row>
-    <row r="928" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A928" s="15"/>
       <c r="B928" s="15"/>
       <c r="C928" s="15"/>
@@ -19082,7 +19098,7 @@
       <c r="N928" s="2"/>
       <c r="O928" s="23"/>
     </row>
-    <row r="929" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A929" s="15"/>
       <c r="B929" s="15"/>
       <c r="C929" s="15"/>
@@ -19099,7 +19115,7 @@
       <c r="N929" s="2"/>
       <c r="O929" s="23"/>
     </row>
-    <row r="930" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A930" s="15"/>
       <c r="B930" s="15"/>
       <c r="C930" s="15"/>
@@ -19116,7 +19132,7 @@
       <c r="N930" s="2"/>
       <c r="O930" s="23"/>
     </row>
-    <row r="931" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A931" s="15"/>
       <c r="B931" s="15"/>
       <c r="C931" s="15"/>
@@ -19133,7 +19149,7 @@
       <c r="N931" s="2"/>
       <c r="O931" s="23"/>
     </row>
-    <row r="932" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A932" s="15"/>
       <c r="B932" s="15"/>
       <c r="C932" s="15"/>
@@ -19150,7 +19166,7 @@
       <c r="N932" s="2"/>
       <c r="O932" s="23"/>
     </row>
-    <row r="933" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A933" s="15"/>
       <c r="B933" s="15"/>
       <c r="C933" s="15"/>
@@ -19167,7 +19183,7 @@
       <c r="N933" s="2"/>
       <c r="O933" s="23"/>
     </row>
-    <row r="934" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A934" s="15"/>
       <c r="B934" s="15"/>
       <c r="C934" s="15"/>
@@ -19184,7 +19200,7 @@
       <c r="N934" s="2"/>
       <c r="O934" s="23"/>
     </row>
-    <row r="935" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A935" s="15"/>
       <c r="B935" s="15"/>
       <c r="C935" s="15"/>
@@ -19201,7 +19217,7 @@
       <c r="N935" s="2"/>
       <c r="O935" s="23"/>
     </row>
-    <row r="936" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A936" s="15"/>
       <c r="B936" s="15"/>
       <c r="C936" s="15"/>
@@ -19218,7 +19234,7 @@
       <c r="N936" s="2"/>
       <c r="O936" s="23"/>
     </row>
-    <row r="937" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A937" s="15"/>
       <c r="B937" s="15"/>
       <c r="C937" s="15"/>
@@ -19235,7 +19251,7 @@
       <c r="N937" s="2"/>
       <c r="O937" s="23"/>
     </row>
-    <row r="938" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A938" s="15"/>
       <c r="B938" s="15"/>
       <c r="C938" s="15"/>
@@ -19252,7 +19268,7 @@
       <c r="N938" s="2"/>
       <c r="O938" s="23"/>
     </row>
-    <row r="939" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A939" s="15"/>
       <c r="B939" s="15"/>
       <c r="C939" s="15"/>
@@ -19269,7 +19285,7 @@
       <c r="N939" s="2"/>
       <c r="O939" s="23"/>
     </row>
-    <row r="940" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A940" s="15"/>
       <c r="B940" s="15"/>
       <c r="C940" s="15"/>
@@ -19286,7 +19302,7 @@
       <c r="N940" s="2"/>
       <c r="O940" s="23"/>
     </row>
-    <row r="941" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A941" s="15"/>
       <c r="B941" s="15"/>
       <c r="C941" s="15"/>
@@ -19303,7 +19319,7 @@
       <c r="N941" s="2"/>
       <c r="O941" s="23"/>
     </row>
-    <row r="942" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A942" s="15"/>
       <c r="B942" s="15"/>
       <c r="C942" s="15"/>
@@ -19320,7 +19336,7 @@
       <c r="N942" s="2"/>
       <c r="O942" s="23"/>
     </row>
-    <row r="943" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A943" s="15"/>
       <c r="B943" s="15"/>
       <c r="C943" s="15"/>
@@ -19337,7 +19353,7 @@
       <c r="N943" s="2"/>
       <c r="O943" s="23"/>
     </row>
-    <row r="944" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A944" s="15"/>
       <c r="B944" s="15"/>
       <c r="C944" s="15"/>
@@ -19354,7 +19370,7 @@
       <c r="N944" s="2"/>
       <c r="O944" s="23"/>
     </row>
-    <row r="945" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A945" s="15"/>
       <c r="B945" s="15"/>
       <c r="C945" s="15"/>
@@ -19371,7 +19387,7 @@
       <c r="N945" s="2"/>
       <c r="O945" s="23"/>
     </row>
-    <row r="946" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A946" s="15"/>
       <c r="B946" s="15"/>
       <c r="C946" s="15"/>
@@ -19388,7 +19404,7 @@
       <c r="N946" s="2"/>
       <c r="O946" s="23"/>
     </row>
-    <row r="947" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A947" s="15"/>
       <c r="B947" s="15"/>
       <c r="C947" s="15"/>
@@ -19405,7 +19421,7 @@
       <c r="N947" s="2"/>
       <c r="O947" s="23"/>
     </row>
-    <row r="948" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A948" s="15"/>
       <c r="B948" s="15"/>
       <c r="C948" s="15"/>
@@ -19422,7 +19438,7 @@
       <c r="N948" s="2"/>
       <c r="O948" s="23"/>
     </row>
-    <row r="949" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A949" s="15"/>
       <c r="B949" s="15"/>
       <c r="C949" s="15"/>
@@ -19439,7 +19455,7 @@
       <c r="N949" s="2"/>
       <c r="O949" s="23"/>
     </row>
-    <row r="950" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A950" s="15"/>
       <c r="B950" s="15"/>
       <c r="C950" s="15"/>
@@ -19456,7 +19472,7 @@
       <c r="N950" s="2"/>
       <c r="O950" s="23"/>
     </row>
-    <row r="951" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A951" s="15"/>
       <c r="B951" s="15"/>
       <c r="C951" s="15"/>
@@ -19473,7 +19489,7 @@
       <c r="N951" s="2"/>
       <c r="O951" s="23"/>
     </row>
-    <row r="952" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A952" s="15"/>
       <c r="B952" s="15"/>
       <c r="C952" s="15"/>
@@ -19490,7 +19506,7 @@
       <c r="N952" s="2"/>
       <c r="O952" s="23"/>
     </row>
-    <row r="953" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A953" s="15"/>
       <c r="B953" s="15"/>
       <c r="C953" s="15"/>
@@ -19507,7 +19523,7 @@
       <c r="N953" s="2"/>
       <c r="O953" s="23"/>
     </row>
-    <row r="954" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A954" s="15"/>
       <c r="B954" s="15"/>
       <c r="C954" s="15"/>
@@ -19524,7 +19540,7 @@
       <c r="N954" s="2"/>
       <c r="O954" s="23"/>
     </row>
-    <row r="955" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A955" s="15"/>
       <c r="B955" s="15"/>
       <c r="C955" s="15"/>
@@ -19541,7 +19557,7 @@
       <c r="N955" s="2"/>
       <c r="O955" s="23"/>
     </row>
-    <row r="956" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A956" s="15"/>
       <c r="B956" s="15"/>
       <c r="C956" s="15"/>
@@ -19558,7 +19574,7 @@
       <c r="N956" s="2"/>
       <c r="O956" s="23"/>
     </row>
-    <row r="957" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A957" s="15"/>
       <c r="B957" s="15"/>
       <c r="C957" s="15"/>
@@ -19575,7 +19591,7 @@
       <c r="N957" s="2"/>
       <c r="O957" s="23"/>
     </row>
-    <row r="958" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A958" s="15"/>
       <c r="B958" s="15"/>
       <c r="C958" s="15"/>
@@ -19592,7 +19608,7 @@
       <c r="N958" s="2"/>
       <c r="O958" s="23"/>
     </row>
-    <row r="959" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A959" s="15"/>
       <c r="B959" s="15"/>
       <c r="C959" s="15"/>
@@ -19609,7 +19625,7 @@
       <c r="N959" s="2"/>
       <c r="O959" s="23"/>
     </row>
-    <row r="960" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A960" s="15"/>
       <c r="B960" s="15"/>
       <c r="C960" s="15"/>
@@ -19626,7 +19642,7 @@
       <c r="N960" s="2"/>
       <c r="O960" s="23"/>
     </row>
-    <row r="961" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A961" s="15"/>
       <c r="B961" s="15"/>
       <c r="C961" s="15"/>
@@ -19643,7 +19659,7 @@
       <c r="N961" s="2"/>
       <c r="O961" s="23"/>
     </row>
-    <row r="962" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A962" s="15"/>
       <c r="B962" s="15"/>
       <c r="C962" s="15"/>
@@ -19660,7 +19676,7 @@
       <c r="N962" s="2"/>
       <c r="O962" s="23"/>
     </row>
-    <row r="963" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A963" s="15"/>
       <c r="B963" s="15"/>
       <c r="C963" s="15"/>
@@ -19677,7 +19693,7 @@
       <c r="N963" s="2"/>
       <c r="O963" s="23"/>
     </row>
-    <row r="964" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A964" s="15"/>
       <c r="B964" s="15"/>
       <c r="C964" s="15"/>
@@ -19694,7 +19710,7 @@
       <c r="N964" s="2"/>
       <c r="O964" s="23"/>
     </row>
-    <row r="965" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="965" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A965" s="15"/>
       <c r="B965" s="15"/>
       <c r="C965" s="15"/>
@@ -19711,7 +19727,7 @@
       <c r="N965" s="2"/>
       <c r="O965" s="23"/>
     </row>
-    <row r="966" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A966" s="15"/>
       <c r="B966" s="15"/>
       <c r="C966" s="15"/>
@@ -19728,7 +19744,7 @@
       <c r="N966" s="2"/>
       <c r="O966" s="23"/>
     </row>
-    <row r="967" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="967" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A967" s="15"/>
       <c r="B967" s="15"/>
       <c r="C967" s="15"/>
@@ -19745,7 +19761,7 @@
       <c r="N967" s="2"/>
       <c r="O967" s="23"/>
     </row>
-    <row r="968" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="968" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A968" s="15"/>
       <c r="B968" s="15"/>
       <c r="C968" s="15"/>
@@ -19762,7 +19778,7 @@
       <c r="N968" s="2"/>
       <c r="O968" s="23"/>
     </row>
-    <row r="969" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="969" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A969" s="15"/>
       <c r="B969" s="15"/>
       <c r="C969" s="15"/>
@@ -19779,7 +19795,7 @@
       <c r="N969" s="2"/>
       <c r="O969" s="23"/>
     </row>
-    <row r="970" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A970" s="15"/>
       <c r="B970" s="15"/>
       <c r="C970" s="15"/>
@@ -19796,7 +19812,7 @@
       <c r="N970" s="2"/>
       <c r="O970" s="23"/>
     </row>
-    <row r="971" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A971" s="15"/>
       <c r="B971" s="15"/>
       <c r="C971" s="15"/>
@@ -19813,7 +19829,7 @@
       <c r="N971" s="2"/>
       <c r="O971" s="23"/>
     </row>
-    <row r="972" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A972" s="15"/>
       <c r="B972" s="15"/>
       <c r="C972" s="15"/>
@@ -19830,7 +19846,7 @@
       <c r="N972" s="2"/>
       <c r="O972" s="23"/>
     </row>
-    <row r="973" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="973" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A973" s="15"/>
       <c r="B973" s="15"/>
       <c r="C973" s="15"/>
@@ -19847,7 +19863,7 @@
       <c r="N973" s="2"/>
       <c r="O973" s="23"/>
     </row>
-    <row r="974" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A974" s="15"/>
       <c r="B974" s="15"/>
       <c r="C974" s="15"/>
@@ -19864,7 +19880,7 @@
       <c r="N974" s="2"/>
       <c r="O974" s="23"/>
     </row>
-    <row r="975" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A975" s="15"/>
       <c r="B975" s="15"/>
       <c r="C975" s="15"/>
@@ -19881,7 +19897,7 @@
       <c r="N975" s="2"/>
       <c r="O975" s="23"/>
     </row>
-    <row r="976" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A976" s="15"/>
       <c r="B976" s="15"/>
       <c r="C976" s="15"/>
@@ -19898,7 +19914,7 @@
       <c r="N976" s="2"/>
       <c r="O976" s="23"/>
     </row>
-    <row r="977" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="977" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A977" s="15"/>
       <c r="B977" s="15"/>
       <c r="C977" s="15"/>
@@ -19915,7 +19931,7 @@
       <c r="N977" s="2"/>
       <c r="O977" s="23"/>
     </row>
-    <row r="978" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="978" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A978" s="15"/>
       <c r="B978" s="15"/>
       <c r="C978" s="15"/>
@@ -19932,7 +19948,7 @@
       <c r="N978" s="2"/>
       <c r="O978" s="23"/>
     </row>
-    <row r="979" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="979" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A979" s="15"/>
       <c r="B979" s="15"/>
       <c r="C979" s="15"/>
@@ -19949,7 +19965,7 @@
       <c r="N979" s="2"/>
       <c r="O979" s="23"/>
     </row>
-    <row r="980" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A980" s="15"/>
       <c r="B980" s="15"/>
       <c r="C980" s="15"/>
@@ -19966,7 +19982,7 @@
       <c r="N980" s="2"/>
       <c r="O980" s="23"/>
     </row>
-    <row r="981" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="981" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A981" s="15"/>
       <c r="B981" s="15"/>
       <c r="C981" s="15"/>
@@ -19983,7 +19999,7 @@
       <c r="N981" s="2"/>
       <c r="O981" s="23"/>
     </row>
-    <row r="982" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="982" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A982" s="15"/>
       <c r="B982" s="15"/>
       <c r="C982" s="15"/>
@@ -20000,7 +20016,7 @@
       <c r="N982" s="2"/>
       <c r="O982" s="23"/>
     </row>
-    <row r="983" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="983" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A983" s="15"/>
       <c r="B983" s="15"/>
       <c r="C983" s="15"/>
@@ -20017,7 +20033,7 @@
       <c r="N983" s="2"/>
       <c r="O983" s="23"/>
     </row>
-    <row r="984" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="984" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A984" s="15"/>
       <c r="B984" s="15"/>
       <c r="C984" s="15"/>
@@ -20034,7 +20050,7 @@
       <c r="N984" s="2"/>
       <c r="O984" s="23"/>
     </row>
-    <row r="985" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A985" s="15"/>
       <c r="B985" s="15"/>
       <c r="C985" s="15"/>
@@ -20051,7 +20067,7 @@
       <c r="N985" s="2"/>
       <c r="O985" s="23"/>
     </row>
-    <row r="986" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="986" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A986" s="15"/>
       <c r="B986" s="15"/>
       <c r="C986" s="15"/>
@@ -20068,7 +20084,7 @@
       <c r="N986" s="2"/>
       <c r="O986" s="23"/>
     </row>
-    <row r="987" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="987" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A987" s="15"/>
       <c r="B987" s="15"/>
       <c r="C987" s="15"/>
@@ -20085,7 +20101,7 @@
       <c r="N987" s="2"/>
       <c r="O987" s="23"/>
     </row>
-    <row r="988" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="988" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A988" s="15"/>
       <c r="B988" s="15"/>
       <c r="C988" s="15"/>
@@ -20102,7 +20118,7 @@
       <c r="N988" s="2"/>
       <c r="O988" s="23"/>
     </row>
-    <row r="989" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="989" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A989" s="15"/>
       <c r="B989" s="15"/>
       <c r="C989" s="15"/>
@@ -20119,7 +20135,7 @@
       <c r="N989" s="2"/>
       <c r="O989" s="23"/>
     </row>
-    <row r="990" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="990" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A990" s="15"/>
       <c r="B990" s="15"/>
       <c r="C990" s="15"/>
@@ -20136,7 +20152,7 @@
       <c r="N990" s="2"/>
       <c r="O990" s="23"/>
     </row>
-    <row r="991" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="991" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A991" s="15"/>
       <c r="B991" s="15"/>
       <c r="C991" s="15"/>
@@ -20153,7 +20169,7 @@
       <c r="N991" s="2"/>
       <c r="O991" s="23"/>
     </row>
-    <row r="992" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="992" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A992" s="15"/>
       <c r="B992" s="15"/>
       <c r="C992" s="15"/>
@@ -20170,7 +20186,7 @@
       <c r="N992" s="2"/>
       <c r="O992" s="23"/>
     </row>
-    <row r="993" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="993" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A993" s="15"/>
       <c r="B993" s="15"/>
       <c r="C993" s="15"/>
@@ -20187,7 +20203,7 @@
       <c r="N993" s="2"/>
       <c r="O993" s="23"/>
     </row>
-    <row r="994" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="994" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A994" s="15"/>
       <c r="B994" s="15"/>
       <c r="C994" s="15"/>
@@ -20204,7 +20220,7 @@
       <c r="N994" s="2"/>
       <c r="O994" s="23"/>
     </row>
-    <row r="995" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="995" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A995" s="15"/>
       <c r="B995" s="15"/>
       <c r="C995" s="15"/>
@@ -20221,7 +20237,7 @@
       <c r="N995" s="2"/>
       <c r="O995" s="23"/>
     </row>
-    <row r="996" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="996" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A996" s="15"/>
       <c r="B996" s="15"/>
       <c r="C996" s="15"/>
@@ -20238,7 +20254,7 @@
       <c r="N996" s="2"/>
       <c r="O996" s="23"/>
     </row>
-    <row r="997" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="997" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A997" s="15"/>
       <c r="B997" s="15"/>
       <c r="C997" s="15"/>
@@ -20255,7 +20271,7 @@
       <c r="N997" s="2"/>
       <c r="O997" s="23"/>
     </row>
-    <row r="998" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="998" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A998" s="15"/>
       <c r="B998" s="15"/>
       <c r="C998" s="15"/>
@@ -20272,7 +20288,7 @@
       <c r="N998" s="2"/>
       <c r="O998" s="23"/>
     </row>
-    <row r="999" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="999" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A999" s="15"/>
       <c r="B999" s="15"/>
       <c r="C999" s="15"/>
@@ -20289,7 +20305,7 @@
       <c r="N999" s="2"/>
       <c r="O999" s="23"/>
     </row>
-    <row r="1000" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1000" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1000" s="15"/>
       <c r="B1000" s="15"/>
       <c r="C1000" s="15"/>

--- a/Airfoil Database/list_airfoils.xlsx
+++ b/Airfoil Database/list_airfoils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aadit\GP-Aero\Airfoil Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75770486-0417-4AE7-AC9F-6C376431F107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6546F64C-8BF5-48FC-A4CA-A2D503BF84FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14520" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1717,10 +1717,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A30" sqref="A30"/>
-      <selection pane="topRight" activeCell="C35" sqref="C35"/>
+      <selection pane="topRight" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1834,7 +1834,7 @@
       <c r="O2" s="7"/>
       <c r="Q2" s="8">
         <f>SUM(G2:G11,G14:G16,G18:G22,G24:G65)</f>
-        <v>1631</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -3292,7 +3292,8 @@
         <v>181</v>
       </c>
       <c r="G35" s="2">
-        <v>55</v>
+        <f xml:space="preserve"> 13+14+13+14+14+14+14+12+13+12+9+11+11</f>
+        <v>164</v>
       </c>
       <c r="H35" s="33"/>
       <c r="I35" s="2" t="s">

--- a/Airfoil Database/list_airfoils.xlsx
+++ b/Airfoil Database/list_airfoils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aadit\GP-Aero\Airfoil Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6546F64C-8BF5-48FC-A4CA-A2D503BF84FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567C62B0-68F3-49F4-B8BE-B97521083D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14520" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -600,9 +600,6 @@
     <t>NASA SC family</t>
   </si>
   <si>
-    <t>Ongoing work by Aaditya</t>
-  </si>
-  <si>
     <t>DU 91-W-250</t>
   </si>
   <si>
@@ -856,6 +853,9 @@
   </si>
   <si>
     <t>0.5, 0.6 , 0.65, 0.70, 0.72, 0.74, 0.76</t>
+  </si>
+  <si>
+    <t>run 55 mach .760 Re4.4e6 A m4.0 has ommitted outlier</t>
   </si>
 </sst>
 </file>
@@ -1717,10 +1717,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A30" sqref="A30"/>
-      <selection pane="topRight" activeCell="G35" sqref="G35"/>
+      <selection pane="topRight" activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2829,7 +2829,7 @@
         <v>24</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -3277,10 +3277,10 @@
         <v>179</v>
       </c>
       <c r="B35" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>180</v>
@@ -3315,15 +3315,15 @@
         <v>24</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>183</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="C36" s="34">
         <v>0.22</v>
@@ -3335,7 +3335,7 @@
         <v>21</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G36" s="2">
         <v>3</v>
@@ -3351,10 +3351,10 @@
         <v>28</v>
       </c>
       <c r="L36" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>24</v>
@@ -3363,10 +3363,10 @@
     </row>
     <row r="37" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="C37" s="2">
         <v>0.22</v>
@@ -3378,7 +3378,7 @@
         <v>21</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G37" s="2">
         <v>3</v>
@@ -3394,10 +3394,10 @@
         <v>28</v>
       </c>
       <c r="L37" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>24</v>
@@ -3406,22 +3406,22 @@
     </row>
     <row r="38" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E38" s="28">
         <v>0.01</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G38" s="2">
         <v>18</v>
@@ -3449,22 +3449,22 @@
     </row>
     <row r="39" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="E39" s="2">
         <v>0.08</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G39" s="2">
         <v>6</v>
@@ -3480,24 +3480,24 @@
         <v>28</v>
       </c>
       <c r="L39" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M39" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>24</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40" s="37" t="s">
         <v>201</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>202</v>
       </c>
       <c r="C40" s="37">
         <v>0.1</v>
@@ -3509,7 +3509,7 @@
         <v>21</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G40" s="37">
         <v>2</v>
@@ -3525,10 +3525,10 @@
         <v>28</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>24</v>
@@ -3537,10 +3537,10 @@
     </row>
     <row r="41" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B41" s="37" t="s">
         <v>205</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>206</v>
       </c>
       <c r="C41" s="37">
         <v>0.15</v>
@@ -3552,7 +3552,7 @@
         <v>21</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G41" s="37">
         <v>6</v>
@@ -3568,10 +3568,10 @@
         <v>28</v>
       </c>
       <c r="L41" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="M41" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>24</v>
@@ -3580,10 +3580,10 @@
     </row>
     <row r="42" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="B42" s="37" t="s">
         <v>210</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>211</v>
       </c>
       <c r="C42" s="37">
         <v>0.15</v>
@@ -3595,7 +3595,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G42" s="37">
         <v>6</v>
@@ -3611,10 +3611,10 @@
         <v>28</v>
       </c>
       <c r="L42" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="M42" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>24</v>
@@ -3623,10 +3623,10 @@
     </row>
     <row r="43" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" s="37" t="s">
         <v>212</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>213</v>
       </c>
       <c r="C43" s="37">
         <v>0.122</v>
@@ -3638,7 +3638,7 @@
         <v>21</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G43" s="37">
         <v>6</v>
@@ -3654,10 +3654,10 @@
         <v>28</v>
       </c>
       <c r="L43" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="M43" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>24</v>
@@ -3666,10 +3666,10 @@
     </row>
     <row r="44" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="B44" s="37" t="s">
         <v>216</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>217</v>
       </c>
       <c r="C44" s="37">
         <v>0.122</v>
@@ -3681,7 +3681,7 @@
         <v>21</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G44" s="37">
         <v>6</v>
@@ -3697,10 +3697,10 @@
         <v>28</v>
       </c>
       <c r="L44" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="M44" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>24</v>
@@ -3709,10 +3709,10 @@
     </row>
     <row r="45" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="B45" s="37" t="s">
         <v>218</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>219</v>
       </c>
       <c r="C45" s="37">
         <v>0.122</v>
@@ -3724,7 +3724,7 @@
         <v>21</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G45" s="37">
         <v>6</v>
@@ -3740,10 +3740,10 @@
         <v>28</v>
       </c>
       <c r="L45" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="M45" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>24</v>
@@ -3752,10 +3752,10 @@
     </row>
     <row r="46" spans="1:15" s="44" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A46" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B46" s="41" t="s">
         <v>220</v>
-      </c>
-      <c r="B46" s="41" t="s">
-        <v>221</v>
       </c>
       <c r="C46" s="40">
         <v>0.09</v>
@@ -3767,7 +3767,7 @@
         <v>21</v>
       </c>
       <c r="F46" s="41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G46" s="40">
         <v>29</v>
@@ -3783,21 +3783,21 @@
         <v>28</v>
       </c>
       <c r="L46" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M46" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N46" s="40" t="s">
         <v>64</v>
       </c>
       <c r="O46" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>146</v>
@@ -3840,10 +3840,10 @@
     </row>
     <row r="48" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="C48" s="2">
         <v>0.104</v>
@@ -3855,7 +3855,7 @@
         <v>21</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G48" s="2">
         <v>6</v>
@@ -3880,15 +3880,15 @@
         <v>24</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="C49" s="2">
         <v>0.106</v>
@@ -3900,7 +3900,7 @@
         <v>21</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G49" s="2">
         <v>6</v>
@@ -3925,12 +3925,12 @@
         <v>24</v>
       </c>
       <c r="O49" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>21</v>
@@ -3945,7 +3945,7 @@
         <v>21</v>
       </c>
       <c r="F50" s="52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G50" s="2">
         <v>14</v>
@@ -3970,15 +3970,15 @@
         <v>24</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="C51" s="2">
         <v>0.12</v>
@@ -3990,7 +3990,7 @@
         <v>21</v>
       </c>
       <c r="F51" s="53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G51" s="2">
         <v>8</v>
@@ -4006,24 +4006,24 @@
         <v>28</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>64</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C52" s="2">
         <v>0.12</v>
@@ -4035,7 +4035,7 @@
         <v>21</v>
       </c>
       <c r="F52" s="53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G52" s="2">
         <v>8</v>
@@ -4051,36 +4051,36 @@
         <v>28</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>64</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B53" s="48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F53" s="53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G53" s="2">
         <v>8</v>
@@ -4105,27 +4105,27 @@
         <v>24</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B54" s="2">
         <v>0</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F54" s="53" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G54" s="2">
         <v>2</v>
@@ -4144,18 +4144,18 @@
         <v>21</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>24</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B55" s="48" t="s">
         <v>39</v>
@@ -4170,7 +4170,7 @@
         <v>21</v>
       </c>
       <c r="F55" s="53" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G55" s="2">
         <v>9</v>
@@ -4196,10 +4196,10 @@
     </row>
     <row r="56" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B56" s="15" t="s">
         <v>254</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>255</v>
       </c>
       <c r="C56" s="15">
         <v>0.1</v>
@@ -4211,7 +4211,7 @@
       <c r="H56" s="55"/>
       <c r="I56" s="2"/>
       <c r="L56" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>23</v>
@@ -4223,10 +4223,10 @@
     </row>
     <row r="57" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B57" s="48" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>103</v>
@@ -4238,7 +4238,7 @@
         <v>21</v>
       </c>
       <c r="F57" s="53" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G57" s="2">
         <v>16</v>
@@ -4263,15 +4263,15 @@
         <v>24</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="1:15" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B58" s="48" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C58" s="2">
         <v>0.15</v>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G58" s="2">
         <v>8</v>
@@ -4306,7 +4306,7 @@
         <v>24</v>
       </c>
       <c r="O58" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">

--- a/Airfoil Database/list_airfoils.xlsx
+++ b/Airfoil Database/list_airfoils.xlsx
@@ -1,33 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aadit\GP-Aero\Airfoil Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cloned Respositories\GP-Aero\Airfoil Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567C62B0-68F3-49F4-B8BE-B97521083D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1244E3-CD27-47AD-85CD-AB05941043EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14520" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -36,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="272">
   <si>
     <t>Airfoil</t>
   </si>
@@ -856,13 +845,25 @@
   </si>
   <si>
     <t>run 55 mach .760 Re4.4e6 A m4.0 has ommitted outlier</t>
+  </si>
+  <si>
+    <t>0, 0.5, 1.0, 1.5, 2.0, 2.5, 3.5</t>
+  </si>
+  <si>
+    <t>0.5 - 0.83</t>
+  </si>
+  <si>
+    <t>Airfoil 26a</t>
+  </si>
+  <si>
+    <t>NASA TM X-2978</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1074,8 +1075,29 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1103,6 +1125,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1137,15 +1164,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1304,16 +1332,47 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="3" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Excel Built-in Good" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Excel Built-in Good 1" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Excel Built-in Neutral" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Good" xfId="6" builtinId="26"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1411,7 +1470,7 @@
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Symmetry"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Airfoil Family"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Design"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Use"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Use" dataDxfId="0"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1419,9 +1478,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1459,7 +1518,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1565,7 +1624,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1707,7 +1766,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1717,30 +1776,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="A30" sqref="A30"/>
-      <selection pane="topRight" activeCell="A35" sqref="A35:XFD35"/>
+      <selection pane="topRight" activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="16.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="16.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1796875" style="1" customWidth="1"/>
     <col min="11" max="12" width="28" style="1" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="17.21875" customWidth="1"/>
-    <col min="15" max="15" width="71.5546875" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" customWidth="1"/>
+    <col min="15" max="15" width="71.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1790,7 +1849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1834,10 +1893,10 @@
       <c r="O2" s="7"/>
       <c r="Q2" s="8">
         <f>SUM(G2:G11,G14:G16,G18:G22,G24:G65)</f>
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1880,7 +1939,7 @@
       </c>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -1925,7 +1984,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -1980,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>33</v>
       </c>
@@ -2029,7 +2088,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>38</v>
       </c>
@@ -2079,7 +2138,7 @@
         <v>1.0265523532247542</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="8" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" s="8" customFormat="1" ht="62" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
@@ -2124,7 +2183,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
@@ -2169,7 +2228,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="8" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" s="8" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>52</v>
       </c>
@@ -2214,7 +2273,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
@@ -2259,7 +2318,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>61</v>
       </c>
@@ -2304,7 +2363,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="31" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>66</v>
       </c>
@@ -2349,7 +2408,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" s="8" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
         <v>70</v>
       </c>
@@ -2394,7 +2453,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="21" t="s">
         <v>76</v>
       </c>
@@ -2437,7 +2496,7 @@
       </c>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
         <v>81</v>
       </c>
@@ -2480,7 +2539,7 @@
       </c>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>82</v>
       </c>
@@ -2525,7 +2584,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" s="8" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>88</v>
       </c>
@@ -2570,7 +2629,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
         <v>95</v>
       </c>
@@ -2615,7 +2674,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>101</v>
       </c>
@@ -2660,7 +2719,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>106</v>
       </c>
@@ -2701,7 +2760,7 @@
       </c>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>109</v>
       </c>
@@ -2740,11 +2799,11 @@
         <v>115</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>116</v>
       </c>
@@ -2787,7 +2846,7 @@
       </c>
       <c r="O23" s="23"/>
     </row>
-    <row r="24" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="46" t="s">
         <v>122</v>
       </c>
@@ -2832,7 +2891,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="46" t="s">
         <v>128</v>
       </c>
@@ -2875,7 +2934,7 @@
       </c>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="29" t="s">
         <v>134</v>
       </c>
@@ -2918,7 +2977,7 @@
       </c>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>141</v>
       </c>
@@ -2961,7 +3020,7 @@
       </c>
       <c r="O27" s="7"/>
     </row>
-    <row r="28" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>145</v>
       </c>
@@ -3004,7 +3063,7 @@
       </c>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" spans="1:15" s="30" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" s="30" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>149</v>
       </c>
@@ -3049,7 +3108,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" s="8" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
         <v>156</v>
       </c>
@@ -3094,7 +3153,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="21" t="s">
         <v>162</v>
       </c>
@@ -3139,7 +3198,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="21" t="s">
         <v>170</v>
       </c>
@@ -3182,7 +3241,7 @@
       </c>
       <c r="O32" s="7"/>
     </row>
-    <row r="33" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="21" t="s">
         <v>171</v>
       </c>
@@ -3227,7 +3286,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="21" t="s">
         <v>174</v>
       </c>
@@ -3272,7 +3331,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>179</v>
       </c>
@@ -3318,7 +3377,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" s="30" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="21" t="s">
         <v>183</v>
       </c>
@@ -3361,7 +3420,7 @@
       </c>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="21" t="s">
         <v>188</v>
       </c>
@@ -3404,7 +3463,7 @@
       </c>
       <c r="O37" s="7"/>
     </row>
-    <row r="38" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="s">
         <v>190</v>
       </c>
@@ -3447,7 +3506,7 @@
       </c>
       <c r="O38" s="7"/>
     </row>
-    <row r="39" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>194</v>
       </c>
@@ -3492,7 +3551,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="36" t="s">
         <v>200</v>
       </c>
@@ -3535,7 +3594,7 @@
       </c>
       <c r="O40" s="23"/>
     </row>
-    <row r="41" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="36" t="s">
         <v>204</v>
       </c>
@@ -3578,7 +3637,7 @@
       </c>
       <c r="O41" s="23"/>
     </row>
-    <row r="42" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="36" t="s">
         <v>209</v>
       </c>
@@ -3621,7 +3680,7 @@
       </c>
       <c r="O42" s="23"/>
     </row>
-    <row r="43" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="36" t="s">
         <v>211</v>
       </c>
@@ -3664,7 +3723,7 @@
       </c>
       <c r="O43" s="23"/>
     </row>
-    <row r="44" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="36" t="s">
         <v>215</v>
       </c>
@@ -3707,7 +3766,7 @@
       </c>
       <c r="O44" s="23"/>
     </row>
-    <row r="45" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="36" t="s">
         <v>217</v>
       </c>
@@ -3750,7 +3809,7 @@
       </c>
       <c r="O45" s="23"/>
     </row>
-    <row r="46" spans="1:15" s="44" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="44" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A46" s="40" t="s">
         <v>219</v>
       </c>
@@ -3795,7 +3854,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>224</v>
       </c>
@@ -3838,7 +3897,7 @@
       </c>
       <c r="O47" s="7"/>
     </row>
-    <row r="48" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>225</v>
       </c>
@@ -3883,7 +3942,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="31" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>227</v>
       </c>
@@ -3928,7 +3987,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>229</v>
       </c>
@@ -3973,7 +4032,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>231</v>
       </c>
@@ -4018,7 +4077,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>236</v>
       </c>
@@ -4063,7 +4122,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>239</v>
       </c>
@@ -4108,7 +4167,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>244</v>
       </c>
@@ -4153,7 +4212,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>251</v>
       </c>
@@ -4194,7 +4253,7 @@
       </c>
       <c r="O55" s="7"/>
     </row>
-    <row r="56" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
         <v>253</v>
       </c>
@@ -4221,7 +4280,7 @@
       </c>
       <c r="O56" s="23"/>
     </row>
-    <row r="57" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>263</v>
       </c>
@@ -4266,7 +4325,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" s="8" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>258</v>
       </c>
@@ -4279,7 +4338,9 @@
       <c r="D58" s="3">
         <v>2200000</v>
       </c>
-      <c r="E58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F58" s="53" t="s">
         <v>259</v>
       </c>
@@ -4309,24 +4370,50 @@
         <v>261</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+    <row r="59" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="B59" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="C59" s="58" t="s">
+        <v>269</v>
+      </c>
+      <c r="D59" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="G59" s="58">
+        <v>58</v>
+      </c>
+      <c r="H59" s="59"/>
+      <c r="I59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="O59" s="23"/>
     </row>
-    <row r="60" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
@@ -4343,7 +4430,7 @@
       <c r="N60" s="2"/>
       <c r="O60" s="23"/>
     </row>
-    <row r="61" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -4360,7 +4447,7 @@
       <c r="N61" s="2"/>
       <c r="O61" s="23"/>
     </row>
-    <row r="62" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
@@ -4377,7 +4464,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="23"/>
     </row>
-    <row r="63" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -4394,7 +4481,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="23"/>
     </row>
-    <row r="64" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
@@ -4411,7 +4498,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="23"/>
     </row>
-    <row r="65" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
@@ -4428,7 +4515,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="23"/>
     </row>
-    <row r="66" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
@@ -4445,7 +4532,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="23"/>
     </row>
-    <row r="67" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
@@ -4462,7 +4549,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="23"/>
     </row>
-    <row r="68" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
@@ -4479,7 +4566,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="23"/>
     </row>
-    <row r="69" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -4496,7 +4583,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="23"/>
     </row>
-    <row r="70" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -4513,7 +4600,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="23"/>
     </row>
-    <row r="71" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -4530,7 +4617,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="23"/>
     </row>
-    <row r="72" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -4547,7 +4634,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="23"/>
     </row>
-    <row r="73" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -4564,7 +4651,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="23"/>
     </row>
-    <row r="74" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -4581,7 +4668,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="23"/>
     </row>
-    <row r="75" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -4598,7 +4685,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="23"/>
     </row>
-    <row r="76" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -4615,7 +4702,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="23"/>
     </row>
-    <row r="77" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -4632,7 +4719,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="23"/>
     </row>
-    <row r="78" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -4649,7 +4736,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="23"/>
     </row>
-    <row r="79" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -4666,7 +4753,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="23"/>
     </row>
-    <row r="80" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -4683,7 +4770,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="23"/>
     </row>
-    <row r="81" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -4700,7 +4787,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="23"/>
     </row>
-    <row r="82" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -4717,7 +4804,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="23"/>
     </row>
-    <row r="83" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -4734,7 +4821,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="23"/>
     </row>
-    <row r="84" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -4751,7 +4838,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="23"/>
     </row>
-    <row r="85" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -4768,7 +4855,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="23"/>
     </row>
-    <row r="86" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="15"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
@@ -4785,7 +4872,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="23"/>
     </row>
-    <row r="87" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="15"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -4802,7 +4889,7 @@
       <c r="N87" s="2"/>
       <c r="O87" s="23"/>
     </row>
-    <row r="88" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -4819,7 +4906,7 @@
       <c r="N88" s="2"/>
       <c r="O88" s="23"/>
     </row>
-    <row r="89" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -4836,7 +4923,7 @@
       <c r="N89" s="2"/>
       <c r="O89" s="23"/>
     </row>
-    <row r="90" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -4853,7 +4940,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="23"/>
     </row>
-    <row r="91" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -4870,7 +4957,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="23"/>
     </row>
-    <row r="92" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -4887,7 +4974,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="23"/>
     </row>
-    <row r="93" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -4904,7 +4991,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="23"/>
     </row>
-    <row r="94" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -4921,7 +5008,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="23"/>
     </row>
-    <row r="95" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -4938,7 +5025,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="23"/>
     </row>
-    <row r="96" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -4955,7 +5042,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="23"/>
     </row>
-    <row r="97" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -4972,7 +5059,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="23"/>
     </row>
-    <row r="98" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -4989,7 +5076,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="23"/>
     </row>
-    <row r="99" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="15"/>
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
@@ -5006,7 +5093,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="23"/>
     </row>
-    <row r="100" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="15"/>
       <c r="B100" s="15"/>
       <c r="C100" s="15"/>
@@ -5023,7 +5110,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="23"/>
     </row>
-    <row r="101" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="15"/>
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
@@ -5040,7 +5127,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="23"/>
     </row>
-    <row r="102" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="15"/>
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>
@@ -5057,7 +5144,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="23"/>
     </row>
-    <row r="103" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="15"/>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
@@ -5074,7 +5161,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="23"/>
     </row>
-    <row r="104" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="15"/>
       <c r="B104" s="15"/>
       <c r="C104" s="15"/>
@@ -5091,7 +5178,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="23"/>
     </row>
-    <row r="105" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="15"/>
       <c r="B105" s="15"/>
       <c r="C105" s="15"/>
@@ -5108,7 +5195,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="23"/>
     </row>
-    <row r="106" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="15"/>
       <c r="B106" s="15"/>
       <c r="C106" s="15"/>
@@ -5125,7 +5212,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="23"/>
     </row>
-    <row r="107" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="15"/>
       <c r="B107" s="15"/>
       <c r="C107" s="15"/>
@@ -5142,7 +5229,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="23"/>
     </row>
-    <row r="108" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="15"/>
       <c r="B108" s="15"/>
       <c r="C108" s="15"/>
@@ -5159,7 +5246,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="23"/>
     </row>
-    <row r="109" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="15"/>
       <c r="B109" s="15"/>
       <c r="C109" s="15"/>
@@ -5176,7 +5263,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="23"/>
     </row>
-    <row r="110" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="15"/>
       <c r="B110" s="15"/>
       <c r="C110" s="15"/>
@@ -5193,7 +5280,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="23"/>
     </row>
-    <row r="111" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="15"/>
       <c r="B111" s="15"/>
       <c r="C111" s="15"/>
@@ -5210,7 +5297,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="23"/>
     </row>
-    <row r="112" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="15"/>
       <c r="B112" s="15"/>
       <c r="C112" s="15"/>
@@ -5227,7 +5314,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="23"/>
     </row>
-    <row r="113" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="15"/>
       <c r="B113" s="15"/>
       <c r="C113" s="15"/>
@@ -5244,7 +5331,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="23"/>
     </row>
-    <row r="114" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="15"/>
       <c r="B114" s="15"/>
       <c r="C114" s="15"/>
@@ -5261,7 +5348,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="23"/>
     </row>
-    <row r="115" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="15"/>
       <c r="B115" s="15"/>
       <c r="C115" s="15"/>
@@ -5278,7 +5365,7 @@
       <c r="N115" s="2"/>
       <c r="O115" s="23"/>
     </row>
-    <row r="116" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="15"/>
       <c r="B116" s="15"/>
       <c r="C116" s="15"/>
@@ -5295,7 +5382,7 @@
       <c r="N116" s="2"/>
       <c r="O116" s="23"/>
     </row>
-    <row r="117" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="15"/>
       <c r="B117" s="15"/>
       <c r="C117" s="15"/>
@@ -5312,7 +5399,7 @@
       <c r="N117" s="2"/>
       <c r="O117" s="23"/>
     </row>
-    <row r="118" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="15"/>
       <c r="B118" s="15"/>
       <c r="C118" s="15"/>
@@ -5329,7 +5416,7 @@
       <c r="N118" s="2"/>
       <c r="O118" s="23"/>
     </row>
-    <row r="119" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="15"/>
       <c r="B119" s="15"/>
       <c r="C119" s="15"/>
@@ -5346,7 +5433,7 @@
       <c r="N119" s="2"/>
       <c r="O119" s="23"/>
     </row>
-    <row r="120" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="15"/>
       <c r="B120" s="15"/>
       <c r="C120" s="15"/>
@@ -5363,7 +5450,7 @@
       <c r="N120" s="2"/>
       <c r="O120" s="23"/>
     </row>
-    <row r="121" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="15"/>
       <c r="B121" s="15"/>
       <c r="C121" s="15"/>
@@ -5380,7 +5467,7 @@
       <c r="N121" s="2"/>
       <c r="O121" s="23"/>
     </row>
-    <row r="122" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="15"/>
       <c r="B122" s="15"/>
       <c r="C122" s="15"/>
@@ -5397,7 +5484,7 @@
       <c r="N122" s="2"/>
       <c r="O122" s="23"/>
     </row>
-    <row r="123" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="15"/>
       <c r="B123" s="15"/>
       <c r="C123" s="15"/>
@@ -5414,7 +5501,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="23"/>
     </row>
-    <row r="124" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="15"/>
       <c r="B124" s="15"/>
       <c r="C124" s="15"/>
@@ -5431,7 +5518,7 @@
       <c r="N124" s="2"/>
       <c r="O124" s="23"/>
     </row>
-    <row r="125" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="15"/>
       <c r="B125" s="15"/>
       <c r="C125" s="15"/>
@@ -5448,7 +5535,7 @@
       <c r="N125" s="2"/>
       <c r="O125" s="23"/>
     </row>
-    <row r="126" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="15"/>
       <c r="B126" s="15"/>
       <c r="C126" s="15"/>
@@ -5465,7 +5552,7 @@
       <c r="N126" s="2"/>
       <c r="O126" s="23"/>
     </row>
-    <row r="127" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="15"/>
       <c r="B127" s="15"/>
       <c r="C127" s="15"/>
@@ -5482,7 +5569,7 @@
       <c r="N127" s="2"/>
       <c r="O127" s="23"/>
     </row>
-    <row r="128" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="15"/>
       <c r="B128" s="15"/>
       <c r="C128" s="15"/>
@@ -5499,7 +5586,7 @@
       <c r="N128" s="2"/>
       <c r="O128" s="23"/>
     </row>
-    <row r="129" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
@@ -5516,7 +5603,7 @@
       <c r="N129" s="2"/>
       <c r="O129" s="23"/>
     </row>
-    <row r="130" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="15"/>
       <c r="B130" s="15"/>
       <c r="C130" s="15"/>
@@ -5533,7 +5620,7 @@
       <c r="N130" s="2"/>
       <c r="O130" s="23"/>
     </row>
-    <row r="131" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="15"/>
       <c r="B131" s="15"/>
       <c r="C131" s="15"/>
@@ -5550,7 +5637,7 @@
       <c r="N131" s="2"/>
       <c r="O131" s="23"/>
     </row>
-    <row r="132" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A132" s="15"/>
       <c r="B132" s="15"/>
       <c r="C132" s="15"/>
@@ -5567,7 +5654,7 @@
       <c r="N132" s="2"/>
       <c r="O132" s="23"/>
     </row>
-    <row r="133" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133" s="15"/>
       <c r="B133" s="15"/>
       <c r="C133" s="15"/>
@@ -5584,7 +5671,7 @@
       <c r="N133" s="2"/>
       <c r="O133" s="23"/>
     </row>
-    <row r="134" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" s="15"/>
       <c r="B134" s="15"/>
       <c r="C134" s="15"/>
@@ -5601,7 +5688,7 @@
       <c r="N134" s="2"/>
       <c r="O134" s="23"/>
     </row>
-    <row r="135" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A135" s="15"/>
       <c r="B135" s="15"/>
       <c r="C135" s="15"/>
@@ -5618,7 +5705,7 @@
       <c r="N135" s="2"/>
       <c r="O135" s="23"/>
     </row>
-    <row r="136" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A136" s="15"/>
       <c r="B136" s="15"/>
       <c r="C136" s="15"/>
@@ -5635,7 +5722,7 @@
       <c r="N136" s="2"/>
       <c r="O136" s="23"/>
     </row>
-    <row r="137" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A137" s="15"/>
       <c r="B137" s="15"/>
       <c r="C137" s="15"/>
@@ -5652,7 +5739,7 @@
       <c r="N137" s="2"/>
       <c r="O137" s="23"/>
     </row>
-    <row r="138" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A138" s="15"/>
       <c r="B138" s="15"/>
       <c r="C138" s="15"/>
@@ -5669,7 +5756,7 @@
       <c r="N138" s="2"/>
       <c r="O138" s="23"/>
     </row>
-    <row r="139" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="15"/>
       <c r="B139" s="15"/>
       <c r="C139" s="15"/>
@@ -5686,7 +5773,7 @@
       <c r="N139" s="2"/>
       <c r="O139" s="23"/>
     </row>
-    <row r="140" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="15"/>
       <c r="B140" s="15"/>
       <c r="C140" s="15"/>
@@ -5703,7 +5790,7 @@
       <c r="N140" s="2"/>
       <c r="O140" s="23"/>
     </row>
-    <row r="141" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141" s="15"/>
       <c r="B141" s="15"/>
       <c r="C141" s="15"/>
@@ -5720,7 +5807,7 @@
       <c r="N141" s="2"/>
       <c r="O141" s="23"/>
     </row>
-    <row r="142" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A142" s="15"/>
       <c r="B142" s="15"/>
       <c r="C142" s="15"/>
@@ -5737,7 +5824,7 @@
       <c r="N142" s="2"/>
       <c r="O142" s="23"/>
     </row>
-    <row r="143" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A143" s="15"/>
       <c r="B143" s="15"/>
       <c r="C143" s="15"/>
@@ -5754,7 +5841,7 @@
       <c r="N143" s="2"/>
       <c r="O143" s="23"/>
     </row>
-    <row r="144" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A144" s="15"/>
       <c r="B144" s="15"/>
       <c r="C144" s="15"/>
@@ -5771,7 +5858,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="23"/>
     </row>
-    <row r="145" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A145" s="15"/>
       <c r="B145" s="15"/>
       <c r="C145" s="15"/>
@@ -5788,7 +5875,7 @@
       <c r="N145" s="2"/>
       <c r="O145" s="23"/>
     </row>
-    <row r="146" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="15"/>
       <c r="B146" s="15"/>
       <c r="C146" s="15"/>
@@ -5805,7 +5892,7 @@
       <c r="N146" s="2"/>
       <c r="O146" s="23"/>
     </row>
-    <row r="147" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A147" s="15"/>
       <c r="B147" s="15"/>
       <c r="C147" s="15"/>
@@ -5822,7 +5909,7 @@
       <c r="N147" s="2"/>
       <c r="O147" s="23"/>
     </row>
-    <row r="148" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A148" s="15"/>
       <c r="B148" s="15"/>
       <c r="C148" s="15"/>
@@ -5839,7 +5926,7 @@
       <c r="N148" s="2"/>
       <c r="O148" s="23"/>
     </row>
-    <row r="149" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A149" s="15"/>
       <c r="B149" s="15"/>
       <c r="C149" s="15"/>
@@ -5856,7 +5943,7 @@
       <c r="N149" s="2"/>
       <c r="O149" s="23"/>
     </row>
-    <row r="150" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A150" s="15"/>
       <c r="B150" s="15"/>
       <c r="C150" s="15"/>
@@ -5873,7 +5960,7 @@
       <c r="N150" s="2"/>
       <c r="O150" s="23"/>
     </row>
-    <row r="151" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A151" s="15"/>
       <c r="B151" s="15"/>
       <c r="C151" s="15"/>
@@ -5890,7 +5977,7 @@
       <c r="N151" s="2"/>
       <c r="O151" s="23"/>
     </row>
-    <row r="152" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A152" s="15"/>
       <c r="B152" s="15"/>
       <c r="C152" s="15"/>
@@ -5907,7 +5994,7 @@
       <c r="N152" s="2"/>
       <c r="O152" s="23"/>
     </row>
-    <row r="153" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A153" s="15"/>
       <c r="B153" s="15"/>
       <c r="C153" s="15"/>
@@ -5924,7 +6011,7 @@
       <c r="N153" s="2"/>
       <c r="O153" s="23"/>
     </row>
-    <row r="154" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A154" s="15"/>
       <c r="B154" s="15"/>
       <c r="C154" s="15"/>
@@ -5941,7 +6028,7 @@
       <c r="N154" s="2"/>
       <c r="O154" s="23"/>
     </row>
-    <row r="155" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A155" s="15"/>
       <c r="B155" s="15"/>
       <c r="C155" s="15"/>
@@ -5958,7 +6045,7 @@
       <c r="N155" s="2"/>
       <c r="O155" s="23"/>
     </row>
-    <row r="156" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A156" s="15"/>
       <c r="B156" s="15"/>
       <c r="C156" s="15"/>
@@ -5975,7 +6062,7 @@
       <c r="N156" s="2"/>
       <c r="O156" s="23"/>
     </row>
-    <row r="157" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A157" s="15"/>
       <c r="B157" s="15"/>
       <c r="C157" s="15"/>
@@ -5992,7 +6079,7 @@
       <c r="N157" s="2"/>
       <c r="O157" s="23"/>
     </row>
-    <row r="158" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A158" s="15"/>
       <c r="B158" s="15"/>
       <c r="C158" s="15"/>
@@ -6009,7 +6096,7 @@
       <c r="N158" s="2"/>
       <c r="O158" s="23"/>
     </row>
-    <row r="159" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A159" s="15"/>
       <c r="B159" s="15"/>
       <c r="C159" s="15"/>
@@ -6026,7 +6113,7 @@
       <c r="N159" s="2"/>
       <c r="O159" s="23"/>
     </row>
-    <row r="160" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A160" s="15"/>
       <c r="B160" s="15"/>
       <c r="C160" s="15"/>
@@ -6043,7 +6130,7 @@
       <c r="N160" s="2"/>
       <c r="O160" s="23"/>
     </row>
-    <row r="161" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A161" s="15"/>
       <c r="B161" s="15"/>
       <c r="C161" s="15"/>
@@ -6060,7 +6147,7 @@
       <c r="N161" s="2"/>
       <c r="O161" s="23"/>
     </row>
-    <row r="162" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A162" s="15"/>
       <c r="B162" s="15"/>
       <c r="C162" s="15"/>
@@ -6077,7 +6164,7 @@
       <c r="N162" s="2"/>
       <c r="O162" s="23"/>
     </row>
-    <row r="163" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A163" s="15"/>
       <c r="B163" s="15"/>
       <c r="C163" s="15"/>
@@ -6094,7 +6181,7 @@
       <c r="N163" s="2"/>
       <c r="O163" s="23"/>
     </row>
-    <row r="164" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A164" s="15"/>
       <c r="B164" s="15"/>
       <c r="C164" s="15"/>
@@ -6111,7 +6198,7 @@
       <c r="N164" s="2"/>
       <c r="O164" s="23"/>
     </row>
-    <row r="165" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A165" s="15"/>
       <c r="B165" s="15"/>
       <c r="C165" s="15"/>
@@ -6128,7 +6215,7 @@
       <c r="N165" s="2"/>
       <c r="O165" s="23"/>
     </row>
-    <row r="166" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A166" s="15"/>
       <c r="B166" s="15"/>
       <c r="C166" s="15"/>
@@ -6145,7 +6232,7 @@
       <c r="N166" s="2"/>
       <c r="O166" s="23"/>
     </row>
-    <row r="167" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A167" s="15"/>
       <c r="B167" s="15"/>
       <c r="C167" s="15"/>
@@ -6162,7 +6249,7 @@
       <c r="N167" s="2"/>
       <c r="O167" s="23"/>
     </row>
-    <row r="168" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A168" s="15"/>
       <c r="B168" s="15"/>
       <c r="C168" s="15"/>
@@ -6179,7 +6266,7 @@
       <c r="N168" s="2"/>
       <c r="O168" s="23"/>
     </row>
-    <row r="169" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A169" s="15"/>
       <c r="B169" s="15"/>
       <c r="C169" s="15"/>
@@ -6196,7 +6283,7 @@
       <c r="N169" s="2"/>
       <c r="O169" s="23"/>
     </row>
-    <row r="170" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A170" s="15"/>
       <c r="B170" s="15"/>
       <c r="C170" s="15"/>
@@ -6213,7 +6300,7 @@
       <c r="N170" s="2"/>
       <c r="O170" s="23"/>
     </row>
-    <row r="171" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A171" s="15"/>
       <c r="B171" s="15"/>
       <c r="C171" s="15"/>
@@ -6230,7 +6317,7 @@
       <c r="N171" s="2"/>
       <c r="O171" s="23"/>
     </row>
-    <row r="172" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A172" s="15"/>
       <c r="B172" s="15"/>
       <c r="C172" s="15"/>
@@ -6247,7 +6334,7 @@
       <c r="N172" s="2"/>
       <c r="O172" s="23"/>
     </row>
-    <row r="173" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A173" s="15"/>
       <c r="B173" s="15"/>
       <c r="C173" s="15"/>
@@ -6264,7 +6351,7 @@
       <c r="N173" s="2"/>
       <c r="O173" s="23"/>
     </row>
-    <row r="174" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A174" s="15"/>
       <c r="B174" s="15"/>
       <c r="C174" s="15"/>
@@ -6281,7 +6368,7 @@
       <c r="N174" s="2"/>
       <c r="O174" s="23"/>
     </row>
-    <row r="175" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A175" s="15"/>
       <c r="B175" s="15"/>
       <c r="C175" s="15"/>
@@ -6298,7 +6385,7 @@
       <c r="N175" s="2"/>
       <c r="O175" s="23"/>
     </row>
-    <row r="176" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A176" s="15"/>
       <c r="B176" s="15"/>
       <c r="C176" s="15"/>
@@ -6315,7 +6402,7 @@
       <c r="N176" s="2"/>
       <c r="O176" s="23"/>
     </row>
-    <row r="177" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A177" s="15"/>
       <c r="B177" s="15"/>
       <c r="C177" s="15"/>
@@ -6332,7 +6419,7 @@
       <c r="N177" s="2"/>
       <c r="O177" s="23"/>
     </row>
-    <row r="178" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A178" s="15"/>
       <c r="B178" s="15"/>
       <c r="C178" s="15"/>
@@ -6349,7 +6436,7 @@
       <c r="N178" s="2"/>
       <c r="O178" s="23"/>
     </row>
-    <row r="179" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A179" s="15"/>
       <c r="B179" s="15"/>
       <c r="C179" s="15"/>
@@ -6366,7 +6453,7 @@
       <c r="N179" s="2"/>
       <c r="O179" s="23"/>
     </row>
-    <row r="180" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A180" s="15"/>
       <c r="B180" s="15"/>
       <c r="C180" s="15"/>
@@ -6383,7 +6470,7 @@
       <c r="N180" s="2"/>
       <c r="O180" s="23"/>
     </row>
-    <row r="181" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A181" s="15"/>
       <c r="B181" s="15"/>
       <c r="C181" s="15"/>
@@ -6400,7 +6487,7 @@
       <c r="N181" s="2"/>
       <c r="O181" s="23"/>
     </row>
-    <row r="182" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A182" s="15"/>
       <c r="B182" s="15"/>
       <c r="C182" s="15"/>
@@ -6417,7 +6504,7 @@
       <c r="N182" s="2"/>
       <c r="O182" s="23"/>
     </row>
-    <row r="183" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A183" s="15"/>
       <c r="B183" s="15"/>
       <c r="C183" s="15"/>
@@ -6434,7 +6521,7 @@
       <c r="N183" s="2"/>
       <c r="O183" s="23"/>
     </row>
-    <row r="184" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A184" s="15"/>
       <c r="B184" s="15"/>
       <c r="C184" s="15"/>
@@ -6451,7 +6538,7 @@
       <c r="N184" s="2"/>
       <c r="O184" s="23"/>
     </row>
-    <row r="185" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A185" s="15"/>
       <c r="B185" s="15"/>
       <c r="C185" s="15"/>
@@ -6468,7 +6555,7 @@
       <c r="N185" s="2"/>
       <c r="O185" s="23"/>
     </row>
-    <row r="186" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A186" s="15"/>
       <c r="B186" s="15"/>
       <c r="C186" s="15"/>
@@ -6485,7 +6572,7 @@
       <c r="N186" s="2"/>
       <c r="O186" s="23"/>
     </row>
-    <row r="187" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A187" s="15"/>
       <c r="B187" s="15"/>
       <c r="C187" s="15"/>
@@ -6502,7 +6589,7 @@
       <c r="N187" s="2"/>
       <c r="O187" s="23"/>
     </row>
-    <row r="188" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A188" s="15"/>
       <c r="B188" s="15"/>
       <c r="C188" s="15"/>
@@ -6519,7 +6606,7 @@
       <c r="N188" s="2"/>
       <c r="O188" s="23"/>
     </row>
-    <row r="189" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A189" s="15"/>
       <c r="B189" s="15"/>
       <c r="C189" s="15"/>
@@ -6536,7 +6623,7 @@
       <c r="N189" s="2"/>
       <c r="O189" s="23"/>
     </row>
-    <row r="190" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A190" s="15"/>
       <c r="B190" s="15"/>
       <c r="C190" s="15"/>
@@ -6553,7 +6640,7 @@
       <c r="N190" s="2"/>
       <c r="O190" s="23"/>
     </row>
-    <row r="191" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A191" s="15"/>
       <c r="B191" s="15"/>
       <c r="C191" s="15"/>
@@ -6570,7 +6657,7 @@
       <c r="N191" s="2"/>
       <c r="O191" s="23"/>
     </row>
-    <row r="192" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A192" s="15"/>
       <c r="B192" s="15"/>
       <c r="C192" s="15"/>
@@ -6587,7 +6674,7 @@
       <c r="N192" s="2"/>
       <c r="O192" s="23"/>
     </row>
-    <row r="193" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A193" s="15"/>
       <c r="B193" s="15"/>
       <c r="C193" s="15"/>
@@ -6604,7 +6691,7 @@
       <c r="N193" s="2"/>
       <c r="O193" s="23"/>
     </row>
-    <row r="194" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A194" s="15"/>
       <c r="B194" s="15"/>
       <c r="C194" s="15"/>
@@ -6621,7 +6708,7 @@
       <c r="N194" s="2"/>
       <c r="O194" s="23"/>
     </row>
-    <row r="195" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A195" s="15"/>
       <c r="B195" s="15"/>
       <c r="C195" s="15"/>
@@ -6638,7 +6725,7 @@
       <c r="N195" s="2"/>
       <c r="O195" s="23"/>
     </row>
-    <row r="196" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A196" s="15"/>
       <c r="B196" s="15"/>
       <c r="C196" s="15"/>
@@ -6655,7 +6742,7 @@
       <c r="N196" s="2"/>
       <c r="O196" s="23"/>
     </row>
-    <row r="197" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A197" s="15"/>
       <c r="B197" s="15"/>
       <c r="C197" s="15"/>
@@ -6672,7 +6759,7 @@
       <c r="N197" s="2"/>
       <c r="O197" s="23"/>
     </row>
-    <row r="198" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A198" s="15"/>
       <c r="B198" s="15"/>
       <c r="C198" s="15"/>
@@ -6689,7 +6776,7 @@
       <c r="N198" s="2"/>
       <c r="O198" s="23"/>
     </row>
-    <row r="199" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A199" s="15"/>
       <c r="B199" s="15"/>
       <c r="C199" s="15"/>
@@ -6706,7 +6793,7 @@
       <c r="N199" s="2"/>
       <c r="O199" s="23"/>
     </row>
-    <row r="200" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A200" s="15"/>
       <c r="B200" s="15"/>
       <c r="C200" s="15"/>
@@ -6723,7 +6810,7 @@
       <c r="N200" s="2"/>
       <c r="O200" s="23"/>
     </row>
-    <row r="201" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A201" s="15"/>
       <c r="B201" s="15"/>
       <c r="C201" s="15"/>
@@ -6740,7 +6827,7 @@
       <c r="N201" s="2"/>
       <c r="O201" s="23"/>
     </row>
-    <row r="202" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A202" s="15"/>
       <c r="B202" s="15"/>
       <c r="C202" s="15"/>
@@ -6757,7 +6844,7 @@
       <c r="N202" s="2"/>
       <c r="O202" s="23"/>
     </row>
-    <row r="203" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A203" s="15"/>
       <c r="B203" s="15"/>
       <c r="C203" s="15"/>
@@ -6774,7 +6861,7 @@
       <c r="N203" s="2"/>
       <c r="O203" s="23"/>
     </row>
-    <row r="204" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A204" s="15"/>
       <c r="B204" s="15"/>
       <c r="C204" s="15"/>
@@ -6791,7 +6878,7 @@
       <c r="N204" s="2"/>
       <c r="O204" s="23"/>
     </row>
-    <row r="205" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A205" s="15"/>
       <c r="B205" s="15"/>
       <c r="C205" s="15"/>
@@ -6808,7 +6895,7 @@
       <c r="N205" s="2"/>
       <c r="O205" s="23"/>
     </row>
-    <row r="206" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A206" s="15"/>
       <c r="B206" s="15"/>
       <c r="C206" s="15"/>
@@ -6825,7 +6912,7 @@
       <c r="N206" s="2"/>
       <c r="O206" s="23"/>
     </row>
-    <row r="207" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A207" s="15"/>
       <c r="B207" s="15"/>
       <c r="C207" s="15"/>
@@ -6842,7 +6929,7 @@
       <c r="N207" s="2"/>
       <c r="O207" s="23"/>
     </row>
-    <row r="208" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A208" s="15"/>
       <c r="B208" s="15"/>
       <c r="C208" s="15"/>
@@ -6859,7 +6946,7 @@
       <c r="N208" s="2"/>
       <c r="O208" s="23"/>
     </row>
-    <row r="209" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A209" s="15"/>
       <c r="B209" s="15"/>
       <c r="C209" s="15"/>
@@ -6876,7 +6963,7 @@
       <c r="N209" s="2"/>
       <c r="O209" s="23"/>
     </row>
-    <row r="210" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A210" s="15"/>
       <c r="B210" s="15"/>
       <c r="C210" s="15"/>
@@ -6893,7 +6980,7 @@
       <c r="N210" s="2"/>
       <c r="O210" s="23"/>
     </row>
-    <row r="211" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A211" s="15"/>
       <c r="B211" s="15"/>
       <c r="C211" s="15"/>
@@ -6910,7 +6997,7 @@
       <c r="N211" s="2"/>
       <c r="O211" s="23"/>
     </row>
-    <row r="212" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A212" s="15"/>
       <c r="B212" s="15"/>
       <c r="C212" s="15"/>
@@ -6927,7 +7014,7 @@
       <c r="N212" s="2"/>
       <c r="O212" s="23"/>
     </row>
-    <row r="213" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A213" s="15"/>
       <c r="B213" s="15"/>
       <c r="C213" s="15"/>
@@ -6944,7 +7031,7 @@
       <c r="N213" s="2"/>
       <c r="O213" s="23"/>
     </row>
-    <row r="214" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A214" s="15"/>
       <c r="B214" s="15"/>
       <c r="C214" s="15"/>
@@ -6961,7 +7048,7 @@
       <c r="N214" s="2"/>
       <c r="O214" s="23"/>
     </row>
-    <row r="215" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A215" s="15"/>
       <c r="B215" s="15"/>
       <c r="C215" s="15"/>
@@ -6978,7 +7065,7 @@
       <c r="N215" s="2"/>
       <c r="O215" s="23"/>
     </row>
-    <row r="216" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A216" s="15"/>
       <c r="B216" s="15"/>
       <c r="C216" s="15"/>
@@ -6995,7 +7082,7 @@
       <c r="N216" s="2"/>
       <c r="O216" s="23"/>
     </row>
-    <row r="217" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A217" s="15"/>
       <c r="B217" s="15"/>
       <c r="C217" s="15"/>
@@ -7012,7 +7099,7 @@
       <c r="N217" s="2"/>
       <c r="O217" s="23"/>
     </row>
-    <row r="218" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A218" s="15"/>
       <c r="B218" s="15"/>
       <c r="C218" s="15"/>
@@ -7029,7 +7116,7 @@
       <c r="N218" s="2"/>
       <c r="O218" s="23"/>
     </row>
-    <row r="219" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A219" s="15"/>
       <c r="B219" s="15"/>
       <c r="C219" s="15"/>
@@ -7046,7 +7133,7 @@
       <c r="N219" s="2"/>
       <c r="O219" s="23"/>
     </row>
-    <row r="220" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A220" s="15"/>
       <c r="B220" s="15"/>
       <c r="C220" s="15"/>
@@ -7063,7 +7150,7 @@
       <c r="N220" s="2"/>
       <c r="O220" s="23"/>
     </row>
-    <row r="221" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A221" s="15"/>
       <c r="B221" s="15"/>
       <c r="C221" s="15"/>
@@ -7080,7 +7167,7 @@
       <c r="N221" s="2"/>
       <c r="O221" s="23"/>
     </row>
-    <row r="222" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A222" s="15"/>
       <c r="B222" s="15"/>
       <c r="C222" s="15"/>
@@ -7097,7 +7184,7 @@
       <c r="N222" s="2"/>
       <c r="O222" s="23"/>
     </row>
-    <row r="223" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A223" s="15"/>
       <c r="B223" s="15"/>
       <c r="C223" s="15"/>
@@ -7114,7 +7201,7 @@
       <c r="N223" s="2"/>
       <c r="O223" s="23"/>
     </row>
-    <row r="224" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A224" s="15"/>
       <c r="B224" s="15"/>
       <c r="C224" s="15"/>
@@ -7131,7 +7218,7 @@
       <c r="N224" s="2"/>
       <c r="O224" s="23"/>
     </row>
-    <row r="225" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A225" s="15"/>
       <c r="B225" s="15"/>
       <c r="C225" s="15"/>
@@ -7148,7 +7235,7 @@
       <c r="N225" s="2"/>
       <c r="O225" s="23"/>
     </row>
-    <row r="226" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A226" s="15"/>
       <c r="B226" s="15"/>
       <c r="C226" s="15"/>
@@ -7165,7 +7252,7 @@
       <c r="N226" s="2"/>
       <c r="O226" s="23"/>
     </row>
-    <row r="227" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A227" s="15"/>
       <c r="B227" s="15"/>
       <c r="C227" s="15"/>
@@ -7182,7 +7269,7 @@
       <c r="N227" s="2"/>
       <c r="O227" s="23"/>
     </row>
-    <row r="228" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A228" s="15"/>
       <c r="B228" s="15"/>
       <c r="C228" s="15"/>
@@ -7199,7 +7286,7 @@
       <c r="N228" s="2"/>
       <c r="O228" s="23"/>
     </row>
-    <row r="229" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A229" s="15"/>
       <c r="B229" s="15"/>
       <c r="C229" s="15"/>
@@ -7216,7 +7303,7 @@
       <c r="N229" s="2"/>
       <c r="O229" s="23"/>
     </row>
-    <row r="230" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A230" s="15"/>
       <c r="B230" s="15"/>
       <c r="C230" s="15"/>
@@ -7233,7 +7320,7 @@
       <c r="N230" s="2"/>
       <c r="O230" s="23"/>
     </row>
-    <row r="231" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A231" s="15"/>
       <c r="B231" s="15"/>
       <c r="C231" s="15"/>
@@ -7250,7 +7337,7 @@
       <c r="N231" s="2"/>
       <c r="O231" s="23"/>
     </row>
-    <row r="232" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A232" s="15"/>
       <c r="B232" s="15"/>
       <c r="C232" s="15"/>
@@ -7267,7 +7354,7 @@
       <c r="N232" s="2"/>
       <c r="O232" s="23"/>
     </row>
-    <row r="233" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A233" s="15"/>
       <c r="B233" s="15"/>
       <c r="C233" s="15"/>
@@ -7284,7 +7371,7 @@
       <c r="N233" s="2"/>
       <c r="O233" s="23"/>
     </row>
-    <row r="234" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A234" s="15"/>
       <c r="B234" s="15"/>
       <c r="C234" s="15"/>
@@ -7301,7 +7388,7 @@
       <c r="N234" s="2"/>
       <c r="O234" s="23"/>
     </row>
-    <row r="235" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A235" s="15"/>
       <c r="B235" s="15"/>
       <c r="C235" s="15"/>
@@ -7318,7 +7405,7 @@
       <c r="N235" s="2"/>
       <c r="O235" s="23"/>
     </row>
-    <row r="236" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A236" s="15"/>
       <c r="B236" s="15"/>
       <c r="C236" s="15"/>
@@ -7335,7 +7422,7 @@
       <c r="N236" s="2"/>
       <c r="O236" s="23"/>
     </row>
-    <row r="237" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A237" s="15"/>
       <c r="B237" s="15"/>
       <c r="C237" s="15"/>
@@ -7352,7 +7439,7 @@
       <c r="N237" s="2"/>
       <c r="O237" s="23"/>
     </row>
-    <row r="238" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A238" s="15"/>
       <c r="B238" s="15"/>
       <c r="C238" s="15"/>
@@ -7369,7 +7456,7 @@
       <c r="N238" s="2"/>
       <c r="O238" s="23"/>
     </row>
-    <row r="239" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A239" s="15"/>
       <c r="B239" s="15"/>
       <c r="C239" s="15"/>
@@ -7386,7 +7473,7 @@
       <c r="N239" s="2"/>
       <c r="O239" s="23"/>
     </row>
-    <row r="240" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A240" s="15"/>
       <c r="B240" s="15"/>
       <c r="C240" s="15"/>
@@ -7403,7 +7490,7 @@
       <c r="N240" s="2"/>
       <c r="O240" s="23"/>
     </row>
-    <row r="241" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A241" s="15"/>
       <c r="B241" s="15"/>
       <c r="C241" s="15"/>
@@ -7420,7 +7507,7 @@
       <c r="N241" s="2"/>
       <c r="O241" s="23"/>
     </row>
-    <row r="242" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A242" s="15"/>
       <c r="B242" s="15"/>
       <c r="C242" s="15"/>
@@ -7437,7 +7524,7 @@
       <c r="N242" s="2"/>
       <c r="O242" s="23"/>
     </row>
-    <row r="243" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A243" s="15"/>
       <c r="B243" s="15"/>
       <c r="C243" s="15"/>
@@ -7454,7 +7541,7 @@
       <c r="N243" s="2"/>
       <c r="O243" s="23"/>
     </row>
-    <row r="244" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A244" s="15"/>
       <c r="B244" s="15"/>
       <c r="C244" s="15"/>
@@ -7471,7 +7558,7 @@
       <c r="N244" s="2"/>
       <c r="O244" s="23"/>
     </row>
-    <row r="245" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A245" s="15"/>
       <c r="B245" s="15"/>
       <c r="C245" s="15"/>
@@ -7488,7 +7575,7 @@
       <c r="N245" s="2"/>
       <c r="O245" s="23"/>
     </row>
-    <row r="246" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A246" s="15"/>
       <c r="B246" s="15"/>
       <c r="C246" s="15"/>
@@ -7505,7 +7592,7 @@
       <c r="N246" s="2"/>
       <c r="O246" s="23"/>
     </row>
-    <row r="247" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A247" s="15"/>
       <c r="B247" s="15"/>
       <c r="C247" s="15"/>
@@ -7522,7 +7609,7 @@
       <c r="N247" s="2"/>
       <c r="O247" s="23"/>
     </row>
-    <row r="248" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A248" s="15"/>
       <c r="B248" s="15"/>
       <c r="C248" s="15"/>
@@ -7539,7 +7626,7 @@
       <c r="N248" s="2"/>
       <c r="O248" s="23"/>
     </row>
-    <row r="249" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A249" s="15"/>
       <c r="B249" s="15"/>
       <c r="C249" s="15"/>
@@ -7556,7 +7643,7 @@
       <c r="N249" s="2"/>
       <c r="O249" s="23"/>
     </row>
-    <row r="250" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A250" s="15"/>
       <c r="B250" s="15"/>
       <c r="C250" s="15"/>
@@ -7573,7 +7660,7 @@
       <c r="N250" s="2"/>
       <c r="O250" s="23"/>
     </row>
-    <row r="251" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A251" s="15"/>
       <c r="B251" s="15"/>
       <c r="C251" s="15"/>
@@ -7590,7 +7677,7 @@
       <c r="N251" s="2"/>
       <c r="O251" s="23"/>
     </row>
-    <row r="252" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A252" s="15"/>
       <c r="B252" s="15"/>
       <c r="C252" s="15"/>
@@ -7607,7 +7694,7 @@
       <c r="N252" s="2"/>
       <c r="O252" s="23"/>
     </row>
-    <row r="253" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A253" s="15"/>
       <c r="B253" s="15"/>
       <c r="C253" s="15"/>
@@ -7624,7 +7711,7 @@
       <c r="N253" s="2"/>
       <c r="O253" s="23"/>
     </row>
-    <row r="254" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A254" s="15"/>
       <c r="B254" s="15"/>
       <c r="C254" s="15"/>
@@ -7641,7 +7728,7 @@
       <c r="N254" s="2"/>
       <c r="O254" s="23"/>
     </row>
-    <row r="255" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A255" s="15"/>
       <c r="B255" s="15"/>
       <c r="C255" s="15"/>
@@ -7658,7 +7745,7 @@
       <c r="N255" s="2"/>
       <c r="O255" s="23"/>
     </row>
-    <row r="256" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A256" s="15"/>
       <c r="B256" s="15"/>
       <c r="C256" s="15"/>
@@ -7675,7 +7762,7 @@
       <c r="N256" s="2"/>
       <c r="O256" s="23"/>
     </row>
-    <row r="257" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A257" s="15"/>
       <c r="B257" s="15"/>
       <c r="C257" s="15"/>
@@ -7692,7 +7779,7 @@
       <c r="N257" s="2"/>
       <c r="O257" s="23"/>
     </row>
-    <row r="258" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A258" s="15"/>
       <c r="B258" s="15"/>
       <c r="C258" s="15"/>
@@ -7709,7 +7796,7 @@
       <c r="N258" s="2"/>
       <c r="O258" s="23"/>
     </row>
-    <row r="259" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A259" s="15"/>
       <c r="B259" s="15"/>
       <c r="C259" s="15"/>
@@ -7726,7 +7813,7 @@
       <c r="N259" s="2"/>
       <c r="O259" s="23"/>
     </row>
-    <row r="260" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A260" s="15"/>
       <c r="B260" s="15"/>
       <c r="C260" s="15"/>
@@ -7743,7 +7830,7 @@
       <c r="N260" s="2"/>
       <c r="O260" s="23"/>
     </row>
-    <row r="261" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A261" s="15"/>
       <c r="B261" s="15"/>
       <c r="C261" s="15"/>
@@ -7760,7 +7847,7 @@
       <c r="N261" s="2"/>
       <c r="O261" s="23"/>
     </row>
-    <row r="262" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A262" s="15"/>
       <c r="B262" s="15"/>
       <c r="C262" s="15"/>
@@ -7777,7 +7864,7 @@
       <c r="N262" s="2"/>
       <c r="O262" s="23"/>
     </row>
-    <row r="263" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A263" s="15"/>
       <c r="B263" s="15"/>
       <c r="C263" s="15"/>
@@ -7794,7 +7881,7 @@
       <c r="N263" s="2"/>
       <c r="O263" s="23"/>
     </row>
-    <row r="264" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A264" s="15"/>
       <c r="B264" s="15"/>
       <c r="C264" s="15"/>
@@ -7811,7 +7898,7 @@
       <c r="N264" s="2"/>
       <c r="O264" s="23"/>
     </row>
-    <row r="265" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A265" s="15"/>
       <c r="B265" s="15"/>
       <c r="C265" s="15"/>
@@ -7828,7 +7915,7 @@
       <c r="N265" s="2"/>
       <c r="O265" s="23"/>
     </row>
-    <row r="266" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A266" s="15"/>
       <c r="B266" s="15"/>
       <c r="C266" s="15"/>
@@ -7845,7 +7932,7 @@
       <c r="N266" s="2"/>
       <c r="O266" s="23"/>
     </row>
-    <row r="267" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A267" s="15"/>
       <c r="B267" s="15"/>
       <c r="C267" s="15"/>
@@ -7862,7 +7949,7 @@
       <c r="N267" s="2"/>
       <c r="O267" s="23"/>
     </row>
-    <row r="268" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A268" s="15"/>
       <c r="B268" s="15"/>
       <c r="C268" s="15"/>
@@ -7879,7 +7966,7 @@
       <c r="N268" s="2"/>
       <c r="O268" s="23"/>
     </row>
-    <row r="269" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A269" s="15"/>
       <c r="B269" s="15"/>
       <c r="C269" s="15"/>
@@ -7896,7 +7983,7 @@
       <c r="N269" s="2"/>
       <c r="O269" s="23"/>
     </row>
-    <row r="270" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A270" s="15"/>
       <c r="B270" s="15"/>
       <c r="C270" s="15"/>
@@ -7913,7 +8000,7 @@
       <c r="N270" s="2"/>
       <c r="O270" s="23"/>
     </row>
-    <row r="271" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A271" s="15"/>
       <c r="B271" s="15"/>
       <c r="C271" s="15"/>
@@ -7930,7 +8017,7 @@
       <c r="N271" s="2"/>
       <c r="O271" s="23"/>
     </row>
-    <row r="272" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A272" s="15"/>
       <c r="B272" s="15"/>
       <c r="C272" s="15"/>
@@ -7947,7 +8034,7 @@
       <c r="N272" s="2"/>
       <c r="O272" s="23"/>
     </row>
-    <row r="273" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A273" s="15"/>
       <c r="B273" s="15"/>
       <c r="C273" s="15"/>
@@ -7964,7 +8051,7 @@
       <c r="N273" s="2"/>
       <c r="O273" s="23"/>
     </row>
-    <row r="274" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A274" s="15"/>
       <c r="B274" s="15"/>
       <c r="C274" s="15"/>
@@ -7981,7 +8068,7 @@
       <c r="N274" s="2"/>
       <c r="O274" s="23"/>
     </row>
-    <row r="275" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A275" s="15"/>
       <c r="B275" s="15"/>
       <c r="C275" s="15"/>
@@ -7998,7 +8085,7 @@
       <c r="N275" s="2"/>
       <c r="O275" s="23"/>
     </row>
-    <row r="276" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A276" s="15"/>
       <c r="B276" s="15"/>
       <c r="C276" s="15"/>
@@ -8015,7 +8102,7 @@
       <c r="N276" s="2"/>
       <c r="O276" s="23"/>
     </row>
-    <row r="277" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A277" s="15"/>
       <c r="B277" s="15"/>
       <c r="C277" s="15"/>
@@ -8032,7 +8119,7 @@
       <c r="N277" s="2"/>
       <c r="O277" s="23"/>
     </row>
-    <row r="278" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A278" s="15"/>
       <c r="B278" s="15"/>
       <c r="C278" s="15"/>
@@ -8049,7 +8136,7 @@
       <c r="N278" s="2"/>
       <c r="O278" s="23"/>
     </row>
-    <row r="279" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A279" s="15"/>
       <c r="B279" s="15"/>
       <c r="C279" s="15"/>
@@ -8066,7 +8153,7 @@
       <c r="N279" s="2"/>
       <c r="O279" s="23"/>
     </row>
-    <row r="280" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A280" s="15"/>
       <c r="B280" s="15"/>
       <c r="C280" s="15"/>
@@ -8083,7 +8170,7 @@
       <c r="N280" s="2"/>
       <c r="O280" s="23"/>
     </row>
-    <row r="281" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A281" s="15"/>
       <c r="B281" s="15"/>
       <c r="C281" s="15"/>
@@ -8100,7 +8187,7 @@
       <c r="N281" s="2"/>
       <c r="O281" s="23"/>
     </row>
-    <row r="282" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A282" s="15"/>
       <c r="B282" s="15"/>
       <c r="C282" s="15"/>
@@ -8117,7 +8204,7 @@
       <c r="N282" s="2"/>
       <c r="O282" s="23"/>
     </row>
-    <row r="283" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A283" s="15"/>
       <c r="B283" s="15"/>
       <c r="C283" s="15"/>
@@ -8134,7 +8221,7 @@
       <c r="N283" s="2"/>
       <c r="O283" s="23"/>
     </row>
-    <row r="284" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A284" s="15"/>
       <c r="B284" s="15"/>
       <c r="C284" s="15"/>
@@ -8151,7 +8238,7 @@
       <c r="N284" s="2"/>
       <c r="O284" s="23"/>
     </row>
-    <row r="285" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A285" s="15"/>
       <c r="B285" s="15"/>
       <c r="C285" s="15"/>
@@ -8168,7 +8255,7 @@
       <c r="N285" s="2"/>
       <c r="O285" s="23"/>
     </row>
-    <row r="286" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A286" s="15"/>
       <c r="B286" s="15"/>
       <c r="C286" s="15"/>
@@ -8185,7 +8272,7 @@
       <c r="N286" s="2"/>
       <c r="O286" s="23"/>
     </row>
-    <row r="287" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A287" s="15"/>
       <c r="B287" s="15"/>
       <c r="C287" s="15"/>
@@ -8202,7 +8289,7 @@
       <c r="N287" s="2"/>
       <c r="O287" s="23"/>
     </row>
-    <row r="288" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A288" s="15"/>
       <c r="B288" s="15"/>
       <c r="C288" s="15"/>
@@ -8219,7 +8306,7 @@
       <c r="N288" s="2"/>
       <c r="O288" s="23"/>
     </row>
-    <row r="289" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A289" s="15"/>
       <c r="B289" s="15"/>
       <c r="C289" s="15"/>
@@ -8236,7 +8323,7 @@
       <c r="N289" s="2"/>
       <c r="O289" s="23"/>
     </row>
-    <row r="290" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A290" s="15"/>
       <c r="B290" s="15"/>
       <c r="C290" s="15"/>
@@ -8253,7 +8340,7 @@
       <c r="N290" s="2"/>
       <c r="O290" s="23"/>
     </row>
-    <row r="291" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A291" s="15"/>
       <c r="B291" s="15"/>
       <c r="C291" s="15"/>
@@ -8270,7 +8357,7 @@
       <c r="N291" s="2"/>
       <c r="O291" s="23"/>
     </row>
-    <row r="292" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A292" s="15"/>
       <c r="B292" s="15"/>
       <c r="C292" s="15"/>
@@ -8287,7 +8374,7 @@
       <c r="N292" s="2"/>
       <c r="O292" s="23"/>
     </row>
-    <row r="293" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A293" s="15"/>
       <c r="B293" s="15"/>
       <c r="C293" s="15"/>
@@ -8304,7 +8391,7 @@
       <c r="N293" s="2"/>
       <c r="O293" s="23"/>
     </row>
-    <row r="294" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A294" s="15"/>
       <c r="B294" s="15"/>
       <c r="C294" s="15"/>
@@ -8321,7 +8408,7 @@
       <c r="N294" s="2"/>
       <c r="O294" s="23"/>
     </row>
-    <row r="295" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A295" s="15"/>
       <c r="B295" s="15"/>
       <c r="C295" s="15"/>
@@ -8338,7 +8425,7 @@
       <c r="N295" s="2"/>
       <c r="O295" s="23"/>
     </row>
-    <row r="296" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A296" s="15"/>
       <c r="B296" s="15"/>
       <c r="C296" s="15"/>
@@ -8355,7 +8442,7 @@
       <c r="N296" s="2"/>
       <c r="O296" s="23"/>
     </row>
-    <row r="297" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A297" s="15"/>
       <c r="B297" s="15"/>
       <c r="C297" s="15"/>
@@ -8372,7 +8459,7 @@
       <c r="N297" s="2"/>
       <c r="O297" s="23"/>
     </row>
-    <row r="298" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A298" s="15"/>
       <c r="B298" s="15"/>
       <c r="C298" s="15"/>
@@ -8389,7 +8476,7 @@
       <c r="N298" s="2"/>
       <c r="O298" s="23"/>
     </row>
-    <row r="299" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A299" s="15"/>
       <c r="B299" s="15"/>
       <c r="C299" s="15"/>
@@ -8406,7 +8493,7 @@
       <c r="N299" s="2"/>
       <c r="O299" s="23"/>
     </row>
-    <row r="300" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A300" s="15"/>
       <c r="B300" s="15"/>
       <c r="C300" s="15"/>
@@ -8423,7 +8510,7 @@
       <c r="N300" s="2"/>
       <c r="O300" s="23"/>
     </row>
-    <row r="301" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A301" s="15"/>
       <c r="B301" s="15"/>
       <c r="C301" s="15"/>
@@ -8440,7 +8527,7 @@
       <c r="N301" s="2"/>
       <c r="O301" s="23"/>
     </row>
-    <row r="302" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A302" s="15"/>
       <c r="B302" s="15"/>
       <c r="C302" s="15"/>
@@ -8457,7 +8544,7 @@
       <c r="N302" s="2"/>
       <c r="O302" s="23"/>
     </row>
-    <row r="303" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A303" s="15"/>
       <c r="B303" s="15"/>
       <c r="C303" s="15"/>
@@ -8474,7 +8561,7 @@
       <c r="N303" s="2"/>
       <c r="O303" s="23"/>
     </row>
-    <row r="304" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A304" s="15"/>
       <c r="B304" s="15"/>
       <c r="C304" s="15"/>
@@ -8491,7 +8578,7 @@
       <c r="N304" s="2"/>
       <c r="O304" s="23"/>
     </row>
-    <row r="305" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A305" s="15"/>
       <c r="B305" s="15"/>
       <c r="C305" s="15"/>
@@ -8508,7 +8595,7 @@
       <c r="N305" s="2"/>
       <c r="O305" s="23"/>
     </row>
-    <row r="306" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A306" s="15"/>
       <c r="B306" s="15"/>
       <c r="C306" s="15"/>
@@ -8525,7 +8612,7 @@
       <c r="N306" s="2"/>
       <c r="O306" s="23"/>
     </row>
-    <row r="307" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A307" s="15"/>
       <c r="B307" s="15"/>
       <c r="C307" s="15"/>
@@ -8542,7 +8629,7 @@
       <c r="N307" s="2"/>
       <c r="O307" s="23"/>
     </row>
-    <row r="308" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A308" s="15"/>
       <c r="B308" s="15"/>
       <c r="C308" s="15"/>
@@ -8559,7 +8646,7 @@
       <c r="N308" s="2"/>
       <c r="O308" s="23"/>
     </row>
-    <row r="309" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A309" s="15"/>
       <c r="B309" s="15"/>
       <c r="C309" s="15"/>
@@ -8576,7 +8663,7 @@
       <c r="N309" s="2"/>
       <c r="O309" s="23"/>
     </row>
-    <row r="310" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A310" s="15"/>
       <c r="B310" s="15"/>
       <c r="C310" s="15"/>
@@ -8593,7 +8680,7 @@
       <c r="N310" s="2"/>
       <c r="O310" s="23"/>
     </row>
-    <row r="311" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A311" s="15"/>
       <c r="B311" s="15"/>
       <c r="C311" s="15"/>
@@ -8610,7 +8697,7 @@
       <c r="N311" s="2"/>
       <c r="O311" s="23"/>
     </row>
-    <row r="312" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A312" s="15"/>
       <c r="B312" s="15"/>
       <c r="C312" s="15"/>
@@ -8627,7 +8714,7 @@
       <c r="N312" s="2"/>
       <c r="O312" s="23"/>
     </row>
-    <row r="313" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A313" s="15"/>
       <c r="B313" s="15"/>
       <c r="C313" s="15"/>
@@ -8644,7 +8731,7 @@
       <c r="N313" s="2"/>
       <c r="O313" s="23"/>
     </row>
-    <row r="314" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A314" s="15"/>
       <c r="B314" s="15"/>
       <c r="C314" s="15"/>
@@ -8661,7 +8748,7 @@
       <c r="N314" s="2"/>
       <c r="O314" s="23"/>
     </row>
-    <row r="315" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A315" s="15"/>
       <c r="B315" s="15"/>
       <c r="C315" s="15"/>
@@ -8678,7 +8765,7 @@
       <c r="N315" s="2"/>
       <c r="O315" s="23"/>
     </row>
-    <row r="316" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A316" s="15"/>
       <c r="B316" s="15"/>
       <c r="C316" s="15"/>
@@ -8695,7 +8782,7 @@
       <c r="N316" s="2"/>
       <c r="O316" s="23"/>
     </row>
-    <row r="317" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A317" s="15"/>
       <c r="B317" s="15"/>
       <c r="C317" s="15"/>
@@ -8712,7 +8799,7 @@
       <c r="N317" s="2"/>
       <c r="O317" s="23"/>
     </row>
-    <row r="318" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A318" s="15"/>
       <c r="B318" s="15"/>
       <c r="C318" s="15"/>
@@ -8729,7 +8816,7 @@
       <c r="N318" s="2"/>
       <c r="O318" s="23"/>
     </row>
-    <row r="319" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A319" s="15"/>
       <c r="B319" s="15"/>
       <c r="C319" s="15"/>
@@ -8746,7 +8833,7 @@
       <c r="N319" s="2"/>
       <c r="O319" s="23"/>
     </row>
-    <row r="320" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A320" s="15"/>
       <c r="B320" s="15"/>
       <c r="C320" s="15"/>
@@ -8763,7 +8850,7 @@
       <c r="N320" s="2"/>
       <c r="O320" s="23"/>
     </row>
-    <row r="321" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A321" s="15"/>
       <c r="B321" s="15"/>
       <c r="C321" s="15"/>
@@ -8780,7 +8867,7 @@
       <c r="N321" s="2"/>
       <c r="O321" s="23"/>
     </row>
-    <row r="322" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A322" s="15"/>
       <c r="B322" s="15"/>
       <c r="C322" s="15"/>
@@ -8797,7 +8884,7 @@
       <c r="N322" s="2"/>
       <c r="O322" s="23"/>
     </row>
-    <row r="323" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A323" s="15"/>
       <c r="B323" s="15"/>
       <c r="C323" s="15"/>
@@ -8814,7 +8901,7 @@
       <c r="N323" s="2"/>
       <c r="O323" s="23"/>
     </row>
-    <row r="324" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A324" s="15"/>
       <c r="B324" s="15"/>
       <c r="C324" s="15"/>
@@ -8831,7 +8918,7 @@
       <c r="N324" s="2"/>
       <c r="O324" s="23"/>
     </row>
-    <row r="325" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A325" s="15"/>
       <c r="B325" s="15"/>
       <c r="C325" s="15"/>
@@ -8848,7 +8935,7 @@
       <c r="N325" s="2"/>
       <c r="O325" s="23"/>
     </row>
-    <row r="326" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A326" s="15"/>
       <c r="B326" s="15"/>
       <c r="C326" s="15"/>
@@ -8865,7 +8952,7 @@
       <c r="N326" s="2"/>
       <c r="O326" s="23"/>
     </row>
-    <row r="327" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A327" s="15"/>
       <c r="B327" s="15"/>
       <c r="C327" s="15"/>
@@ -8882,7 +8969,7 @@
       <c r="N327" s="2"/>
       <c r="O327" s="23"/>
     </row>
-    <row r="328" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A328" s="15"/>
       <c r="B328" s="15"/>
       <c r="C328" s="15"/>
@@ -8899,7 +8986,7 @@
       <c r="N328" s="2"/>
       <c r="O328" s="23"/>
     </row>
-    <row r="329" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A329" s="15"/>
       <c r="B329" s="15"/>
       <c r="C329" s="15"/>
@@ -8916,7 +9003,7 @@
       <c r="N329" s="2"/>
       <c r="O329" s="23"/>
     </row>
-    <row r="330" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A330" s="15"/>
       <c r="B330" s="15"/>
       <c r="C330" s="15"/>
@@ -8933,7 +9020,7 @@
       <c r="N330" s="2"/>
       <c r="O330" s="23"/>
     </row>
-    <row r="331" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A331" s="15"/>
       <c r="B331" s="15"/>
       <c r="C331" s="15"/>
@@ -8950,7 +9037,7 @@
       <c r="N331" s="2"/>
       <c r="O331" s="23"/>
     </row>
-    <row r="332" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A332" s="15"/>
       <c r="B332" s="15"/>
       <c r="C332" s="15"/>
@@ -8967,7 +9054,7 @@
       <c r="N332" s="2"/>
       <c r="O332" s="23"/>
     </row>
-    <row r="333" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A333" s="15"/>
       <c r="B333" s="15"/>
       <c r="C333" s="15"/>
@@ -8984,7 +9071,7 @@
       <c r="N333" s="2"/>
       <c r="O333" s="23"/>
     </row>
-    <row r="334" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A334" s="15"/>
       <c r="B334" s="15"/>
       <c r="C334" s="15"/>
@@ -9001,7 +9088,7 @@
       <c r="N334" s="2"/>
       <c r="O334" s="23"/>
     </row>
-    <row r="335" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A335" s="15"/>
       <c r="B335" s="15"/>
       <c r="C335" s="15"/>
@@ -9018,7 +9105,7 @@
       <c r="N335" s="2"/>
       <c r="O335" s="23"/>
     </row>
-    <row r="336" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A336" s="15"/>
       <c r="B336" s="15"/>
       <c r="C336" s="15"/>
@@ -9035,7 +9122,7 @@
       <c r="N336" s="2"/>
       <c r="O336" s="23"/>
     </row>
-    <row r="337" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A337" s="15"/>
       <c r="B337" s="15"/>
       <c r="C337" s="15"/>
@@ -9052,7 +9139,7 @@
       <c r="N337" s="2"/>
       <c r="O337" s="23"/>
     </row>
-    <row r="338" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A338" s="15"/>
       <c r="B338" s="15"/>
       <c r="C338" s="15"/>
@@ -9069,7 +9156,7 @@
       <c r="N338" s="2"/>
       <c r="O338" s="23"/>
     </row>
-    <row r="339" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A339" s="15"/>
       <c r="B339" s="15"/>
       <c r="C339" s="15"/>
@@ -9086,7 +9173,7 @@
       <c r="N339" s="2"/>
       <c r="O339" s="23"/>
     </row>
-    <row r="340" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A340" s="15"/>
       <c r="B340" s="15"/>
       <c r="C340" s="15"/>
@@ -9103,7 +9190,7 @@
       <c r="N340" s="2"/>
       <c r="O340" s="23"/>
     </row>
-    <row r="341" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A341" s="15"/>
       <c r="B341" s="15"/>
       <c r="C341" s="15"/>
@@ -9120,7 +9207,7 @@
       <c r="N341" s="2"/>
       <c r="O341" s="23"/>
     </row>
-    <row r="342" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A342" s="15"/>
       <c r="B342" s="15"/>
       <c r="C342" s="15"/>
@@ -9137,7 +9224,7 @@
       <c r="N342" s="2"/>
       <c r="O342" s="23"/>
     </row>
-    <row r="343" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A343" s="15"/>
       <c r="B343" s="15"/>
       <c r="C343" s="15"/>
@@ -9154,7 +9241,7 @@
       <c r="N343" s="2"/>
       <c r="O343" s="23"/>
     </row>
-    <row r="344" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A344" s="15"/>
       <c r="B344" s="15"/>
       <c r="C344" s="15"/>
@@ -9171,7 +9258,7 @@
       <c r="N344" s="2"/>
       <c r="O344" s="23"/>
     </row>
-    <row r="345" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A345" s="15"/>
       <c r="B345" s="15"/>
       <c r="C345" s="15"/>
@@ -9188,7 +9275,7 @@
       <c r="N345" s="2"/>
       <c r="O345" s="23"/>
     </row>
-    <row r="346" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A346" s="15"/>
       <c r="B346" s="15"/>
       <c r="C346" s="15"/>
@@ -9205,7 +9292,7 @@
       <c r="N346" s="2"/>
       <c r="O346" s="23"/>
     </row>
-    <row r="347" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A347" s="15"/>
       <c r="B347" s="15"/>
       <c r="C347" s="15"/>
@@ -9222,7 +9309,7 @@
       <c r="N347" s="2"/>
       <c r="O347" s="23"/>
     </row>
-    <row r="348" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A348" s="15"/>
       <c r="B348" s="15"/>
       <c r="C348" s="15"/>
@@ -9239,7 +9326,7 @@
       <c r="N348" s="2"/>
       <c r="O348" s="23"/>
     </row>
-    <row r="349" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A349" s="15"/>
       <c r="B349" s="15"/>
       <c r="C349" s="15"/>
@@ -9256,7 +9343,7 @@
       <c r="N349" s="2"/>
       <c r="O349" s="23"/>
     </row>
-    <row r="350" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A350" s="15"/>
       <c r="B350" s="15"/>
       <c r="C350" s="15"/>
@@ -9273,7 +9360,7 @@
       <c r="N350" s="2"/>
       <c r="O350" s="23"/>
     </row>
-    <row r="351" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A351" s="15"/>
       <c r="B351" s="15"/>
       <c r="C351" s="15"/>
@@ -9290,7 +9377,7 @@
       <c r="N351" s="2"/>
       <c r="O351" s="23"/>
     </row>
-    <row r="352" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A352" s="15"/>
       <c r="B352" s="15"/>
       <c r="C352" s="15"/>
@@ -9307,7 +9394,7 @@
       <c r="N352" s="2"/>
       <c r="O352" s="23"/>
     </row>
-    <row r="353" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A353" s="15"/>
       <c r="B353" s="15"/>
       <c r="C353" s="15"/>
@@ -9324,7 +9411,7 @@
       <c r="N353" s="2"/>
       <c r="O353" s="23"/>
     </row>
-    <row r="354" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A354" s="15"/>
       <c r="B354" s="15"/>
       <c r="C354" s="15"/>
@@ -9341,7 +9428,7 @@
       <c r="N354" s="2"/>
       <c r="O354" s="23"/>
     </row>
-    <row r="355" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A355" s="15"/>
       <c r="B355" s="15"/>
       <c r="C355" s="15"/>
@@ -9358,7 +9445,7 @@
       <c r="N355" s="2"/>
       <c r="O355" s="23"/>
     </row>
-    <row r="356" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A356" s="15"/>
       <c r="B356" s="15"/>
       <c r="C356" s="15"/>
@@ -9375,7 +9462,7 @@
       <c r="N356" s="2"/>
       <c r="O356" s="23"/>
     </row>
-    <row r="357" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A357" s="15"/>
       <c r="B357" s="15"/>
       <c r="C357" s="15"/>
@@ -9392,7 +9479,7 @@
       <c r="N357" s="2"/>
       <c r="O357" s="23"/>
     </row>
-    <row r="358" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A358" s="15"/>
       <c r="B358" s="15"/>
       <c r="C358" s="15"/>
@@ -9409,7 +9496,7 @@
       <c r="N358" s="2"/>
       <c r="O358" s="23"/>
     </row>
-    <row r="359" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A359" s="15"/>
       <c r="B359" s="15"/>
       <c r="C359" s="15"/>
@@ -9426,7 +9513,7 @@
       <c r="N359" s="2"/>
       <c r="O359" s="23"/>
     </row>
-    <row r="360" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A360" s="15"/>
       <c r="B360" s="15"/>
       <c r="C360" s="15"/>
@@ -9443,7 +9530,7 @@
       <c r="N360" s="2"/>
       <c r="O360" s="23"/>
     </row>
-    <row r="361" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A361" s="15"/>
       <c r="B361" s="15"/>
       <c r="C361" s="15"/>
@@ -9460,7 +9547,7 @@
       <c r="N361" s="2"/>
       <c r="O361" s="23"/>
     </row>
-    <row r="362" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A362" s="15"/>
       <c r="B362" s="15"/>
       <c r="C362" s="15"/>
@@ -9477,7 +9564,7 @@
       <c r="N362" s="2"/>
       <c r="O362" s="23"/>
     </row>
-    <row r="363" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A363" s="15"/>
       <c r="B363" s="15"/>
       <c r="C363" s="15"/>
@@ -9494,7 +9581,7 @@
       <c r="N363" s="2"/>
       <c r="O363" s="23"/>
     </row>
-    <row r="364" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A364" s="15"/>
       <c r="B364" s="15"/>
       <c r="C364" s="15"/>
@@ -9511,7 +9598,7 @@
       <c r="N364" s="2"/>
       <c r="O364" s="23"/>
     </row>
-    <row r="365" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A365" s="15"/>
       <c r="B365" s="15"/>
       <c r="C365" s="15"/>
@@ -9528,7 +9615,7 @@
       <c r="N365" s="2"/>
       <c r="O365" s="23"/>
     </row>
-    <row r="366" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A366" s="15"/>
       <c r="B366" s="15"/>
       <c r="C366" s="15"/>
@@ -9545,7 +9632,7 @@
       <c r="N366" s="2"/>
       <c r="O366" s="23"/>
     </row>
-    <row r="367" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A367" s="15"/>
       <c r="B367" s="15"/>
       <c r="C367" s="15"/>
@@ -9562,7 +9649,7 @@
       <c r="N367" s="2"/>
       <c r="O367" s="23"/>
     </row>
-    <row r="368" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A368" s="15"/>
       <c r="B368" s="15"/>
       <c r="C368" s="15"/>
@@ -9579,7 +9666,7 @@
       <c r="N368" s="2"/>
       <c r="O368" s="23"/>
     </row>
-    <row r="369" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A369" s="15"/>
       <c r="B369" s="15"/>
       <c r="C369" s="15"/>
@@ -9596,7 +9683,7 @@
       <c r="N369" s="2"/>
       <c r="O369" s="23"/>
     </row>
-    <row r="370" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A370" s="15"/>
       <c r="B370" s="15"/>
       <c r="C370" s="15"/>
@@ -9613,7 +9700,7 @@
       <c r="N370" s="2"/>
       <c r="O370" s="23"/>
     </row>
-    <row r="371" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A371" s="15"/>
       <c r="B371" s="15"/>
       <c r="C371" s="15"/>
@@ -9630,7 +9717,7 @@
       <c r="N371" s="2"/>
       <c r="O371" s="23"/>
     </row>
-    <row r="372" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A372" s="15"/>
       <c r="B372" s="15"/>
       <c r="C372" s="15"/>
@@ -9647,7 +9734,7 @@
       <c r="N372" s="2"/>
       <c r="O372" s="23"/>
     </row>
-    <row r="373" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A373" s="15"/>
       <c r="B373" s="15"/>
       <c r="C373" s="15"/>
@@ -9664,7 +9751,7 @@
       <c r="N373" s="2"/>
       <c r="O373" s="23"/>
     </row>
-    <row r="374" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A374" s="15"/>
       <c r="B374" s="15"/>
       <c r="C374" s="15"/>
@@ -9681,7 +9768,7 @@
       <c r="N374" s="2"/>
       <c r="O374" s="23"/>
     </row>
-    <row r="375" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A375" s="15"/>
       <c r="B375" s="15"/>
       <c r="C375" s="15"/>
@@ -9698,7 +9785,7 @@
       <c r="N375" s="2"/>
       <c r="O375" s="23"/>
     </row>
-    <row r="376" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A376" s="15"/>
       <c r="B376" s="15"/>
       <c r="C376" s="15"/>
@@ -9715,7 +9802,7 @@
       <c r="N376" s="2"/>
       <c r="O376" s="23"/>
     </row>
-    <row r="377" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A377" s="15"/>
       <c r="B377" s="15"/>
       <c r="C377" s="15"/>
@@ -9732,7 +9819,7 @@
       <c r="N377" s="2"/>
       <c r="O377" s="23"/>
     </row>
-    <row r="378" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A378" s="15"/>
       <c r="B378" s="15"/>
       <c r="C378" s="15"/>
@@ -9749,7 +9836,7 @@
       <c r="N378" s="2"/>
       <c r="O378" s="23"/>
     </row>
-    <row r="379" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A379" s="15"/>
       <c r="B379" s="15"/>
       <c r="C379" s="15"/>
@@ -9766,7 +9853,7 @@
       <c r="N379" s="2"/>
       <c r="O379" s="23"/>
     </row>
-    <row r="380" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A380" s="15"/>
       <c r="B380" s="15"/>
       <c r="C380" s="15"/>
@@ -9783,7 +9870,7 @@
       <c r="N380" s="2"/>
       <c r="O380" s="23"/>
     </row>
-    <row r="381" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A381" s="15"/>
       <c r="B381" s="15"/>
       <c r="C381" s="15"/>
@@ -9800,7 +9887,7 @@
       <c r="N381" s="2"/>
       <c r="O381" s="23"/>
     </row>
-    <row r="382" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A382" s="15"/>
       <c r="B382" s="15"/>
       <c r="C382" s="15"/>
@@ -9817,7 +9904,7 @@
       <c r="N382" s="2"/>
       <c r="O382" s="23"/>
     </row>
-    <row r="383" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A383" s="15"/>
       <c r="B383" s="15"/>
       <c r="C383" s="15"/>
@@ -9834,7 +9921,7 @@
       <c r="N383" s="2"/>
       <c r="O383" s="23"/>
     </row>
-    <row r="384" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A384" s="15"/>
       <c r="B384" s="15"/>
       <c r="C384" s="15"/>
@@ -9851,7 +9938,7 @@
       <c r="N384" s="2"/>
       <c r="O384" s="23"/>
     </row>
-    <row r="385" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A385" s="15"/>
       <c r="B385" s="15"/>
       <c r="C385" s="15"/>
@@ -9868,7 +9955,7 @@
       <c r="N385" s="2"/>
       <c r="O385" s="23"/>
     </row>
-    <row r="386" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A386" s="15"/>
       <c r="B386" s="15"/>
       <c r="C386" s="15"/>
@@ -9885,7 +9972,7 @@
       <c r="N386" s="2"/>
       <c r="O386" s="23"/>
     </row>
-    <row r="387" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A387" s="15"/>
       <c r="B387" s="15"/>
       <c r="C387" s="15"/>
@@ -9902,7 +9989,7 @@
       <c r="N387" s="2"/>
       <c r="O387" s="23"/>
     </row>
-    <row r="388" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A388" s="15"/>
       <c r="B388" s="15"/>
       <c r="C388" s="15"/>
@@ -9919,7 +10006,7 @@
       <c r="N388" s="2"/>
       <c r="O388" s="23"/>
     </row>
-    <row r="389" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A389" s="15"/>
       <c r="B389" s="15"/>
       <c r="C389" s="15"/>
@@ -9936,7 +10023,7 @@
       <c r="N389" s="2"/>
       <c r="O389" s="23"/>
     </row>
-    <row r="390" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A390" s="15"/>
       <c r="B390" s="15"/>
       <c r="C390" s="15"/>
@@ -9953,7 +10040,7 @@
       <c r="N390" s="2"/>
       <c r="O390" s="23"/>
     </row>
-    <row r="391" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A391" s="15"/>
       <c r="B391" s="15"/>
       <c r="C391" s="15"/>
@@ -9970,7 +10057,7 @@
       <c r="N391" s="2"/>
       <c r="O391" s="23"/>
     </row>
-    <row r="392" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A392" s="15"/>
       <c r="B392" s="15"/>
       <c r="C392" s="15"/>
@@ -9987,7 +10074,7 @@
       <c r="N392" s="2"/>
       <c r="O392" s="23"/>
     </row>
-    <row r="393" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A393" s="15"/>
       <c r="B393" s="15"/>
       <c r="C393" s="15"/>
@@ -10004,7 +10091,7 @@
       <c r="N393" s="2"/>
       <c r="O393" s="23"/>
     </row>
-    <row r="394" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A394" s="15"/>
       <c r="B394" s="15"/>
       <c r="C394" s="15"/>
@@ -10021,7 +10108,7 @@
       <c r="N394" s="2"/>
       <c r="O394" s="23"/>
     </row>
-    <row r="395" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A395" s="15"/>
       <c r="B395" s="15"/>
       <c r="C395" s="15"/>
@@ -10038,7 +10125,7 @@
       <c r="N395" s="2"/>
       <c r="O395" s="23"/>
     </row>
-    <row r="396" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A396" s="15"/>
       <c r="B396" s="15"/>
       <c r="C396" s="15"/>
@@ -10055,7 +10142,7 @@
       <c r="N396" s="2"/>
       <c r="O396" s="23"/>
     </row>
-    <row r="397" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A397" s="15"/>
       <c r="B397" s="15"/>
       <c r="C397" s="15"/>
@@ -10072,7 +10159,7 @@
       <c r="N397" s="2"/>
       <c r="O397" s="23"/>
     </row>
-    <row r="398" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A398" s="15"/>
       <c r="B398" s="15"/>
       <c r="C398" s="15"/>
@@ -10089,7 +10176,7 @@
       <c r="N398" s="2"/>
       <c r="O398" s="23"/>
     </row>
-    <row r="399" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A399" s="15"/>
       <c r="B399" s="15"/>
       <c r="C399" s="15"/>
@@ -10106,7 +10193,7 @@
       <c r="N399" s="2"/>
       <c r="O399" s="23"/>
     </row>
-    <row r="400" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A400" s="15"/>
       <c r="B400" s="15"/>
       <c r="C400" s="15"/>
@@ -10123,7 +10210,7 @@
       <c r="N400" s="2"/>
       <c r="O400" s="23"/>
     </row>
-    <row r="401" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A401" s="15"/>
       <c r="B401" s="15"/>
       <c r="C401" s="15"/>
@@ -10140,7 +10227,7 @@
       <c r="N401" s="2"/>
       <c r="O401" s="23"/>
     </row>
-    <row r="402" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A402" s="15"/>
       <c r="B402" s="15"/>
       <c r="C402" s="15"/>
@@ -10157,7 +10244,7 @@
       <c r="N402" s="2"/>
       <c r="O402" s="23"/>
     </row>
-    <row r="403" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A403" s="15"/>
       <c r="B403" s="15"/>
       <c r="C403" s="15"/>
@@ -10174,7 +10261,7 @@
       <c r="N403" s="2"/>
       <c r="O403" s="23"/>
     </row>
-    <row r="404" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A404" s="15"/>
       <c r="B404" s="15"/>
       <c r="C404" s="15"/>
@@ -10191,7 +10278,7 @@
       <c r="N404" s="2"/>
       <c r="O404" s="23"/>
     </row>
-    <row r="405" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A405" s="15"/>
       <c r="B405" s="15"/>
       <c r="C405" s="15"/>
@@ -10208,7 +10295,7 @@
       <c r="N405" s="2"/>
       <c r="O405" s="23"/>
     </row>
-    <row r="406" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A406" s="15"/>
       <c r="B406" s="15"/>
       <c r="C406" s="15"/>
@@ -10225,7 +10312,7 @@
       <c r="N406" s="2"/>
       <c r="O406" s="23"/>
     </row>
-    <row r="407" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A407" s="15"/>
       <c r="B407" s="15"/>
       <c r="C407" s="15"/>
@@ -10242,7 +10329,7 @@
       <c r="N407" s="2"/>
       <c r="O407" s="23"/>
     </row>
-    <row r="408" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A408" s="15"/>
       <c r="B408" s="15"/>
       <c r="C408" s="15"/>
@@ -10259,7 +10346,7 @@
       <c r="N408" s="2"/>
       <c r="O408" s="23"/>
     </row>
-    <row r="409" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A409" s="15"/>
       <c r="B409" s="15"/>
       <c r="C409" s="15"/>
@@ -10276,7 +10363,7 @@
       <c r="N409" s="2"/>
       <c r="O409" s="23"/>
     </row>
-    <row r="410" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A410" s="15"/>
       <c r="B410" s="15"/>
       <c r="C410" s="15"/>
@@ -10293,7 +10380,7 @@
       <c r="N410" s="2"/>
       <c r="O410" s="23"/>
     </row>
-    <row r="411" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A411" s="15"/>
       <c r="B411" s="15"/>
       <c r="C411" s="15"/>
@@ -10310,7 +10397,7 @@
       <c r="N411" s="2"/>
       <c r="O411" s="23"/>
     </row>
-    <row r="412" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A412" s="15"/>
       <c r="B412" s="15"/>
       <c r="C412" s="15"/>
@@ -10327,7 +10414,7 @@
       <c r="N412" s="2"/>
       <c r="O412" s="23"/>
     </row>
-    <row r="413" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A413" s="15"/>
       <c r="B413" s="15"/>
       <c r="C413" s="15"/>
@@ -10344,7 +10431,7 @@
       <c r="N413" s="2"/>
       <c r="O413" s="23"/>
     </row>
-    <row r="414" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A414" s="15"/>
       <c r="B414" s="15"/>
       <c r="C414" s="15"/>
@@ -10361,7 +10448,7 @@
       <c r="N414" s="2"/>
       <c r="O414" s="23"/>
     </row>
-    <row r="415" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A415" s="15"/>
       <c r="B415" s="15"/>
       <c r="C415" s="15"/>
@@ -10378,7 +10465,7 @@
       <c r="N415" s="2"/>
       <c r="O415" s="23"/>
     </row>
-    <row r="416" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A416" s="15"/>
       <c r="B416" s="15"/>
       <c r="C416" s="15"/>
@@ -10395,7 +10482,7 @@
       <c r="N416" s="2"/>
       <c r="O416" s="23"/>
     </row>
-    <row r="417" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A417" s="15"/>
       <c r="B417" s="15"/>
       <c r="C417" s="15"/>
@@ -10412,7 +10499,7 @@
       <c r="N417" s="2"/>
       <c r="O417" s="23"/>
     </row>
-    <row r="418" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A418" s="15"/>
       <c r="B418" s="15"/>
       <c r="C418" s="15"/>
@@ -10429,7 +10516,7 @@
       <c r="N418" s="2"/>
       <c r="O418" s="23"/>
     </row>
-    <row r="419" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A419" s="15"/>
       <c r="B419" s="15"/>
       <c r="C419" s="15"/>
@@ -10446,7 +10533,7 @@
       <c r="N419" s="2"/>
       <c r="O419" s="23"/>
     </row>
-    <row r="420" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A420" s="15"/>
       <c r="B420" s="15"/>
       <c r="C420" s="15"/>
@@ -10463,7 +10550,7 @@
       <c r="N420" s="2"/>
       <c r="O420" s="23"/>
     </row>
-    <row r="421" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A421" s="15"/>
       <c r="B421" s="15"/>
       <c r="C421" s="15"/>
@@ -10480,7 +10567,7 @@
       <c r="N421" s="2"/>
       <c r="O421" s="23"/>
     </row>
-    <row r="422" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A422" s="15"/>
       <c r="B422" s="15"/>
       <c r="C422" s="15"/>
@@ -10497,7 +10584,7 @@
       <c r="N422" s="2"/>
       <c r="O422" s="23"/>
     </row>
-    <row r="423" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A423" s="15"/>
       <c r="B423" s="15"/>
       <c r="C423" s="15"/>
@@ -10514,7 +10601,7 @@
       <c r="N423" s="2"/>
       <c r="O423" s="23"/>
     </row>
-    <row r="424" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A424" s="15"/>
       <c r="B424" s="15"/>
       <c r="C424" s="15"/>
@@ -10531,7 +10618,7 @@
       <c r="N424" s="2"/>
       <c r="O424" s="23"/>
     </row>
-    <row r="425" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A425" s="15"/>
       <c r="B425" s="15"/>
       <c r="C425" s="15"/>
@@ -10548,7 +10635,7 @@
       <c r="N425" s="2"/>
       <c r="O425" s="23"/>
     </row>
-    <row r="426" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A426" s="15"/>
       <c r="B426" s="15"/>
       <c r="C426" s="15"/>
@@ -10565,7 +10652,7 @@
       <c r="N426" s="2"/>
       <c r="O426" s="23"/>
     </row>
-    <row r="427" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A427" s="15"/>
       <c r="B427" s="15"/>
       <c r="C427" s="15"/>
@@ -10582,7 +10669,7 @@
       <c r="N427" s="2"/>
       <c r="O427" s="23"/>
     </row>
-    <row r="428" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A428" s="15"/>
       <c r="B428" s="15"/>
       <c r="C428" s="15"/>
@@ -10599,7 +10686,7 @@
       <c r="N428" s="2"/>
       <c r="O428" s="23"/>
     </row>
-    <row r="429" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A429" s="15"/>
       <c r="B429" s="15"/>
       <c r="C429" s="15"/>
@@ -10616,7 +10703,7 @@
       <c r="N429" s="2"/>
       <c r="O429" s="23"/>
     </row>
-    <row r="430" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A430" s="15"/>
       <c r="B430" s="15"/>
       <c r="C430" s="15"/>
@@ -10633,7 +10720,7 @@
       <c r="N430" s="2"/>
       <c r="O430" s="23"/>
     </row>
-    <row r="431" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A431" s="15"/>
       <c r="B431" s="15"/>
       <c r="C431" s="15"/>
@@ -10650,7 +10737,7 @@
       <c r="N431" s="2"/>
       <c r="O431" s="23"/>
     </row>
-    <row r="432" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A432" s="15"/>
       <c r="B432" s="15"/>
       <c r="C432" s="15"/>
@@ -10667,7 +10754,7 @@
       <c r="N432" s="2"/>
       <c r="O432" s="23"/>
     </row>
-    <row r="433" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A433" s="15"/>
       <c r="B433" s="15"/>
       <c r="C433" s="15"/>
@@ -10684,7 +10771,7 @@
       <c r="N433" s="2"/>
       <c r="O433" s="23"/>
     </row>
-    <row r="434" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A434" s="15"/>
       <c r="B434" s="15"/>
       <c r="C434" s="15"/>
@@ -10701,7 +10788,7 @@
       <c r="N434" s="2"/>
       <c r="O434" s="23"/>
     </row>
-    <row r="435" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A435" s="15"/>
       <c r="B435" s="15"/>
       <c r="C435" s="15"/>
@@ -10718,7 +10805,7 @@
       <c r="N435" s="2"/>
       <c r="O435" s="23"/>
     </row>
-    <row r="436" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A436" s="15"/>
       <c r="B436" s="15"/>
       <c r="C436" s="15"/>
@@ -10735,7 +10822,7 @@
       <c r="N436" s="2"/>
       <c r="O436" s="23"/>
     </row>
-    <row r="437" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A437" s="15"/>
       <c r="B437" s="15"/>
       <c r="C437" s="15"/>
@@ -10752,7 +10839,7 @@
       <c r="N437" s="2"/>
       <c r="O437" s="23"/>
     </row>
-    <row r="438" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A438" s="15"/>
       <c r="B438" s="15"/>
       <c r="C438" s="15"/>
@@ -10769,7 +10856,7 @@
       <c r="N438" s="2"/>
       <c r="O438" s="23"/>
     </row>
-    <row r="439" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A439" s="15"/>
       <c r="B439" s="15"/>
       <c r="C439" s="15"/>
@@ -10786,7 +10873,7 @@
       <c r="N439" s="2"/>
       <c r="O439" s="23"/>
     </row>
-    <row r="440" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A440" s="15"/>
       <c r="B440" s="15"/>
       <c r="C440" s="15"/>
@@ -10803,7 +10890,7 @@
       <c r="N440" s="2"/>
       <c r="O440" s="23"/>
     </row>
-    <row r="441" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A441" s="15"/>
       <c r="B441" s="15"/>
       <c r="C441" s="15"/>
@@ -10820,7 +10907,7 @@
       <c r="N441" s="2"/>
       <c r="O441" s="23"/>
     </row>
-    <row r="442" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A442" s="15"/>
       <c r="B442" s="15"/>
       <c r="C442" s="15"/>
@@ -10837,7 +10924,7 @@
       <c r="N442" s="2"/>
       <c r="O442" s="23"/>
     </row>
-    <row r="443" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A443" s="15"/>
       <c r="B443" s="15"/>
       <c r="C443" s="15"/>
@@ -10854,7 +10941,7 @@
       <c r="N443" s="2"/>
       <c r="O443" s="23"/>
     </row>
-    <row r="444" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A444" s="15"/>
       <c r="B444" s="15"/>
       <c r="C444" s="15"/>
@@ -10871,7 +10958,7 @@
       <c r="N444" s="2"/>
       <c r="O444" s="23"/>
     </row>
-    <row r="445" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A445" s="15"/>
       <c r="B445" s="15"/>
       <c r="C445" s="15"/>
@@ -10888,7 +10975,7 @@
       <c r="N445" s="2"/>
       <c r="O445" s="23"/>
     </row>
-    <row r="446" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A446" s="15"/>
       <c r="B446" s="15"/>
       <c r="C446" s="15"/>
@@ -10905,7 +10992,7 @@
       <c r="N446" s="2"/>
       <c r="O446" s="23"/>
     </row>
-    <row r="447" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A447" s="15"/>
       <c r="B447" s="15"/>
       <c r="C447" s="15"/>
@@ -10922,7 +11009,7 @@
       <c r="N447" s="2"/>
       <c r="O447" s="23"/>
     </row>
-    <row r="448" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A448" s="15"/>
       <c r="B448" s="15"/>
       <c r="C448" s="15"/>
@@ -10939,7 +11026,7 @@
       <c r="N448" s="2"/>
       <c r="O448" s="23"/>
     </row>
-    <row r="449" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A449" s="15"/>
       <c r="B449" s="15"/>
       <c r="C449" s="15"/>
@@ -10956,7 +11043,7 @@
       <c r="N449" s="2"/>
       <c r="O449" s="23"/>
     </row>
-    <row r="450" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A450" s="15"/>
       <c r="B450" s="15"/>
       <c r="C450" s="15"/>
@@ -10973,7 +11060,7 @@
       <c r="N450" s="2"/>
       <c r="O450" s="23"/>
     </row>
-    <row r="451" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A451" s="15"/>
       <c r="B451" s="15"/>
       <c r="C451" s="15"/>
@@ -10990,7 +11077,7 @@
       <c r="N451" s="2"/>
       <c r="O451" s="23"/>
     </row>
-    <row r="452" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A452" s="15"/>
       <c r="B452" s="15"/>
       <c r="C452" s="15"/>
@@ -11007,7 +11094,7 @@
       <c r="N452" s="2"/>
       <c r="O452" s="23"/>
     </row>
-    <row r="453" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A453" s="15"/>
       <c r="B453" s="15"/>
       <c r="C453" s="15"/>
@@ -11024,7 +11111,7 @@
       <c r="N453" s="2"/>
       <c r="O453" s="23"/>
     </row>
-    <row r="454" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A454" s="15"/>
       <c r="B454" s="15"/>
       <c r="C454" s="15"/>
@@ -11041,7 +11128,7 @@
       <c r="N454" s="2"/>
       <c r="O454" s="23"/>
     </row>
-    <row r="455" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A455" s="15"/>
       <c r="B455" s="15"/>
       <c r="C455" s="15"/>
@@ -11058,7 +11145,7 @@
       <c r="N455" s="2"/>
       <c r="O455" s="23"/>
     </row>
-    <row r="456" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A456" s="15"/>
       <c r="B456" s="15"/>
       <c r="C456" s="15"/>
@@ -11075,7 +11162,7 @@
       <c r="N456" s="2"/>
       <c r="O456" s="23"/>
     </row>
-    <row r="457" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A457" s="15"/>
       <c r="B457" s="15"/>
       <c r="C457" s="15"/>
@@ -11092,7 +11179,7 @@
       <c r="N457" s="2"/>
       <c r="O457" s="23"/>
     </row>
-    <row r="458" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A458" s="15"/>
       <c r="B458" s="15"/>
       <c r="C458" s="15"/>
@@ -11109,7 +11196,7 @@
       <c r="N458" s="2"/>
       <c r="O458" s="23"/>
     </row>
-    <row r="459" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A459" s="15"/>
       <c r="B459" s="15"/>
       <c r="C459" s="15"/>
@@ -11126,7 +11213,7 @@
       <c r="N459" s="2"/>
       <c r="O459" s="23"/>
     </row>
-    <row r="460" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A460" s="15"/>
       <c r="B460" s="15"/>
       <c r="C460" s="15"/>
@@ -11143,7 +11230,7 @@
       <c r="N460" s="2"/>
       <c r="O460" s="23"/>
     </row>
-    <row r="461" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A461" s="15"/>
       <c r="B461" s="15"/>
       <c r="C461" s="15"/>
@@ -11160,7 +11247,7 @@
       <c r="N461" s="2"/>
       <c r="O461" s="23"/>
     </row>
-    <row r="462" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A462" s="15"/>
       <c r="B462" s="15"/>
       <c r="C462" s="15"/>
@@ -11177,7 +11264,7 @@
       <c r="N462" s="2"/>
       <c r="O462" s="23"/>
     </row>
-    <row r="463" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A463" s="15"/>
       <c r="B463" s="15"/>
       <c r="C463" s="15"/>
@@ -11194,7 +11281,7 @@
       <c r="N463" s="2"/>
       <c r="O463" s="23"/>
     </row>
-    <row r="464" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A464" s="15"/>
       <c r="B464" s="15"/>
       <c r="C464" s="15"/>
@@ -11211,7 +11298,7 @@
       <c r="N464" s="2"/>
       <c r="O464" s="23"/>
     </row>
-    <row r="465" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A465" s="15"/>
       <c r="B465" s="15"/>
       <c r="C465" s="15"/>
@@ -11228,7 +11315,7 @@
       <c r="N465" s="2"/>
       <c r="O465" s="23"/>
     </row>
-    <row r="466" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A466" s="15"/>
       <c r="B466" s="15"/>
       <c r="C466" s="15"/>
@@ -11245,7 +11332,7 @@
       <c r="N466" s="2"/>
       <c r="O466" s="23"/>
     </row>
-    <row r="467" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A467" s="15"/>
       <c r="B467" s="15"/>
       <c r="C467" s="15"/>
@@ -11262,7 +11349,7 @@
       <c r="N467" s="2"/>
       <c r="O467" s="23"/>
     </row>
-    <row r="468" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A468" s="15"/>
       <c r="B468" s="15"/>
       <c r="C468" s="15"/>
@@ -11279,7 +11366,7 @@
       <c r="N468" s="2"/>
       <c r="O468" s="23"/>
     </row>
-    <row r="469" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A469" s="15"/>
       <c r="B469" s="15"/>
       <c r="C469" s="15"/>
@@ -11296,7 +11383,7 @@
       <c r="N469" s="2"/>
       <c r="O469" s="23"/>
     </row>
-    <row r="470" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A470" s="15"/>
       <c r="B470" s="15"/>
       <c r="C470" s="15"/>
@@ -11313,7 +11400,7 @@
       <c r="N470" s="2"/>
       <c r="O470" s="23"/>
     </row>
-    <row r="471" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A471" s="15"/>
       <c r="B471" s="15"/>
       <c r="C471" s="15"/>
@@ -11330,7 +11417,7 @@
       <c r="N471" s="2"/>
       <c r="O471" s="23"/>
     </row>
-    <row r="472" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A472" s="15"/>
       <c r="B472" s="15"/>
       <c r="C472" s="15"/>
@@ -11347,7 +11434,7 @@
       <c r="N472" s="2"/>
       <c r="O472" s="23"/>
     </row>
-    <row r="473" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A473" s="15"/>
       <c r="B473" s="15"/>
       <c r="C473" s="15"/>
@@ -11364,7 +11451,7 @@
       <c r="N473" s="2"/>
       <c r="O473" s="23"/>
     </row>
-    <row r="474" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A474" s="15"/>
       <c r="B474" s="15"/>
       <c r="C474" s="15"/>
@@ -11381,7 +11468,7 @@
       <c r="N474" s="2"/>
       <c r="O474" s="23"/>
     </row>
-    <row r="475" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A475" s="15"/>
       <c r="B475" s="15"/>
       <c r="C475" s="15"/>
@@ -11398,7 +11485,7 @@
       <c r="N475" s="2"/>
       <c r="O475" s="23"/>
     </row>
-    <row r="476" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A476" s="15"/>
       <c r="B476" s="15"/>
       <c r="C476" s="15"/>
@@ -11415,7 +11502,7 @@
       <c r="N476" s="2"/>
       <c r="O476" s="23"/>
     </row>
-    <row r="477" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A477" s="15"/>
       <c r="B477" s="15"/>
       <c r="C477" s="15"/>
@@ -11432,7 +11519,7 @@
       <c r="N477" s="2"/>
       <c r="O477" s="23"/>
     </row>
-    <row r="478" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A478" s="15"/>
       <c r="B478" s="15"/>
       <c r="C478" s="15"/>
@@ -11449,7 +11536,7 @@
       <c r="N478" s="2"/>
       <c r="O478" s="23"/>
     </row>
-    <row r="479" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A479" s="15"/>
       <c r="B479" s="15"/>
       <c r="C479" s="15"/>
@@ -11466,7 +11553,7 @@
       <c r="N479" s="2"/>
       <c r="O479" s="23"/>
     </row>
-    <row r="480" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A480" s="15"/>
       <c r="B480" s="15"/>
       <c r="C480" s="15"/>
@@ -11483,7 +11570,7 @@
       <c r="N480" s="2"/>
       <c r="O480" s="23"/>
     </row>
-    <row r="481" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A481" s="15"/>
       <c r="B481" s="15"/>
       <c r="C481" s="15"/>
@@ -11500,7 +11587,7 @@
       <c r="N481" s="2"/>
       <c r="O481" s="23"/>
     </row>
-    <row r="482" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A482" s="15"/>
       <c r="B482" s="15"/>
       <c r="C482" s="15"/>
@@ -11517,7 +11604,7 @@
       <c r="N482" s="2"/>
       <c r="O482" s="23"/>
     </row>
-    <row r="483" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A483" s="15"/>
       <c r="B483" s="15"/>
       <c r="C483" s="15"/>
@@ -11534,7 +11621,7 @@
       <c r="N483" s="2"/>
       <c r="O483" s="23"/>
     </row>
-    <row r="484" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A484" s="15"/>
       <c r="B484" s="15"/>
       <c r="C484" s="15"/>
@@ -11551,7 +11638,7 @@
       <c r="N484" s="2"/>
       <c r="O484" s="23"/>
     </row>
-    <row r="485" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A485" s="15"/>
       <c r="B485" s="15"/>
       <c r="C485" s="15"/>
@@ -11568,7 +11655,7 @@
       <c r="N485" s="2"/>
       <c r="O485" s="23"/>
     </row>
-    <row r="486" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A486" s="15"/>
       <c r="B486" s="15"/>
       <c r="C486" s="15"/>
@@ -11585,7 +11672,7 @@
       <c r="N486" s="2"/>
       <c r="O486" s="23"/>
     </row>
-    <row r="487" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A487" s="15"/>
       <c r="B487" s="15"/>
       <c r="C487" s="15"/>
@@ -11602,7 +11689,7 @@
       <c r="N487" s="2"/>
       <c r="O487" s="23"/>
     </row>
-    <row r="488" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A488" s="15"/>
       <c r="B488" s="15"/>
       <c r="C488" s="15"/>
@@ -11619,7 +11706,7 @@
       <c r="N488" s="2"/>
       <c r="O488" s="23"/>
     </row>
-    <row r="489" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A489" s="15"/>
       <c r="B489" s="15"/>
       <c r="C489" s="15"/>
@@ -11636,7 +11723,7 @@
       <c r="N489" s="2"/>
       <c r="O489" s="23"/>
     </row>
-    <row r="490" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A490" s="15"/>
       <c r="B490" s="15"/>
       <c r="C490" s="15"/>
@@ -11653,7 +11740,7 @@
       <c r="N490" s="2"/>
       <c r="O490" s="23"/>
     </row>
-    <row r="491" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A491" s="15"/>
       <c r="B491" s="15"/>
       <c r="C491" s="15"/>
@@ -11670,7 +11757,7 @@
       <c r="N491" s="2"/>
       <c r="O491" s="23"/>
     </row>
-    <row r="492" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A492" s="15"/>
       <c r="B492" s="15"/>
       <c r="C492" s="15"/>
@@ -11687,7 +11774,7 @@
       <c r="N492" s="2"/>
       <c r="O492" s="23"/>
     </row>
-    <row r="493" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A493" s="15"/>
       <c r="B493" s="15"/>
       <c r="C493" s="15"/>
@@ -11704,7 +11791,7 @@
       <c r="N493" s="2"/>
       <c r="O493" s="23"/>
     </row>
-    <row r="494" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A494" s="15"/>
       <c r="B494" s="15"/>
       <c r="C494" s="15"/>
@@ -11721,7 +11808,7 @@
       <c r="N494" s="2"/>
       <c r="O494" s="23"/>
     </row>
-    <row r="495" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A495" s="15"/>
       <c r="B495" s="15"/>
       <c r="C495" s="15"/>
@@ -11738,7 +11825,7 @@
       <c r="N495" s="2"/>
       <c r="O495" s="23"/>
     </row>
-    <row r="496" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A496" s="15"/>
       <c r="B496" s="15"/>
       <c r="C496" s="15"/>
@@ -11755,7 +11842,7 @@
       <c r="N496" s="2"/>
       <c r="O496" s="23"/>
     </row>
-    <row r="497" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A497" s="15"/>
       <c r="B497" s="15"/>
       <c r="C497" s="15"/>
@@ -11772,7 +11859,7 @@
       <c r="N497" s="2"/>
       <c r="O497" s="23"/>
     </row>
-    <row r="498" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A498" s="15"/>
       <c r="B498" s="15"/>
       <c r="C498" s="15"/>
@@ -11789,7 +11876,7 @@
       <c r="N498" s="2"/>
       <c r="O498" s="23"/>
     </row>
-    <row r="499" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A499" s="15"/>
       <c r="B499" s="15"/>
       <c r="C499" s="15"/>
@@ -11806,7 +11893,7 @@
       <c r="N499" s="2"/>
       <c r="O499" s="23"/>
     </row>
-    <row r="500" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A500" s="15"/>
       <c r="B500" s="15"/>
       <c r="C500" s="15"/>
@@ -11823,7 +11910,7 @@
       <c r="N500" s="2"/>
       <c r="O500" s="23"/>
     </row>
-    <row r="501" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A501" s="15"/>
       <c r="B501" s="15"/>
       <c r="C501" s="15"/>
@@ -11840,7 +11927,7 @@
       <c r="N501" s="2"/>
       <c r="O501" s="23"/>
     </row>
-    <row r="502" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A502" s="15"/>
       <c r="B502" s="15"/>
       <c r="C502" s="15"/>
@@ -11857,7 +11944,7 @@
       <c r="N502" s="2"/>
       <c r="O502" s="23"/>
     </row>
-    <row r="503" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A503" s="15"/>
       <c r="B503" s="15"/>
       <c r="C503" s="15"/>
@@ -11874,7 +11961,7 @@
       <c r="N503" s="2"/>
       <c r="O503" s="23"/>
     </row>
-    <row r="504" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A504" s="15"/>
       <c r="B504" s="15"/>
       <c r="C504" s="15"/>
@@ -11891,7 +11978,7 @@
       <c r="N504" s="2"/>
       <c r="O504" s="23"/>
     </row>
-    <row r="505" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A505" s="15"/>
       <c r="B505" s="15"/>
       <c r="C505" s="15"/>
@@ -11908,7 +11995,7 @@
       <c r="N505" s="2"/>
       <c r="O505" s="23"/>
     </row>
-    <row r="506" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A506" s="15"/>
       <c r="B506" s="15"/>
       <c r="C506" s="15"/>
@@ -11925,7 +12012,7 @@
       <c r="N506" s="2"/>
       <c r="O506" s="23"/>
     </row>
-    <row r="507" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A507" s="15"/>
       <c r="B507" s="15"/>
       <c r="C507" s="15"/>
@@ -11942,7 +12029,7 @@
       <c r="N507" s="2"/>
       <c r="O507" s="23"/>
     </row>
-    <row r="508" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A508" s="15"/>
       <c r="B508" s="15"/>
       <c r="C508" s="15"/>
@@ -11959,7 +12046,7 @@
       <c r="N508" s="2"/>
       <c r="O508" s="23"/>
     </row>
-    <row r="509" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A509" s="15"/>
       <c r="B509" s="15"/>
       <c r="C509" s="15"/>
@@ -11976,7 +12063,7 @@
       <c r="N509" s="2"/>
       <c r="O509" s="23"/>
     </row>
-    <row r="510" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A510" s="15"/>
       <c r="B510" s="15"/>
       <c r="C510" s="15"/>
@@ -11993,7 +12080,7 @@
       <c r="N510" s="2"/>
       <c r="O510" s="23"/>
     </row>
-    <row r="511" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A511" s="15"/>
       <c r="B511" s="15"/>
       <c r="C511" s="15"/>
@@ -12010,7 +12097,7 @@
       <c r="N511" s="2"/>
       <c r="O511" s="23"/>
     </row>
-    <row r="512" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A512" s="15"/>
       <c r="B512" s="15"/>
       <c r="C512" s="15"/>
@@ -12027,7 +12114,7 @@
       <c r="N512" s="2"/>
       <c r="O512" s="23"/>
     </row>
-    <row r="513" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A513" s="15"/>
       <c r="B513" s="15"/>
       <c r="C513" s="15"/>
@@ -12044,7 +12131,7 @@
       <c r="N513" s="2"/>
       <c r="O513" s="23"/>
     </row>
-    <row r="514" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A514" s="15"/>
       <c r="B514" s="15"/>
       <c r="C514" s="15"/>
@@ -12061,7 +12148,7 @@
       <c r="N514" s="2"/>
       <c r="O514" s="23"/>
     </row>
-    <row r="515" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A515" s="15"/>
       <c r="B515" s="15"/>
       <c r="C515" s="15"/>
@@ -12078,7 +12165,7 @@
       <c r="N515" s="2"/>
       <c r="O515" s="23"/>
     </row>
-    <row r="516" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A516" s="15"/>
       <c r="B516" s="15"/>
       <c r="C516" s="15"/>
@@ -12095,7 +12182,7 @@
       <c r="N516" s="2"/>
       <c r="O516" s="23"/>
     </row>
-    <row r="517" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A517" s="15"/>
       <c r="B517" s="15"/>
       <c r="C517" s="15"/>
@@ -12112,7 +12199,7 @@
       <c r="N517" s="2"/>
       <c r="O517" s="23"/>
     </row>
-    <row r="518" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A518" s="15"/>
       <c r="B518" s="15"/>
       <c r="C518" s="15"/>
@@ -12129,7 +12216,7 @@
       <c r="N518" s="2"/>
       <c r="O518" s="23"/>
     </row>
-    <row r="519" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A519" s="15"/>
       <c r="B519" s="15"/>
       <c r="C519" s="15"/>
@@ -12146,7 +12233,7 @@
       <c r="N519" s="2"/>
       <c r="O519" s="23"/>
     </row>
-    <row r="520" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A520" s="15"/>
       <c r="B520" s="15"/>
       <c r="C520" s="15"/>
@@ -12163,7 +12250,7 @@
       <c r="N520" s="2"/>
       <c r="O520" s="23"/>
     </row>
-    <row r="521" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A521" s="15"/>
       <c r="B521" s="15"/>
       <c r="C521" s="15"/>
@@ -12180,7 +12267,7 @@
       <c r="N521" s="2"/>
       <c r="O521" s="23"/>
     </row>
-    <row r="522" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A522" s="15"/>
       <c r="B522" s="15"/>
       <c r="C522" s="15"/>
@@ -12197,7 +12284,7 @@
       <c r="N522" s="2"/>
       <c r="O522" s="23"/>
     </row>
-    <row r="523" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A523" s="15"/>
       <c r="B523" s="15"/>
       <c r="C523" s="15"/>
@@ -12214,7 +12301,7 @@
       <c r="N523" s="2"/>
       <c r="O523" s="23"/>
     </row>
-    <row r="524" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A524" s="15"/>
       <c r="B524" s="15"/>
       <c r="C524" s="15"/>
@@ -12231,7 +12318,7 @@
       <c r="N524" s="2"/>
       <c r="O524" s="23"/>
     </row>
-    <row r="525" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A525" s="15"/>
       <c r="B525" s="15"/>
       <c r="C525" s="15"/>
@@ -12248,7 +12335,7 @@
       <c r="N525" s="2"/>
       <c r="O525" s="23"/>
     </row>
-    <row r="526" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A526" s="15"/>
       <c r="B526" s="15"/>
       <c r="C526" s="15"/>
@@ -12265,7 +12352,7 @@
       <c r="N526" s="2"/>
       <c r="O526" s="23"/>
     </row>
-    <row r="527" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A527" s="15"/>
       <c r="B527" s="15"/>
       <c r="C527" s="15"/>
@@ -12282,7 +12369,7 @@
       <c r="N527" s="2"/>
       <c r="O527" s="23"/>
     </row>
-    <row r="528" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A528" s="15"/>
       <c r="B528" s="15"/>
       <c r="C528" s="15"/>
@@ -12299,7 +12386,7 @@
       <c r="N528" s="2"/>
       <c r="O528" s="23"/>
     </row>
-    <row r="529" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A529" s="15"/>
       <c r="B529" s="15"/>
       <c r="C529" s="15"/>
@@ -12316,7 +12403,7 @@
       <c r="N529" s="2"/>
       <c r="O529" s="23"/>
     </row>
-    <row r="530" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A530" s="15"/>
       <c r="B530" s="15"/>
       <c r="C530" s="15"/>
@@ -12333,7 +12420,7 @@
       <c r="N530" s="2"/>
       <c r="O530" s="23"/>
     </row>
-    <row r="531" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A531" s="15"/>
       <c r="B531" s="15"/>
       <c r="C531" s="15"/>
@@ -12350,7 +12437,7 @@
       <c r="N531" s="2"/>
       <c r="O531" s="23"/>
     </row>
-    <row r="532" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A532" s="15"/>
       <c r="B532" s="15"/>
       <c r="C532" s="15"/>
@@ -12367,7 +12454,7 @@
       <c r="N532" s="2"/>
       <c r="O532" s="23"/>
     </row>
-    <row r="533" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A533" s="15"/>
       <c r="B533" s="15"/>
       <c r="C533" s="15"/>
@@ -12384,7 +12471,7 @@
       <c r="N533" s="2"/>
       <c r="O533" s="23"/>
     </row>
-    <row r="534" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A534" s="15"/>
       <c r="B534" s="15"/>
       <c r="C534" s="15"/>
@@ -12401,7 +12488,7 @@
       <c r="N534" s="2"/>
       <c r="O534" s="23"/>
     </row>
-    <row r="535" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A535" s="15"/>
       <c r="B535" s="15"/>
       <c r="C535" s="15"/>
@@ -12418,7 +12505,7 @@
       <c r="N535" s="2"/>
       <c r="O535" s="23"/>
     </row>
-    <row r="536" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A536" s="15"/>
       <c r="B536" s="15"/>
       <c r="C536" s="15"/>
@@ -12435,7 +12522,7 @@
       <c r="N536" s="2"/>
       <c r="O536" s="23"/>
     </row>
-    <row r="537" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A537" s="15"/>
       <c r="B537" s="15"/>
       <c r="C537" s="15"/>
@@ -12452,7 +12539,7 @@
       <c r="N537" s="2"/>
       <c r="O537" s="23"/>
     </row>
-    <row r="538" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A538" s="15"/>
       <c r="B538" s="15"/>
       <c r="C538" s="15"/>
@@ -12469,7 +12556,7 @@
       <c r="N538" s="2"/>
       <c r="O538" s="23"/>
     </row>
-    <row r="539" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A539" s="15"/>
       <c r="B539" s="15"/>
       <c r="C539" s="15"/>
@@ -12486,7 +12573,7 @@
       <c r="N539" s="2"/>
       <c r="O539" s="23"/>
     </row>
-    <row r="540" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A540" s="15"/>
       <c r="B540" s="15"/>
       <c r="C540" s="15"/>
@@ -12503,7 +12590,7 @@
       <c r="N540" s="2"/>
       <c r="O540" s="23"/>
     </row>
-    <row r="541" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A541" s="15"/>
       <c r="B541" s="15"/>
       <c r="C541" s="15"/>
@@ -12520,7 +12607,7 @@
       <c r="N541" s="2"/>
       <c r="O541" s="23"/>
     </row>
-    <row r="542" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A542" s="15"/>
       <c r="B542" s="15"/>
       <c r="C542" s="15"/>
@@ -12537,7 +12624,7 @@
       <c r="N542" s="2"/>
       <c r="O542" s="23"/>
     </row>
-    <row r="543" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A543" s="15"/>
       <c r="B543" s="15"/>
       <c r="C543" s="15"/>
@@ -12554,7 +12641,7 @@
       <c r="N543" s="2"/>
       <c r="O543" s="23"/>
     </row>
-    <row r="544" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A544" s="15"/>
       <c r="B544" s="15"/>
       <c r="C544" s="15"/>
@@ -12571,7 +12658,7 @@
       <c r="N544" s="2"/>
       <c r="O544" s="23"/>
     </row>
-    <row r="545" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A545" s="15"/>
       <c r="B545" s="15"/>
       <c r="C545" s="15"/>
@@ -12588,7 +12675,7 @@
       <c r="N545" s="2"/>
       <c r="O545" s="23"/>
     </row>
-    <row r="546" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A546" s="15"/>
       <c r="B546" s="15"/>
       <c r="C546" s="15"/>
@@ -12605,7 +12692,7 @@
       <c r="N546" s="2"/>
       <c r="O546" s="23"/>
     </row>
-    <row r="547" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A547" s="15"/>
       <c r="B547" s="15"/>
       <c r="C547" s="15"/>
@@ -12622,7 +12709,7 @@
       <c r="N547" s="2"/>
       <c r="O547" s="23"/>
     </row>
-    <row r="548" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A548" s="15"/>
       <c r="B548" s="15"/>
       <c r="C548" s="15"/>
@@ -12639,7 +12726,7 @@
       <c r="N548" s="2"/>
       <c r="O548" s="23"/>
     </row>
-    <row r="549" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A549" s="15"/>
       <c r="B549" s="15"/>
       <c r="C549" s="15"/>
@@ -12656,7 +12743,7 @@
       <c r="N549" s="2"/>
       <c r="O549" s="23"/>
     </row>
-    <row r="550" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A550" s="15"/>
       <c r="B550" s="15"/>
       <c r="C550" s="15"/>
@@ -12673,7 +12760,7 @@
       <c r="N550" s="2"/>
       <c r="O550" s="23"/>
     </row>
-    <row r="551" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A551" s="15"/>
       <c r="B551" s="15"/>
       <c r="C551" s="15"/>
@@ -12690,7 +12777,7 @@
       <c r="N551" s="2"/>
       <c r="O551" s="23"/>
     </row>
-    <row r="552" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A552" s="15"/>
       <c r="B552" s="15"/>
       <c r="C552" s="15"/>
@@ -12707,7 +12794,7 @@
       <c r="N552" s="2"/>
       <c r="O552" s="23"/>
     </row>
-    <row r="553" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A553" s="15"/>
       <c r="B553" s="15"/>
       <c r="C553" s="15"/>
@@ -12724,7 +12811,7 @@
       <c r="N553" s="2"/>
       <c r="O553" s="23"/>
     </row>
-    <row r="554" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A554" s="15"/>
       <c r="B554" s="15"/>
       <c r="C554" s="15"/>
@@ -12741,7 +12828,7 @@
       <c r="N554" s="2"/>
       <c r="O554" s="23"/>
     </row>
-    <row r="555" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A555" s="15"/>
       <c r="B555" s="15"/>
       <c r="C555" s="15"/>
@@ -12758,7 +12845,7 @@
       <c r="N555" s="2"/>
       <c r="O555" s="23"/>
     </row>
-    <row r="556" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A556" s="15"/>
       <c r="B556" s="15"/>
       <c r="C556" s="15"/>
@@ -12775,7 +12862,7 @@
       <c r="N556" s="2"/>
       <c r="O556" s="23"/>
     </row>
-    <row r="557" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A557" s="15"/>
       <c r="B557" s="15"/>
       <c r="C557" s="15"/>
@@ -12792,7 +12879,7 @@
       <c r="N557" s="2"/>
       <c r="O557" s="23"/>
     </row>
-    <row r="558" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A558" s="15"/>
       <c r="B558" s="15"/>
       <c r="C558" s="15"/>
@@ -12809,7 +12896,7 @@
       <c r="N558" s="2"/>
       <c r="O558" s="23"/>
     </row>
-    <row r="559" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A559" s="15"/>
       <c r="B559" s="15"/>
       <c r="C559" s="15"/>
@@ -12826,7 +12913,7 @@
       <c r="N559" s="2"/>
       <c r="O559" s="23"/>
     </row>
-    <row r="560" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A560" s="15"/>
       <c r="B560" s="15"/>
       <c r="C560" s="15"/>
@@ -12843,7 +12930,7 @@
       <c r="N560" s="2"/>
       <c r="O560" s="23"/>
     </row>
-    <row r="561" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A561" s="15"/>
       <c r="B561" s="15"/>
       <c r="C561" s="15"/>
@@ -12860,7 +12947,7 @@
       <c r="N561" s="2"/>
       <c r="O561" s="23"/>
     </row>
-    <row r="562" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A562" s="15"/>
       <c r="B562" s="15"/>
       <c r="C562" s="15"/>
@@ -12877,7 +12964,7 @@
       <c r="N562" s="2"/>
       <c r="O562" s="23"/>
     </row>
-    <row r="563" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A563" s="15"/>
       <c r="B563" s="15"/>
       <c r="C563" s="15"/>
@@ -12894,7 +12981,7 @@
       <c r="N563" s="2"/>
       <c r="O563" s="23"/>
     </row>
-    <row r="564" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A564" s="15"/>
       <c r="B564" s="15"/>
       <c r="C564" s="15"/>
@@ -12911,7 +12998,7 @@
       <c r="N564" s="2"/>
       <c r="O564" s="23"/>
     </row>
-    <row r="565" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A565" s="15"/>
       <c r="B565" s="15"/>
       <c r="C565" s="15"/>
@@ -12928,7 +13015,7 @@
       <c r="N565" s="2"/>
       <c r="O565" s="23"/>
     </row>
-    <row r="566" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A566" s="15"/>
       <c r="B566" s="15"/>
       <c r="C566" s="15"/>
@@ -12945,7 +13032,7 @@
       <c r="N566" s="2"/>
       <c r="O566" s="23"/>
     </row>
-    <row r="567" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A567" s="15"/>
       <c r="B567" s="15"/>
       <c r="C567" s="15"/>
@@ -12962,7 +13049,7 @@
       <c r="N567" s="2"/>
       <c r="O567" s="23"/>
     </row>
-    <row r="568" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A568" s="15"/>
       <c r="B568" s="15"/>
       <c r="C568" s="15"/>
@@ -12979,7 +13066,7 @@
       <c r="N568" s="2"/>
       <c r="O568" s="23"/>
     </row>
-    <row r="569" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A569" s="15"/>
       <c r="B569" s="15"/>
       <c r="C569" s="15"/>
@@ -12996,7 +13083,7 @@
       <c r="N569" s="2"/>
       <c r="O569" s="23"/>
     </row>
-    <row r="570" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A570" s="15"/>
       <c r="B570" s="15"/>
       <c r="C570" s="15"/>
@@ -13013,7 +13100,7 @@
       <c r="N570" s="2"/>
       <c r="O570" s="23"/>
     </row>
-    <row r="571" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A571" s="15"/>
       <c r="B571" s="15"/>
       <c r="C571" s="15"/>
@@ -13030,7 +13117,7 @@
       <c r="N571" s="2"/>
       <c r="O571" s="23"/>
     </row>
-    <row r="572" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A572" s="15"/>
       <c r="B572" s="15"/>
       <c r="C572" s="15"/>
@@ -13047,7 +13134,7 @@
       <c r="N572" s="2"/>
       <c r="O572" s="23"/>
     </row>
-    <row r="573" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A573" s="15"/>
       <c r="B573" s="15"/>
       <c r="C573" s="15"/>
@@ -13064,7 +13151,7 @@
       <c r="N573" s="2"/>
       <c r="O573" s="23"/>
     </row>
-    <row r="574" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A574" s="15"/>
       <c r="B574" s="15"/>
       <c r="C574" s="15"/>
@@ -13081,7 +13168,7 @@
       <c r="N574" s="2"/>
       <c r="O574" s="23"/>
     </row>
-    <row r="575" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A575" s="15"/>
       <c r="B575" s="15"/>
       <c r="C575" s="15"/>
@@ -13098,7 +13185,7 @@
       <c r="N575" s="2"/>
       <c r="O575" s="23"/>
     </row>
-    <row r="576" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A576" s="15"/>
       <c r="B576" s="15"/>
       <c r="C576" s="15"/>
@@ -13115,7 +13202,7 @@
       <c r="N576" s="2"/>
       <c r="O576" s="23"/>
     </row>
-    <row r="577" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A577" s="15"/>
       <c r="B577" s="15"/>
       <c r="C577" s="15"/>
@@ -13132,7 +13219,7 @@
       <c r="N577" s="2"/>
       <c r="O577" s="23"/>
     </row>
-    <row r="578" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A578" s="15"/>
       <c r="B578" s="15"/>
       <c r="C578" s="15"/>
@@ -13149,7 +13236,7 @@
       <c r="N578" s="2"/>
       <c r="O578" s="23"/>
     </row>
-    <row r="579" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A579" s="15"/>
       <c r="B579" s="15"/>
       <c r="C579" s="15"/>
@@ -13166,7 +13253,7 @@
       <c r="N579" s="2"/>
       <c r="O579" s="23"/>
     </row>
-    <row r="580" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A580" s="15"/>
       <c r="B580" s="15"/>
       <c r="C580" s="15"/>
@@ -13183,7 +13270,7 @@
       <c r="N580" s="2"/>
       <c r="O580" s="23"/>
     </row>
-    <row r="581" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A581" s="15"/>
       <c r="B581" s="15"/>
       <c r="C581" s="15"/>
@@ -13200,7 +13287,7 @@
       <c r="N581" s="2"/>
       <c r="O581" s="23"/>
     </row>
-    <row r="582" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A582" s="15"/>
       <c r="B582" s="15"/>
       <c r="C582" s="15"/>
@@ -13217,7 +13304,7 @@
       <c r="N582" s="2"/>
       <c r="O582" s="23"/>
     </row>
-    <row r="583" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A583" s="15"/>
       <c r="B583" s="15"/>
       <c r="C583" s="15"/>
@@ -13234,7 +13321,7 @@
       <c r="N583" s="2"/>
       <c r="O583" s="23"/>
     </row>
-    <row r="584" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A584" s="15"/>
       <c r="B584" s="15"/>
       <c r="C584" s="15"/>
@@ -13251,7 +13338,7 @@
       <c r="N584" s="2"/>
       <c r="O584" s="23"/>
     </row>
-    <row r="585" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A585" s="15"/>
       <c r="B585" s="15"/>
       <c r="C585" s="15"/>
@@ -13268,7 +13355,7 @@
       <c r="N585" s="2"/>
       <c r="O585" s="23"/>
     </row>
-    <row r="586" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A586" s="15"/>
       <c r="B586" s="15"/>
       <c r="C586" s="15"/>
@@ -13285,7 +13372,7 @@
       <c r="N586" s="2"/>
       <c r="O586" s="23"/>
     </row>
-    <row r="587" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A587" s="15"/>
       <c r="B587" s="15"/>
       <c r="C587" s="15"/>
@@ -13302,7 +13389,7 @@
       <c r="N587" s="2"/>
       <c r="O587" s="23"/>
     </row>
-    <row r="588" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A588" s="15"/>
       <c r="B588" s="15"/>
       <c r="C588" s="15"/>
@@ -13319,7 +13406,7 @@
       <c r="N588" s="2"/>
       <c r="O588" s="23"/>
     </row>
-    <row r="589" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A589" s="15"/>
       <c r="B589" s="15"/>
       <c r="C589" s="15"/>
@@ -13336,7 +13423,7 @@
       <c r="N589" s="2"/>
       <c r="O589" s="23"/>
     </row>
-    <row r="590" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A590" s="15"/>
       <c r="B590" s="15"/>
       <c r="C590" s="15"/>
@@ -13353,7 +13440,7 @@
       <c r="N590" s="2"/>
       <c r="O590" s="23"/>
     </row>
-    <row r="591" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A591" s="15"/>
       <c r="B591" s="15"/>
       <c r="C591" s="15"/>
@@ -13370,7 +13457,7 @@
       <c r="N591" s="2"/>
       <c r="O591" s="23"/>
     </row>
-    <row r="592" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A592" s="15"/>
       <c r="B592" s="15"/>
       <c r="C592" s="15"/>
@@ -13387,7 +13474,7 @@
       <c r="N592" s="2"/>
       <c r="O592" s="23"/>
     </row>
-    <row r="593" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A593" s="15"/>
       <c r="B593" s="15"/>
       <c r="C593" s="15"/>
@@ -13404,7 +13491,7 @@
       <c r="N593" s="2"/>
       <c r="O593" s="23"/>
     </row>
-    <row r="594" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A594" s="15"/>
       <c r="B594" s="15"/>
       <c r="C594" s="15"/>
@@ -13421,7 +13508,7 @@
       <c r="N594" s="2"/>
       <c r="O594" s="23"/>
     </row>
-    <row r="595" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A595" s="15"/>
       <c r="B595" s="15"/>
       <c r="C595" s="15"/>
@@ -13438,7 +13525,7 @@
       <c r="N595" s="2"/>
       <c r="O595" s="23"/>
     </row>
-    <row r="596" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A596" s="15"/>
       <c r="B596" s="15"/>
       <c r="C596" s="15"/>
@@ -13455,7 +13542,7 @@
       <c r="N596" s="2"/>
       <c r="O596" s="23"/>
     </row>
-    <row r="597" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A597" s="15"/>
       <c r="B597" s="15"/>
       <c r="C597" s="15"/>
@@ -13472,7 +13559,7 @@
       <c r="N597" s="2"/>
       <c r="O597" s="23"/>
     </row>
-    <row r="598" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A598" s="15"/>
       <c r="B598" s="15"/>
       <c r="C598" s="15"/>
@@ -13489,7 +13576,7 @@
       <c r="N598" s="2"/>
       <c r="O598" s="23"/>
     </row>
-    <row r="599" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A599" s="15"/>
       <c r="B599" s="15"/>
       <c r="C599" s="15"/>
@@ -13506,7 +13593,7 @@
       <c r="N599" s="2"/>
       <c r="O599" s="23"/>
     </row>
-    <row r="600" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A600" s="15"/>
       <c r="B600" s="15"/>
       <c r="C600" s="15"/>
@@ -13523,7 +13610,7 @@
       <c r="N600" s="2"/>
       <c r="O600" s="23"/>
     </row>
-    <row r="601" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A601" s="15"/>
       <c r="B601" s="15"/>
       <c r="C601" s="15"/>
@@ -13540,7 +13627,7 @@
       <c r="N601" s="2"/>
       <c r="O601" s="23"/>
     </row>
-    <row r="602" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A602" s="15"/>
       <c r="B602" s="15"/>
       <c r="C602" s="15"/>
@@ -13557,7 +13644,7 @@
       <c r="N602" s="2"/>
       <c r="O602" s="23"/>
     </row>
-    <row r="603" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A603" s="15"/>
       <c r="B603" s="15"/>
       <c r="C603" s="15"/>
@@ -13574,7 +13661,7 @@
       <c r="N603" s="2"/>
       <c r="O603" s="23"/>
     </row>
-    <row r="604" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A604" s="15"/>
       <c r="B604" s="15"/>
       <c r="C604" s="15"/>
@@ -13591,7 +13678,7 @@
       <c r="N604" s="2"/>
       <c r="O604" s="23"/>
     </row>
-    <row r="605" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A605" s="15"/>
       <c r="B605" s="15"/>
       <c r="C605" s="15"/>
@@ -13608,7 +13695,7 @@
       <c r="N605" s="2"/>
       <c r="O605" s="23"/>
     </row>
-    <row r="606" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A606" s="15"/>
       <c r="B606" s="15"/>
       <c r="C606" s="15"/>
@@ -13625,7 +13712,7 @@
       <c r="N606" s="2"/>
       <c r="O606" s="23"/>
     </row>
-    <row r="607" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A607" s="15"/>
       <c r="B607" s="15"/>
       <c r="C607" s="15"/>
@@ -13642,7 +13729,7 @@
       <c r="N607" s="2"/>
       <c r="O607" s="23"/>
     </row>
-    <row r="608" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A608" s="15"/>
       <c r="B608" s="15"/>
       <c r="C608" s="15"/>
@@ -13659,7 +13746,7 @@
       <c r="N608" s="2"/>
       <c r="O608" s="23"/>
     </row>
-    <row r="609" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A609" s="15"/>
       <c r="B609" s="15"/>
       <c r="C609" s="15"/>
@@ -13676,7 +13763,7 @@
       <c r="N609" s="2"/>
       <c r="O609" s="23"/>
     </row>
-    <row r="610" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A610" s="15"/>
       <c r="B610" s="15"/>
       <c r="C610" s="15"/>
@@ -13693,7 +13780,7 @@
       <c r="N610" s="2"/>
       <c r="O610" s="23"/>
     </row>
-    <row r="611" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A611" s="15"/>
       <c r="B611" s="15"/>
       <c r="C611" s="15"/>
@@ -13710,7 +13797,7 @@
       <c r="N611" s="2"/>
       <c r="O611" s="23"/>
     </row>
-    <row r="612" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A612" s="15"/>
       <c r="B612" s="15"/>
       <c r="C612" s="15"/>
@@ -13727,7 +13814,7 @@
       <c r="N612" s="2"/>
       <c r="O612" s="23"/>
     </row>
-    <row r="613" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A613" s="15"/>
       <c r="B613" s="15"/>
       <c r="C613" s="15"/>
@@ -13744,7 +13831,7 @@
       <c r="N613" s="2"/>
       <c r="O613" s="23"/>
     </row>
-    <row r="614" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A614" s="15"/>
       <c r="B614" s="15"/>
       <c r="C614" s="15"/>
@@ -13761,7 +13848,7 @@
       <c r="N614" s="2"/>
       <c r="O614" s="23"/>
     </row>
-    <row r="615" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A615" s="15"/>
       <c r="B615" s="15"/>
       <c r="C615" s="15"/>
@@ -13778,7 +13865,7 @@
       <c r="N615" s="2"/>
       <c r="O615" s="23"/>
     </row>
-    <row r="616" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A616" s="15"/>
       <c r="B616" s="15"/>
       <c r="C616" s="15"/>
@@ -13795,7 +13882,7 @@
       <c r="N616" s="2"/>
       <c r="O616" s="23"/>
     </row>
-    <row r="617" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A617" s="15"/>
       <c r="B617" s="15"/>
       <c r="C617" s="15"/>
@@ -13812,7 +13899,7 @@
       <c r="N617" s="2"/>
       <c r="O617" s="23"/>
     </row>
-    <row r="618" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A618" s="15"/>
       <c r="B618" s="15"/>
       <c r="C618" s="15"/>
@@ -13829,7 +13916,7 @@
       <c r="N618" s="2"/>
       <c r="O618" s="23"/>
     </row>
-    <row r="619" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A619" s="15"/>
       <c r="B619" s="15"/>
       <c r="C619" s="15"/>
@@ -13846,7 +13933,7 @@
       <c r="N619" s="2"/>
       <c r="O619" s="23"/>
     </row>
-    <row r="620" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A620" s="15"/>
       <c r="B620" s="15"/>
       <c r="C620" s="15"/>
@@ -13863,7 +13950,7 @@
       <c r="N620" s="2"/>
       <c r="O620" s="23"/>
     </row>
-    <row r="621" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A621" s="15"/>
       <c r="B621" s="15"/>
       <c r="C621" s="15"/>
@@ -13880,7 +13967,7 @@
       <c r="N621" s="2"/>
       <c r="O621" s="23"/>
     </row>
-    <row r="622" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A622" s="15"/>
       <c r="B622" s="15"/>
       <c r="C622" s="15"/>
@@ -13897,7 +13984,7 @@
       <c r="N622" s="2"/>
       <c r="O622" s="23"/>
     </row>
-    <row r="623" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A623" s="15"/>
       <c r="B623" s="15"/>
       <c r="C623" s="15"/>
@@ -13914,7 +14001,7 @@
       <c r="N623" s="2"/>
       <c r="O623" s="23"/>
     </row>
-    <row r="624" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A624" s="15"/>
       <c r="B624" s="15"/>
       <c r="C624" s="15"/>
@@ -13931,7 +14018,7 @@
       <c r="N624" s="2"/>
       <c r="O624" s="23"/>
     </row>
-    <row r="625" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A625" s="15"/>
       <c r="B625" s="15"/>
       <c r="C625" s="15"/>
@@ -13948,7 +14035,7 @@
       <c r="N625" s="2"/>
       <c r="O625" s="23"/>
     </row>
-    <row r="626" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A626" s="15"/>
       <c r="B626" s="15"/>
       <c r="C626" s="15"/>
@@ -13965,7 +14052,7 @@
       <c r="N626" s="2"/>
       <c r="O626" s="23"/>
     </row>
-    <row r="627" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A627" s="15"/>
       <c r="B627" s="15"/>
       <c r="C627" s="15"/>
@@ -13982,7 +14069,7 @@
       <c r="N627" s="2"/>
       <c r="O627" s="23"/>
     </row>
-    <row r="628" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A628" s="15"/>
       <c r="B628" s="15"/>
       <c r="C628" s="15"/>
@@ -13999,7 +14086,7 @@
       <c r="N628" s="2"/>
       <c r="O628" s="23"/>
     </row>
-    <row r="629" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A629" s="15"/>
       <c r="B629" s="15"/>
       <c r="C629" s="15"/>
@@ -14016,7 +14103,7 @@
       <c r="N629" s="2"/>
       <c r="O629" s="23"/>
     </row>
-    <row r="630" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A630" s="15"/>
       <c r="B630" s="15"/>
       <c r="C630" s="15"/>
@@ -14033,7 +14120,7 @@
       <c r="N630" s="2"/>
       <c r="O630" s="23"/>
     </row>
-    <row r="631" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A631" s="15"/>
       <c r="B631" s="15"/>
       <c r="C631" s="15"/>
@@ -14050,7 +14137,7 @@
       <c r="N631" s="2"/>
       <c r="O631" s="23"/>
     </row>
-    <row r="632" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A632" s="15"/>
       <c r="B632" s="15"/>
       <c r="C632" s="15"/>
@@ -14067,7 +14154,7 @@
       <c r="N632" s="2"/>
       <c r="O632" s="23"/>
     </row>
-    <row r="633" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A633" s="15"/>
       <c r="B633" s="15"/>
       <c r="C633" s="15"/>
@@ -14084,7 +14171,7 @@
       <c r="N633" s="2"/>
       <c r="O633" s="23"/>
     </row>
-    <row r="634" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A634" s="15"/>
       <c r="B634" s="15"/>
       <c r="C634" s="15"/>
@@ -14101,7 +14188,7 @@
       <c r="N634" s="2"/>
       <c r="O634" s="23"/>
     </row>
-    <row r="635" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A635" s="15"/>
       <c r="B635" s="15"/>
       <c r="C635" s="15"/>
@@ -14118,7 +14205,7 @@
       <c r="N635" s="2"/>
       <c r="O635" s="23"/>
     </row>
-    <row r="636" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A636" s="15"/>
       <c r="B636" s="15"/>
       <c r="C636" s="15"/>
@@ -14135,7 +14222,7 @@
       <c r="N636" s="2"/>
       <c r="O636" s="23"/>
     </row>
-    <row r="637" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A637" s="15"/>
       <c r="B637" s="15"/>
       <c r="C637" s="15"/>
@@ -14152,7 +14239,7 @@
       <c r="N637" s="2"/>
       <c r="O637" s="23"/>
     </row>
-    <row r="638" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A638" s="15"/>
       <c r="B638" s="15"/>
       <c r="C638" s="15"/>
@@ -14169,7 +14256,7 @@
       <c r="N638" s="2"/>
       <c r="O638" s="23"/>
     </row>
-    <row r="639" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A639" s="15"/>
       <c r="B639" s="15"/>
       <c r="C639" s="15"/>
@@ -14186,7 +14273,7 @@
       <c r="N639" s="2"/>
       <c r="O639" s="23"/>
     </row>
-    <row r="640" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A640" s="15"/>
       <c r="B640" s="15"/>
       <c r="C640" s="15"/>
@@ -14203,7 +14290,7 @@
       <c r="N640" s="2"/>
       <c r="O640" s="23"/>
     </row>
-    <row r="641" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A641" s="15"/>
       <c r="B641" s="15"/>
       <c r="C641" s="15"/>
@@ -14220,7 +14307,7 @@
       <c r="N641" s="2"/>
       <c r="O641" s="23"/>
     </row>
-    <row r="642" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A642" s="15"/>
       <c r="B642" s="15"/>
       <c r="C642" s="15"/>
@@ -14237,7 +14324,7 @@
       <c r="N642" s="2"/>
       <c r="O642" s="23"/>
     </row>
-    <row r="643" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A643" s="15"/>
       <c r="B643" s="15"/>
       <c r="C643" s="15"/>
@@ -14254,7 +14341,7 @@
       <c r="N643" s="2"/>
       <c r="O643" s="23"/>
     </row>
-    <row r="644" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A644" s="15"/>
       <c r="B644" s="15"/>
       <c r="C644" s="15"/>
@@ -14271,7 +14358,7 @@
       <c r="N644" s="2"/>
       <c r="O644" s="23"/>
     </row>
-    <row r="645" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A645" s="15"/>
       <c r="B645" s="15"/>
       <c r="C645" s="15"/>
@@ -14288,7 +14375,7 @@
       <c r="N645" s="2"/>
       <c r="O645" s="23"/>
     </row>
-    <row r="646" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A646" s="15"/>
       <c r="B646" s="15"/>
       <c r="C646" s="15"/>
@@ -14305,7 +14392,7 @@
       <c r="N646" s="2"/>
       <c r="O646" s="23"/>
     </row>
-    <row r="647" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A647" s="15"/>
       <c r="B647" s="15"/>
       <c r="C647" s="15"/>
@@ -14322,7 +14409,7 @@
       <c r="N647" s="2"/>
       <c r="O647" s="23"/>
     </row>
-    <row r="648" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A648" s="15"/>
       <c r="B648" s="15"/>
       <c r="C648" s="15"/>
@@ -14339,7 +14426,7 @@
       <c r="N648" s="2"/>
       <c r="O648" s="23"/>
     </row>
-    <row r="649" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A649" s="15"/>
       <c r="B649" s="15"/>
       <c r="C649" s="15"/>
@@ -14356,7 +14443,7 @@
       <c r="N649" s="2"/>
       <c r="O649" s="23"/>
     </row>
-    <row r="650" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A650" s="15"/>
       <c r="B650" s="15"/>
       <c r="C650" s="15"/>
@@ -14373,7 +14460,7 @@
       <c r="N650" s="2"/>
       <c r="O650" s="23"/>
     </row>
-    <row r="651" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A651" s="15"/>
       <c r="B651" s="15"/>
       <c r="C651" s="15"/>
@@ -14390,7 +14477,7 @@
       <c r="N651" s="2"/>
       <c r="O651" s="23"/>
     </row>
-    <row r="652" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A652" s="15"/>
       <c r="B652" s="15"/>
       <c r="C652" s="15"/>
@@ -14407,7 +14494,7 @@
       <c r="N652" s="2"/>
       <c r="O652" s="23"/>
     </row>
-    <row r="653" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A653" s="15"/>
       <c r="B653" s="15"/>
       <c r="C653" s="15"/>
@@ -14424,7 +14511,7 @@
       <c r="N653" s="2"/>
       <c r="O653" s="23"/>
     </row>
-    <row r="654" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A654" s="15"/>
       <c r="B654" s="15"/>
       <c r="C654" s="15"/>
@@ -14441,7 +14528,7 @@
       <c r="N654" s="2"/>
       <c r="O654" s="23"/>
     </row>
-    <row r="655" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A655" s="15"/>
       <c r="B655" s="15"/>
       <c r="C655" s="15"/>
@@ -14458,7 +14545,7 @@
       <c r="N655" s="2"/>
       <c r="O655" s="23"/>
     </row>
-    <row r="656" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A656" s="15"/>
       <c r="B656" s="15"/>
       <c r="C656" s="15"/>
@@ -14475,7 +14562,7 @@
       <c r="N656" s="2"/>
       <c r="O656" s="23"/>
     </row>
-    <row r="657" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A657" s="15"/>
       <c r="B657" s="15"/>
       <c r="C657" s="15"/>
@@ -14492,7 +14579,7 @@
       <c r="N657" s="2"/>
       <c r="O657" s="23"/>
     </row>
-    <row r="658" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A658" s="15"/>
       <c r="B658" s="15"/>
       <c r="C658" s="15"/>
@@ -14509,7 +14596,7 @@
       <c r="N658" s="2"/>
       <c r="O658" s="23"/>
     </row>
-    <row r="659" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A659" s="15"/>
       <c r="B659" s="15"/>
       <c r="C659" s="15"/>
@@ -14526,7 +14613,7 @@
       <c r="N659" s="2"/>
       <c r="O659" s="23"/>
     </row>
-    <row r="660" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A660" s="15"/>
       <c r="B660" s="15"/>
       <c r="C660" s="15"/>
@@ -14543,7 +14630,7 @@
       <c r="N660" s="2"/>
       <c r="O660" s="23"/>
     </row>
-    <row r="661" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A661" s="15"/>
       <c r="B661" s="15"/>
       <c r="C661" s="15"/>
@@ -14560,7 +14647,7 @@
       <c r="N661" s="2"/>
       <c r="O661" s="23"/>
     </row>
-    <row r="662" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A662" s="15"/>
       <c r="B662" s="15"/>
       <c r="C662" s="15"/>
@@ -14577,7 +14664,7 @@
       <c r="N662" s="2"/>
       <c r="O662" s="23"/>
     </row>
-    <row r="663" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A663" s="15"/>
       <c r="B663" s="15"/>
       <c r="C663" s="15"/>
@@ -14594,7 +14681,7 @@
       <c r="N663" s="2"/>
       <c r="O663" s="23"/>
     </row>
-    <row r="664" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A664" s="15"/>
       <c r="B664" s="15"/>
       <c r="C664" s="15"/>
@@ -14611,7 +14698,7 @@
       <c r="N664" s="2"/>
       <c r="O664" s="23"/>
     </row>
-    <row r="665" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A665" s="15"/>
       <c r="B665" s="15"/>
       <c r="C665" s="15"/>
@@ -14628,7 +14715,7 @@
       <c r="N665" s="2"/>
       <c r="O665" s="23"/>
     </row>
-    <row r="666" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A666" s="15"/>
       <c r="B666" s="15"/>
       <c r="C666" s="15"/>
@@ -14645,7 +14732,7 @@
       <c r="N666" s="2"/>
       <c r="O666" s="23"/>
     </row>
-    <row r="667" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A667" s="15"/>
       <c r="B667" s="15"/>
       <c r="C667" s="15"/>
@@ -14662,7 +14749,7 @@
       <c r="N667" s="2"/>
       <c r="O667" s="23"/>
     </row>
-    <row r="668" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A668" s="15"/>
       <c r="B668" s="15"/>
       <c r="C668" s="15"/>
@@ -14679,7 +14766,7 @@
       <c r="N668" s="2"/>
       <c r="O668" s="23"/>
     </row>
-    <row r="669" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A669" s="15"/>
       <c r="B669" s="15"/>
       <c r="C669" s="15"/>
@@ -14696,7 +14783,7 @@
       <c r="N669" s="2"/>
       <c r="O669" s="23"/>
     </row>
-    <row r="670" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A670" s="15"/>
       <c r="B670" s="15"/>
       <c r="C670" s="15"/>
@@ -14713,7 +14800,7 @@
       <c r="N670" s="2"/>
       <c r="O670" s="23"/>
     </row>
-    <row r="671" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A671" s="15"/>
       <c r="B671" s="15"/>
       <c r="C671" s="15"/>
@@ -14730,7 +14817,7 @@
       <c r="N671" s="2"/>
       <c r="O671" s="23"/>
     </row>
-    <row r="672" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A672" s="15"/>
       <c r="B672" s="15"/>
       <c r="C672" s="15"/>
@@ -14747,7 +14834,7 @@
       <c r="N672" s="2"/>
       <c r="O672" s="23"/>
     </row>
-    <row r="673" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A673" s="15"/>
       <c r="B673" s="15"/>
       <c r="C673" s="15"/>
@@ -14764,7 +14851,7 @@
       <c r="N673" s="2"/>
       <c r="O673" s="23"/>
     </row>
-    <row r="674" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A674" s="15"/>
       <c r="B674" s="15"/>
       <c r="C674" s="15"/>
@@ -14781,7 +14868,7 @@
       <c r="N674" s="2"/>
       <c r="O674" s="23"/>
     </row>
-    <row r="675" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A675" s="15"/>
       <c r="B675" s="15"/>
       <c r="C675" s="15"/>
@@ -14798,7 +14885,7 @@
       <c r="N675" s="2"/>
       <c r="O675" s="23"/>
     </row>
-    <row r="676" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A676" s="15"/>
       <c r="B676" s="15"/>
       <c r="C676" s="15"/>
@@ -14815,7 +14902,7 @@
       <c r="N676" s="2"/>
       <c r="O676" s="23"/>
     </row>
-    <row r="677" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A677" s="15"/>
       <c r="B677" s="15"/>
       <c r="C677" s="15"/>
@@ -14832,7 +14919,7 @@
       <c r="N677" s="2"/>
       <c r="O677" s="23"/>
     </row>
-    <row r="678" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A678" s="15"/>
       <c r="B678" s="15"/>
       <c r="C678" s="15"/>
@@ -14849,7 +14936,7 @@
       <c r="N678" s="2"/>
       <c r="O678" s="23"/>
     </row>
-    <row r="679" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A679" s="15"/>
       <c r="B679" s="15"/>
       <c r="C679" s="15"/>
@@ -14866,7 +14953,7 @@
       <c r="N679" s="2"/>
       <c r="O679" s="23"/>
     </row>
-    <row r="680" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A680" s="15"/>
       <c r="B680" s="15"/>
       <c r="C680" s="15"/>
@@ -14883,7 +14970,7 @@
       <c r="N680" s="2"/>
       <c r="O680" s="23"/>
     </row>
-    <row r="681" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A681" s="15"/>
       <c r="B681" s="15"/>
       <c r="C681" s="15"/>
@@ -14900,7 +14987,7 @@
       <c r="N681" s="2"/>
       <c r="O681" s="23"/>
     </row>
-    <row r="682" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A682" s="15"/>
       <c r="B682" s="15"/>
       <c r="C682" s="15"/>
@@ -14917,7 +15004,7 @@
       <c r="N682" s="2"/>
       <c r="O682" s="23"/>
     </row>
-    <row r="683" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A683" s="15"/>
       <c r="B683" s="15"/>
       <c r="C683" s="15"/>
@@ -14934,7 +15021,7 @@
       <c r="N683" s="2"/>
       <c r="O683" s="23"/>
     </row>
-    <row r="684" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A684" s="15"/>
       <c r="B684" s="15"/>
       <c r="C684" s="15"/>
@@ -14951,7 +15038,7 @@
       <c r="N684" s="2"/>
       <c r="O684" s="23"/>
     </row>
-    <row r="685" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A685" s="15"/>
       <c r="B685" s="15"/>
       <c r="C685" s="15"/>
@@ -14968,7 +15055,7 @@
       <c r="N685" s="2"/>
       <c r="O685" s="23"/>
     </row>
-    <row r="686" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A686" s="15"/>
       <c r="B686" s="15"/>
       <c r="C686" s="15"/>
@@ -14985,7 +15072,7 @@
       <c r="N686" s="2"/>
       <c r="O686" s="23"/>
     </row>
-    <row r="687" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A687" s="15"/>
       <c r="B687" s="15"/>
       <c r="C687" s="15"/>
@@ -15002,7 +15089,7 @@
       <c r="N687" s="2"/>
       <c r="O687" s="23"/>
     </row>
-    <row r="688" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A688" s="15"/>
       <c r="B688" s="15"/>
       <c r="C688" s="15"/>
@@ -15019,7 +15106,7 @@
       <c r="N688" s="2"/>
       <c r="O688" s="23"/>
     </row>
-    <row r="689" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A689" s="15"/>
       <c r="B689" s="15"/>
       <c r="C689" s="15"/>
@@ -15036,7 +15123,7 @@
       <c r="N689" s="2"/>
       <c r="O689" s="23"/>
     </row>
-    <row r="690" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A690" s="15"/>
       <c r="B690" s="15"/>
       <c r="C690" s="15"/>
@@ -15053,7 +15140,7 @@
       <c r="N690" s="2"/>
       <c r="O690" s="23"/>
     </row>
-    <row r="691" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A691" s="15"/>
       <c r="B691" s="15"/>
       <c r="C691" s="15"/>
@@ -15070,7 +15157,7 @@
       <c r="N691" s="2"/>
       <c r="O691" s="23"/>
     </row>
-    <row r="692" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A692" s="15"/>
       <c r="B692" s="15"/>
       <c r="C692" s="15"/>
@@ -15087,7 +15174,7 @@
       <c r="N692" s="2"/>
       <c r="O692" s="23"/>
     </row>
-    <row r="693" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A693" s="15"/>
       <c r="B693" s="15"/>
       <c r="C693" s="15"/>
@@ -15104,7 +15191,7 @@
       <c r="N693" s="2"/>
       <c r="O693" s="23"/>
     </row>
-    <row r="694" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A694" s="15"/>
       <c r="B694" s="15"/>
       <c r="C694" s="15"/>
@@ -15121,7 +15208,7 @@
       <c r="N694" s="2"/>
       <c r="O694" s="23"/>
     </row>
-    <row r="695" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A695" s="15"/>
       <c r="B695" s="15"/>
       <c r="C695" s="15"/>
@@ -15138,7 +15225,7 @@
       <c r="N695" s="2"/>
       <c r="O695" s="23"/>
     </row>
-    <row r="696" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A696" s="15"/>
       <c r="B696" s="15"/>
       <c r="C696" s="15"/>
@@ -15155,7 +15242,7 @@
       <c r="N696" s="2"/>
       <c r="O696" s="23"/>
     </row>
-    <row r="697" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A697" s="15"/>
       <c r="B697" s="15"/>
       <c r="C697" s="15"/>
@@ -15172,7 +15259,7 @@
       <c r="N697" s="2"/>
       <c r="O697" s="23"/>
     </row>
-    <row r="698" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A698" s="15"/>
       <c r="B698" s="15"/>
       <c r="C698" s="15"/>
@@ -15189,7 +15276,7 @@
       <c r="N698" s="2"/>
       <c r="O698" s="23"/>
     </row>
-    <row r="699" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A699" s="15"/>
       <c r="B699" s="15"/>
       <c r="C699" s="15"/>
@@ -15206,7 +15293,7 @@
       <c r="N699" s="2"/>
       <c r="O699" s="23"/>
     </row>
-    <row r="700" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A700" s="15"/>
       <c r="B700" s="15"/>
       <c r="C700" s="15"/>
@@ -15223,7 +15310,7 @@
       <c r="N700" s="2"/>
       <c r="O700" s="23"/>
     </row>
-    <row r="701" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A701" s="15"/>
       <c r="B701" s="15"/>
       <c r="C701" s="15"/>
@@ -15240,7 +15327,7 @@
       <c r="N701" s="2"/>
       <c r="O701" s="23"/>
     </row>
-    <row r="702" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A702" s="15"/>
       <c r="B702" s="15"/>
       <c r="C702" s="15"/>
@@ -15257,7 +15344,7 @@
       <c r="N702" s="2"/>
       <c r="O702" s="23"/>
     </row>
-    <row r="703" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A703" s="15"/>
       <c r="B703" s="15"/>
       <c r="C703" s="15"/>
@@ -15274,7 +15361,7 @@
       <c r="N703" s="2"/>
       <c r="O703" s="23"/>
     </row>
-    <row r="704" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A704" s="15"/>
       <c r="B704" s="15"/>
       <c r="C704" s="15"/>
@@ -15291,7 +15378,7 @@
       <c r="N704" s="2"/>
       <c r="O704" s="23"/>
     </row>
-    <row r="705" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A705" s="15"/>
       <c r="B705" s="15"/>
       <c r="C705" s="15"/>
@@ -15308,7 +15395,7 @@
       <c r="N705" s="2"/>
       <c r="O705" s="23"/>
     </row>
-    <row r="706" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A706" s="15"/>
       <c r="B706" s="15"/>
       <c r="C706" s="15"/>
@@ -15325,7 +15412,7 @@
       <c r="N706" s="2"/>
       <c r="O706" s="23"/>
     </row>
-    <row r="707" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A707" s="15"/>
       <c r="B707" s="15"/>
       <c r="C707" s="15"/>
@@ -15342,7 +15429,7 @@
       <c r="N707" s="2"/>
       <c r="O707" s="23"/>
     </row>
-    <row r="708" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A708" s="15"/>
       <c r="B708" s="15"/>
       <c r="C708" s="15"/>
@@ -15359,7 +15446,7 @@
       <c r="N708" s="2"/>
       <c r="O708" s="23"/>
     </row>
-    <row r="709" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A709" s="15"/>
       <c r="B709" s="15"/>
       <c r="C709" s="15"/>
@@ -15376,7 +15463,7 @@
       <c r="N709" s="2"/>
       <c r="O709" s="23"/>
     </row>
-    <row r="710" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A710" s="15"/>
       <c r="B710" s="15"/>
       <c r="C710" s="15"/>
@@ -15393,7 +15480,7 @@
       <c r="N710" s="2"/>
       <c r="O710" s="23"/>
     </row>
-    <row r="711" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A711" s="15"/>
       <c r="B711" s="15"/>
       <c r="C711" s="15"/>
@@ -15410,7 +15497,7 @@
       <c r="N711" s="2"/>
       <c r="O711" s="23"/>
     </row>
-    <row r="712" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A712" s="15"/>
       <c r="B712" s="15"/>
       <c r="C712" s="15"/>
@@ -15427,7 +15514,7 @@
       <c r="N712" s="2"/>
       <c r="O712" s="23"/>
     </row>
-    <row r="713" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A713" s="15"/>
       <c r="B713" s="15"/>
       <c r="C713" s="15"/>
@@ -15444,7 +15531,7 @@
       <c r="N713" s="2"/>
       <c r="O713" s="23"/>
     </row>
-    <row r="714" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A714" s="15"/>
       <c r="B714" s="15"/>
       <c r="C714" s="15"/>
@@ -15461,7 +15548,7 @@
       <c r="N714" s="2"/>
       <c r="O714" s="23"/>
     </row>
-    <row r="715" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A715" s="15"/>
       <c r="B715" s="15"/>
       <c r="C715" s="15"/>
@@ -15478,7 +15565,7 @@
       <c r="N715" s="2"/>
       <c r="O715" s="23"/>
     </row>
-    <row r="716" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A716" s="15"/>
       <c r="B716" s="15"/>
       <c r="C716" s="15"/>
@@ -15495,7 +15582,7 @@
       <c r="N716" s="2"/>
       <c r="O716" s="23"/>
     </row>
-    <row r="717" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A717" s="15"/>
       <c r="B717" s="15"/>
       <c r="C717" s="15"/>
@@ -15512,7 +15599,7 @@
       <c r="N717" s="2"/>
       <c r="O717" s="23"/>
     </row>
-    <row r="718" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A718" s="15"/>
       <c r="B718" s="15"/>
       <c r="C718" s="15"/>
@@ -15529,7 +15616,7 @@
       <c r="N718" s="2"/>
       <c r="O718" s="23"/>
     </row>
-    <row r="719" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A719" s="15"/>
       <c r="B719" s="15"/>
       <c r="C719" s="15"/>
@@ -15546,7 +15633,7 @@
       <c r="N719" s="2"/>
       <c r="O719" s="23"/>
     </row>
-    <row r="720" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A720" s="15"/>
       <c r="B720" s="15"/>
       <c r="C720" s="15"/>
@@ -15563,7 +15650,7 @@
       <c r="N720" s="2"/>
       <c r="O720" s="23"/>
     </row>
-    <row r="721" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A721" s="15"/>
       <c r="B721" s="15"/>
       <c r="C721" s="15"/>
@@ -15580,7 +15667,7 @@
       <c r="N721" s="2"/>
       <c r="O721" s="23"/>
     </row>
-    <row r="722" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A722" s="15"/>
       <c r="B722" s="15"/>
       <c r="C722" s="15"/>
@@ -15597,7 +15684,7 @@
       <c r="N722" s="2"/>
       <c r="O722" s="23"/>
     </row>
-    <row r="723" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A723" s="15"/>
       <c r="B723" s="15"/>
       <c r="C723" s="15"/>
@@ -15614,7 +15701,7 @@
       <c r="N723" s="2"/>
       <c r="O723" s="23"/>
     </row>
-    <row r="724" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A724" s="15"/>
       <c r="B724" s="15"/>
       <c r="C724" s="15"/>
@@ -15631,7 +15718,7 @@
       <c r="N724" s="2"/>
       <c r="O724" s="23"/>
     </row>
-    <row r="725" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A725" s="15"/>
       <c r="B725" s="15"/>
       <c r="C725" s="15"/>
@@ -15648,7 +15735,7 @@
       <c r="N725" s="2"/>
       <c r="O725" s="23"/>
     </row>
-    <row r="726" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A726" s="15"/>
       <c r="B726" s="15"/>
       <c r="C726" s="15"/>
@@ -15665,7 +15752,7 @@
       <c r="N726" s="2"/>
       <c r="O726" s="23"/>
     </row>
-    <row r="727" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A727" s="15"/>
       <c r="B727" s="15"/>
       <c r="C727" s="15"/>
@@ -15682,7 +15769,7 @@
       <c r="N727" s="2"/>
       <c r="O727" s="23"/>
     </row>
-    <row r="728" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A728" s="15"/>
       <c r="B728" s="15"/>
       <c r="C728" s="15"/>
@@ -15699,7 +15786,7 @@
       <c r="N728" s="2"/>
       <c r="O728" s="23"/>
     </row>
-    <row r="729" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A729" s="15"/>
       <c r="B729" s="15"/>
       <c r="C729" s="15"/>
@@ -15716,7 +15803,7 @@
       <c r="N729" s="2"/>
       <c r="O729" s="23"/>
     </row>
-    <row r="730" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A730" s="15"/>
       <c r="B730" s="15"/>
       <c r="C730" s="15"/>
@@ -15733,7 +15820,7 @@
       <c r="N730" s="2"/>
       <c r="O730" s="23"/>
     </row>
-    <row r="731" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A731" s="15"/>
       <c r="B731" s="15"/>
       <c r="C731" s="15"/>
@@ -15750,7 +15837,7 @@
       <c r="N731" s="2"/>
       <c r="O731" s="23"/>
     </row>
-    <row r="732" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A732" s="15"/>
       <c r="B732" s="15"/>
       <c r="C732" s="15"/>
@@ -15767,7 +15854,7 @@
       <c r="N732" s="2"/>
       <c r="O732" s="23"/>
     </row>
-    <row r="733" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A733" s="15"/>
       <c r="B733" s="15"/>
       <c r="C733" s="15"/>
@@ -15784,7 +15871,7 @@
       <c r="N733" s="2"/>
       <c r="O733" s="23"/>
     </row>
-    <row r="734" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A734" s="15"/>
       <c r="B734" s="15"/>
       <c r="C734" s="15"/>
@@ -15801,7 +15888,7 @@
       <c r="N734" s="2"/>
       <c r="O734" s="23"/>
     </row>
-    <row r="735" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A735" s="15"/>
       <c r="B735" s="15"/>
       <c r="C735" s="15"/>
@@ -15818,7 +15905,7 @@
       <c r="N735" s="2"/>
       <c r="O735" s="23"/>
     </row>
-    <row r="736" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A736" s="15"/>
       <c r="B736" s="15"/>
       <c r="C736" s="15"/>
@@ -15835,7 +15922,7 @@
       <c r="N736" s="2"/>
       <c r="O736" s="23"/>
     </row>
-    <row r="737" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A737" s="15"/>
       <c r="B737" s="15"/>
       <c r="C737" s="15"/>
@@ -15852,7 +15939,7 @@
       <c r="N737" s="2"/>
       <c r="O737" s="23"/>
     </row>
-    <row r="738" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A738" s="15"/>
       <c r="B738" s="15"/>
       <c r="C738" s="15"/>
@@ -15869,7 +15956,7 @@
       <c r="N738" s="2"/>
       <c r="O738" s="23"/>
     </row>
-    <row r="739" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A739" s="15"/>
       <c r="B739" s="15"/>
       <c r="C739" s="15"/>
@@ -15886,7 +15973,7 @@
       <c r="N739" s="2"/>
       <c r="O739" s="23"/>
     </row>
-    <row r="740" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A740" s="15"/>
       <c r="B740" s="15"/>
       <c r="C740" s="15"/>
@@ -15903,7 +15990,7 @@
       <c r="N740" s="2"/>
       <c r="O740" s="23"/>
     </row>
-    <row r="741" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A741" s="15"/>
       <c r="B741" s="15"/>
       <c r="C741" s="15"/>
@@ -15920,7 +16007,7 @@
       <c r="N741" s="2"/>
       <c r="O741" s="23"/>
     </row>
-    <row r="742" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A742" s="15"/>
       <c r="B742" s="15"/>
       <c r="C742" s="15"/>
@@ -15937,7 +16024,7 @@
       <c r="N742" s="2"/>
       <c r="O742" s="23"/>
     </row>
-    <row r="743" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A743" s="15"/>
       <c r="B743" s="15"/>
       <c r="C743" s="15"/>
@@ -15954,7 +16041,7 @@
       <c r="N743" s="2"/>
       <c r="O743" s="23"/>
     </row>
-    <row r="744" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A744" s="15"/>
       <c r="B744" s="15"/>
       <c r="C744" s="15"/>
@@ -15971,7 +16058,7 @@
       <c r="N744" s="2"/>
       <c r="O744" s="23"/>
     </row>
-    <row r="745" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A745" s="15"/>
       <c r="B745" s="15"/>
       <c r="C745" s="15"/>
@@ -15988,7 +16075,7 @@
       <c r="N745" s="2"/>
       <c r="O745" s="23"/>
     </row>
-    <row r="746" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A746" s="15"/>
       <c r="B746" s="15"/>
       <c r="C746" s="15"/>
@@ -16005,7 +16092,7 @@
       <c r="N746" s="2"/>
       <c r="O746" s="23"/>
     </row>
-    <row r="747" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A747" s="15"/>
       <c r="B747" s="15"/>
       <c r="C747" s="15"/>
@@ -16022,7 +16109,7 @@
       <c r="N747" s="2"/>
       <c r="O747" s="23"/>
     </row>
-    <row r="748" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A748" s="15"/>
       <c r="B748" s="15"/>
       <c r="C748" s="15"/>
@@ -16039,7 +16126,7 @@
       <c r="N748" s="2"/>
       <c r="O748" s="23"/>
     </row>
-    <row r="749" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A749" s="15"/>
       <c r="B749" s="15"/>
       <c r="C749" s="15"/>
@@ -16056,7 +16143,7 @@
       <c r="N749" s="2"/>
       <c r="O749" s="23"/>
     </row>
-    <row r="750" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A750" s="15"/>
       <c r="B750" s="15"/>
       <c r="C750" s="15"/>
@@ -16073,7 +16160,7 @@
       <c r="N750" s="2"/>
       <c r="O750" s="23"/>
     </row>
-    <row r="751" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A751" s="15"/>
       <c r="B751" s="15"/>
       <c r="C751" s="15"/>
@@ -16090,7 +16177,7 @@
       <c r="N751" s="2"/>
       <c r="O751" s="23"/>
     </row>
-    <row r="752" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A752" s="15"/>
       <c r="B752" s="15"/>
       <c r="C752" s="15"/>
@@ -16107,7 +16194,7 @@
       <c r="N752" s="2"/>
       <c r="O752" s="23"/>
     </row>
-    <row r="753" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A753" s="15"/>
       <c r="B753" s="15"/>
       <c r="C753" s="15"/>
@@ -16124,7 +16211,7 @@
       <c r="N753" s="2"/>
       <c r="O753" s="23"/>
     </row>
-    <row r="754" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A754" s="15"/>
       <c r="B754" s="15"/>
       <c r="C754" s="15"/>
@@ -16141,7 +16228,7 @@
       <c r="N754" s="2"/>
       <c r="O754" s="23"/>
     </row>
-    <row r="755" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A755" s="15"/>
       <c r="B755" s="15"/>
       <c r="C755" s="15"/>
@@ -16158,7 +16245,7 @@
       <c r="N755" s="2"/>
       <c r="O755" s="23"/>
     </row>
-    <row r="756" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A756" s="15"/>
       <c r="B756" s="15"/>
       <c r="C756" s="15"/>
@@ -16175,7 +16262,7 @@
       <c r="N756" s="2"/>
       <c r="O756" s="23"/>
     </row>
-    <row r="757" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A757" s="15"/>
       <c r="B757" s="15"/>
       <c r="C757" s="15"/>
@@ -16192,7 +16279,7 @@
       <c r="N757" s="2"/>
       <c r="O757" s="23"/>
     </row>
-    <row r="758" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A758" s="15"/>
       <c r="B758" s="15"/>
       <c r="C758" s="15"/>
@@ -16209,7 +16296,7 @@
       <c r="N758" s="2"/>
       <c r="O758" s="23"/>
     </row>
-    <row r="759" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A759" s="15"/>
       <c r="B759" s="15"/>
       <c r="C759" s="15"/>
@@ -16226,7 +16313,7 @@
       <c r="N759" s="2"/>
       <c r="O759" s="23"/>
     </row>
-    <row r="760" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A760" s="15"/>
       <c r="B760" s="15"/>
       <c r="C760" s="15"/>
@@ -16243,7 +16330,7 @@
       <c r="N760" s="2"/>
       <c r="O760" s="23"/>
     </row>
-    <row r="761" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A761" s="15"/>
       <c r="B761" s="15"/>
       <c r="C761" s="15"/>
@@ -16260,7 +16347,7 @@
       <c r="N761" s="2"/>
       <c r="O761" s="23"/>
     </row>
-    <row r="762" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A762" s="15"/>
       <c r="B762" s="15"/>
       <c r="C762" s="15"/>
@@ -16277,7 +16364,7 @@
       <c r="N762" s="2"/>
       <c r="O762" s="23"/>
     </row>
-    <row r="763" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A763" s="15"/>
       <c r="B763" s="15"/>
       <c r="C763" s="15"/>
@@ -16294,7 +16381,7 @@
       <c r="N763" s="2"/>
       <c r="O763" s="23"/>
     </row>
-    <row r="764" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A764" s="15"/>
       <c r="B764" s="15"/>
       <c r="C764" s="15"/>
@@ -16311,7 +16398,7 @@
       <c r="N764" s="2"/>
       <c r="O764" s="23"/>
     </row>
-    <row r="765" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A765" s="15"/>
       <c r="B765" s="15"/>
       <c r="C765" s="15"/>
@@ -16328,7 +16415,7 @@
       <c r="N765" s="2"/>
       <c r="O765" s="23"/>
     </row>
-    <row r="766" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A766" s="15"/>
       <c r="B766" s="15"/>
       <c r="C766" s="15"/>
@@ -16345,7 +16432,7 @@
       <c r="N766" s="2"/>
       <c r="O766" s="23"/>
     </row>
-    <row r="767" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A767" s="15"/>
       <c r="B767" s="15"/>
       <c r="C767" s="15"/>
@@ -16362,7 +16449,7 @@
       <c r="N767" s="2"/>
       <c r="O767" s="23"/>
     </row>
-    <row r="768" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A768" s="15"/>
       <c r="B768" s="15"/>
       <c r="C768" s="15"/>
@@ -16379,7 +16466,7 @@
       <c r="N768" s="2"/>
       <c r="O768" s="23"/>
     </row>
-    <row r="769" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A769" s="15"/>
       <c r="B769" s="15"/>
       <c r="C769" s="15"/>
@@ -16396,7 +16483,7 @@
       <c r="N769" s="2"/>
       <c r="O769" s="23"/>
     </row>
-    <row r="770" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A770" s="15"/>
       <c r="B770" s="15"/>
       <c r="C770" s="15"/>
@@ -16413,7 +16500,7 @@
       <c r="N770" s="2"/>
       <c r="O770" s="23"/>
     </row>
-    <row r="771" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A771" s="15"/>
       <c r="B771" s="15"/>
       <c r="C771" s="15"/>
@@ -16430,7 +16517,7 @@
       <c r="N771" s="2"/>
       <c r="O771" s="23"/>
     </row>
-    <row r="772" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A772" s="15"/>
       <c r="B772" s="15"/>
       <c r="C772" s="15"/>
@@ -16447,7 +16534,7 @@
       <c r="N772" s="2"/>
       <c r="O772" s="23"/>
     </row>
-    <row r="773" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A773" s="15"/>
       <c r="B773" s="15"/>
       <c r="C773" s="15"/>
@@ -16464,7 +16551,7 @@
       <c r="N773" s="2"/>
       <c r="O773" s="23"/>
     </row>
-    <row r="774" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A774" s="15"/>
       <c r="B774" s="15"/>
       <c r="C774" s="15"/>
@@ -16481,7 +16568,7 @@
       <c r="N774" s="2"/>
       <c r="O774" s="23"/>
     </row>
-    <row r="775" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A775" s="15"/>
       <c r="B775" s="15"/>
       <c r="C775" s="15"/>
@@ -16498,7 +16585,7 @@
       <c r="N775" s="2"/>
       <c r="O775" s="23"/>
     </row>
-    <row r="776" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A776" s="15"/>
       <c r="B776" s="15"/>
       <c r="C776" s="15"/>
@@ -16515,7 +16602,7 @@
       <c r="N776" s="2"/>
       <c r="O776" s="23"/>
     </row>
-    <row r="777" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A777" s="15"/>
       <c r="B777" s="15"/>
       <c r="C777" s="15"/>
@@ -16532,7 +16619,7 @@
       <c r="N777" s="2"/>
       <c r="O777" s="23"/>
     </row>
-    <row r="778" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A778" s="15"/>
       <c r="B778" s="15"/>
       <c r="C778" s="15"/>
@@ -16549,7 +16636,7 @@
       <c r="N778" s="2"/>
       <c r="O778" s="23"/>
     </row>
-    <row r="779" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A779" s="15"/>
       <c r="B779" s="15"/>
       <c r="C779" s="15"/>
@@ -16566,7 +16653,7 @@
       <c r="N779" s="2"/>
       <c r="O779" s="23"/>
     </row>
-    <row r="780" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A780" s="15"/>
       <c r="B780" s="15"/>
       <c r="C780" s="15"/>
@@ -16583,7 +16670,7 @@
       <c r="N780" s="2"/>
       <c r="O780" s="23"/>
     </row>
-    <row r="781" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A781" s="15"/>
       <c r="B781" s="15"/>
       <c r="C781" s="15"/>
@@ -16600,7 +16687,7 @@
       <c r="N781" s="2"/>
       <c r="O781" s="23"/>
     </row>
-    <row r="782" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A782" s="15"/>
       <c r="B782" s="15"/>
       <c r="C782" s="15"/>
@@ -16617,7 +16704,7 @@
       <c r="N782" s="2"/>
       <c r="O782" s="23"/>
     </row>
-    <row r="783" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A783" s="15"/>
       <c r="B783" s="15"/>
       <c r="C783" s="15"/>
@@ -16634,7 +16721,7 @@
       <c r="N783" s="2"/>
       <c r="O783" s="23"/>
     </row>
-    <row r="784" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A784" s="15"/>
       <c r="B784" s="15"/>
       <c r="C784" s="15"/>
@@ -16651,7 +16738,7 @@
       <c r="N784" s="2"/>
       <c r="O784" s="23"/>
     </row>
-    <row r="785" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A785" s="15"/>
       <c r="B785" s="15"/>
       <c r="C785" s="15"/>
@@ -16668,7 +16755,7 @@
       <c r="N785" s="2"/>
       <c r="O785" s="23"/>
     </row>
-    <row r="786" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A786" s="15"/>
       <c r="B786" s="15"/>
       <c r="C786" s="15"/>
@@ -16685,7 +16772,7 @@
       <c r="N786" s="2"/>
       <c r="O786" s="23"/>
     </row>
-    <row r="787" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A787" s="15"/>
       <c r="B787" s="15"/>
       <c r="C787" s="15"/>
@@ -16702,7 +16789,7 @@
       <c r="N787" s="2"/>
       <c r="O787" s="23"/>
     </row>
-    <row r="788" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A788" s="15"/>
       <c r="B788" s="15"/>
       <c r="C788" s="15"/>
@@ -16719,7 +16806,7 @@
       <c r="N788" s="2"/>
       <c r="O788" s="23"/>
     </row>
-    <row r="789" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A789" s="15"/>
       <c r="B789" s="15"/>
       <c r="C789" s="15"/>
@@ -16736,7 +16823,7 @@
       <c r="N789" s="2"/>
       <c r="O789" s="23"/>
     </row>
-    <row r="790" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A790" s="15"/>
       <c r="B790" s="15"/>
       <c r="C790" s="15"/>
@@ -16753,7 +16840,7 @@
       <c r="N790" s="2"/>
       <c r="O790" s="23"/>
     </row>
-    <row r="791" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A791" s="15"/>
       <c r="B791" s="15"/>
       <c r="C791" s="15"/>
@@ -16770,7 +16857,7 @@
       <c r="N791" s="2"/>
       <c r="O791" s="23"/>
     </row>
-    <row r="792" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A792" s="15"/>
       <c r="B792" s="15"/>
       <c r="C792" s="15"/>
@@ -16787,7 +16874,7 @@
       <c r="N792" s="2"/>
       <c r="O792" s="23"/>
     </row>
-    <row r="793" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A793" s="15"/>
       <c r="B793" s="15"/>
       <c r="C793" s="15"/>
@@ -16804,7 +16891,7 @@
       <c r="N793" s="2"/>
       <c r="O793" s="23"/>
     </row>
-    <row r="794" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A794" s="15"/>
       <c r="B794" s="15"/>
       <c r="C794" s="15"/>
@@ -16821,7 +16908,7 @@
       <c r="N794" s="2"/>
       <c r="O794" s="23"/>
     </row>
-    <row r="795" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A795" s="15"/>
       <c r="B795" s="15"/>
       <c r="C795" s="15"/>
@@ -16838,7 +16925,7 @@
       <c r="N795" s="2"/>
       <c r="O795" s="23"/>
     </row>
-    <row r="796" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A796" s="15"/>
       <c r="B796" s="15"/>
       <c r="C796" s="15"/>
@@ -16855,7 +16942,7 @@
       <c r="N796" s="2"/>
       <c r="O796" s="23"/>
     </row>
-    <row r="797" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A797" s="15"/>
       <c r="B797" s="15"/>
       <c r="C797" s="15"/>
@@ -16872,7 +16959,7 @@
       <c r="N797" s="2"/>
       <c r="O797" s="23"/>
     </row>
-    <row r="798" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A798" s="15"/>
       <c r="B798" s="15"/>
       <c r="C798" s="15"/>
@@ -16889,7 +16976,7 @@
       <c r="N798" s="2"/>
       <c r="O798" s="23"/>
     </row>
-    <row r="799" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A799" s="15"/>
       <c r="B799" s="15"/>
       <c r="C799" s="15"/>
@@ -16906,7 +16993,7 @@
       <c r="N799" s="2"/>
       <c r="O799" s="23"/>
     </row>
-    <row r="800" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A800" s="15"/>
       <c r="B800" s="15"/>
       <c r="C800" s="15"/>
@@ -16923,7 +17010,7 @@
       <c r="N800" s="2"/>
       <c r="O800" s="23"/>
     </row>
-    <row r="801" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A801" s="15"/>
       <c r="B801" s="15"/>
       <c r="C801" s="15"/>
@@ -16940,7 +17027,7 @@
       <c r="N801" s="2"/>
       <c r="O801" s="23"/>
     </row>
-    <row r="802" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A802" s="15"/>
       <c r="B802" s="15"/>
       <c r="C802" s="15"/>
@@ -16957,7 +17044,7 @@
       <c r="N802" s="2"/>
       <c r="O802" s="23"/>
     </row>
-    <row r="803" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A803" s="15"/>
       <c r="B803" s="15"/>
       <c r="C803" s="15"/>
@@ -16974,7 +17061,7 @@
       <c r="N803" s="2"/>
       <c r="O803" s="23"/>
     </row>
-    <row r="804" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A804" s="15"/>
       <c r="B804" s="15"/>
       <c r="C804" s="15"/>
@@ -16991,7 +17078,7 @@
       <c r="N804" s="2"/>
       <c r="O804" s="23"/>
     </row>
-    <row r="805" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A805" s="15"/>
       <c r="B805" s="15"/>
       <c r="C805" s="15"/>
@@ -17008,7 +17095,7 @@
       <c r="N805" s="2"/>
       <c r="O805" s="23"/>
     </row>
-    <row r="806" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A806" s="15"/>
       <c r="B806" s="15"/>
       <c r="C806" s="15"/>
@@ -17025,7 +17112,7 @@
       <c r="N806" s="2"/>
       <c r="O806" s="23"/>
     </row>
-    <row r="807" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A807" s="15"/>
       <c r="B807" s="15"/>
       <c r="C807" s="15"/>
@@ -17042,7 +17129,7 @@
       <c r="N807" s="2"/>
       <c r="O807" s="23"/>
     </row>
-    <row r="808" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A808" s="15"/>
       <c r="B808" s="15"/>
       <c r="C808" s="15"/>
@@ -17059,7 +17146,7 @@
       <c r="N808" s="2"/>
       <c r="O808" s="23"/>
     </row>
-    <row r="809" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A809" s="15"/>
       <c r="B809" s="15"/>
       <c r="C809" s="15"/>
@@ -17076,7 +17163,7 @@
       <c r="N809" s="2"/>
       <c r="O809" s="23"/>
     </row>
-    <row r="810" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A810" s="15"/>
       <c r="B810" s="15"/>
       <c r="C810" s="15"/>
@@ -17093,7 +17180,7 @@
       <c r="N810" s="2"/>
       <c r="O810" s="23"/>
     </row>
-    <row r="811" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A811" s="15"/>
       <c r="B811" s="15"/>
       <c r="C811" s="15"/>
@@ -17110,7 +17197,7 @@
       <c r="N811" s="2"/>
       <c r="O811" s="23"/>
     </row>
-    <row r="812" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A812" s="15"/>
       <c r="B812" s="15"/>
       <c r="C812" s="15"/>
@@ -17127,7 +17214,7 @@
       <c r="N812" s="2"/>
       <c r="O812" s="23"/>
     </row>
-    <row r="813" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A813" s="15"/>
       <c r="B813" s="15"/>
       <c r="C813" s="15"/>
@@ -17144,7 +17231,7 @@
       <c r="N813" s="2"/>
       <c r="O813" s="23"/>
     </row>
-    <row r="814" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A814" s="15"/>
       <c r="B814" s="15"/>
       <c r="C814" s="15"/>
@@ -17161,7 +17248,7 @@
       <c r="N814" s="2"/>
       <c r="O814" s="23"/>
     </row>
-    <row r="815" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A815" s="15"/>
       <c r="B815" s="15"/>
       <c r="C815" s="15"/>
@@ -17178,7 +17265,7 @@
       <c r="N815" s="2"/>
       <c r="O815" s="23"/>
     </row>
-    <row r="816" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A816" s="15"/>
       <c r="B816" s="15"/>
       <c r="C816" s="15"/>
@@ -17195,7 +17282,7 @@
       <c r="N816" s="2"/>
       <c r="O816" s="23"/>
     </row>
-    <row r="817" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A817" s="15"/>
       <c r="B817" s="15"/>
       <c r="C817" s="15"/>
@@ -17212,7 +17299,7 @@
       <c r="N817" s="2"/>
       <c r="O817" s="23"/>
     </row>
-    <row r="818" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A818" s="15"/>
       <c r="B818" s="15"/>
       <c r="C818" s="15"/>
@@ -17229,7 +17316,7 @@
       <c r="N818" s="2"/>
       <c r="O818" s="23"/>
     </row>
-    <row r="819" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A819" s="15"/>
       <c r="B819" s="15"/>
       <c r="C819" s="15"/>
@@ -17246,7 +17333,7 @@
       <c r="N819" s="2"/>
       <c r="O819" s="23"/>
     </row>
-    <row r="820" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A820" s="15"/>
       <c r="B820" s="15"/>
       <c r="C820" s="15"/>
@@ -17263,7 +17350,7 @@
       <c r="N820" s="2"/>
       <c r="O820" s="23"/>
     </row>
-    <row r="821" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A821" s="15"/>
       <c r="B821" s="15"/>
       <c r="C821" s="15"/>
@@ -17280,7 +17367,7 @@
       <c r="N821" s="2"/>
       <c r="O821" s="23"/>
     </row>
-    <row r="822" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A822" s="15"/>
       <c r="B822" s="15"/>
       <c r="C822" s="15"/>
@@ -17297,7 +17384,7 @@
       <c r="N822" s="2"/>
       <c r="O822" s="23"/>
     </row>
-    <row r="823" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A823" s="15"/>
       <c r="B823" s="15"/>
       <c r="C823" s="15"/>
@@ -17314,7 +17401,7 @@
       <c r="N823" s="2"/>
       <c r="O823" s="23"/>
     </row>
-    <row r="824" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A824" s="15"/>
       <c r="B824" s="15"/>
       <c r="C824" s="15"/>
@@ -17331,7 +17418,7 @@
       <c r="N824" s="2"/>
       <c r="O824" s="23"/>
     </row>
-    <row r="825" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A825" s="15"/>
       <c r="B825" s="15"/>
       <c r="C825" s="15"/>
@@ -17348,7 +17435,7 @@
       <c r="N825" s="2"/>
       <c r="O825" s="23"/>
     </row>
-    <row r="826" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A826" s="15"/>
       <c r="B826" s="15"/>
       <c r="C826" s="15"/>
@@ -17365,7 +17452,7 @@
       <c r="N826" s="2"/>
       <c r="O826" s="23"/>
     </row>
-    <row r="827" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A827" s="15"/>
       <c r="B827" s="15"/>
       <c r="C827" s="15"/>
@@ -17382,7 +17469,7 @@
       <c r="N827" s="2"/>
       <c r="O827" s="23"/>
     </row>
-    <row r="828" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A828" s="15"/>
       <c r="B828" s="15"/>
       <c r="C828" s="15"/>
@@ -17399,7 +17486,7 @@
       <c r="N828" s="2"/>
       <c r="O828" s="23"/>
     </row>
-    <row r="829" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A829" s="15"/>
       <c r="B829" s="15"/>
       <c r="C829" s="15"/>
@@ -17416,7 +17503,7 @@
       <c r="N829" s="2"/>
       <c r="O829" s="23"/>
     </row>
-    <row r="830" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A830" s="15"/>
       <c r="B830" s="15"/>
       <c r="C830" s="15"/>
@@ -17433,7 +17520,7 @@
       <c r="N830" s="2"/>
       <c r="O830" s="23"/>
     </row>
-    <row r="831" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A831" s="15"/>
       <c r="B831" s="15"/>
       <c r="C831" s="15"/>
@@ -17450,7 +17537,7 @@
       <c r="N831" s="2"/>
       <c r="O831" s="23"/>
     </row>
-    <row r="832" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A832" s="15"/>
       <c r="B832" s="15"/>
       <c r="C832" s="15"/>
@@ -17467,7 +17554,7 @@
       <c r="N832" s="2"/>
       <c r="O832" s="23"/>
     </row>
-    <row r="833" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A833" s="15"/>
       <c r="B833" s="15"/>
       <c r="C833" s="15"/>
@@ -17484,7 +17571,7 @@
       <c r="N833" s="2"/>
       <c r="O833" s="23"/>
     </row>
-    <row r="834" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A834" s="15"/>
       <c r="B834" s="15"/>
       <c r="C834" s="15"/>
@@ -17501,7 +17588,7 @@
       <c r="N834" s="2"/>
       <c r="O834" s="23"/>
     </row>
-    <row r="835" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A835" s="15"/>
       <c r="B835" s="15"/>
       <c r="C835" s="15"/>
@@ -17518,7 +17605,7 @@
       <c r="N835" s="2"/>
       <c r="O835" s="23"/>
     </row>
-    <row r="836" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A836" s="15"/>
       <c r="B836" s="15"/>
       <c r="C836" s="15"/>
@@ -17535,7 +17622,7 @@
       <c r="N836" s="2"/>
       <c r="O836" s="23"/>
     </row>
-    <row r="837" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A837" s="15"/>
       <c r="B837" s="15"/>
       <c r="C837" s="15"/>
@@ -17552,7 +17639,7 @@
       <c r="N837" s="2"/>
       <c r="O837" s="23"/>
     </row>
-    <row r="838" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A838" s="15"/>
       <c r="B838" s="15"/>
       <c r="C838" s="15"/>
@@ -17569,7 +17656,7 @@
       <c r="N838" s="2"/>
       <c r="O838" s="23"/>
     </row>
-    <row r="839" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A839" s="15"/>
       <c r="B839" s="15"/>
       <c r="C839" s="15"/>
@@ -17586,7 +17673,7 @@
       <c r="N839" s="2"/>
       <c r="O839" s="23"/>
     </row>
-    <row r="840" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A840" s="15"/>
       <c r="B840" s="15"/>
       <c r="C840" s="15"/>
@@ -17603,7 +17690,7 @@
       <c r="N840" s="2"/>
       <c r="O840" s="23"/>
     </row>
-    <row r="841" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A841" s="15"/>
       <c r="B841" s="15"/>
       <c r="C841" s="15"/>
@@ -17620,7 +17707,7 @@
       <c r="N841" s="2"/>
       <c r="O841" s="23"/>
     </row>
-    <row r="842" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A842" s="15"/>
       <c r="B842" s="15"/>
       <c r="C842" s="15"/>
@@ -17637,7 +17724,7 @@
       <c r="N842" s="2"/>
       <c r="O842" s="23"/>
     </row>
-    <row r="843" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A843" s="15"/>
       <c r="B843" s="15"/>
       <c r="C843" s="15"/>
@@ -17654,7 +17741,7 @@
       <c r="N843" s="2"/>
       <c r="O843" s="23"/>
     </row>
-    <row r="844" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A844" s="15"/>
       <c r="B844" s="15"/>
       <c r="C844" s="15"/>
@@ -17671,7 +17758,7 @@
       <c r="N844" s="2"/>
       <c r="O844" s="23"/>
     </row>
-    <row r="845" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A845" s="15"/>
       <c r="B845" s="15"/>
       <c r="C845" s="15"/>
@@ -17688,7 +17775,7 @@
       <c r="N845" s="2"/>
       <c r="O845" s="23"/>
     </row>
-    <row r="846" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A846" s="15"/>
       <c r="B846" s="15"/>
       <c r="C846" s="15"/>
@@ -17705,7 +17792,7 @@
       <c r="N846" s="2"/>
       <c r="O846" s="23"/>
     </row>
-    <row r="847" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A847" s="15"/>
       <c r="B847" s="15"/>
       <c r="C847" s="15"/>
@@ -17722,7 +17809,7 @@
       <c r="N847" s="2"/>
       <c r="O847" s="23"/>
     </row>
-    <row r="848" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A848" s="15"/>
       <c r="B848" s="15"/>
       <c r="C848" s="15"/>
@@ -17739,7 +17826,7 @@
       <c r="N848" s="2"/>
       <c r="O848" s="23"/>
     </row>
-    <row r="849" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A849" s="15"/>
       <c r="B849" s="15"/>
       <c r="C849" s="15"/>
@@ -17756,7 +17843,7 @@
       <c r="N849" s="2"/>
       <c r="O849" s="23"/>
     </row>
-    <row r="850" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A850" s="15"/>
       <c r="B850" s="15"/>
       <c r="C850" s="15"/>
@@ -17773,7 +17860,7 @@
       <c r="N850" s="2"/>
       <c r="O850" s="23"/>
     </row>
-    <row r="851" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A851" s="15"/>
       <c r="B851" s="15"/>
       <c r="C851" s="15"/>
@@ -17790,7 +17877,7 @@
       <c r="N851" s="2"/>
       <c r="O851" s="23"/>
     </row>
-    <row r="852" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A852" s="15"/>
       <c r="B852" s="15"/>
       <c r="C852" s="15"/>
@@ -17807,7 +17894,7 @@
       <c r="N852" s="2"/>
       <c r="O852" s="23"/>
     </row>
-    <row r="853" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A853" s="15"/>
       <c r="B853" s="15"/>
       <c r="C853" s="15"/>
@@ -17824,7 +17911,7 @@
       <c r="N853" s="2"/>
       <c r="O853" s="23"/>
     </row>
-    <row r="854" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A854" s="15"/>
       <c r="B854" s="15"/>
       <c r="C854" s="15"/>
@@ -17841,7 +17928,7 @@
       <c r="N854" s="2"/>
       <c r="O854" s="23"/>
     </row>
-    <row r="855" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A855" s="15"/>
       <c r="B855" s="15"/>
       <c r="C855" s="15"/>
@@ -17858,7 +17945,7 @@
       <c r="N855" s="2"/>
       <c r="O855" s="23"/>
     </row>
-    <row r="856" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A856" s="15"/>
       <c r="B856" s="15"/>
       <c r="C856" s="15"/>
@@ -17875,7 +17962,7 @@
       <c r="N856" s="2"/>
       <c r="O856" s="23"/>
     </row>
-    <row r="857" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A857" s="15"/>
       <c r="B857" s="15"/>
       <c r="C857" s="15"/>
@@ -17892,7 +17979,7 @@
       <c r="N857" s="2"/>
       <c r="O857" s="23"/>
     </row>
-    <row r="858" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A858" s="15"/>
       <c r="B858" s="15"/>
       <c r="C858" s="15"/>
@@ -17909,7 +17996,7 @@
       <c r="N858" s="2"/>
       <c r="O858" s="23"/>
     </row>
-    <row r="859" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A859" s="15"/>
       <c r="B859" s="15"/>
       <c r="C859" s="15"/>
@@ -17926,7 +18013,7 @@
       <c r="N859" s="2"/>
       <c r="O859" s="23"/>
     </row>
-    <row r="860" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A860" s="15"/>
       <c r="B860" s="15"/>
       <c r="C860" s="15"/>
@@ -17943,7 +18030,7 @@
       <c r="N860" s="2"/>
       <c r="O860" s="23"/>
     </row>
-    <row r="861" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A861" s="15"/>
       <c r="B861" s="15"/>
       <c r="C861" s="15"/>
@@ -17960,7 +18047,7 @@
       <c r="N861" s="2"/>
       <c r="O861" s="23"/>
     </row>
-    <row r="862" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A862" s="15"/>
       <c r="B862" s="15"/>
       <c r="C862" s="15"/>
@@ -17977,7 +18064,7 @@
       <c r="N862" s="2"/>
       <c r="O862" s="23"/>
     </row>
-    <row r="863" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A863" s="15"/>
       <c r="B863" s="15"/>
       <c r="C863" s="15"/>
@@ -17994,7 +18081,7 @@
       <c r="N863" s="2"/>
       <c r="O863" s="23"/>
     </row>
-    <row r="864" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A864" s="15"/>
       <c r="B864" s="15"/>
       <c r="C864" s="15"/>
@@ -18011,7 +18098,7 @@
       <c r="N864" s="2"/>
       <c r="O864" s="23"/>
     </row>
-    <row r="865" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A865" s="15"/>
       <c r="B865" s="15"/>
       <c r="C865" s="15"/>
@@ -18028,7 +18115,7 @@
       <c r="N865" s="2"/>
       <c r="O865" s="23"/>
     </row>
-    <row r="866" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A866" s="15"/>
       <c r="B866" s="15"/>
       <c r="C866" s="15"/>
@@ -18045,7 +18132,7 @@
       <c r="N866" s="2"/>
       <c r="O866" s="23"/>
     </row>
-    <row r="867" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A867" s="15"/>
       <c r="B867" s="15"/>
       <c r="C867" s="15"/>
@@ -18062,7 +18149,7 @@
       <c r="N867" s="2"/>
       <c r="O867" s="23"/>
     </row>
-    <row r="868" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A868" s="15"/>
       <c r="B868" s="15"/>
       <c r="C868" s="15"/>
@@ -18079,7 +18166,7 @@
       <c r="N868" s="2"/>
       <c r="O868" s="23"/>
     </row>
-    <row r="869" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A869" s="15"/>
       <c r="B869" s="15"/>
       <c r="C869" s="15"/>
@@ -18096,7 +18183,7 @@
       <c r="N869" s="2"/>
       <c r="O869" s="23"/>
     </row>
-    <row r="870" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A870" s="15"/>
       <c r="B870" s="15"/>
       <c r="C870" s="15"/>
@@ -18113,7 +18200,7 @@
       <c r="N870" s="2"/>
       <c r="O870" s="23"/>
     </row>
-    <row r="871" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A871" s="15"/>
       <c r="B871" s="15"/>
       <c r="C871" s="15"/>
@@ -18130,7 +18217,7 @@
       <c r="N871" s="2"/>
       <c r="O871" s="23"/>
     </row>
-    <row r="872" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A872" s="15"/>
       <c r="B872" s="15"/>
       <c r="C872" s="15"/>
@@ -18147,7 +18234,7 @@
       <c r="N872" s="2"/>
       <c r="O872" s="23"/>
     </row>
-    <row r="873" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A873" s="15"/>
       <c r="B873" s="15"/>
       <c r="C873" s="15"/>
@@ -18164,7 +18251,7 @@
       <c r="N873" s="2"/>
       <c r="O873" s="23"/>
     </row>
-    <row r="874" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A874" s="15"/>
       <c r="B874" s="15"/>
       <c r="C874" s="15"/>
@@ -18181,7 +18268,7 @@
       <c r="N874" s="2"/>
       <c r="O874" s="23"/>
     </row>
-    <row r="875" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A875" s="15"/>
       <c r="B875" s="15"/>
       <c r="C875" s="15"/>
@@ -18198,7 +18285,7 @@
       <c r="N875" s="2"/>
       <c r="O875" s="23"/>
     </row>
-    <row r="876" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A876" s="15"/>
       <c r="B876" s="15"/>
       <c r="C876" s="15"/>
@@ -18215,7 +18302,7 @@
       <c r="N876" s="2"/>
       <c r="O876" s="23"/>
     </row>
-    <row r="877" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A877" s="15"/>
       <c r="B877" s="15"/>
       <c r="C877" s="15"/>
@@ -18232,7 +18319,7 @@
       <c r="N877" s="2"/>
       <c r="O877" s="23"/>
     </row>
-    <row r="878" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A878" s="15"/>
       <c r="B878" s="15"/>
       <c r="C878" s="15"/>
@@ -18249,7 +18336,7 @@
       <c r="N878" s="2"/>
       <c r="O878" s="23"/>
     </row>
-    <row r="879" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A879" s="15"/>
       <c r="B879" s="15"/>
       <c r="C879" s="15"/>
@@ -18266,7 +18353,7 @@
       <c r="N879" s="2"/>
       <c r="O879" s="23"/>
     </row>
-    <row r="880" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A880" s="15"/>
       <c r="B880" s="15"/>
       <c r="C880" s="15"/>
@@ -18283,7 +18370,7 @@
       <c r="N880" s="2"/>
       <c r="O880" s="23"/>
     </row>
-    <row r="881" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A881" s="15"/>
       <c r="B881" s="15"/>
       <c r="C881" s="15"/>
@@ -18300,7 +18387,7 @@
       <c r="N881" s="2"/>
       <c r="O881" s="23"/>
     </row>
-    <row r="882" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A882" s="15"/>
       <c r="B882" s="15"/>
       <c r="C882" s="15"/>
@@ -18317,7 +18404,7 @@
       <c r="N882" s="2"/>
       <c r="O882" s="23"/>
     </row>
-    <row r="883" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A883" s="15"/>
       <c r="B883" s="15"/>
       <c r="C883" s="15"/>
@@ -18334,7 +18421,7 @@
       <c r="N883" s="2"/>
       <c r="O883" s="23"/>
     </row>
-    <row r="884" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A884" s="15"/>
       <c r="B884" s="15"/>
       <c r="C884" s="15"/>
@@ -18351,7 +18438,7 @@
       <c r="N884" s="2"/>
       <c r="O884" s="23"/>
     </row>
-    <row r="885" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A885" s="15"/>
       <c r="B885" s="15"/>
       <c r="C885" s="15"/>
@@ -18368,7 +18455,7 @@
       <c r="N885" s="2"/>
       <c r="O885" s="23"/>
     </row>
-    <row r="886" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A886" s="15"/>
       <c r="B886" s="15"/>
       <c r="C886" s="15"/>
@@ -18385,7 +18472,7 @@
       <c r="N886" s="2"/>
       <c r="O886" s="23"/>
     </row>
-    <row r="887" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A887" s="15"/>
       <c r="B887" s="15"/>
       <c r="C887" s="15"/>
@@ -18402,7 +18489,7 @@
       <c r="N887" s="2"/>
       <c r="O887" s="23"/>
     </row>
-    <row r="888" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A888" s="15"/>
       <c r="B888" s="15"/>
       <c r="C888" s="15"/>
@@ -18419,7 +18506,7 @@
       <c r="N888" s="2"/>
       <c r="O888" s="23"/>
     </row>
-    <row r="889" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A889" s="15"/>
       <c r="B889" s="15"/>
       <c r="C889" s="15"/>
@@ -18436,7 +18523,7 @@
       <c r="N889" s="2"/>
       <c r="O889" s="23"/>
     </row>
-    <row r="890" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A890" s="15"/>
       <c r="B890" s="15"/>
       <c r="C890" s="15"/>
@@ -18453,7 +18540,7 @@
       <c r="N890" s="2"/>
       <c r="O890" s="23"/>
     </row>
-    <row r="891" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A891" s="15"/>
       <c r="B891" s="15"/>
       <c r="C891" s="15"/>
@@ -18470,7 +18557,7 @@
       <c r="N891" s="2"/>
       <c r="O891" s="23"/>
     </row>
-    <row r="892" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A892" s="15"/>
       <c r="B892" s="15"/>
       <c r="C892" s="15"/>
@@ -18487,7 +18574,7 @@
       <c r="N892" s="2"/>
       <c r="O892" s="23"/>
     </row>
-    <row r="893" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A893" s="15"/>
       <c r="B893" s="15"/>
       <c r="C893" s="15"/>
@@ -18504,7 +18591,7 @@
       <c r="N893" s="2"/>
       <c r="O893" s="23"/>
     </row>
-    <row r="894" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A894" s="15"/>
       <c r="B894" s="15"/>
       <c r="C894" s="15"/>
@@ -18521,7 +18608,7 @@
       <c r="N894" s="2"/>
       <c r="O894" s="23"/>
     </row>
-    <row r="895" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A895" s="15"/>
       <c r="B895" s="15"/>
       <c r="C895" s="15"/>
@@ -18538,7 +18625,7 @@
       <c r="N895" s="2"/>
       <c r="O895" s="23"/>
     </row>
-    <row r="896" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A896" s="15"/>
       <c r="B896" s="15"/>
       <c r="C896" s="15"/>
@@ -18555,7 +18642,7 @@
       <c r="N896" s="2"/>
       <c r="O896" s="23"/>
     </row>
-    <row r="897" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A897" s="15"/>
       <c r="B897" s="15"/>
       <c r="C897" s="15"/>
@@ -18572,7 +18659,7 @@
       <c r="N897" s="2"/>
       <c r="O897" s="23"/>
     </row>
-    <row r="898" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A898" s="15"/>
       <c r="B898" s="15"/>
       <c r="C898" s="15"/>
@@ -18589,7 +18676,7 @@
       <c r="N898" s="2"/>
       <c r="O898" s="23"/>
     </row>
-    <row r="899" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A899" s="15"/>
       <c r="B899" s="15"/>
       <c r="C899" s="15"/>
@@ -18606,7 +18693,7 @@
       <c r="N899" s="2"/>
       <c r="O899" s="23"/>
     </row>
-    <row r="900" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A900" s="15"/>
       <c r="B900" s="15"/>
       <c r="C900" s="15"/>
@@ -18623,7 +18710,7 @@
       <c r="N900" s="2"/>
       <c r="O900" s="23"/>
     </row>
-    <row r="901" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A901" s="15"/>
       <c r="B901" s="15"/>
       <c r="C901" s="15"/>
@@ -18640,7 +18727,7 @@
       <c r="N901" s="2"/>
       <c r="O901" s="23"/>
     </row>
-    <row r="902" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A902" s="15"/>
       <c r="B902" s="15"/>
       <c r="C902" s="15"/>
@@ -18657,7 +18744,7 @@
       <c r="N902" s="2"/>
       <c r="O902" s="23"/>
     </row>
-    <row r="903" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A903" s="15"/>
       <c r="B903" s="15"/>
       <c r="C903" s="15"/>
@@ -18674,7 +18761,7 @@
       <c r="N903" s="2"/>
       <c r="O903" s="23"/>
     </row>
-    <row r="904" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A904" s="15"/>
       <c r="B904" s="15"/>
       <c r="C904" s="15"/>
@@ -18691,7 +18778,7 @@
       <c r="N904" s="2"/>
       <c r="O904" s="23"/>
     </row>
-    <row r="905" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A905" s="15"/>
       <c r="B905" s="15"/>
       <c r="C905" s="15"/>
@@ -18708,7 +18795,7 @@
       <c r="N905" s="2"/>
       <c r="O905" s="23"/>
     </row>
-    <row r="906" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A906" s="15"/>
       <c r="B906" s="15"/>
       <c r="C906" s="15"/>
@@ -18725,7 +18812,7 @@
       <c r="N906" s="2"/>
       <c r="O906" s="23"/>
     </row>
-    <row r="907" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A907" s="15"/>
       <c r="B907" s="15"/>
       <c r="C907" s="15"/>
@@ -18742,7 +18829,7 @@
       <c r="N907" s="2"/>
       <c r="O907" s="23"/>
     </row>
-    <row r="908" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A908" s="15"/>
       <c r="B908" s="15"/>
       <c r="C908" s="15"/>
@@ -18759,7 +18846,7 @@
       <c r="N908" s="2"/>
       <c r="O908" s="23"/>
     </row>
-    <row r="909" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A909" s="15"/>
       <c r="B909" s="15"/>
       <c r="C909" s="15"/>
@@ -18776,7 +18863,7 @@
       <c r="N909" s="2"/>
       <c r="O909" s="23"/>
     </row>
-    <row r="910" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A910" s="15"/>
       <c r="B910" s="15"/>
       <c r="C910" s="15"/>
@@ -18793,7 +18880,7 @@
       <c r="N910" s="2"/>
       <c r="O910" s="23"/>
     </row>
-    <row r="911" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A911" s="15"/>
       <c r="B911" s="15"/>
       <c r="C911" s="15"/>
@@ -18810,7 +18897,7 @@
       <c r="N911" s="2"/>
       <c r="O911" s="23"/>
     </row>
-    <row r="912" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A912" s="15"/>
       <c r="B912" s="15"/>
       <c r="C912" s="15"/>
@@ -18827,7 +18914,7 @@
       <c r="N912" s="2"/>
       <c r="O912" s="23"/>
     </row>
-    <row r="913" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A913" s="15"/>
       <c r="B913" s="15"/>
       <c r="C913" s="15"/>
@@ -18844,7 +18931,7 @@
       <c r="N913" s="2"/>
       <c r="O913" s="23"/>
     </row>
-    <row r="914" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A914" s="15"/>
       <c r="B914" s="15"/>
       <c r="C914" s="15"/>
@@ -18861,7 +18948,7 @@
       <c r="N914" s="2"/>
       <c r="O914" s="23"/>
     </row>
-    <row r="915" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A915" s="15"/>
       <c r="B915" s="15"/>
       <c r="C915" s="15"/>
@@ -18878,7 +18965,7 @@
       <c r="N915" s="2"/>
       <c r="O915" s="23"/>
     </row>
-    <row r="916" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A916" s="15"/>
       <c r="B916" s="15"/>
       <c r="C916" s="15"/>
@@ -18895,7 +18982,7 @@
       <c r="N916" s="2"/>
       <c r="O916" s="23"/>
     </row>
-    <row r="917" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A917" s="15"/>
       <c r="B917" s="15"/>
       <c r="C917" s="15"/>
@@ -18912,7 +18999,7 @@
       <c r="N917" s="2"/>
       <c r="O917" s="23"/>
     </row>
-    <row r="918" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A918" s="15"/>
       <c r="B918" s="15"/>
       <c r="C918" s="15"/>
@@ -18929,7 +19016,7 @@
       <c r="N918" s="2"/>
       <c r="O918" s="23"/>
     </row>
-    <row r="919" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A919" s="15"/>
       <c r="B919" s="15"/>
       <c r="C919" s="15"/>
@@ -18946,7 +19033,7 @@
       <c r="N919" s="2"/>
       <c r="O919" s="23"/>
     </row>
-    <row r="920" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A920" s="15"/>
       <c r="B920" s="15"/>
       <c r="C920" s="15"/>
@@ -18963,7 +19050,7 @@
       <c r="N920" s="2"/>
       <c r="O920" s="23"/>
     </row>
-    <row r="921" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A921" s="15"/>
       <c r="B921" s="15"/>
       <c r="C921" s="15"/>
@@ -18980,7 +19067,7 @@
       <c r="N921" s="2"/>
       <c r="O921" s="23"/>
     </row>
-    <row r="922" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A922" s="15"/>
       <c r="B922" s="15"/>
       <c r="C922" s="15"/>
@@ -18997,7 +19084,7 @@
       <c r="N922" s="2"/>
       <c r="O922" s="23"/>
     </row>
-    <row r="923" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A923" s="15"/>
       <c r="B923" s="15"/>
       <c r="C923" s="15"/>
@@ -19014,7 +19101,7 @@
       <c r="N923" s="2"/>
       <c r="O923" s="23"/>
     </row>
-    <row r="924" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A924" s="15"/>
       <c r="B924" s="15"/>
       <c r="C924" s="15"/>
@@ -19031,7 +19118,7 @@
       <c r="N924" s="2"/>
       <c r="O924" s="23"/>
     </row>
-    <row r="925" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A925" s="15"/>
       <c r="B925" s="15"/>
       <c r="C925" s="15"/>
@@ -19048,7 +19135,7 @@
       <c r="N925" s="2"/>
       <c r="O925" s="23"/>
     </row>
-    <row r="926" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A926" s="15"/>
       <c r="B926" s="15"/>
       <c r="C926" s="15"/>
@@ -19065,7 +19152,7 @@
       <c r="N926" s="2"/>
       <c r="O926" s="23"/>
     </row>
-    <row r="927" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A927" s="15"/>
       <c r="B927" s="15"/>
       <c r="C927" s="15"/>
@@ -19082,7 +19169,7 @@
       <c r="N927" s="2"/>
       <c r="O927" s="23"/>
     </row>
-    <row r="928" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A928" s="15"/>
       <c r="B928" s="15"/>
       <c r="C928" s="15"/>
@@ -19099,7 +19186,7 @@
       <c r="N928" s="2"/>
       <c r="O928" s="23"/>
     </row>
-    <row r="929" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A929" s="15"/>
       <c r="B929" s="15"/>
       <c r="C929" s="15"/>
@@ -19116,7 +19203,7 @@
       <c r="N929" s="2"/>
       <c r="O929" s="23"/>
     </row>
-    <row r="930" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A930" s="15"/>
       <c r="B930" s="15"/>
       <c r="C930" s="15"/>
@@ -19133,7 +19220,7 @@
       <c r="N930" s="2"/>
       <c r="O930" s="23"/>
     </row>
-    <row r="931" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A931" s="15"/>
       <c r="B931" s="15"/>
       <c r="C931" s="15"/>
@@ -19150,7 +19237,7 @@
       <c r="N931" s="2"/>
       <c r="O931" s="23"/>
     </row>
-    <row r="932" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A932" s="15"/>
       <c r="B932" s="15"/>
       <c r="C932" s="15"/>
@@ -19167,7 +19254,7 @@
       <c r="N932" s="2"/>
       <c r="O932" s="23"/>
     </row>
-    <row r="933" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A933" s="15"/>
       <c r="B933" s="15"/>
       <c r="C933" s="15"/>
@@ -19184,7 +19271,7 @@
       <c r="N933" s="2"/>
       <c r="O933" s="23"/>
     </row>
-    <row r="934" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A934" s="15"/>
       <c r="B934" s="15"/>
       <c r="C934" s="15"/>
@@ -19201,7 +19288,7 @@
       <c r="N934" s="2"/>
       <c r="O934" s="23"/>
     </row>
-    <row r="935" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A935" s="15"/>
       <c r="B935" s="15"/>
       <c r="C935" s="15"/>
@@ -19218,7 +19305,7 @@
       <c r="N935" s="2"/>
       <c r="O935" s="23"/>
     </row>
-    <row r="936" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A936" s="15"/>
       <c r="B936" s="15"/>
       <c r="C936" s="15"/>
@@ -19235,7 +19322,7 @@
       <c r="N936" s="2"/>
       <c r="O936" s="23"/>
     </row>
-    <row r="937" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A937" s="15"/>
       <c r="B937" s="15"/>
       <c r="C937" s="15"/>
@@ -19252,7 +19339,7 @@
       <c r="N937" s="2"/>
       <c r="O937" s="23"/>
     </row>
-    <row r="938" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A938" s="15"/>
       <c r="B938" s="15"/>
       <c r="C938" s="15"/>
@@ -19269,7 +19356,7 @@
       <c r="N938" s="2"/>
       <c r="O938" s="23"/>
     </row>
-    <row r="939" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A939" s="15"/>
       <c r="B939" s="15"/>
       <c r="C939" s="15"/>
@@ -19286,7 +19373,7 @@
       <c r="N939" s="2"/>
       <c r="O939" s="23"/>
     </row>
-    <row r="940" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A940" s="15"/>
       <c r="B940" s="15"/>
       <c r="C940" s="15"/>
@@ -19303,7 +19390,7 @@
       <c r="N940" s="2"/>
       <c r="O940" s="23"/>
     </row>
-    <row r="941" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A941" s="15"/>
       <c r="B941" s="15"/>
       <c r="C941" s="15"/>
@@ -19320,7 +19407,7 @@
       <c r="N941" s="2"/>
       <c r="O941" s="23"/>
     </row>
-    <row r="942" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A942" s="15"/>
       <c r="B942" s="15"/>
       <c r="C942" s="15"/>
@@ -19337,7 +19424,7 @@
       <c r="N942" s="2"/>
       <c r="O942" s="23"/>
     </row>
-    <row r="943" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A943" s="15"/>
       <c r="B943" s="15"/>
       <c r="C943" s="15"/>
@@ -19354,7 +19441,7 @@
       <c r="N943" s="2"/>
       <c r="O943" s="23"/>
     </row>
-    <row r="944" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A944" s="15"/>
       <c r="B944" s="15"/>
       <c r="C944" s="15"/>
@@ -19371,7 +19458,7 @@
       <c r="N944" s="2"/>
       <c r="O944" s="23"/>
     </row>
-    <row r="945" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A945" s="15"/>
       <c r="B945" s="15"/>
       <c r="C945" s="15"/>
@@ -19388,7 +19475,7 @@
       <c r="N945" s="2"/>
       <c r="O945" s="23"/>
     </row>
-    <row r="946" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A946" s="15"/>
       <c r="B946" s="15"/>
       <c r="C946" s="15"/>
@@ -19405,7 +19492,7 @@
       <c r="N946" s="2"/>
       <c r="O946" s="23"/>
     </row>
-    <row r="947" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A947" s="15"/>
       <c r="B947" s="15"/>
       <c r="C947" s="15"/>
@@ -19422,7 +19509,7 @@
       <c r="N947" s="2"/>
       <c r="O947" s="23"/>
     </row>
-    <row r="948" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A948" s="15"/>
       <c r="B948" s="15"/>
       <c r="C948" s="15"/>
@@ -19439,7 +19526,7 @@
       <c r="N948" s="2"/>
       <c r="O948" s="23"/>
     </row>
-    <row r="949" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A949" s="15"/>
       <c r="B949" s="15"/>
       <c r="C949" s="15"/>
@@ -19456,7 +19543,7 @@
       <c r="N949" s="2"/>
       <c r="O949" s="23"/>
     </row>
-    <row r="950" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A950" s="15"/>
       <c r="B950" s="15"/>
       <c r="C950" s="15"/>
@@ -19473,7 +19560,7 @@
       <c r="N950" s="2"/>
       <c r="O950" s="23"/>
     </row>
-    <row r="951" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A951" s="15"/>
       <c r="B951" s="15"/>
       <c r="C951" s="15"/>
@@ -19490,7 +19577,7 @@
       <c r="N951" s="2"/>
       <c r="O951" s="23"/>
     </row>
-    <row r="952" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A952" s="15"/>
       <c r="B952" s="15"/>
       <c r="C952" s="15"/>
@@ -19507,7 +19594,7 @@
       <c r="N952" s="2"/>
       <c r="O952" s="23"/>
     </row>
-    <row r="953" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A953" s="15"/>
       <c r="B953" s="15"/>
       <c r="C953" s="15"/>
@@ -19524,7 +19611,7 @@
       <c r="N953" s="2"/>
       <c r="O953" s="23"/>
     </row>
-    <row r="954" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A954" s="15"/>
       <c r="B954" s="15"/>
       <c r="C954" s="15"/>
@@ -19541,7 +19628,7 @@
       <c r="N954" s="2"/>
       <c r="O954" s="23"/>
     </row>
-    <row r="955" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A955" s="15"/>
       <c r="B955" s="15"/>
       <c r="C955" s="15"/>
@@ -19558,7 +19645,7 @@
       <c r="N955" s="2"/>
       <c r="O955" s="23"/>
     </row>
-    <row r="956" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A956" s="15"/>
       <c r="B956" s="15"/>
       <c r="C956" s="15"/>
@@ -19575,7 +19662,7 @@
       <c r="N956" s="2"/>
       <c r="O956" s="23"/>
     </row>
-    <row r="957" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A957" s="15"/>
       <c r="B957" s="15"/>
       <c r="C957" s="15"/>
@@ -19592,7 +19679,7 @@
       <c r="N957" s="2"/>
       <c r="O957" s="23"/>
     </row>
-    <row r="958" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A958" s="15"/>
       <c r="B958" s="15"/>
       <c r="C958" s="15"/>
@@ -19609,7 +19696,7 @@
       <c r="N958" s="2"/>
       <c r="O958" s="23"/>
     </row>
-    <row r="959" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A959" s="15"/>
       <c r="B959" s="15"/>
       <c r="C959" s="15"/>
@@ -19626,7 +19713,7 @@
       <c r="N959" s="2"/>
       <c r="O959" s="23"/>
     </row>
-    <row r="960" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A960" s="15"/>
       <c r="B960" s="15"/>
       <c r="C960" s="15"/>
@@ -19643,7 +19730,7 @@
       <c r="N960" s="2"/>
       <c r="O960" s="23"/>
     </row>
-    <row r="961" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A961" s="15"/>
       <c r="B961" s="15"/>
       <c r="C961" s="15"/>
@@ -19660,7 +19747,7 @@
       <c r="N961" s="2"/>
       <c r="O961" s="23"/>
     </row>
-    <row r="962" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A962" s="15"/>
       <c r="B962" s="15"/>
       <c r="C962" s="15"/>
@@ -19677,7 +19764,7 @@
       <c r="N962" s="2"/>
       <c r="O962" s="23"/>
     </row>
-    <row r="963" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A963" s="15"/>
       <c r="B963" s="15"/>
       <c r="C963" s="15"/>
@@ -19694,7 +19781,7 @@
       <c r="N963" s="2"/>
       <c r="O963" s="23"/>
     </row>
-    <row r="964" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A964" s="15"/>
       <c r="B964" s="15"/>
       <c r="C964" s="15"/>
@@ -19711,7 +19798,7 @@
       <c r="N964" s="2"/>
       <c r="O964" s="23"/>
     </row>
-    <row r="965" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A965" s="15"/>
       <c r="B965" s="15"/>
       <c r="C965" s="15"/>
@@ -19728,7 +19815,7 @@
       <c r="N965" s="2"/>
       <c r="O965" s="23"/>
     </row>
-    <row r="966" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A966" s="15"/>
       <c r="B966" s="15"/>
       <c r="C966" s="15"/>
@@ -19745,7 +19832,7 @@
       <c r="N966" s="2"/>
       <c r="O966" s="23"/>
     </row>
-    <row r="967" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A967" s="15"/>
       <c r="B967" s="15"/>
       <c r="C967" s="15"/>
@@ -19762,7 +19849,7 @@
       <c r="N967" s="2"/>
       <c r="O967" s="23"/>
     </row>
-    <row r="968" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A968" s="15"/>
       <c r="B968" s="15"/>
       <c r="C968" s="15"/>
@@ -19779,7 +19866,7 @@
       <c r="N968" s="2"/>
       <c r="O968" s="23"/>
     </row>
-    <row r="969" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A969" s="15"/>
       <c r="B969" s="15"/>
       <c r="C969" s="15"/>
@@ -19796,7 +19883,7 @@
       <c r="N969" s="2"/>
       <c r="O969" s="23"/>
     </row>
-    <row r="970" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A970" s="15"/>
       <c r="B970" s="15"/>
       <c r="C970" s="15"/>
@@ -19813,7 +19900,7 @@
       <c r="N970" s="2"/>
       <c r="O970" s="23"/>
     </row>
-    <row r="971" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A971" s="15"/>
       <c r="B971" s="15"/>
       <c r="C971" s="15"/>
@@ -19830,7 +19917,7 @@
       <c r="N971" s="2"/>
       <c r="O971" s="23"/>
     </row>
-    <row r="972" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A972" s="15"/>
       <c r="B972" s="15"/>
       <c r="C972" s="15"/>
@@ -19847,7 +19934,7 @@
       <c r="N972" s="2"/>
       <c r="O972" s="23"/>
     </row>
-    <row r="973" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A973" s="15"/>
       <c r="B973" s="15"/>
       <c r="C973" s="15"/>
@@ -19864,7 +19951,7 @@
       <c r="N973" s="2"/>
       <c r="O973" s="23"/>
     </row>
-    <row r="974" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A974" s="15"/>
       <c r="B974" s="15"/>
       <c r="C974" s="15"/>
@@ -19881,7 +19968,7 @@
       <c r="N974" s="2"/>
       <c r="O974" s="23"/>
     </row>
-    <row r="975" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A975" s="15"/>
       <c r="B975" s="15"/>
       <c r="C975" s="15"/>
@@ -19898,7 +19985,7 @@
       <c r="N975" s="2"/>
       <c r="O975" s="23"/>
     </row>
-    <row r="976" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A976" s="15"/>
       <c r="B976" s="15"/>
       <c r="C976" s="15"/>
@@ -19915,7 +20002,7 @@
       <c r="N976" s="2"/>
       <c r="O976" s="23"/>
     </row>
-    <row r="977" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A977" s="15"/>
       <c r="B977" s="15"/>
       <c r="C977" s="15"/>
@@ -19932,7 +20019,7 @@
       <c r="N977" s="2"/>
       <c r="O977" s="23"/>
     </row>
-    <row r="978" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A978" s="15"/>
       <c r="B978" s="15"/>
       <c r="C978" s="15"/>
@@ -19949,7 +20036,7 @@
       <c r="N978" s="2"/>
       <c r="O978" s="23"/>
     </row>
-    <row r="979" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A979" s="15"/>
       <c r="B979" s="15"/>
       <c r="C979" s="15"/>
@@ -19966,7 +20053,7 @@
       <c r="N979" s="2"/>
       <c r="O979" s="23"/>
     </row>
-    <row r="980" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A980" s="15"/>
       <c r="B980" s="15"/>
       <c r="C980" s="15"/>
@@ -19983,7 +20070,7 @@
       <c r="N980" s="2"/>
       <c r="O980" s="23"/>
     </row>
-    <row r="981" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A981" s="15"/>
       <c r="B981" s="15"/>
       <c r="C981" s="15"/>
@@ -20000,7 +20087,7 @@
       <c r="N981" s="2"/>
       <c r="O981" s="23"/>
     </row>
-    <row r="982" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A982" s="15"/>
       <c r="B982" s="15"/>
       <c r="C982" s="15"/>
@@ -20017,7 +20104,7 @@
       <c r="N982" s="2"/>
       <c r="O982" s="23"/>
     </row>
-    <row r="983" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A983" s="15"/>
       <c r="B983" s="15"/>
       <c r="C983" s="15"/>
@@ -20034,7 +20121,7 @@
       <c r="N983" s="2"/>
       <c r="O983" s="23"/>
     </row>
-    <row r="984" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A984" s="15"/>
       <c r="B984" s="15"/>
       <c r="C984" s="15"/>
@@ -20051,7 +20138,7 @@
       <c r="N984" s="2"/>
       <c r="O984" s="23"/>
     </row>
-    <row r="985" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A985" s="15"/>
       <c r="B985" s="15"/>
       <c r="C985" s="15"/>
@@ -20068,7 +20155,7 @@
       <c r="N985" s="2"/>
       <c r="O985" s="23"/>
     </row>
-    <row r="986" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A986" s="15"/>
       <c r="B986" s="15"/>
       <c r="C986" s="15"/>
@@ -20085,7 +20172,7 @@
       <c r="N986" s="2"/>
       <c r="O986" s="23"/>
     </row>
-    <row r="987" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A987" s="15"/>
       <c r="B987" s="15"/>
       <c r="C987" s="15"/>
@@ -20102,7 +20189,7 @@
       <c r="N987" s="2"/>
       <c r="O987" s="23"/>
     </row>
-    <row r="988" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A988" s="15"/>
       <c r="B988" s="15"/>
       <c r="C988" s="15"/>
@@ -20119,7 +20206,7 @@
       <c r="N988" s="2"/>
       <c r="O988" s="23"/>
     </row>
-    <row r="989" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A989" s="15"/>
       <c r="B989" s="15"/>
       <c r="C989" s="15"/>
@@ -20136,7 +20223,7 @@
       <c r="N989" s="2"/>
       <c r="O989" s="23"/>
     </row>
-    <row r="990" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A990" s="15"/>
       <c r="B990" s="15"/>
       <c r="C990" s="15"/>
@@ -20153,7 +20240,7 @@
       <c r="N990" s="2"/>
       <c r="O990" s="23"/>
     </row>
-    <row r="991" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A991" s="15"/>
       <c r="B991" s="15"/>
       <c r="C991" s="15"/>
@@ -20170,7 +20257,7 @@
       <c r="N991" s="2"/>
       <c r="O991" s="23"/>
     </row>
-    <row r="992" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A992" s="15"/>
       <c r="B992" s="15"/>
       <c r="C992" s="15"/>
@@ -20187,7 +20274,7 @@
       <c r="N992" s="2"/>
       <c r="O992" s="23"/>
     </row>
-    <row r="993" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A993" s="15"/>
       <c r="B993" s="15"/>
       <c r="C993" s="15"/>
@@ -20204,7 +20291,7 @@
       <c r="N993" s="2"/>
       <c r="O993" s="23"/>
     </row>
-    <row r="994" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A994" s="15"/>
       <c r="B994" s="15"/>
       <c r="C994" s="15"/>
@@ -20221,7 +20308,7 @@
       <c r="N994" s="2"/>
       <c r="O994" s="23"/>
     </row>
-    <row r="995" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A995" s="15"/>
       <c r="B995" s="15"/>
       <c r="C995" s="15"/>
@@ -20238,7 +20325,7 @@
       <c r="N995" s="2"/>
       <c r="O995" s="23"/>
     </row>
-    <row r="996" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A996" s="15"/>
       <c r="B996" s="15"/>
       <c r="C996" s="15"/>
@@ -20255,7 +20342,7 @@
       <c r="N996" s="2"/>
       <c r="O996" s="23"/>
     </row>
-    <row r="997" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A997" s="15"/>
       <c r="B997" s="15"/>
       <c r="C997" s="15"/>
@@ -20272,7 +20359,7 @@
       <c r="N997" s="2"/>
       <c r="O997" s="23"/>
     </row>
-    <row r="998" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A998" s="15"/>
       <c r="B998" s="15"/>
       <c r="C998" s="15"/>
@@ -20289,7 +20376,7 @@
       <c r="N998" s="2"/>
       <c r="O998" s="23"/>
     </row>
-    <row r="999" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A999" s="15"/>
       <c r="B999" s="15"/>
       <c r="C999" s="15"/>
@@ -20306,7 +20393,7 @@
       <c r="N999" s="2"/>
       <c r="O999" s="23"/>
     </row>
-    <row r="1000" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1000" s="15"/>
       <c r="B1000" s="15"/>
       <c r="C1000" s="15"/>

--- a/Airfoil Database/list_airfoils.xlsx
+++ b/Airfoil Database/list_airfoils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grant\Documents\School\Graduate School\GRA Research\Airfoil Digitization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599F853A-318B-40A3-B29A-AFE0EE9E1320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6014002-6CEA-42FC-B984-C8AE682C11B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1795,10 +1795,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A30" sqref="A30"/>
-      <selection pane="topRight" activeCell="O46" sqref="O46"/>
+      <selection pane="topRight" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1912,7 +1912,7 @@
       <c r="O2" s="7"/>
       <c r="Q2" s="8">
         <f>SUM(G2:G11,G14:G16,G18:G22,G24:G65)</f>
-        <v>1846</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
@@ -3848,7 +3848,7 @@
         <v>220</v>
       </c>
       <c r="G46" s="40">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="H46" s="33"/>
       <c r="I46" s="40" t="s">

--- a/Airfoil Database/list_airfoils.xlsx
+++ b/Airfoil Database/list_airfoils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grant\Documents\School\Graduate School\GRA Research\Airfoil Digitization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6014002-6CEA-42FC-B984-C8AE682C11B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64C5727-95F6-467C-B9CD-4DC51B44A744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -869,10 +869,10 @@
     <t>-3, -2, -1, 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16</t>
   </si>
   <si>
-    <t>0.09, 0.06, 0.03</t>
-  </si>
-  <si>
-    <t>3e5, 2e5, 1e5</t>
+    <t>3e5, 2e5, 1e5, 4.6e5</t>
+  </si>
+  <si>
+    <t>0.13, 0.09, 0.08, 0.06, 0.03</t>
   </si>
 </sst>
 </file>
@@ -1795,10 +1795,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A30" sqref="A30"/>
-      <selection pane="topRight" activeCell="G47" sqref="G47"/>
+      <selection pane="topRight" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1912,7 +1912,7 @@
       <c r="O2" s="7"/>
       <c r="Q2" s="8">
         <f>SUM(G2:G11,G14:G16,G18:G22,G24:G65)</f>
-        <v>1862</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
@@ -3835,11 +3835,11 @@
       <c r="B46" s="60" t="s">
         <v>271</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="C46" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="D46" s="42" t="s">
         <v>272</v>
-      </c>
-      <c r="D46" s="42" t="s">
-        <v>273</v>
       </c>
       <c r="E46" s="40" t="s">
         <v>21</v>
@@ -3848,7 +3848,7 @@
         <v>220</v>
       </c>
       <c r="G46" s="40">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="H46" s="33"/>
       <c r="I46" s="40" t="s">

--- a/Airfoil Database/list_airfoils.xlsx
+++ b/Airfoil Database/list_airfoils.xlsx
@@ -1,33 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grant\Documents\School\Graduate School\GRA Research\Airfoil Digitization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cloned Respositories\GP-Aero\Airfoil Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64C5727-95F6-467C-B9CD-4DC51B44A744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6E426B-57F3-4FFF-B77A-0BA732F96A47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="20930" windowHeight="12430" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -36,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="275">
   <si>
     <t>Airfoil</t>
   </si>
@@ -860,9 +849,6 @@
     <t>0.5 - 0.83</t>
   </si>
   <si>
-    <t>Airfoil 26a</t>
-  </si>
-  <si>
     <t>NASA TM X-2978</t>
   </si>
   <si>
@@ -873,6 +859,12 @@
   </si>
   <si>
     <t>0.13, 0.09, 0.08, 0.06, 0.03</t>
+  </si>
+  <si>
+    <t>Supercritical Airfoil 26a</t>
+  </si>
+  <si>
+    <t>Supercritical Airfoil 12</t>
   </si>
 </sst>
 </file>
@@ -1497,9 +1489,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1537,7 +1529,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1643,7 +1635,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1785,7 +1777,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1795,30 +1787,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A30" sqref="A30"/>
-      <selection pane="topRight" activeCell="D58" sqref="D58"/>
+      <selection pane="topRight" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.15625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.15625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5234375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.47265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.15625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7890625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7890625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="16.5234375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.15625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="16.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1796875" style="1" customWidth="1"/>
     <col min="11" max="12" width="28" style="1" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="17.15625" customWidth="1"/>
-    <col min="15" max="15" width="71.5234375" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" customWidth="1"/>
+    <col min="15" max="15" width="71.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1868,7 +1860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1912,10 +1904,10 @@
       <c r="O2" s="7"/>
       <c r="Q2" s="8">
         <f>SUM(G2:G11,G14:G16,G18:G22,G24:G65)</f>
-        <v>1893</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1958,7 +1950,7 @@
       </c>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -2003,7 +1995,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -2058,7 +2050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>33</v>
       </c>
@@ -2107,7 +2099,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>38</v>
       </c>
@@ -2157,7 +2149,7 @@
         <v>1.0265523532247542</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="8" customFormat="1" ht="46.8" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:20" s="8" customFormat="1" ht="62" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
@@ -2202,7 +2194,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="46.8" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
@@ -2247,7 +2239,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="8" customFormat="1" ht="46.8" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:20" s="8" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>52</v>
       </c>
@@ -2292,7 +2284,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
@@ -2337,7 +2329,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="46.8" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>61</v>
       </c>
@@ -2382,7 +2374,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:20" ht="31" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>66</v>
       </c>
@@ -2427,7 +2419,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:20" s="8" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
         <v>70</v>
       </c>
@@ -2472,7 +2464,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="21" t="s">
         <v>76</v>
       </c>
@@ -2515,7 +2507,7 @@
       </c>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:20" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:20" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
         <v>81</v>
       </c>
@@ -2558,7 +2550,7 @@
       </c>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>82</v>
       </c>
@@ -2603,7 +2595,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:15" s="8" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>88</v>
       </c>
@@ -2648,7 +2640,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
         <v>95</v>
       </c>
@@ -2693,7 +2685,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>101</v>
       </c>
@@ -2738,7 +2730,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>106</v>
       </c>
@@ -2779,7 +2771,7 @@
       </c>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>109</v>
       </c>
@@ -2822,7 +2814,7 @@
       </c>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>116</v>
       </c>
@@ -2865,7 +2857,7 @@
       </c>
       <c r="O23" s="23"/>
     </row>
-    <row r="24" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="45" t="s">
         <v>122</v>
       </c>
@@ -2910,7 +2902,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="45" t="s">
         <v>128</v>
       </c>
@@ -2953,7 +2945,7 @@
       </c>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="29" t="s">
         <v>134</v>
       </c>
@@ -2996,7 +2988,7 @@
       </c>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>141</v>
       </c>
@@ -3039,7 +3031,7 @@
       </c>
       <c r="O27" s="7"/>
     </row>
-    <row r="28" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>145</v>
       </c>
@@ -3082,7 +3074,7 @@
       </c>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" spans="1:15" s="30" customFormat="1" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:15" s="30" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>149</v>
       </c>
@@ -3127,7 +3119,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:15" s="8" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
         <v>156</v>
       </c>
@@ -3172,7 +3164,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="21" t="s">
         <v>162</v>
       </c>
@@ -3217,7 +3209,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="21" t="s">
         <v>170</v>
       </c>
@@ -3260,7 +3252,7 @@
       </c>
       <c r="O32" s="7"/>
     </row>
-    <row r="33" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="21" t="s">
         <v>171</v>
       </c>
@@ -3305,7 +3297,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="21" t="s">
         <v>174</v>
       </c>
@@ -3350,7 +3342,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>179</v>
       </c>
@@ -3396,7 +3388,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:15" s="30" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="21" t="s">
         <v>183</v>
       </c>
@@ -3439,7 +3431,7 @@
       </c>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="21" t="s">
         <v>188</v>
       </c>
@@ -3482,7 +3474,7 @@
       </c>
       <c r="O37" s="7"/>
     </row>
-    <row r="38" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="s">
         <v>190</v>
       </c>
@@ -3525,7 +3517,7 @@
       </c>
       <c r="O38" s="7"/>
     </row>
-    <row r="39" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>194</v>
       </c>
@@ -3570,7 +3562,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="36" t="s">
         <v>200</v>
       </c>
@@ -3613,7 +3605,7 @@
       </c>
       <c r="O40" s="23"/>
     </row>
-    <row r="41" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="36" t="s">
         <v>204</v>
       </c>
@@ -3656,7 +3648,7 @@
       </c>
       <c r="O41" s="23"/>
     </row>
-    <row r="42" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="36" t="s">
         <v>209</v>
       </c>
@@ -3699,7 +3691,7 @@
       </c>
       <c r="O42" s="23"/>
     </row>
-    <row r="43" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="36" t="s">
         <v>211</v>
       </c>
@@ -3742,7 +3734,7 @@
       </c>
       <c r="O43" s="23"/>
     </row>
-    <row r="44" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="36" t="s">
         <v>215</v>
       </c>
@@ -3785,7 +3777,7 @@
       </c>
       <c r="O44" s="23"/>
     </row>
-    <row r="45" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="36" t="s">
         <v>217</v>
       </c>
@@ -3828,18 +3820,18 @@
       </c>
       <c r="O45" s="23"/>
     </row>
-    <row r="46" spans="1:15" s="43" customFormat="1" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:15" s="43" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A46" s="40" t="s">
         <v>219</v>
       </c>
       <c r="B46" s="60" t="s">
+        <v>270</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="D46" s="42" t="s">
         <v>271</v>
-      </c>
-      <c r="C46" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="D46" s="42" t="s">
-        <v>272</v>
       </c>
       <c r="E46" s="40" t="s">
         <v>21</v>
@@ -3873,7 +3865,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>223</v>
       </c>
@@ -3916,7 +3908,7 @@
       </c>
       <c r="O47" s="7"/>
     </row>
-    <row r="48" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>224</v>
       </c>
@@ -3961,7 +3953,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:15" ht="31" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>226</v>
       </c>
@@ -4006,7 +3998,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>228</v>
       </c>
@@ -4051,7 +4043,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:15" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>230</v>
       </c>
@@ -4096,7 +4088,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:15" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>235</v>
       </c>
@@ -4141,7 +4133,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>238</v>
       </c>
@@ -4186,7 +4178,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>243</v>
       </c>
@@ -4231,7 +4223,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>250</v>
       </c>
@@ -4272,7 +4264,7 @@
       </c>
       <c r="O55" s="7"/>
     </row>
-    <row r="56" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
         <v>252</v>
       </c>
@@ -4299,7 +4291,7 @@
       </c>
       <c r="O56" s="23"/>
     </row>
-    <row r="57" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>262</v>
       </c>
@@ -4344,7 +4336,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:15" s="8" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>257</v>
       </c>
@@ -4389,9 +4381,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="57" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B59" s="57" t="s">
         <v>267</v>
@@ -4406,7 +4398,7 @@
         <v>21</v>
       </c>
       <c r="F59" s="59" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G59" s="57">
         <v>58</v>
@@ -4432,24 +4424,50 @@
       </c>
       <c r="O59" s="23"/>
     </row>
-    <row r="60" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="23"/>
-    </row>
-    <row r="61" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:15" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B60" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="C60" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="D60" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="G60" s="2">
+        <v>60</v>
+      </c>
+      <c r="H60" s="58"/>
+      <c r="I60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O60" s="7"/>
+    </row>
+    <row r="61" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -4466,7 +4484,7 @@
       <c r="N61" s="2"/>
       <c r="O61" s="23"/>
     </row>
-    <row r="62" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
@@ -4483,7 +4501,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="23"/>
     </row>
-    <row r="63" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -4500,7 +4518,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="23"/>
     </row>
-    <row r="64" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
@@ -4517,7 +4535,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="23"/>
     </row>
-    <row r="65" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
@@ -4534,7 +4552,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="23"/>
     </row>
-    <row r="66" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
@@ -4551,7 +4569,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="23"/>
     </row>
-    <row r="67" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
@@ -4568,7 +4586,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="23"/>
     </row>
-    <row r="68" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
@@ -4585,7 +4603,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="23"/>
     </row>
-    <row r="69" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -4602,7 +4620,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="23"/>
     </row>
-    <row r="70" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -4619,7 +4637,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="23"/>
     </row>
-    <row r="71" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -4636,7 +4654,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="23"/>
     </row>
-    <row r="72" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -4653,7 +4671,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="23"/>
     </row>
-    <row r="73" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -4670,7 +4688,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="23"/>
     </row>
-    <row r="74" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -4687,7 +4705,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="23"/>
     </row>
-    <row r="75" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -4704,7 +4722,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="23"/>
     </row>
-    <row r="76" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -4721,7 +4739,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="23"/>
     </row>
-    <row r="77" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -4738,7 +4756,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="23"/>
     </row>
-    <row r="78" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -4755,7 +4773,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="23"/>
     </row>
-    <row r="79" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -4772,7 +4790,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="23"/>
     </row>
-    <row r="80" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -4789,7 +4807,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="23"/>
     </row>
-    <row r="81" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -4806,7 +4824,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="23"/>
     </row>
-    <row r="82" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -4823,7 +4841,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="23"/>
     </row>
-    <row r="83" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -4840,7 +4858,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="23"/>
     </row>
-    <row r="84" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -4857,7 +4875,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="23"/>
     </row>
-    <row r="85" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -4874,7 +4892,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="23"/>
     </row>
-    <row r="86" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="15"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
@@ -4891,7 +4909,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="23"/>
     </row>
-    <row r="87" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="15"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -4908,7 +4926,7 @@
       <c r="N87" s="2"/>
       <c r="O87" s="23"/>
     </row>
-    <row r="88" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -4925,7 +4943,7 @@
       <c r="N88" s="2"/>
       <c r="O88" s="23"/>
     </row>
-    <row r="89" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -4942,7 +4960,7 @@
       <c r="N89" s="2"/>
       <c r="O89" s="23"/>
     </row>
-    <row r="90" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -4959,7 +4977,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="23"/>
     </row>
-    <row r="91" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -4976,7 +4994,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="23"/>
     </row>
-    <row r="92" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -4993,7 +5011,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="23"/>
     </row>
-    <row r="93" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -5010,7 +5028,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="23"/>
     </row>
-    <row r="94" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -5027,7 +5045,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="23"/>
     </row>
-    <row r="95" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -5044,7 +5062,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="23"/>
     </row>
-    <row r="96" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -5061,7 +5079,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="23"/>
     </row>
-    <row r="97" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -5078,7 +5096,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="23"/>
     </row>
-    <row r="98" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -5095,7 +5113,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="23"/>
     </row>
-    <row r="99" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="15"/>
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
@@ -5112,7 +5130,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="23"/>
     </row>
-    <row r="100" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="15"/>
       <c r="B100" s="15"/>
       <c r="C100" s="15"/>
@@ -5129,7 +5147,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="23"/>
     </row>
-    <row r="101" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="15"/>
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
@@ -5146,7 +5164,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="23"/>
     </row>
-    <row r="102" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="15"/>
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>
@@ -5163,7 +5181,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="23"/>
     </row>
-    <row r="103" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="15"/>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
@@ -5180,7 +5198,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="23"/>
     </row>
-    <row r="104" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="15"/>
       <c r="B104" s="15"/>
       <c r="C104" s="15"/>
@@ -5197,7 +5215,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="23"/>
     </row>
-    <row r="105" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="15"/>
       <c r="B105" s="15"/>
       <c r="C105" s="15"/>
@@ -5214,7 +5232,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="23"/>
     </row>
-    <row r="106" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="15"/>
       <c r="B106" s="15"/>
       <c r="C106" s="15"/>
@@ -5231,7 +5249,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="23"/>
     </row>
-    <row r="107" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="15"/>
       <c r="B107" s="15"/>
       <c r="C107" s="15"/>
@@ -5248,7 +5266,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="23"/>
     </row>
-    <row r="108" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="15"/>
       <c r="B108" s="15"/>
       <c r="C108" s="15"/>
@@ -5265,7 +5283,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="23"/>
     </row>
-    <row r="109" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="15"/>
       <c r="B109" s="15"/>
       <c r="C109" s="15"/>
@@ -5282,7 +5300,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="23"/>
     </row>
-    <row r="110" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="15"/>
       <c r="B110" s="15"/>
       <c r="C110" s="15"/>
@@ -5299,7 +5317,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="23"/>
     </row>
-    <row r="111" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="15"/>
       <c r="B111" s="15"/>
       <c r="C111" s="15"/>
@@ -5316,7 +5334,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="23"/>
     </row>
-    <row r="112" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="15"/>
       <c r="B112" s="15"/>
       <c r="C112" s="15"/>
@@ -5333,7 +5351,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="23"/>
     </row>
-    <row r="113" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="15"/>
       <c r="B113" s="15"/>
       <c r="C113" s="15"/>
@@ -5350,7 +5368,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="23"/>
     </row>
-    <row r="114" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="15"/>
       <c r="B114" s="15"/>
       <c r="C114" s="15"/>
@@ -5367,7 +5385,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="23"/>
     </row>
-    <row r="115" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="15"/>
       <c r="B115" s="15"/>
       <c r="C115" s="15"/>
@@ -5384,7 +5402,7 @@
       <c r="N115" s="2"/>
       <c r="O115" s="23"/>
     </row>
-    <row r="116" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="15"/>
       <c r="B116" s="15"/>
       <c r="C116" s="15"/>
@@ -5401,7 +5419,7 @@
       <c r="N116" s="2"/>
       <c r="O116" s="23"/>
     </row>
-    <row r="117" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="15"/>
       <c r="B117" s="15"/>
       <c r="C117" s="15"/>
@@ -5418,7 +5436,7 @@
       <c r="N117" s="2"/>
       <c r="O117" s="23"/>
     </row>
-    <row r="118" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="15"/>
       <c r="B118" s="15"/>
       <c r="C118" s="15"/>
@@ -5435,7 +5453,7 @@
       <c r="N118" s="2"/>
       <c r="O118" s="23"/>
     </row>
-    <row r="119" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="15"/>
       <c r="B119" s="15"/>
       <c r="C119" s="15"/>
@@ -5452,7 +5470,7 @@
       <c r="N119" s="2"/>
       <c r="O119" s="23"/>
     </row>
-    <row r="120" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="15"/>
       <c r="B120" s="15"/>
       <c r="C120" s="15"/>
@@ -5469,7 +5487,7 @@
       <c r="N120" s="2"/>
       <c r="O120" s="23"/>
     </row>
-    <row r="121" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="15"/>
       <c r="B121" s="15"/>
       <c r="C121" s="15"/>
@@ -5486,7 +5504,7 @@
       <c r="N121" s="2"/>
       <c r="O121" s="23"/>
     </row>
-    <row r="122" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="15"/>
       <c r="B122" s="15"/>
       <c r="C122" s="15"/>
@@ -5503,7 +5521,7 @@
       <c r="N122" s="2"/>
       <c r="O122" s="23"/>
     </row>
-    <row r="123" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="15"/>
       <c r="B123" s="15"/>
       <c r="C123" s="15"/>
@@ -5520,7 +5538,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="23"/>
     </row>
-    <row r="124" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="15"/>
       <c r="B124" s="15"/>
       <c r="C124" s="15"/>
@@ -5537,7 +5555,7 @@
       <c r="N124" s="2"/>
       <c r="O124" s="23"/>
     </row>
-    <row r="125" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="15"/>
       <c r="B125" s="15"/>
       <c r="C125" s="15"/>
@@ -5554,7 +5572,7 @@
       <c r="N125" s="2"/>
       <c r="O125" s="23"/>
     </row>
-    <row r="126" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="15"/>
       <c r="B126" s="15"/>
       <c r="C126" s="15"/>
@@ -5571,7 +5589,7 @@
       <c r="N126" s="2"/>
       <c r="O126" s="23"/>
     </row>
-    <row r="127" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="15"/>
       <c r="B127" s="15"/>
       <c r="C127" s="15"/>
@@ -5588,7 +5606,7 @@
       <c r="N127" s="2"/>
       <c r="O127" s="23"/>
     </row>
-    <row r="128" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="15"/>
       <c r="B128" s="15"/>
       <c r="C128" s="15"/>
@@ -5605,7 +5623,7 @@
       <c r="N128" s="2"/>
       <c r="O128" s="23"/>
     </row>
-    <row r="129" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
@@ -5622,7 +5640,7 @@
       <c r="N129" s="2"/>
       <c r="O129" s="23"/>
     </row>
-    <row r="130" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="15"/>
       <c r="B130" s="15"/>
       <c r="C130" s="15"/>
@@ -5639,7 +5657,7 @@
       <c r="N130" s="2"/>
       <c r="O130" s="23"/>
     </row>
-    <row r="131" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="15"/>
       <c r="B131" s="15"/>
       <c r="C131" s="15"/>
@@ -5656,7 +5674,7 @@
       <c r="N131" s="2"/>
       <c r="O131" s="23"/>
     </row>
-    <row r="132" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A132" s="15"/>
       <c r="B132" s="15"/>
       <c r="C132" s="15"/>
@@ -5673,7 +5691,7 @@
       <c r="N132" s="2"/>
       <c r="O132" s="23"/>
     </row>
-    <row r="133" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133" s="15"/>
       <c r="B133" s="15"/>
       <c r="C133" s="15"/>
@@ -5690,7 +5708,7 @@
       <c r="N133" s="2"/>
       <c r="O133" s="23"/>
     </row>
-    <row r="134" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" s="15"/>
       <c r="B134" s="15"/>
       <c r="C134" s="15"/>
@@ -5707,7 +5725,7 @@
       <c r="N134" s="2"/>
       <c r="O134" s="23"/>
     </row>
-    <row r="135" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A135" s="15"/>
       <c r="B135" s="15"/>
       <c r="C135" s="15"/>
@@ -5724,7 +5742,7 @@
       <c r="N135" s="2"/>
       <c r="O135" s="23"/>
     </row>
-    <row r="136" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A136" s="15"/>
       <c r="B136" s="15"/>
       <c r="C136" s="15"/>
@@ -5741,7 +5759,7 @@
       <c r="N136" s="2"/>
       <c r="O136" s="23"/>
     </row>
-    <row r="137" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A137" s="15"/>
       <c r="B137" s="15"/>
       <c r="C137" s="15"/>
@@ -5758,7 +5776,7 @@
       <c r="N137" s="2"/>
       <c r="O137" s="23"/>
     </row>
-    <row r="138" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A138" s="15"/>
       <c r="B138" s="15"/>
       <c r="C138" s="15"/>
@@ -5775,7 +5793,7 @@
       <c r="N138" s="2"/>
       <c r="O138" s="23"/>
     </row>
-    <row r="139" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="15"/>
       <c r="B139" s="15"/>
       <c r="C139" s="15"/>
@@ -5792,7 +5810,7 @@
       <c r="N139" s="2"/>
       <c r="O139" s="23"/>
     </row>
-    <row r="140" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="15"/>
       <c r="B140" s="15"/>
       <c r="C140" s="15"/>
@@ -5809,7 +5827,7 @@
       <c r="N140" s="2"/>
       <c r="O140" s="23"/>
     </row>
-    <row r="141" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141" s="15"/>
       <c r="B141" s="15"/>
       <c r="C141" s="15"/>
@@ -5826,7 +5844,7 @@
       <c r="N141" s="2"/>
       <c r="O141" s="23"/>
     </row>
-    <row r="142" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A142" s="15"/>
       <c r="B142" s="15"/>
       <c r="C142" s="15"/>
@@ -5843,7 +5861,7 @@
       <c r="N142" s="2"/>
       <c r="O142" s="23"/>
     </row>
-    <row r="143" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A143" s="15"/>
       <c r="B143" s="15"/>
       <c r="C143" s="15"/>
@@ -5860,7 +5878,7 @@
       <c r="N143" s="2"/>
       <c r="O143" s="23"/>
     </row>
-    <row r="144" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A144" s="15"/>
       <c r="B144" s="15"/>
       <c r="C144" s="15"/>
@@ -5877,7 +5895,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="23"/>
     </row>
-    <row r="145" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A145" s="15"/>
       <c r="B145" s="15"/>
       <c r="C145" s="15"/>
@@ -5894,7 +5912,7 @@
       <c r="N145" s="2"/>
       <c r="O145" s="23"/>
     </row>
-    <row r="146" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="15"/>
       <c r="B146" s="15"/>
       <c r="C146" s="15"/>
@@ -5911,7 +5929,7 @@
       <c r="N146" s="2"/>
       <c r="O146" s="23"/>
     </row>
-    <row r="147" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A147" s="15"/>
       <c r="B147" s="15"/>
       <c r="C147" s="15"/>
@@ -5928,7 +5946,7 @@
       <c r="N147" s="2"/>
       <c r="O147" s="23"/>
     </row>
-    <row r="148" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A148" s="15"/>
       <c r="B148" s="15"/>
       <c r="C148" s="15"/>
@@ -5945,7 +5963,7 @@
       <c r="N148" s="2"/>
       <c r="O148" s="23"/>
     </row>
-    <row r="149" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A149" s="15"/>
       <c r="B149" s="15"/>
       <c r="C149" s="15"/>
@@ -5962,7 +5980,7 @@
       <c r="N149" s="2"/>
       <c r="O149" s="23"/>
     </row>
-    <row r="150" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A150" s="15"/>
       <c r="B150" s="15"/>
       <c r="C150" s="15"/>
@@ -5979,7 +5997,7 @@
       <c r="N150" s="2"/>
       <c r="O150" s="23"/>
     </row>
-    <row r="151" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A151" s="15"/>
       <c r="B151" s="15"/>
       <c r="C151" s="15"/>
@@ -5996,7 +6014,7 @@
       <c r="N151" s="2"/>
       <c r="O151" s="23"/>
     </row>
-    <row r="152" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A152" s="15"/>
       <c r="B152" s="15"/>
       <c r="C152" s="15"/>
@@ -6013,7 +6031,7 @@
       <c r="N152" s="2"/>
       <c r="O152" s="23"/>
     </row>
-    <row r="153" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A153" s="15"/>
       <c r="B153" s="15"/>
       <c r="C153" s="15"/>
@@ -6030,7 +6048,7 @@
       <c r="N153" s="2"/>
       <c r="O153" s="23"/>
     </row>
-    <row r="154" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A154" s="15"/>
       <c r="B154" s="15"/>
       <c r="C154" s="15"/>
@@ -6047,7 +6065,7 @@
       <c r="N154" s="2"/>
       <c r="O154" s="23"/>
     </row>
-    <row r="155" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A155" s="15"/>
       <c r="B155" s="15"/>
       <c r="C155" s="15"/>
@@ -6064,7 +6082,7 @@
       <c r="N155" s="2"/>
       <c r="O155" s="23"/>
     </row>
-    <row r="156" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A156" s="15"/>
       <c r="B156" s="15"/>
       <c r="C156" s="15"/>
@@ -6081,7 +6099,7 @@
       <c r="N156" s="2"/>
       <c r="O156" s="23"/>
     </row>
-    <row r="157" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A157" s="15"/>
       <c r="B157" s="15"/>
       <c r="C157" s="15"/>
@@ -6098,7 +6116,7 @@
       <c r="N157" s="2"/>
       <c r="O157" s="23"/>
     </row>
-    <row r="158" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A158" s="15"/>
       <c r="B158" s="15"/>
       <c r="C158" s="15"/>
@@ -6115,7 +6133,7 @@
       <c r="N158" s="2"/>
       <c r="O158" s="23"/>
     </row>
-    <row r="159" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A159" s="15"/>
       <c r="B159" s="15"/>
       <c r="C159" s="15"/>
@@ -6132,7 +6150,7 @@
       <c r="N159" s="2"/>
       <c r="O159" s="23"/>
     </row>
-    <row r="160" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A160" s="15"/>
       <c r="B160" s="15"/>
       <c r="C160" s="15"/>
@@ -6149,7 +6167,7 @@
       <c r="N160" s="2"/>
       <c r="O160" s="23"/>
     </row>
-    <row r="161" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A161" s="15"/>
       <c r="B161" s="15"/>
       <c r="C161" s="15"/>
@@ -6166,7 +6184,7 @@
       <c r="N161" s="2"/>
       <c r="O161" s="23"/>
     </row>
-    <row r="162" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A162" s="15"/>
       <c r="B162" s="15"/>
       <c r="C162" s="15"/>
@@ -6183,7 +6201,7 @@
       <c r="N162" s="2"/>
       <c r="O162" s="23"/>
     </row>
-    <row r="163" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A163" s="15"/>
       <c r="B163" s="15"/>
       <c r="C163" s="15"/>
@@ -6200,7 +6218,7 @@
       <c r="N163" s="2"/>
       <c r="O163" s="23"/>
     </row>
-    <row r="164" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A164" s="15"/>
       <c r="B164" s="15"/>
       <c r="C164" s="15"/>
@@ -6217,7 +6235,7 @@
       <c r="N164" s="2"/>
       <c r="O164" s="23"/>
     </row>
-    <row r="165" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A165" s="15"/>
       <c r="B165" s="15"/>
       <c r="C165" s="15"/>
@@ -6234,7 +6252,7 @@
       <c r="N165" s="2"/>
       <c r="O165" s="23"/>
     </row>
-    <row r="166" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A166" s="15"/>
       <c r="B166" s="15"/>
       <c r="C166" s="15"/>
@@ -6251,7 +6269,7 @@
       <c r="N166" s="2"/>
       <c r="O166" s="23"/>
     </row>
-    <row r="167" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A167" s="15"/>
       <c r="B167" s="15"/>
       <c r="C167" s="15"/>
@@ -6268,7 +6286,7 @@
       <c r="N167" s="2"/>
       <c r="O167" s="23"/>
     </row>
-    <row r="168" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A168" s="15"/>
       <c r="B168" s="15"/>
       <c r="C168" s="15"/>
@@ -6285,7 +6303,7 @@
       <c r="N168" s="2"/>
       <c r="O168" s="23"/>
     </row>
-    <row r="169" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A169" s="15"/>
       <c r="B169" s="15"/>
       <c r="C169" s="15"/>
@@ -6302,7 +6320,7 @@
       <c r="N169" s="2"/>
       <c r="O169" s="23"/>
     </row>
-    <row r="170" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A170" s="15"/>
       <c r="B170" s="15"/>
       <c r="C170" s="15"/>
@@ -6319,7 +6337,7 @@
       <c r="N170" s="2"/>
       <c r="O170" s="23"/>
     </row>
-    <row r="171" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A171" s="15"/>
       <c r="B171" s="15"/>
       <c r="C171" s="15"/>
@@ -6336,7 +6354,7 @@
       <c r="N171" s="2"/>
       <c r="O171" s="23"/>
     </row>
-    <row r="172" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A172" s="15"/>
       <c r="B172" s="15"/>
       <c r="C172" s="15"/>
@@ -6353,7 +6371,7 @@
       <c r="N172" s="2"/>
       <c r="O172" s="23"/>
     </row>
-    <row r="173" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A173" s="15"/>
       <c r="B173" s="15"/>
       <c r="C173" s="15"/>
@@ -6370,7 +6388,7 @@
       <c r="N173" s="2"/>
       <c r="O173" s="23"/>
     </row>
-    <row r="174" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A174" s="15"/>
       <c r="B174" s="15"/>
       <c r="C174" s="15"/>
@@ -6387,7 +6405,7 @@
       <c r="N174" s="2"/>
       <c r="O174" s="23"/>
     </row>
-    <row r="175" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A175" s="15"/>
       <c r="B175" s="15"/>
       <c r="C175" s="15"/>
@@ -6404,7 +6422,7 @@
       <c r="N175" s="2"/>
       <c r="O175" s="23"/>
     </row>
-    <row r="176" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A176" s="15"/>
       <c r="B176" s="15"/>
       <c r="C176" s="15"/>
@@ -6421,7 +6439,7 @@
       <c r="N176" s="2"/>
       <c r="O176" s="23"/>
     </row>
-    <row r="177" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A177" s="15"/>
       <c r="B177" s="15"/>
       <c r="C177" s="15"/>
@@ -6438,7 +6456,7 @@
       <c r="N177" s="2"/>
       <c r="O177" s="23"/>
     </row>
-    <row r="178" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A178" s="15"/>
       <c r="B178" s="15"/>
       <c r="C178" s="15"/>
@@ -6455,7 +6473,7 @@
       <c r="N178" s="2"/>
       <c r="O178" s="23"/>
     </row>
-    <row r="179" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A179" s="15"/>
       <c r="B179" s="15"/>
       <c r="C179" s="15"/>
@@ -6472,7 +6490,7 @@
       <c r="N179" s="2"/>
       <c r="O179" s="23"/>
     </row>
-    <row r="180" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A180" s="15"/>
       <c r="B180" s="15"/>
       <c r="C180" s="15"/>
@@ -6489,7 +6507,7 @@
       <c r="N180" s="2"/>
       <c r="O180" s="23"/>
     </row>
-    <row r="181" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A181" s="15"/>
       <c r="B181" s="15"/>
       <c r="C181" s="15"/>
@@ -6506,7 +6524,7 @@
       <c r="N181" s="2"/>
       <c r="O181" s="23"/>
     </row>
-    <row r="182" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A182" s="15"/>
       <c r="B182" s="15"/>
       <c r="C182" s="15"/>
@@ -6523,7 +6541,7 @@
       <c r="N182" s="2"/>
       <c r="O182" s="23"/>
     </row>
-    <row r="183" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A183" s="15"/>
       <c r="B183" s="15"/>
       <c r="C183" s="15"/>
@@ -6540,7 +6558,7 @@
       <c r="N183" s="2"/>
       <c r="O183" s="23"/>
     </row>
-    <row r="184" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A184" s="15"/>
       <c r="B184" s="15"/>
       <c r="C184" s="15"/>
@@ -6557,7 +6575,7 @@
       <c r="N184" s="2"/>
       <c r="O184" s="23"/>
     </row>
-    <row r="185" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A185" s="15"/>
       <c r="B185" s="15"/>
       <c r="C185" s="15"/>
@@ -6574,7 +6592,7 @@
       <c r="N185" s="2"/>
       <c r="O185" s="23"/>
     </row>
-    <row r="186" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A186" s="15"/>
       <c r="B186" s="15"/>
       <c r="C186" s="15"/>
@@ -6591,7 +6609,7 @@
       <c r="N186" s="2"/>
       <c r="O186" s="23"/>
     </row>
-    <row r="187" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A187" s="15"/>
       <c r="B187" s="15"/>
       <c r="C187" s="15"/>
@@ -6608,7 +6626,7 @@
       <c r="N187" s="2"/>
       <c r="O187" s="23"/>
     </row>
-    <row r="188" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A188" s="15"/>
       <c r="B188" s="15"/>
       <c r="C188" s="15"/>
@@ -6625,7 +6643,7 @@
       <c r="N188" s="2"/>
       <c r="O188" s="23"/>
     </row>
-    <row r="189" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="189" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A189" s="15"/>
       <c r="B189" s="15"/>
       <c r="C189" s="15"/>
@@ -6642,7 +6660,7 @@
       <c r="N189" s="2"/>
       <c r="O189" s="23"/>
     </row>
-    <row r="190" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A190" s="15"/>
       <c r="B190" s="15"/>
       <c r="C190" s="15"/>
@@ -6659,7 +6677,7 @@
       <c r="N190" s="2"/>
       <c r="O190" s="23"/>
     </row>
-    <row r="191" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A191" s="15"/>
       <c r="B191" s="15"/>
       <c r="C191" s="15"/>
@@ -6676,7 +6694,7 @@
       <c r="N191" s="2"/>
       <c r="O191" s="23"/>
     </row>
-    <row r="192" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A192" s="15"/>
       <c r="B192" s="15"/>
       <c r="C192" s="15"/>
@@ -6693,7 +6711,7 @@
       <c r="N192" s="2"/>
       <c r="O192" s="23"/>
     </row>
-    <row r="193" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="193" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A193" s="15"/>
       <c r="B193" s="15"/>
       <c r="C193" s="15"/>
@@ -6710,7 +6728,7 @@
       <c r="N193" s="2"/>
       <c r="O193" s="23"/>
     </row>
-    <row r="194" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="194" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A194" s="15"/>
       <c r="B194" s="15"/>
       <c r="C194" s="15"/>
@@ -6727,7 +6745,7 @@
       <c r="N194" s="2"/>
       <c r="O194" s="23"/>
     </row>
-    <row r="195" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="195" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A195" s="15"/>
       <c r="B195" s="15"/>
       <c r="C195" s="15"/>
@@ -6744,7 +6762,7 @@
       <c r="N195" s="2"/>
       <c r="O195" s="23"/>
     </row>
-    <row r="196" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="196" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A196" s="15"/>
       <c r="B196" s="15"/>
       <c r="C196" s="15"/>
@@ -6761,7 +6779,7 @@
       <c r="N196" s="2"/>
       <c r="O196" s="23"/>
     </row>
-    <row r="197" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="197" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A197" s="15"/>
       <c r="B197" s="15"/>
       <c r="C197" s="15"/>
@@ -6778,7 +6796,7 @@
       <c r="N197" s="2"/>
       <c r="O197" s="23"/>
     </row>
-    <row r="198" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="198" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A198" s="15"/>
       <c r="B198" s="15"/>
       <c r="C198" s="15"/>
@@ -6795,7 +6813,7 @@
       <c r="N198" s="2"/>
       <c r="O198" s="23"/>
     </row>
-    <row r="199" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="199" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A199" s="15"/>
       <c r="B199" s="15"/>
       <c r="C199" s="15"/>
@@ -6812,7 +6830,7 @@
       <c r="N199" s="2"/>
       <c r="O199" s="23"/>
     </row>
-    <row r="200" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="200" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A200" s="15"/>
       <c r="B200" s="15"/>
       <c r="C200" s="15"/>
@@ -6829,7 +6847,7 @@
       <c r="N200" s="2"/>
       <c r="O200" s="23"/>
     </row>
-    <row r="201" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="201" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A201" s="15"/>
       <c r="B201" s="15"/>
       <c r="C201" s="15"/>
@@ -6846,7 +6864,7 @@
       <c r="N201" s="2"/>
       <c r="O201" s="23"/>
     </row>
-    <row r="202" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="202" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A202" s="15"/>
       <c r="B202" s="15"/>
       <c r="C202" s="15"/>
@@ -6863,7 +6881,7 @@
       <c r="N202" s="2"/>
       <c r="O202" s="23"/>
     </row>
-    <row r="203" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="203" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A203" s="15"/>
       <c r="B203" s="15"/>
       <c r="C203" s="15"/>
@@ -6880,7 +6898,7 @@
       <c r="N203" s="2"/>
       <c r="O203" s="23"/>
     </row>
-    <row r="204" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="204" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A204" s="15"/>
       <c r="B204" s="15"/>
       <c r="C204" s="15"/>
@@ -6897,7 +6915,7 @@
       <c r="N204" s="2"/>
       <c r="O204" s="23"/>
     </row>
-    <row r="205" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A205" s="15"/>
       <c r="B205" s="15"/>
       <c r="C205" s="15"/>
@@ -6914,7 +6932,7 @@
       <c r="N205" s="2"/>
       <c r="O205" s="23"/>
     </row>
-    <row r="206" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="206" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A206" s="15"/>
       <c r="B206" s="15"/>
       <c r="C206" s="15"/>
@@ -6931,7 +6949,7 @@
       <c r="N206" s="2"/>
       <c r="O206" s="23"/>
     </row>
-    <row r="207" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="207" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A207" s="15"/>
       <c r="B207" s="15"/>
       <c r="C207" s="15"/>
@@ -6948,7 +6966,7 @@
       <c r="N207" s="2"/>
       <c r="O207" s="23"/>
     </row>
-    <row r="208" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="208" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A208" s="15"/>
       <c r="B208" s="15"/>
       <c r="C208" s="15"/>
@@ -6965,7 +6983,7 @@
       <c r="N208" s="2"/>
       <c r="O208" s="23"/>
     </row>
-    <row r="209" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="209" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A209" s="15"/>
       <c r="B209" s="15"/>
       <c r="C209" s="15"/>
@@ -6982,7 +7000,7 @@
       <c r="N209" s="2"/>
       <c r="O209" s="23"/>
     </row>
-    <row r="210" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="210" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A210" s="15"/>
       <c r="B210" s="15"/>
       <c r="C210" s="15"/>
@@ -6999,7 +7017,7 @@
       <c r="N210" s="2"/>
       <c r="O210" s="23"/>
     </row>
-    <row r="211" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="211" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A211" s="15"/>
       <c r="B211" s="15"/>
       <c r="C211" s="15"/>
@@ -7016,7 +7034,7 @@
       <c r="N211" s="2"/>
       <c r="O211" s="23"/>
     </row>
-    <row r="212" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="212" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A212" s="15"/>
       <c r="B212" s="15"/>
       <c r="C212" s="15"/>
@@ -7033,7 +7051,7 @@
       <c r="N212" s="2"/>
       <c r="O212" s="23"/>
     </row>
-    <row r="213" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="213" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A213" s="15"/>
       <c r="B213" s="15"/>
       <c r="C213" s="15"/>
@@ -7050,7 +7068,7 @@
       <c r="N213" s="2"/>
       <c r="O213" s="23"/>
     </row>
-    <row r="214" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A214" s="15"/>
       <c r="B214" s="15"/>
       <c r="C214" s="15"/>
@@ -7067,7 +7085,7 @@
       <c r="N214" s="2"/>
       <c r="O214" s="23"/>
     </row>
-    <row r="215" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A215" s="15"/>
       <c r="B215" s="15"/>
       <c r="C215" s="15"/>
@@ -7084,7 +7102,7 @@
       <c r="N215" s="2"/>
       <c r="O215" s="23"/>
     </row>
-    <row r="216" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="216" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A216" s="15"/>
       <c r="B216" s="15"/>
       <c r="C216" s="15"/>
@@ -7101,7 +7119,7 @@
       <c r="N216" s="2"/>
       <c r="O216" s="23"/>
     </row>
-    <row r="217" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="217" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A217" s="15"/>
       <c r="B217" s="15"/>
       <c r="C217" s="15"/>
@@ -7118,7 +7136,7 @@
       <c r="N217" s="2"/>
       <c r="O217" s="23"/>
     </row>
-    <row r="218" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="218" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A218" s="15"/>
       <c r="B218" s="15"/>
       <c r="C218" s="15"/>
@@ -7135,7 +7153,7 @@
       <c r="N218" s="2"/>
       <c r="O218" s="23"/>
     </row>
-    <row r="219" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="219" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A219" s="15"/>
       <c r="B219" s="15"/>
       <c r="C219" s="15"/>
@@ -7152,7 +7170,7 @@
       <c r="N219" s="2"/>
       <c r="O219" s="23"/>
     </row>
-    <row r="220" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="220" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A220" s="15"/>
       <c r="B220" s="15"/>
       <c r="C220" s="15"/>
@@ -7169,7 +7187,7 @@
       <c r="N220" s="2"/>
       <c r="O220" s="23"/>
     </row>
-    <row r="221" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="221" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A221" s="15"/>
       <c r="B221" s="15"/>
       <c r="C221" s="15"/>
@@ -7186,7 +7204,7 @@
       <c r="N221" s="2"/>
       <c r="O221" s="23"/>
     </row>
-    <row r="222" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="222" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A222" s="15"/>
       <c r="B222" s="15"/>
       <c r="C222" s="15"/>
@@ -7203,7 +7221,7 @@
       <c r="N222" s="2"/>
       <c r="O222" s="23"/>
     </row>
-    <row r="223" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="223" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A223" s="15"/>
       <c r="B223" s="15"/>
       <c r="C223" s="15"/>
@@ -7220,7 +7238,7 @@
       <c r="N223" s="2"/>
       <c r="O223" s="23"/>
     </row>
-    <row r="224" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="224" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A224" s="15"/>
       <c r="B224" s="15"/>
       <c r="C224" s="15"/>
@@ -7237,7 +7255,7 @@
       <c r="N224" s="2"/>
       <c r="O224" s="23"/>
     </row>
-    <row r="225" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="225" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A225" s="15"/>
       <c r="B225" s="15"/>
       <c r="C225" s="15"/>
@@ -7254,7 +7272,7 @@
       <c r="N225" s="2"/>
       <c r="O225" s="23"/>
     </row>
-    <row r="226" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="226" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A226" s="15"/>
       <c r="B226" s="15"/>
       <c r="C226" s="15"/>
@@ -7271,7 +7289,7 @@
       <c r="N226" s="2"/>
       <c r="O226" s="23"/>
     </row>
-    <row r="227" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="227" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A227" s="15"/>
       <c r="B227" s="15"/>
       <c r="C227" s="15"/>
@@ -7288,7 +7306,7 @@
       <c r="N227" s="2"/>
       <c r="O227" s="23"/>
     </row>
-    <row r="228" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="228" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A228" s="15"/>
       <c r="B228" s="15"/>
       <c r="C228" s="15"/>
@@ -7305,7 +7323,7 @@
       <c r="N228" s="2"/>
       <c r="O228" s="23"/>
     </row>
-    <row r="229" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="229" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A229" s="15"/>
       <c r="B229" s="15"/>
       <c r="C229" s="15"/>
@@ -7322,7 +7340,7 @@
       <c r="N229" s="2"/>
       <c r="O229" s="23"/>
     </row>
-    <row r="230" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="230" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A230" s="15"/>
       <c r="B230" s="15"/>
       <c r="C230" s="15"/>
@@ -7339,7 +7357,7 @@
       <c r="N230" s="2"/>
       <c r="O230" s="23"/>
     </row>
-    <row r="231" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="231" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A231" s="15"/>
       <c r="B231" s="15"/>
       <c r="C231" s="15"/>
@@ -7356,7 +7374,7 @@
       <c r="N231" s="2"/>
       <c r="O231" s="23"/>
     </row>
-    <row r="232" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="232" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A232" s="15"/>
       <c r="B232" s="15"/>
       <c r="C232" s="15"/>
@@ -7373,7 +7391,7 @@
       <c r="N232" s="2"/>
       <c r="O232" s="23"/>
     </row>
-    <row r="233" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="233" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A233" s="15"/>
       <c r="B233" s="15"/>
       <c r="C233" s="15"/>
@@ -7390,7 +7408,7 @@
       <c r="N233" s="2"/>
       <c r="O233" s="23"/>
     </row>
-    <row r="234" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="234" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A234" s="15"/>
       <c r="B234" s="15"/>
       <c r="C234" s="15"/>
@@ -7407,7 +7425,7 @@
       <c r="N234" s="2"/>
       <c r="O234" s="23"/>
     </row>
-    <row r="235" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="235" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A235" s="15"/>
       <c r="B235" s="15"/>
       <c r="C235" s="15"/>
@@ -7424,7 +7442,7 @@
       <c r="N235" s="2"/>
       <c r="O235" s="23"/>
     </row>
-    <row r="236" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="236" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A236" s="15"/>
       <c r="B236" s="15"/>
       <c r="C236" s="15"/>
@@ -7441,7 +7459,7 @@
       <c r="N236" s="2"/>
       <c r="O236" s="23"/>
     </row>
-    <row r="237" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="237" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A237" s="15"/>
       <c r="B237" s="15"/>
       <c r="C237" s="15"/>
@@ -7458,7 +7476,7 @@
       <c r="N237" s="2"/>
       <c r="O237" s="23"/>
     </row>
-    <row r="238" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="238" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A238" s="15"/>
       <c r="B238" s="15"/>
       <c r="C238" s="15"/>
@@ -7475,7 +7493,7 @@
       <c r="N238" s="2"/>
       <c r="O238" s="23"/>
     </row>
-    <row r="239" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="239" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A239" s="15"/>
       <c r="B239" s="15"/>
       <c r="C239" s="15"/>
@@ -7492,7 +7510,7 @@
       <c r="N239" s="2"/>
       <c r="O239" s="23"/>
     </row>
-    <row r="240" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="240" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A240" s="15"/>
       <c r="B240" s="15"/>
       <c r="C240" s="15"/>
@@ -7509,7 +7527,7 @@
       <c r="N240" s="2"/>
       <c r="O240" s="23"/>
     </row>
-    <row r="241" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="241" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A241" s="15"/>
       <c r="B241" s="15"/>
       <c r="C241" s="15"/>
@@ -7526,7 +7544,7 @@
       <c r="N241" s="2"/>
       <c r="O241" s="23"/>
     </row>
-    <row r="242" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="242" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A242" s="15"/>
       <c r="B242" s="15"/>
       <c r="C242" s="15"/>
@@ -7543,7 +7561,7 @@
       <c r="N242" s="2"/>
       <c r="O242" s="23"/>
     </row>
-    <row r="243" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="243" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A243" s="15"/>
       <c r="B243" s="15"/>
       <c r="C243" s="15"/>
@@ -7560,7 +7578,7 @@
       <c r="N243" s="2"/>
       <c r="O243" s="23"/>
     </row>
-    <row r="244" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="244" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A244" s="15"/>
       <c r="B244" s="15"/>
       <c r="C244" s="15"/>
@@ -7577,7 +7595,7 @@
       <c r="N244" s="2"/>
       <c r="O244" s="23"/>
     </row>
-    <row r="245" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="245" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A245" s="15"/>
       <c r="B245" s="15"/>
       <c r="C245" s="15"/>
@@ -7594,7 +7612,7 @@
       <c r="N245" s="2"/>
       <c r="O245" s="23"/>
     </row>
-    <row r="246" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="246" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A246" s="15"/>
       <c r="B246" s="15"/>
       <c r="C246" s="15"/>
@@ -7611,7 +7629,7 @@
       <c r="N246" s="2"/>
       <c r="O246" s="23"/>
     </row>
-    <row r="247" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="247" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A247" s="15"/>
       <c r="B247" s="15"/>
       <c r="C247" s="15"/>
@@ -7628,7 +7646,7 @@
       <c r="N247" s="2"/>
       <c r="O247" s="23"/>
     </row>
-    <row r="248" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="248" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A248" s="15"/>
       <c r="B248" s="15"/>
       <c r="C248" s="15"/>
@@ -7645,7 +7663,7 @@
       <c r="N248" s="2"/>
       <c r="O248" s="23"/>
     </row>
-    <row r="249" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="249" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A249" s="15"/>
       <c r="B249" s="15"/>
       <c r="C249" s="15"/>
@@ -7662,7 +7680,7 @@
       <c r="N249" s="2"/>
       <c r="O249" s="23"/>
     </row>
-    <row r="250" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="250" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A250" s="15"/>
       <c r="B250" s="15"/>
       <c r="C250" s="15"/>
@@ -7679,7 +7697,7 @@
       <c r="N250" s="2"/>
       <c r="O250" s="23"/>
     </row>
-    <row r="251" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="251" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A251" s="15"/>
       <c r="B251" s="15"/>
       <c r="C251" s="15"/>
@@ -7696,7 +7714,7 @@
       <c r="N251" s="2"/>
       <c r="O251" s="23"/>
     </row>
-    <row r="252" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="252" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A252" s="15"/>
       <c r="B252" s="15"/>
       <c r="C252" s="15"/>
@@ -7713,7 +7731,7 @@
       <c r="N252" s="2"/>
       <c r="O252" s="23"/>
     </row>
-    <row r="253" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="253" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A253" s="15"/>
       <c r="B253" s="15"/>
       <c r="C253" s="15"/>
@@ -7730,7 +7748,7 @@
       <c r="N253" s="2"/>
       <c r="O253" s="23"/>
     </row>
-    <row r="254" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="254" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A254" s="15"/>
       <c r="B254" s="15"/>
       <c r="C254" s="15"/>
@@ -7747,7 +7765,7 @@
       <c r="N254" s="2"/>
       <c r="O254" s="23"/>
     </row>
-    <row r="255" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="255" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A255" s="15"/>
       <c r="B255" s="15"/>
       <c r="C255" s="15"/>
@@ -7764,7 +7782,7 @@
       <c r="N255" s="2"/>
       <c r="O255" s="23"/>
     </row>
-    <row r="256" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="256" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A256" s="15"/>
       <c r="B256" s="15"/>
       <c r="C256" s="15"/>
@@ -7781,7 +7799,7 @@
       <c r="N256" s="2"/>
       <c r="O256" s="23"/>
     </row>
-    <row r="257" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="257" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A257" s="15"/>
       <c r="B257" s="15"/>
       <c r="C257" s="15"/>
@@ -7798,7 +7816,7 @@
       <c r="N257" s="2"/>
       <c r="O257" s="23"/>
     </row>
-    <row r="258" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="258" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A258" s="15"/>
       <c r="B258" s="15"/>
       <c r="C258" s="15"/>
@@ -7815,7 +7833,7 @@
       <c r="N258" s="2"/>
       <c r="O258" s="23"/>
     </row>
-    <row r="259" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="259" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A259" s="15"/>
       <c r="B259" s="15"/>
       <c r="C259" s="15"/>
@@ -7832,7 +7850,7 @@
       <c r="N259" s="2"/>
       <c r="O259" s="23"/>
     </row>
-    <row r="260" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="260" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A260" s="15"/>
       <c r="B260" s="15"/>
       <c r="C260" s="15"/>
@@ -7849,7 +7867,7 @@
       <c r="N260" s="2"/>
       <c r="O260" s="23"/>
     </row>
-    <row r="261" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="261" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A261" s="15"/>
       <c r="B261" s="15"/>
       <c r="C261" s="15"/>
@@ -7866,7 +7884,7 @@
       <c r="N261" s="2"/>
       <c r="O261" s="23"/>
     </row>
-    <row r="262" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="262" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A262" s="15"/>
       <c r="B262" s="15"/>
       <c r="C262" s="15"/>
@@ -7883,7 +7901,7 @@
       <c r="N262" s="2"/>
       <c r="O262" s="23"/>
     </row>
-    <row r="263" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="263" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A263" s="15"/>
       <c r="B263" s="15"/>
       <c r="C263" s="15"/>
@@ -7900,7 +7918,7 @@
       <c r="N263" s="2"/>
       <c r="O263" s="23"/>
     </row>
-    <row r="264" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="264" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A264" s="15"/>
       <c r="B264" s="15"/>
       <c r="C264" s="15"/>
@@ -7917,7 +7935,7 @@
       <c r="N264" s="2"/>
       <c r="O264" s="23"/>
     </row>
-    <row r="265" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="265" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A265" s="15"/>
       <c r="B265" s="15"/>
       <c r="C265" s="15"/>
@@ -7934,7 +7952,7 @@
       <c r="N265" s="2"/>
       <c r="O265" s="23"/>
     </row>
-    <row r="266" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="266" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A266" s="15"/>
       <c r="B266" s="15"/>
       <c r="C266" s="15"/>
@@ -7951,7 +7969,7 @@
       <c r="N266" s="2"/>
       <c r="O266" s="23"/>
     </row>
-    <row r="267" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="267" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A267" s="15"/>
       <c r="B267" s="15"/>
       <c r="C267" s="15"/>
@@ -7968,7 +7986,7 @@
       <c r="N267" s="2"/>
       <c r="O267" s="23"/>
     </row>
-    <row r="268" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="268" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A268" s="15"/>
       <c r="B268" s="15"/>
       <c r="C268" s="15"/>
@@ -7985,7 +8003,7 @@
       <c r="N268" s="2"/>
       <c r="O268" s="23"/>
     </row>
-    <row r="269" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="269" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A269" s="15"/>
       <c r="B269" s="15"/>
       <c r="C269" s="15"/>
@@ -8002,7 +8020,7 @@
       <c r="N269" s="2"/>
       <c r="O269" s="23"/>
     </row>
-    <row r="270" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="270" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A270" s="15"/>
       <c r="B270" s="15"/>
       <c r="C270" s="15"/>
@@ -8019,7 +8037,7 @@
       <c r="N270" s="2"/>
       <c r="O270" s="23"/>
     </row>
-    <row r="271" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="271" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A271" s="15"/>
       <c r="B271" s="15"/>
       <c r="C271" s="15"/>
@@ -8036,7 +8054,7 @@
       <c r="N271" s="2"/>
       <c r="O271" s="23"/>
     </row>
-    <row r="272" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="272" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A272" s="15"/>
       <c r="B272" s="15"/>
       <c r="C272" s="15"/>
@@ -8053,7 +8071,7 @@
       <c r="N272" s="2"/>
       <c r="O272" s="23"/>
     </row>
-    <row r="273" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="273" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A273" s="15"/>
       <c r="B273" s="15"/>
       <c r="C273" s="15"/>
@@ -8070,7 +8088,7 @@
       <c r="N273" s="2"/>
       <c r="O273" s="23"/>
     </row>
-    <row r="274" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="274" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A274" s="15"/>
       <c r="B274" s="15"/>
       <c r="C274" s="15"/>
@@ -8087,7 +8105,7 @@
       <c r="N274" s="2"/>
       <c r="O274" s="23"/>
     </row>
-    <row r="275" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="275" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A275" s="15"/>
       <c r="B275" s="15"/>
       <c r="C275" s="15"/>
@@ -8104,7 +8122,7 @@
       <c r="N275" s="2"/>
       <c r="O275" s="23"/>
     </row>
-    <row r="276" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="276" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A276" s="15"/>
       <c r="B276" s="15"/>
       <c r="C276" s="15"/>
@@ -8121,7 +8139,7 @@
       <c r="N276" s="2"/>
       <c r="O276" s="23"/>
     </row>
-    <row r="277" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="277" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A277" s="15"/>
       <c r="B277" s="15"/>
       <c r="C277" s="15"/>
@@ -8138,7 +8156,7 @@
       <c r="N277" s="2"/>
       <c r="O277" s="23"/>
     </row>
-    <row r="278" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="278" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A278" s="15"/>
       <c r="B278" s="15"/>
       <c r="C278" s="15"/>
@@ -8155,7 +8173,7 @@
       <c r="N278" s="2"/>
       <c r="O278" s="23"/>
     </row>
-    <row r="279" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="279" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A279" s="15"/>
       <c r="B279" s="15"/>
       <c r="C279" s="15"/>
@@ -8172,7 +8190,7 @@
       <c r="N279" s="2"/>
       <c r="O279" s="23"/>
     </row>
-    <row r="280" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="280" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A280" s="15"/>
       <c r="B280" s="15"/>
       <c r="C280" s="15"/>
@@ -8189,7 +8207,7 @@
       <c r="N280" s="2"/>
       <c r="O280" s="23"/>
     </row>
-    <row r="281" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="281" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A281" s="15"/>
       <c r="B281" s="15"/>
       <c r="C281" s="15"/>
@@ -8206,7 +8224,7 @@
       <c r="N281" s="2"/>
       <c r="O281" s="23"/>
     </row>
-    <row r="282" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="282" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A282" s="15"/>
       <c r="B282" s="15"/>
       <c r="C282" s="15"/>
@@ -8223,7 +8241,7 @@
       <c r="N282" s="2"/>
       <c r="O282" s="23"/>
     </row>
-    <row r="283" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="283" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A283" s="15"/>
       <c r="B283" s="15"/>
       <c r="C283" s="15"/>
@@ -8240,7 +8258,7 @@
       <c r="N283" s="2"/>
       <c r="O283" s="23"/>
     </row>
-    <row r="284" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="284" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A284" s="15"/>
       <c r="B284" s="15"/>
       <c r="C284" s="15"/>
@@ -8257,7 +8275,7 @@
       <c r="N284" s="2"/>
       <c r="O284" s="23"/>
     </row>
-    <row r="285" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="285" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A285" s="15"/>
       <c r="B285" s="15"/>
       <c r="C285" s="15"/>
@@ -8274,7 +8292,7 @@
       <c r="N285" s="2"/>
       <c r="O285" s="23"/>
     </row>
-    <row r="286" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="286" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A286" s="15"/>
       <c r="B286" s="15"/>
       <c r="C286" s="15"/>
@@ -8291,7 +8309,7 @@
       <c r="N286" s="2"/>
       <c r="O286" s="23"/>
     </row>
-    <row r="287" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="287" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A287" s="15"/>
       <c r="B287" s="15"/>
       <c r="C287" s="15"/>
@@ -8308,7 +8326,7 @@
       <c r="N287" s="2"/>
       <c r="O287" s="23"/>
     </row>
-    <row r="288" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="288" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A288" s="15"/>
       <c r="B288" s="15"/>
       <c r="C288" s="15"/>
@@ -8325,7 +8343,7 @@
       <c r="N288" s="2"/>
       <c r="O288" s="23"/>
     </row>
-    <row r="289" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="289" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A289" s="15"/>
       <c r="B289" s="15"/>
       <c r="C289" s="15"/>
@@ -8342,7 +8360,7 @@
       <c r="N289" s="2"/>
       <c r="O289" s="23"/>
     </row>
-    <row r="290" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="290" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A290" s="15"/>
       <c r="B290" s="15"/>
       <c r="C290" s="15"/>
@@ -8359,7 +8377,7 @@
       <c r="N290" s="2"/>
       <c r="O290" s="23"/>
     </row>
-    <row r="291" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="291" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A291" s="15"/>
       <c r="B291" s="15"/>
       <c r="C291" s="15"/>
@@ -8376,7 +8394,7 @@
       <c r="N291" s="2"/>
       <c r="O291" s="23"/>
     </row>
-    <row r="292" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="292" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A292" s="15"/>
       <c r="B292" s="15"/>
       <c r="C292" s="15"/>
@@ -8393,7 +8411,7 @@
       <c r="N292" s="2"/>
       <c r="O292" s="23"/>
     </row>
-    <row r="293" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="293" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A293" s="15"/>
       <c r="B293" s="15"/>
       <c r="C293" s="15"/>
@@ -8410,7 +8428,7 @@
       <c r="N293" s="2"/>
       <c r="O293" s="23"/>
     </row>
-    <row r="294" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="294" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A294" s="15"/>
       <c r="B294" s="15"/>
       <c r="C294" s="15"/>
@@ -8427,7 +8445,7 @@
       <c r="N294" s="2"/>
       <c r="O294" s="23"/>
     </row>
-    <row r="295" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="295" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A295" s="15"/>
       <c r="B295" s="15"/>
       <c r="C295" s="15"/>
@@ -8444,7 +8462,7 @@
       <c r="N295" s="2"/>
       <c r="O295" s="23"/>
     </row>
-    <row r="296" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="296" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A296" s="15"/>
       <c r="B296" s="15"/>
       <c r="C296" s="15"/>
@@ -8461,7 +8479,7 @@
       <c r="N296" s="2"/>
       <c r="O296" s="23"/>
     </row>
-    <row r="297" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="297" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A297" s="15"/>
       <c r="B297" s="15"/>
       <c r="C297" s="15"/>
@@ -8478,7 +8496,7 @@
       <c r="N297" s="2"/>
       <c r="O297" s="23"/>
     </row>
-    <row r="298" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="298" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A298" s="15"/>
       <c r="B298" s="15"/>
       <c r="C298" s="15"/>
@@ -8495,7 +8513,7 @@
       <c r="N298" s="2"/>
       <c r="O298" s="23"/>
     </row>
-    <row r="299" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="299" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A299" s="15"/>
       <c r="B299" s="15"/>
       <c r="C299" s="15"/>
@@ -8512,7 +8530,7 @@
       <c r="N299" s="2"/>
       <c r="O299" s="23"/>
     </row>
-    <row r="300" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="300" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A300" s="15"/>
       <c r="B300" s="15"/>
       <c r="C300" s="15"/>
@@ -8529,7 +8547,7 @@
       <c r="N300" s="2"/>
       <c r="O300" s="23"/>
     </row>
-    <row r="301" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="301" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A301" s="15"/>
       <c r="B301" s="15"/>
       <c r="C301" s="15"/>
@@ -8546,7 +8564,7 @@
       <c r="N301" s="2"/>
       <c r="O301" s="23"/>
     </row>
-    <row r="302" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="302" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A302" s="15"/>
       <c r="B302" s="15"/>
       <c r="C302" s="15"/>
@@ -8563,7 +8581,7 @@
       <c r="N302" s="2"/>
       <c r="O302" s="23"/>
     </row>
-    <row r="303" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="303" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A303" s="15"/>
       <c r="B303" s="15"/>
       <c r="C303" s="15"/>
@@ -8580,7 +8598,7 @@
       <c r="N303" s="2"/>
       <c r="O303" s="23"/>
     </row>
-    <row r="304" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="304" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A304" s="15"/>
       <c r="B304" s="15"/>
       <c r="C304" s="15"/>
@@ -8597,7 +8615,7 @@
       <c r="N304" s="2"/>
       <c r="O304" s="23"/>
     </row>
-    <row r="305" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="305" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A305" s="15"/>
       <c r="B305" s="15"/>
       <c r="C305" s="15"/>
@@ -8614,7 +8632,7 @@
       <c r="N305" s="2"/>
       <c r="O305" s="23"/>
     </row>
-    <row r="306" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="306" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A306" s="15"/>
       <c r="B306" s="15"/>
       <c r="C306" s="15"/>
@@ -8631,7 +8649,7 @@
       <c r="N306" s="2"/>
       <c r="O306" s="23"/>
     </row>
-    <row r="307" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="307" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A307" s="15"/>
       <c r="B307" s="15"/>
       <c r="C307" s="15"/>
@@ -8648,7 +8666,7 @@
       <c r="N307" s="2"/>
       <c r="O307" s="23"/>
     </row>
-    <row r="308" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="308" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A308" s="15"/>
       <c r="B308" s="15"/>
       <c r="C308" s="15"/>
@@ -8665,7 +8683,7 @@
       <c r="N308" s="2"/>
       <c r="O308" s="23"/>
     </row>
-    <row r="309" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="309" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A309" s="15"/>
       <c r="B309" s="15"/>
       <c r="C309" s="15"/>
@@ -8682,7 +8700,7 @@
       <c r="N309" s="2"/>
       <c r="O309" s="23"/>
     </row>
-    <row r="310" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="310" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A310" s="15"/>
       <c r="B310" s="15"/>
       <c r="C310" s="15"/>
@@ -8699,7 +8717,7 @@
       <c r="N310" s="2"/>
       <c r="O310" s="23"/>
     </row>
-    <row r="311" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="311" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A311" s="15"/>
       <c r="B311" s="15"/>
       <c r="C311" s="15"/>
@@ -8716,7 +8734,7 @@
       <c r="N311" s="2"/>
       <c r="O311" s="23"/>
     </row>
-    <row r="312" spans="1:15" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="312" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A312" s="15"/>
       <c r="B312" s="15"/>
       <c r="C312" s="